--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdebasto\Desktop\GitHub\fovt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712CE62E-8ACA-8E47-A1E1-1C8BF6B0F456}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B474C716-1625-4B07-B545-4B0DEB1FC813}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16660" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="1159">
   <si>
     <t>Status</t>
   </si>
@@ -2245,15 +2245,6 @@
     <t>width' and (('inheres in' some 'molar 3 tooth') and ('part of' some 'upper jaw dentition')) or ('inheres in' some 'upper third secondary molar tooth')</t>
   </si>
   <si>
-    <t>Medapodial Length',#fovt name?</t>
-  </si>
-  <si>
-    <t>Medapodial Width AP',#fovt name?</t>
-  </si>
-  <si>
-    <t>Medapodial Width ML',#fovt name?</t>
-  </si>
-  <si>
     <t>tibia M8</t>
   </si>
   <si>
@@ -2366,15 +2357,6 @@
   </si>
   <si>
     <t>Femur Width Proxial 2 (less trochanter to head)</t>
-  </si>
-  <si>
-    <t>Medapodial Length</t>
-  </si>
-  <si>
-    <t>Medapodial Width AP</t>
-  </si>
-  <si>
-    <t>Medapodial Width ML</t>
   </si>
   <si>
     <t>anterior margin of premaxilla</t>
@@ -3581,6 +3563,21 @@
   </si>
   <si>
     <t>Structure</t>
+  </si>
+  <si>
+    <t>Metapodial Length',#fovt name?</t>
+  </si>
+  <si>
+    <t>Metapodial Width AP',#fovt name?</t>
+  </si>
+  <si>
+    <t>Metapodial Width ML',#fovt name?</t>
+  </si>
+  <si>
+    <t>metapodial skeleton</t>
+  </si>
+  <si>
+    <t>distal surface some metacarpal bone</t>
   </si>
 </sst>
 </file>
@@ -3721,15 +3718,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3737,6 +3728,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4058,7 +4055,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
@@ -4090,22 +4087,22 @@
   <dimension ref="A1:AD531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="N43" sqref="N43"/>
+      <selection pane="bottomLeft" activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>165</v>
@@ -4117,7 +4114,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -4163,14 +4160,14 @@
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="16" t="s">
-        <v>1048</v>
+      <c r="A2" s="22" t="s">
+        <v>1042</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
@@ -4211,12 +4208,12 @@
       <c r="AD2" s="2"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="16"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
@@ -4257,12 +4254,12 @@
       <c r="AD3" s="2"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="16"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -4303,7 +4300,7 @@
       <c r="AD4" s="2"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="16"/>
+      <c r="A5" s="22"/>
       <c r="E5" s="2" t="s">
         <v>344</v>
       </c>
@@ -4333,7 +4330,7 @@
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:30" s="11" customFormat="1">
-      <c r="A6" s="16"/>
+      <c r="A6" s="22"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
         <v>344</v>
@@ -4342,7 +4339,7 @@
         <v>123</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10" t="s">
@@ -4366,12 +4363,12 @@
       <c r="U6" s="10"/>
     </row>
     <row r="7" spans="1:30" s="11" customFormat="1">
-      <c r="A7" s="16"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="10" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
@@ -4381,7 +4378,7 @@
         <v>123</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>124</v>
@@ -4420,10 +4417,10 @@
       <c r="AD7" s="10"/>
     </row>
     <row r="8" spans="1:30" s="11" customFormat="1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
@@ -4433,7 +4430,7 @@
         <v>123</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>130</v>
@@ -4472,14 +4469,14 @@
       <c r="AD8" s="10"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="16" t="s">
-        <v>1049</v>
+      <c r="A9" s="22" t="s">
+        <v>1043</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
@@ -4520,12 +4517,12 @@
       <c r="AD9" s="2"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="16"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
@@ -4566,12 +4563,12 @@
       <c r="AD10" s="2"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="16"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
@@ -4612,12 +4609,12 @@
       <c r="AD11" s="2"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="16"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -4658,12 +4655,12 @@
       <c r="AD12" s="2"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="16"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
@@ -4704,10 +4701,10 @@
       <c r="AD13" s="2"/>
     </row>
     <row r="14" spans="1:30" s="11" customFormat="1">
-      <c r="A14" s="16"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10" t="s">
@@ -4729,7 +4726,7 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>137</v>
@@ -4754,10 +4751,10 @@
       <c r="AD14" s="10"/>
     </row>
     <row r="15" spans="1:30" s="11" customFormat="1">
-      <c r="A15" s="16"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
@@ -4779,7 +4776,7 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>140</v>
@@ -4802,12 +4799,12 @@
       <c r="AD15" s="10"/>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="16"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
@@ -4848,10 +4845,10 @@
       <c r="AD16" s="2"/>
     </row>
     <row r="17" spans="1:30" s="11" customFormat="1">
-      <c r="A17" s="16"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10" t="s">
@@ -4861,7 +4858,7 @@
         <v>123</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>141</v>
@@ -4875,7 +4872,7 @@
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>144</v>
@@ -4900,19 +4897,19 @@
       <c r="AD17" s="10"/>
     </row>
     <row r="18" spans="1:30" s="11" customFormat="1">
-      <c r="A18" s="16"/>
+      <c r="A18" s="22"/>
       <c r="C18" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>123</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="16"/>
+      <c r="A19" s="22"/>
       <c r="E19" s="1" t="s">
         <v>344</v>
       </c>
@@ -4922,11 +4919,11 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="1" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="1" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -4940,7 +4937,7 @@
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="16"/>
+      <c r="A20" s="22"/>
       <c r="E20" s="1" t="s">
         <v>344</v>
       </c>
@@ -4950,11 +4947,11 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="1" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -4968,7 +4965,7 @@
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="16"/>
+      <c r="A21" s="22"/>
       <c r="E21" s="1" t="s">
         <v>344</v>
       </c>
@@ -4978,11 +4975,11 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="1" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="1" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -4996,7 +4993,7 @@
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="16"/>
+      <c r="A22" s="22"/>
       <c r="E22" s="1" t="s">
         <v>344</v>
       </c>
@@ -5021,7 +5018,7 @@
       <c r="S22" s="2"/>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="16"/>
+      <c r="A23" s="22"/>
       <c r="E23" s="1" t="s">
         <v>344</v>
       </c>
@@ -5046,13 +5043,13 @@
       <c r="S23" s="2"/>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="16" t="s">
-        <v>1050</v>
+      <c r="A24" s="22" t="s">
+        <v>1044</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="7" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="H24" s="2"/>
       <c r="J24" s="2"/>
@@ -5069,11 +5066,11 @@
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="16"/>
+      <c r="A25" s="22"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="7" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="H25" s="2"/>
       <c r="J25" s="2"/>
@@ -5090,11 +5087,11 @@
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="16"/>
+      <c r="A26" s="22"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="7" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="H26" s="2"/>
       <c r="J26" s="2"/>
@@ -5111,11 +5108,11 @@
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="16"/>
+      <c r="A27" s="22"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="7" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="H27" s="2"/>
       <c r="J27" s="2"/>
@@ -5132,11 +5129,11 @@
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" s="16"/>
+      <c r="A28" s="22"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="H28" s="2"/>
       <c r="J28" s="2"/>
@@ -5153,11 +5150,11 @@
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="16"/>
+      <c r="A29" s="22"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="7" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="H29" s="2"/>
       <c r="J29" s="2"/>
@@ -5174,12 +5171,12 @@
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="1:30">
-      <c r="A30" s="16"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
@@ -5220,12 +5217,12 @@
       <c r="AD30" s="2"/>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="16"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
@@ -5266,12 +5263,12 @@
       <c r="AD31" s="2"/>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32" s="16"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
@@ -5312,12 +5309,12 @@
       <c r="AD32" s="2"/>
     </row>
     <row r="33" spans="1:30">
-      <c r="A33" s="16"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
@@ -5360,12 +5357,12 @@
       <c r="AD33" s="2"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="16"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
@@ -5408,10 +5405,10 @@
       <c r="AD34" s="2"/>
     </row>
     <row r="35" spans="1:30" s="11" customFormat="1">
-      <c r="A35" s="16"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10" t="s">
@@ -5421,7 +5418,7 @@
         <v>123</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>145</v>
@@ -5460,10 +5457,10 @@
       <c r="AD35" s="10"/>
     </row>
     <row r="36" spans="1:30" s="11" customFormat="1">
-      <c r="A36" s="16"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10" t="s">
@@ -5473,7 +5470,7 @@
         <v>123</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>145</v>
@@ -5512,7 +5509,7 @@
       <c r="AD36" s="10"/>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="16"/>
+      <c r="A37" s="22"/>
       <c r="E37" s="1" t="s">
         <v>15</v>
       </c>
@@ -5538,7 +5535,7 @@
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="1:30">
-      <c r="A38" s="16"/>
+      <c r="A38" s="22"/>
       <c r="E38" s="1" t="s">
         <v>344</v>
       </c>
@@ -5563,7 +5560,7 @@
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="1:30">
-      <c r="A39" s="16"/>
+      <c r="A39" s="22"/>
       <c r="E39" s="1" t="s">
         <v>344</v>
       </c>
@@ -5588,7 +5585,7 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="1:30">
-      <c r="A40" s="16"/>
+      <c r="A40" s="22"/>
       <c r="E40" s="1" t="s">
         <v>344</v>
       </c>
@@ -5613,7 +5610,7 @@
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="1:30">
-      <c r="A41" s="16"/>
+      <c r="A41" s="22"/>
       <c r="E41" s="1" t="s">
         <v>344</v>
       </c>
@@ -5638,7 +5635,7 @@
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="1:30">
-      <c r="A42" s="16"/>
+      <c r="A42" s="22"/>
       <c r="E42" s="1" t="s">
         <v>344</v>
       </c>
@@ -5662,9 +5659,9 @@
       <c r="S42" s="2"/>
     </row>
     <row r="43" spans="1:30" s="11" customFormat="1">
-      <c r="A43" s="16"/>
+      <c r="A43" s="22"/>
       <c r="C43" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>344</v>
@@ -5693,9 +5690,9 @@
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:30" s="11" customFormat="1">
-      <c r="A44" s="16"/>
+      <c r="A44" s="22"/>
       <c r="C44" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>344</v>
@@ -5726,9 +5723,9 @@
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:30" s="11" customFormat="1">
-      <c r="A45" s="16"/>
+      <c r="A45" s="22"/>
       <c r="C45" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>344</v>
@@ -5759,9 +5756,9 @@
       <c r="U45" s="10"/>
     </row>
     <row r="46" spans="1:30" s="11" customFormat="1">
-      <c r="A46" s="16"/>
+      <c r="A46" s="22"/>
       <c r="C46" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>344</v>
@@ -5790,9 +5787,9 @@
       <c r="U46" s="10"/>
     </row>
     <row r="47" spans="1:30" s="11" customFormat="1">
-      <c r="A47" s="16"/>
+      <c r="A47" s="22"/>
       <c r="C47" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>344</v>
@@ -5823,9 +5820,9 @@
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:30" s="11" customFormat="1">
-      <c r="A48" s="16"/>
+      <c r="A48" s="22"/>
       <c r="C48" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>344</v>
@@ -5854,9 +5851,9 @@
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:30" s="11" customFormat="1">
-      <c r="A49" s="16"/>
+      <c r="A49" s="22"/>
       <c r="C49" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>344</v>
@@ -5885,9 +5882,9 @@
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:30" s="11" customFormat="1">
-      <c r="A50" s="16"/>
+      <c r="A50" s="22"/>
       <c r="C50" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>344</v>
@@ -5918,9 +5915,9 @@
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:30" s="11" customFormat="1">
-      <c r="A51" s="16"/>
+      <c r="A51" s="22"/>
       <c r="C51" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>344</v>
@@ -5951,9 +5948,9 @@
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:30" s="11" customFormat="1">
-      <c r="A52" s="16"/>
+      <c r="A52" s="22"/>
       <c r="C52" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>344</v>
@@ -5984,14 +5981,14 @@
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:30">
-      <c r="A53" s="16" t="s">
-        <v>1051</v>
+      <c r="A53" s="22" t="s">
+        <v>1045</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
@@ -6032,12 +6029,12 @@
       <c r="AD53" s="2"/>
     </row>
     <row r="54" spans="1:30">
-      <c r="A54" s="16"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
@@ -6078,12 +6075,12 @@
       <c r="AD54" s="2"/>
     </row>
     <row r="55" spans="1:30">
-      <c r="A55" s="16"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
@@ -6124,12 +6121,12 @@
       <c r="AD55" s="2"/>
     </row>
     <row r="56" spans="1:30">
-      <c r="A56" s="16"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
@@ -6172,12 +6169,12 @@
       <c r="AD56" s="2"/>
     </row>
     <row r="57" spans="1:30">
-      <c r="A57" s="16"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
@@ -6220,10 +6217,10 @@
       <c r="AD57" s="2"/>
     </row>
     <row r="58" spans="1:30" s="11" customFormat="1">
-      <c r="A58" s="16"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="10" t="s">
@@ -6233,7 +6230,7 @@
         <v>123</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="H58" s="10" t="s">
         <v>153</v>
@@ -6272,10 +6269,10 @@
       <c r="AD58" s="10"/>
     </row>
     <row r="59" spans="1:30" s="11" customFormat="1">
-      <c r="A59" s="16"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="10" t="s">
@@ -6285,7 +6282,7 @@
         <v>123</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="H59" s="10" t="s">
         <v>153</v>
@@ -6324,13 +6321,13 @@
       <c r="AD59" s="10"/>
     </row>
     <row r="60" spans="1:30" s="11" customFormat="1">
-      <c r="A60" s="16"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
@@ -6347,7 +6344,7 @@
       <c r="U60" s="10"/>
     </row>
     <row r="61" spans="1:30">
-      <c r="A61" s="16"/>
+      <c r="A61" s="22"/>
       <c r="E61" s="1" t="s">
         <v>15</v>
       </c>
@@ -6370,7 +6367,7 @@
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="1:30">
-      <c r="A62" s="16"/>
+      <c r="A62" s="22"/>
       <c r="E62" s="1" t="s">
         <v>344</v>
       </c>
@@ -6394,7 +6391,7 @@
       <c r="S62" s="2"/>
     </row>
     <row r="63" spans="1:30">
-      <c r="A63" s="16"/>
+      <c r="A63" s="22"/>
       <c r="E63" s="1" t="s">
         <v>344</v>
       </c>
@@ -6418,7 +6415,7 @@
       <c r="S63" s="2"/>
     </row>
     <row r="64" spans="1:30">
-      <c r="A64" s="16"/>
+      <c r="A64" s="22"/>
       <c r="E64" s="1" t="s">
         <v>344</v>
       </c>
@@ -6442,7 +6439,7 @@
       <c r="S64" s="2"/>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="16"/>
+      <c r="A65" s="22"/>
       <c r="E65" s="1" t="s">
         <v>344</v>
       </c>
@@ -6466,7 +6463,7 @@
       <c r="S65" s="2"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="16"/>
+      <c r="A66" s="22"/>
       <c r="E66" s="1" t="s">
         <v>344</v>
       </c>
@@ -6490,7 +6487,7 @@
       <c r="S66" s="2"/>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="16"/>
+      <c r="A67" s="22"/>
       <c r="E67" s="1" t="s">
         <v>344</v>
       </c>
@@ -6514,7 +6511,7 @@
       <c r="S67" s="2"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="16"/>
+      <c r="A68" s="22"/>
       <c r="E68" s="1" t="s">
         <v>344</v>
       </c>
@@ -6537,7 +6534,7 @@
       <c r="R68" s="2"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="16"/>
+      <c r="A69" s="22"/>
       <c r="E69" s="1" t="s">
         <v>344</v>
       </c>
@@ -6561,7 +6558,7 @@
       <c r="S69" s="2"/>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="16"/>
+      <c r="A70" s="22"/>
       <c r="E70" s="1" t="s">
         <v>15</v>
       </c>
@@ -6587,9 +6584,9 @@
       <c r="P70" s="2"/>
     </row>
     <row r="71" spans="1:21" s="11" customFormat="1">
-      <c r="A71" s="16"/>
+      <c r="A71" s="22"/>
       <c r="C71" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>344</v>
@@ -6618,9 +6615,9 @@
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="1:21" s="11" customFormat="1">
-      <c r="A72" s="16"/>
+      <c r="A72" s="22"/>
       <c r="C72" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>344</v>
@@ -6651,9 +6648,9 @@
       <c r="U72" s="10"/>
     </row>
     <row r="73" spans="1:21" s="11" customFormat="1">
-      <c r="A73" s="16"/>
+      <c r="A73" s="22"/>
       <c r="C73" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>344</v>
@@ -6684,9 +6681,9 @@
       <c r="U73" s="10"/>
     </row>
     <row r="74" spans="1:21" s="11" customFormat="1">
-      <c r="A74" s="16"/>
+      <c r="A74" s="22"/>
       <c r="C74" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>344</v>
@@ -6717,9 +6714,9 @@
       <c r="U74" s="10"/>
     </row>
     <row r="75" spans="1:21" s="11" customFormat="1">
-      <c r="A75" s="16"/>
+      <c r="A75" s="22"/>
       <c r="C75" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>344</v>
@@ -6750,9 +6747,9 @@
       <c r="U75" s="10"/>
     </row>
     <row r="76" spans="1:21" s="11" customFormat="1">
-      <c r="A76" s="16"/>
+      <c r="A76" s="22"/>
       <c r="C76" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>344</v>
@@ -6783,9 +6780,9 @@
       <c r="U76" s="10"/>
     </row>
     <row r="77" spans="1:21" s="11" customFormat="1">
-      <c r="A77" s="16"/>
+      <c r="A77" s="22"/>
       <c r="C77" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>344</v>
@@ -6814,9 +6811,9 @@
       <c r="U77" s="10"/>
     </row>
     <row r="78" spans="1:21" s="11" customFormat="1">
-      <c r="A78" s="16"/>
+      <c r="A78" s="22"/>
       <c r="C78" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>344</v>
@@ -6847,9 +6844,9 @@
       <c r="U78" s="10"/>
     </row>
     <row r="79" spans="1:21" s="11" customFormat="1">
-      <c r="A79" s="16"/>
+      <c r="A79" s="22"/>
       <c r="C79" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
@@ -6875,35 +6872,35 @@
       <c r="T79" s="10"/>
       <c r="U79" s="10"/>
     </row>
-    <row r="80" spans="1:21" s="17" customFormat="1">
-      <c r="A80" s="16"/>
-      <c r="B80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
+    <row r="80" spans="1:21" s="16" customFormat="1">
+      <c r="A80" s="22"/>
+      <c r="B80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
       <c r="G80" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="19"/>
-      <c r="Q80" s="19"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
+        <v>741</v>
+      </c>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="17"/>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="16"/>
+      <c r="A81" s="22"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="7" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="H81" s="2"/>
       <c r="J81" s="2"/>
@@ -6920,11 +6917,11 @@
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="16"/>
+      <c r="A82" s="22"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="7" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="H82" s="2"/>
       <c r="J82" s="2"/>
@@ -6941,11 +6938,11 @@
       <c r="U82" s="2"/>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="16"/>
+      <c r="A83" s="22"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="7" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="H83" s="2"/>
       <c r="J83" s="2"/>
@@ -6962,11 +6959,11 @@
       <c r="U83" s="2"/>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="16"/>
+      <c r="A84" s="22"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="7" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="H84" s="2"/>
       <c r="J84" s="2"/>
@@ -6983,11 +6980,11 @@
       <c r="U84" s="2"/>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="16"/>
+      <c r="A85" s="22"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="7" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="H85" s="2"/>
       <c r="J85" s="2"/>
@@ -7004,8 +7001,8 @@
       <c r="U85" s="2"/>
     </row>
     <row r="86" spans="1:21">
-      <c r="A86" s="20" t="s">
-        <v>1052</v>
+      <c r="A86" s="23" t="s">
+        <v>1046</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>15</v>
@@ -7038,7 +7035,7 @@
       <c r="U86" s="2"/>
     </row>
     <row r="87" spans="1:21">
-      <c r="A87" s="20"/>
+      <c r="A87" s="23"/>
       <c r="E87" s="3" t="s">
         <v>15</v>
       </c>
@@ -7070,7 +7067,7 @@
       <c r="U87" s="2"/>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="20"/>
+      <c r="A88" s="23"/>
       <c r="E88" s="3" t="s">
         <v>15</v>
       </c>
@@ -7102,9 +7099,9 @@
       <c r="U88" s="2"/>
     </row>
     <row r="89" spans="1:21" s="11" customFormat="1">
-      <c r="A89" s="20"/>
+      <c r="A89" s="23"/>
       <c r="C89" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>15</v>
@@ -7141,7 +7138,7 @@
       <c r="U89" s="10"/>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="20"/>
+      <c r="A90" s="23"/>
       <c r="E90" s="3" t="s">
         <v>15</v>
       </c>
@@ -7173,9 +7170,9 @@
       <c r="U90" s="2"/>
     </row>
     <row r="91" spans="1:21" s="11" customFormat="1">
-      <c r="A91" s="20"/>
+      <c r="A91" s="23"/>
       <c r="C91" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>15</v>
@@ -7214,7 +7211,7 @@
       <c r="U91" s="10"/>
     </row>
     <row r="92" spans="1:21">
-      <c r="A92" s="20"/>
+      <c r="A92" s="23"/>
       <c r="E92" s="3" t="s">
         <v>15</v>
       </c>
@@ -7246,9 +7243,9 @@
       <c r="U92" s="2"/>
     </row>
     <row r="93" spans="1:21" s="11" customFormat="1">
-      <c r="A93" s="20"/>
+      <c r="A93" s="23"/>
       <c r="C93" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>15</v>
@@ -7289,7 +7286,7 @@
       <c r="U93" s="10"/>
     </row>
     <row r="94" spans="1:21">
-      <c r="A94" s="20"/>
+      <c r="A94" s="23"/>
       <c r="E94" s="3" t="s">
         <v>15</v>
       </c>
@@ -7321,9 +7318,9 @@
       <c r="U94" s="2"/>
     </row>
     <row r="95" spans="1:21" s="11" customFormat="1">
-      <c r="A95" s="20"/>
+      <c r="A95" s="23"/>
       <c r="C95" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>15</v>
@@ -7360,7 +7357,7 @@
       <c r="U95" s="10"/>
     </row>
     <row r="96" spans="1:21">
-      <c r="A96" s="20"/>
+      <c r="A96" s="23"/>
       <c r="E96" s="3" t="s">
         <v>15</v>
       </c>
@@ -7392,9 +7389,9 @@
       <c r="U96" s="2"/>
     </row>
     <row r="97" spans="1:21" s="11" customFormat="1">
-      <c r="A97" s="20"/>
+      <c r="A97" s="23"/>
       <c r="C97" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E97" s="12" t="s">
         <v>15</v>
@@ -7431,7 +7428,7 @@
       <c r="U97" s="10"/>
     </row>
     <row r="98" spans="1:21">
-      <c r="A98" s="20"/>
+      <c r="A98" s="23"/>
       <c r="E98" s="3" t="s">
         <v>15</v>
       </c>
@@ -7463,7 +7460,7 @@
       <c r="U98" s="2"/>
     </row>
     <row r="99" spans="1:21">
-      <c r="A99" s="20"/>
+      <c r="A99" s="23"/>
       <c r="E99" s="3" t="s">
         <v>15</v>
       </c>
@@ -7495,7 +7492,7 @@
       <c r="U99" s="2"/>
     </row>
     <row r="100" spans="1:21">
-      <c r="A100" s="20"/>
+      <c r="A100" s="23"/>
       <c r="E100" s="3" t="s">
         <v>15</v>
       </c>
@@ -7527,9 +7524,9 @@
       <c r="U100" s="2"/>
     </row>
     <row r="101" spans="1:21" s="11" customFormat="1">
-      <c r="A101" s="20"/>
+      <c r="A101" s="23"/>
       <c r="C101" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>15</v>
@@ -7566,7 +7563,7 @@
       <c r="U101" s="10"/>
     </row>
     <row r="102" spans="1:21">
-      <c r="A102" s="20"/>
+      <c r="A102" s="23"/>
       <c r="E102" s="3" t="s">
         <v>15</v>
       </c>
@@ -7598,9 +7595,9 @@
       <c r="U102" s="2"/>
     </row>
     <row r="103" spans="1:21" s="11" customFormat="1">
-      <c r="A103" s="20"/>
+      <c r="A103" s="23"/>
       <c r="C103" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>15</v>
@@ -7639,7 +7636,7 @@
       <c r="U103" s="10"/>
     </row>
     <row r="104" spans="1:21">
-      <c r="A104" s="20"/>
+      <c r="A104" s="23"/>
       <c r="E104" s="3" t="s">
         <v>15</v>
       </c>
@@ -7671,7 +7668,7 @@
       <c r="U104" s="2"/>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="20"/>
+      <c r="A105" s="23"/>
       <c r="E105" s="3" t="s">
         <v>15</v>
       </c>
@@ -7703,9 +7700,9 @@
       <c r="U105" s="2"/>
     </row>
     <row r="106" spans="1:21" s="11" customFormat="1">
-      <c r="A106" s="20"/>
+      <c r="A106" s="23"/>
       <c r="C106" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>15</v>
@@ -7744,7 +7741,7 @@
       <c r="U106" s="10"/>
     </row>
     <row r="107" spans="1:21">
-      <c r="A107" s="20"/>
+      <c r="A107" s="23"/>
       <c r="E107" s="3" t="s">
         <v>15</v>
       </c>
@@ -7776,9 +7773,9 @@
       <c r="U107" s="2"/>
     </row>
     <row r="108" spans="1:21" s="11" customFormat="1">
-      <c r="A108" s="20"/>
+      <c r="A108" s="23"/>
       <c r="C108" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>15</v>
@@ -7815,7 +7812,7 @@
       <c r="U108" s="10"/>
     </row>
     <row r="109" spans="1:21">
-      <c r="A109" s="20"/>
+      <c r="A109" s="23"/>
       <c r="E109" s="3" t="s">
         <v>15</v>
       </c>
@@ -7847,7 +7844,7 @@
       <c r="U109" s="2"/>
     </row>
     <row r="110" spans="1:21">
-      <c r="A110" s="20"/>
+      <c r="A110" s="23"/>
       <c r="E110" s="3" t="s">
         <v>15</v>
       </c>
@@ -7877,9 +7874,9 @@
       <c r="U110" s="2"/>
     </row>
     <row r="111" spans="1:21" s="11" customFormat="1">
-      <c r="A111" s="20"/>
+      <c r="A111" s="23"/>
       <c r="C111" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>15</v>
@@ -7918,7 +7915,7 @@
       <c r="U111" s="10"/>
     </row>
     <row r="112" spans="1:21">
-      <c r="A112" s="20"/>
+      <c r="A112" s="23"/>
       <c r="E112" s="3" t="s">
         <v>15</v>
       </c>
@@ -7948,7 +7945,7 @@
       <c r="U112" s="2"/>
     </row>
     <row r="113" spans="1:21">
-      <c r="A113" s="20"/>
+      <c r="A113" s="23"/>
       <c r="E113" s="3" t="s">
         <v>15</v>
       </c>
@@ -7978,9 +7975,9 @@
       <c r="U113" s="2"/>
     </row>
     <row r="114" spans="1:21" s="11" customFormat="1">
-      <c r="A114" s="20"/>
+      <c r="A114" s="23"/>
       <c r="C114" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>15</v>
@@ -8019,7 +8016,7 @@
       <c r="U114" s="10"/>
     </row>
     <row r="115" spans="1:21">
-      <c r="A115" s="20"/>
+      <c r="A115" s="23"/>
       <c r="E115" s="3" t="s">
         <v>15</v>
       </c>
@@ -8051,9 +8048,9 @@
       <c r="U115" s="2"/>
     </row>
     <row r="116" spans="1:21" s="11" customFormat="1">
-      <c r="A116" s="20"/>
+      <c r="A116" s="23"/>
       <c r="C116" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>15</v>
@@ -8090,8 +8087,8 @@
       <c r="U116" s="10"/>
     </row>
     <row r="117" spans="1:21">
-      <c r="A117" s="16" t="s">
-        <v>1054</v>
+      <c r="A117" s="22" t="s">
+        <v>1048</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>344</v>
@@ -8116,7 +8113,7 @@
       <c r="S117" s="2"/>
     </row>
     <row r="118" spans="1:21">
-      <c r="A118" s="16"/>
+      <c r="A118" s="22"/>
       <c r="E118" s="1" t="s">
         <v>344</v>
       </c>
@@ -8140,7 +8137,7 @@
       <c r="S118" s="2"/>
     </row>
     <row r="119" spans="1:21">
-      <c r="A119" s="16"/>
+      <c r="A119" s="22"/>
       <c r="E119" s="1" t="s">
         <v>344</v>
       </c>
@@ -8164,7 +8161,7 @@
       <c r="S119" s="2"/>
     </row>
     <row r="120" spans="1:21">
-      <c r="A120" s="16"/>
+      <c r="A120" s="22"/>
       <c r="E120" s="1" t="s">
         <v>344</v>
       </c>
@@ -8188,7 +8185,7 @@
       <c r="S120" s="2"/>
     </row>
     <row r="121" spans="1:21">
-      <c r="A121" s="16"/>
+      <c r="A121" s="22"/>
       <c r="E121" s="1" t="s">
         <v>344</v>
       </c>
@@ -8212,9 +8209,9 @@
       <c r="S121" s="2"/>
     </row>
     <row r="122" spans="1:21" s="11" customFormat="1">
-      <c r="A122" s="16"/>
+      <c r="A122" s="22"/>
       <c r="C122" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
@@ -8237,9 +8234,9 @@
       <c r="U122" s="10"/>
     </row>
     <row r="123" spans="1:21" s="11" customFormat="1">
-      <c r="A123" s="16"/>
+      <c r="A123" s="22"/>
       <c r="C123" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
@@ -8262,9 +8259,9 @@
       <c r="U123" s="10"/>
     </row>
     <row r="124" spans="1:21" s="11" customFormat="1">
-      <c r="A124" s="16"/>
+      <c r="A124" s="22"/>
       <c r="C124" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
@@ -8287,9 +8284,9 @@
       <c r="U124" s="10"/>
     </row>
     <row r="125" spans="1:21" s="11" customFormat="1">
-      <c r="A125" s="16"/>
+      <c r="A125" s="22"/>
       <c r="C125" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
@@ -8312,9 +8309,9 @@
       <c r="U125" s="10"/>
     </row>
     <row r="126" spans="1:21" s="11" customFormat="1">
-      <c r="A126" s="16"/>
+      <c r="A126" s="22"/>
       <c r="C126" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
@@ -8341,21 +8338,21 @@
       <c r="U126" s="10"/>
     </row>
     <row r="127" spans="1:21">
-      <c r="A127" s="16" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C127" s="21" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D127" s="21" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E127" s="21" t="s">
-        <v>1063</v>
+      <c r="A127" s="22" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="128" spans="1:21">
-      <c r="A128" s="16"/>
+      <c r="A128" s="22"/>
       <c r="E128" s="1" t="s">
         <v>15</v>
       </c>
@@ -8381,7 +8378,7 @@
       <c r="P128" s="2"/>
     </row>
     <row r="129" spans="1:21">
-      <c r="A129" s="16"/>
+      <c r="A129" s="22"/>
       <c r="E129" s="1" t="s">
         <v>15</v>
       </c>
@@ -8407,7 +8404,7 @@
       <c r="P129" s="2"/>
     </row>
     <row r="130" spans="1:21">
-      <c r="A130" s="16"/>
+      <c r="A130" s="22"/>
       <c r="E130" s="1" t="s">
         <v>15</v>
       </c>
@@ -8430,7 +8427,7 @@
       <c r="O130" s="2"/>
     </row>
     <row r="131" spans="1:21">
-      <c r="A131" s="16"/>
+      <c r="A131" s="22"/>
       <c r="E131" s="1" t="s">
         <v>15</v>
       </c>
@@ -8455,10 +8452,10 @@
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="1:21" s="11" customFormat="1" ht="17" customHeight="1">
-      <c r="A132" s="16"/>
+    <row r="132" spans="1:21" s="11" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A132" s="22"/>
       <c r="C132" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>344</v>
@@ -8489,9 +8486,9 @@
       <c r="U132" s="10"/>
     </row>
     <row r="133" spans="1:21" s="11" customFormat="1">
-      <c r="A133" s="16"/>
+      <c r="A133" s="22"/>
       <c r="C133" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>344</v>
@@ -8522,9 +8519,9 @@
       <c r="U133" s="10"/>
     </row>
     <row r="134" spans="1:21" s="11" customFormat="1">
-      <c r="A134" s="16"/>
+      <c r="A134" s="22"/>
       <c r="C134" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>344</v>
@@ -8557,7 +8554,7 @@
       <c r="U134" s="10"/>
     </row>
     <row r="135" spans="1:21">
-      <c r="A135" s="16"/>
+      <c r="A135" s="22"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="3"/>
@@ -8581,9 +8578,9 @@
       <c r="U135" s="2"/>
     </row>
     <row r="136" spans="1:21" s="11" customFormat="1">
-      <c r="A136" s="16"/>
+      <c r="A136" s="22"/>
       <c r="C136" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>344</v>
@@ -8614,9 +8611,9 @@
       <c r="U136" s="10"/>
     </row>
     <row r="137" spans="1:21" s="11" customFormat="1">
-      <c r="A137" s="16"/>
+      <c r="A137" s="22"/>
       <c r="C137" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>344</v>
@@ -8649,9 +8646,9 @@
       <c r="U137" s="10"/>
     </row>
     <row r="138" spans="1:21" s="11" customFormat="1">
-      <c r="A138" s="16"/>
+      <c r="A138" s="22"/>
       <c r="C138" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>344</v>
@@ -8682,9 +8679,9 @@
       <c r="U138" s="10"/>
     </row>
     <row r="139" spans="1:21" s="11" customFormat="1">
-      <c r="A139" s="16"/>
+      <c r="A139" s="22"/>
       <c r="C139" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>344</v>
@@ -8713,9 +8710,9 @@
       <c r="U139" s="10"/>
     </row>
     <row r="140" spans="1:21" s="11" customFormat="1">
-      <c r="A140" s="16"/>
+      <c r="A140" s="22"/>
       <c r="C140" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>344</v>
@@ -8746,9 +8743,9 @@
       <c r="U140" s="10"/>
     </row>
     <row r="141" spans="1:21" s="11" customFormat="1">
-      <c r="A141" s="16"/>
+      <c r="A141" s="22"/>
       <c r="C141" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>344</v>
@@ -8777,9 +8774,9 @@
       <c r="U141" s="10"/>
     </row>
     <row r="142" spans="1:21" s="11" customFormat="1">
-      <c r="A142" s="16"/>
+      <c r="A142" s="22"/>
       <c r="C142" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
@@ -8808,7 +8805,7 @@
       <c r="U142" s="10"/>
     </row>
     <row r="143" spans="1:21">
-      <c r="A143" s="16"/>
+      <c r="A143" s="22"/>
       <c r="E143" s="1" t="s">
         <v>15</v>
       </c>
@@ -8834,7 +8831,7 @@
       <c r="P143" s="2"/>
     </row>
     <row r="144" spans="1:21">
-      <c r="A144" s="16"/>
+      <c r="A144" s="22"/>
       <c r="E144" s="1" t="s">
         <v>344</v>
       </c>
@@ -8857,7 +8854,7 @@
       <c r="S144" s="2"/>
     </row>
     <row r="145" spans="1:21">
-      <c r="A145" s="16"/>
+      <c r="A145" s="22"/>
       <c r="E145" s="1" t="s">
         <v>344</v>
       </c>
@@ -8881,7 +8878,7 @@
       <c r="T145" s="2"/>
     </row>
     <row r="146" spans="1:21">
-      <c r="A146" s="16"/>
+      <c r="A146" s="22"/>
       <c r="E146" s="1" t="s">
         <v>15</v>
       </c>
@@ -8907,7 +8904,7 @@
       <c r="P146" s="2"/>
     </row>
     <row r="147" spans="1:21">
-      <c r="A147" s="16"/>
+      <c r="A147" s="22"/>
       <c r="E147" s="1" t="s">
         <v>344</v>
       </c>
@@ -8931,11 +8928,11 @@
       <c r="T147" s="2"/>
     </row>
     <row r="148" spans="1:21">
-      <c r="A148" s="16"/>
+      <c r="A148" s="22"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="H148" s="2"/>
       <c r="J148" s="2"/>
@@ -8952,11 +8949,11 @@
       <c r="U148" s="2"/>
     </row>
     <row r="149" spans="1:21">
-      <c r="A149" s="16"/>
+      <c r="A149" s="22"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="H149" s="2"/>
       <c r="J149" s="2"/>
@@ -8973,8 +8970,8 @@
       <c r="U149" s="2"/>
     </row>
     <row r="150" spans="1:21">
-      <c r="A150" s="16" t="s">
-        <v>1055</v>
+      <c r="A150" s="22" t="s">
+        <v>1049</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>344</v>
@@ -8998,7 +8995,7 @@
       <c r="S150" s="2"/>
     </row>
     <row r="151" spans="1:21">
-      <c r="A151" s="16"/>
+      <c r="A151" s="22"/>
       <c r="E151" s="1" t="s">
         <v>344</v>
       </c>
@@ -9021,7 +9018,7 @@
       <c r="S151" s="2"/>
     </row>
     <row r="152" spans="1:21">
-      <c r="A152" s="16"/>
+      <c r="A152" s="22"/>
       <c r="E152" s="1" t="s">
         <v>344</v>
       </c>
@@ -9044,7 +9041,7 @@
       <c r="S152" s="2"/>
     </row>
     <row r="153" spans="1:21">
-      <c r="A153" s="16"/>
+      <c r="A153" s="22"/>
       <c r="E153" s="1" t="s">
         <v>344</v>
       </c>
@@ -9067,7 +9064,7 @@
       <c r="S153" s="2"/>
     </row>
     <row r="154" spans="1:21">
-      <c r="A154" s="16"/>
+      <c r="A154" s="22"/>
       <c r="E154" s="1" t="s">
         <v>15</v>
       </c>
@@ -9093,7 +9090,7 @@
       <c r="P154" s="2"/>
     </row>
     <row r="155" spans="1:21">
-      <c r="A155" s="16"/>
+      <c r="A155" s="22"/>
       <c r="E155" s="1" t="s">
         <v>344</v>
       </c>
@@ -9116,7 +9113,7 @@
       <c r="S155" s="2"/>
     </row>
     <row r="156" spans="1:21">
-      <c r="A156" s="16"/>
+      <c r="A156" s="22"/>
       <c r="E156" s="1" t="s">
         <v>344</v>
       </c>
@@ -9138,7 +9135,7 @@
       <c r="R156" s="2"/>
     </row>
     <row r="157" spans="1:21">
-      <c r="A157" s="16"/>
+      <c r="A157" s="22"/>
       <c r="E157" s="1" t="s">
         <v>344</v>
       </c>
@@ -9160,7 +9157,7 @@
       <c r="R157" s="2"/>
     </row>
     <row r="158" spans="1:21">
-      <c r="A158" s="16"/>
+      <c r="A158" s="22"/>
       <c r="E158" s="1" t="s">
         <v>344</v>
       </c>
@@ -9183,7 +9180,7 @@
       <c r="S158" s="2"/>
     </row>
     <row r="159" spans="1:21">
-      <c r="A159" s="16"/>
+      <c r="A159" s="22"/>
       <c r="E159" s="1" t="s">
         <v>344</v>
       </c>
@@ -9206,7 +9203,7 @@
       <c r="S159" s="2"/>
     </row>
     <row r="160" spans="1:21">
-      <c r="A160" s="16"/>
+      <c r="A160" s="22"/>
       <c r="E160" s="1" t="s">
         <v>344</v>
       </c>
@@ -9229,7 +9226,7 @@
       <c r="S160" s="2"/>
     </row>
     <row r="161" spans="1:20">
-      <c r="A161" s="16"/>
+      <c r="A161" s="22"/>
       <c r="E161" s="1" t="s">
         <v>344</v>
       </c>
@@ -9252,7 +9249,7 @@
       <c r="S161" s="2"/>
     </row>
     <row r="162" spans="1:20">
-      <c r="A162" s="16"/>
+      <c r="A162" s="22"/>
       <c r="E162" s="1" t="s">
         <v>344</v>
       </c>
@@ -9275,7 +9272,7 @@
       <c r="S162" s="2"/>
     </row>
     <row r="163" spans="1:20">
-      <c r="A163" s="16"/>
+      <c r="A163" s="22"/>
       <c r="E163" s="1" t="s">
         <v>344</v>
       </c>
@@ -9298,7 +9295,7 @@
       <c r="S163" s="2"/>
     </row>
     <row r="164" spans="1:20">
-      <c r="A164" s="16"/>
+      <c r="A164" s="22"/>
       <c r="E164" s="1" t="s">
         <v>344</v>
       </c>
@@ -9320,7 +9317,7 @@
       <c r="R164" s="2"/>
     </row>
     <row r="165" spans="1:20">
-      <c r="A165" s="16"/>
+      <c r="A165" s="22"/>
       <c r="E165" s="1" t="s">
         <v>344</v>
       </c>
@@ -9342,7 +9339,7 @@
       <c r="R165" s="2"/>
     </row>
     <row r="166" spans="1:20">
-      <c r="A166" s="16"/>
+      <c r="A166" s="22"/>
       <c r="E166" s="1" t="s">
         <v>344</v>
       </c>
@@ -9365,7 +9362,7 @@
       <c r="S166" s="2"/>
     </row>
     <row r="167" spans="1:20">
-      <c r="A167" s="16"/>
+      <c r="A167" s="22"/>
       <c r="E167" s="1" t="s">
         <v>344</v>
       </c>
@@ -9388,7 +9385,7 @@
       <c r="S167" s="2"/>
     </row>
     <row r="168" spans="1:20">
-      <c r="A168" s="16"/>
+      <c r="A168" s="22"/>
       <c r="E168" s="1" t="s">
         <v>344</v>
       </c>
@@ -9411,7 +9408,7 @@
       <c r="S168" s="2"/>
     </row>
     <row r="169" spans="1:20">
-      <c r="A169" s="16"/>
+      <c r="A169" s="22"/>
       <c r="E169" s="1" t="s">
         <v>344</v>
       </c>
@@ -9434,7 +9431,7 @@
       <c r="S169" s="2"/>
     </row>
     <row r="170" spans="1:20">
-      <c r="A170" s="16"/>
+      <c r="A170" s="22"/>
       <c r="E170" s="1" t="s">
         <v>344</v>
       </c>
@@ -9458,7 +9455,7 @@
       <c r="T170" s="2"/>
     </row>
     <row r="171" spans="1:20">
-      <c r="A171" s="16"/>
+      <c r="A171" s="22"/>
       <c r="E171" s="1" t="s">
         <v>344</v>
       </c>
@@ -9480,7 +9477,7 @@
       <c r="R171" s="2"/>
     </row>
     <row r="172" spans="1:20">
-      <c r="A172" s="16"/>
+      <c r="A172" s="22"/>
       <c r="E172" s="1" t="s">
         <v>344</v>
       </c>
@@ -9502,7 +9499,7 @@
       <c r="R172" s="2"/>
     </row>
     <row r="173" spans="1:20">
-      <c r="A173" s="16"/>
+      <c r="A173" s="22"/>
       <c r="E173" s="1" t="s">
         <v>344</v>
       </c>
@@ -9525,7 +9522,7 @@
       <c r="S173" s="2"/>
     </row>
     <row r="174" spans="1:20">
-      <c r="A174" s="16"/>
+      <c r="A174" s="22"/>
       <c r="E174" s="1" t="s">
         <v>344</v>
       </c>
@@ -9548,7 +9545,7 @@
       <c r="S174" s="2"/>
     </row>
     <row r="175" spans="1:20">
-      <c r="A175" s="16"/>
+      <c r="A175" s="22"/>
       <c r="E175" s="1" t="s">
         <v>344</v>
       </c>
@@ -9571,7 +9568,7 @@
       <c r="S175" s="2"/>
     </row>
     <row r="176" spans="1:20">
-      <c r="A176" s="16"/>
+      <c r="A176" s="22"/>
       <c r="E176" s="1" t="s">
         <v>344</v>
       </c>
@@ -9594,7 +9591,7 @@
       <c r="S176" s="2"/>
     </row>
     <row r="177" spans="1:30">
-      <c r="A177" s="16"/>
+      <c r="A177" s="22"/>
       <c r="E177" s="1" t="s">
         <v>344</v>
       </c>
@@ -9618,7 +9615,7 @@
       <c r="T177" s="2"/>
     </row>
     <row r="178" spans="1:30">
-      <c r="A178" s="16"/>
+      <c r="A178" s="22"/>
       <c r="E178" s="1" t="s">
         <v>344</v>
       </c>
@@ -9640,7 +9637,7 @@
       <c r="R178" s="2"/>
     </row>
     <row r="179" spans="1:30">
-      <c r="A179" s="16"/>
+      <c r="A179" s="22"/>
       <c r="E179" s="1" t="s">
         <v>344</v>
       </c>
@@ -9662,11 +9659,11 @@
       <c r="R179" s="2"/>
     </row>
     <row r="180" spans="1:30">
-      <c r="A180" s="16"/>
+      <c r="A180" s="22"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1" t="s">
-        <v>738</v>
+        <v>1154</v>
       </c>
       <c r="H180" s="2"/>
       <c r="J180" s="1"/>
@@ -9680,11 +9677,11 @@
       <c r="R180" s="2"/>
     </row>
     <row r="181" spans="1:30">
-      <c r="A181" s="16"/>
+      <c r="A181" s="22"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1" t="s">
-        <v>739</v>
+        <v>1155</v>
       </c>
       <c r="H181" s="2"/>
       <c r="J181" s="1"/>
@@ -9696,11 +9693,11 @@
       <c r="P181" s="2"/>
     </row>
     <row r="182" spans="1:30">
-      <c r="A182" s="16"/>
+      <c r="A182" s="22"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2" t="s">
-        <v>740</v>
+        <v>1156</v>
       </c>
       <c r="H182" s="2"/>
       <c r="J182" s="2"/>
@@ -9717,10 +9714,8 @@
       <c r="U182" s="2"/>
     </row>
     <row r="183" spans="1:30">
-      <c r="A183" s="16"/>
-      <c r="G183" s="7" t="s">
-        <v>779</v>
-      </c>
+      <c r="A183" s="22"/>
+      <c r="G183" s="7"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
@@ -9733,10 +9728,8 @@
       <c r="S183" s="2"/>
     </row>
     <row r="184" spans="1:30">
-      <c r="A184" s="16"/>
-      <c r="G184" s="7" t="s">
-        <v>780</v>
-      </c>
+      <c r="A184" s="22"/>
+      <c r="G184" s="7"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
@@ -9749,20 +9742,18 @@
       <c r="S184" s="2"/>
     </row>
     <row r="185" spans="1:30">
-      <c r="A185" s="16"/>
-      <c r="G185" s="7" t="s">
-        <v>781</v>
-      </c>
+      <c r="A185" s="22"/>
+      <c r="G185" s="7"/>
     </row>
     <row r="186" spans="1:30">
-      <c r="A186" s="16" t="s">
-        <v>1056</v>
+      <c r="A186" s="22" t="s">
+        <v>1050</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1" t="s">
@@ -9805,12 +9796,12 @@
       <c r="AD186" s="2"/>
     </row>
     <row r="187" spans="1:30">
-      <c r="A187" s="16"/>
+      <c r="A187" s="22"/>
       <c r="B187" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1" t="s">
@@ -9850,12 +9841,12 @@
       <c r="AA187" s="2"/>
     </row>
     <row r="188" spans="1:30">
-      <c r="A188" s="16"/>
+      <c r="A188" s="22"/>
       <c r="B188" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1" t="s">
@@ -9898,12 +9889,12 @@
       <c r="AD188" s="2"/>
     </row>
     <row r="189" spans="1:30">
-      <c r="A189" s="16"/>
+      <c r="A189" s="22"/>
       <c r="B189" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1" t="s">
@@ -9913,7 +9904,7 @@
         <v>16</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>54</v>
@@ -9948,12 +9939,12 @@
       <c r="AD189" s="2"/>
     </row>
     <row r="190" spans="1:30">
-      <c r="A190" s="16"/>
+      <c r="A190" s="22"/>
       <c r="B190" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1" t="s">
@@ -9963,7 +9954,7 @@
         <v>16</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>95</v>
@@ -9998,7 +9989,7 @@
       <c r="AD190" s="2"/>
     </row>
     <row r="191" spans="1:30">
-      <c r="A191" s="16"/>
+      <c r="A191" s="22"/>
       <c r="E191" s="1" t="s">
         <v>344</v>
       </c>
@@ -10022,7 +10013,7 @@
       <c r="O191" s="2"/>
     </row>
     <row r="192" spans="1:30">
-      <c r="A192" s="16"/>
+      <c r="A192" s="22"/>
       <c r="E192" s="1" t="s">
         <v>344</v>
       </c>
@@ -10046,7 +10037,7 @@
       <c r="O192" s="2"/>
     </row>
     <row r="193" spans="1:21">
-      <c r="A193" s="16"/>
+      <c r="A193" s="22"/>
       <c r="E193" s="1" t="s">
         <v>344</v>
       </c>
@@ -10074,7 +10065,7 @@
       <c r="O193" s="2"/>
     </row>
     <row r="194" spans="1:21">
-      <c r="A194" s="16"/>
+      <c r="A194" s="22"/>
       <c r="E194" s="1" t="s">
         <v>344</v>
       </c>
@@ -10102,7 +10093,7 @@
       <c r="O194" s="2"/>
     </row>
     <row r="195" spans="1:21">
-      <c r="A195" s="16"/>
+      <c r="A195" s="22"/>
       <c r="E195" s="1" t="s">
         <v>344</v>
       </c>
@@ -10127,7 +10118,7 @@
       <c r="N195" s="2"/>
     </row>
     <row r="196" spans="1:21">
-      <c r="A196" s="16"/>
+      <c r="A196" s="22"/>
       <c r="E196" s="1" t="s">
         <v>344</v>
       </c>
@@ -10152,9 +10143,9 @@
       <c r="N196" s="2"/>
     </row>
     <row r="197" spans="1:21" s="11" customFormat="1">
-      <c r="A197" s="16"/>
+      <c r="A197" s="22"/>
       <c r="C197" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E197" s="9" t="s">
         <v>344</v>
@@ -10191,9 +10182,9 @@
       <c r="U197" s="10"/>
     </row>
     <row r="198" spans="1:21" s="11" customFormat="1">
-      <c r="A198" s="16"/>
+      <c r="A198" s="22"/>
       <c r="C198" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E198" s="9" t="s">
         <v>344</v>
@@ -10230,9 +10221,9 @@
       <c r="U198" s="10"/>
     </row>
     <row r="199" spans="1:21" s="11" customFormat="1">
-      <c r="A199" s="16"/>
+      <c r="A199" s="22"/>
       <c r="C199" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>344</v>
@@ -10269,9 +10260,9 @@
       <c r="U199" s="10"/>
     </row>
     <row r="200" spans="1:21" s="11" customFormat="1">
-      <c r="A200" s="16"/>
+      <c r="A200" s="22"/>
       <c r="C200" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E200" s="9" t="s">
         <v>344</v>
@@ -10308,7 +10299,7 @@
       <c r="U200" s="10"/>
     </row>
     <row r="201" spans="1:21">
-      <c r="A201" s="16"/>
+      <c r="A201" s="22"/>
       <c r="E201" s="1" t="s">
         <v>344</v>
       </c>
@@ -10336,7 +10327,7 @@
       <c r="O201" s="2"/>
     </row>
     <row r="202" spans="1:21">
-      <c r="A202" s="16"/>
+      <c r="A202" s="22"/>
       <c r="E202" s="1" t="s">
         <v>344</v>
       </c>
@@ -10364,7 +10355,7 @@
       <c r="O202" s="2"/>
     </row>
     <row r="203" spans="1:21">
-      <c r="A203" s="16"/>
+      <c r="A203" s="22"/>
       <c r="E203" s="1" t="s">
         <v>344</v>
       </c>
@@ -10389,7 +10380,7 @@
       <c r="N203" s="2"/>
     </row>
     <row r="204" spans="1:21">
-      <c r="A204" s="16"/>
+      <c r="A204" s="22"/>
       <c r="E204" s="1" t="s">
         <v>344</v>
       </c>
@@ -10414,9 +10405,9 @@
       <c r="N204" s="2"/>
     </row>
     <row r="205" spans="1:21" s="11" customFormat="1">
-      <c r="A205" s="16"/>
+      <c r="A205" s="22"/>
       <c r="C205" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>344</v>
@@ -10453,9 +10444,9 @@
       <c r="U205" s="10"/>
     </row>
     <row r="206" spans="1:21" s="11" customFormat="1">
-      <c r="A206" s="16"/>
+      <c r="A206" s="22"/>
       <c r="C206" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E206" s="9" t="s">
         <v>344</v>
@@ -10492,9 +10483,9 @@
       <c r="U206" s="10"/>
     </row>
     <row r="207" spans="1:21" s="11" customFormat="1">
-      <c r="A207" s="16"/>
+      <c r="A207" s="22"/>
       <c r="C207" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E207" s="9" t="s">
         <v>344</v>
@@ -10531,9 +10522,9 @@
       <c r="U207" s="10"/>
     </row>
     <row r="208" spans="1:21" s="11" customFormat="1">
-      <c r="A208" s="16"/>
+      <c r="A208" s="22"/>
       <c r="C208" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E208" s="9" t="s">
         <v>344</v>
@@ -10570,7 +10561,7 @@
       <c r="U208" s="10"/>
     </row>
     <row r="209" spans="1:30">
-      <c r="A209" s="16"/>
+      <c r="A209" s="22"/>
       <c r="E209" s="1" t="s">
         <v>344</v>
       </c>
@@ -10598,7 +10589,7 @@
       <c r="O209" s="2"/>
     </row>
     <row r="210" spans="1:30">
-      <c r="A210" s="16"/>
+      <c r="A210" s="22"/>
       <c r="E210" s="1" t="s">
         <v>344</v>
       </c>
@@ -10626,7 +10617,7 @@
       <c r="O210" s="2"/>
     </row>
     <row r="211" spans="1:30">
-      <c r="A211" s="16"/>
+      <c r="A211" s="22"/>
       <c r="E211" s="1" t="s">
         <v>344</v>
       </c>
@@ -10651,7 +10642,7 @@
       <c r="N211" s="2"/>
     </row>
     <row r="212" spans="1:30">
-      <c r="A212" s="16"/>
+      <c r="A212" s="22"/>
       <c r="E212" s="1" t="s">
         <v>344</v>
       </c>
@@ -10676,9 +10667,9 @@
       <c r="N212" s="2"/>
     </row>
     <row r="213" spans="1:30" s="11" customFormat="1">
-      <c r="A213" s="16"/>
+      <c r="A213" s="22"/>
       <c r="C213" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E213" s="9" t="s">
         <v>344</v>
@@ -10715,9 +10706,9 @@
       <c r="U213" s="10"/>
     </row>
     <row r="214" spans="1:30" s="11" customFormat="1">
-      <c r="A214" s="16"/>
+      <c r="A214" s="22"/>
       <c r="C214" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E214" s="9" t="s">
         <v>344</v>
@@ -10754,9 +10745,9 @@
       <c r="U214" s="10"/>
     </row>
     <row r="215" spans="1:30" s="11" customFormat="1">
-      <c r="A215" s="16"/>
+      <c r="A215" s="22"/>
       <c r="C215" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E215" s="9" t="s">
         <v>344</v>
@@ -10793,9 +10784,9 @@
       <c r="U215" s="10"/>
     </row>
     <row r="216" spans="1:30" s="11" customFormat="1">
-      <c r="A216" s="16"/>
+      <c r="A216" s="22"/>
       <c r="C216" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E216" s="9" t="s">
         <v>344</v>
@@ -10832,12 +10823,12 @@
       <c r="U216" s="10"/>
     </row>
     <row r="217" spans="1:30">
-      <c r="A217" s="16"/>
+      <c r="A217" s="22"/>
       <c r="B217" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1" t="s">
@@ -10882,12 +10873,12 @@
       <c r="AD217" s="2"/>
     </row>
     <row r="218" spans="1:30">
-      <c r="A218" s="16"/>
+      <c r="A218" s="22"/>
       <c r="B218" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1" t="s">
@@ -10930,9 +10921,9 @@
       <c r="AD218" s="2"/>
     </row>
     <row r="219" spans="1:30" s="11" customFormat="1">
-      <c r="A219" s="16"/>
+      <c r="A219" s="22"/>
       <c r="C219" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E219" s="9" t="s">
         <v>344</v>
@@ -10957,9 +10948,9 @@
       <c r="Q219" s="10"/>
     </row>
     <row r="220" spans="1:30" s="11" customFormat="1">
-      <c r="A220" s="16"/>
+      <c r="A220" s="22"/>
       <c r="C220" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E220" s="9" t="s">
         <v>344</v>
@@ -10984,12 +10975,12 @@
       <c r="Q220" s="10"/>
     </row>
     <row r="221" spans="1:30">
-      <c r="A221" s="16"/>
+      <c r="A221" s="22"/>
       <c r="B221" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1" t="s">
@@ -11032,7 +11023,7 @@
       <c r="AD221" s="2"/>
     </row>
     <row r="222" spans="1:30">
-      <c r="A222" s="16"/>
+      <c r="A222" s="22"/>
       <c r="E222" s="1" t="s">
         <v>344</v>
       </c>
@@ -11058,7 +11049,7 @@
       <c r="P222" s="2"/>
     </row>
     <row r="223" spans="1:30">
-      <c r="A223" s="16"/>
+      <c r="A223" s="22"/>
       <c r="E223" s="1" t="s">
         <v>344</v>
       </c>
@@ -11084,7 +11075,7 @@
       <c r="P223" s="2"/>
     </row>
     <row r="224" spans="1:30">
-      <c r="A224" s="16"/>
+      <c r="A224" s="22"/>
       <c r="E224" s="1" t="s">
         <v>344</v>
       </c>
@@ -11110,7 +11101,7 @@
       <c r="P224" s="2"/>
     </row>
     <row r="225" spans="1:21">
-      <c r="A225" s="16"/>
+      <c r="A225" s="22"/>
       <c r="E225" s="1" t="s">
         <v>344</v>
       </c>
@@ -11136,9 +11127,9 @@
       <c r="P225" s="2"/>
     </row>
     <row r="226" spans="1:21" s="11" customFormat="1">
-      <c r="A226" s="16"/>
+      <c r="A226" s="22"/>
       <c r="C226" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E226" s="9" t="s">
         <v>344</v>
@@ -11175,9 +11166,9 @@
       <c r="U226" s="10"/>
     </row>
     <row r="227" spans="1:21" s="11" customFormat="1">
-      <c r="A227" s="16"/>
+      <c r="A227" s="22"/>
       <c r="C227" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E227" s="9" t="s">
         <v>344</v>
@@ -11214,9 +11205,9 @@
       <c r="U227" s="10"/>
     </row>
     <row r="228" spans="1:21" s="11" customFormat="1">
-      <c r="A228" s="16"/>
+      <c r="A228" s="22"/>
       <c r="C228" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E228" s="9" t="s">
         <v>344</v>
@@ -11253,9 +11244,9 @@
       <c r="U228" s="10"/>
     </row>
     <row r="229" spans="1:21" s="11" customFormat="1">
-      <c r="A229" s="16"/>
+      <c r="A229" s="22"/>
       <c r="C229" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E229" s="9" t="s">
         <v>344</v>
@@ -11292,9 +11283,9 @@
       <c r="U229" s="10"/>
     </row>
     <row r="230" spans="1:21" s="11" customFormat="1">
-      <c r="A230" s="16"/>
+      <c r="A230" s="22"/>
       <c r="C230" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E230" s="9" t="s">
         <v>344</v>
@@ -11319,9 +11310,9 @@
       <c r="Q230" s="10"/>
     </row>
     <row r="231" spans="1:21" s="11" customFormat="1">
-      <c r="A231" s="16"/>
+      <c r="A231" s="22"/>
       <c r="C231" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E231" s="9" t="s">
         <v>344</v>
@@ -11346,9 +11337,9 @@
       <c r="Q231" s="10"/>
     </row>
     <row r="232" spans="1:21" s="11" customFormat="1">
-      <c r="A232" s="16"/>
+      <c r="A232" s="22"/>
       <c r="C232" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E232" s="9" t="s">
         <v>344</v>
@@ -11385,9 +11376,9 @@
       <c r="U232" s="10"/>
     </row>
     <row r="233" spans="1:21" s="11" customFormat="1">
-      <c r="A233" s="16"/>
+      <c r="A233" s="22"/>
       <c r="C233" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E233" s="9" t="s">
         <v>344</v>
@@ -11424,9 +11415,9 @@
       <c r="U233" s="10"/>
     </row>
     <row r="234" spans="1:21" s="11" customFormat="1">
-      <c r="A234" s="16"/>
+      <c r="A234" s="22"/>
       <c r="C234" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E234" s="9" t="s">
         <v>344</v>
@@ -11463,9 +11454,9 @@
       <c r="U234" s="10"/>
     </row>
     <row r="235" spans="1:21" s="11" customFormat="1">
-      <c r="A235" s="16"/>
+      <c r="A235" s="22"/>
       <c r="C235" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E235" s="9" t="s">
         <v>344</v>
@@ -11502,7 +11493,7 @@
       <c r="U235" s="10"/>
     </row>
     <row r="236" spans="1:21">
-      <c r="A236" s="16"/>
+      <c r="A236" s="22"/>
       <c r="E236" s="3" t="s">
         <v>15</v>
       </c>
@@ -11532,9 +11523,9 @@
       <c r="U236" s="2"/>
     </row>
     <row r="237" spans="1:21" s="11" customFormat="1">
-      <c r="A237" s="16"/>
+      <c r="A237" s="22"/>
       <c r="C237" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E237" s="9" t="s">
         <v>344</v>
@@ -11567,7 +11558,7 @@
       <c r="U237" s="10"/>
     </row>
     <row r="238" spans="1:21">
-      <c r="A238" s="16"/>
+      <c r="A238" s="22"/>
       <c r="E238" s="3" t="s">
         <v>15</v>
       </c>
@@ -11597,9 +11588,9 @@
       <c r="U238" s="2"/>
     </row>
     <row r="239" spans="1:21" s="11" customFormat="1">
-      <c r="A239" s="16"/>
+      <c r="A239" s="22"/>
       <c r="C239" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E239" s="9" t="s">
         <v>344</v>
@@ -11632,7 +11623,7 @@
       <c r="U239" s="10"/>
     </row>
     <row r="240" spans="1:21">
-      <c r="A240" s="16"/>
+      <c r="A240" s="22"/>
       <c r="E240" s="1" t="s">
         <v>344</v>
       </c>
@@ -11657,7 +11648,7 @@
       <c r="P240" s="2"/>
     </row>
     <row r="241" spans="1:21">
-      <c r="A241" s="16"/>
+      <c r="A241" s="22"/>
       <c r="E241" s="1" t="s">
         <v>344</v>
       </c>
@@ -11682,7 +11673,7 @@
       <c r="P241" s="2"/>
     </row>
     <row r="242" spans="1:21">
-      <c r="A242" s="16"/>
+      <c r="A242" s="22"/>
       <c r="E242" s="1" t="s">
         <v>344</v>
       </c>
@@ -11707,7 +11698,7 @@
       <c r="P242" s="2"/>
     </row>
     <row r="243" spans="1:21">
-      <c r="A243" s="16"/>
+      <c r="A243" s="22"/>
       <c r="E243" s="1" t="s">
         <v>344</v>
       </c>
@@ -11732,7 +11723,7 @@
       <c r="P243" s="2"/>
     </row>
     <row r="244" spans="1:21">
-      <c r="A244" s="16"/>
+      <c r="A244" s="22"/>
       <c r="E244" s="3" t="s">
         <v>15</v>
       </c>
@@ -11762,7 +11753,7 @@
       <c r="U244" s="2"/>
     </row>
     <row r="245" spans="1:21">
-      <c r="A245" s="16"/>
+      <c r="A245" s="22"/>
       <c r="E245" s="1" t="s">
         <v>344</v>
       </c>
@@ -11787,7 +11778,7 @@
       <c r="P245" s="2"/>
     </row>
     <row r="246" spans="1:21">
-      <c r="A246" s="16"/>
+      <c r="A246" s="22"/>
       <c r="E246" s="1" t="s">
         <v>344</v>
       </c>
@@ -11812,7 +11803,7 @@
       <c r="P246" s="2"/>
     </row>
     <row r="247" spans="1:21">
-      <c r="A247" s="16"/>
+      <c r="A247" s="22"/>
       <c r="E247" s="1" t="s">
         <v>344</v>
       </c>
@@ -11837,7 +11828,7 @@
       <c r="P247" s="2"/>
     </row>
     <row r="248" spans="1:21">
-      <c r="A248" s="16"/>
+      <c r="A248" s="22"/>
       <c r="E248" s="1" t="s">
         <v>344</v>
       </c>
@@ -11862,9 +11853,9 @@
       <c r="P248" s="2"/>
     </row>
     <row r="249" spans="1:21" s="11" customFormat="1">
-      <c r="A249" s="16"/>
+      <c r="A249" s="22"/>
       <c r="C249" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E249" s="9" t="s">
         <v>344</v>
@@ -11897,9 +11888,9 @@
       <c r="U249" s="10"/>
     </row>
     <row r="250" spans="1:21" s="11" customFormat="1">
-      <c r="A250" s="16"/>
+      <c r="A250" s="22"/>
       <c r="C250" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E250" s="9" t="s">
         <v>344</v>
@@ -11932,9 +11923,9 @@
       <c r="U250" s="10"/>
     </row>
     <row r="251" spans="1:21" s="11" customFormat="1">
-      <c r="A251" s="16"/>
+      <c r="A251" s="22"/>
       <c r="C251" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E251" s="9" t="s">
         <v>344</v>
@@ -11961,9 +11952,9 @@
       <c r="U251" s="10"/>
     </row>
     <row r="252" spans="1:21" s="11" customFormat="1">
-      <c r="A252" s="16"/>
+      <c r="A252" s="22"/>
       <c r="C252" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E252" s="9" t="s">
         <v>344</v>
@@ -11987,7 +11978,7 @@
       <c r="P252" s="10"/>
     </row>
     <row r="253" spans="1:21">
-      <c r="A253" s="16"/>
+      <c r="A253" s="22"/>
       <c r="E253" s="3" t="s">
         <v>15</v>
       </c>
@@ -12017,9 +12008,9 @@
       <c r="U253" s="2"/>
     </row>
     <row r="254" spans="1:21" s="11" customFormat="1">
-      <c r="A254" s="16"/>
+      <c r="A254" s="22"/>
       <c r="C254" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E254" s="9" t="s">
         <v>344</v>
@@ -12052,7 +12043,7 @@
       <c r="U254" s="10"/>
     </row>
     <row r="255" spans="1:21">
-      <c r="A255" s="16"/>
+      <c r="A255" s="22"/>
       <c r="E255" s="3" t="s">
         <v>15</v>
       </c>
@@ -12082,9 +12073,9 @@
       <c r="U255" s="2"/>
     </row>
     <row r="256" spans="1:21" s="11" customFormat="1">
-      <c r="A256" s="16"/>
+      <c r="A256" s="22"/>
       <c r="C256" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E256" s="9" t="s">
         <v>344</v>
@@ -12117,13 +12108,13 @@
       <c r="U256" s="10"/>
     </row>
     <row r="257" spans="1:21">
-      <c r="A257" s="16"/>
+      <c r="A257" s="22"/>
       <c r="H257" s="7" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="258" spans="1:21">
-      <c r="A258" s="16"/>
+      <c r="A258" s="22"/>
       <c r="E258" s="1" t="s">
         <v>344</v>
       </c>
@@ -12153,7 +12144,7 @@
       <c r="U258" s="2"/>
     </row>
     <row r="259" spans="1:21">
-      <c r="A259" s="16"/>
+      <c r="A259" s="22"/>
       <c r="E259" s="1" t="s">
         <v>344</v>
       </c>
@@ -12181,7 +12172,7 @@
       <c r="U259" s="2"/>
     </row>
     <row r="260" spans="1:21">
-      <c r="A260" s="16"/>
+      <c r="A260" s="22"/>
       <c r="E260" s="1" t="s">
         <v>344</v>
       </c>
@@ -12207,7 +12198,7 @@
       <c r="S260" s="2"/>
     </row>
     <row r="261" spans="1:21">
-      <c r="A261" s="16"/>
+      <c r="A261" s="22"/>
       <c r="E261" s="1" t="s">
         <v>344</v>
       </c>
@@ -12234,7 +12225,7 @@
       <c r="T261" s="2"/>
     </row>
     <row r="262" spans="1:21">
-      <c r="A262" s="16"/>
+      <c r="A262" s="22"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
@@ -12257,7 +12248,7 @@
       <c r="T262" s="2"/>
     </row>
     <row r="263" spans="1:21">
-      <c r="A263" s="16"/>
+      <c r="A263" s="22"/>
       <c r="E263" s="1" t="s">
         <v>344</v>
       </c>
@@ -12282,7 +12273,7 @@
       <c r="R263" s="2"/>
     </row>
     <row r="264" spans="1:21">
-      <c r="A264" s="16"/>
+      <c r="A264" s="22"/>
       <c r="E264" s="1" t="s">
         <v>344</v>
       </c>
@@ -12307,13 +12298,13 @@
       <c r="R264" s="2"/>
     </row>
     <row r="265" spans="1:21">
-      <c r="A265" s="16"/>
+      <c r="A265" s="22"/>
       <c r="H265" s="7" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="266" spans="1:21">
-      <c r="A266" s="16"/>
+      <c r="A266" s="22"/>
       <c r="E266" s="1" t="s">
         <v>344</v>
       </c>
@@ -12322,7 +12313,7 @@
       </c>
       <c r="G266" s="2"/>
       <c r="H266" s="7" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>541</v>
@@ -12338,7 +12329,7 @@
       <c r="P266" s="2"/>
     </row>
     <row r="267" spans="1:21">
-      <c r="A267" s="16"/>
+      <c r="A267" s="22"/>
       <c r="E267" s="1" t="s">
         <v>344</v>
       </c>
@@ -12360,7 +12351,7 @@
       <c r="P267" s="2"/>
     </row>
     <row r="268" spans="1:21">
-      <c r="A268" s="16"/>
+      <c r="A268" s="22"/>
       <c r="E268" s="1" t="s">
         <v>15</v>
       </c>
@@ -12385,15 +12376,15 @@
       <c r="O268" s="1"/>
       <c r="P268" s="1"/>
       <c r="Q268" s="2"/>
-      <c r="R268" s="21" t="s">
-        <v>1083</v>
-      </c>
-      <c r="T268" s="21" t="s">
-        <v>1066</v>
+      <c r="R268" s="19" t="s">
+        <v>1077</v>
+      </c>
+      <c r="T268" s="19" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="269" spans="1:21">
-      <c r="A269" s="16"/>
+      <c r="A269" s="22"/>
       <c r="E269" s="1" t="s">
         <v>15</v>
       </c>
@@ -12424,7 +12415,7 @@
       <c r="U269" s="2"/>
     </row>
     <row r="270" spans="1:21">
-      <c r="A270" s="16"/>
+      <c r="A270" s="22"/>
       <c r="E270" s="1" t="s">
         <v>15</v>
       </c>
@@ -12453,7 +12444,7 @@
       <c r="Q270" s="2"/>
     </row>
     <row r="271" spans="1:21">
-      <c r="A271" s="16"/>
+      <c r="A271" s="22"/>
       <c r="E271" s="1" t="s">
         <v>15</v>
       </c>
@@ -12482,7 +12473,7 @@
       <c r="Q271" s="2"/>
     </row>
     <row r="272" spans="1:21">
-      <c r="A272" s="16"/>
+      <c r="A272" s="22"/>
       <c r="E272" s="1" t="s">
         <v>15</v>
       </c>
@@ -12511,7 +12502,7 @@
       <c r="Q272" s="2"/>
     </row>
     <row r="273" spans="1:21">
-      <c r="A273" s="16"/>
+      <c r="A273" s="22"/>
       <c r="E273" s="1" t="s">
         <v>15</v>
       </c>
@@ -12534,73 +12525,73 @@
       <c r="O273" s="2"/>
     </row>
     <row r="274" spans="1:21">
-      <c r="A274" s="16"/>
-      <c r="H274" s="21" t="s">
-        <v>1064</v>
-      </c>
-      <c r="I274" s="21" t="s">
-        <v>1065</v>
-      </c>
-      <c r="J274" s="21" t="s">
-        <v>1066</v>
+      <c r="A274" s="22"/>
+      <c r="H274" s="19" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I274" s="19" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J274" s="19" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="275" spans="1:21">
-      <c r="A275" s="16"/>
-      <c r="H275" s="21" t="s">
+      <c r="A275" s="22"/>
+      <c r="H275" s="19" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I275" s="19" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J275" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21">
+      <c r="A276" s="22"/>
+      <c r="B276" s="21"/>
+      <c r="C276" s="21"/>
+      <c r="H276" s="19" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I276" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J276" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21">
+      <c r="A277" s="22"/>
+      <c r="B277" s="21"/>
+      <c r="C277" s="21"/>
+      <c r="H277" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="I275" s="21" t="s">
+      <c r="I277" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J277" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="278" spans="1:21">
+      <c r="A278" s="22"/>
+      <c r="B278" s="21"/>
+      <c r="C278" s="21"/>
+      <c r="H278" s="19" t="s">
         <v>1085</v>
       </c>
-      <c r="J275" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="276" spans="1:21">
-      <c r="A276" s="16"/>
-      <c r="B276" s="23"/>
-      <c r="C276" s="23"/>
-      <c r="H276" s="21" t="s">
-        <v>1087</v>
-      </c>
-      <c r="I276" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J276" s="21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="277" spans="1:21">
-      <c r="A277" s="16"/>
-      <c r="B277" s="23"/>
-      <c r="C277" s="23"/>
-      <c r="H277" s="21" t="s">
-        <v>1090</v>
-      </c>
-      <c r="I277" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J277" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="278" spans="1:21">
-      <c r="A278" s="16"/>
-      <c r="B278" s="23"/>
-      <c r="C278" s="23"/>
-      <c r="H278" s="21" t="s">
-        <v>1091</v>
-      </c>
-      <c r="I278" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J278" s="21" t="s">
-        <v>1089</v>
+      <c r="I278" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J278" s="19" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="279" spans="1:21">
-      <c r="A279" s="16"/>
+      <c r="A279" s="22"/>
       <c r="E279" s="1" t="s">
         <v>344</v>
       </c>
@@ -12610,11 +12601,11 @@
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
       <c r="I279" s="1" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="J279" s="2"/>
       <c r="K279" s="1" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="L279" s="2"/>
       <c r="M279" s="2"/>
@@ -12622,16 +12613,16 @@
       <c r="O279" s="2"/>
       <c r="P279" s="2"/>
       <c r="Q279" s="1" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="R279" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S279" s="2"/>
       <c r="T279" s="2"/>
     </row>
     <row r="280" spans="1:21">
-      <c r="A280" s="16"/>
+      <c r="A280" s="22"/>
       <c r="E280" s="1" t="s">
         <v>344</v>
       </c>
@@ -12641,11 +12632,11 @@
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
       <c r="I280" s="1" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="J280" s="2"/>
       <c r="K280" s="1" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="L280" s="2"/>
       <c r="M280" s="2"/>
@@ -12653,16 +12644,16 @@
       <c r="O280" s="2"/>
       <c r="P280" s="2"/>
       <c r="Q280" s="1" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="R280" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S280" s="2"/>
       <c r="T280" s="2"/>
     </row>
     <row r="281" spans="1:21">
-      <c r="A281" s="16"/>
+      <c r="A281" s="22"/>
       <c r="E281" s="1" t="s">
         <v>344</v>
       </c>
@@ -12672,11 +12663,11 @@
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
       <c r="I281" s="1" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="J281" s="2"/>
       <c r="K281" s="1" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="L281" s="2"/>
       <c r="M281" s="2"/>
@@ -12684,16 +12675,16 @@
       <c r="O281" s="2"/>
       <c r="P281" s="2"/>
       <c r="Q281" s="1" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="R281" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S281" s="2"/>
       <c r="T281" s="2"/>
     </row>
     <row r="282" spans="1:21">
-      <c r="A282" s="16"/>
+      <c r="A282" s="22"/>
       <c r="E282" s="1" t="s">
         <v>344</v>
       </c>
@@ -12703,11 +12694,11 @@
       <c r="G282" s="2"/>
       <c r="H282" s="2"/>
       <c r="I282" s="1" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="J282" s="2"/>
       <c r="K282" s="1" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="L282" s="2"/>
       <c r="M282" s="2"/>
@@ -12715,16 +12706,16 @@
       <c r="O282" s="2"/>
       <c r="P282" s="2"/>
       <c r="Q282" s="1" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="R282" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S282" s="2"/>
       <c r="T282" s="2"/>
     </row>
     <row r="283" spans="1:21">
-      <c r="A283" s="16"/>
+      <c r="A283" s="22"/>
       <c r="E283" s="1" t="s">
         <v>344</v>
       </c>
@@ -12734,11 +12725,11 @@
       <c r="G283" s="2"/>
       <c r="H283" s="2"/>
       <c r="I283" s="1" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="J283" s="2"/>
       <c r="K283" s="1" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="L283" s="2"/>
       <c r="M283" s="2"/>
@@ -12746,16 +12737,16 @@
       <c r="O283" s="2"/>
       <c r="P283" s="2"/>
       <c r="Q283" s="1" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="R283" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S283" s="2"/>
       <c r="T283" s="2"/>
     </row>
     <row r="284" spans="1:21">
-      <c r="A284" s="16"/>
+      <c r="A284" s="22"/>
       <c r="E284" s="1" t="s">
         <v>344</v>
       </c>
@@ -12765,11 +12756,11 @@
       <c r="G284" s="2"/>
       <c r="H284" s="2"/>
       <c r="I284" s="1" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="J284" s="2"/>
       <c r="K284" s="1" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="L284" s="2"/>
       <c r="M284" s="2"/>
@@ -12777,16 +12768,16 @@
       <c r="O284" s="2"/>
       <c r="P284" s="2"/>
       <c r="Q284" s="1" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="R284" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S284" s="2"/>
       <c r="T284" s="2"/>
     </row>
     <row r="285" spans="1:21">
-      <c r="A285" s="16"/>
+      <c r="A285" s="22"/>
       <c r="E285" s="1" t="s">
         <v>344</v>
       </c>
@@ -12796,11 +12787,11 @@
       <c r="G285" s="2"/>
       <c r="H285" s="2"/>
       <c r="I285" s="1" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="J285" s="2"/>
       <c r="K285" s="1" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="L285" s="2"/>
       <c r="M285" s="2"/>
@@ -12808,16 +12799,16 @@
       <c r="O285" s="2"/>
       <c r="P285" s="2"/>
       <c r="Q285" s="1" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="R285" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S285" s="2"/>
       <c r="T285" s="2"/>
     </row>
     <row r="286" spans="1:21">
-      <c r="A286" s="16"/>
+      <c r="A286" s="22"/>
       <c r="E286" s="1" t="s">
         <v>344</v>
       </c>
@@ -12827,11 +12818,11 @@
       <c r="G286" s="2"/>
       <c r="H286" s="2"/>
       <c r="I286" s="1" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="J286" s="2"/>
       <c r="K286" s="1" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="L286" s="2"/>
       <c r="M286" s="2"/>
@@ -12840,16 +12831,16 @@
       <c r="P286" s="2"/>
       <c r="Q286" s="2"/>
       <c r="R286" s="1" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="S286" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="T286" s="2"/>
       <c r="U286" s="2"/>
     </row>
     <row r="287" spans="1:21">
-      <c r="A287" s="16"/>
+      <c r="A287" s="22"/>
       <c r="E287" s="1" t="s">
         <v>344</v>
       </c>
@@ -12859,11 +12850,11 @@
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
       <c r="I287" s="1" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="J287" s="2"/>
       <c r="K287" s="1" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="L287" s="2"/>
       <c r="M287" s="2"/>
@@ -12871,16 +12862,16 @@
       <c r="O287" s="2"/>
       <c r="P287" s="2"/>
       <c r="Q287" s="1" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="R287" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S287" s="2"/>
       <c r="T287" s="2"/>
     </row>
     <row r="288" spans="1:21">
-      <c r="A288" s="16"/>
+      <c r="A288" s="22"/>
       <c r="E288" s="1" t="s">
         <v>344</v>
       </c>
@@ -12890,11 +12881,11 @@
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
       <c r="I288" s="1" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="J288" s="2"/>
       <c r="K288" s="1" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="L288" s="2"/>
       <c r="M288" s="2"/>
@@ -12902,16 +12893,16 @@
       <c r="O288" s="2"/>
       <c r="P288" s="2"/>
       <c r="Q288" s="1" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="R288" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S288" s="2"/>
       <c r="T288" s="2"/>
     </row>
     <row r="289" spans="1:21">
-      <c r="A289" s="16"/>
+      <c r="A289" s="22"/>
       <c r="E289" s="1" t="s">
         <v>344</v>
       </c>
@@ -12921,11 +12912,11 @@
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
       <c r="I289" s="1" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="J289" s="2"/>
       <c r="K289" s="1" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="L289" s="2"/>
       <c r="M289" s="2"/>
@@ -12933,16 +12924,16 @@
       <c r="O289" s="2"/>
       <c r="P289" s="2"/>
       <c r="Q289" s="1" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="R289" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S289" s="2"/>
       <c r="T289" s="2"/>
     </row>
     <row r="290" spans="1:21">
-      <c r="A290" s="16"/>
+      <c r="A290" s="22"/>
       <c r="E290" s="1" t="s">
         <v>344</v>
       </c>
@@ -12952,11 +12943,11 @@
       <c r="G290" s="2"/>
       <c r="H290" s="2"/>
       <c r="I290" s="1" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="J290" s="2"/>
       <c r="K290" s="1" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="L290" s="2"/>
       <c r="M290" s="2"/>
@@ -12965,715 +12956,715 @@
       <c r="P290" s="2"/>
       <c r="Q290" s="2"/>
       <c r="R290" s="1" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="S290" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="T290" s="2"/>
       <c r="U290" s="2"/>
     </row>
     <row r="291" spans="1:21">
-      <c r="A291" s="16"/>
-      <c r="H291" s="21" t="s">
+      <c r="A291" s="22"/>
+      <c r="H291" s="19" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I291" s="19" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J291" s="19" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="292" spans="1:21">
+      <c r="A292" s="22"/>
+      <c r="H292" s="19" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I292" s="19" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J292" s="19" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="293" spans="1:21">
+      <c r="A293" s="22"/>
+      <c r="H293" s="19" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I293" s="19" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J293" s="19" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="294" spans="1:21">
+      <c r="A294" s="22"/>
+      <c r="H294" s="19" t="s">
         <v>1067</v>
       </c>
-      <c r="I291" s="21" t="s">
+      <c r="I294" s="19" t="s">
         <v>1068</v>
       </c>
-      <c r="J291" s="21" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="292" spans="1:21">
-      <c r="A292" s="16"/>
-      <c r="H292" s="21" t="s">
+      <c r="J294" s="19" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="295" spans="1:21">
+      <c r="A295" s="22"/>
+      <c r="H295" s="19" t="s">
         <v>1069</v>
       </c>
-      <c r="I292" s="21" t="s">
+      <c r="I295" s="19" t="s">
         <v>1070</v>
       </c>
-      <c r="J292" s="21" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="293" spans="1:21">
-      <c r="A293" s="16"/>
-      <c r="H293" s="21" t="s">
+      <c r="J295" s="19" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="296" spans="1:21">
+      <c r="A296" s="22"/>
+      <c r="H296" s="19" t="s">
         <v>1071</v>
       </c>
-      <c r="I293" s="21" t="s">
+      <c r="I296" s="19" t="s">
         <v>1072</v>
       </c>
-      <c r="J293" s="21" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="294" spans="1:21">
-      <c r="A294" s="16"/>
-      <c r="H294" s="21" t="s">
+      <c r="J296" s="19" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="297" spans="1:21">
+      <c r="A297" s="22"/>
+      <c r="H297" s="19" t="s">
         <v>1073</v>
       </c>
-      <c r="I294" s="21" t="s">
+      <c r="I297" s="19" t="s">
         <v>1074</v>
       </c>
-      <c r="J294" s="21" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="295" spans="1:21">
-      <c r="A295" s="16"/>
-      <c r="H295" s="21" t="s">
+      <c r="J297" s="19" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="298" spans="1:21">
+      <c r="A298" s="22"/>
+      <c r="H298" s="19" t="s">
         <v>1075</v>
       </c>
-      <c r="I295" s="21" t="s">
+      <c r="I298" s="19" t="s">
         <v>1076</v>
       </c>
-      <c r="J295" s="21" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="296" spans="1:21">
-      <c r="A296" s="16"/>
-      <c r="H296" s="21" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I296" s="21" t="s">
-        <v>1078</v>
-      </c>
-      <c r="J296" s="21" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="297" spans="1:21">
-      <c r="A297" s="16"/>
-      <c r="H297" s="21" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I297" s="21" t="s">
+      <c r="J298" s="19" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="299" spans="1:21">
+      <c r="A299" s="22"/>
+      <c r="B299" s="21"/>
+      <c r="C299" s="21"/>
+      <c r="H299" s="19" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I299" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J299" s="19" t="s">
         <v>1080</v>
       </c>
-      <c r="J297" s="21" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="298" spans="1:21">
-      <c r="A298" s="16"/>
-      <c r="H298" s="21" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I298" s="21" t="s">
+    </row>
+    <row r="300" spans="1:21">
+      <c r="A300" s="22"/>
+      <c r="H300" s="19" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I300" s="19" t="s">
         <v>1082</v>
       </c>
-      <c r="J298" s="21" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="299" spans="1:21">
-      <c r="A299" s="16"/>
-      <c r="B299" s="23"/>
-      <c r="C299" s="23"/>
-      <c r="H299" s="21" t="s">
+      <c r="J300" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="301" spans="1:21">
+      <c r="A301" s="22"/>
+      <c r="H301" s="19" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I301" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J301" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="302" spans="1:21">
+      <c r="A302" s="22"/>
+      <c r="H302" s="19" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I302" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J302" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="303" spans="1:21">
+      <c r="A303" s="22"/>
+      <c r="H303" s="19" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I303" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J303" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="304" spans="1:21">
+      <c r="A304" s="22"/>
+      <c r="H304" s="19" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I304" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J304" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10">
+      <c r="A305" s="22"/>
+      <c r="H305" s="19" t="s">
         <v>1092</v>
       </c>
-      <c r="I299" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J299" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="300" spans="1:21">
-      <c r="A300" s="16"/>
-      <c r="H300" s="21" t="s">
+      <c r="I305" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J305" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10">
+      <c r="A306" s="22"/>
+      <c r="H306" s="19" t="s">
         <v>1093</v>
       </c>
-      <c r="I300" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J300" s="21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="301" spans="1:21">
-      <c r="A301" s="16"/>
-      <c r="H301" s="21" t="s">
+      <c r="I306" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J306" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10">
+      <c r="A307" s="22"/>
+      <c r="H307" s="19" t="s">
         <v>1094</v>
       </c>
-      <c r="I301" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J301" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="302" spans="1:21">
-      <c r="A302" s="16"/>
-      <c r="H302" s="21" t="s">
+      <c r="I307" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J307" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10">
+      <c r="A308" s="22"/>
+      <c r="H308" s="19" t="s">
         <v>1095</v>
       </c>
-      <c r="I302" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J302" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="303" spans="1:21">
-      <c r="A303" s="16"/>
-      <c r="H303" s="21" t="s">
+      <c r="I308" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J308" s="19" t="s">
         <v>1096</v>
       </c>
-      <c r="I303" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J303" s="21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="304" spans="1:21">
-      <c r="A304" s="16"/>
-      <c r="H304" s="21" t="s">
+    </row>
+    <row r="309" spans="1:10">
+      <c r="A309" s="22"/>
+      <c r="H309" s="19" t="s">
         <v>1097</v>
       </c>
-      <c r="I304" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J304" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10">
-      <c r="A305" s="16"/>
-      <c r="H305" s="21" t="s">
+      <c r="I309" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J309" s="19" t="s">
         <v>1098</v>
       </c>
-      <c r="I305" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J305" s="21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10">
-      <c r="A306" s="16"/>
-      <c r="H306" s="21" t="s">
+    </row>
+    <row r="310" spans="1:10">
+      <c r="A310" s="22"/>
+      <c r="H310" s="19" t="s">
         <v>1099</v>
       </c>
-      <c r="I306" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J306" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10">
-      <c r="A307" s="16"/>
-      <c r="H307" s="21" t="s">
+      <c r="I310" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J310" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10">
+      <c r="A311" s="22"/>
+      <c r="H311" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="I307" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J307" s="21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10">
-      <c r="A308" s="16"/>
-      <c r="H308" s="21" t="s">
+      <c r="I311" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J311" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10">
+      <c r="A312" s="22"/>
+      <c r="H312" s="19" t="s">
         <v>1101</v>
       </c>
-      <c r="I308" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J308" s="21" t="s">
+      <c r="I312" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J312" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10">
+      <c r="A313" s="22"/>
+      <c r="H313" s="19" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="309" spans="1:10">
-      <c r="A309" s="16"/>
-      <c r="H309" s="21" t="s">
+      <c r="I313" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J313" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10">
+      <c r="A314" s="22"/>
+      <c r="H314" s="19" t="s">
         <v>1103</v>
       </c>
-      <c r="I309" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J309" s="21" t="s">
+      <c r="I314" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J314" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10">
+      <c r="A315" s="22"/>
+      <c r="H315" s="19" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="310" spans="1:10">
-      <c r="A310" s="16"/>
-      <c r="H310" s="21" t="s">
+      <c r="I315" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J315" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10">
+      <c r="A316" s="22"/>
+      <c r="H316" s="19" t="s">
         <v>1105</v>
       </c>
-      <c r="I310" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J310" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10">
-      <c r="A311" s="16"/>
-      <c r="H311" s="21" t="s">
+      <c r="I316" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J316" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10">
+      <c r="A317" s="22"/>
+      <c r="H317" s="19" t="s">
         <v>1106</v>
       </c>
-      <c r="I311" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J311" s="21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10">
-      <c r="A312" s="16"/>
-      <c r="H312" s="21" t="s">
+      <c r="I317" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J317" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10">
+      <c r="A318" s="22"/>
+      <c r="H318" s="19" t="s">
         <v>1107</v>
       </c>
-      <c r="I312" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J312" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10">
-      <c r="A313" s="16"/>
-      <c r="H313" s="21" t="s">
+      <c r="I318" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J318" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10">
+      <c r="A319" s="22"/>
+      <c r="H319" s="19" t="s">
         <v>1108</v>
       </c>
-      <c r="I313" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J313" s="21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10">
-      <c r="A314" s="16"/>
-      <c r="H314" s="21" t="s">
+      <c r="I319" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J319" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10">
+      <c r="A320" s="22"/>
+      <c r="H320" s="19" t="s">
         <v>1109</v>
       </c>
-      <c r="I314" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J314" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10">
-      <c r="A315" s="16"/>
-      <c r="H315" s="21" t="s">
+      <c r="I320" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J320" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10">
+      <c r="A321" s="22"/>
+      <c r="H321" s="19" t="s">
         <v>1110</v>
       </c>
-      <c r="I315" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J315" s="21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10">
-      <c r="A316" s="16"/>
-      <c r="H316" s="21" t="s">
+      <c r="I321" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J321" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10">
+      <c r="A322" s="22"/>
+      <c r="H322" s="19" t="s">
         <v>1111</v>
       </c>
-      <c r="I316" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J316" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10">
-      <c r="A317" s="16"/>
-      <c r="H317" s="21" t="s">
+      <c r="I322" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J322" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10">
+      <c r="A323" s="22"/>
+      <c r="H323" s="19" t="s">
         <v>1112</v>
       </c>
-      <c r="I317" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J317" s="21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10">
-      <c r="A318" s="16"/>
-      <c r="H318" s="21" t="s">
+      <c r="I323" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J323" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10">
+      <c r="A324" s="22"/>
+      <c r="H324" s="19" t="s">
         <v>1113</v>
       </c>
-      <c r="I318" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J318" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10">
-      <c r="A319" s="16"/>
-      <c r="H319" s="21" t="s">
+      <c r="I324" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J324" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10">
+      <c r="A325" s="22"/>
+      <c r="H325" s="19" t="s">
         <v>1114</v>
       </c>
-      <c r="I319" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J319" s="21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="320" spans="1:10">
-      <c r="A320" s="16"/>
-      <c r="H320" s="21" t="s">
+      <c r="I325" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J325" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10">
+      <c r="A326" s="22"/>
+      <c r="H326" s="19" t="s">
         <v>1115</v>
       </c>
-      <c r="I320" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J320" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="321" spans="1:10">
-      <c r="A321" s="16"/>
-      <c r="H321" s="21" t="s">
+      <c r="I326" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J326" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10">
+      <c r="A327" s="22"/>
+      <c r="H327" s="19" t="s">
         <v>1116</v>
       </c>
-      <c r="I321" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J321" s="21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="322" spans="1:10">
-      <c r="A322" s="16"/>
-      <c r="H322" s="21" t="s">
+      <c r="I327" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J327" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10">
+      <c r="A328" s="22"/>
+      <c r="H328" s="19" t="s">
         <v>1117</v>
       </c>
-      <c r="I322" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J322" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="323" spans="1:10">
-      <c r="A323" s="16"/>
-      <c r="H323" s="21" t="s">
+      <c r="I328" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J328" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10">
+      <c r="A329" s="22"/>
+      <c r="H329" s="19" t="s">
         <v>1118</v>
       </c>
-      <c r="I323" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J323" s="21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10">
-      <c r="A324" s="16"/>
-      <c r="H324" s="21" t="s">
+      <c r="I329" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J329" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10">
+      <c r="A330" s="22"/>
+      <c r="H330" s="19" t="s">
         <v>1119</v>
       </c>
-      <c r="I324" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J324" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10">
-      <c r="A325" s="16"/>
-      <c r="H325" s="21" t="s">
+      <c r="I330" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J330" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10">
+      <c r="A331" s="22"/>
+      <c r="H331" s="19" t="s">
         <v>1120</v>
       </c>
-      <c r="I325" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J325" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="326" spans="1:10">
-      <c r="A326" s="16"/>
-      <c r="H326" s="21" t="s">
+      <c r="I331" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J331" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10">
+      <c r="A332" s="22"/>
+      <c r="H332" s="19" t="s">
         <v>1121</v>
       </c>
-      <c r="I326" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J326" s="21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="327" spans="1:10">
-      <c r="A327" s="16"/>
-      <c r="H327" s="21" t="s">
+      <c r="I332" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J332" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10">
+      <c r="A333" s="22"/>
+      <c r="H333" s="19" t="s">
         <v>1122</v>
       </c>
-      <c r="I327" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J327" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10">
-      <c r="A328" s="16"/>
-      <c r="H328" s="21" t="s">
+      <c r="I333" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J333" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10">
+      <c r="A334" s="22"/>
+      <c r="H334" s="19" t="s">
         <v>1123</v>
       </c>
-      <c r="I328" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J328" s="21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10">
-      <c r="A329" s="16"/>
-      <c r="H329" s="21" t="s">
+      <c r="I334" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J334" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10">
+      <c r="A335" s="22"/>
+      <c r="H335" s="19" t="s">
         <v>1124</v>
       </c>
-      <c r="I329" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J329" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10">
-      <c r="A330" s="16"/>
-      <c r="H330" s="21" t="s">
+      <c r="I335" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J335" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10">
+      <c r="A336" s="22"/>
+      <c r="H336" s="19" t="s">
         <v>1125</v>
       </c>
-      <c r="I330" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J330" s="21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="331" spans="1:10">
-      <c r="A331" s="16"/>
-      <c r="H331" s="21" t="s">
+      <c r="I336" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J336" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="337" spans="1:19">
+      <c r="A337" s="22"/>
+      <c r="H337" s="19" t="s">
         <v>1126</v>
       </c>
-      <c r="I331" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J331" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10">
-      <c r="A332" s="16"/>
-      <c r="H332" s="21" t="s">
+      <c r="I337" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J337" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="338" spans="1:19">
+      <c r="A338" s="22"/>
+      <c r="H338" s="19" t="s">
         <v>1127</v>
       </c>
-      <c r="I332" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J332" s="21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10">
-      <c r="A333" s="16"/>
-      <c r="H333" s="21" t="s">
+      <c r="I338" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J338" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="339" spans="1:19">
+      <c r="A339" s="22"/>
+      <c r="H339" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="I333" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J333" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="334" spans="1:10">
-      <c r="A334" s="16"/>
-      <c r="H334" s="21" t="s">
+      <c r="I339" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J339" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="340" spans="1:19">
+      <c r="A340" s="22"/>
+      <c r="H340" s="19" t="s">
         <v>1129</v>
       </c>
-      <c r="I334" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J334" s="21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10">
-      <c r="A335" s="16"/>
-      <c r="H335" s="21" t="s">
+      <c r="I340" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J340" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="341" spans="1:19">
+      <c r="A341" s="22"/>
+      <c r="H341" s="19" t="s">
         <v>1130</v>
       </c>
-      <c r="I335" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J335" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="336" spans="1:10">
-      <c r="A336" s="16"/>
-      <c r="H336" s="21" t="s">
+      <c r="I341" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J341" s="19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="342" spans="1:19">
+      <c r="A342" s="22"/>
+      <c r="H342" s="19" t="s">
         <v>1131</v>
       </c>
-      <c r="I336" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J336" s="21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="337" spans="1:19">
-      <c r="A337" s="16"/>
-      <c r="H337" s="21" t="s">
+      <c r="I342" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J342" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="343" spans="1:19">
+      <c r="A343" s="22"/>
+      <c r="H343" s="19" t="s">
         <v>1132</v>
       </c>
-      <c r="I337" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J337" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="338" spans="1:19">
-      <c r="A338" s="16"/>
-      <c r="H338" s="21" t="s">
+      <c r="I343" s="19" t="s">
         <v>1133</v>
       </c>
-      <c r="I338" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J338" s="21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="339" spans="1:19">
-      <c r="A339" s="16"/>
-      <c r="H339" s="21" t="s">
+      <c r="J343" s="19" t="s">
         <v>1134</v>
       </c>
-      <c r="I339" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J339" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="340" spans="1:19">
-      <c r="A340" s="16"/>
-      <c r="H340" s="21" t="s">
+    </row>
+    <row r="344" spans="1:19">
+      <c r="A344" s="22"/>
+      <c r="H344" s="19" t="s">
         <v>1135</v>
       </c>
-      <c r="I340" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J340" s="21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="341" spans="1:19">
-      <c r="A341" s="16"/>
-      <c r="H341" s="21" t="s">
+      <c r="I344" s="19" t="s">
         <v>1136</v>
       </c>
-      <c r="I341" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J341" s="21" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="342" spans="1:19">
-      <c r="A342" s="16"/>
-      <c r="H342" s="21" t="s">
+      <c r="J344" s="19" t="s">
         <v>1137</v>
       </c>
-      <c r="I342" s="21" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J342" s="21" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="343" spans="1:19">
-      <c r="A343" s="16"/>
-      <c r="H343" s="21" t="s">
+    </row>
+    <row r="345" spans="1:19">
+      <c r="A345" s="22"/>
+      <c r="H345" s="19" t="s">
         <v>1138</v>
       </c>
-      <c r="I343" s="21" t="s">
+      <c r="I345" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J345" s="19" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="346" spans="1:19">
+      <c r="A346" s="22"/>
+      <c r="H346" s="19" t="s">
         <v>1139</v>
       </c>
-      <c r="J343" s="21" t="s">
+      <c r="I346" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J346" s="19" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="347" spans="1:19">
+      <c r="A347" s="22"/>
+      <c r="H347" s="19" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="344" spans="1:19">
-      <c r="A344" s="16"/>
-      <c r="H344" s="21" t="s">
+      <c r="I347" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J347" s="19" t="s">
         <v>1141</v>
       </c>
-      <c r="I344" s="21" t="s">
+    </row>
+    <row r="348" spans="1:19">
+      <c r="A348" s="22"/>
+      <c r="H348" s="19" t="s">
         <v>1142</v>
       </c>
-      <c r="J344" s="21" t="s">
+      <c r="I348" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J348" s="19" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="345" spans="1:19">
-      <c r="A345" s="16"/>
-      <c r="H345" s="21" t="s">
-        <v>1144</v>
-      </c>
-      <c r="I345" s="21" t="s">
-        <v>1142</v>
-      </c>
-      <c r="J345" s="21" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="346" spans="1:19">
-      <c r="A346" s="16"/>
-      <c r="H346" s="21" t="s">
-        <v>1145</v>
-      </c>
-      <c r="I346" s="21" t="s">
-        <v>1142</v>
-      </c>
-      <c r="J346" s="21" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="347" spans="1:19">
-      <c r="A347" s="16"/>
-      <c r="H347" s="21" t="s">
-        <v>1146</v>
-      </c>
-      <c r="I347" s="21" t="s">
-        <v>1142</v>
-      </c>
-      <c r="J347" s="21" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="348" spans="1:19">
-      <c r="A348" s="16"/>
-      <c r="H348" s="21" t="s">
-        <v>1148</v>
-      </c>
-      <c r="I348" s="21" t="s">
-        <v>1142</v>
-      </c>
-      <c r="J348" s="21" t="s">
-        <v>1149</v>
-      </c>
-    </row>
     <row r="349" spans="1:19">
-      <c r="A349" s="16" t="s">
-        <v>1057</v>
+      <c r="A349" s="22" t="s">
+        <v>1051</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>344</v>
@@ -13697,7 +13688,7 @@
       <c r="S349" s="2"/>
     </row>
     <row r="350" spans="1:19">
-      <c r="A350" s="16"/>
+      <c r="A350" s="22"/>
       <c r="E350" s="1" t="s">
         <v>344</v>
       </c>
@@ -13718,8 +13709,8 @@
       <c r="Q350" s="2"/>
     </row>
     <row r="351" spans="1:19">
-      <c r="A351" s="16" t="s">
-        <v>1058</v>
+      <c r="A351" s="22" t="s">
+        <v>1052</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>344</v>
@@ -13733,7 +13724,7 @@
       </c>
     </row>
     <row r="352" spans="1:19">
-      <c r="A352" s="16"/>
+      <c r="A352" s="22"/>
       <c r="E352" s="1" t="s">
         <v>344</v>
       </c>
@@ -13746,7 +13737,7 @@
       </c>
     </row>
     <row r="353" spans="1:20">
-      <c r="A353" s="16"/>
+      <c r="A353" s="22"/>
       <c r="E353" s="1" t="s">
         <v>344</v>
       </c>
@@ -13759,7 +13750,7 @@
       </c>
     </row>
     <row r="354" spans="1:20">
-      <c r="A354" s="16"/>
+      <c r="A354" s="22"/>
       <c r="E354" s="1" t="s">
         <v>344</v>
       </c>
@@ -13772,7 +13763,7 @@
       </c>
     </row>
     <row r="355" spans="1:20">
-      <c r="A355" s="16"/>
+      <c r="A355" s="22"/>
       <c r="E355" s="1" t="s">
         <v>344</v>
       </c>
@@ -13785,7 +13776,7 @@
       </c>
     </row>
     <row r="356" spans="1:20">
-      <c r="A356" s="16"/>
+      <c r="A356" s="22"/>
       <c r="E356" s="1" t="s">
         <v>344</v>
       </c>
@@ -13798,17 +13789,17 @@
       </c>
     </row>
     <row r="357" spans="1:20">
-      <c r="A357" s="16"/>
+      <c r="A357" s="22"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
       <c r="G357" s="2"/>
       <c r="H357" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="358" spans="1:20">
-      <c r="A358" s="16" t="s">
-        <v>1059</v>
+      <c r="A358" s="22" t="s">
+        <v>1053</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>344</v>
@@ -13832,7 +13823,7 @@
       <c r="S358" s="2"/>
     </row>
     <row r="359" spans="1:20">
-      <c r="A359" s="16"/>
+      <c r="A359" s="22"/>
       <c r="E359" s="1" t="s">
         <v>344</v>
       </c>
@@ -13855,7 +13846,7 @@
       <c r="S359" s="2"/>
     </row>
     <row r="360" spans="1:20">
-      <c r="A360" s="16"/>
+      <c r="A360" s="22"/>
       <c r="E360" s="1" t="s">
         <v>344</v>
       </c>
@@ -13878,7 +13869,7 @@
       <c r="S360" s="2"/>
     </row>
     <row r="361" spans="1:20">
-      <c r="A361" s="16"/>
+      <c r="A361" s="22"/>
       <c r="E361" s="1" t="s">
         <v>344</v>
       </c>
@@ -13902,7 +13893,7 @@
       <c r="T361" s="2"/>
     </row>
     <row r="362" spans="1:20">
-      <c r="A362" s="16"/>
+      <c r="A362" s="22"/>
       <c r="E362" s="1" t="s">
         <v>344</v>
       </c>
@@ -13925,7 +13916,7 @@
       <c r="S362" s="2"/>
     </row>
     <row r="363" spans="1:20">
-      <c r="A363" s="16"/>
+      <c r="A363" s="22"/>
       <c r="E363" s="1" t="s">
         <v>344</v>
       </c>
@@ -13948,7 +13939,7 @@
       <c r="S363" s="2"/>
     </row>
     <row r="364" spans="1:20">
-      <c r="A364" s="16"/>
+      <c r="A364" s="22"/>
       <c r="E364" s="1" t="s">
         <v>344</v>
       </c>
@@ -13972,7 +13963,7 @@
       <c r="T364" s="2"/>
     </row>
     <row r="365" spans="1:20">
-      <c r="A365" s="16"/>
+      <c r="A365" s="22"/>
       <c r="E365" s="1" t="s">
         <v>344</v>
       </c>
@@ -13990,8 +13981,8 @@
       <c r="N365" s="2"/>
     </row>
     <row r="366" spans="1:20">
-      <c r="A366" s="16" t="s">
-        <v>1060</v>
+      <c r="A366" s="22" t="s">
+        <v>1054</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>344</v>
@@ -14014,7 +14005,7 @@
       <c r="R366" s="2"/>
     </row>
     <row r="367" spans="1:20">
-      <c r="A367" s="16"/>
+      <c r="A367" s="22"/>
       <c r="E367" s="1" t="s">
         <v>344</v>
       </c>
@@ -14035,7 +14026,7 @@
       <c r="Q367" s="2"/>
     </row>
     <row r="368" spans="1:20">
-      <c r="A368" s="16"/>
+      <c r="A368" s="22"/>
       <c r="E368" s="1" t="s">
         <v>344</v>
       </c>
@@ -14058,7 +14049,7 @@
       <c r="S368" s="2"/>
     </row>
     <row r="369" spans="1:21">
-      <c r="A369" s="16"/>
+      <c r="A369" s="22"/>
       <c r="E369" s="1" t="s">
         <v>344</v>
       </c>
@@ -14076,7 +14067,7 @@
       <c r="N369" s="2"/>
     </row>
     <row r="370" spans="1:21">
-      <c r="A370" s="16"/>
+      <c r="A370" s="22"/>
       <c r="E370" s="1" t="s">
         <v>15</v>
       </c>
@@ -14102,7 +14093,7 @@
       <c r="P370" s="2"/>
     </row>
     <row r="371" spans="1:21">
-      <c r="A371" s="16"/>
+      <c r="A371" s="22"/>
       <c r="E371" s="1" t="s">
         <v>15</v>
       </c>
@@ -14128,15 +14119,15 @@
       <c r="P371" s="2"/>
     </row>
     <row r="372" spans="1:21">
-      <c r="A372" s="16" t="s">
-        <v>1150</v>
+      <c r="A372" s="22" t="s">
+        <v>1144</v>
       </c>
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
       <c r="I372" s="7" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="J372" s="2"/>
       <c r="K372" s="2"/>
@@ -14152,13 +14143,13 @@
       <c r="U372" s="2"/>
     </row>
     <row r="373" spans="1:21">
-      <c r="A373" s="16"/>
+      <c r="A373" s="22"/>
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
       <c r="G373" s="2"/>
       <c r="H373" s="2"/>
       <c r="I373" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="J373" s="2"/>
       <c r="K373" s="2"/>
@@ -14174,13 +14165,13 @@
       <c r="U373" s="2"/>
     </row>
     <row r="374" spans="1:21">
-      <c r="A374" s="16"/>
+      <c r="A374" s="22"/>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
       <c r="G374" s="2"/>
       <c r="H374" s="2"/>
       <c r="I374" s="7" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="J374" s="2"/>
       <c r="K374" s="2"/>
@@ -14196,13 +14187,13 @@
       <c r="U374" s="2"/>
     </row>
     <row r="375" spans="1:21">
-      <c r="A375" s="16"/>
+      <c r="A375" s="22"/>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
       <c r="G375" s="2"/>
       <c r="H375" s="2"/>
       <c r="I375" s="7" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="J375" s="2"/>
       <c r="K375" s="2"/>
@@ -14218,13 +14209,13 @@
       <c r="U375" s="2"/>
     </row>
     <row r="376" spans="1:21">
-      <c r="A376" s="16"/>
+      <c r="A376" s="22"/>
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
       <c r="G376" s="2"/>
       <c r="H376" s="2"/>
       <c r="I376" s="7" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="J376" s="2"/>
       <c r="K376" s="2"/>
@@ -14240,13 +14231,13 @@
       <c r="U376" s="2"/>
     </row>
     <row r="377" spans="1:21">
-      <c r="A377" s="16"/>
+      <c r="A377" s="22"/>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
       <c r="G377" s="2"/>
       <c r="H377" s="2"/>
       <c r="I377" s="7" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="J377" s="2"/>
       <c r="K377" s="2"/>
@@ -14262,13 +14253,13 @@
       <c r="U377" s="2"/>
     </row>
     <row r="378" spans="1:21">
-      <c r="A378" s="16"/>
+      <c r="A378" s="22"/>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
       <c r="G378" s="2"/>
       <c r="H378" s="2"/>
       <c r="I378" s="7" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="J378" s="2"/>
       <c r="K378" s="2"/>
@@ -14284,13 +14275,13 @@
       <c r="U378" s="2"/>
     </row>
     <row r="379" spans="1:21">
-      <c r="A379" s="16"/>
+      <c r="A379" s="22"/>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
       <c r="I379" s="7" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="J379" s="2"/>
       <c r="K379" s="2"/>
@@ -14306,13 +14297,13 @@
       <c r="U379" s="2"/>
     </row>
     <row r="380" spans="1:21">
-      <c r="A380" s="16"/>
+      <c r="A380" s="22"/>
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
       <c r="I380" s="7" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="J380" s="2"/>
       <c r="K380" s="2"/>
@@ -14328,13 +14319,13 @@
       <c r="U380" s="2"/>
     </row>
     <row r="381" spans="1:21">
-      <c r="A381" s="16"/>
+      <c r="A381" s="22"/>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
       <c r="H381" s="2"/>
       <c r="I381" s="7" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="J381" s="2"/>
       <c r="K381" s="2"/>
@@ -14350,13 +14341,13 @@
       <c r="U381" s="2"/>
     </row>
     <row r="382" spans="1:21">
-      <c r="A382" s="16"/>
+      <c r="A382" s="22"/>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
       <c r="G382" s="2"/>
       <c r="H382" s="2"/>
       <c r="I382" s="7" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="J382" s="2"/>
       <c r="K382" s="2"/>
@@ -14372,13 +14363,13 @@
       <c r="U382" s="2"/>
     </row>
     <row r="383" spans="1:21">
-      <c r="A383" s="16"/>
+      <c r="A383" s="22"/>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
       <c r="G383" s="2"/>
       <c r="H383" s="2"/>
       <c r="I383" s="7" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="J383" s="2"/>
       <c r="K383" s="2"/>
@@ -14394,13 +14385,13 @@
       <c r="U383" s="2"/>
     </row>
     <row r="384" spans="1:21">
-      <c r="A384" s="16"/>
+      <c r="A384" s="22"/>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
       <c r="G384" s="2"/>
       <c r="H384" s="2"/>
       <c r="I384" s="7" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="J384" s="2"/>
       <c r="K384" s="2"/>
@@ -14416,13 +14407,13 @@
       <c r="U384" s="2"/>
     </row>
     <row r="385" spans="1:21">
-      <c r="A385" s="16"/>
+      <c r="A385" s="22"/>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
       <c r="G385" s="2"/>
       <c r="H385" s="2"/>
       <c r="I385" s="7" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="J385" s="2"/>
       <c r="K385" s="2"/>
@@ -14438,13 +14429,13 @@
       <c r="U385" s="2"/>
     </row>
     <row r="386" spans="1:21">
-      <c r="A386" s="16"/>
+      <c r="A386" s="22"/>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
       <c r="G386" s="2"/>
       <c r="H386" s="2"/>
       <c r="I386" s="7" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J386" s="2"/>
       <c r="K386" s="2"/>
@@ -14460,13 +14451,13 @@
       <c r="U386" s="2"/>
     </row>
     <row r="387" spans="1:21">
-      <c r="A387" s="16"/>
+      <c r="A387" s="22"/>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
       <c r="G387" s="2"/>
       <c r="H387" s="2"/>
       <c r="I387" s="7" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="J387" s="2"/>
       <c r="K387" s="2"/>
@@ -14482,13 +14473,13 @@
       <c r="U387" s="2"/>
     </row>
     <row r="388" spans="1:21">
-      <c r="A388" s="16"/>
+      <c r="A388" s="22"/>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
       <c r="H388" s="2"/>
       <c r="I388" s="7" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="J388" s="2"/>
       <c r="K388" s="2"/>
@@ -14504,13 +14495,13 @@
       <c r="U388" s="2"/>
     </row>
     <row r="389" spans="1:21">
-      <c r="A389" s="16"/>
+      <c r="A389" s="22"/>
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
       <c r="G389" s="2"/>
       <c r="H389" s="2"/>
       <c r="I389" s="7" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="J389" s="2"/>
       <c r="K389" s="2"/>
@@ -14526,13 +14517,13 @@
       <c r="U389" s="2"/>
     </row>
     <row r="390" spans="1:21">
-      <c r="A390" s="16"/>
+      <c r="A390" s="22"/>
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
       <c r="I390" s="7" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="J390" s="2"/>
       <c r="K390" s="2"/>
@@ -14548,13 +14539,13 @@
       <c r="U390" s="2"/>
     </row>
     <row r="391" spans="1:21">
-      <c r="A391" s="16"/>
+      <c r="A391" s="22"/>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
       <c r="G391" s="2"/>
       <c r="H391" s="2"/>
       <c r="I391" s="7" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="J391" s="2"/>
       <c r="K391" s="2"/>
@@ -14570,7 +14561,7 @@
       <c r="U391" s="2"/>
     </row>
     <row r="392" spans="1:21">
-      <c r="A392" s="16"/>
+      <c r="A392" s="22"/>
       <c r="E392" s="1" t="s">
         <v>344</v>
       </c>
@@ -14580,7 +14571,7 @@
       <c r="G392" s="2"/>
       <c r="H392" s="2"/>
       <c r="I392" s="2" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="J392" s="2"/>
       <c r="K392" s="2"/>
@@ -14596,7 +14587,7 @@
       <c r="U392" s="2"/>
     </row>
     <row r="393" spans="1:21">
-      <c r="A393" s="16"/>
+      <c r="A393" s="22"/>
       <c r="E393" s="1" t="s">
         <v>344</v>
       </c>
@@ -14606,7 +14597,7 @@
       <c r="G393" s="2"/>
       <c r="H393" s="2"/>
       <c r="I393" s="1" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="J393" s="2"/>
       <c r="K393" s="2"/>
@@ -14622,7 +14613,7 @@
       <c r="U393" s="2"/>
     </row>
     <row r="394" spans="1:21">
-      <c r="A394" s="16"/>
+      <c r="A394" s="22"/>
       <c r="E394" s="1" t="s">
         <v>344</v>
       </c>
@@ -14632,7 +14623,7 @@
       <c r="G394" s="2"/>
       <c r="H394" s="2"/>
       <c r="I394" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="J394" s="2"/>
       <c r="K394" s="2"/>
@@ -14648,7 +14639,7 @@
       <c r="U394" s="2"/>
     </row>
     <row r="395" spans="1:21">
-      <c r="A395" s="16"/>
+      <c r="A395" s="22"/>
       <c r="E395" s="1" t="s">
         <v>344</v>
       </c>
@@ -14656,7 +14647,7 @@
         <v>16</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="H395" s="1" t="s">
         <v>558</v>
@@ -14666,7 +14657,7 @@
       </c>
       <c r="J395" s="2"/>
       <c r="K395" s="1" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="L395" s="2"/>
       <c r="M395" s="2"/>
@@ -14674,7 +14665,7 @@
       <c r="O395" s="2"/>
     </row>
     <row r="396" spans="1:21">
-      <c r="A396" s="16"/>
+      <c r="A396" s="22"/>
       <c r="E396" s="1" t="s">
         <v>344</v>
       </c>
@@ -14682,33 +14673,33 @@
         <v>123</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H396" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="I396" s="1" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="J396" s="2"/>
       <c r="K396" s="1" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="L396" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="M396" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="N396" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="O396" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:21">
-      <c r="A397" s="16"/>
+      <c r="A397" s="22"/>
       <c r="E397" s="1" t="s">
         <v>344</v>
       </c>
@@ -14721,10 +14712,10 @@
         <v>560</v>
       </c>
       <c r="J397" s="2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="K397" s="8" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="L397" s="2"/>
       <c r="M397" s="2"/>
@@ -14732,7 +14723,7 @@
       <c r="O397" s="2"/>
       <c r="P397" s="2"/>
       <c r="Q397" s="4" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="R397" s="2"/>
       <c r="S397" s="2"/>
@@ -14740,13 +14731,13 @@
       <c r="U397" s="2"/>
     </row>
     <row r="398" spans="1:21">
-      <c r="A398" s="16"/>
+      <c r="A398" s="22"/>
       <c r="E398" s="1"/>
       <c r="F398" s="2"/>
       <c r="G398" s="2"/>
       <c r="H398" s="2"/>
       <c r="I398" s="1" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="J398" s="2"/>
       <c r="K398" s="8"/>
@@ -14762,13 +14753,13 @@
       <c r="U398" s="2"/>
     </row>
     <row r="399" spans="1:21">
-      <c r="A399" s="16"/>
+      <c r="A399" s="22"/>
       <c r="E399" s="1"/>
       <c r="F399" s="2"/>
       <c r="G399" s="2"/>
       <c r="H399" s="2"/>
       <c r="I399" s="1" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="J399" s="2"/>
       <c r="K399" s="8"/>
@@ -14784,13 +14775,13 @@
       <c r="U399" s="2"/>
     </row>
     <row r="400" spans="1:21">
-      <c r="A400" s="16"/>
+      <c r="A400" s="22"/>
       <c r="E400" s="1"/>
       <c r="F400" s="2"/>
       <c r="G400" s="2"/>
       <c r="H400" s="2"/>
       <c r="I400" s="1" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="J400" s="2"/>
       <c r="K400" s="8"/>
@@ -14806,17 +14797,17 @@
       <c r="U400" s="2"/>
     </row>
     <row r="401" spans="1:21">
-      <c r="A401" s="16"/>
+      <c r="A401" s="22"/>
       <c r="E401" s="1"/>
       <c r="F401" s="2"/>
       <c r="G401" s="2"/>
       <c r="H401" s="2"/>
       <c r="I401" s="1" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="J401" s="2"/>
       <c r="K401" s="8" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="L401" s="2"/>
       <c r="M401" s="2"/>
@@ -14830,7 +14821,7 @@
       <c r="U401" s="2"/>
     </row>
     <row r="402" spans="1:21">
-      <c r="A402" s="16"/>
+      <c r="A402" s="22"/>
       <c r="E402" s="1" t="s">
         <v>344</v>
       </c>
@@ -14838,33 +14829,33 @@
         <v>123</v>
       </c>
       <c r="G402" s="8" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="H402" s="2"/>
       <c r="I402" s="1" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="J402" s="2"/>
       <c r="K402" s="1" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="L402" s="2"/>
       <c r="M402" s="2"/>
       <c r="N402" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="O402" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="P402" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="Q402" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:21">
-      <c r="A403" s="16"/>
+      <c r="A403" s="22"/>
       <c r="E403" s="1" t="s">
         <v>344</v>
       </c>
@@ -14874,7 +14865,7 @@
       <c r="G403" s="2"/>
       <c r="H403" s="2"/>
       <c r="I403" s="1" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="J403" s="2"/>
       <c r="K403" s="2"/>
@@ -14890,7 +14881,7 @@
       <c r="U403" s="2"/>
     </row>
     <row r="404" spans="1:21">
-      <c r="A404" s="16"/>
+      <c r="A404" s="22"/>
       <c r="E404" s="1" t="s">
         <v>344</v>
       </c>
@@ -14900,7 +14891,7 @@
       <c r="G404" s="2"/>
       <c r="H404" s="2"/>
       <c r="I404" s="1" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="J404" s="2"/>
       <c r="K404" s="2"/>
@@ -14916,7 +14907,7 @@
       <c r="U404" s="2"/>
     </row>
     <row r="405" spans="1:21">
-      <c r="A405" s="16"/>
+      <c r="A405" s="22"/>
       <c r="E405" s="1" t="s">
         <v>344</v>
       </c>
@@ -14926,10 +14917,10 @@
       <c r="G405" s="2"/>
       <c r="H405" s="2"/>
       <c r="I405" s="1" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="J405" s="1" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="K405" s="2"/>
       <c r="L405" s="2"/>
@@ -14944,7 +14935,7 @@
       <c r="U405" s="2"/>
     </row>
     <row r="406" spans="1:21">
-      <c r="A406" s="16"/>
+      <c r="A406" s="22"/>
       <c r="E406" s="1" t="s">
         <v>344</v>
       </c>
@@ -14954,27 +14945,27 @@
       <c r="G406" s="2"/>
       <c r="H406" s="2"/>
       <c r="I406" s="1" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="J406" s="2"/>
       <c r="K406" s="1" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="L406" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="M406" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="N406" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="O406" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="407" spans="1:21">
-      <c r="A407" s="16"/>
+      <c r="A407" s="22"/>
       <c r="E407" s="1" t="s">
         <v>344</v>
       </c>
@@ -14984,10 +14975,10 @@
       <c r="G407" s="2"/>
       <c r="H407" s="2"/>
       <c r="I407" s="1" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="J407" s="1" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="K407" s="2"/>
       <c r="L407" s="2"/>
@@ -15002,7 +14993,7 @@
       <c r="U407" s="2"/>
     </row>
     <row r="408" spans="1:21">
-      <c r="A408" s="16"/>
+      <c r="A408" s="22"/>
       <c r="E408" s="1" t="s">
         <v>344</v>
       </c>
@@ -15012,27 +15003,27 @@
       <c r="G408" s="2"/>
       <c r="H408" s="2"/>
       <c r="I408" s="1" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="J408" s="2"/>
       <c r="K408" s="1" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="L408" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="M408" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="N408" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="O408" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="409" spans="1:21">
-      <c r="A409" s="16"/>
+      <c r="A409" s="22"/>
       <c r="E409" s="1" t="s">
         <v>344</v>
       </c>
@@ -15041,10 +15032,10 @@
       </c>
       <c r="G409" s="2"/>
       <c r="H409" s="2" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="I409" s="2" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="J409" s="2"/>
       <c r="K409" s="2"/>
@@ -15060,13 +15051,13 @@
       <c r="U409" s="2"/>
     </row>
     <row r="410" spans="1:21">
-      <c r="A410" s="16"/>
+      <c r="A410" s="22"/>
       <c r="E410" s="1"/>
       <c r="F410" s="2"/>
       <c r="G410" s="2"/>
       <c r="H410" s="2"/>
       <c r="I410" s="2" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="J410" s="2"/>
       <c r="K410" s="2"/>
@@ -15082,13 +15073,13 @@
       <c r="U410" s="2"/>
     </row>
     <row r="411" spans="1:21">
-      <c r="A411" s="16"/>
+      <c r="A411" s="22"/>
       <c r="E411" s="1"/>
       <c r="F411" s="2"/>
       <c r="G411" s="2"/>
       <c r="H411" s="2"/>
       <c r="I411" s="2" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="J411" s="2"/>
       <c r="K411" s="2"/>
@@ -15104,13 +15095,13 @@
       <c r="U411" s="2"/>
     </row>
     <row r="412" spans="1:21">
-      <c r="A412" s="16"/>
+      <c r="A412" s="22"/>
       <c r="E412" s="1"/>
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
       <c r="H412" s="2"/>
       <c r="I412" s="2" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="J412" s="2"/>
       <c r="K412" s="2"/>
@@ -15126,7 +15117,7 @@
       <c r="U412" s="2"/>
     </row>
     <row r="413" spans="1:21">
-      <c r="A413" s="16"/>
+      <c r="A413" s="22"/>
       <c r="E413" s="1" t="s">
         <v>344</v>
       </c>
@@ -15136,31 +15127,31 @@
       <c r="G413" s="2"/>
       <c r="H413" s="2"/>
       <c r="I413" s="1" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="J413" s="2"/>
       <c r="K413" s="1" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="L413" s="2"/>
       <c r="M413" s="2"/>
       <c r="N413" s="2"/>
       <c r="O413" s="2"/>
       <c r="P413" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="Q413" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="R413" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="S413" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="414" spans="1:21">
-      <c r="A414" s="16"/>
+      <c r="A414" s="22"/>
       <c r="E414" s="1" t="s">
         <v>344</v>
       </c>
@@ -15169,7 +15160,7 @@
       </c>
       <c r="G414" s="2"/>
       <c r="H414" s="1" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="I414" s="2"/>
       <c r="J414" s="2"/>
@@ -15186,7 +15177,7 @@
       <c r="U414" s="2"/>
     </row>
     <row r="415" spans="1:21">
-      <c r="A415" s="16"/>
+      <c r="A415" s="22"/>
       <c r="E415" s="1" t="s">
         <v>344</v>
       </c>
@@ -15196,27 +15187,27 @@
       <c r="G415" s="2"/>
       <c r="H415" s="2"/>
       <c r="I415" s="1" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="J415" s="2"/>
       <c r="K415" s="1" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="L415" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="M415" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="N415" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="O415" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="416" spans="1:21">
-      <c r="A416" s="16"/>
+      <c r="A416" s="22"/>
       <c r="E416" s="1" t="s">
         <v>344</v>
       </c>
@@ -15226,11 +15217,11 @@
       <c r="G416" s="2"/>
       <c r="H416" s="2"/>
       <c r="I416" s="2" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="J416" s="2"/>
       <c r="K416" s="2" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="L416" s="2"/>
       <c r="M416" s="2"/>
@@ -15244,7 +15235,7 @@
       <c r="U416" s="2"/>
     </row>
     <row r="417" spans="1:21">
-      <c r="A417" s="16"/>
+      <c r="A417" s="22"/>
       <c r="E417" s="1" t="s">
         <v>344</v>
       </c>
@@ -15253,10 +15244,10 @@
       </c>
       <c r="G417" s="2"/>
       <c r="H417" s="2" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="I417" s="2" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="J417" s="2"/>
       <c r="K417" s="2"/>
@@ -15272,7 +15263,7 @@
       <c r="U417" s="2"/>
     </row>
     <row r="418" spans="1:21">
-      <c r="A418" s="16"/>
+      <c r="A418" s="22"/>
       <c r="E418" s="1" t="s">
         <v>344</v>
       </c>
@@ -15282,14 +15273,14 @@
       <c r="G418" s="2"/>
       <c r="H418" s="2"/>
       <c r="I418" s="1" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="J418" s="2"/>
       <c r="K418" s="1" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="L418" s="1" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="M418" s="2"/>
       <c r="N418" s="2"/>
@@ -15297,18 +15288,18 @@
       <c r="P418" s="2"/>
       <c r="Q418" s="2"/>
       <c r="R418" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="S418" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="T418" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="U418" s="2"/>
     </row>
     <row r="419" spans="1:21">
-      <c r="A419" s="16"/>
+      <c r="A419" s="22"/>
       <c r="E419" s="1" t="s">
         <v>344</v>
       </c>
@@ -15317,10 +15308,10 @@
       </c>
       <c r="G419" s="2"/>
       <c r="H419" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="I419" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="I419" s="1" t="s">
-        <v>831</v>
       </c>
       <c r="J419" s="2"/>
       <c r="K419" s="2"/>
@@ -15336,7 +15327,7 @@
       <c r="U419" s="2"/>
     </row>
     <row r="420" spans="1:21">
-      <c r="A420" s="16"/>
+      <c r="A420" s="22"/>
       <c r="E420" s="1" t="s">
         <v>344</v>
       </c>
@@ -15346,11 +15337,11 @@
       <c r="G420" s="2"/>
       <c r="H420" s="2"/>
       <c r="I420" s="1" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="J420" s="2"/>
       <c r="K420" s="1" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="L420" s="2"/>
       <c r="M420" s="2"/>
@@ -15358,18 +15349,18 @@
       <c r="O420" s="2"/>
       <c r="P420" s="2"/>
       <c r="Q420" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="R420" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S420" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="T420" s="2"/>
     </row>
     <row r="421" spans="1:21">
-      <c r="A421" s="16"/>
+      <c r="A421" s="22"/>
       <c r="E421" s="1" t="s">
         <v>344</v>
       </c>
@@ -15379,11 +15370,11 @@
       <c r="G421" s="2"/>
       <c r="H421" s="2"/>
       <c r="I421" s="1" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="J421" s="2"/>
       <c r="K421" s="2" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="L421" s="2"/>
       <c r="M421" s="2"/>
@@ -15397,7 +15388,7 @@
       <c r="U421" s="2"/>
     </row>
     <row r="422" spans="1:21">
-      <c r="A422" s="16"/>
+      <c r="A422" s="22"/>
       <c r="E422" s="1" t="s">
         <v>344</v>
       </c>
@@ -15406,19 +15397,19 @@
       </c>
       <c r="G422" s="2"/>
       <c r="H422" s="1" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="I422" s="1" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="J422" s="2" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="K422" s="2"/>
       <c r="L422" s="2"/>
       <c r="M422" s="2"/>
       <c r="N422" s="2" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="O422" s="2"/>
       <c r="P422" s="2"/>
@@ -15429,13 +15420,13 @@
       <c r="U422" s="2"/>
     </row>
     <row r="423" spans="1:21">
-      <c r="A423" s="16"/>
+      <c r="A423" s="22"/>
       <c r="E423" s="1"/>
       <c r="F423" s="2"/>
       <c r="G423" s="2"/>
       <c r="H423" s="1"/>
       <c r="I423" s="1" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="J423" s="2"/>
       <c r="K423" s="2"/>
@@ -15451,13 +15442,13 @@
       <c r="U423" s="2"/>
     </row>
     <row r="424" spans="1:21">
-      <c r="A424" s="16"/>
+      <c r="A424" s="22"/>
       <c r="E424" s="1"/>
       <c r="F424" s="2"/>
       <c r="G424" s="2"/>
       <c r="H424" s="1"/>
       <c r="I424" s="1" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="J424" s="2"/>
       <c r="K424" s="2"/>
@@ -15473,17 +15464,17 @@
       <c r="U424" s="2"/>
     </row>
     <row r="425" spans="1:21">
-      <c r="A425" s="16"/>
+      <c r="A425" s="22"/>
       <c r="E425" s="1"/>
       <c r="F425" s="2"/>
       <c r="G425" s="2"/>
       <c r="H425" s="1"/>
       <c r="I425" s="1" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="J425" s="2"/>
       <c r="K425" s="2" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="L425" s="2"/>
       <c r="M425" s="2"/>
@@ -15497,7 +15488,7 @@
       <c r="U425" s="2"/>
     </row>
     <row r="426" spans="1:21">
-      <c r="A426" s="16"/>
+      <c r="A426" s="22"/>
       <c r="E426" s="1" t="s">
         <v>344</v>
       </c>
@@ -15507,14 +15498,14 @@
       <c r="G426" s="2"/>
       <c r="H426" s="2"/>
       <c r="I426" s="1" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="J426" s="2"/>
       <c r="K426" s="1" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="L426" s="1" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="M426" s="2"/>
       <c r="N426" s="2"/>
@@ -15527,7 +15518,7 @@
       <c r="U426" s="1"/>
     </row>
     <row r="427" spans="1:21">
-      <c r="A427" s="16"/>
+      <c r="A427" s="22"/>
       <c r="E427" s="1" t="s">
         <v>344</v>
       </c>
@@ -15537,13 +15528,13 @@
       <c r="G427" s="2"/>
       <c r="H427" s="2"/>
       <c r="I427" s="1" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="J427" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="K427" s="1" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="L427" s="2"/>
       <c r="M427" s="2"/>
@@ -15551,20 +15542,20 @@
       <c r="O427" s="2"/>
       <c r="P427" s="2"/>
       <c r="Q427" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="R427" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S427" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="T427" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="428" spans="1:21">
-      <c r="A428" s="16"/>
+      <c r="A428" s="22"/>
       <c r="E428" s="1" t="s">
         <v>344</v>
       </c>
@@ -15573,19 +15564,19 @@
       </c>
       <c r="G428" s="2"/>
       <c r="H428" s="1" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="I428" s="1" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="J428" s="2" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="K428" s="2"/>
       <c r="L428" s="2"/>
       <c r="M428" s="2"/>
       <c r="N428" s="2" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="O428" s="2"/>
       <c r="P428" s="2"/>
@@ -15596,7 +15587,7 @@
       <c r="U428" s="2"/>
     </row>
     <row r="429" spans="1:21">
-      <c r="A429" s="16"/>
+      <c r="A429" s="22"/>
       <c r="E429" s="1" t="s">
         <v>344</v>
       </c>
@@ -15606,11 +15597,11 @@
       <c r="G429" s="2"/>
       <c r="H429" s="2"/>
       <c r="I429" s="1" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="J429" s="2"/>
       <c r="K429" s="1" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="L429" s="2"/>
       <c r="M429" s="2"/>
@@ -15618,20 +15609,20 @@
       <c r="O429" s="2"/>
       <c r="P429" s="2"/>
       <c r="Q429" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="R429" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S429" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="T429" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="430" spans="1:21">
-      <c r="A430" s="16"/>
+      <c r="A430" s="22"/>
       <c r="E430" s="1" t="s">
         <v>344</v>
       </c>
@@ -15641,13 +15632,13 @@
       <c r="G430" s="2"/>
       <c r="H430" s="2"/>
       <c r="I430" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="J430" s="2" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="K430" s="2" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="L430" s="2"/>
       <c r="M430" s="2"/>
@@ -15661,7 +15652,7 @@
       <c r="U430" s="2"/>
     </row>
     <row r="431" spans="1:21">
-      <c r="A431" s="16"/>
+      <c r="A431" s="22"/>
       <c r="E431" s="1" t="s">
         <v>344</v>
       </c>
@@ -15671,11 +15662,11 @@
       <c r="G431" s="2"/>
       <c r="H431" s="2"/>
       <c r="I431" s="1" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="J431" s="2"/>
       <c r="K431" s="1" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="L431" s="2"/>
       <c r="M431" s="2"/>
@@ -15683,18 +15674,18 @@
       <c r="O431" s="2"/>
       <c r="P431" s="2"/>
       <c r="Q431" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="R431" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S431" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="T431" s="2"/>
     </row>
     <row r="432" spans="1:21">
-      <c r="A432" s="16"/>
+      <c r="A432" s="22"/>
       <c r="E432" s="1" t="s">
         <v>344</v>
       </c>
@@ -15703,14 +15694,14 @@
       </c>
       <c r="G432" s="2"/>
       <c r="H432" s="1" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="I432" s="1" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="J432" s="2"/>
       <c r="K432" s="1" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="L432" s="2"/>
       <c r="M432" s="2"/>
@@ -15719,7 +15710,7 @@
       <c r="P432" s="2"/>
     </row>
     <row r="433" spans="1:21">
-      <c r="A433" s="16"/>
+      <c r="A433" s="22"/>
       <c r="E433" s="1" t="s">
         <v>344</v>
       </c>
@@ -15729,28 +15720,28 @@
       <c r="G433" s="2"/>
       <c r="H433" s="2"/>
       <c r="I433" s="1" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="J433" s="2"/>
       <c r="K433" s="1" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="L433" s="2"/>
       <c r="M433" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="N433" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="O433" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="P433" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="434" spans="1:21">
-      <c r="A434" s="16"/>
+      <c r="A434" s="22"/>
       <c r="E434" s="1" t="s">
         <v>344</v>
       </c>
@@ -15760,11 +15751,11 @@
       <c r="G434" s="2"/>
       <c r="H434" s="2"/>
       <c r="I434" s="1" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="J434" s="2"/>
       <c r="K434" s="1" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="L434" s="1"/>
       <c r="M434" s="1"/>
@@ -15778,7 +15769,7 @@
       <c r="U434" s="2"/>
     </row>
     <row r="435" spans="1:21">
-      <c r="A435" s="16"/>
+      <c r="A435" s="22"/>
       <c r="E435" s="1" t="s">
         <v>344</v>
       </c>
@@ -15788,11 +15779,11 @@
       <c r="G435" s="2"/>
       <c r="H435" s="2"/>
       <c r="I435" s="1" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="J435" s="2"/>
       <c r="K435" s="1" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="L435" s="1"/>
       <c r="M435" s="1"/>
@@ -15806,7 +15797,7 @@
       <c r="U435" s="2"/>
     </row>
     <row r="436" spans="1:21">
-      <c r="A436" s="16"/>
+      <c r="A436" s="22"/>
       <c r="E436" s="1" t="s">
         <v>344</v>
       </c>
@@ -15816,11 +15807,11 @@
       <c r="G436" s="2"/>
       <c r="H436" s="2"/>
       <c r="I436" s="1" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="J436" s="2"/>
       <c r="K436" s="1" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="L436" s="2"/>
       <c r="M436" s="2"/>
@@ -15830,7 +15821,7 @@
       <c r="Q436" s="2"/>
     </row>
     <row r="437" spans="1:21">
-      <c r="A437" s="16"/>
+      <c r="A437" s="22"/>
       <c r="E437" s="1" t="s">
         <v>344</v>
       </c>
@@ -15840,28 +15831,28 @@
       <c r="G437" s="2"/>
       <c r="H437" s="2"/>
       <c r="I437" s="1" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="J437" s="2"/>
       <c r="K437" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="L437" s="2"/>
       <c r="M437" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="N437" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="O437" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="P437" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="438" spans="1:21">
-      <c r="A438" s="16"/>
+      <c r="A438" s="22"/>
       <c r="E438" s="1" t="s">
         <v>344</v>
       </c>
@@ -15871,10 +15862,10 @@
       <c r="G438" s="2"/>
       <c r="H438" s="2"/>
       <c r="I438" s="2" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="J438" s="2" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="K438" s="1"/>
       <c r="L438" s="1"/>
@@ -15889,7 +15880,7 @@
       <c r="U438" s="2"/>
     </row>
     <row r="439" spans="1:21">
-      <c r="A439" s="16"/>
+      <c r="A439" s="22"/>
       <c r="E439" s="1" t="s">
         <v>344</v>
       </c>
@@ -15899,10 +15890,10 @@
       <c r="G439" s="2"/>
       <c r="H439" s="2"/>
       <c r="I439" s="2" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="J439" s="2" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="K439" s="1"/>
       <c r="L439" s="1"/>
@@ -15917,7 +15908,7 @@
       <c r="U439" s="2"/>
     </row>
     <row r="440" spans="1:21">
-      <c r="A440" s="16"/>
+      <c r="A440" s="22"/>
       <c r="E440" s="1" t="s">
         <v>344</v>
       </c>
@@ -15927,10 +15918,10 @@
       <c r="G440" s="2"/>
       <c r="H440" s="2"/>
       <c r="I440" s="2" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="J440" s="2" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="K440" s="1"/>
       <c r="L440" s="1"/>
@@ -15945,7 +15936,7 @@
       <c r="U440" s="2"/>
     </row>
     <row r="441" spans="1:21">
-      <c r="A441" s="16"/>
+      <c r="A441" s="22"/>
       <c r="E441" s="1" t="s">
         <v>344</v>
       </c>
@@ -15955,11 +15946,11 @@
       <c r="G441" s="2"/>
       <c r="H441" s="2"/>
       <c r="I441" s="1" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="J441" s="2"/>
       <c r="K441" s="1" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="L441" s="2"/>
       <c r="M441" s="2"/>
@@ -15970,7 +15961,7 @@
       <c r="R441" s="2"/>
     </row>
     <row r="442" spans="1:21">
-      <c r="A442" s="16"/>
+      <c r="A442" s="22"/>
       <c r="E442" s="1" t="s">
         <v>344</v>
       </c>
@@ -15980,27 +15971,27 @@
       <c r="G442" s="2"/>
       <c r="H442" s="2"/>
       <c r="I442" s="1" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="J442" s="2"/>
       <c r="K442" s="1" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="L442" s="2"/>
       <c r="M442" s="2"/>
       <c r="N442" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="O442" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="P442" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="Q442" s="2"/>
     </row>
     <row r="443" spans="1:21">
-      <c r="A443" s="16"/>
+      <c r="A443" s="22"/>
       <c r="E443" s="1" t="s">
         <v>344</v>
       </c>
@@ -16010,7 +16001,7 @@
       <c r="G443" s="2"/>
       <c r="H443" s="2"/>
       <c r="I443" s="1" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="J443" s="2"/>
       <c r="K443" s="1"/>
@@ -16026,7 +16017,7 @@
       <c r="U443" s="2"/>
     </row>
     <row r="444" spans="1:21">
-      <c r="A444" s="16"/>
+      <c r="A444" s="22"/>
       <c r="E444" s="1" t="s">
         <v>344</v>
       </c>
@@ -16036,11 +16027,11 @@
       <c r="G444" s="2"/>
       <c r="H444" s="2"/>
       <c r="I444" s="1" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="J444" s="2"/>
       <c r="K444" s="1" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="L444" s="2"/>
       <c r="M444" s="2"/>
@@ -16050,7 +16041,7 @@
       <c r="Q444" s="2"/>
     </row>
     <row r="445" spans="1:21">
-      <c r="A445" s="16"/>
+      <c r="A445" s="22"/>
       <c r="E445" s="1" t="s">
         <v>344</v>
       </c>
@@ -16060,28 +16051,28 @@
       <c r="G445" s="2"/>
       <c r="H445" s="2"/>
       <c r="I445" s="1" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="J445" s="2"/>
       <c r="K445" s="1" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="L445" s="2"/>
       <c r="M445" s="2"/>
       <c r="N445" s="2"/>
       <c r="O445" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="P445" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="Q445" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="R445" s="2"/>
     </row>
     <row r="446" spans="1:21">
-      <c r="A446" s="16"/>
+      <c r="A446" s="22"/>
       <c r="E446" s="1" t="s">
         <v>344</v>
       </c>
@@ -16091,7 +16082,7 @@
       <c r="G446" s="2"/>
       <c r="H446" s="2"/>
       <c r="I446" s="1" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="J446" s="2"/>
       <c r="K446" s="2"/>
@@ -16107,13 +16098,13 @@
       <c r="U446" s="2"/>
     </row>
     <row r="447" spans="1:21">
-      <c r="A447" s="16"/>
+      <c r="A447" s="22"/>
       <c r="E447" s="1"/>
       <c r="F447" s="2"/>
       <c r="G447" s="2"/>
       <c r="H447" s="2"/>
       <c r="I447" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="J447" s="2"/>
       <c r="K447" s="2"/>
@@ -16129,13 +16120,13 @@
       <c r="U447" s="2"/>
     </row>
     <row r="448" spans="1:21">
-      <c r="A448" s="16"/>
+      <c r="A448" s="22"/>
       <c r="E448" s="1"/>
       <c r="F448" s="2"/>
       <c r="G448" s="2"/>
       <c r="H448" s="2"/>
       <c r="I448" s="1" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="J448" s="2"/>
       <c r="K448" s="2"/>
@@ -16151,13 +16142,13 @@
       <c r="U448" s="2"/>
     </row>
     <row r="449" spans="1:21">
-      <c r="A449" s="16"/>
+      <c r="A449" s="22"/>
       <c r="E449" s="1"/>
       <c r="F449" s="2"/>
       <c r="G449" s="2"/>
       <c r="H449" s="2"/>
       <c r="I449" s="1" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="J449" s="2"/>
       <c r="K449" s="2"/>
@@ -16173,7 +16164,7 @@
       <c r="U449" s="2"/>
     </row>
     <row r="450" spans="1:21">
-      <c r="A450" s="16"/>
+      <c r="A450" s="22"/>
       <c r="E450" s="1" t="s">
         <v>344</v>
       </c>
@@ -16183,29 +16174,29 @@
       <c r="G450" s="2"/>
       <c r="H450" s="2"/>
       <c r="I450" s="1" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="J450" s="2"/>
       <c r="K450" s="1" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="L450" s="2"/>
       <c r="M450" s="2"/>
       <c r="N450" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="O450" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="P450" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="Q450" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="451" spans="1:21">
-      <c r="A451" s="16"/>
+      <c r="A451" s="22"/>
       <c r="E451" s="1" t="s">
         <v>344</v>
       </c>
@@ -16215,7 +16206,7 @@
       <c r="G451" s="2"/>
       <c r="H451" s="2"/>
       <c r="I451" s="1" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="J451" s="2"/>
       <c r="K451" s="2"/>
@@ -16231,7 +16222,7 @@
       <c r="U451" s="2"/>
     </row>
     <row r="452" spans="1:21">
-      <c r="A452" s="16"/>
+      <c r="A452" s="22"/>
       <c r="E452" s="1" t="s">
         <v>344</v>
       </c>
@@ -16241,7 +16232,7 @@
       <c r="G452" s="2"/>
       <c r="H452" s="2"/>
       <c r="I452" s="1" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="J452" s="2"/>
       <c r="K452" s="2"/>
@@ -16257,13 +16248,13 @@
       <c r="U452" s="2"/>
     </row>
     <row r="453" spans="1:21">
-      <c r="A453" s="16"/>
+      <c r="A453" s="22"/>
       <c r="E453" s="1"/>
       <c r="F453" s="2"/>
       <c r="G453" s="2"/>
       <c r="H453" s="2"/>
       <c r="I453" s="1" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="J453" s="2"/>
       <c r="K453" s="2"/>
@@ -16279,13 +16270,13 @@
       <c r="U453" s="2"/>
     </row>
     <row r="454" spans="1:21">
-      <c r="A454" s="16"/>
+      <c r="A454" s="22"/>
       <c r="E454" s="1"/>
       <c r="F454" s="2"/>
       <c r="G454" s="2"/>
       <c r="H454" s="2"/>
       <c r="I454" s="1" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="J454" s="2"/>
       <c r="K454" s="2"/>
@@ -16301,7 +16292,7 @@
       <c r="U454" s="2"/>
     </row>
     <row r="455" spans="1:21">
-      <c r="A455" s="16"/>
+      <c r="A455" s="22"/>
       <c r="E455" s="1" t="s">
         <v>344</v>
       </c>
@@ -16310,40 +16301,40 @@
       </c>
       <c r="G455" s="2"/>
       <c r="H455" s="1" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="I455" s="1" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="J455" s="2"/>
       <c r="K455" s="1" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="L455" s="2"/>
       <c r="M455" s="2"/>
       <c r="N455" s="2"/>
       <c r="O455" s="2"/>
       <c r="P455" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="Q455" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="R455" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="S455" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="456" spans="1:21">
-      <c r="A456" s="16"/>
+      <c r="A456" s="22"/>
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
       <c r="G456" s="2"/>
       <c r="H456" s="2"/>
       <c r="I456" s="2" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="J456" s="2"/>
       <c r="K456" s="2"/>
@@ -16359,13 +16350,13 @@
       <c r="U456" s="2"/>
     </row>
     <row r="457" spans="1:21">
-      <c r="A457" s="16"/>
+      <c r="A457" s="22"/>
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
       <c r="G457" s="2"/>
       <c r="H457" s="2"/>
       <c r="I457" s="2" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="J457" s="2"/>
       <c r="K457" s="2"/>
@@ -16381,7 +16372,7 @@
       <c r="U457" s="2"/>
     </row>
     <row r="458" spans="1:21">
-      <c r="A458" s="16"/>
+      <c r="A458" s="22"/>
       <c r="E458" s="1" t="s">
         <v>344</v>
       </c>
@@ -16390,14 +16381,14 @@
       </c>
       <c r="G458" s="2"/>
       <c r="H458" s="1" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="I458" s="1" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="J458" s="2"/>
       <c r="K458" s="1" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="L458" s="2"/>
       <c r="M458" s="2"/>
@@ -16406,24 +16397,24 @@
       <c r="P458" s="2"/>
       <c r="Q458" s="2"/>
       <c r="R458" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="S458" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="T458" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="U458" s="2"/>
     </row>
     <row r="459" spans="1:21">
-      <c r="A459" s="16"/>
+      <c r="A459" s="22"/>
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
       <c r="G459" s="2"/>
       <c r="H459" s="2"/>
       <c r="I459" s="2" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="J459" s="2"/>
       <c r="K459" s="2"/>
@@ -16439,13 +16430,13 @@
       <c r="U459" s="2"/>
     </row>
     <row r="460" spans="1:21">
-      <c r="A460" s="16"/>
+      <c r="A460" s="22"/>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
       <c r="G460" s="2"/>
       <c r="H460" s="2"/>
       <c r="I460" s="2" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="J460" s="2"/>
       <c r="K460" s="2"/>
@@ -16461,13 +16452,13 @@
       <c r="U460" s="2"/>
     </row>
     <row r="461" spans="1:21">
-      <c r="A461" s="16"/>
+      <c r="A461" s="22"/>
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
       <c r="G461" s="2"/>
       <c r="H461" s="2"/>
       <c r="I461" s="2" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="J461" s="2"/>
       <c r="K461" s="2"/>
@@ -16483,7 +16474,7 @@
       <c r="U461" s="2"/>
     </row>
     <row r="462" spans="1:21">
-      <c r="A462" s="16"/>
+      <c r="A462" s="22"/>
       <c r="E462" s="1" t="s">
         <v>344</v>
       </c>
@@ -16492,14 +16483,14 @@
       </c>
       <c r="G462" s="2"/>
       <c r="H462" s="1" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="I462" s="1" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="J462" s="2"/>
       <c r="K462" s="1" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="L462" s="2"/>
       <c r="M462" s="2"/>
@@ -16508,18 +16499,18 @@
       <c r="P462" s="2"/>
       <c r="Q462" s="2"/>
       <c r="R462" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="S462" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="T462" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="U462" s="2"/>
     </row>
     <row r="463" spans="1:21">
-      <c r="A463" s="16"/>
+      <c r="A463" s="22"/>
       <c r="E463" s="1" t="s">
         <v>344</v>
       </c>
@@ -16528,14 +16519,14 @@
       </c>
       <c r="G463" s="2"/>
       <c r="H463" s="1" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="I463" s="1" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="J463" s="2"/>
       <c r="K463" s="1" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="L463" s="2"/>
       <c r="M463" s="2"/>
@@ -16544,20 +16535,20 @@
       <c r="P463" s="2"/>
       <c r="Q463" s="2"/>
       <c r="R463" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="S463" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="T463" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="U463" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="464" spans="1:21">
-      <c r="A464" s="16"/>
+      <c r="A464" s="22"/>
       <c r="E464" s="2" t="s">
         <v>344</v>
       </c>
@@ -16567,7 +16558,7 @@
       <c r="G464" s="2"/>
       <c r="H464" s="2"/>
       <c r="I464" s="1" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="J464" s="2"/>
       <c r="K464" s="2"/>
@@ -16583,7 +16574,7 @@
       <c r="U464" s="2"/>
     </row>
     <row r="465" spans="1:21">
-      <c r="A465" s="16"/>
+      <c r="A465" s="22"/>
       <c r="E465" s="1" t="s">
         <v>344</v>
       </c>
@@ -16592,34 +16583,34 @@
       </c>
       <c r="G465" s="2"/>
       <c r="H465" s="1" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="I465" s="1" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="J465" s="2"/>
       <c r="K465" s="1" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="L465" s="2"/>
       <c r="M465" s="2"/>
       <c r="N465" s="2"/>
       <c r="O465" s="2"/>
       <c r="P465" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="Q465" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="R465" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="S465" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="466" spans="1:21">
-      <c r="A466" s="16"/>
+      <c r="A466" s="22"/>
       <c r="E466" s="1" t="s">
         <v>344</v>
       </c>
@@ -16629,7 +16620,7 @@
       <c r="G466" s="2"/>
       <c r="H466" s="2"/>
       <c r="I466" s="1" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
@@ -16645,17 +16636,17 @@
       <c r="U466" s="2"/>
     </row>
     <row r="467" spans="1:21">
-      <c r="A467" s="16"/>
+      <c r="A467" s="22"/>
       <c r="E467" s="1"/>
       <c r="F467" s="2"/>
       <c r="G467" s="2"/>
       <c r="H467" s="2"/>
       <c r="I467" s="2" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="J467" s="2"/>
       <c r="K467" s="1" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="L467" s="2"/>
       <c r="M467" s="2"/>
@@ -16669,7 +16660,7 @@
       <c r="U467" s="2"/>
     </row>
     <row r="468" spans="1:21">
-      <c r="A468" s="16"/>
+      <c r="A468" s="22"/>
       <c r="E468" s="1" t="s">
         <v>344</v>
       </c>
@@ -16679,11 +16670,11 @@
       <c r="G468" s="2"/>
       <c r="H468" s="2"/>
       <c r="I468" s="1" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="J468" s="2"/>
       <c r="K468" s="1" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="L468" s="2"/>
       <c r="M468" s="2"/>
@@ -16691,18 +16682,18 @@
       <c r="O468" s="2"/>
       <c r="P468" s="2"/>
       <c r="Q468" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="R468" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S468" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="T468" s="2"/>
     </row>
     <row r="469" spans="1:21">
-      <c r="A469" s="16"/>
+      <c r="A469" s="22"/>
       <c r="E469" s="1" t="s">
         <v>344</v>
       </c>
@@ -16712,7 +16703,7 @@
       <c r="G469" s="2"/>
       <c r="H469" s="2"/>
       <c r="I469" s="1" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="J469" s="2"/>
       <c r="K469" s="2"/>
@@ -16728,7 +16719,7 @@
       <c r="U469" s="2"/>
     </row>
     <row r="470" spans="1:21">
-      <c r="A470" s="16"/>
+      <c r="A470" s="22"/>
       <c r="E470" s="1" t="s">
         <v>344</v>
       </c>
@@ -16737,14 +16728,14 @@
       </c>
       <c r="G470" s="2"/>
       <c r="H470" s="6" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="I470" s="1" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="J470" s="2"/>
       <c r="K470" s="1" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="L470" s="2"/>
       <c r="M470" s="2"/>
@@ -16752,24 +16743,24 @@
       <c r="O470" s="2"/>
       <c r="P470" s="2"/>
       <c r="Q470" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="R470" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S470" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="T470" s="2"/>
     </row>
     <row r="471" spans="1:21">
-      <c r="A471" s="16"/>
+      <c r="A471" s="22"/>
       <c r="E471" s="1"/>
       <c r="F471" s="2"/>
       <c r="G471" s="2"/>
       <c r="H471" s="2"/>
       <c r="I471" s="1" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="J471" s="2"/>
       <c r="K471" s="2"/>
@@ -16785,7 +16776,7 @@
       <c r="U471" s="2"/>
     </row>
     <row r="472" spans="1:21">
-      <c r="A472" s="16"/>
+      <c r="A472" s="22"/>
       <c r="E472" s="1" t="s">
         <v>344</v>
       </c>
@@ -16795,7 +16786,7 @@
       <c r="G472" s="2"/>
       <c r="H472" s="2"/>
       <c r="I472" s="1" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="J472" s="2"/>
       <c r="K472" s="2"/>
@@ -16811,13 +16802,13 @@
       <c r="U472" s="2"/>
     </row>
     <row r="473" spans="1:21">
-      <c r="A473" s="16"/>
+      <c r="A473" s="22"/>
       <c r="E473" s="1"/>
       <c r="F473" s="2"/>
       <c r="G473" s="2"/>
       <c r="H473" s="2"/>
       <c r="I473" s="1" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="J473" s="2"/>
       <c r="K473" s="2"/>
@@ -16833,7 +16824,7 @@
       <c r="U473" s="2"/>
     </row>
     <row r="474" spans="1:21">
-      <c r="A474" s="16"/>
+      <c r="A474" s="22"/>
       <c r="E474" s="1" t="s">
         <v>344</v>
       </c>
@@ -16843,29 +16834,29 @@
       <c r="G474" s="2"/>
       <c r="H474" s="2"/>
       <c r="I474" s="1" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="J474" s="2"/>
       <c r="K474" s="1" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="L474" s="2"/>
       <c r="M474" s="2"/>
       <c r="N474" s="2"/>
       <c r="O474" s="2"/>
       <c r="P474" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="Q474" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="R474" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="S474" s="2"/>
     </row>
     <row r="475" spans="1:21">
-      <c r="A475" s="16"/>
+      <c r="A475" s="22"/>
       <c r="E475" s="1" t="s">
         <v>344</v>
       </c>
@@ -16875,7 +16866,7 @@
       <c r="G475" s="2"/>
       <c r="H475" s="2"/>
       <c r="I475" s="1" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="J475" s="2"/>
       <c r="K475" s="2"/>
@@ -16891,7 +16882,7 @@
       <c r="U475" s="2"/>
     </row>
     <row r="476" spans="1:21">
-      <c r="A476" s="16"/>
+      <c r="A476" s="22"/>
       <c r="E476" s="1" t="s">
         <v>344</v>
       </c>
@@ -16901,29 +16892,29 @@
       <c r="G476" s="2"/>
       <c r="H476" s="2"/>
       <c r="I476" s="1" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="J476" s="2"/>
       <c r="K476" s="1" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="L476" s="2"/>
       <c r="M476" s="2"/>
       <c r="N476" s="2"/>
       <c r="O476" s="2"/>
       <c r="P476" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="Q476" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="R476" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="S476" s="2"/>
     </row>
     <row r="477" spans="1:21">
-      <c r="A477" s="16"/>
+      <c r="A477" s="22"/>
       <c r="E477" s="1" t="s">
         <v>344</v>
       </c>
@@ -16933,10 +16924,10 @@
       <c r="G477" s="2"/>
       <c r="H477" s="2"/>
       <c r="I477" s="2" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="J477" s="2" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="K477" s="2"/>
       <c r="L477" s="2"/>
@@ -16951,7 +16942,7 @@
       <c r="U477" s="2"/>
     </row>
     <row r="478" spans="1:21">
-      <c r="A478" s="16"/>
+      <c r="A478" s="22"/>
       <c r="E478" s="1" t="s">
         <v>344</v>
       </c>
@@ -16961,29 +16952,29 @@
       <c r="G478" s="2"/>
       <c r="H478" s="2"/>
       <c r="I478" s="1" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="J478" s="2"/>
       <c r="K478" s="1" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="L478" s="2"/>
       <c r="M478" s="2"/>
       <c r="N478" s="2"/>
       <c r="O478" s="2"/>
       <c r="P478" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="Q478" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="R478" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="S478" s="2"/>
     </row>
     <row r="479" spans="1:21">
-      <c r="A479" s="16"/>
+      <c r="A479" s="22"/>
       <c r="E479" s="1" t="s">
         <v>344</v>
       </c>
@@ -16993,10 +16984,10 @@
       <c r="G479" s="2"/>
       <c r="H479" s="2"/>
       <c r="I479" s="1" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="J479" s="2" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="K479" s="2"/>
       <c r="L479" s="2"/>
@@ -17011,7 +17002,7 @@
       <c r="U479" s="2"/>
     </row>
     <row r="480" spans="1:21">
-      <c r="A480" s="16"/>
+      <c r="A480" s="22"/>
       <c r="E480" s="1" t="s">
         <v>344</v>
       </c>
@@ -17020,34 +17011,34 @@
       </c>
       <c r="G480" s="2"/>
       <c r="H480" s="1" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="I480" s="1" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="J480" s="2"/>
       <c r="K480" s="1" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="L480" s="2"/>
       <c r="M480" s="2"/>
       <c r="N480" s="2"/>
       <c r="O480" s="2"/>
       <c r="P480" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="Q480" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="R480" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="S480" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="481" spans="1:21">
-      <c r="A481" s="16"/>
+      <c r="A481" s="22"/>
       <c r="E481" s="1" t="s">
         <v>344</v>
       </c>
@@ -17057,10 +17048,10 @@
       <c r="G481" s="2"/>
       <c r="H481" s="2"/>
       <c r="I481" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="J481" s="2" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="K481" s="2"/>
       <c r="L481" s="2"/>
@@ -17075,7 +17066,7 @@
       <c r="U481" s="2"/>
     </row>
     <row r="482" spans="1:21">
-      <c r="A482" s="16"/>
+      <c r="A482" s="22"/>
       <c r="E482" s="1" t="s">
         <v>344</v>
       </c>
@@ -17085,11 +17076,11 @@
       <c r="G482" s="2"/>
       <c r="H482" s="2"/>
       <c r="I482" s="1" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="J482" s="2"/>
       <c r="K482" s="1" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="L482" s="2"/>
       <c r="M482" s="2"/>
@@ -17098,20 +17089,20 @@
       <c r="P482" s="2"/>
       <c r="Q482" s="2"/>
       <c r="R482" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="S482" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="T482" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="U482" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="483" spans="1:21">
-      <c r="A483" s="16"/>
+      <c r="A483" s="22"/>
       <c r="E483" s="1" t="s">
         <v>344</v>
       </c>
@@ -17121,10 +17112,10 @@
       <c r="G483" s="2"/>
       <c r="H483" s="2"/>
       <c r="I483" s="6" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="J483" s="2" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="K483" s="1"/>
       <c r="L483" s="1"/>
@@ -17139,7 +17130,7 @@
       <c r="U483" s="2"/>
     </row>
     <row r="484" spans="1:21">
-      <c r="A484" s="16"/>
+      <c r="A484" s="22"/>
       <c r="E484" s="1" t="s">
         <v>344</v>
       </c>
@@ -17149,7 +17140,7 @@
       <c r="G484" s="2"/>
       <c r="H484" s="2"/>
       <c r="I484" s="1" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="J484" s="2"/>
       <c r="K484" s="1"/>
@@ -17165,7 +17156,7 @@
       <c r="U484" s="2"/>
     </row>
     <row r="485" spans="1:21">
-      <c r="A485" s="16"/>
+      <c r="A485" s="22"/>
       <c r="E485" s="1" t="s">
         <v>344</v>
       </c>
@@ -17175,10 +17166,10 @@
       <c r="G485" s="2"/>
       <c r="H485" s="2"/>
       <c r="I485" s="1" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="J485" s="2" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K485" s="1"/>
       <c r="L485" s="1"/>
@@ -17193,7 +17184,7 @@
       <c r="U485" s="2"/>
     </row>
     <row r="486" spans="1:21">
-      <c r="A486" s="16"/>
+      <c r="A486" s="22"/>
       <c r="E486" s="1" t="s">
         <v>344</v>
       </c>
@@ -17203,7 +17194,7 @@
       <c r="G486" s="2"/>
       <c r="H486" s="2"/>
       <c r="I486" s="1" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="J486" s="2"/>
       <c r="K486" s="1"/>
@@ -17219,7 +17210,7 @@
       <c r="U486" s="2"/>
     </row>
     <row r="487" spans="1:21">
-      <c r="A487" s="16"/>
+      <c r="A487" s="22"/>
       <c r="E487" s="1" t="s">
         <v>344</v>
       </c>
@@ -17229,28 +17220,28 @@
       <c r="G487" s="2"/>
       <c r="H487" s="2"/>
       <c r="I487" s="1" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="J487" s="2"/>
       <c r="K487" s="1" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="L487" s="2"/>
       <c r="M487" s="2"/>
       <c r="N487" s="2"/>
       <c r="O487" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="P487" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="Q487" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="R487" s="2"/>
     </row>
     <row r="488" spans="1:21">
-      <c r="A488" s="16"/>
+      <c r="A488" s="22"/>
       <c r="E488" s="1" t="s">
         <v>344</v>
       </c>
@@ -17260,7 +17251,7 @@
       <c r="G488" s="2"/>
       <c r="H488" s="2"/>
       <c r="I488" s="1" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="J488" s="2"/>
       <c r="K488" s="1"/>
@@ -17276,13 +17267,13 @@
       <c r="U488" s="2"/>
     </row>
     <row r="489" spans="1:21">
-      <c r="A489" s="16"/>
+      <c r="A489" s="22"/>
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
       <c r="G489" s="2"/>
       <c r="H489" s="1"/>
       <c r="I489" s="1" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="J489" s="2"/>
       <c r="K489" s="1"/>
@@ -17298,13 +17289,13 @@
       <c r="U489" s="2"/>
     </row>
     <row r="490" spans="1:21">
-      <c r="A490" s="16"/>
+      <c r="A490" s="22"/>
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
       <c r="G490" s="2"/>
       <c r="H490" s="1"/>
       <c r="I490" s="1" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="J490" s="2"/>
       <c r="K490" s="1"/>
@@ -17320,13 +17311,13 @@
       <c r="U490" s="2"/>
     </row>
     <row r="491" spans="1:21">
-      <c r="A491" s="16"/>
+      <c r="A491" s="22"/>
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
       <c r="G491" s="2"/>
       <c r="H491" s="1"/>
       <c r="I491" s="1" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="J491" s="2"/>
       <c r="K491" s="1"/>
@@ -17342,7 +17333,7 @@
       <c r="U491" s="2"/>
     </row>
     <row r="492" spans="1:21">
-      <c r="A492" s="16"/>
+      <c r="A492" s="22"/>
       <c r="E492" s="1" t="s">
         <v>344</v>
       </c>
@@ -17351,33 +17342,33 @@
       </c>
       <c r="G492" s="2"/>
       <c r="H492" s="1" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="I492" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="J492" s="2"/>
       <c r="K492" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="L492" s="2"/>
       <c r="M492" s="2"/>
       <c r="N492" s="2"/>
       <c r="O492" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="P492" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="Q492" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="R492" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="493" spans="1:21">
-      <c r="A493" s="16"/>
+      <c r="A493" s="22"/>
       <c r="E493" s="1" t="s">
         <v>344</v>
       </c>
@@ -17387,7 +17378,7 @@
       <c r="G493" s="2"/>
       <c r="H493" s="2"/>
       <c r="I493" s="1" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="J493" s="2"/>
       <c r="K493" s="1"/>
@@ -17403,7 +17394,7 @@
       <c r="U493" s="2"/>
     </row>
     <row r="494" spans="1:21">
-      <c r="A494" s="16"/>
+      <c r="A494" s="22"/>
       <c r="E494" s="1" t="s">
         <v>344</v>
       </c>
@@ -17413,10 +17404,10 @@
       <c r="G494" s="2"/>
       <c r="H494" s="2"/>
       <c r="I494" s="1" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="J494" s="2" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K494" s="1"/>
       <c r="L494" s="1"/>
@@ -17431,7 +17422,7 @@
       <c r="U494" s="2"/>
     </row>
     <row r="495" spans="1:21">
-      <c r="A495" s="16"/>
+      <c r="A495" s="22"/>
       <c r="E495" s="1" t="s">
         <v>344</v>
       </c>
@@ -17441,10 +17432,10 @@
       <c r="G495" s="2"/>
       <c r="H495" s="1"/>
       <c r="I495" s="6" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="J495" s="1" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="K495" s="1"/>
       <c r="L495" s="1"/>
@@ -17459,7 +17450,7 @@
       <c r="U495" s="2"/>
     </row>
     <row r="496" spans="1:21">
-      <c r="A496" s="16"/>
+      <c r="A496" s="22"/>
       <c r="E496" s="1" t="s">
         <v>344</v>
       </c>
@@ -17469,7 +17460,7 @@
       <c r="G496" s="2"/>
       <c r="H496" s="1"/>
       <c r="I496" s="1" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="J496" s="1"/>
       <c r="K496" s="1"/>
@@ -17485,7 +17476,7 @@
       <c r="U496" s="2"/>
     </row>
     <row r="497" spans="1:21">
-      <c r="A497" s="16"/>
+      <c r="A497" s="22"/>
       <c r="E497" s="1" t="s">
         <v>344</v>
       </c>
@@ -17494,10 +17485,10 @@
       </c>
       <c r="G497" s="2"/>
       <c r="H497" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="I497" s="1" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="J497" s="1"/>
       <c r="K497" s="1"/>
@@ -17506,12 +17497,12 @@
       <c r="N497" s="2"/>
       <c r="O497" s="2"/>
       <c r="P497" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="Q497" s="2"/>
     </row>
     <row r="498" spans="1:21">
-      <c r="A498" s="16"/>
+      <c r="A498" s="22"/>
       <c r="E498" s="1" t="s">
         <v>344</v>
       </c>
@@ -17521,10 +17512,10 @@
       <c r="G498" s="2"/>
       <c r="H498" s="2"/>
       <c r="I498" s="2" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="J498" s="2" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="K498" s="1"/>
       <c r="L498" s="1"/>
@@ -17539,7 +17530,7 @@
       <c r="U498" s="2"/>
     </row>
     <row r="499" spans="1:21">
-      <c r="A499" s="16"/>
+      <c r="A499" s="22"/>
       <c r="E499" s="1" t="s">
         <v>344</v>
       </c>
@@ -17549,10 +17540,10 @@
       <c r="G499" s="2"/>
       <c r="H499" s="2"/>
       <c r="I499" s="1" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="J499" s="2" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K499" s="1"/>
       <c r="L499" s="1"/>
@@ -17567,7 +17558,7 @@
       <c r="U499" s="2"/>
     </row>
     <row r="500" spans="1:21">
-      <c r="A500" s="16"/>
+      <c r="A500" s="22"/>
       <c r="E500" s="1" t="s">
         <v>344</v>
       </c>
@@ -17577,7 +17568,7 @@
       <c r="G500" s="2"/>
       <c r="H500" s="2"/>
       <c r="I500" s="1" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="J500" s="2"/>
       <c r="K500" s="1"/>
@@ -17593,7 +17584,7 @@
       <c r="U500" s="2"/>
     </row>
     <row r="501" spans="1:21">
-      <c r="A501" s="16"/>
+      <c r="A501" s="22"/>
       <c r="E501" s="1" t="s">
         <v>344</v>
       </c>
@@ -17603,10 +17594,10 @@
       <c r="G501" s="2"/>
       <c r="H501" s="2"/>
       <c r="I501" s="1" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="J501" s="2" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K501" s="1"/>
       <c r="L501" s="1"/>
@@ -17621,7 +17612,7 @@
       <c r="U501" s="2"/>
     </row>
     <row r="502" spans="1:21">
-      <c r="A502" s="16"/>
+      <c r="A502" s="22"/>
       <c r="E502" s="1" t="s">
         <v>344</v>
       </c>
@@ -17631,7 +17622,7 @@
       <c r="G502" s="2"/>
       <c r="H502" s="2"/>
       <c r="I502" s="1" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="J502" s="1"/>
       <c r="K502" s="1"/>
@@ -17644,7 +17635,7 @@
       <c r="R502" s="2"/>
     </row>
     <row r="503" spans="1:21">
-      <c r="A503" s="16"/>
+      <c r="A503" s="22"/>
       <c r="E503" s="1" t="s">
         <v>344</v>
       </c>
@@ -17654,30 +17645,30 @@
       <c r="G503" s="2"/>
       <c r="H503" s="2"/>
       <c r="I503" s="1" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="J503" s="2"/>
       <c r="K503" s="1" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="L503" s="2"/>
       <c r="M503" s="2"/>
       <c r="N503" s="2"/>
       <c r="O503" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="P503" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="Q503" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="R503" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="504" spans="1:21">
-      <c r="A504" s="16"/>
+      <c r="A504" s="22"/>
       <c r="E504" s="1" t="s">
         <v>344</v>
       </c>
@@ -17687,30 +17678,30 @@
       <c r="G504" s="2"/>
       <c r="H504" s="2"/>
       <c r="I504" s="1" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="J504" s="2"/>
       <c r="K504" s="1" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="L504" s="2"/>
       <c r="M504" s="2"/>
       <c r="N504" s="2"/>
       <c r="O504" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="P504" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="Q504" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="R504" s="2">
         <v>27</v>
       </c>
     </row>
     <row r="505" spans="1:21">
-      <c r="A505" s="16"/>
+      <c r="A505" s="22"/>
       <c r="E505" s="1" t="s">
         <v>344</v>
       </c>
@@ -17720,11 +17711,11 @@
       <c r="G505" s="2"/>
       <c r="H505" s="2"/>
       <c r="I505" s="1" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="J505" s="2"/>
       <c r="K505" s="1" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="L505" s="2"/>
       <c r="M505" s="2"/>
@@ -17732,20 +17723,20 @@
       <c r="O505" s="2"/>
       <c r="P505" s="2"/>
       <c r="Q505" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="R505" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S505" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="T505" s="2">
         <v>28</v>
       </c>
     </row>
     <row r="506" spans="1:21">
-      <c r="A506" s="16"/>
+      <c r="A506" s="22"/>
       <c r="E506" s="1" t="s">
         <v>344</v>
       </c>
@@ -17755,11 +17746,11 @@
       <c r="G506" s="2"/>
       <c r="H506" s="2"/>
       <c r="I506" s="1" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="J506" s="2"/>
       <c r="K506" s="1" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="L506" s="2"/>
       <c r="M506" s="2"/>
@@ -17767,20 +17758,20 @@
       <c r="O506" s="2"/>
       <c r="P506" s="2"/>
       <c r="Q506" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="R506" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S506" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="T506" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="507" spans="1:21">
-      <c r="A507" s="16"/>
+      <c r="A507" s="22"/>
       <c r="E507" s="1" t="s">
         <v>344</v>
       </c>
@@ -17789,14 +17780,14 @@
       </c>
       <c r="G507" s="2"/>
       <c r="H507" s="1" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="I507" s="1" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="J507" s="2"/>
       <c r="K507" s="1" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="L507" s="2"/>
       <c r="M507" s="2"/>
@@ -17804,20 +17795,20 @@
       <c r="O507" s="2"/>
       <c r="P507" s="2"/>
       <c r="Q507" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="R507" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S507" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="T507" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="508" spans="1:21">
-      <c r="A508" s="16"/>
+      <c r="A508" s="22"/>
       <c r="E508" s="1" t="s">
         <v>344</v>
       </c>
@@ -17826,14 +17817,14 @@
       </c>
       <c r="G508" s="2"/>
       <c r="H508" s="1" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="I508" s="1" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="J508" s="2"/>
       <c r="K508" s="1" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="L508" s="2"/>
       <c r="M508" s="2"/>
@@ -17841,20 +17832,20 @@
       <c r="O508" s="2"/>
       <c r="P508" s="2"/>
       <c r="Q508" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="R508" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S508" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="T508" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="509" spans="1:21">
-      <c r="A509" s="16"/>
+      <c r="A509" s="22"/>
       <c r="E509" s="1" t="s">
         <v>344</v>
       </c>
@@ -17863,14 +17854,14 @@
       </c>
       <c r="G509" s="2"/>
       <c r="H509" s="1" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="I509" s="1" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="J509" s="2"/>
       <c r="K509" s="1" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="L509" s="2"/>
       <c r="M509" s="2"/>
@@ -17878,20 +17869,20 @@
       <c r="O509" s="2"/>
       <c r="P509" s="2"/>
       <c r="Q509" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="R509" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S509" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="T509" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="510" spans="1:21">
-      <c r="A510" s="16"/>
+      <c r="A510" s="22"/>
       <c r="E510" s="1" t="s">
         <v>344</v>
       </c>
@@ -17901,7 +17892,7 @@
       <c r="G510" s="2"/>
       <c r="H510" s="2"/>
       <c r="I510" s="1" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="J510" s="2"/>
       <c r="K510" s="2"/>
@@ -17912,16 +17903,16 @@
       <c r="P510" s="2"/>
       <c r="Q510" s="2"/>
       <c r="R510" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="S510" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="T510" s="2"/>
       <c r="U510" s="2"/>
     </row>
     <row r="511" spans="1:21">
-      <c r="A511" s="16"/>
+      <c r="A511" s="22"/>
       <c r="E511" s="1" t="s">
         <v>344</v>
       </c>
@@ -17931,11 +17922,11 @@
       <c r="G511" s="2"/>
       <c r="H511" s="2"/>
       <c r="I511" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="J511" s="2"/>
       <c r="K511" s="1" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="L511" s="2"/>
       <c r="M511" s="2"/>
@@ -17944,12 +17935,12 @@
       <c r="P511" s="2"/>
       <c r="Q511" s="2"/>
       <c r="R511" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="S511" s="2"/>
     </row>
     <row r="512" spans="1:21">
-      <c r="A512" s="16"/>
+      <c r="A512" s="22"/>
       <c r="E512" s="1" t="s">
         <v>344</v>
       </c>
@@ -17959,21 +17950,21 @@
       <c r="G512" s="2"/>
       <c r="H512" s="2"/>
       <c r="I512" s="1" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="J512" s="2"/>
       <c r="K512" s="1" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="L512" s="2"/>
       <c r="M512" s="2"/>
       <c r="N512" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="O512" s="2"/>
     </row>
     <row r="513" spans="1:20">
-      <c r="A513" s="16"/>
+      <c r="A513" s="22"/>
       <c r="E513" s="1" t="s">
         <v>344</v>
       </c>
@@ -17983,11 +17974,11 @@
       <c r="G513" s="2"/>
       <c r="H513" s="2"/>
       <c r="I513" s="1" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="J513" s="2"/>
       <c r="K513" s="1" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="L513" s="2"/>
       <c r="M513" s="2"/>
@@ -17997,12 +17988,12 @@
       <c r="Q513" s="2"/>
       <c r="R513" s="2"/>
       <c r="S513" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="T513" s="2"/>
     </row>
     <row r="514" spans="1:20">
-      <c r="A514" s="16"/>
+      <c r="A514" s="22"/>
       <c r="E514" s="1" t="s">
         <v>344</v>
       </c>
@@ -18012,29 +18003,29 @@
       <c r="G514" s="2"/>
       <c r="H514" s="2"/>
       <c r="I514" s="1" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="J514" s="2"/>
       <c r="K514" s="2"/>
       <c r="L514" s="2"/>
       <c r="M514" s="1" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="N514" s="2"/>
       <c r="O514" s="2"/>
       <c r="P514" s="1" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="Q514" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="R514" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="S514" s="2"/>
     </row>
     <row r="515" spans="1:20">
-      <c r="A515" s="16"/>
+      <c r="A515" s="22"/>
       <c r="E515" s="1" t="s">
         <v>344</v>
       </c>
@@ -18043,34 +18034,34 @@
       </c>
       <c r="G515" s="2"/>
       <c r="H515" s="1" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="I515" s="1" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="J515" s="2"/>
       <c r="K515" s="2"/>
       <c r="L515" s="2"/>
       <c r="M515" s="1" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="N515" s="2"/>
       <c r="O515" s="2"/>
       <c r="P515" s="1" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="Q515" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="R515" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="S515" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="516" spans="1:20">
-      <c r="A516" s="16"/>
+      <c r="A516" s="22"/>
       <c r="E516" s="1" t="s">
         <v>344</v>
       </c>
@@ -18080,7 +18071,7 @@
       <c r="G516" s="2"/>
       <c r="H516" s="2"/>
       <c r="I516" s="1" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="J516" s="2"/>
       <c r="K516" s="1"/>
@@ -18090,18 +18081,18 @@
       <c r="O516" s="2"/>
       <c r="P516" s="2"/>
       <c r="Q516" s="1" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="R516" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="S516" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="T516" s="2"/>
     </row>
     <row r="517" spans="1:20">
-      <c r="A517" s="16"/>
+      <c r="A517" s="22"/>
       <c r="E517" s="1" t="s">
         <v>344</v>
       </c>
@@ -18111,29 +18102,29 @@
       <c r="G517" s="2"/>
       <c r="H517" s="2"/>
       <c r="I517" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="J517" s="2"/>
       <c r="K517" s="1" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="L517" s="2"/>
       <c r="M517" s="2"/>
       <c r="N517" s="2"/>
       <c r="O517" s="2"/>
       <c r="P517" s="1" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="Q517" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="R517" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="S517" s="2"/>
     </row>
     <row r="518" spans="1:20">
-      <c r="A518" s="16"/>
+      <c r="A518" s="22"/>
       <c r="E518" s="1" t="s">
         <v>344</v>
       </c>
@@ -18143,11 +18134,11 @@
       <c r="G518" s="2"/>
       <c r="H518" s="2"/>
       <c r="I518" s="1" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="J518" s="2"/>
       <c r="K518" s="1" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="L518" s="2"/>
       <c r="M518" s="2"/>
@@ -18158,7 +18149,7 @@
       <c r="R518" s="2"/>
     </row>
     <row r="519" spans="1:20">
-      <c r="A519" s="16"/>
+      <c r="A519" s="22"/>
       <c r="E519" s="1" t="s">
         <v>344</v>
       </c>
@@ -18168,11 +18159,11 @@
       <c r="G519" s="2"/>
       <c r="H519" s="2"/>
       <c r="I519" s="1" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="J519" s="2"/>
       <c r="K519" s="1" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="L519" s="2"/>
       <c r="M519" s="2"/>
@@ -18183,7 +18174,7 @@
       <c r="R519" s="2"/>
     </row>
     <row r="520" spans="1:20">
-      <c r="A520" s="16"/>
+      <c r="A520" s="22"/>
       <c r="E520" s="1" t="s">
         <v>344</v>
       </c>
@@ -18193,11 +18184,11 @@
       <c r="G520" s="2"/>
       <c r="H520" s="2"/>
       <c r="I520" s="1" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="J520" s="2"/>
       <c r="K520" s="1" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="L520" s="2"/>
       <c r="M520" s="2"/>
@@ -18207,7 +18198,7 @@
       </c>
     </row>
     <row r="521" spans="1:20">
-      <c r="A521" s="16"/>
+      <c r="A521" s="22"/>
       <c r="E521" s="1" t="s">
         <v>344</v>
       </c>
@@ -18217,11 +18208,11 @@
       <c r="G521" s="2"/>
       <c r="H521" s="2"/>
       <c r="I521" s="1" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="J521" s="2"/>
       <c r="K521" s="1" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="L521" s="2"/>
       <c r="M521" s="2"/>
@@ -18231,7 +18222,7 @@
       </c>
     </row>
     <row r="522" spans="1:20">
-      <c r="A522" s="16"/>
+      <c r="A522" s="22"/>
       <c r="E522" s="1" t="s">
         <v>344</v>
       </c>
@@ -18241,11 +18232,11 @@
       <c r="G522" s="2"/>
       <c r="H522" s="2"/>
       <c r="I522" s="1" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="J522" s="2"/>
       <c r="K522" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="L522" s="2"/>
       <c r="M522" s="2"/>
@@ -18255,7 +18246,7 @@
       <c r="Q522" s="2"/>
     </row>
     <row r="523" spans="1:20">
-      <c r="A523" s="16"/>
+      <c r="A523" s="22"/>
       <c r="E523" s="1" t="s">
         <v>344</v>
       </c>
@@ -18264,14 +18255,14 @@
       </c>
       <c r="G523" s="2"/>
       <c r="H523" s="1" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="I523" s="1" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="J523" s="2"/>
       <c r="K523" s="1" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="L523" s="2"/>
       <c r="M523" s="2"/>
@@ -18286,7 +18277,7 @@
       </c>
     </row>
     <row r="524" spans="1:20">
-      <c r="A524" s="16"/>
+      <c r="A524" s="22"/>
       <c r="E524" s="1" t="s">
         <v>344</v>
       </c>
@@ -18295,14 +18286,14 @@
       </c>
       <c r="G524" s="2"/>
       <c r="H524" s="1" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="I524" s="1" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="J524" s="2"/>
       <c r="K524" s="1" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="L524" s="2"/>
       <c r="M524" s="2"/>
@@ -18317,7 +18308,7 @@
       </c>
     </row>
     <row r="525" spans="1:20">
-      <c r="A525" s="16"/>
+      <c r="A525" s="22"/>
       <c r="E525" s="1" t="s">
         <v>344</v>
       </c>
@@ -18326,14 +18317,14 @@
       </c>
       <c r="G525" s="2"/>
       <c r="H525" s="1" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="I525" s="1" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="J525" s="2"/>
       <c r="K525" s="1" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="L525" s="2"/>
       <c r="M525" s="2"/>
@@ -18348,7 +18339,7 @@
       </c>
     </row>
     <row r="526" spans="1:20">
-      <c r="A526" s="16"/>
+      <c r="A526" s="22"/>
       <c r="E526" s="1" t="s">
         <v>344</v>
       </c>
@@ -18357,14 +18348,14 @@
       </c>
       <c r="G526" s="2"/>
       <c r="H526" s="1" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="I526" s="1" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="J526" s="2"/>
       <c r="K526" s="1" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="L526" s="2"/>
       <c r="M526" s="2"/>
@@ -18379,33 +18370,27 @@
       </c>
     </row>
     <row r="528" spans="1:20">
-      <c r="H528" s="21"/>
-      <c r="I528" s="21"/>
-      <c r="J528" s="21"/>
+      <c r="H528" s="19"/>
+      <c r="I528" s="19"/>
+      <c r="J528" s="19"/>
     </row>
     <row r="529" spans="8:10">
-      <c r="H529" s="21"/>
-      <c r="I529" s="21"/>
-      <c r="J529" s="21"/>
+      <c r="H529" s="19"/>
+      <c r="I529" s="19"/>
+      <c r="J529" s="19"/>
     </row>
     <row r="530" spans="8:10">
-      <c r="H530" s="22"/>
-      <c r="I530" s="23"/>
-      <c r="J530" s="23"/>
+      <c r="H530" s="20"/>
+      <c r="I530" s="21"/>
+      <c r="J530" s="21"/>
     </row>
     <row r="531" spans="8:10">
-      <c r="H531" s="22"/>
-      <c r="I531" s="23"/>
-      <c r="J531" s="23"/>
+      <c r="H531" s="20"/>
+      <c r="I531" s="21"/>
+      <c r="J531" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A186:A348"/>
-    <mergeCell ref="A351:A357"/>
-    <mergeCell ref="A358:A365"/>
-    <mergeCell ref="A366:A371"/>
-    <mergeCell ref="A9:A23"/>
-    <mergeCell ref="A127:A149"/>
     <mergeCell ref="A372:A526"/>
     <mergeCell ref="A24:A52"/>
     <mergeCell ref="A150:A185"/>
@@ -18414,6 +18399,12 @@
     <mergeCell ref="A53:A85"/>
     <mergeCell ref="A86:A116"/>
     <mergeCell ref="A117:A126"/>
+    <mergeCell ref="A186:A348"/>
+    <mergeCell ref="A351:A357"/>
+    <mergeCell ref="A358:A365"/>
+    <mergeCell ref="A366:A371"/>
+    <mergeCell ref="A9:A23"/>
+    <mergeCell ref="A127:A149"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q397" r:id="rId1" xr:uid="{0723126F-FC4F-804D-B694-071C44D04EB7}"/>
@@ -18430,17 +18421,17 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="B1" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="C1" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
   </sheetData>
@@ -18450,23 +18441,67 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01658F34-4982-8840-AF22-6E6480DB069B}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s">
         <v>1158</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1159</v>
       </c>
     </row>
   </sheetData>
@@ -18482,7 +18517,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdebasto\Desktop\GitHub\fovt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B474C716-1625-4B07-B545-4B0DEB1FC813}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8844F0CC-25B3-4691-95AA-9CC8C67E090D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="1164">
   <si>
     <t>Status</t>
   </si>
@@ -3578,6 +3578,21 @@
   </si>
   <si>
     <t>distal surface some metacarpal bone</t>
+  </si>
+  <si>
+    <t>proximal surface some metacarpal bone</t>
+  </si>
+  <si>
+    <t>distal surface some metatarsal bone</t>
+  </si>
+  <si>
+    <t>proximal surface some metatarsal bone</t>
+  </si>
+  <si>
+    <t>metacarpal bone</t>
+  </si>
+  <si>
+    <t>metatarsal bone</t>
   </si>
 </sst>
 </file>
@@ -4087,9 +4102,9 @@
   <dimension ref="A1:AD531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H149" sqref="H149"/>
+      <selection pane="bottomLeft" activeCell="K154" sqref="K154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -18441,13 +18456,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01658F34-4982-8840-AF22-6E6480DB069B}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="29.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -18502,6 +18520,123 @@
       </c>
       <c r="C5" t="s">
         <v>1158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>665</v>
       </c>
     </row>
   </sheetData>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdebasto\Desktop\GitHub\fovt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8844F0CC-25B3-4691-95AA-9CC8C67E090D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5740615A-D048-E846-A5B2-BAF5DE498FC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16660" activeTab="4" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
     <sheet name="Terms" sheetId="1" r:id="rId2"/>
     <sheet name="Point AB Pattern" sheetId="5" r:id="rId3"/>
     <sheet name="Axis Pattern" sheetId="6" r:id="rId4"/>
-    <sheet name="Imports" sheetId="2" r:id="rId5"/>
+    <sheet name="Traits" sheetId="7" r:id="rId5"/>
+    <sheet name="Imports" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="1200">
   <si>
     <t>Status</t>
   </si>
@@ -3594,12 +3595,120 @@
   <si>
     <t>metatarsal bone</t>
   </si>
+  <si>
+    <t>metapodial width AP</t>
+  </si>
+  <si>
+    <t>metapodial width ML</t>
+  </si>
+  <si>
+    <t>Metapodial Length</t>
+  </si>
+  <si>
+    <t>Metapodial Width AP</t>
+  </si>
+  <si>
+    <t>Metapodial Width ML</t>
+  </si>
+  <si>
+    <t>metapodial Length</t>
+  </si>
+  <si>
+    <t>metacarpal greatest breadth distal</t>
+  </si>
+  <si>
+    <t>metacarpal greatest depth distal</t>
+  </si>
+  <si>
+    <t>metacarpal greatest depth proximal</t>
+  </si>
+  <si>
+    <t>metacarpal greatest length</t>
+  </si>
+  <si>
+    <t>metacarpal proximal breadth of facet</t>
+  </si>
+  <si>
+    <t>metacarpal smallest diameter sagittal plane</t>
+  </si>
+  <si>
+    <t>metacarpal smallest diameter transverse plane</t>
+  </si>
+  <si>
+    <t>metatarsal breadth of the distal facet</t>
+  </si>
+  <si>
+    <t>metatarsal greatest breadth distal</t>
+  </si>
+  <si>
+    <t>metatarsal greatest breadth proximal</t>
+  </si>
+  <si>
+    <t>metatarsal greatest depth distal</t>
+  </si>
+  <si>
+    <t>metatarsal greatest depth proximal</t>
+  </si>
+  <si>
+    <t>metatarsal greatest length</t>
+  </si>
+  <si>
+    <t>metatarsal smallest diameter sagittal plane</t>
+  </si>
+  <si>
+    <t>metatarsal smallest diameter transverse plane</t>
+  </si>
+  <si>
+    <t>Length of metapodial along proximal-distal xis.</t>
+  </si>
+  <si>
+    <t>Pattern Name</t>
+  </si>
+  <si>
+    <t>line along proximal-distal axis of metapodial skeleton</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of metapodial skeleton</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of metapodial skeleton</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of distal surface some metacarpal bone</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of proximal surface some metacarpal bone</t>
+  </si>
+  <si>
+    <t>line along proximal-distal axis of metacarpal bone</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of proximal surface some metacarpal bone</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of distal surface some metatarsal bone</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of proximal surface some metatarsal bone</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of proximal surface some metatarsal bone</t>
+  </si>
+  <si>
+    <t>line along proximal-distal axis of metatarsal bone</t>
+  </si>
+  <si>
+    <t>Eisenman 1988</t>
+  </si>
+  <si>
+    <t>von den Dreisch 1976</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3688,6 +3797,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF032F62"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3716,7 +3831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3749,6 +3864,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4070,7 +4186,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
@@ -4101,13 +4217,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A27AA15-0A87-AC4A-A35D-D4FB3D2ACF67}">
   <dimension ref="A1:AD531"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K154" sqref="K154"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" t="s">
@@ -8467,7 +8583,7 @@
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="1:21" s="11" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="132" spans="1:21" s="11" customFormat="1" ht="17" customHeight="1">
       <c r="A132" s="22"/>
       <c r="C132" s="10" t="s">
         <v>1031</v>
@@ -18436,7 +18552,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -18456,18 +18572,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01658F34-4982-8840-AF22-6E6480DB069B}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1149</v>
       </c>
@@ -18478,7 +18594,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1154</v>
       </c>
@@ -18488,8 +18604,12 @@
       <c r="C2" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="str">
+        <f>"line along "&amp;B2&amp;" of "&amp;C2</f>
+        <v>line along proximal-distal axis of metapodial skeleton</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18499,8 +18619,12 @@
       <c r="C3" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D20" si="0">"line along "&amp;B3&amp;" of "&amp;C3</f>
+        <v>line along anterior-posterior axis of metapodial skeleton</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>1156</v>
       </c>
@@ -18510,8 +18634,12 @@
       <c r="C4" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>line along medial-lateral axis of metapodial skeleton</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>648</v>
       </c>
@@ -18521,13 +18649,21 @@
       <c r="C5" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>line along medial-lateral axis of distal surface some metacarpal bone</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">line along  of </v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>650</v>
       </c>
@@ -18537,8 +18673,12 @@
       <c r="C7" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>line along anterior-posterior axis of proximal surface some metacarpal bone</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>651</v>
       </c>
@@ -18548,8 +18688,12 @@
       <c r="C8" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>line along proximal-distal axis of metacarpal bone</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>652</v>
       </c>
@@ -18559,28 +18703,48 @@
       <c r="C9" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>line along medial-lateral axis of proximal surface some metacarpal bone</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">line along  of </v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">line along  of </v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">line along  of </v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">line along  of </v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>659</v>
       </c>
@@ -18590,8 +18754,12 @@
       <c r="C14" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>line along medial-lateral axis of distal surface some metatarsal bone</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>660</v>
       </c>
@@ -18601,13 +18769,21 @@
       <c r="C15" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>line along medial-lateral axis of proximal surface some metatarsal bone</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">line along  of </v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>662</v>
       </c>
@@ -18617,8 +18793,12 @@
       <c r="C17" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>line along anterior-posterior axis of proximal surface some metatarsal bone</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>663</v>
       </c>
@@ -18628,15 +18808,27 @@
       <c r="C18" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>line along proximal-distal axis of metatarsal bone</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">line along  of </v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>665</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">line along  of </v>
       </c>
     </row>
   </sheetData>
@@ -18645,6 +18837,358 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBC00A8-69BB-C944-AE92-971EEE98B192}">
+  <dimension ref="A1:P28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I2" t="str">
+        <f>"length and ('inheres in' some "&amp;H2&amp;")"</f>
+        <v>length and ('inheres in' some line along proximal-distal axis of metapodial skeleton)</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I9" si="0">"length and ('inheres in' some "&amp;H3&amp;")"</f>
+        <v>length and ('inheres in' some line along anterior-posterior axis of metapodial skeleton)</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some line along medial-lateral axis of metapodial skeleton)</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some line along medial-lateral axis of distal surface some metacarpal bone)</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some line along anterior-posterior axis of proximal surface some metacarpal bone)</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some line along proximal-distal axis of metacarpal bone)</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some line along medial-lateral axis of proximal surface some metacarpal bone)</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" ref="I14:I18" si="1">"length and ('inheres in' some "&amp;H14&amp;")"</f>
+        <v>length and ('inheres in' some line along medial-lateral axis of distal surface some metatarsal bone)</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>length and ('inheres in' some line along medial-lateral axis of proximal surface some metatarsal bone)</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>length and ('inheres in' some line along anterior-posterior axis of proximal surface some metatarsal bone)</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>length and ('inheres in' some line along proximal-distal axis of metatarsal bone)</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F219010-EE42-FC44-9B1F-2EFE57E8E324}">
   <dimension ref="A1:W27"/>
   <sheetViews>
@@ -18652,7 +19196,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5740615A-D048-E846-A5B2-BAF5DE498FC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B02E707-7F80-C144-B667-A7FF895A6895}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16660" activeTab="4" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16660" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
     <sheet name="Terms" sheetId="1" r:id="rId2"/>
     <sheet name="Point AB Pattern" sheetId="5" r:id="rId3"/>
     <sheet name="Axis Pattern" sheetId="6" r:id="rId4"/>
-    <sheet name="Traits" sheetId="7" r:id="rId5"/>
-    <sheet name="Imports" sheetId="2" r:id="rId6"/>
+    <sheet name="metapodial keels" sheetId="8" r:id="rId5"/>
+    <sheet name="Traits" sheetId="7" r:id="rId6"/>
+    <sheet name="Imports" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="1200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="1265">
   <si>
     <t>Status</t>
   </si>
@@ -3702,6 +3703,201 @@
   </si>
   <si>
     <t>von den Dreisch 1976</t>
+  </si>
+  <si>
+    <t>Pattern name</t>
+  </si>
+  <si>
+    <t>Metacarpal smallest diameter transverse plane (depth; ML)</t>
+  </si>
+  <si>
+    <t>Metacarpal smallest diameter sagittal plane (width; AP)</t>
+  </si>
+  <si>
+    <t>distal surface of some metacarpal bone</t>
+  </si>
+  <si>
+    <t>distal surface of some metatarsal bone</t>
+  </si>
+  <si>
+    <t>distal keel metatarsal III</t>
+  </si>
+  <si>
+    <t>follow metacarpal III format</t>
+  </si>
+  <si>
+    <t>distal keel of metacarpal III</t>
+  </si>
+  <si>
+    <t>distal keel of metatarsal III</t>
+  </si>
+  <si>
+    <t>lateral condyle...</t>
+  </si>
+  <si>
+    <t>Metatarsal greatest length; M1</t>
+  </si>
+  <si>
+    <t>Metacarpal greatest length; M1</t>
+  </si>
+  <si>
+    <t>metacarpal III proximal breadth; M5</t>
+  </si>
+  <si>
+    <t>metatarsal III proximal breadth; M5</t>
+  </si>
+  <si>
+    <t>metacarpal II proximal maximal breadth; M3</t>
+  </si>
+  <si>
+    <t>metatarsal IV proximal maximal breadth; M3</t>
+  </si>
+  <si>
+    <t>Metacarpal III greatest depth proximal; M6</t>
+  </si>
+  <si>
+    <t>Metacarpal II greatest depth proximal; M4</t>
+  </si>
+  <si>
+    <t>Metatarsal III greatest depth proximal; M6</t>
+  </si>
+  <si>
+    <t>Metatarsal II greatest depth proximal; M4</t>
+  </si>
+  <si>
+    <t>Metatarsal IV greatest depth proximal; M4</t>
+  </si>
+  <si>
+    <t>Metacarpal III greatest breadth distal; M11</t>
+  </si>
+  <si>
+    <t>Metacarpal IV distal articular breadth; M5</t>
+  </si>
+  <si>
+    <t>Metacarpal II distal articular breadth; M5</t>
+  </si>
+  <si>
+    <t>Metatarsal III greatest breadth distal; M11</t>
+  </si>
+  <si>
+    <t>Metatarsal IV distal articular breadth; M5</t>
+  </si>
+  <si>
+    <t>Metacarpal II distal articular depth; M6</t>
+  </si>
+  <si>
+    <t>Metacarpal IV distal articular depth; M6</t>
+  </si>
+  <si>
+    <t>Metatarsal II distal articular depth; M6</t>
+  </si>
+  <si>
+    <t>Metatarsal IV distal articular depth; M6</t>
+  </si>
+  <si>
+    <t>Metatarsal III distal minimum depth of lateral condyle: M13</t>
+  </si>
+  <si>
+    <t>Metatarsal III distal maximal depth of medial condyle: M14</t>
+  </si>
+  <si>
+    <t>Metacarpal III distal minimum depth of lateral condyle: M13</t>
+  </si>
+  <si>
+    <t>Metacarpal III distal maximal depth of medial condyle: M14</t>
+  </si>
+  <si>
+    <t>Metacarpal III distal maximal depth of keel; M12</t>
+  </si>
+  <si>
+    <t>Metatarsal III distal maximal depth of keel; M12</t>
+  </si>
+  <si>
+    <t>Metatarsal III proximal articular breadth; M5</t>
+  </si>
+  <si>
+    <t>Metatarsal II proximal breadth; M3</t>
+  </si>
+  <si>
+    <t>Metatarsal IV proximal breadth; M3</t>
+  </si>
+  <si>
+    <t>Metacarpal III proximal articular breadth; M5</t>
+  </si>
+  <si>
+    <t>Metacarpal II proximal breadth; M3</t>
+  </si>
+  <si>
+    <t>Metacarpal IV proximal breadth; M3</t>
+  </si>
+  <si>
+    <t>Metatarsal II greatest length; M1</t>
+  </si>
+  <si>
+    <t>Metatarsal III greatest length; M1</t>
+  </si>
+  <si>
+    <t>Metatarsal IV greatest length; M1</t>
+  </si>
+  <si>
+    <t>Metacarpal II greatest length; M1</t>
+  </si>
+  <si>
+    <t>Metacarpal III greatest length; M1</t>
+  </si>
+  <si>
+    <t>Metacarpal IV greatest length; M1</t>
+  </si>
+  <si>
+    <t>Metacarpal III medial length; M2</t>
+  </si>
+  <si>
+    <t>Metacarpal II minimal depth of diaphysis; M2</t>
+  </si>
+  <si>
+    <t>Metacarpal IV minimal depth of diaphysis; M2</t>
+  </si>
+  <si>
+    <t>Metatarsal III medial length; M2</t>
+  </si>
+  <si>
+    <t>Metatarsal II minimal depth of diaphysis; M2</t>
+  </si>
+  <si>
+    <t>Metatarsal IV minimal depth of diaphysis; M2</t>
+  </si>
+  <si>
+    <t>Metapodial III width ML; M3</t>
+  </si>
+  <si>
+    <t>Metapodial III depth AP; M4</t>
+  </si>
+  <si>
+    <t>Metatarsal II distal articular breadth; M5</t>
+  </si>
+  <si>
+    <t>Metatarsal III breadth of facet for third tarsal; M7</t>
+  </si>
+  <si>
+    <t>Metatarsal III breadth of facet for fourth tarsal; M8</t>
+  </si>
+  <si>
+    <t>Metatarsal III breadth of facet for second tarsal; M8</t>
+  </si>
+  <si>
+    <t>Metacarpal III breadth of proximal facet for second carpal; M9</t>
+  </si>
+  <si>
+    <t>Metatarsal III breadth of proximal facet for second tarsal; M9</t>
+  </si>
+  <si>
+    <t>Metacarpal III breadth of facet for second carpal; M8</t>
+  </si>
+  <si>
+    <t>Metacarpal III breadth of anterior facet for fourth carpal; M8</t>
+  </si>
+  <si>
+    <t>Metacarpal III breadth of facet for third carpal; M7</t>
   </si>
 </sst>
 </file>
@@ -4217,10 +4413,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A27AA15-0A87-AC4A-A35D-D4FB3D2ACF67}">
   <dimension ref="A1:AD531"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:U1"/>
+      <selection pane="bottomLeft" activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -18549,10 +18745,15 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -18572,15 +18773,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01658F34-4982-8840-AF22-6E6480DB069B}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D20"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -18593,10 +18797,13 @@
       <c r="C1" t="s">
         <v>1153</v>
       </c>
+      <c r="D1" t="s">
+        <v>1200</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1154</v>
+        <v>1166</v>
       </c>
       <c r="B2" t="s">
         <v>110</v>
@@ -18611,7 +18818,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1155</v>
+        <v>1255</v>
       </c>
       <c r="B3" t="s">
         <v>112</v>
@@ -18620,13 +18827,13 @@
         <v>1157</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D20" si="0">"line along "&amp;B3&amp;" of "&amp;C3</f>
+        <f t="shared" ref="D3:D34" si="0">"line along "&amp;B3&amp;" of "&amp;C3</f>
         <v>line along anterior-posterior axis of metapodial skeleton</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>1156</v>
+        <v>1254</v>
       </c>
       <c r="B4" t="s">
         <v>108</v>
@@ -18641,7 +18848,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>648</v>
+        <v>1221</v>
       </c>
       <c r="B5" t="s">
         <v>108</v>
@@ -18656,179 +18863,475 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">line along  of </v>
+        <v>1223</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>650</v>
+        <v>1222</v>
       </c>
       <c r="B7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B8" t="s">
         <v>112</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>line along anterior-posterior axis of distal surface of some metacarpal bone</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
         <v>1159</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of proximal surface some metacarpal bone</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B13" t="s">
         <v>110</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C13" t="s">
         <v>1162</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>line along proximal-distal axis of metacarpal bone</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B17" t="s">
         <v>108</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C17" t="s">
         <v>1159</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>line along medial-lateral axis of proximal surface some metacarpal bone</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">line along  of </v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">line along  of </v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">line along  of </v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">line along  of </v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B18" t="s">
         <v>108</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C18" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" ref="D18" si="1">"line along "&amp;B18&amp;" of "&amp;C18</f>
+        <v>line along medial-lateral axis of proximal surface some metatarsal bone</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
         <v>1160</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metatarsal bone</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B26" t="s">
         <v>108</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C26" t="s">
         <v>1161</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D26" t="str">
         <f t="shared" si="0"/>
         <v>line along medial-lateral axis of proximal surface some metatarsal bone</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="D16" t="str">
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">line along  of </v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="B17" t="s">
+        <v>line along anterior-posterior axis of distal surface of some metatarsal bone</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B31" t="s">
         <v>112</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C31" t="s">
         <v>1161</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
+      <c r="D31" t="str">
+        <f>"line along "&amp;B31&amp;" of "&amp;C31</f>
         <v>line along anterior-posterior axis of proximal surface some metatarsal bone</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B34" t="s">
         <v>110</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C34" t="s">
         <v>1163</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D34" t="str">
         <f t="shared" si="0"/>
         <v>line along proximal-distal axis of metatarsal bone</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" ref="D38:D39" si="2">"line along "&amp;B38&amp;" of "&amp;C38</f>
+        <v>line along anterior-posterior axis of distal keel of metacarpal III</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="2"/>
+        <v>line along anterior-posterior axis of distal keel of metatarsal III</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" ref="D45" si="3">"line along "&amp;B45&amp;" of "&amp;C45</f>
+        <v>line along medial-lateral axis of proximal surface some metatarsal bone</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">line along  of </v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">line along  of </v>
       </c>
     </row>
   </sheetData>
@@ -18837,11 +19340,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C6BB58-E681-9A44-BAE6-1CC6AE173542}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBC00A8-69BB-C944-AE92-971EEE98B192}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P18"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -18979,7 +19505,7 @@
         <v>1171</v>
       </c>
       <c r="P6" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -19044,7 +19570,7 @@
         <v>1174</v>
       </c>
       <c r="P10" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -19055,7 +19581,7 @@
         <v>1175</v>
       </c>
       <c r="P11" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -19066,7 +19592,7 @@
         <v>1176</v>
       </c>
       <c r="P12" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -19077,7 +19603,7 @@
         <v>1177</v>
       </c>
       <c r="P13" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -19124,7 +19650,7 @@
         <v>1180</v>
       </c>
       <c r="P16" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -19188,7 +19714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F219010-EE42-FC44-9B1F-2EFE57E8E324}">
   <dimension ref="A1:W27"/>
   <sheetViews>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B02E707-7F80-C144-B667-A7FF895A6895}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C20AB1E-E80D-7A40-9A2E-4A2B54940A9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16660" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Terms" sheetId="1" r:id="rId2"/>
     <sheet name="Point AB Pattern" sheetId="5" r:id="rId3"/>
     <sheet name="Axis Pattern" sheetId="6" r:id="rId4"/>
-    <sheet name="metapodial keels" sheetId="8" r:id="rId5"/>
+    <sheet name="Structures" sheetId="8" r:id="rId5"/>
     <sheet name="Traits" sheetId="7" r:id="rId6"/>
     <sheet name="Imports" sheetId="2" r:id="rId7"/>
   </sheets>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="1269">
   <si>
     <t>Status</t>
   </si>
@@ -3579,9 +3579,6 @@
     <t>metapodial skeleton</t>
   </si>
   <si>
-    <t>distal surface some metacarpal bone</t>
-  </si>
-  <si>
     <t>proximal surface some metacarpal bone</t>
   </si>
   <si>
@@ -3882,22 +3879,37 @@
     <t>Metatarsal III breadth of facet for fourth tarsal; M8</t>
   </si>
   <si>
-    <t>Metatarsal III breadth of facet for second tarsal; M8</t>
-  </si>
-  <si>
     <t>Metacarpal III breadth of proximal facet for second carpal; M9</t>
   </si>
   <si>
     <t>Metatarsal III breadth of proximal facet for second tarsal; M9</t>
   </si>
   <si>
-    <t>Metacarpal III breadth of facet for second carpal; M8</t>
-  </si>
-  <si>
     <t>Metacarpal III breadth of anterior facet for fourth carpal; M8</t>
   </si>
   <si>
     <t>Metacarpal III breadth of facet for third carpal; M7</t>
+  </si>
+  <si>
+    <t>Metacarpal III supra-articular breadth; M10</t>
+  </si>
+  <si>
+    <t>Metatarsal III supra-articular breadth; M10</t>
+  </si>
+  <si>
+    <t>medial condyle of metacarpal III</t>
+  </si>
+  <si>
+    <t>medial condyle of metatarsal III</t>
+  </si>
+  <si>
+    <t>lateral condyle of metatarsal III</t>
+  </si>
+  <si>
+    <t>lateral condyle of metacarpal III</t>
+  </si>
+  <si>
+    <t>distal surface some metacarpal bone of digit 3</t>
   </si>
 </sst>
 </file>
@@ -18742,10 +18754,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BA4F15-3142-994E-BF8B-16093E97474D}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -18766,6 +18778,16 @@
         <v>1151</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18773,10 +18795,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01658F34-4982-8840-AF22-6E6480DB069B}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -18798,12 +18820,12 @@
         <v>1153</v>
       </c>
       <c r="D1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B2" t="s">
         <v>110</v>
@@ -18818,7 +18840,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B3" t="s">
         <v>112</v>
@@ -18833,7 +18855,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B4" t="s">
         <v>108</v>
@@ -18848,22 +18870,22 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B5" t="s">
         <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>1158</v>
+        <v>1268</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>line along medial-lateral axis of distal surface some metacarpal bone</v>
+        <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B6" t="s">
         <v>108</v>
@@ -18871,7 +18893,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B7" t="s">
         <v>108</v>
@@ -18879,13 +18901,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B8" t="s">
         <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -18894,18 +18916,18 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B10" t="s">
         <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -18914,7 +18936,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B11" t="s">
         <v>112</v>
@@ -18922,7 +18944,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B12" t="s">
         <v>112</v>
@@ -18930,13 +18952,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B13" t="s">
         <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -18945,28 +18967,28 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B17" t="s">
         <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -18975,13 +18997,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B18" t="s">
         <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" ref="D18" si="1">"line along "&amp;B18&amp;" of "&amp;C18</f>
@@ -18990,7 +19012,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B19" t="s">
         <v>108</v>
@@ -18998,7 +19020,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B20" t="s">
         <v>108</v>
@@ -19006,7 +19028,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B21" t="s">
         <v>108</v>
@@ -19014,7 +19036,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B22" t="s">
         <v>108</v>
@@ -19022,13 +19044,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B23" t="s">
         <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -19037,23 +19059,23 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B26" t="s">
         <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -19062,23 +19084,23 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B29" t="s">
         <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -19087,18 +19109,18 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B31" t="s">
         <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D31" t="str">
         <f>"line along "&amp;B31&amp;" of "&amp;C31</f>
@@ -19107,7 +19129,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B32" t="s">
         <v>112</v>
@@ -19115,7 +19137,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B33" t="s">
         <v>112</v>
@@ -19123,13 +19145,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B34" t="s">
         <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -19138,28 +19160,28 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B38" t="s">
         <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" ref="D38:D39" si="2">"line along "&amp;B38&amp;" of "&amp;C38</f>
@@ -19168,13 +19190,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B39" t="s">
         <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
@@ -19183,41 +19205,41 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C40" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B45" t="s">
         <v>108</v>
       </c>
       <c r="C45" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" ref="D45" si="3">"line along "&amp;B45&amp;" of "&amp;C45</f>
@@ -19226,111 +19248,101 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="1" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="1" t="s">
-        <v>1261</v>
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>655</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>658</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>1202</v>
+        <v>664</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="1" t="s">
         <v>665</v>
       </c>
     </row>
@@ -19341,20 +19353,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C6BB58-E681-9A44-BAE6-1CC6AE173542}">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1153</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B2" t="s">
         <v>1205</v>
       </c>
-      <c r="B2" t="s">
-        <v>1206</v>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1265</v>
       </c>
     </row>
   </sheetData>
@@ -19395,7 +19432,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -19424,59 +19461,59 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I2" t="str">
         <f>"length and ('inheres in' some "&amp;H2&amp;")"</f>
         <v>length and ('inheres in' some line along proximal-distal axis of metapodial skeleton)</v>
       </c>
       <c r="P2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I9" si="0">"length and ('inheres in' some "&amp;H3&amp;")"</f>
         <v>length and ('inheres in' some line along anterior-posterior axis of metapodial skeleton)</v>
       </c>
       <c r="P3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some line along medial-lateral axis of metapodial skeleton)</v>
       </c>
       <c r="P4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -19484,17 +19521,17 @@
         <v>648</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H5" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some line along medial-lateral axis of distal surface some metacarpal bone)</v>
       </c>
       <c r="P5" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -19502,10 +19539,10 @@
         <v>649</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="P6" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -19513,17 +19550,17 @@
         <v>650</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H7" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some line along anterior-posterior axis of proximal surface some metacarpal bone)</v>
       </c>
       <c r="P7" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -19531,17 +19568,17 @@
         <v>651</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H8" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some line along proximal-distal axis of metacarpal bone)</v>
       </c>
       <c r="P8" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -19552,14 +19589,14 @@
         <v>652</v>
       </c>
       <c r="H9" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some line along medial-lateral axis of proximal surface some metacarpal bone)</v>
       </c>
       <c r="P9" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -19567,10 +19604,10 @@
         <v>655</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="P10" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -19578,10 +19615,10 @@
         <v>656</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="P11" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -19589,10 +19626,10 @@
         <v>657</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="P12" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -19600,10 +19637,10 @@
         <v>658</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="P13" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -19611,17 +19648,17 @@
         <v>659</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H14" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" ref="I14:I18" si="1">"length and ('inheres in' some "&amp;H14&amp;")"</f>
         <v>length and ('inheres in' some line along medial-lateral axis of distal surface some metatarsal bone)</v>
       </c>
       <c r="P14" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -19629,17 +19666,17 @@
         <v>660</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H15" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
         <v>length and ('inheres in' some line along medial-lateral axis of proximal surface some metatarsal bone)</v>
       </c>
       <c r="P15" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -19647,10 +19684,10 @@
         <v>661</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="P16" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -19658,17 +19695,17 @@
         <v>662</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H17" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
         <v>length and ('inheres in' some line along anterior-posterior axis of proximal surface some metatarsal bone)</v>
       </c>
       <c r="P17" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -19676,17 +19713,17 @@
         <v>663</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H18" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
         <v>length and ('inheres in' some line along proximal-distal axis of metatarsal bone)</v>
       </c>
       <c r="P18" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -19694,7 +19731,7 @@
         <v>664</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -19702,7 +19739,7 @@
         <v>665</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="28" spans="1:16">

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdebasto\Desktop\GitHub\fovt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C20AB1E-E80D-7A40-9A2E-4A2B54940A9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374D8AA3-4C37-4A7D-BCB0-61D906336316}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16660" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -26,12 +26,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="1298">
   <si>
     <t>Status</t>
   </si>
@@ -3579,15 +3588,6 @@
     <t>metapodial skeleton</t>
   </si>
   <si>
-    <t>proximal surface some metacarpal bone</t>
-  </si>
-  <si>
-    <t>distal surface some metatarsal bone</t>
-  </si>
-  <si>
-    <t>proximal surface some metatarsal bone</t>
-  </si>
-  <si>
     <t>metacarpal bone</t>
   </si>
   <si>
@@ -3711,45 +3711,18 @@
     <t>Metacarpal smallest diameter sagittal plane (width; AP)</t>
   </si>
   <si>
-    <t>distal surface of some metacarpal bone</t>
-  </si>
-  <si>
-    <t>distal surface of some metatarsal bone</t>
-  </si>
-  <si>
     <t>distal keel metatarsal III</t>
   </si>
   <si>
     <t>follow metacarpal III format</t>
   </si>
   <si>
-    <t>distal keel of metacarpal III</t>
-  </si>
-  <si>
-    <t>distal keel of metatarsal III</t>
-  </si>
-  <si>
-    <t>lateral condyle...</t>
-  </si>
-  <si>
     <t>Metatarsal greatest length; M1</t>
   </si>
   <si>
     <t>Metacarpal greatest length; M1</t>
   </si>
   <si>
-    <t>metacarpal III proximal breadth; M5</t>
-  </si>
-  <si>
-    <t>metatarsal III proximal breadth; M5</t>
-  </si>
-  <si>
-    <t>metacarpal II proximal maximal breadth; M3</t>
-  </si>
-  <si>
-    <t>metatarsal IV proximal maximal breadth; M3</t>
-  </si>
-  <si>
     <t>Metacarpal III greatest depth proximal; M6</t>
   </si>
   <si>
@@ -3813,21 +3786,9 @@
     <t>Metatarsal III proximal articular breadth; M5</t>
   </si>
   <si>
-    <t>Metatarsal II proximal breadth; M3</t>
-  </si>
-  <si>
-    <t>Metatarsal IV proximal breadth; M3</t>
-  </si>
-  <si>
     <t>Metacarpal III proximal articular breadth; M5</t>
   </si>
   <si>
-    <t>Metacarpal II proximal breadth; M3</t>
-  </si>
-  <si>
-    <t>Metacarpal IV proximal breadth; M3</t>
-  </si>
-  <si>
     <t>Metatarsal II greatest length; M1</t>
   </si>
   <si>
@@ -3910,13 +3871,148 @@
   </si>
   <si>
     <t>distal surface some metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>distal surface of some metacarpal bone of digit 2</t>
+  </si>
+  <si>
+    <t>proximal surface some metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>proximal surface some metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>distal surface some metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>distal surface of some metatarsal bone of digit 2</t>
+  </si>
+  <si>
+    <t>distal keel of metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>distal keel of metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metacarpal III breadth of posterior facet for fourth carpal; M16</t>
+  </si>
+  <si>
+    <t>Metacarpal III minimal breadth; M3</t>
+  </si>
+  <si>
+    <t>Metatarsal III minimal breadth; M3</t>
+  </si>
+  <si>
+    <t>Metacarpal IV greatest depth proximal; M4</t>
+  </si>
+  <si>
+    <t>Metacarpal III depth; M4</t>
+  </si>
+  <si>
+    <t>Metatarsal III depth; M4</t>
+  </si>
+  <si>
+    <t>Metatarsal II proximal maximal breadth; M3</t>
+  </si>
+  <si>
+    <t>Metatarsal IV proximal maximal breadth; M3</t>
+  </si>
+  <si>
+    <t>Metacarpal II proximal maximal breadth; M3</t>
+  </si>
+  <si>
+    <t>Metacarpal IV proximal maximal breadth; M3</t>
+  </si>
+  <si>
+    <t>distal surface of some metacarpal bone of digit 4</t>
+  </si>
+  <si>
+    <t>distal surface of some metatarsal bone of digit 4</t>
+  </si>
+  <si>
+    <t>proximal surface some metacarpal bone of digit 2</t>
+  </si>
+  <si>
+    <t>proximal surface some metacarpal bone of digit 4</t>
+  </si>
+  <si>
+    <t>distal surface some metacarpal bone of digit 2</t>
+  </si>
+  <si>
+    <t>distal surface some metacarpal bone of digit 4</t>
+  </si>
+  <si>
+    <t>proximal surface some metatarsal bone of digit 2</t>
+  </si>
+  <si>
+    <t>proximal surface some metatarsal bone of digit 4</t>
+  </si>
+  <si>
+    <t>metacarpal bone of digit 2</t>
+  </si>
+  <si>
+    <t>metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>metacarpal bone of digit 4</t>
+  </si>
+  <si>
+    <t>metatarsal bone of digit 2</t>
+  </si>
+  <si>
+    <t>metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>metatarsal bone of digit 4</t>
+  </si>
+  <si>
+    <t>distal surface some metatarsal bone of digit 2</t>
+  </si>
+  <si>
+    <t>distal surface some metatarsal bone of digit 4</t>
+  </si>
+  <si>
+    <t>anterior surface some metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>anterior surface some metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>lateral condyle of metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>lateral condyle of metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>medial condyle of metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>medial condyle of metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>medial surface of some metacarpal bone of digit 2</t>
+  </si>
+  <si>
+    <t>medial surface of some metacarpal bone of digit 4</t>
+  </si>
+  <si>
+    <t>medial surface of some metatarsal bone of digit 2</t>
+  </si>
+  <si>
+    <t>medial surface of some metatarsal bone of digit 4</t>
+  </si>
+  <si>
+    <t>lateral surface some metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>lateral surface some metacarpal bone of digit 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4011,6 +4107,12 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4066,13 +4168,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4394,7 +4496,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
@@ -4431,7 +4533,7 @@
       <selection pane="bottomLeft" activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" t="s">
@@ -4499,7 +4601,7 @@
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>1042</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4547,7 +4649,7 @@
       <c r="AD2" s="2"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -4593,7 +4695,7 @@
       <c r="AD3" s="2"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -4639,7 +4741,7 @@
       <c r="AD4" s="2"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="E5" s="2" t="s">
         <v>344</v>
       </c>
@@ -4669,7 +4771,7 @@
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:30" s="11" customFormat="1">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
         <v>344</v>
@@ -4702,7 +4804,7 @@
       <c r="U6" s="10"/>
     </row>
     <row r="7" spans="1:30" s="11" customFormat="1">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="10" t="s">
         <v>1148</v>
       </c>
@@ -4756,7 +4858,7 @@
       <c r="AD7" s="10"/>
     </row>
     <row r="8" spans="1:30" s="11" customFormat="1">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
         <v>1031</v>
@@ -4808,7 +4910,7 @@
       <c r="AD8" s="10"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>1043</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4856,7 +4958,7 @@
       <c r="AD9" s="2"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -4902,7 +5004,7 @@
       <c r="AD10" s="2"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
@@ -4948,7 +5050,7 @@
       <c r="AD11" s="2"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -4994,7 +5096,7 @@
       <c r="AD12" s="2"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
@@ -5040,7 +5142,7 @@
       <c r="AD13" s="2"/>
     </row>
     <row r="14" spans="1:30" s="11" customFormat="1">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
         <v>1031</v>
@@ -5090,7 +5192,7 @@
       <c r="AD14" s="10"/>
     </row>
     <row r="15" spans="1:30" s="11" customFormat="1">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
         <v>1031</v>
@@ -5138,7 +5240,7 @@
       <c r="AD15" s="10"/>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -5184,7 +5286,7 @@
       <c r="AD16" s="2"/>
     </row>
     <row r="17" spans="1:30" s="11" customFormat="1">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
         <v>1031</v>
@@ -5236,7 +5338,7 @@
       <c r="AD17" s="10"/>
     </row>
     <row r="18" spans="1:30" s="11" customFormat="1">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="C18" s="10" t="s">
         <v>1031</v>
       </c>
@@ -5248,7 +5350,7 @@
       </c>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="E19" s="1" t="s">
         <v>344</v>
       </c>
@@ -5276,7 +5378,7 @@
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="22"/>
+      <c r="A20" s="23"/>
       <c r="E20" s="1" t="s">
         <v>344</v>
       </c>
@@ -5304,7 +5406,7 @@
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="E21" s="1" t="s">
         <v>344</v>
       </c>
@@ -5332,7 +5434,7 @@
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
       <c r="E22" s="1" t="s">
         <v>344</v>
       </c>
@@ -5357,7 +5459,7 @@
       <c r="S22" s="2"/>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="E23" s="1" t="s">
         <v>344</v>
       </c>
@@ -5382,7 +5484,7 @@
       <c r="S23" s="2"/>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="23" t="s">
         <v>1044</v>
       </c>
       <c r="E24" s="2"/>
@@ -5405,7 +5507,7 @@
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="7" t="s">
@@ -5426,7 +5528,7 @@
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="7" t="s">
@@ -5447,7 +5549,7 @@
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="22"/>
+      <c r="A27" s="23"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="7" t="s">
@@ -5468,7 +5570,7 @@
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="7" t="s">
@@ -5489,7 +5591,7 @@
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="22"/>
+      <c r="A29" s="23"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="7" t="s">
@@ -5510,7 +5612,7 @@
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="1:30">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
@@ -5556,7 +5658,7 @@
       <c r="AD30" s="2"/>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
@@ -5602,7 +5704,7 @@
       <c r="AD31" s="2"/>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32" s="22"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
@@ -5648,7 +5750,7 @@
       <c r="AD32" s="2"/>
     </row>
     <row r="33" spans="1:30">
-      <c r="A33" s="22"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="1" t="s">
         <v>14</v>
       </c>
@@ -5696,7 +5798,7 @@
       <c r="AD33" s="2"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="22"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
@@ -5744,7 +5846,7 @@
       <c r="AD34" s="2"/>
     </row>
     <row r="35" spans="1:30" s="11" customFormat="1">
-      <c r="A35" s="22"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10" t="s">
         <v>1031</v>
@@ -5796,7 +5898,7 @@
       <c r="AD35" s="10"/>
     </row>
     <row r="36" spans="1:30" s="11" customFormat="1">
-      <c r="A36" s="22"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
         <v>1031</v>
@@ -5848,7 +5950,7 @@
       <c r="AD36" s="10"/>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="22"/>
+      <c r="A37" s="23"/>
       <c r="E37" s="1" t="s">
         <v>15</v>
       </c>
@@ -5874,7 +5976,7 @@
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="1:30">
-      <c r="A38" s="22"/>
+      <c r="A38" s="23"/>
       <c r="E38" s="1" t="s">
         <v>344</v>
       </c>
@@ -5899,7 +6001,7 @@
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="1:30">
-      <c r="A39" s="22"/>
+      <c r="A39" s="23"/>
       <c r="E39" s="1" t="s">
         <v>344</v>
       </c>
@@ -5924,7 +6026,7 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="1:30">
-      <c r="A40" s="22"/>
+      <c r="A40" s="23"/>
       <c r="E40" s="1" t="s">
         <v>344</v>
       </c>
@@ -5949,7 +6051,7 @@
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="1:30">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="E41" s="1" t="s">
         <v>344</v>
       </c>
@@ -5974,7 +6076,7 @@
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="1:30">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="E42" s="1" t="s">
         <v>344</v>
       </c>
@@ -5998,7 +6100,7 @@
       <c r="S42" s="2"/>
     </row>
     <row r="43" spans="1:30" s="11" customFormat="1">
-      <c r="A43" s="22"/>
+      <c r="A43" s="23"/>
       <c r="C43" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6029,7 +6131,7 @@
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:30" s="11" customFormat="1">
-      <c r="A44" s="22"/>
+      <c r="A44" s="23"/>
       <c r="C44" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6062,7 +6164,7 @@
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:30" s="11" customFormat="1">
-      <c r="A45" s="22"/>
+      <c r="A45" s="23"/>
       <c r="C45" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6095,7 +6197,7 @@
       <c r="U45" s="10"/>
     </row>
     <row r="46" spans="1:30" s="11" customFormat="1">
-      <c r="A46" s="22"/>
+      <c r="A46" s="23"/>
       <c r="C46" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6126,7 +6228,7 @@
       <c r="U46" s="10"/>
     </row>
     <row r="47" spans="1:30" s="11" customFormat="1">
-      <c r="A47" s="22"/>
+      <c r="A47" s="23"/>
       <c r="C47" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6159,7 +6261,7 @@
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:30" s="11" customFormat="1">
-      <c r="A48" s="22"/>
+      <c r="A48" s="23"/>
       <c r="C48" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6190,7 +6292,7 @@
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:30" s="11" customFormat="1">
-      <c r="A49" s="22"/>
+      <c r="A49" s="23"/>
       <c r="C49" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6221,7 +6323,7 @@
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:30" s="11" customFormat="1">
-      <c r="A50" s="22"/>
+      <c r="A50" s="23"/>
       <c r="C50" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6254,7 +6356,7 @@
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:30" s="11" customFormat="1">
-      <c r="A51" s="22"/>
+      <c r="A51" s="23"/>
       <c r="C51" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6287,7 +6389,7 @@
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:30" s="11" customFormat="1">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
       <c r="C52" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6320,7 +6422,7 @@
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:30">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="23" t="s">
         <v>1045</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -6368,7 +6470,7 @@
       <c r="AD53" s="2"/>
     </row>
     <row r="54" spans="1:30">
-      <c r="A54" s="22"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="1" t="s">
         <v>14</v>
       </c>
@@ -6414,7 +6516,7 @@
       <c r="AD54" s="2"/>
     </row>
     <row r="55" spans="1:30">
-      <c r="A55" s="22"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="1" t="s">
         <v>14</v>
       </c>
@@ -6460,7 +6562,7 @@
       <c r="AD55" s="2"/>
     </row>
     <row r="56" spans="1:30">
-      <c r="A56" s="22"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="1" t="s">
         <v>14</v>
       </c>
@@ -6508,7 +6610,7 @@
       <c r="AD56" s="2"/>
     </row>
     <row r="57" spans="1:30">
-      <c r="A57" s="22"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="1" t="s">
         <v>14</v>
       </c>
@@ -6556,7 +6658,7 @@
       <c r="AD57" s="2"/>
     </row>
     <row r="58" spans="1:30" s="11" customFormat="1">
-      <c r="A58" s="22"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
         <v>1031</v>
@@ -6608,7 +6710,7 @@
       <c r="AD58" s="10"/>
     </row>
     <row r="59" spans="1:30" s="11" customFormat="1">
-      <c r="A59" s="22"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10" t="s">
         <v>1031</v>
@@ -6660,7 +6762,7 @@
       <c r="AD59" s="10"/>
     </row>
     <row r="60" spans="1:30" s="11" customFormat="1">
-      <c r="A60" s="22"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -6683,7 +6785,7 @@
       <c r="U60" s="10"/>
     </row>
     <row r="61" spans="1:30">
-      <c r="A61" s="22"/>
+      <c r="A61" s="23"/>
       <c r="E61" s="1" t="s">
         <v>15</v>
       </c>
@@ -6706,7 +6808,7 @@
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="1:30">
-      <c r="A62" s="22"/>
+      <c r="A62" s="23"/>
       <c r="E62" s="1" t="s">
         <v>344</v>
       </c>
@@ -6730,7 +6832,7 @@
       <c r="S62" s="2"/>
     </row>
     <row r="63" spans="1:30">
-      <c r="A63" s="22"/>
+      <c r="A63" s="23"/>
       <c r="E63" s="1" t="s">
         <v>344</v>
       </c>
@@ -6754,7 +6856,7 @@
       <c r="S63" s="2"/>
     </row>
     <row r="64" spans="1:30">
-      <c r="A64" s="22"/>
+      <c r="A64" s="23"/>
       <c r="E64" s="1" t="s">
         <v>344</v>
       </c>
@@ -6778,7 +6880,7 @@
       <c r="S64" s="2"/>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="22"/>
+      <c r="A65" s="23"/>
       <c r="E65" s="1" t="s">
         <v>344</v>
       </c>
@@ -6802,7 +6904,7 @@
       <c r="S65" s="2"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="22"/>
+      <c r="A66" s="23"/>
       <c r="E66" s="1" t="s">
         <v>344</v>
       </c>
@@ -6826,7 +6928,7 @@
       <c r="S66" s="2"/>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="22"/>
+      <c r="A67" s="23"/>
       <c r="E67" s="1" t="s">
         <v>344</v>
       </c>
@@ -6850,7 +6952,7 @@
       <c r="S67" s="2"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="22"/>
+      <c r="A68" s="23"/>
       <c r="E68" s="1" t="s">
         <v>344</v>
       </c>
@@ -6873,7 +6975,7 @@
       <c r="R68" s="2"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="22"/>
+      <c r="A69" s="23"/>
       <c r="E69" s="1" t="s">
         <v>344</v>
       </c>
@@ -6897,7 +6999,7 @@
       <c r="S69" s="2"/>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="22"/>
+      <c r="A70" s="23"/>
       <c r="E70" s="1" t="s">
         <v>15</v>
       </c>
@@ -6923,7 +7025,7 @@
       <c r="P70" s="2"/>
     </row>
     <row r="71" spans="1:21" s="11" customFormat="1">
-      <c r="A71" s="22"/>
+      <c r="A71" s="23"/>
       <c r="C71" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6954,7 +7056,7 @@
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="1:21" s="11" customFormat="1">
-      <c r="A72" s="22"/>
+      <c r="A72" s="23"/>
       <c r="C72" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6987,7 +7089,7 @@
       <c r="U72" s="10"/>
     </row>
     <row r="73" spans="1:21" s="11" customFormat="1">
-      <c r="A73" s="22"/>
+      <c r="A73" s="23"/>
       <c r="C73" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7020,7 +7122,7 @@
       <c r="U73" s="10"/>
     </row>
     <row r="74" spans="1:21" s="11" customFormat="1">
-      <c r="A74" s="22"/>
+      <c r="A74" s="23"/>
       <c r="C74" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7053,7 +7155,7 @@
       <c r="U74" s="10"/>
     </row>
     <row r="75" spans="1:21" s="11" customFormat="1">
-      <c r="A75" s="22"/>
+      <c r="A75" s="23"/>
       <c r="C75" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7086,7 +7188,7 @@
       <c r="U75" s="10"/>
     </row>
     <row r="76" spans="1:21" s="11" customFormat="1">
-      <c r="A76" s="22"/>
+      <c r="A76" s="23"/>
       <c r="C76" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7119,7 +7221,7 @@
       <c r="U76" s="10"/>
     </row>
     <row r="77" spans="1:21" s="11" customFormat="1">
-      <c r="A77" s="22"/>
+      <c r="A77" s="23"/>
       <c r="C77" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7150,7 +7252,7 @@
       <c r="U77" s="10"/>
     </row>
     <row r="78" spans="1:21" s="11" customFormat="1">
-      <c r="A78" s="22"/>
+      <c r="A78" s="23"/>
       <c r="C78" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7183,7 +7285,7 @@
       <c r="U78" s="10"/>
     </row>
     <row r="79" spans="1:21" s="11" customFormat="1">
-      <c r="A79" s="22"/>
+      <c r="A79" s="23"/>
       <c r="C79" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7212,7 +7314,7 @@
       <c r="U79" s="10"/>
     </row>
     <row r="80" spans="1:21" s="16" customFormat="1">
-      <c r="A80" s="22"/>
+      <c r="A80" s="23"/>
       <c r="B80" s="18"/>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
@@ -7235,7 +7337,7 @@
       <c r="U80" s="17"/>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="22"/>
+      <c r="A81" s="23"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="7" t="s">
@@ -7256,7 +7358,7 @@
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="22"/>
+      <c r="A82" s="23"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="7" t="s">
@@ -7277,7 +7379,7 @@
       <c r="U82" s="2"/>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="22"/>
+      <c r="A83" s="23"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="7" t="s">
@@ -7298,7 +7400,7 @@
       <c r="U83" s="2"/>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="22"/>
+      <c r="A84" s="23"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="7" t="s">
@@ -7319,7 +7421,7 @@
       <c r="U84" s="2"/>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="22"/>
+      <c r="A85" s="23"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="7" t="s">
@@ -7340,7 +7442,7 @@
       <c r="U85" s="2"/>
     </row>
     <row r="86" spans="1:21">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="24" t="s">
         <v>1046</v>
       </c>
       <c r="E86" s="3" t="s">
@@ -7374,7 +7476,7 @@
       <c r="U86" s="2"/>
     </row>
     <row r="87" spans="1:21">
-      <c r="A87" s="23"/>
+      <c r="A87" s="24"/>
       <c r="E87" s="3" t="s">
         <v>15</v>
       </c>
@@ -7406,7 +7508,7 @@
       <c r="U87" s="2"/>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="23"/>
+      <c r="A88" s="24"/>
       <c r="E88" s="3" t="s">
         <v>15</v>
       </c>
@@ -7438,7 +7540,7 @@
       <c r="U88" s="2"/>
     </row>
     <row r="89" spans="1:21" s="11" customFormat="1">
-      <c r="A89" s="23"/>
+      <c r="A89" s="24"/>
       <c r="C89" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7477,7 +7579,7 @@
       <c r="U89" s="10"/>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="23"/>
+      <c r="A90" s="24"/>
       <c r="E90" s="3" t="s">
         <v>15</v>
       </c>
@@ -7509,7 +7611,7 @@
       <c r="U90" s="2"/>
     </row>
     <row r="91" spans="1:21" s="11" customFormat="1">
-      <c r="A91" s="23"/>
+      <c r="A91" s="24"/>
       <c r="C91" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7550,7 +7652,7 @@
       <c r="U91" s="10"/>
     </row>
     <row r="92" spans="1:21">
-      <c r="A92" s="23"/>
+      <c r="A92" s="24"/>
       <c r="E92" s="3" t="s">
         <v>15</v>
       </c>
@@ -7582,7 +7684,7 @@
       <c r="U92" s="2"/>
     </row>
     <row r="93" spans="1:21" s="11" customFormat="1">
-      <c r="A93" s="23"/>
+      <c r="A93" s="24"/>
       <c r="C93" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7625,7 +7727,7 @@
       <c r="U93" s="10"/>
     </row>
     <row r="94" spans="1:21">
-      <c r="A94" s="23"/>
+      <c r="A94" s="24"/>
       <c r="E94" s="3" t="s">
         <v>15</v>
       </c>
@@ -7657,7 +7759,7 @@
       <c r="U94" s="2"/>
     </row>
     <row r="95" spans="1:21" s="11" customFormat="1">
-      <c r="A95" s="23"/>
+      <c r="A95" s="24"/>
       <c r="C95" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7696,7 +7798,7 @@
       <c r="U95" s="10"/>
     </row>
     <row r="96" spans="1:21">
-      <c r="A96" s="23"/>
+      <c r="A96" s="24"/>
       <c r="E96" s="3" t="s">
         <v>15</v>
       </c>
@@ -7728,7 +7830,7 @@
       <c r="U96" s="2"/>
     </row>
     <row r="97" spans="1:21" s="11" customFormat="1">
-      <c r="A97" s="23"/>
+      <c r="A97" s="24"/>
       <c r="C97" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7767,7 +7869,7 @@
       <c r="U97" s="10"/>
     </row>
     <row r="98" spans="1:21">
-      <c r="A98" s="23"/>
+      <c r="A98" s="24"/>
       <c r="E98" s="3" t="s">
         <v>15</v>
       </c>
@@ -7799,7 +7901,7 @@
       <c r="U98" s="2"/>
     </row>
     <row r="99" spans="1:21">
-      <c r="A99" s="23"/>
+      <c r="A99" s="24"/>
       <c r="E99" s="3" t="s">
         <v>15</v>
       </c>
@@ -7831,7 +7933,7 @@
       <c r="U99" s="2"/>
     </row>
     <row r="100" spans="1:21">
-      <c r="A100" s="23"/>
+      <c r="A100" s="24"/>
       <c r="E100" s="3" t="s">
         <v>15</v>
       </c>
@@ -7863,7 +7965,7 @@
       <c r="U100" s="2"/>
     </row>
     <row r="101" spans="1:21" s="11" customFormat="1">
-      <c r="A101" s="23"/>
+      <c r="A101" s="24"/>
       <c r="C101" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7902,7 +8004,7 @@
       <c r="U101" s="10"/>
     </row>
     <row r="102" spans="1:21">
-      <c r="A102" s="23"/>
+      <c r="A102" s="24"/>
       <c r="E102" s="3" t="s">
         <v>15</v>
       </c>
@@ -7934,7 +8036,7 @@
       <c r="U102" s="2"/>
     </row>
     <row r="103" spans="1:21" s="11" customFormat="1">
-      <c r="A103" s="23"/>
+      <c r="A103" s="24"/>
       <c r="C103" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7975,7 +8077,7 @@
       <c r="U103" s="10"/>
     </row>
     <row r="104" spans="1:21">
-      <c r="A104" s="23"/>
+      <c r="A104" s="24"/>
       <c r="E104" s="3" t="s">
         <v>15</v>
       </c>
@@ -8007,7 +8109,7 @@
       <c r="U104" s="2"/>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="23"/>
+      <c r="A105" s="24"/>
       <c r="E105" s="3" t="s">
         <v>15</v>
       </c>
@@ -8039,7 +8141,7 @@
       <c r="U105" s="2"/>
     </row>
     <row r="106" spans="1:21" s="11" customFormat="1">
-      <c r="A106" s="23"/>
+      <c r="A106" s="24"/>
       <c r="C106" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8080,7 +8182,7 @@
       <c r="U106" s="10"/>
     </row>
     <row r="107" spans="1:21">
-      <c r="A107" s="23"/>
+      <c r="A107" s="24"/>
       <c r="E107" s="3" t="s">
         <v>15</v>
       </c>
@@ -8112,7 +8214,7 @@
       <c r="U107" s="2"/>
     </row>
     <row r="108" spans="1:21" s="11" customFormat="1">
-      <c r="A108" s="23"/>
+      <c r="A108" s="24"/>
       <c r="C108" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8151,7 +8253,7 @@
       <c r="U108" s="10"/>
     </row>
     <row r="109" spans="1:21">
-      <c r="A109" s="23"/>
+      <c r="A109" s="24"/>
       <c r="E109" s="3" t="s">
         <v>15</v>
       </c>
@@ -8183,7 +8285,7 @@
       <c r="U109" s="2"/>
     </row>
     <row r="110" spans="1:21">
-      <c r="A110" s="23"/>
+      <c r="A110" s="24"/>
       <c r="E110" s="3" t="s">
         <v>15</v>
       </c>
@@ -8213,7 +8315,7 @@
       <c r="U110" s="2"/>
     </row>
     <row r="111" spans="1:21" s="11" customFormat="1">
-      <c r="A111" s="23"/>
+      <c r="A111" s="24"/>
       <c r="C111" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8254,7 +8356,7 @@
       <c r="U111" s="10"/>
     </row>
     <row r="112" spans="1:21">
-      <c r="A112" s="23"/>
+      <c r="A112" s="24"/>
       <c r="E112" s="3" t="s">
         <v>15</v>
       </c>
@@ -8284,7 +8386,7 @@
       <c r="U112" s="2"/>
     </row>
     <row r="113" spans="1:21">
-      <c r="A113" s="23"/>
+      <c r="A113" s="24"/>
       <c r="E113" s="3" t="s">
         <v>15</v>
       </c>
@@ -8314,7 +8416,7 @@
       <c r="U113" s="2"/>
     </row>
     <row r="114" spans="1:21" s="11" customFormat="1">
-      <c r="A114" s="23"/>
+      <c r="A114" s="24"/>
       <c r="C114" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8355,7 +8457,7 @@
       <c r="U114" s="10"/>
     </row>
     <row r="115" spans="1:21">
-      <c r="A115" s="23"/>
+      <c r="A115" s="24"/>
       <c r="E115" s="3" t="s">
         <v>15</v>
       </c>
@@ -8387,7 +8489,7 @@
       <c r="U115" s="2"/>
     </row>
     <row r="116" spans="1:21" s="11" customFormat="1">
-      <c r="A116" s="23"/>
+      <c r="A116" s="24"/>
       <c r="C116" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8426,7 +8528,7 @@
       <c r="U116" s="10"/>
     </row>
     <row r="117" spans="1:21">
-      <c r="A117" s="22" t="s">
+      <c r="A117" s="23" t="s">
         <v>1048</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -8452,7 +8554,7 @@
       <c r="S117" s="2"/>
     </row>
     <row r="118" spans="1:21">
-      <c r="A118" s="22"/>
+      <c r="A118" s="23"/>
       <c r="E118" s="1" t="s">
         <v>344</v>
       </c>
@@ -8476,7 +8578,7 @@
       <c r="S118" s="2"/>
     </row>
     <row r="119" spans="1:21">
-      <c r="A119" s="22"/>
+      <c r="A119" s="23"/>
       <c r="E119" s="1" t="s">
         <v>344</v>
       </c>
@@ -8500,7 +8602,7 @@
       <c r="S119" s="2"/>
     </row>
     <row r="120" spans="1:21">
-      <c r="A120" s="22"/>
+      <c r="A120" s="23"/>
       <c r="E120" s="1" t="s">
         <v>344</v>
       </c>
@@ -8524,7 +8626,7 @@
       <c r="S120" s="2"/>
     </row>
     <row r="121" spans="1:21">
-      <c r="A121" s="22"/>
+      <c r="A121" s="23"/>
       <c r="E121" s="1" t="s">
         <v>344</v>
       </c>
@@ -8548,7 +8650,7 @@
       <c r="S121" s="2"/>
     </row>
     <row r="122" spans="1:21" s="11" customFormat="1">
-      <c r="A122" s="22"/>
+      <c r="A122" s="23"/>
       <c r="C122" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8573,7 +8675,7 @@
       <c r="U122" s="10"/>
     </row>
     <row r="123" spans="1:21" s="11" customFormat="1">
-      <c r="A123" s="22"/>
+      <c r="A123" s="23"/>
       <c r="C123" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8598,7 +8700,7 @@
       <c r="U123" s="10"/>
     </row>
     <row r="124" spans="1:21" s="11" customFormat="1">
-      <c r="A124" s="22"/>
+      <c r="A124" s="23"/>
       <c r="C124" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8623,7 +8725,7 @@
       <c r="U124" s="10"/>
     </row>
     <row r="125" spans="1:21" s="11" customFormat="1">
-      <c r="A125" s="22"/>
+      <c r="A125" s="23"/>
       <c r="C125" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8648,7 +8750,7 @@
       <c r="U125" s="10"/>
     </row>
     <row r="126" spans="1:21" s="11" customFormat="1">
-      <c r="A126" s="22"/>
+      <c r="A126" s="23"/>
       <c r="C126" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8677,7 +8779,7 @@
       <c r="U126" s="10"/>
     </row>
     <row r="127" spans="1:21">
-      <c r="A127" s="22" t="s">
+      <c r="A127" s="23" t="s">
         <v>1047</v>
       </c>
       <c r="C127" s="19" t="s">
@@ -8691,7 +8793,7 @@
       </c>
     </row>
     <row r="128" spans="1:21">
-      <c r="A128" s="22"/>
+      <c r="A128" s="23"/>
       <c r="E128" s="1" t="s">
         <v>15</v>
       </c>
@@ -8717,7 +8819,7 @@
       <c r="P128" s="2"/>
     </row>
     <row r="129" spans="1:21">
-      <c r="A129" s="22"/>
+      <c r="A129" s="23"/>
       <c r="E129" s="1" t="s">
         <v>15</v>
       </c>
@@ -8743,7 +8845,7 @@
       <c r="P129" s="2"/>
     </row>
     <row r="130" spans="1:21">
-      <c r="A130" s="22"/>
+      <c r="A130" s="23"/>
       <c r="E130" s="1" t="s">
         <v>15</v>
       </c>
@@ -8766,7 +8868,7 @@
       <c r="O130" s="2"/>
     </row>
     <row r="131" spans="1:21">
-      <c r="A131" s="22"/>
+      <c r="A131" s="23"/>
       <c r="E131" s="1" t="s">
         <v>15</v>
       </c>
@@ -8791,8 +8893,8 @@
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="1:21" s="11" customFormat="1" ht="17" customHeight="1">
-      <c r="A132" s="22"/>
+    <row r="132" spans="1:21" s="11" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A132" s="23"/>
       <c r="C132" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8825,7 +8927,7 @@
       <c r="U132" s="10"/>
     </row>
     <row r="133" spans="1:21" s="11" customFormat="1">
-      <c r="A133" s="22"/>
+      <c r="A133" s="23"/>
       <c r="C133" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8858,7 +8960,7 @@
       <c r="U133" s="10"/>
     </row>
     <row r="134" spans="1:21" s="11" customFormat="1">
-      <c r="A134" s="22"/>
+      <c r="A134" s="23"/>
       <c r="C134" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8893,7 +8995,7 @@
       <c r="U134" s="10"/>
     </row>
     <row r="135" spans="1:21">
-      <c r="A135" s="22"/>
+      <c r="A135" s="23"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="3"/>
@@ -8917,7 +9019,7 @@
       <c r="U135" s="2"/>
     </row>
     <row r="136" spans="1:21" s="11" customFormat="1">
-      <c r="A136" s="22"/>
+      <c r="A136" s="23"/>
       <c r="C136" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8950,7 +9052,7 @@
       <c r="U136" s="10"/>
     </row>
     <row r="137" spans="1:21" s="11" customFormat="1">
-      <c r="A137" s="22"/>
+      <c r="A137" s="23"/>
       <c r="C137" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8985,7 +9087,7 @@
       <c r="U137" s="10"/>
     </row>
     <row r="138" spans="1:21" s="11" customFormat="1">
-      <c r="A138" s="22"/>
+      <c r="A138" s="23"/>
       <c r="C138" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9018,7 +9120,7 @@
       <c r="U138" s="10"/>
     </row>
     <row r="139" spans="1:21" s="11" customFormat="1">
-      <c r="A139" s="22"/>
+      <c r="A139" s="23"/>
       <c r="C139" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9049,7 +9151,7 @@
       <c r="U139" s="10"/>
     </row>
     <row r="140" spans="1:21" s="11" customFormat="1">
-      <c r="A140" s="22"/>
+      <c r="A140" s="23"/>
       <c r="C140" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9082,7 +9184,7 @@
       <c r="U140" s="10"/>
     </row>
     <row r="141" spans="1:21" s="11" customFormat="1">
-      <c r="A141" s="22"/>
+      <c r="A141" s="23"/>
       <c r="C141" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9113,7 +9215,7 @@
       <c r="U141" s="10"/>
     </row>
     <row r="142" spans="1:21" s="11" customFormat="1">
-      <c r="A142" s="22"/>
+      <c r="A142" s="23"/>
       <c r="C142" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9144,7 +9246,7 @@
       <c r="U142" s="10"/>
     </row>
     <row r="143" spans="1:21">
-      <c r="A143" s="22"/>
+      <c r="A143" s="23"/>
       <c r="E143" s="1" t="s">
         <v>15</v>
       </c>
@@ -9170,7 +9272,7 @@
       <c r="P143" s="2"/>
     </row>
     <row r="144" spans="1:21">
-      <c r="A144" s="22"/>
+      <c r="A144" s="23"/>
       <c r="E144" s="1" t="s">
         <v>344</v>
       </c>
@@ -9193,7 +9295,7 @@
       <c r="S144" s="2"/>
     </row>
     <row r="145" spans="1:21">
-      <c r="A145" s="22"/>
+      <c r="A145" s="23"/>
       <c r="E145" s="1" t="s">
         <v>344</v>
       </c>
@@ -9217,7 +9319,7 @@
       <c r="T145" s="2"/>
     </row>
     <row r="146" spans="1:21">
-      <c r="A146" s="22"/>
+      <c r="A146" s="23"/>
       <c r="E146" s="1" t="s">
         <v>15</v>
       </c>
@@ -9243,7 +9345,7 @@
       <c r="P146" s="2"/>
     </row>
     <row r="147" spans="1:21">
-      <c r="A147" s="22"/>
+      <c r="A147" s="23"/>
       <c r="E147" s="1" t="s">
         <v>344</v>
       </c>
@@ -9267,7 +9369,7 @@
       <c r="T147" s="2"/>
     </row>
     <row r="148" spans="1:21">
-      <c r="A148" s="22"/>
+      <c r="A148" s="23"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="1" t="s">
@@ -9288,7 +9390,7 @@
       <c r="U148" s="2"/>
     </row>
     <row r="149" spans="1:21">
-      <c r="A149" s="22"/>
+      <c r="A149" s="23"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="1" t="s">
@@ -9309,7 +9411,7 @@
       <c r="U149" s="2"/>
     </row>
     <row r="150" spans="1:21">
-      <c r="A150" s="22" t="s">
+      <c r="A150" s="23" t="s">
         <v>1049</v>
       </c>
       <c r="E150" s="1" t="s">
@@ -9334,7 +9436,7 @@
       <c r="S150" s="2"/>
     </row>
     <row r="151" spans="1:21">
-      <c r="A151" s="22"/>
+      <c r="A151" s="23"/>
       <c r="E151" s="1" t="s">
         <v>344</v>
       </c>
@@ -9357,7 +9459,7 @@
       <c r="S151" s="2"/>
     </row>
     <row r="152" spans="1:21">
-      <c r="A152" s="22"/>
+      <c r="A152" s="23"/>
       <c r="E152" s="1" t="s">
         <v>344</v>
       </c>
@@ -9380,7 +9482,7 @@
       <c r="S152" s="2"/>
     </row>
     <row r="153" spans="1:21">
-      <c r="A153" s="22"/>
+      <c r="A153" s="23"/>
       <c r="E153" s="1" t="s">
         <v>344</v>
       </c>
@@ -9403,7 +9505,7 @@
       <c r="S153" s="2"/>
     </row>
     <row r="154" spans="1:21">
-      <c r="A154" s="22"/>
+      <c r="A154" s="23"/>
       <c r="E154" s="1" t="s">
         <v>15</v>
       </c>
@@ -9429,7 +9531,7 @@
       <c r="P154" s="2"/>
     </row>
     <row r="155" spans="1:21">
-      <c r="A155" s="22"/>
+      <c r="A155" s="23"/>
       <c r="E155" s="1" t="s">
         <v>344</v>
       </c>
@@ -9452,7 +9554,7 @@
       <c r="S155" s="2"/>
     </row>
     <row r="156" spans="1:21">
-      <c r="A156" s="22"/>
+      <c r="A156" s="23"/>
       <c r="E156" s="1" t="s">
         <v>344</v>
       </c>
@@ -9474,7 +9576,7 @@
       <c r="R156" s="2"/>
     </row>
     <row r="157" spans="1:21">
-      <c r="A157" s="22"/>
+      <c r="A157" s="23"/>
       <c r="E157" s="1" t="s">
         <v>344</v>
       </c>
@@ -9496,7 +9598,7 @@
       <c r="R157" s="2"/>
     </row>
     <row r="158" spans="1:21">
-      <c r="A158" s="22"/>
+      <c r="A158" s="23"/>
       <c r="E158" s="1" t="s">
         <v>344</v>
       </c>
@@ -9519,7 +9621,7 @@
       <c r="S158" s="2"/>
     </row>
     <row r="159" spans="1:21">
-      <c r="A159" s="22"/>
+      <c r="A159" s="23"/>
       <c r="E159" s="1" t="s">
         <v>344</v>
       </c>
@@ -9542,7 +9644,7 @@
       <c r="S159" s="2"/>
     </row>
     <row r="160" spans="1:21">
-      <c r="A160" s="22"/>
+      <c r="A160" s="23"/>
       <c r="E160" s="1" t="s">
         <v>344</v>
       </c>
@@ -9565,7 +9667,7 @@
       <c r="S160" s="2"/>
     </row>
     <row r="161" spans="1:20">
-      <c r="A161" s="22"/>
+      <c r="A161" s="23"/>
       <c r="E161" s="1" t="s">
         <v>344</v>
       </c>
@@ -9588,7 +9690,7 @@
       <c r="S161" s="2"/>
     </row>
     <row r="162" spans="1:20">
-      <c r="A162" s="22"/>
+      <c r="A162" s="23"/>
       <c r="E162" s="1" t="s">
         <v>344</v>
       </c>
@@ -9611,7 +9713,7 @@
       <c r="S162" s="2"/>
     </row>
     <row r="163" spans="1:20">
-      <c r="A163" s="22"/>
+      <c r="A163" s="23"/>
       <c r="E163" s="1" t="s">
         <v>344</v>
       </c>
@@ -9634,7 +9736,7 @@
       <c r="S163" s="2"/>
     </row>
     <row r="164" spans="1:20">
-      <c r="A164" s="22"/>
+      <c r="A164" s="23"/>
       <c r="E164" s="1" t="s">
         <v>344</v>
       </c>
@@ -9656,7 +9758,7 @@
       <c r="R164" s="2"/>
     </row>
     <row r="165" spans="1:20">
-      <c r="A165" s="22"/>
+      <c r="A165" s="23"/>
       <c r="E165" s="1" t="s">
         <v>344</v>
       </c>
@@ -9678,7 +9780,7 @@
       <c r="R165" s="2"/>
     </row>
     <row r="166" spans="1:20">
-      <c r="A166" s="22"/>
+      <c r="A166" s="23"/>
       <c r="E166" s="1" t="s">
         <v>344</v>
       </c>
@@ -9701,7 +9803,7 @@
       <c r="S166" s="2"/>
     </row>
     <row r="167" spans="1:20">
-      <c r="A167" s="22"/>
+      <c r="A167" s="23"/>
       <c r="E167" s="1" t="s">
         <v>344</v>
       </c>
@@ -9724,7 +9826,7 @@
       <c r="S167" s="2"/>
     </row>
     <row r="168" spans="1:20">
-      <c r="A168" s="22"/>
+      <c r="A168" s="23"/>
       <c r="E168" s="1" t="s">
         <v>344</v>
       </c>
@@ -9747,7 +9849,7 @@
       <c r="S168" s="2"/>
     </row>
     <row r="169" spans="1:20">
-      <c r="A169" s="22"/>
+      <c r="A169" s="23"/>
       <c r="E169" s="1" t="s">
         <v>344</v>
       </c>
@@ -9770,7 +9872,7 @@
       <c r="S169" s="2"/>
     </row>
     <row r="170" spans="1:20">
-      <c r="A170" s="22"/>
+      <c r="A170" s="23"/>
       <c r="E170" s="1" t="s">
         <v>344</v>
       </c>
@@ -9794,7 +9896,7 @@
       <c r="T170" s="2"/>
     </row>
     <row r="171" spans="1:20">
-      <c r="A171" s="22"/>
+      <c r="A171" s="23"/>
       <c r="E171" s="1" t="s">
         <v>344</v>
       </c>
@@ -9816,7 +9918,7 @@
       <c r="R171" s="2"/>
     </row>
     <row r="172" spans="1:20">
-      <c r="A172" s="22"/>
+      <c r="A172" s="23"/>
       <c r="E172" s="1" t="s">
         <v>344</v>
       </c>
@@ -9838,7 +9940,7 @@
       <c r="R172" s="2"/>
     </row>
     <row r="173" spans="1:20">
-      <c r="A173" s="22"/>
+      <c r="A173" s="23"/>
       <c r="E173" s="1" t="s">
         <v>344</v>
       </c>
@@ -9861,7 +9963,7 @@
       <c r="S173" s="2"/>
     </row>
     <row r="174" spans="1:20">
-      <c r="A174" s="22"/>
+      <c r="A174" s="23"/>
       <c r="E174" s="1" t="s">
         <v>344</v>
       </c>
@@ -9884,7 +9986,7 @@
       <c r="S174" s="2"/>
     </row>
     <row r="175" spans="1:20">
-      <c r="A175" s="22"/>
+      <c r="A175" s="23"/>
       <c r="E175" s="1" t="s">
         <v>344</v>
       </c>
@@ -9907,7 +10009,7 @@
       <c r="S175" s="2"/>
     </row>
     <row r="176" spans="1:20">
-      <c r="A176" s="22"/>
+      <c r="A176" s="23"/>
       <c r="E176" s="1" t="s">
         <v>344</v>
       </c>
@@ -9930,7 +10032,7 @@
       <c r="S176" s="2"/>
     </row>
     <row r="177" spans="1:30">
-      <c r="A177" s="22"/>
+      <c r="A177" s="23"/>
       <c r="E177" s="1" t="s">
         <v>344</v>
       </c>
@@ -9954,7 +10056,7 @@
       <c r="T177" s="2"/>
     </row>
     <row r="178" spans="1:30">
-      <c r="A178" s="22"/>
+      <c r="A178" s="23"/>
       <c r="E178" s="1" t="s">
         <v>344</v>
       </c>
@@ -9976,7 +10078,7 @@
       <c r="R178" s="2"/>
     </row>
     <row r="179" spans="1:30">
-      <c r="A179" s="22"/>
+      <c r="A179" s="23"/>
       <c r="E179" s="1" t="s">
         <v>344</v>
       </c>
@@ -9998,7 +10100,7 @@
       <c r="R179" s="2"/>
     </row>
     <row r="180" spans="1:30">
-      <c r="A180" s="22"/>
+      <c r="A180" s="23"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1" t="s">
@@ -10016,7 +10118,7 @@
       <c r="R180" s="2"/>
     </row>
     <row r="181" spans="1:30">
-      <c r="A181" s="22"/>
+      <c r="A181" s="23"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1" t="s">
@@ -10032,7 +10134,7 @@
       <c r="P181" s="2"/>
     </row>
     <row r="182" spans="1:30">
-      <c r="A182" s="22"/>
+      <c r="A182" s="23"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2" t="s">
@@ -10053,7 +10155,7 @@
       <c r="U182" s="2"/>
     </row>
     <row r="183" spans="1:30">
-      <c r="A183" s="22"/>
+      <c r="A183" s="23"/>
       <c r="G183" s="7"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
@@ -10067,7 +10169,7 @@
       <c r="S183" s="2"/>
     </row>
     <row r="184" spans="1:30">
-      <c r="A184" s="22"/>
+      <c r="A184" s="23"/>
       <c r="G184" s="7"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
@@ -10081,11 +10183,11 @@
       <c r="S184" s="2"/>
     </row>
     <row r="185" spans="1:30">
-      <c r="A185" s="22"/>
+      <c r="A185" s="23"/>
       <c r="G185" s="7"/>
     </row>
     <row r="186" spans="1:30">
-      <c r="A186" s="22" t="s">
+      <c r="A186" s="23" t="s">
         <v>1050</v>
       </c>
       <c r="B186" s="1" t="s">
@@ -10135,7 +10237,7 @@
       <c r="AD186" s="2"/>
     </row>
     <row r="187" spans="1:30">
-      <c r="A187" s="22"/>
+      <c r="A187" s="23"/>
       <c r="B187" s="1" t="s">
         <v>14</v>
       </c>
@@ -10180,7 +10282,7 @@
       <c r="AA187" s="2"/>
     </row>
     <row r="188" spans="1:30">
-      <c r="A188" s="22"/>
+      <c r="A188" s="23"/>
       <c r="B188" s="1" t="s">
         <v>14</v>
       </c>
@@ -10228,7 +10330,7 @@
       <c r="AD188" s="2"/>
     </row>
     <row r="189" spans="1:30">
-      <c r="A189" s="22"/>
+      <c r="A189" s="23"/>
       <c r="B189" s="1" t="s">
         <v>14</v>
       </c>
@@ -10278,7 +10380,7 @@
       <c r="AD189" s="2"/>
     </row>
     <row r="190" spans="1:30">
-      <c r="A190" s="22"/>
+      <c r="A190" s="23"/>
       <c r="B190" s="1" t="s">
         <v>14</v>
       </c>
@@ -10328,7 +10430,7 @@
       <c r="AD190" s="2"/>
     </row>
     <row r="191" spans="1:30">
-      <c r="A191" s="22"/>
+      <c r="A191" s="23"/>
       <c r="E191" s="1" t="s">
         <v>344</v>
       </c>
@@ -10352,7 +10454,7 @@
       <c r="O191" s="2"/>
     </row>
     <row r="192" spans="1:30">
-      <c r="A192" s="22"/>
+      <c r="A192" s="23"/>
       <c r="E192" s="1" t="s">
         <v>344</v>
       </c>
@@ -10376,7 +10478,7 @@
       <c r="O192" s="2"/>
     </row>
     <row r="193" spans="1:21">
-      <c r="A193" s="22"/>
+      <c r="A193" s="23"/>
       <c r="E193" s="1" t="s">
         <v>344</v>
       </c>
@@ -10404,7 +10506,7 @@
       <c r="O193" s="2"/>
     </row>
     <row r="194" spans="1:21">
-      <c r="A194" s="22"/>
+      <c r="A194" s="23"/>
       <c r="E194" s="1" t="s">
         <v>344</v>
       </c>
@@ -10432,7 +10534,7 @@
       <c r="O194" s="2"/>
     </row>
     <row r="195" spans="1:21">
-      <c r="A195" s="22"/>
+      <c r="A195" s="23"/>
       <c r="E195" s="1" t="s">
         <v>344</v>
       </c>
@@ -10457,7 +10559,7 @@
       <c r="N195" s="2"/>
     </row>
     <row r="196" spans="1:21">
-      <c r="A196" s="22"/>
+      <c r="A196" s="23"/>
       <c r="E196" s="1" t="s">
         <v>344</v>
       </c>
@@ -10482,7 +10584,7 @@
       <c r="N196" s="2"/>
     </row>
     <row r="197" spans="1:21" s="11" customFormat="1">
-      <c r="A197" s="22"/>
+      <c r="A197" s="23"/>
       <c r="C197" s="10" t="s">
         <v>1031</v>
       </c>
@@ -10521,7 +10623,7 @@
       <c r="U197" s="10"/>
     </row>
     <row r="198" spans="1:21" s="11" customFormat="1">
-      <c r="A198" s="22"/>
+      <c r="A198" s="23"/>
       <c r="C198" s="10" t="s">
         <v>1031</v>
       </c>
@@ -10560,7 +10662,7 @@
       <c r="U198" s="10"/>
     </row>
     <row r="199" spans="1:21" s="11" customFormat="1">
-      <c r="A199" s="22"/>
+      <c r="A199" s="23"/>
       <c r="C199" s="10" t="s">
         <v>1031</v>
       </c>
@@ -10599,7 +10701,7 @@
       <c r="U199" s="10"/>
     </row>
     <row r="200" spans="1:21" s="11" customFormat="1">
-      <c r="A200" s="22"/>
+      <c r="A200" s="23"/>
       <c r="C200" s="10" t="s">
         <v>1031</v>
       </c>
@@ -10638,7 +10740,7 @@
       <c r="U200" s="10"/>
     </row>
     <row r="201" spans="1:21">
-      <c r="A201" s="22"/>
+      <c r="A201" s="23"/>
       <c r="E201" s="1" t="s">
         <v>344</v>
       </c>
@@ -10666,7 +10768,7 @@
       <c r="O201" s="2"/>
     </row>
     <row r="202" spans="1:21">
-      <c r="A202" s="22"/>
+      <c r="A202" s="23"/>
       <c r="E202" s="1" t="s">
         <v>344</v>
       </c>
@@ -10694,7 +10796,7 @@
       <c r="O202" s="2"/>
     </row>
     <row r="203" spans="1:21">
-      <c r="A203" s="22"/>
+      <c r="A203" s="23"/>
       <c r="E203" s="1" t="s">
         <v>344</v>
       </c>
@@ -10719,7 +10821,7 @@
       <c r="N203" s="2"/>
     </row>
     <row r="204" spans="1:21">
-      <c r="A204" s="22"/>
+      <c r="A204" s="23"/>
       <c r="E204" s="1" t="s">
         <v>344</v>
       </c>
@@ -10744,7 +10846,7 @@
       <c r="N204" s="2"/>
     </row>
     <row r="205" spans="1:21" s="11" customFormat="1">
-      <c r="A205" s="22"/>
+      <c r="A205" s="23"/>
       <c r="C205" s="10" t="s">
         <v>1031</v>
       </c>
@@ -10783,7 +10885,7 @@
       <c r="U205" s="10"/>
     </row>
     <row r="206" spans="1:21" s="11" customFormat="1">
-      <c r="A206" s="22"/>
+      <c r="A206" s="23"/>
       <c r="C206" s="10" t="s">
         <v>1031</v>
       </c>
@@ -10822,7 +10924,7 @@
       <c r="U206" s="10"/>
     </row>
     <row r="207" spans="1:21" s="11" customFormat="1">
-      <c r="A207" s="22"/>
+      <c r="A207" s="23"/>
       <c r="C207" s="10" t="s">
         <v>1031</v>
       </c>
@@ -10861,7 +10963,7 @@
       <c r="U207" s="10"/>
     </row>
     <row r="208" spans="1:21" s="11" customFormat="1">
-      <c r="A208" s="22"/>
+      <c r="A208" s="23"/>
       <c r="C208" s="10" t="s">
         <v>1031</v>
       </c>
@@ -10900,7 +11002,7 @@
       <c r="U208" s="10"/>
     </row>
     <row r="209" spans="1:30">
-      <c r="A209" s="22"/>
+      <c r="A209" s="23"/>
       <c r="E209" s="1" t="s">
         <v>344</v>
       </c>
@@ -10928,7 +11030,7 @@
       <c r="O209" s="2"/>
     </row>
     <row r="210" spans="1:30">
-      <c r="A210" s="22"/>
+      <c r="A210" s="23"/>
       <c r="E210" s="1" t="s">
         <v>344</v>
       </c>
@@ -10956,7 +11058,7 @@
       <c r="O210" s="2"/>
     </row>
     <row r="211" spans="1:30">
-      <c r="A211" s="22"/>
+      <c r="A211" s="23"/>
       <c r="E211" s="1" t="s">
         <v>344</v>
       </c>
@@ -10981,7 +11083,7 @@
       <c r="N211" s="2"/>
     </row>
     <row r="212" spans="1:30">
-      <c r="A212" s="22"/>
+      <c r="A212" s="23"/>
       <c r="E212" s="1" t="s">
         <v>344</v>
       </c>
@@ -11006,7 +11108,7 @@
       <c r="N212" s="2"/>
     </row>
     <row r="213" spans="1:30" s="11" customFormat="1">
-      <c r="A213" s="22"/>
+      <c r="A213" s="23"/>
       <c r="C213" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11045,7 +11147,7 @@
       <c r="U213" s="10"/>
     </row>
     <row r="214" spans="1:30" s="11" customFormat="1">
-      <c r="A214" s="22"/>
+      <c r="A214" s="23"/>
       <c r="C214" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11084,7 +11186,7 @@
       <c r="U214" s="10"/>
     </row>
     <row r="215" spans="1:30" s="11" customFormat="1">
-      <c r="A215" s="22"/>
+      <c r="A215" s="23"/>
       <c r="C215" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11123,7 +11225,7 @@
       <c r="U215" s="10"/>
     </row>
     <row r="216" spans="1:30" s="11" customFormat="1">
-      <c r="A216" s="22"/>
+      <c r="A216" s="23"/>
       <c r="C216" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11162,7 +11264,7 @@
       <c r="U216" s="10"/>
     </row>
     <row r="217" spans="1:30">
-      <c r="A217" s="22"/>
+      <c r="A217" s="23"/>
       <c r="B217" s="1" t="s">
         <v>14</v>
       </c>
@@ -11212,7 +11314,7 @@
       <c r="AD217" s="2"/>
     </row>
     <row r="218" spans="1:30">
-      <c r="A218" s="22"/>
+      <c r="A218" s="23"/>
       <c r="B218" s="1" t="s">
         <v>14</v>
       </c>
@@ -11260,7 +11362,7 @@
       <c r="AD218" s="2"/>
     </row>
     <row r="219" spans="1:30" s="11" customFormat="1">
-      <c r="A219" s="22"/>
+      <c r="A219" s="23"/>
       <c r="C219" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11287,7 +11389,7 @@
       <c r="Q219" s="10"/>
     </row>
     <row r="220" spans="1:30" s="11" customFormat="1">
-      <c r="A220" s="22"/>
+      <c r="A220" s="23"/>
       <c r="C220" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11314,7 +11416,7 @@
       <c r="Q220" s="10"/>
     </row>
     <row r="221" spans="1:30">
-      <c r="A221" s="22"/>
+      <c r="A221" s="23"/>
       <c r="B221" s="1" t="s">
         <v>14</v>
       </c>
@@ -11362,7 +11464,7 @@
       <c r="AD221" s="2"/>
     </row>
     <row r="222" spans="1:30">
-      <c r="A222" s="22"/>
+      <c r="A222" s="23"/>
       <c r="E222" s="1" t="s">
         <v>344</v>
       </c>
@@ -11388,7 +11490,7 @@
       <c r="P222" s="2"/>
     </row>
     <row r="223" spans="1:30">
-      <c r="A223" s="22"/>
+      <c r="A223" s="23"/>
       <c r="E223" s="1" t="s">
         <v>344</v>
       </c>
@@ -11414,7 +11516,7 @@
       <c r="P223" s="2"/>
     </row>
     <row r="224" spans="1:30">
-      <c r="A224" s="22"/>
+      <c r="A224" s="23"/>
       <c r="E224" s="1" t="s">
         <v>344</v>
       </c>
@@ -11440,7 +11542,7 @@
       <c r="P224" s="2"/>
     </row>
     <row r="225" spans="1:21">
-      <c r="A225" s="22"/>
+      <c r="A225" s="23"/>
       <c r="E225" s="1" t="s">
         <v>344</v>
       </c>
@@ -11466,7 +11568,7 @@
       <c r="P225" s="2"/>
     </row>
     <row r="226" spans="1:21" s="11" customFormat="1">
-      <c r="A226" s="22"/>
+      <c r="A226" s="23"/>
       <c r="C226" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11505,7 +11607,7 @@
       <c r="U226" s="10"/>
     </row>
     <row r="227" spans="1:21" s="11" customFormat="1">
-      <c r="A227" s="22"/>
+      <c r="A227" s="23"/>
       <c r="C227" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11544,7 +11646,7 @@
       <c r="U227" s="10"/>
     </row>
     <row r="228" spans="1:21" s="11" customFormat="1">
-      <c r="A228" s="22"/>
+      <c r="A228" s="23"/>
       <c r="C228" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11583,7 +11685,7 @@
       <c r="U228" s="10"/>
     </row>
     <row r="229" spans="1:21" s="11" customFormat="1">
-      <c r="A229" s="22"/>
+      <c r="A229" s="23"/>
       <c r="C229" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11622,7 +11724,7 @@
       <c r="U229" s="10"/>
     </row>
     <row r="230" spans="1:21" s="11" customFormat="1">
-      <c r="A230" s="22"/>
+      <c r="A230" s="23"/>
       <c r="C230" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11649,7 +11751,7 @@
       <c r="Q230" s="10"/>
     </row>
     <row r="231" spans="1:21" s="11" customFormat="1">
-      <c r="A231" s="22"/>
+      <c r="A231" s="23"/>
       <c r="C231" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11676,7 +11778,7 @@
       <c r="Q231" s="10"/>
     </row>
     <row r="232" spans="1:21" s="11" customFormat="1">
-      <c r="A232" s="22"/>
+      <c r="A232" s="23"/>
       <c r="C232" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11715,7 +11817,7 @@
       <c r="U232" s="10"/>
     </row>
     <row r="233" spans="1:21" s="11" customFormat="1">
-      <c r="A233" s="22"/>
+      <c r="A233" s="23"/>
       <c r="C233" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11754,7 +11856,7 @@
       <c r="U233" s="10"/>
     </row>
     <row r="234" spans="1:21" s="11" customFormat="1">
-      <c r="A234" s="22"/>
+      <c r="A234" s="23"/>
       <c r="C234" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11793,7 +11895,7 @@
       <c r="U234" s="10"/>
     </row>
     <row r="235" spans="1:21" s="11" customFormat="1">
-      <c r="A235" s="22"/>
+      <c r="A235" s="23"/>
       <c r="C235" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11832,7 +11934,7 @@
       <c r="U235" s="10"/>
     </row>
     <row r="236" spans="1:21">
-      <c r="A236" s="22"/>
+      <c r="A236" s="23"/>
       <c r="E236" s="3" t="s">
         <v>15</v>
       </c>
@@ -11862,7 +11964,7 @@
       <c r="U236" s="2"/>
     </row>
     <row r="237" spans="1:21" s="11" customFormat="1">
-      <c r="A237" s="22"/>
+      <c r="A237" s="23"/>
       <c r="C237" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11897,7 +11999,7 @@
       <c r="U237" s="10"/>
     </row>
     <row r="238" spans="1:21">
-      <c r="A238" s="22"/>
+      <c r="A238" s="23"/>
       <c r="E238" s="3" t="s">
         <v>15</v>
       </c>
@@ -11927,7 +12029,7 @@
       <c r="U238" s="2"/>
     </row>
     <row r="239" spans="1:21" s="11" customFormat="1">
-      <c r="A239" s="22"/>
+      <c r="A239" s="23"/>
       <c r="C239" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11962,7 +12064,7 @@
       <c r="U239" s="10"/>
     </row>
     <row r="240" spans="1:21">
-      <c r="A240" s="22"/>
+      <c r="A240" s="23"/>
       <c r="E240" s="1" t="s">
         <v>344</v>
       </c>
@@ -11987,7 +12089,7 @@
       <c r="P240" s="2"/>
     </row>
     <row r="241" spans="1:21">
-      <c r="A241" s="22"/>
+      <c r="A241" s="23"/>
       <c r="E241" s="1" t="s">
         <v>344</v>
       </c>
@@ -12012,7 +12114,7 @@
       <c r="P241" s="2"/>
     </row>
     <row r="242" spans="1:21">
-      <c r="A242" s="22"/>
+      <c r="A242" s="23"/>
       <c r="E242" s="1" t="s">
         <v>344</v>
       </c>
@@ -12037,7 +12139,7 @@
       <c r="P242" s="2"/>
     </row>
     <row r="243" spans="1:21">
-      <c r="A243" s="22"/>
+      <c r="A243" s="23"/>
       <c r="E243" s="1" t="s">
         <v>344</v>
       </c>
@@ -12062,7 +12164,7 @@
       <c r="P243" s="2"/>
     </row>
     <row r="244" spans="1:21">
-      <c r="A244" s="22"/>
+      <c r="A244" s="23"/>
       <c r="E244" s="3" t="s">
         <v>15</v>
       </c>
@@ -12092,7 +12194,7 @@
       <c r="U244" s="2"/>
     </row>
     <row r="245" spans="1:21">
-      <c r="A245" s="22"/>
+      <c r="A245" s="23"/>
       <c r="E245" s="1" t="s">
         <v>344</v>
       </c>
@@ -12117,7 +12219,7 @@
       <c r="P245" s="2"/>
     </row>
     <row r="246" spans="1:21">
-      <c r="A246" s="22"/>
+      <c r="A246" s="23"/>
       <c r="E246" s="1" t="s">
         <v>344</v>
       </c>
@@ -12142,7 +12244,7 @@
       <c r="P246" s="2"/>
     </row>
     <row r="247" spans="1:21">
-      <c r="A247" s="22"/>
+      <c r="A247" s="23"/>
       <c r="E247" s="1" t="s">
         <v>344</v>
       </c>
@@ -12167,7 +12269,7 @@
       <c r="P247" s="2"/>
     </row>
     <row r="248" spans="1:21">
-      <c r="A248" s="22"/>
+      <c r="A248" s="23"/>
       <c r="E248" s="1" t="s">
         <v>344</v>
       </c>
@@ -12192,7 +12294,7 @@
       <c r="P248" s="2"/>
     </row>
     <row r="249" spans="1:21" s="11" customFormat="1">
-      <c r="A249" s="22"/>
+      <c r="A249" s="23"/>
       <c r="C249" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12227,7 +12329,7 @@
       <c r="U249" s="10"/>
     </row>
     <row r="250" spans="1:21" s="11" customFormat="1">
-      <c r="A250" s="22"/>
+      <c r="A250" s="23"/>
       <c r="C250" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12262,7 +12364,7 @@
       <c r="U250" s="10"/>
     </row>
     <row r="251" spans="1:21" s="11" customFormat="1">
-      <c r="A251" s="22"/>
+      <c r="A251" s="23"/>
       <c r="C251" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12291,7 +12393,7 @@
       <c r="U251" s="10"/>
     </row>
     <row r="252" spans="1:21" s="11" customFormat="1">
-      <c r="A252" s="22"/>
+      <c r="A252" s="23"/>
       <c r="C252" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12317,7 +12419,7 @@
       <c r="P252" s="10"/>
     </row>
     <row r="253" spans="1:21">
-      <c r="A253" s="22"/>
+      <c r="A253" s="23"/>
       <c r="E253" s="3" t="s">
         <v>15</v>
       </c>
@@ -12347,7 +12449,7 @@
       <c r="U253" s="2"/>
     </row>
     <row r="254" spans="1:21" s="11" customFormat="1">
-      <c r="A254" s="22"/>
+      <c r="A254" s="23"/>
       <c r="C254" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12382,7 +12484,7 @@
       <c r="U254" s="10"/>
     </row>
     <row r="255" spans="1:21">
-      <c r="A255" s="22"/>
+      <c r="A255" s="23"/>
       <c r="E255" s="3" t="s">
         <v>15</v>
       </c>
@@ -12412,7 +12514,7 @@
       <c r="U255" s="2"/>
     </row>
     <row r="256" spans="1:21" s="11" customFormat="1">
-      <c r="A256" s="22"/>
+      <c r="A256" s="23"/>
       <c r="C256" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12447,13 +12549,13 @@
       <c r="U256" s="10"/>
     </row>
     <row r="257" spans="1:21">
-      <c r="A257" s="22"/>
+      <c r="A257" s="23"/>
       <c r="H257" s="7" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="258" spans="1:21">
-      <c r="A258" s="22"/>
+      <c r="A258" s="23"/>
       <c r="E258" s="1" t="s">
         <v>344</v>
       </c>
@@ -12483,7 +12585,7 @@
       <c r="U258" s="2"/>
     </row>
     <row r="259" spans="1:21">
-      <c r="A259" s="22"/>
+      <c r="A259" s="23"/>
       <c r="E259" s="1" t="s">
         <v>344</v>
       </c>
@@ -12511,7 +12613,7 @@
       <c r="U259" s="2"/>
     </row>
     <row r="260" spans="1:21">
-      <c r="A260" s="22"/>
+      <c r="A260" s="23"/>
       <c r="E260" s="1" t="s">
         <v>344</v>
       </c>
@@ -12537,7 +12639,7 @@
       <c r="S260" s="2"/>
     </row>
     <row r="261" spans="1:21">
-      <c r="A261" s="22"/>
+      <c r="A261" s="23"/>
       <c r="E261" s="1" t="s">
         <v>344</v>
       </c>
@@ -12564,7 +12666,7 @@
       <c r="T261" s="2"/>
     </row>
     <row r="262" spans="1:21">
-      <c r="A262" s="22"/>
+      <c r="A262" s="23"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
@@ -12587,7 +12689,7 @@
       <c r="T262" s="2"/>
     </row>
     <row r="263" spans="1:21">
-      <c r="A263" s="22"/>
+      <c r="A263" s="23"/>
       <c r="E263" s="1" t="s">
         <v>344</v>
       </c>
@@ -12612,7 +12714,7 @@
       <c r="R263" s="2"/>
     </row>
     <row r="264" spans="1:21">
-      <c r="A264" s="22"/>
+      <c r="A264" s="23"/>
       <c r="E264" s="1" t="s">
         <v>344</v>
       </c>
@@ -12637,13 +12739,13 @@
       <c r="R264" s="2"/>
     </row>
     <row r="265" spans="1:21">
-      <c r="A265" s="22"/>
+      <c r="A265" s="23"/>
       <c r="H265" s="7" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="266" spans="1:21">
-      <c r="A266" s="22"/>
+      <c r="A266" s="23"/>
       <c r="E266" s="1" t="s">
         <v>344</v>
       </c>
@@ -12668,7 +12770,7 @@
       <c r="P266" s="2"/>
     </row>
     <row r="267" spans="1:21">
-      <c r="A267" s="22"/>
+      <c r="A267" s="23"/>
       <c r="E267" s="1" t="s">
         <v>344</v>
       </c>
@@ -12690,7 +12792,7 @@
       <c r="P267" s="2"/>
     </row>
     <row r="268" spans="1:21">
-      <c r="A268" s="22"/>
+      <c r="A268" s="23"/>
       <c r="E268" s="1" t="s">
         <v>15</v>
       </c>
@@ -12723,7 +12825,7 @@
       </c>
     </row>
     <row r="269" spans="1:21">
-      <c r="A269" s="22"/>
+      <c r="A269" s="23"/>
       <c r="E269" s="1" t="s">
         <v>15</v>
       </c>
@@ -12754,7 +12856,7 @@
       <c r="U269" s="2"/>
     </row>
     <row r="270" spans="1:21">
-      <c r="A270" s="22"/>
+      <c r="A270" s="23"/>
       <c r="E270" s="1" t="s">
         <v>15</v>
       </c>
@@ -12783,7 +12885,7 @@
       <c r="Q270" s="2"/>
     </row>
     <row r="271" spans="1:21">
-      <c r="A271" s="22"/>
+      <c r="A271" s="23"/>
       <c r="E271" s="1" t="s">
         <v>15</v>
       </c>
@@ -12812,7 +12914,7 @@
       <c r="Q271" s="2"/>
     </row>
     <row r="272" spans="1:21">
-      <c r="A272" s="22"/>
+      <c r="A272" s="23"/>
       <c r="E272" s="1" t="s">
         <v>15</v>
       </c>
@@ -12841,7 +12943,7 @@
       <c r="Q272" s="2"/>
     </row>
     <row r="273" spans="1:21">
-      <c r="A273" s="22"/>
+      <c r="A273" s="23"/>
       <c r="E273" s="1" t="s">
         <v>15</v>
       </c>
@@ -12864,7 +12966,7 @@
       <c r="O273" s="2"/>
     </row>
     <row r="274" spans="1:21">
-      <c r="A274" s="22"/>
+      <c r="A274" s="23"/>
       <c r="H274" s="19" t="s">
         <v>1058</v>
       </c>
@@ -12876,7 +12978,7 @@
       </c>
     </row>
     <row r="275" spans="1:21">
-      <c r="A275" s="22"/>
+      <c r="A275" s="23"/>
       <c r="H275" s="19" t="s">
         <v>1078</v>
       </c>
@@ -12888,7 +12990,7 @@
       </c>
     </row>
     <row r="276" spans="1:21">
-      <c r="A276" s="22"/>
+      <c r="A276" s="23"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
       <c r="H276" s="19" t="s">
@@ -12902,7 +13004,7 @@
       </c>
     </row>
     <row r="277" spans="1:21">
-      <c r="A277" s="22"/>
+      <c r="A277" s="23"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
       <c r="H277" s="19" t="s">
@@ -12916,7 +13018,7 @@
       </c>
     </row>
     <row r="278" spans="1:21">
-      <c r="A278" s="22"/>
+      <c r="A278" s="23"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
       <c r="H278" s="19" t="s">
@@ -12930,7 +13032,7 @@
       </c>
     </row>
     <row r="279" spans="1:21">
-      <c r="A279" s="22"/>
+      <c r="A279" s="23"/>
       <c r="E279" s="1" t="s">
         <v>344</v>
       </c>
@@ -12961,7 +13063,7 @@
       <c r="T279" s="2"/>
     </row>
     <row r="280" spans="1:21">
-      <c r="A280" s="22"/>
+      <c r="A280" s="23"/>
       <c r="E280" s="1" t="s">
         <v>344</v>
       </c>
@@ -12992,7 +13094,7 @@
       <c r="T280" s="2"/>
     </row>
     <row r="281" spans="1:21">
-      <c r="A281" s="22"/>
+      <c r="A281" s="23"/>
       <c r="E281" s="1" t="s">
         <v>344</v>
       </c>
@@ -13023,7 +13125,7 @@
       <c r="T281" s="2"/>
     </row>
     <row r="282" spans="1:21">
-      <c r="A282" s="22"/>
+      <c r="A282" s="23"/>
       <c r="E282" s="1" t="s">
         <v>344</v>
       </c>
@@ -13054,7 +13156,7 @@
       <c r="T282" s="2"/>
     </row>
     <row r="283" spans="1:21">
-      <c r="A283" s="22"/>
+      <c r="A283" s="23"/>
       <c r="E283" s="1" t="s">
         <v>344</v>
       </c>
@@ -13085,7 +13187,7 @@
       <c r="T283" s="2"/>
     </row>
     <row r="284" spans="1:21">
-      <c r="A284" s="22"/>
+      <c r="A284" s="23"/>
       <c r="E284" s="1" t="s">
         <v>344</v>
       </c>
@@ -13116,7 +13218,7 @@
       <c r="T284" s="2"/>
     </row>
     <row r="285" spans="1:21">
-      <c r="A285" s="22"/>
+      <c r="A285" s="23"/>
       <c r="E285" s="1" t="s">
         <v>344</v>
       </c>
@@ -13147,7 +13249,7 @@
       <c r="T285" s="2"/>
     </row>
     <row r="286" spans="1:21">
-      <c r="A286" s="22"/>
+      <c r="A286" s="23"/>
       <c r="E286" s="1" t="s">
         <v>344</v>
       </c>
@@ -13179,7 +13281,7 @@
       <c r="U286" s="2"/>
     </row>
     <row r="287" spans="1:21">
-      <c r="A287" s="22"/>
+      <c r="A287" s="23"/>
       <c r="E287" s="1" t="s">
         <v>344</v>
       </c>
@@ -13210,7 +13312,7 @@
       <c r="T287" s="2"/>
     </row>
     <row r="288" spans="1:21">
-      <c r="A288" s="22"/>
+      <c r="A288" s="23"/>
       <c r="E288" s="1" t="s">
         <v>344</v>
       </c>
@@ -13241,7 +13343,7 @@
       <c r="T288" s="2"/>
     </row>
     <row r="289" spans="1:21">
-      <c r="A289" s="22"/>
+      <c r="A289" s="23"/>
       <c r="E289" s="1" t="s">
         <v>344</v>
       </c>
@@ -13272,7 +13374,7 @@
       <c r="T289" s="2"/>
     </row>
     <row r="290" spans="1:21">
-      <c r="A290" s="22"/>
+      <c r="A290" s="23"/>
       <c r="E290" s="1" t="s">
         <v>344</v>
       </c>
@@ -13304,7 +13406,7 @@
       <c r="U290" s="2"/>
     </row>
     <row r="291" spans="1:21">
-      <c r="A291" s="22"/>
+      <c r="A291" s="23"/>
       <c r="H291" s="19" t="s">
         <v>1061</v>
       </c>
@@ -13316,7 +13418,7 @@
       </c>
     </row>
     <row r="292" spans="1:21">
-      <c r="A292" s="22"/>
+      <c r="A292" s="23"/>
       <c r="H292" s="19" t="s">
         <v>1063</v>
       </c>
@@ -13328,7 +13430,7 @@
       </c>
     </row>
     <row r="293" spans="1:21">
-      <c r="A293" s="22"/>
+      <c r="A293" s="23"/>
       <c r="H293" s="19" t="s">
         <v>1065</v>
       </c>
@@ -13340,7 +13442,7 @@
       </c>
     </row>
     <row r="294" spans="1:21">
-      <c r="A294" s="22"/>
+      <c r="A294" s="23"/>
       <c r="H294" s="19" t="s">
         <v>1067</v>
       </c>
@@ -13352,7 +13454,7 @@
       </c>
     </row>
     <row r="295" spans="1:21">
-      <c r="A295" s="22"/>
+      <c r="A295" s="23"/>
       <c r="H295" s="19" t="s">
         <v>1069</v>
       </c>
@@ -13364,7 +13466,7 @@
       </c>
     </row>
     <row r="296" spans="1:21">
-      <c r="A296" s="22"/>
+      <c r="A296" s="23"/>
       <c r="H296" s="19" t="s">
         <v>1071</v>
       </c>
@@ -13376,7 +13478,7 @@
       </c>
     </row>
     <row r="297" spans="1:21">
-      <c r="A297" s="22"/>
+      <c r="A297" s="23"/>
       <c r="H297" s="19" t="s">
         <v>1073</v>
       </c>
@@ -13388,7 +13490,7 @@
       </c>
     </row>
     <row r="298" spans="1:21">
-      <c r="A298" s="22"/>
+      <c r="A298" s="23"/>
       <c r="H298" s="19" t="s">
         <v>1075</v>
       </c>
@@ -13400,7 +13502,7 @@
       </c>
     </row>
     <row r="299" spans="1:21">
-      <c r="A299" s="22"/>
+      <c r="A299" s="23"/>
       <c r="B299" s="21"/>
       <c r="C299" s="21"/>
       <c r="H299" s="19" t="s">
@@ -13414,7 +13516,7 @@
       </c>
     </row>
     <row r="300" spans="1:21">
-      <c r="A300" s="22"/>
+      <c r="A300" s="23"/>
       <c r="H300" s="19" t="s">
         <v>1087</v>
       </c>
@@ -13426,7 +13528,7 @@
       </c>
     </row>
     <row r="301" spans="1:21">
-      <c r="A301" s="22"/>
+      <c r="A301" s="23"/>
       <c r="H301" s="19" t="s">
         <v>1088</v>
       </c>
@@ -13438,7 +13540,7 @@
       </c>
     </row>
     <row r="302" spans="1:21">
-      <c r="A302" s="22"/>
+      <c r="A302" s="23"/>
       <c r="H302" s="19" t="s">
         <v>1089</v>
       </c>
@@ -13450,7 +13552,7 @@
       </c>
     </row>
     <row r="303" spans="1:21">
-      <c r="A303" s="22"/>
+      <c r="A303" s="23"/>
       <c r="H303" s="19" t="s">
         <v>1090</v>
       </c>
@@ -13462,7 +13564,7 @@
       </c>
     </row>
     <row r="304" spans="1:21">
-      <c r="A304" s="22"/>
+      <c r="A304" s="23"/>
       <c r="H304" s="19" t="s">
         <v>1091</v>
       </c>
@@ -13474,7 +13576,7 @@
       </c>
     </row>
     <row r="305" spans="1:10">
-      <c r="A305" s="22"/>
+      <c r="A305" s="23"/>
       <c r="H305" s="19" t="s">
         <v>1092</v>
       </c>
@@ -13486,7 +13588,7 @@
       </c>
     </row>
     <row r="306" spans="1:10">
-      <c r="A306" s="22"/>
+      <c r="A306" s="23"/>
       <c r="H306" s="19" t="s">
         <v>1093</v>
       </c>
@@ -13498,7 +13600,7 @@
       </c>
     </row>
     <row r="307" spans="1:10">
-      <c r="A307" s="22"/>
+      <c r="A307" s="23"/>
       <c r="H307" s="19" t="s">
         <v>1094</v>
       </c>
@@ -13510,7 +13612,7 @@
       </c>
     </row>
     <row r="308" spans="1:10">
-      <c r="A308" s="22"/>
+      <c r="A308" s="23"/>
       <c r="H308" s="19" t="s">
         <v>1095</v>
       </c>
@@ -13522,7 +13624,7 @@
       </c>
     </row>
     <row r="309" spans="1:10">
-      <c r="A309" s="22"/>
+      <c r="A309" s="23"/>
       <c r="H309" s="19" t="s">
         <v>1097</v>
       </c>
@@ -13534,7 +13636,7 @@
       </c>
     </row>
     <row r="310" spans="1:10">
-      <c r="A310" s="22"/>
+      <c r="A310" s="23"/>
       <c r="H310" s="19" t="s">
         <v>1099</v>
       </c>
@@ -13546,7 +13648,7 @@
       </c>
     </row>
     <row r="311" spans="1:10">
-      <c r="A311" s="22"/>
+      <c r="A311" s="23"/>
       <c r="H311" s="19" t="s">
         <v>1100</v>
       </c>
@@ -13558,7 +13660,7 @@
       </c>
     </row>
     <row r="312" spans="1:10">
-      <c r="A312" s="22"/>
+      <c r="A312" s="23"/>
       <c r="H312" s="19" t="s">
         <v>1101</v>
       </c>
@@ -13570,7 +13672,7 @@
       </c>
     </row>
     <row r="313" spans="1:10">
-      <c r="A313" s="22"/>
+      <c r="A313" s="23"/>
       <c r="H313" s="19" t="s">
         <v>1102</v>
       </c>
@@ -13582,7 +13684,7 @@
       </c>
     </row>
     <row r="314" spans="1:10">
-      <c r="A314" s="22"/>
+      <c r="A314" s="23"/>
       <c r="H314" s="19" t="s">
         <v>1103</v>
       </c>
@@ -13594,7 +13696,7 @@
       </c>
     </row>
     <row r="315" spans="1:10">
-      <c r="A315" s="22"/>
+      <c r="A315" s="23"/>
       <c r="H315" s="19" t="s">
         <v>1104</v>
       </c>
@@ -13606,7 +13708,7 @@
       </c>
     </row>
     <row r="316" spans="1:10">
-      <c r="A316" s="22"/>
+      <c r="A316" s="23"/>
       <c r="H316" s="19" t="s">
         <v>1105</v>
       </c>
@@ -13618,7 +13720,7 @@
       </c>
     </row>
     <row r="317" spans="1:10">
-      <c r="A317" s="22"/>
+      <c r="A317" s="23"/>
       <c r="H317" s="19" t="s">
         <v>1106</v>
       </c>
@@ -13630,7 +13732,7 @@
       </c>
     </row>
     <row r="318" spans="1:10">
-      <c r="A318" s="22"/>
+      <c r="A318" s="23"/>
       <c r="H318" s="19" t="s">
         <v>1107</v>
       </c>
@@ -13642,7 +13744,7 @@
       </c>
     </row>
     <row r="319" spans="1:10">
-      <c r="A319" s="22"/>
+      <c r="A319" s="23"/>
       <c r="H319" s="19" t="s">
         <v>1108</v>
       </c>
@@ -13654,7 +13756,7 @@
       </c>
     </row>
     <row r="320" spans="1:10">
-      <c r="A320" s="22"/>
+      <c r="A320" s="23"/>
       <c r="H320" s="19" t="s">
         <v>1109</v>
       </c>
@@ -13666,7 +13768,7 @@
       </c>
     </row>
     <row r="321" spans="1:10">
-      <c r="A321" s="22"/>
+      <c r="A321" s="23"/>
       <c r="H321" s="19" t="s">
         <v>1110</v>
       </c>
@@ -13678,7 +13780,7 @@
       </c>
     </row>
     <row r="322" spans="1:10">
-      <c r="A322" s="22"/>
+      <c r="A322" s="23"/>
       <c r="H322" s="19" t="s">
         <v>1111</v>
       </c>
@@ -13690,7 +13792,7 @@
       </c>
     </row>
     <row r="323" spans="1:10">
-      <c r="A323" s="22"/>
+      <c r="A323" s="23"/>
       <c r="H323" s="19" t="s">
         <v>1112</v>
       </c>
@@ -13702,7 +13804,7 @@
       </c>
     </row>
     <row r="324" spans="1:10">
-      <c r="A324" s="22"/>
+      <c r="A324" s="23"/>
       <c r="H324" s="19" t="s">
         <v>1113</v>
       </c>
@@ -13714,7 +13816,7 @@
       </c>
     </row>
     <row r="325" spans="1:10">
-      <c r="A325" s="22"/>
+      <c r="A325" s="23"/>
       <c r="H325" s="19" t="s">
         <v>1114</v>
       </c>
@@ -13726,7 +13828,7 @@
       </c>
     </row>
     <row r="326" spans="1:10">
-      <c r="A326" s="22"/>
+      <c r="A326" s="23"/>
       <c r="H326" s="19" t="s">
         <v>1115</v>
       </c>
@@ -13738,7 +13840,7 @@
       </c>
     </row>
     <row r="327" spans="1:10">
-      <c r="A327" s="22"/>
+      <c r="A327" s="23"/>
       <c r="H327" s="19" t="s">
         <v>1116</v>
       </c>
@@ -13750,7 +13852,7 @@
       </c>
     </row>
     <row r="328" spans="1:10">
-      <c r="A328" s="22"/>
+      <c r="A328" s="23"/>
       <c r="H328" s="19" t="s">
         <v>1117</v>
       </c>
@@ -13762,7 +13864,7 @@
       </c>
     </row>
     <row r="329" spans="1:10">
-      <c r="A329" s="22"/>
+      <c r="A329" s="23"/>
       <c r="H329" s="19" t="s">
         <v>1118</v>
       </c>
@@ -13774,7 +13876,7 @@
       </c>
     </row>
     <row r="330" spans="1:10">
-      <c r="A330" s="22"/>
+      <c r="A330" s="23"/>
       <c r="H330" s="19" t="s">
         <v>1119</v>
       </c>
@@ -13786,7 +13888,7 @@
       </c>
     </row>
     <row r="331" spans="1:10">
-      <c r="A331" s="22"/>
+      <c r="A331" s="23"/>
       <c r="H331" s="19" t="s">
         <v>1120</v>
       </c>
@@ -13798,7 +13900,7 @@
       </c>
     </row>
     <row r="332" spans="1:10">
-      <c r="A332" s="22"/>
+      <c r="A332" s="23"/>
       <c r="H332" s="19" t="s">
         <v>1121</v>
       </c>
@@ -13810,7 +13912,7 @@
       </c>
     </row>
     <row r="333" spans="1:10">
-      <c r="A333" s="22"/>
+      <c r="A333" s="23"/>
       <c r="H333" s="19" t="s">
         <v>1122</v>
       </c>
@@ -13822,7 +13924,7 @@
       </c>
     </row>
     <row r="334" spans="1:10">
-      <c r="A334" s="22"/>
+      <c r="A334" s="23"/>
       <c r="H334" s="19" t="s">
         <v>1123</v>
       </c>
@@ -13834,7 +13936,7 @@
       </c>
     </row>
     <row r="335" spans="1:10">
-      <c r="A335" s="22"/>
+      <c r="A335" s="23"/>
       <c r="H335" s="19" t="s">
         <v>1124</v>
       </c>
@@ -13846,7 +13948,7 @@
       </c>
     </row>
     <row r="336" spans="1:10">
-      <c r="A336" s="22"/>
+      <c r="A336" s="23"/>
       <c r="H336" s="19" t="s">
         <v>1125</v>
       </c>
@@ -13858,7 +13960,7 @@
       </c>
     </row>
     <row r="337" spans="1:19">
-      <c r="A337" s="22"/>
+      <c r="A337" s="23"/>
       <c r="H337" s="19" t="s">
         <v>1126</v>
       </c>
@@ -13870,7 +13972,7 @@
       </c>
     </row>
     <row r="338" spans="1:19">
-      <c r="A338" s="22"/>
+      <c r="A338" s="23"/>
       <c r="H338" s="19" t="s">
         <v>1127</v>
       </c>
@@ -13882,7 +13984,7 @@
       </c>
     </row>
     <row r="339" spans="1:19">
-      <c r="A339" s="22"/>
+      <c r="A339" s="23"/>
       <c r="H339" s="19" t="s">
         <v>1128</v>
       </c>
@@ -13894,7 +13996,7 @@
       </c>
     </row>
     <row r="340" spans="1:19">
-      <c r="A340" s="22"/>
+      <c r="A340" s="23"/>
       <c r="H340" s="19" t="s">
         <v>1129</v>
       </c>
@@ -13906,7 +14008,7 @@
       </c>
     </row>
     <row r="341" spans="1:19">
-      <c r="A341" s="22"/>
+      <c r="A341" s="23"/>
       <c r="H341" s="19" t="s">
         <v>1130</v>
       </c>
@@ -13918,7 +14020,7 @@
       </c>
     </row>
     <row r="342" spans="1:19">
-      <c r="A342" s="22"/>
+      <c r="A342" s="23"/>
       <c r="H342" s="19" t="s">
         <v>1131</v>
       </c>
@@ -13930,7 +14032,7 @@
       </c>
     </row>
     <row r="343" spans="1:19">
-      <c r="A343" s="22"/>
+      <c r="A343" s="23"/>
       <c r="H343" s="19" t="s">
         <v>1132</v>
       </c>
@@ -13942,7 +14044,7 @@
       </c>
     </row>
     <row r="344" spans="1:19">
-      <c r="A344" s="22"/>
+      <c r="A344" s="23"/>
       <c r="H344" s="19" t="s">
         <v>1135</v>
       </c>
@@ -13954,7 +14056,7 @@
       </c>
     </row>
     <row r="345" spans="1:19">
-      <c r="A345" s="22"/>
+      <c r="A345" s="23"/>
       <c r="H345" s="19" t="s">
         <v>1138</v>
       </c>
@@ -13966,7 +14068,7 @@
       </c>
     </row>
     <row r="346" spans="1:19">
-      <c r="A346" s="22"/>
+      <c r="A346" s="23"/>
       <c r="H346" s="19" t="s">
         <v>1139</v>
       </c>
@@ -13978,7 +14080,7 @@
       </c>
     </row>
     <row r="347" spans="1:19">
-      <c r="A347" s="22"/>
+      <c r="A347" s="23"/>
       <c r="H347" s="19" t="s">
         <v>1140</v>
       </c>
@@ -13990,7 +14092,7 @@
       </c>
     </row>
     <row r="348" spans="1:19">
-      <c r="A348" s="22"/>
+      <c r="A348" s="23"/>
       <c r="H348" s="19" t="s">
         <v>1142</v>
       </c>
@@ -14002,7 +14104,7 @@
       </c>
     </row>
     <row r="349" spans="1:19">
-      <c r="A349" s="22" t="s">
+      <c r="A349" s="23" t="s">
         <v>1051</v>
       </c>
       <c r="E349" s="1" t="s">
@@ -14027,7 +14129,7 @@
       <c r="S349" s="2"/>
     </row>
     <row r="350" spans="1:19">
-      <c r="A350" s="22"/>
+      <c r="A350" s="23"/>
       <c r="E350" s="1" t="s">
         <v>344</v>
       </c>
@@ -14048,7 +14150,7 @@
       <c r="Q350" s="2"/>
     </row>
     <row r="351" spans="1:19">
-      <c r="A351" s="22" t="s">
+      <c r="A351" s="23" t="s">
         <v>1052</v>
       </c>
       <c r="E351" s="1" t="s">
@@ -14063,7 +14165,7 @@
       </c>
     </row>
     <row r="352" spans="1:19">
-      <c r="A352" s="22"/>
+      <c r="A352" s="23"/>
       <c r="E352" s="1" t="s">
         <v>344</v>
       </c>
@@ -14076,7 +14178,7 @@
       </c>
     </row>
     <row r="353" spans="1:20">
-      <c r="A353" s="22"/>
+      <c r="A353" s="23"/>
       <c r="E353" s="1" t="s">
         <v>344</v>
       </c>
@@ -14089,7 +14191,7 @@
       </c>
     </row>
     <row r="354" spans="1:20">
-      <c r="A354" s="22"/>
+      <c r="A354" s="23"/>
       <c r="E354" s="1" t="s">
         <v>344</v>
       </c>
@@ -14102,7 +14204,7 @@
       </c>
     </row>
     <row r="355" spans="1:20">
-      <c r="A355" s="22"/>
+      <c r="A355" s="23"/>
       <c r="E355" s="1" t="s">
         <v>344</v>
       </c>
@@ -14115,7 +14217,7 @@
       </c>
     </row>
     <row r="356" spans="1:20">
-      <c r="A356" s="22"/>
+      <c r="A356" s="23"/>
       <c r="E356" s="1" t="s">
         <v>344</v>
       </c>
@@ -14128,7 +14230,7 @@
       </c>
     </row>
     <row r="357" spans="1:20">
-      <c r="A357" s="22"/>
+      <c r="A357" s="23"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
       <c r="G357" s="2"/>
@@ -14137,7 +14239,7 @@
       </c>
     </row>
     <row r="358" spans="1:20">
-      <c r="A358" s="22" t="s">
+      <c r="A358" s="23" t="s">
         <v>1053</v>
       </c>
       <c r="E358" s="1" t="s">
@@ -14162,7 +14264,7 @@
       <c r="S358" s="2"/>
     </row>
     <row r="359" spans="1:20">
-      <c r="A359" s="22"/>
+      <c r="A359" s="23"/>
       <c r="E359" s="1" t="s">
         <v>344</v>
       </c>
@@ -14185,7 +14287,7 @@
       <c r="S359" s="2"/>
     </row>
     <row r="360" spans="1:20">
-      <c r="A360" s="22"/>
+      <c r="A360" s="23"/>
       <c r="E360" s="1" t="s">
         <v>344</v>
       </c>
@@ -14208,7 +14310,7 @@
       <c r="S360" s="2"/>
     </row>
     <row r="361" spans="1:20">
-      <c r="A361" s="22"/>
+      <c r="A361" s="23"/>
       <c r="E361" s="1" t="s">
         <v>344</v>
       </c>
@@ -14232,7 +14334,7 @@
       <c r="T361" s="2"/>
     </row>
     <row r="362" spans="1:20">
-      <c r="A362" s="22"/>
+      <c r="A362" s="23"/>
       <c r="E362" s="1" t="s">
         <v>344</v>
       </c>
@@ -14255,7 +14357,7 @@
       <c r="S362" s="2"/>
     </row>
     <row r="363" spans="1:20">
-      <c r="A363" s="22"/>
+      <c r="A363" s="23"/>
       <c r="E363" s="1" t="s">
         <v>344</v>
       </c>
@@ -14278,7 +14380,7 @@
       <c r="S363" s="2"/>
     </row>
     <row r="364" spans="1:20">
-      <c r="A364" s="22"/>
+      <c r="A364" s="23"/>
       <c r="E364" s="1" t="s">
         <v>344</v>
       </c>
@@ -14302,7 +14404,7 @@
       <c r="T364" s="2"/>
     </row>
     <row r="365" spans="1:20">
-      <c r="A365" s="22"/>
+      <c r="A365" s="23"/>
       <c r="E365" s="1" t="s">
         <v>344</v>
       </c>
@@ -14320,7 +14422,7 @@
       <c r="N365" s="2"/>
     </row>
     <row r="366" spans="1:20">
-      <c r="A366" s="22" t="s">
+      <c r="A366" s="23" t="s">
         <v>1054</v>
       </c>
       <c r="E366" s="1" t="s">
@@ -14344,7 +14446,7 @@
       <c r="R366" s="2"/>
     </row>
     <row r="367" spans="1:20">
-      <c r="A367" s="22"/>
+      <c r="A367" s="23"/>
       <c r="E367" s="1" t="s">
         <v>344</v>
       </c>
@@ -14365,7 +14467,7 @@
       <c r="Q367" s="2"/>
     </row>
     <row r="368" spans="1:20">
-      <c r="A368" s="22"/>
+      <c r="A368" s="23"/>
       <c r="E368" s="1" t="s">
         <v>344</v>
       </c>
@@ -14388,7 +14490,7 @@
       <c r="S368" s="2"/>
     </row>
     <row r="369" spans="1:21">
-      <c r="A369" s="22"/>
+      <c r="A369" s="23"/>
       <c r="E369" s="1" t="s">
         <v>344</v>
       </c>
@@ -14406,7 +14508,7 @@
       <c r="N369" s="2"/>
     </row>
     <row r="370" spans="1:21">
-      <c r="A370" s="22"/>
+      <c r="A370" s="23"/>
       <c r="E370" s="1" t="s">
         <v>15</v>
       </c>
@@ -14432,7 +14534,7 @@
       <c r="P370" s="2"/>
     </row>
     <row r="371" spans="1:21">
-      <c r="A371" s="22"/>
+      <c r="A371" s="23"/>
       <c r="E371" s="1" t="s">
         <v>15</v>
       </c>
@@ -14458,7 +14560,7 @@
       <c r="P371" s="2"/>
     </row>
     <row r="372" spans="1:21">
-      <c r="A372" s="22" t="s">
+      <c r="A372" s="23" t="s">
         <v>1144</v>
       </c>
       <c r="E372" s="2"/>
@@ -14482,7 +14584,7 @@
       <c r="U372" s="2"/>
     </row>
     <row r="373" spans="1:21">
-      <c r="A373" s="22"/>
+      <c r="A373" s="23"/>
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
       <c r="G373" s="2"/>
@@ -14504,7 +14606,7 @@
       <c r="U373" s="2"/>
     </row>
     <row r="374" spans="1:21">
-      <c r="A374" s="22"/>
+      <c r="A374" s="23"/>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
       <c r="G374" s="2"/>
@@ -14526,7 +14628,7 @@
       <c r="U374" s="2"/>
     </row>
     <row r="375" spans="1:21">
-      <c r="A375" s="22"/>
+      <c r="A375" s="23"/>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
       <c r="G375" s="2"/>
@@ -14548,7 +14650,7 @@
       <c r="U375" s="2"/>
     </row>
     <row r="376" spans="1:21">
-      <c r="A376" s="22"/>
+      <c r="A376" s="23"/>
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
       <c r="G376" s="2"/>
@@ -14570,7 +14672,7 @@
       <c r="U376" s="2"/>
     </row>
     <row r="377" spans="1:21">
-      <c r="A377" s="22"/>
+      <c r="A377" s="23"/>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
       <c r="G377" s="2"/>
@@ -14592,7 +14694,7 @@
       <c r="U377" s="2"/>
     </row>
     <row r="378" spans="1:21">
-      <c r="A378" s="22"/>
+      <c r="A378" s="23"/>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
       <c r="G378" s="2"/>
@@ -14614,7 +14716,7 @@
       <c r="U378" s="2"/>
     </row>
     <row r="379" spans="1:21">
-      <c r="A379" s="22"/>
+      <c r="A379" s="23"/>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
@@ -14636,7 +14738,7 @@
       <c r="U379" s="2"/>
     </row>
     <row r="380" spans="1:21">
-      <c r="A380" s="22"/>
+      <c r="A380" s="23"/>
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
@@ -14658,7 +14760,7 @@
       <c r="U380" s="2"/>
     </row>
     <row r="381" spans="1:21">
-      <c r="A381" s="22"/>
+      <c r="A381" s="23"/>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
@@ -14680,7 +14782,7 @@
       <c r="U381" s="2"/>
     </row>
     <row r="382" spans="1:21">
-      <c r="A382" s="22"/>
+      <c r="A382" s="23"/>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
       <c r="G382" s="2"/>
@@ -14702,7 +14804,7 @@
       <c r="U382" s="2"/>
     </row>
     <row r="383" spans="1:21">
-      <c r="A383" s="22"/>
+      <c r="A383" s="23"/>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
       <c r="G383" s="2"/>
@@ -14724,7 +14826,7 @@
       <c r="U383" s="2"/>
     </row>
     <row r="384" spans="1:21">
-      <c r="A384" s="22"/>
+      <c r="A384" s="23"/>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
       <c r="G384" s="2"/>
@@ -14746,7 +14848,7 @@
       <c r="U384" s="2"/>
     </row>
     <row r="385" spans="1:21">
-      <c r="A385" s="22"/>
+      <c r="A385" s="23"/>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
       <c r="G385" s="2"/>
@@ -14768,7 +14870,7 @@
       <c r="U385" s="2"/>
     </row>
     <row r="386" spans="1:21">
-      <c r="A386" s="22"/>
+      <c r="A386" s="23"/>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
       <c r="G386" s="2"/>
@@ -14790,7 +14892,7 @@
       <c r="U386" s="2"/>
     </row>
     <row r="387" spans="1:21">
-      <c r="A387" s="22"/>
+      <c r="A387" s="23"/>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
       <c r="G387" s="2"/>
@@ -14812,7 +14914,7 @@
       <c r="U387" s="2"/>
     </row>
     <row r="388" spans="1:21">
-      <c r="A388" s="22"/>
+      <c r="A388" s="23"/>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -14834,7 +14936,7 @@
       <c r="U388" s="2"/>
     </row>
     <row r="389" spans="1:21">
-      <c r="A389" s="22"/>
+      <c r="A389" s="23"/>
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
       <c r="G389" s="2"/>
@@ -14856,7 +14958,7 @@
       <c r="U389" s="2"/>
     </row>
     <row r="390" spans="1:21">
-      <c r="A390" s="22"/>
+      <c r="A390" s="23"/>
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
       <c r="G390" s="2"/>
@@ -14878,7 +14980,7 @@
       <c r="U390" s="2"/>
     </row>
     <row r="391" spans="1:21">
-      <c r="A391" s="22"/>
+      <c r="A391" s="23"/>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
       <c r="G391" s="2"/>
@@ -14900,7 +15002,7 @@
       <c r="U391" s="2"/>
     </row>
     <row r="392" spans="1:21">
-      <c r="A392" s="22"/>
+      <c r="A392" s="23"/>
       <c r="E392" s="1" t="s">
         <v>344</v>
       </c>
@@ -14926,7 +15028,7 @@
       <c r="U392" s="2"/>
     </row>
     <row r="393" spans="1:21">
-      <c r="A393" s="22"/>
+      <c r="A393" s="23"/>
       <c r="E393" s="1" t="s">
         <v>344</v>
       </c>
@@ -14952,7 +15054,7 @@
       <c r="U393" s="2"/>
     </row>
     <row r="394" spans="1:21">
-      <c r="A394" s="22"/>
+      <c r="A394" s="23"/>
       <c r="E394" s="1" t="s">
         <v>344</v>
       </c>
@@ -14978,7 +15080,7 @@
       <c r="U394" s="2"/>
     </row>
     <row r="395" spans="1:21">
-      <c r="A395" s="22"/>
+      <c r="A395" s="23"/>
       <c r="E395" s="1" t="s">
         <v>344</v>
       </c>
@@ -15004,7 +15106,7 @@
       <c r="O395" s="2"/>
     </row>
     <row r="396" spans="1:21">
-      <c r="A396" s="22"/>
+      <c r="A396" s="23"/>
       <c r="E396" s="1" t="s">
         <v>344</v>
       </c>
@@ -15038,7 +15140,7 @@
       </c>
     </row>
     <row r="397" spans="1:21">
-      <c r="A397" s="22"/>
+      <c r="A397" s="23"/>
       <c r="E397" s="1" t="s">
         <v>344</v>
       </c>
@@ -15070,7 +15172,7 @@
       <c r="U397" s="2"/>
     </row>
     <row r="398" spans="1:21">
-      <c r="A398" s="22"/>
+      <c r="A398" s="23"/>
       <c r="E398" s="1"/>
       <c r="F398" s="2"/>
       <c r="G398" s="2"/>
@@ -15092,7 +15194,7 @@
       <c r="U398" s="2"/>
     </row>
     <row r="399" spans="1:21">
-      <c r="A399" s="22"/>
+      <c r="A399" s="23"/>
       <c r="E399" s="1"/>
       <c r="F399" s="2"/>
       <c r="G399" s="2"/>
@@ -15114,7 +15216,7 @@
       <c r="U399" s="2"/>
     </row>
     <row r="400" spans="1:21">
-      <c r="A400" s="22"/>
+      <c r="A400" s="23"/>
       <c r="E400" s="1"/>
       <c r="F400" s="2"/>
       <c r="G400" s="2"/>
@@ -15136,7 +15238,7 @@
       <c r="U400" s="2"/>
     </row>
     <row r="401" spans="1:21">
-      <c r="A401" s="22"/>
+      <c r="A401" s="23"/>
       <c r="E401" s="1"/>
       <c r="F401" s="2"/>
       <c r="G401" s="2"/>
@@ -15160,7 +15262,7 @@
       <c r="U401" s="2"/>
     </row>
     <row r="402" spans="1:21">
-      <c r="A402" s="22"/>
+      <c r="A402" s="23"/>
       <c r="E402" s="1" t="s">
         <v>344</v>
       </c>
@@ -15194,7 +15296,7 @@
       </c>
     </row>
     <row r="403" spans="1:21">
-      <c r="A403" s="22"/>
+      <c r="A403" s="23"/>
       <c r="E403" s="1" t="s">
         <v>344</v>
       </c>
@@ -15220,7 +15322,7 @@
       <c r="U403" s="2"/>
     </row>
     <row r="404" spans="1:21">
-      <c r="A404" s="22"/>
+      <c r="A404" s="23"/>
       <c r="E404" s="1" t="s">
         <v>344</v>
       </c>
@@ -15246,7 +15348,7 @@
       <c r="U404" s="2"/>
     </row>
     <row r="405" spans="1:21">
-      <c r="A405" s="22"/>
+      <c r="A405" s="23"/>
       <c r="E405" s="1" t="s">
         <v>344</v>
       </c>
@@ -15274,7 +15376,7 @@
       <c r="U405" s="2"/>
     </row>
     <row r="406" spans="1:21">
-      <c r="A406" s="22"/>
+      <c r="A406" s="23"/>
       <c r="E406" s="1" t="s">
         <v>344</v>
       </c>
@@ -15304,7 +15406,7 @@
       </c>
     </row>
     <row r="407" spans="1:21">
-      <c r="A407" s="22"/>
+      <c r="A407" s="23"/>
       <c r="E407" s="1" t="s">
         <v>344</v>
       </c>
@@ -15332,7 +15434,7 @@
       <c r="U407" s="2"/>
     </row>
     <row r="408" spans="1:21">
-      <c r="A408" s="22"/>
+      <c r="A408" s="23"/>
       <c r="E408" s="1" t="s">
         <v>344</v>
       </c>
@@ -15362,7 +15464,7 @@
       </c>
     </row>
     <row r="409" spans="1:21">
-      <c r="A409" s="22"/>
+      <c r="A409" s="23"/>
       <c r="E409" s="1" t="s">
         <v>344</v>
       </c>
@@ -15390,7 +15492,7 @@
       <c r="U409" s="2"/>
     </row>
     <row r="410" spans="1:21">
-      <c r="A410" s="22"/>
+      <c r="A410" s="23"/>
       <c r="E410" s="1"/>
       <c r="F410" s="2"/>
       <c r="G410" s="2"/>
@@ -15412,7 +15514,7 @@
       <c r="U410" s="2"/>
     </row>
     <row r="411" spans="1:21">
-      <c r="A411" s="22"/>
+      <c r="A411" s="23"/>
       <c r="E411" s="1"/>
       <c r="F411" s="2"/>
       <c r="G411" s="2"/>
@@ -15434,7 +15536,7 @@
       <c r="U411" s="2"/>
     </row>
     <row r="412" spans="1:21">
-      <c r="A412" s="22"/>
+      <c r="A412" s="23"/>
       <c r="E412" s="1"/>
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
@@ -15456,7 +15558,7 @@
       <c r="U412" s="2"/>
     </row>
     <row r="413" spans="1:21">
-      <c r="A413" s="22"/>
+      <c r="A413" s="23"/>
       <c r="E413" s="1" t="s">
         <v>344</v>
       </c>
@@ -15490,7 +15592,7 @@
       </c>
     </row>
     <row r="414" spans="1:21">
-      <c r="A414" s="22"/>
+      <c r="A414" s="23"/>
       <c r="E414" s="1" t="s">
         <v>344</v>
       </c>
@@ -15516,7 +15618,7 @@
       <c r="U414" s="2"/>
     </row>
     <row r="415" spans="1:21">
-      <c r="A415" s="22"/>
+      <c r="A415" s="23"/>
       <c r="E415" s="1" t="s">
         <v>344</v>
       </c>
@@ -15546,7 +15648,7 @@
       </c>
     </row>
     <row r="416" spans="1:21">
-      <c r="A416" s="22"/>
+      <c r="A416" s="23"/>
       <c r="E416" s="1" t="s">
         <v>344</v>
       </c>
@@ -15574,7 +15676,7 @@
       <c r="U416" s="2"/>
     </row>
     <row r="417" spans="1:21">
-      <c r="A417" s="22"/>
+      <c r="A417" s="23"/>
       <c r="E417" s="1" t="s">
         <v>344</v>
       </c>
@@ -15602,7 +15704,7 @@
       <c r="U417" s="2"/>
     </row>
     <row r="418" spans="1:21">
-      <c r="A418" s="22"/>
+      <c r="A418" s="23"/>
       <c r="E418" s="1" t="s">
         <v>344</v>
       </c>
@@ -15638,7 +15740,7 @@
       <c r="U418" s="2"/>
     </row>
     <row r="419" spans="1:21">
-      <c r="A419" s="22"/>
+      <c r="A419" s="23"/>
       <c r="E419" s="1" t="s">
         <v>344</v>
       </c>
@@ -15666,7 +15768,7 @@
       <c r="U419" s="2"/>
     </row>
     <row r="420" spans="1:21">
-      <c r="A420" s="22"/>
+      <c r="A420" s="23"/>
       <c r="E420" s="1" t="s">
         <v>344</v>
       </c>
@@ -15699,7 +15801,7 @@
       <c r="T420" s="2"/>
     </row>
     <row r="421" spans="1:21">
-      <c r="A421" s="22"/>
+      <c r="A421" s="23"/>
       <c r="E421" s="1" t="s">
         <v>344</v>
       </c>
@@ -15727,7 +15829,7 @@
       <c r="U421" s="2"/>
     </row>
     <row r="422" spans="1:21">
-      <c r="A422" s="22"/>
+      <c r="A422" s="23"/>
       <c r="E422" s="1" t="s">
         <v>344</v>
       </c>
@@ -15759,7 +15861,7 @@
       <c r="U422" s="2"/>
     </row>
     <row r="423" spans="1:21">
-      <c r="A423" s="22"/>
+      <c r="A423" s="23"/>
       <c r="E423" s="1"/>
       <c r="F423" s="2"/>
       <c r="G423" s="2"/>
@@ -15781,7 +15883,7 @@
       <c r="U423" s="2"/>
     </row>
     <row r="424" spans="1:21">
-      <c r="A424" s="22"/>
+      <c r="A424" s="23"/>
       <c r="E424" s="1"/>
       <c r="F424" s="2"/>
       <c r="G424" s="2"/>
@@ -15803,7 +15905,7 @@
       <c r="U424" s="2"/>
     </row>
     <row r="425" spans="1:21">
-      <c r="A425" s="22"/>
+      <c r="A425" s="23"/>
       <c r="E425" s="1"/>
       <c r="F425" s="2"/>
       <c r="G425" s="2"/>
@@ -15827,7 +15929,7 @@
       <c r="U425" s="2"/>
     </row>
     <row r="426" spans="1:21">
-      <c r="A426" s="22"/>
+      <c r="A426" s="23"/>
       <c r="E426" s="1" t="s">
         <v>344</v>
       </c>
@@ -15857,7 +15959,7 @@
       <c r="U426" s="1"/>
     </row>
     <row r="427" spans="1:21">
-      <c r="A427" s="22"/>
+      <c r="A427" s="23"/>
       <c r="E427" s="1" t="s">
         <v>344</v>
       </c>
@@ -15894,7 +15996,7 @@
       </c>
     </row>
     <row r="428" spans="1:21">
-      <c r="A428" s="22"/>
+      <c r="A428" s="23"/>
       <c r="E428" s="1" t="s">
         <v>344</v>
       </c>
@@ -15926,7 +16028,7 @@
       <c r="U428" s="2"/>
     </row>
     <row r="429" spans="1:21">
-      <c r="A429" s="22"/>
+      <c r="A429" s="23"/>
       <c r="E429" s="1" t="s">
         <v>344</v>
       </c>
@@ -15961,7 +16063,7 @@
       </c>
     </row>
     <row r="430" spans="1:21">
-      <c r="A430" s="22"/>
+      <c r="A430" s="23"/>
       <c r="E430" s="1" t="s">
         <v>344</v>
       </c>
@@ -15991,7 +16093,7 @@
       <c r="U430" s="2"/>
     </row>
     <row r="431" spans="1:21">
-      <c r="A431" s="22"/>
+      <c r="A431" s="23"/>
       <c r="E431" s="1" t="s">
         <v>344</v>
       </c>
@@ -16024,7 +16126,7 @@
       <c r="T431" s="2"/>
     </row>
     <row r="432" spans="1:21">
-      <c r="A432" s="22"/>
+      <c r="A432" s="23"/>
       <c r="E432" s="1" t="s">
         <v>344</v>
       </c>
@@ -16049,7 +16151,7 @@
       <c r="P432" s="2"/>
     </row>
     <row r="433" spans="1:21">
-      <c r="A433" s="22"/>
+      <c r="A433" s="23"/>
       <c r="E433" s="1" t="s">
         <v>344</v>
       </c>
@@ -16080,7 +16182,7 @@
       </c>
     </row>
     <row r="434" spans="1:21">
-      <c r="A434" s="22"/>
+      <c r="A434" s="23"/>
       <c r="E434" s="1" t="s">
         <v>344</v>
       </c>
@@ -16108,7 +16210,7 @@
       <c r="U434" s="2"/>
     </row>
     <row r="435" spans="1:21">
-      <c r="A435" s="22"/>
+      <c r="A435" s="23"/>
       <c r="E435" s="1" t="s">
         <v>344</v>
       </c>
@@ -16136,7 +16238,7 @@
       <c r="U435" s="2"/>
     </row>
     <row r="436" spans="1:21">
-      <c r="A436" s="22"/>
+      <c r="A436" s="23"/>
       <c r="E436" s="1" t="s">
         <v>344</v>
       </c>
@@ -16160,7 +16262,7 @@
       <c r="Q436" s="2"/>
     </row>
     <row r="437" spans="1:21">
-      <c r="A437" s="22"/>
+      <c r="A437" s="23"/>
       <c r="E437" s="1" t="s">
         <v>344</v>
       </c>
@@ -16191,7 +16293,7 @@
       </c>
     </row>
     <row r="438" spans="1:21">
-      <c r="A438" s="22"/>
+      <c r="A438" s="23"/>
       <c r="E438" s="1" t="s">
         <v>344</v>
       </c>
@@ -16219,7 +16321,7 @@
       <c r="U438" s="2"/>
     </row>
     <row r="439" spans="1:21">
-      <c r="A439" s="22"/>
+      <c r="A439" s="23"/>
       <c r="E439" s="1" t="s">
         <v>344</v>
       </c>
@@ -16247,7 +16349,7 @@
       <c r="U439" s="2"/>
     </row>
     <row r="440" spans="1:21">
-      <c r="A440" s="22"/>
+      <c r="A440" s="23"/>
       <c r="E440" s="1" t="s">
         <v>344</v>
       </c>
@@ -16275,7 +16377,7 @@
       <c r="U440" s="2"/>
     </row>
     <row r="441" spans="1:21">
-      <c r="A441" s="22"/>
+      <c r="A441" s="23"/>
       <c r="E441" s="1" t="s">
         <v>344</v>
       </c>
@@ -16300,7 +16402,7 @@
       <c r="R441" s="2"/>
     </row>
     <row r="442" spans="1:21">
-      <c r="A442" s="22"/>
+      <c r="A442" s="23"/>
       <c r="E442" s="1" t="s">
         <v>344</v>
       </c>
@@ -16330,7 +16432,7 @@
       <c r="Q442" s="2"/>
     </row>
     <row r="443" spans="1:21">
-      <c r="A443" s="22"/>
+      <c r="A443" s="23"/>
       <c r="E443" s="1" t="s">
         <v>344</v>
       </c>
@@ -16356,7 +16458,7 @@
       <c r="U443" s="2"/>
     </row>
     <row r="444" spans="1:21">
-      <c r="A444" s="22"/>
+      <c r="A444" s="23"/>
       <c r="E444" s="1" t="s">
         <v>344</v>
       </c>
@@ -16380,7 +16482,7 @@
       <c r="Q444" s="2"/>
     </row>
     <row r="445" spans="1:21">
-      <c r="A445" s="22"/>
+      <c r="A445" s="23"/>
       <c r="E445" s="1" t="s">
         <v>344</v>
       </c>
@@ -16411,7 +16513,7 @@
       <c r="R445" s="2"/>
     </row>
     <row r="446" spans="1:21">
-      <c r="A446" s="22"/>
+      <c r="A446" s="23"/>
       <c r="E446" s="1" t="s">
         <v>344</v>
       </c>
@@ -16437,7 +16539,7 @@
       <c r="U446" s="2"/>
     </row>
     <row r="447" spans="1:21">
-      <c r="A447" s="22"/>
+      <c r="A447" s="23"/>
       <c r="E447" s="1"/>
       <c r="F447" s="2"/>
       <c r="G447" s="2"/>
@@ -16459,7 +16561,7 @@
       <c r="U447" s="2"/>
     </row>
     <row r="448" spans="1:21">
-      <c r="A448" s="22"/>
+      <c r="A448" s="23"/>
       <c r="E448" s="1"/>
       <c r="F448" s="2"/>
       <c r="G448" s="2"/>
@@ -16481,7 +16583,7 @@
       <c r="U448" s="2"/>
     </row>
     <row r="449" spans="1:21">
-      <c r="A449" s="22"/>
+      <c r="A449" s="23"/>
       <c r="E449" s="1"/>
       <c r="F449" s="2"/>
       <c r="G449" s="2"/>
@@ -16503,7 +16605,7 @@
       <c r="U449" s="2"/>
     </row>
     <row r="450" spans="1:21">
-      <c r="A450" s="22"/>
+      <c r="A450" s="23"/>
       <c r="E450" s="1" t="s">
         <v>344</v>
       </c>
@@ -16535,7 +16637,7 @@
       </c>
     </row>
     <row r="451" spans="1:21">
-      <c r="A451" s="22"/>
+      <c r="A451" s="23"/>
       <c r="E451" s="1" t="s">
         <v>344</v>
       </c>
@@ -16561,7 +16663,7 @@
       <c r="U451" s="2"/>
     </row>
     <row r="452" spans="1:21">
-      <c r="A452" s="22"/>
+      <c r="A452" s="23"/>
       <c r="E452" s="1" t="s">
         <v>344</v>
       </c>
@@ -16587,7 +16689,7 @@
       <c r="U452" s="2"/>
     </row>
     <row r="453" spans="1:21">
-      <c r="A453" s="22"/>
+      <c r="A453" s="23"/>
       <c r="E453" s="1"/>
       <c r="F453" s="2"/>
       <c r="G453" s="2"/>
@@ -16609,7 +16711,7 @@
       <c r="U453" s="2"/>
     </row>
     <row r="454" spans="1:21">
-      <c r="A454" s="22"/>
+      <c r="A454" s="23"/>
       <c r="E454" s="1"/>
       <c r="F454" s="2"/>
       <c r="G454" s="2"/>
@@ -16631,7 +16733,7 @@
       <c r="U454" s="2"/>
     </row>
     <row r="455" spans="1:21">
-      <c r="A455" s="22"/>
+      <c r="A455" s="23"/>
       <c r="E455" s="1" t="s">
         <v>344</v>
       </c>
@@ -16667,7 +16769,7 @@
       </c>
     </row>
     <row r="456" spans="1:21">
-      <c r="A456" s="22"/>
+      <c r="A456" s="23"/>
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
       <c r="G456" s="2"/>
@@ -16689,7 +16791,7 @@
       <c r="U456" s="2"/>
     </row>
     <row r="457" spans="1:21">
-      <c r="A457" s="22"/>
+      <c r="A457" s="23"/>
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
       <c r="G457" s="2"/>
@@ -16711,7 +16813,7 @@
       <c r="U457" s="2"/>
     </row>
     <row r="458" spans="1:21">
-      <c r="A458" s="22"/>
+      <c r="A458" s="23"/>
       <c r="E458" s="1" t="s">
         <v>344</v>
       </c>
@@ -16747,7 +16849,7 @@
       <c r="U458" s="2"/>
     </row>
     <row r="459" spans="1:21">
-      <c r="A459" s="22"/>
+      <c r="A459" s="23"/>
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
       <c r="G459" s="2"/>
@@ -16769,7 +16871,7 @@
       <c r="U459" s="2"/>
     </row>
     <row r="460" spans="1:21">
-      <c r="A460" s="22"/>
+      <c r="A460" s="23"/>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
       <c r="G460" s="2"/>
@@ -16791,7 +16893,7 @@
       <c r="U460" s="2"/>
     </row>
     <row r="461" spans="1:21">
-      <c r="A461" s="22"/>
+      <c r="A461" s="23"/>
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
       <c r="G461" s="2"/>
@@ -16813,7 +16915,7 @@
       <c r="U461" s="2"/>
     </row>
     <row r="462" spans="1:21">
-      <c r="A462" s="22"/>
+      <c r="A462" s="23"/>
       <c r="E462" s="1" t="s">
         <v>344</v>
       </c>
@@ -16849,7 +16951,7 @@
       <c r="U462" s="2"/>
     </row>
     <row r="463" spans="1:21">
-      <c r="A463" s="22"/>
+      <c r="A463" s="23"/>
       <c r="E463" s="1" t="s">
         <v>344</v>
       </c>
@@ -16887,7 +16989,7 @@
       </c>
     </row>
     <row r="464" spans="1:21">
-      <c r="A464" s="22"/>
+      <c r="A464" s="23"/>
       <c r="E464" s="2" t="s">
         <v>344</v>
       </c>
@@ -16913,7 +17015,7 @@
       <c r="U464" s="2"/>
     </row>
     <row r="465" spans="1:21">
-      <c r="A465" s="22"/>
+      <c r="A465" s="23"/>
       <c r="E465" s="1" t="s">
         <v>344</v>
       </c>
@@ -16949,7 +17051,7 @@
       </c>
     </row>
     <row r="466" spans="1:21">
-      <c r="A466" s="22"/>
+      <c r="A466" s="23"/>
       <c r="E466" s="1" t="s">
         <v>344</v>
       </c>
@@ -16975,7 +17077,7 @@
       <c r="U466" s="2"/>
     </row>
     <row r="467" spans="1:21">
-      <c r="A467" s="22"/>
+      <c r="A467" s="23"/>
       <c r="E467" s="1"/>
       <c r="F467" s="2"/>
       <c r="G467" s="2"/>
@@ -16999,7 +17101,7 @@
       <c r="U467" s="2"/>
     </row>
     <row r="468" spans="1:21">
-      <c r="A468" s="22"/>
+      <c r="A468" s="23"/>
       <c r="E468" s="1" t="s">
         <v>344</v>
       </c>
@@ -17032,7 +17134,7 @@
       <c r="T468" s="2"/>
     </row>
     <row r="469" spans="1:21">
-      <c r="A469" s="22"/>
+      <c r="A469" s="23"/>
       <c r="E469" s="1" t="s">
         <v>344</v>
       </c>
@@ -17058,7 +17160,7 @@
       <c r="U469" s="2"/>
     </row>
     <row r="470" spans="1:21">
-      <c r="A470" s="22"/>
+      <c r="A470" s="23"/>
       <c r="E470" s="1" t="s">
         <v>344</v>
       </c>
@@ -17093,7 +17195,7 @@
       <c r="T470" s="2"/>
     </row>
     <row r="471" spans="1:21">
-      <c r="A471" s="22"/>
+      <c r="A471" s="23"/>
       <c r="E471" s="1"/>
       <c r="F471" s="2"/>
       <c r="G471" s="2"/>
@@ -17115,7 +17217,7 @@
       <c r="U471" s="2"/>
     </row>
     <row r="472" spans="1:21">
-      <c r="A472" s="22"/>
+      <c r="A472" s="23"/>
       <c r="E472" s="1" t="s">
         <v>344</v>
       </c>
@@ -17141,7 +17243,7 @@
       <c r="U472" s="2"/>
     </row>
     <row r="473" spans="1:21">
-      <c r="A473" s="22"/>
+      <c r="A473" s="23"/>
       <c r="E473" s="1"/>
       <c r="F473" s="2"/>
       <c r="G473" s="2"/>
@@ -17163,7 +17265,7 @@
       <c r="U473" s="2"/>
     </row>
     <row r="474" spans="1:21">
-      <c r="A474" s="22"/>
+      <c r="A474" s="23"/>
       <c r="E474" s="1" t="s">
         <v>344</v>
       </c>
@@ -17195,7 +17297,7 @@
       <c r="S474" s="2"/>
     </row>
     <row r="475" spans="1:21">
-      <c r="A475" s="22"/>
+      <c r="A475" s="23"/>
       <c r="E475" s="1" t="s">
         <v>344</v>
       </c>
@@ -17221,7 +17323,7 @@
       <c r="U475" s="2"/>
     </row>
     <row r="476" spans="1:21">
-      <c r="A476" s="22"/>
+      <c r="A476" s="23"/>
       <c r="E476" s="1" t="s">
         <v>344</v>
       </c>
@@ -17253,7 +17355,7 @@
       <c r="S476" s="2"/>
     </row>
     <row r="477" spans="1:21">
-      <c r="A477" s="22"/>
+      <c r="A477" s="23"/>
       <c r="E477" s="1" t="s">
         <v>344</v>
       </c>
@@ -17281,7 +17383,7 @@
       <c r="U477" s="2"/>
     </row>
     <row r="478" spans="1:21">
-      <c r="A478" s="22"/>
+      <c r="A478" s="23"/>
       <c r="E478" s="1" t="s">
         <v>344</v>
       </c>
@@ -17313,7 +17415,7 @@
       <c r="S478" s="2"/>
     </row>
     <row r="479" spans="1:21">
-      <c r="A479" s="22"/>
+      <c r="A479" s="23"/>
       <c r="E479" s="1" t="s">
         <v>344</v>
       </c>
@@ -17341,7 +17443,7 @@
       <c r="U479" s="2"/>
     </row>
     <row r="480" spans="1:21">
-      <c r="A480" s="22"/>
+      <c r="A480" s="23"/>
       <c r="E480" s="1" t="s">
         <v>344</v>
       </c>
@@ -17377,7 +17479,7 @@
       </c>
     </row>
     <row r="481" spans="1:21">
-      <c r="A481" s="22"/>
+      <c r="A481" s="23"/>
       <c r="E481" s="1" t="s">
         <v>344</v>
       </c>
@@ -17405,7 +17507,7 @@
       <c r="U481" s="2"/>
     </row>
     <row r="482" spans="1:21">
-      <c r="A482" s="22"/>
+      <c r="A482" s="23"/>
       <c r="E482" s="1" t="s">
         <v>344</v>
       </c>
@@ -17441,7 +17543,7 @@
       </c>
     </row>
     <row r="483" spans="1:21">
-      <c r="A483" s="22"/>
+      <c r="A483" s="23"/>
       <c r="E483" s="1" t="s">
         <v>344</v>
       </c>
@@ -17469,7 +17571,7 @@
       <c r="U483" s="2"/>
     </row>
     <row r="484" spans="1:21">
-      <c r="A484" s="22"/>
+      <c r="A484" s="23"/>
       <c r="E484" s="1" t="s">
         <v>344</v>
       </c>
@@ -17495,7 +17597,7 @@
       <c r="U484" s="2"/>
     </row>
     <row r="485" spans="1:21">
-      <c r="A485" s="22"/>
+      <c r="A485" s="23"/>
       <c r="E485" s="1" t="s">
         <v>344</v>
       </c>
@@ -17523,7 +17625,7 @@
       <c r="U485" s="2"/>
     </row>
     <row r="486" spans="1:21">
-      <c r="A486" s="22"/>
+      <c r="A486" s="23"/>
       <c r="E486" s="1" t="s">
         <v>344</v>
       </c>
@@ -17549,7 +17651,7 @@
       <c r="U486" s="2"/>
     </row>
     <row r="487" spans="1:21">
-      <c r="A487" s="22"/>
+      <c r="A487" s="23"/>
       <c r="E487" s="1" t="s">
         <v>344</v>
       </c>
@@ -17580,7 +17682,7 @@
       <c r="R487" s="2"/>
     </row>
     <row r="488" spans="1:21">
-      <c r="A488" s="22"/>
+      <c r="A488" s="23"/>
       <c r="E488" s="1" t="s">
         <v>344</v>
       </c>
@@ -17606,7 +17708,7 @@
       <c r="U488" s="2"/>
     </row>
     <row r="489" spans="1:21">
-      <c r="A489" s="22"/>
+      <c r="A489" s="23"/>
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
       <c r="G489" s="2"/>
@@ -17628,7 +17730,7 @@
       <c r="U489" s="2"/>
     </row>
     <row r="490" spans="1:21">
-      <c r="A490" s="22"/>
+      <c r="A490" s="23"/>
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
       <c r="G490" s="2"/>
@@ -17650,7 +17752,7 @@
       <c r="U490" s="2"/>
     </row>
     <row r="491" spans="1:21">
-      <c r="A491" s="22"/>
+      <c r="A491" s="23"/>
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
       <c r="G491" s="2"/>
@@ -17672,7 +17774,7 @@
       <c r="U491" s="2"/>
     </row>
     <row r="492" spans="1:21">
-      <c r="A492" s="22"/>
+      <c r="A492" s="23"/>
       <c r="E492" s="1" t="s">
         <v>344</v>
       </c>
@@ -17707,7 +17809,7 @@
       </c>
     </row>
     <row r="493" spans="1:21">
-      <c r="A493" s="22"/>
+      <c r="A493" s="23"/>
       <c r="E493" s="1" t="s">
         <v>344</v>
       </c>
@@ -17733,7 +17835,7 @@
       <c r="U493" s="2"/>
     </row>
     <row r="494" spans="1:21">
-      <c r="A494" s="22"/>
+      <c r="A494" s="23"/>
       <c r="E494" s="1" t="s">
         <v>344</v>
       </c>
@@ -17761,7 +17863,7 @@
       <c r="U494" s="2"/>
     </row>
     <row r="495" spans="1:21">
-      <c r="A495" s="22"/>
+      <c r="A495" s="23"/>
       <c r="E495" s="1" t="s">
         <v>344</v>
       </c>
@@ -17789,7 +17891,7 @@
       <c r="U495" s="2"/>
     </row>
     <row r="496" spans="1:21">
-      <c r="A496" s="22"/>
+      <c r="A496" s="23"/>
       <c r="E496" s="1" t="s">
         <v>344</v>
       </c>
@@ -17815,7 +17917,7 @@
       <c r="U496" s="2"/>
     </row>
     <row r="497" spans="1:21">
-      <c r="A497" s="22"/>
+      <c r="A497" s="23"/>
       <c r="E497" s="1" t="s">
         <v>344</v>
       </c>
@@ -17841,7 +17943,7 @@
       <c r="Q497" s="2"/>
     </row>
     <row r="498" spans="1:21">
-      <c r="A498" s="22"/>
+      <c r="A498" s="23"/>
       <c r="E498" s="1" t="s">
         <v>344</v>
       </c>
@@ -17869,7 +17971,7 @@
       <c r="U498" s="2"/>
     </row>
     <row r="499" spans="1:21">
-      <c r="A499" s="22"/>
+      <c r="A499" s="23"/>
       <c r="E499" s="1" t="s">
         <v>344</v>
       </c>
@@ -17897,7 +17999,7 @@
       <c r="U499" s="2"/>
     </row>
     <row r="500" spans="1:21">
-      <c r="A500" s="22"/>
+      <c r="A500" s="23"/>
       <c r="E500" s="1" t="s">
         <v>344</v>
       </c>
@@ -17923,7 +18025,7 @@
       <c r="U500" s="2"/>
     </row>
     <row r="501" spans="1:21">
-      <c r="A501" s="22"/>
+      <c r="A501" s="23"/>
       <c r="E501" s="1" t="s">
         <v>344</v>
       </c>
@@ -17951,7 +18053,7 @@
       <c r="U501" s="2"/>
     </row>
     <row r="502" spans="1:21">
-      <c r="A502" s="22"/>
+      <c r="A502" s="23"/>
       <c r="E502" s="1" t="s">
         <v>344</v>
       </c>
@@ -17974,7 +18076,7 @@
       <c r="R502" s="2"/>
     </row>
     <row r="503" spans="1:21">
-      <c r="A503" s="22"/>
+      <c r="A503" s="23"/>
       <c r="E503" s="1" t="s">
         <v>344</v>
       </c>
@@ -18007,7 +18109,7 @@
       </c>
     </row>
     <row r="504" spans="1:21">
-      <c r="A504" s="22"/>
+      <c r="A504" s="23"/>
       <c r="E504" s="1" t="s">
         <v>344</v>
       </c>
@@ -18040,7 +18142,7 @@
       </c>
     </row>
     <row r="505" spans="1:21">
-      <c r="A505" s="22"/>
+      <c r="A505" s="23"/>
       <c r="E505" s="1" t="s">
         <v>344</v>
       </c>
@@ -18075,7 +18177,7 @@
       </c>
     </row>
     <row r="506" spans="1:21">
-      <c r="A506" s="22"/>
+      <c r="A506" s="23"/>
       <c r="E506" s="1" t="s">
         <v>344</v>
       </c>
@@ -18110,7 +18212,7 @@
       </c>
     </row>
     <row r="507" spans="1:21">
-      <c r="A507" s="22"/>
+      <c r="A507" s="23"/>
       <c r="E507" s="1" t="s">
         <v>344</v>
       </c>
@@ -18147,7 +18249,7 @@
       </c>
     </row>
     <row r="508" spans="1:21">
-      <c r="A508" s="22"/>
+      <c r="A508" s="23"/>
       <c r="E508" s="1" t="s">
         <v>344</v>
       </c>
@@ -18184,7 +18286,7 @@
       </c>
     </row>
     <row r="509" spans="1:21">
-      <c r="A509" s="22"/>
+      <c r="A509" s="23"/>
       <c r="E509" s="1" t="s">
         <v>344</v>
       </c>
@@ -18221,7 +18323,7 @@
       </c>
     </row>
     <row r="510" spans="1:21">
-      <c r="A510" s="22"/>
+      <c r="A510" s="23"/>
       <c r="E510" s="1" t="s">
         <v>344</v>
       </c>
@@ -18251,7 +18353,7 @@
       <c r="U510" s="2"/>
     </row>
     <row r="511" spans="1:21">
-      <c r="A511" s="22"/>
+      <c r="A511" s="23"/>
       <c r="E511" s="1" t="s">
         <v>344</v>
       </c>
@@ -18279,7 +18381,7 @@
       <c r="S511" s="2"/>
     </row>
     <row r="512" spans="1:21">
-      <c r="A512" s="22"/>
+      <c r="A512" s="23"/>
       <c r="E512" s="1" t="s">
         <v>344</v>
       </c>
@@ -18303,7 +18405,7 @@
       <c r="O512" s="2"/>
     </row>
     <row r="513" spans="1:20">
-      <c r="A513" s="22"/>
+      <c r="A513" s="23"/>
       <c r="E513" s="1" t="s">
         <v>344</v>
       </c>
@@ -18332,7 +18434,7 @@
       <c r="T513" s="2"/>
     </row>
     <row r="514" spans="1:20">
-      <c r="A514" s="22"/>
+      <c r="A514" s="23"/>
       <c r="E514" s="1" t="s">
         <v>344</v>
       </c>
@@ -18364,7 +18466,7 @@
       <c r="S514" s="2"/>
     </row>
     <row r="515" spans="1:20">
-      <c r="A515" s="22"/>
+      <c r="A515" s="23"/>
       <c r="E515" s="1" t="s">
         <v>344</v>
       </c>
@@ -18400,7 +18502,7 @@
       </c>
     </row>
     <row r="516" spans="1:20">
-      <c r="A516" s="22"/>
+      <c r="A516" s="23"/>
       <c r="E516" s="1" t="s">
         <v>344</v>
       </c>
@@ -18431,7 +18533,7 @@
       <c r="T516" s="2"/>
     </row>
     <row r="517" spans="1:20">
-      <c r="A517" s="22"/>
+      <c r="A517" s="23"/>
       <c r="E517" s="1" t="s">
         <v>344</v>
       </c>
@@ -18463,7 +18565,7 @@
       <c r="S517" s="2"/>
     </row>
     <row r="518" spans="1:20">
-      <c r="A518" s="22"/>
+      <c r="A518" s="23"/>
       <c r="E518" s="1" t="s">
         <v>344</v>
       </c>
@@ -18488,7 +18590,7 @@
       <c r="R518" s="2"/>
     </row>
     <row r="519" spans="1:20">
-      <c r="A519" s="22"/>
+      <c r="A519" s="23"/>
       <c r="E519" s="1" t="s">
         <v>344</v>
       </c>
@@ -18513,7 +18615,7 @@
       <c r="R519" s="2"/>
     </row>
     <row r="520" spans="1:20">
-      <c r="A520" s="22"/>
+      <c r="A520" s="23"/>
       <c r="E520" s="1" t="s">
         <v>344</v>
       </c>
@@ -18537,7 +18639,7 @@
       </c>
     </row>
     <row r="521" spans="1:20">
-      <c r="A521" s="22"/>
+      <c r="A521" s="23"/>
       <c r="E521" s="1" t="s">
         <v>344</v>
       </c>
@@ -18561,7 +18663,7 @@
       </c>
     </row>
     <row r="522" spans="1:20">
-      <c r="A522" s="22"/>
+      <c r="A522" s="23"/>
       <c r="E522" s="1" t="s">
         <v>344</v>
       </c>
@@ -18585,7 +18687,7 @@
       <c r="Q522" s="2"/>
     </row>
     <row r="523" spans="1:20">
-      <c r="A523" s="22"/>
+      <c r="A523" s="23"/>
       <c r="E523" s="1" t="s">
         <v>344</v>
       </c>
@@ -18616,7 +18718,7 @@
       </c>
     </row>
     <row r="524" spans="1:20">
-      <c r="A524" s="22"/>
+      <c r="A524" s="23"/>
       <c r="E524" s="1" t="s">
         <v>344</v>
       </c>
@@ -18647,7 +18749,7 @@
       </c>
     </row>
     <row r="525" spans="1:20">
-      <c r="A525" s="22"/>
+      <c r="A525" s="23"/>
       <c r="E525" s="1" t="s">
         <v>344</v>
       </c>
@@ -18678,7 +18780,7 @@
       </c>
     </row>
     <row r="526" spans="1:20">
-      <c r="A526" s="22"/>
+      <c r="A526" s="23"/>
       <c r="E526" s="1" t="s">
         <v>344</v>
       </c>
@@ -18760,11 +18862,11 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -18780,12 +18882,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>1262</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>1263</v>
+        <v>1247</v>
       </c>
     </row>
   </sheetData>
@@ -18795,18 +18897,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01658F34-4982-8840-AF22-6E6480DB069B}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -18820,12 +18922,12 @@
         <v>1153</v>
       </c>
       <c r="D1" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B2" t="s">
         <v>110</v>
@@ -18840,7 +18942,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1254</v>
+        <v>1238</v>
       </c>
       <c r="B3" t="s">
         <v>112</v>
@@ -18849,13 +18951,13 @@
         <v>1157</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D34" si="0">"line along "&amp;B3&amp;" of "&amp;C3</f>
+        <f t="shared" ref="D3:D35" si="0">"line along "&amp;B3&amp;" of "&amp;C3</f>
         <v>line along anterior-posterior axis of metapodial skeleton</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>1253</v>
+        <v>1237</v>
       </c>
       <c r="B4" t="s">
         <v>108</v>
@@ -18870,13 +18972,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="B5" t="s">
         <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>1268</v>
+        <v>1252</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -18885,80 +18987,110 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="B6" t="s">
         <v>108</v>
       </c>
+      <c r="C6" t="s">
+        <v>1274</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="B7" t="s">
         <v>108</v>
       </c>
+      <c r="C7" t="s">
+        <v>1275</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="B8" t="s">
         <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>1202</v>
+        <v>1253</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>line along anterior-posterior axis of distal surface of some metacarpal bone</v>
+        <v>line along anterior-posterior axis of distal surface of some metacarpal bone of digit 2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1226</v>
+        <v>1214</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>line along anterior-posterior axis of distal surface of some metacarpal bone of digit 4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="B10" t="s">
         <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>1158</v>
+        <v>1254</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>line along anterior-posterior axis of proximal surface some metacarpal bone</v>
+        <v>line along anterior-posterior axis of proximal surface some metacarpal bone of digit 3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1216</v>
+        <v>1204</v>
       </c>
       <c r="B11" t="s">
         <v>112</v>
       </c>
+      <c r="C11" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>line along anterior-posterior axis of proximal surface some metacarpal bone of digit 2</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1216</v>
+        <v>1263</v>
       </c>
       <c r="B12" t="s">
         <v>112</v>
       </c>
+      <c r="C12" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>line along anterior-posterior axis of proximal surface some metacarpal bone of digit 4</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="B13" t="s">
         <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -18967,386 +19099,633 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1244</v>
+        <v>1228</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>line along proximal-distal axis of metacarpal bone of digit 2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1245</v>
+        <v>1229</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>line along proximal-distal axis of metacarpal bone of digit 3</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1246</v>
+        <v>1230</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>line along proximal-distal axis of metacarpal bone of digit 4</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>1211</v>
+        <v>1266</v>
       </c>
       <c r="B17" t="s">
         <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>1158</v>
+        <v>1276</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>line along medial-lateral axis of proximal surface some metacarpal bone</v>
+        <v>line along medial-lateral axis of proximal surface some metatarsal bone of digit 2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>1212</v>
+        <v>1267</v>
       </c>
       <c r="B18" t="s">
         <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>1160</v>
+        <v>1277</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" ref="D18" si="1">"line along "&amp;B18&amp;" of "&amp;C18</f>
-        <v>line along medial-lateral axis of proximal surface some metatarsal bone</v>
+        <f t="shared" si="0"/>
+        <v>line along medial-lateral axis of proximal surface some metatarsal bone of digit 4</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1213</v>
+        <v>1268</v>
       </c>
       <c r="B19" t="s">
         <v>108</v>
       </c>
+      <c r="C19" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>line along medial-lateral axis of proximal surface some metacarpal bone of digit 2</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>1214</v>
+        <v>1269</v>
       </c>
       <c r="B20" t="s">
         <v>108</v>
       </c>
+      <c r="C20" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>line along medial-lateral axis of proximal surface some metacarpal bone of digit 4</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B21" t="s">
         <v>108</v>
       </c>
+      <c r="C21" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 3</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B22" t="s">
-        <v>108</v>
+        <v>1239</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1284</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B23" t="s">
-        <v>108</v>
+        <v>1212</v>
       </c>
       <c r="C23" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>line along medial-lateral axis of distal surface some metatarsal bone</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" t="s">
         <v>1255</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>line along medial-lateral axis of proximal surface some metatarsal bone of digit 3</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>1224</v>
+        <v>1261</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>line along medial-lateral axis of anterior surface some metacarpal bone of digit 3</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>1235</v>
+        <v>1262</v>
       </c>
       <c r="B26" t="s">
         <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>1160</v>
+        <v>1287</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>line along medial-lateral axis of proximal surface some metatarsal bone</v>
+        <v>line along medial-lateral axis of anterior surface some metatarsal bone of digit 3</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>1236</v>
+        <v>1215</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>line along anterior-posterior axis of distal surface of some metatarsal bone of digit 2</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>1237</v>
+        <v>1216</v>
+      </c>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>line along anterior-posterior axis of distal surface of some metatarsal bone of digit 4</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>1227</v>
+        <v>1205</v>
       </c>
       <c r="B29" t="s">
         <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>1203</v>
+        <v>1255</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>line along anterior-posterior axis of distal surface of some metatarsal bone</v>
+        <f>"line along "&amp;B29&amp;" of "&amp;C29</f>
+        <v>line along anterior-posterior axis of proximal surface some metatarsal bone of digit 3</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>1228</v>
+        <v>1206</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D30" t="str">
+        <f>"line along "&amp;B30&amp;" of "&amp;C30</f>
+        <v>line along anterior-posterior axis of proximal surface some metatarsal bone of digit 2</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="B31" t="s">
         <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>1160</v>
+        <v>1277</v>
       </c>
       <c r="D31" t="str">
         <f>"line along "&amp;B31&amp;" of "&amp;C31</f>
-        <v>line along anterior-posterior axis of proximal surface some metatarsal bone</v>
+        <v>line along anterior-posterior axis of proximal surface some metatarsal bone of digit 4</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>1218</v>
+        <v>1201</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>line along proximal-distal axis of metatarsal bone</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>line along proximal-distal axis of metatarsal bone of digit 2</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>1209</v>
+        <v>1226</v>
       </c>
       <c r="B34" t="s">
         <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>1162</v>
+        <v>1282</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v>line along proximal-distal axis of metatarsal bone</v>
+        <v>line along proximal-distal axis of metatarsal bone of digit 3</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>1241</v>
+        <v>1227</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>line along proximal-distal axis of metatarsal bone of digit 4</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>1242</v>
+        <v>1221</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" ref="D36:D41" si="1">"line along "&amp;B36&amp;" of "&amp;C36</f>
+        <v>line along anterior-posterior axis of distal keel of metacarpal bone of digit 3</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>1243</v>
+        <v>1222</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>line along anterior-posterior axis of distal keel of metatarsal bone of digit 3</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>1233</v>
+      <c r="A38" t="s">
+        <v>1217</v>
       </c>
       <c r="B38" t="s">
         <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>1206</v>
+        <v>1288</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" ref="D38:D39" si="2">"line along "&amp;B38&amp;" of "&amp;C38</f>
-        <v>line along anterior-posterior axis of distal keel of metacarpal III</v>
+        <f t="shared" si="1"/>
+        <v>line along anterior-posterior axis of lateral condyle of metatarsal bone of digit 3</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>1234</v>
+      <c r="A39" t="s">
+        <v>1218</v>
       </c>
       <c r="B39" t="s">
         <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>1207</v>
+        <v>1290</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="2"/>
-        <v>line along anterior-posterior axis of distal keel of metatarsal III</v>
+        <f t="shared" si="1"/>
+        <v>line along anterior-posterior axis of medial condyle of metatarsal bone of digit 3</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>1229</v>
+        <v>1219</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>1208</v>
+        <v>1289</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>line along anterior-posterior axis of lateral condyle of metacarpal bone of digit 3</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>1230</v>
+        <v>1220</v>
+      </c>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>line along anterior-posterior axis of medial condyle of metacarpal bone of digit 3</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" ref="D42:D45" si="2">"line along "&amp;B42&amp;" of "&amp;C42</f>
+        <v>line along medial-lateral axis of proximal surface some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="2"/>
+        <v>line along proximal-distal axis of metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>1223</v>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="2"/>
+        <v>line along anterior-posterior axis of medial surface of some metacarpal bone of digit 2</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>1160</v>
+        <v>1293</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" ref="D45" si="3">"line along "&amp;B45&amp;" of "&amp;C45</f>
-        <v>line along medial-lateral axis of proximal surface some metatarsal bone</v>
+        <f t="shared" si="2"/>
+        <v>line along anterior-posterior axis of medial surface of some metacarpal bone of digit 4</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>1239</v>
+        <v>1234</v>
+      </c>
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" ref="D46:D48" si="3">"line along "&amp;B46&amp;" of "&amp;C46</f>
+        <v>line along proximal-distal axis of metatarsal bone of digit 3</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>1240</v>
+        <v>1235</v>
+      </c>
+      <c r="B47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="3"/>
+        <v>line along anterior-posterior axis of medial surface of some metatarsal bone of digit 2</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>1236</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="3"/>
+        <v>line along anterior-posterior axis of medial surface of some metatarsal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>1245</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>1240</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>1241</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>1244</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>1242</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>1243</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>1260</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>1264</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" ref="D56:D57" si="4">"line along "&amp;B56&amp;" of "&amp;C56</f>
+        <v>line along anterior-posterior axis of lateral surface some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="1" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
-        <v>1259</v>
+        <v>1265</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="4"/>
+        <v>line along anterior-posterior axis of lateral surface some metatarsal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>655</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="1" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
         <v>665</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19359,7 +19738,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -19368,30 +19747,30 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="B2" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1267</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1266</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1264</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1265</v>
+        <v>1249</v>
       </c>
     </row>
   </sheetData>
@@ -19403,11 +19782,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBC00A8-69BB-C944-AE92-971EEE98B192}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
@@ -19432,7 +19811,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -19461,59 +19840,59 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1168</v>
-      </c>
       <c r="E2" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="H2" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="I2" t="str">
         <f>"length and ('inheres in' some "&amp;H2&amp;")"</f>
         <v>length and ('inheres in' some line along proximal-distal axis of metapodial skeleton)</v>
       </c>
       <c r="P2" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="H3" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I9" si="0">"length and ('inheres in' some "&amp;H3&amp;")"</f>
         <v>length and ('inheres in' some line along anterior-posterior axis of metapodial skeleton)</v>
       </c>
       <c r="P3" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="H4" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some line along medial-lateral axis of metapodial skeleton)</v>
       </c>
       <c r="P4" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -19521,17 +19900,17 @@
         <v>648</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="H5" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some line along medial-lateral axis of distal surface some metacarpal bone)</v>
       </c>
       <c r="P5" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -19539,10 +19918,10 @@
         <v>649</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="P6" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -19550,17 +19929,17 @@
         <v>650</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="H7" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some line along anterior-posterior axis of proximal surface some metacarpal bone)</v>
       </c>
       <c r="P7" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -19568,17 +19947,17 @@
         <v>651</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="H8" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some line along proximal-distal axis of metacarpal bone)</v>
       </c>
       <c r="P8" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -19589,14 +19968,14 @@
         <v>652</v>
       </c>
       <c r="H9" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some line along medial-lateral axis of proximal surface some metacarpal bone)</v>
       </c>
       <c r="P9" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -19604,10 +19983,10 @@
         <v>655</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="P10" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -19615,10 +19994,10 @@
         <v>656</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="P11" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -19626,10 +20005,10 @@
         <v>657</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="P12" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -19637,10 +20016,10 @@
         <v>658</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="P13" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -19648,17 +20027,17 @@
         <v>659</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="H14" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" ref="I14:I18" si="1">"length and ('inheres in' some "&amp;H14&amp;")"</f>
         <v>length and ('inheres in' some line along medial-lateral axis of distal surface some metatarsal bone)</v>
       </c>
       <c r="P14" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -19666,17 +20045,17 @@
         <v>660</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="H15" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
         <v>length and ('inheres in' some line along medial-lateral axis of proximal surface some metatarsal bone)</v>
       </c>
       <c r="P15" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -19684,10 +20063,10 @@
         <v>661</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="P16" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -19695,17 +20074,17 @@
         <v>662</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="H17" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
         <v>length and ('inheres in' some line along anterior-posterior axis of proximal surface some metatarsal bone)</v>
       </c>
       <c r="P17" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -19713,17 +20092,17 @@
         <v>663</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="H18" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
         <v>length and ('inheres in' some line along proximal-distal axis of metatarsal bone)</v>
       </c>
       <c r="P18" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -19731,7 +20110,7 @@
         <v>664</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -19739,12 +20118,12 @@
         <v>665</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19759,7 +20138,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdebasto\Desktop\GitHub\fovt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374D8AA3-4C37-4A7D-BCB0-61D906336316}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD0C77D-F1DF-C348-B876-2C494EE28F31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17100" windowHeight="16660" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -26,21 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="1305">
   <si>
     <t>Status</t>
   </si>
@@ -4007,12 +3998,33 @@
   <si>
     <t>lateral surface some metacarpal bone of digit 3</t>
   </si>
+  <si>
+    <t>diameter and (inheres in some (proximal surface some metatarsal bone of digit 3)</t>
+  </si>
+  <si>
+    <t>length and (in</t>
+  </si>
+  <si>
+    <t>proximal facet for metatarsal IV on metatarsal III</t>
+  </si>
+  <si>
+    <t>proximal facet for metatarsal II on metatarsal III</t>
+  </si>
+  <si>
+    <t>posterior facet for metacarpal IV on metacarpal III</t>
+  </si>
+  <si>
+    <t>proximal facet for metacarpal IV on metacarpal III</t>
+  </si>
+  <si>
+    <t>proximal facet for metacarpal II on metacarpal III</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4102,12 +4114,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF032F62"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4141,7 +4147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4168,7 +4174,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4496,7 +4501,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
@@ -4533,7 +4538,7 @@
       <selection pane="bottomLeft" activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" t="s">
@@ -4601,7 +4606,7 @@
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>1042</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4649,7 +4654,7 @@
       <c r="AD2" s="2"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -4695,7 +4700,7 @@
       <c r="AD3" s="2"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -4741,7 +4746,7 @@
       <c r="AD4" s="2"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="23"/>
+      <c r="A5" s="22"/>
       <c r="E5" s="2" t="s">
         <v>344</v>
       </c>
@@ -4771,7 +4776,7 @@
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:30" s="11" customFormat="1">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
         <v>344</v>
@@ -4804,7 +4809,7 @@
       <c r="U6" s="10"/>
     </row>
     <row r="7" spans="1:30" s="11" customFormat="1">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="10" t="s">
         <v>1148</v>
       </c>
@@ -4858,7 +4863,7 @@
       <c r="AD7" s="10"/>
     </row>
     <row r="8" spans="1:30" s="11" customFormat="1">
-      <c r="A8" s="23"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
         <v>1031</v>
@@ -4910,7 +4915,7 @@
       <c r="AD8" s="10"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>1043</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4958,7 +4963,7 @@
       <c r="AD9" s="2"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -5004,7 +5009,7 @@
       <c r="AD10" s="2"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="23"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
@@ -5050,7 +5055,7 @@
       <c r="AD11" s="2"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -5096,7 +5101,7 @@
       <c r="AD12" s="2"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
@@ -5142,7 +5147,7 @@
       <c r="AD13" s="2"/>
     </row>
     <row r="14" spans="1:30" s="11" customFormat="1">
-      <c r="A14" s="23"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
         <v>1031</v>
@@ -5192,7 +5197,7 @@
       <c r="AD14" s="10"/>
     </row>
     <row r="15" spans="1:30" s="11" customFormat="1">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
         <v>1031</v>
@@ -5240,7 +5245,7 @@
       <c r="AD15" s="10"/>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -5286,7 +5291,7 @@
       <c r="AD16" s="2"/>
     </row>
     <row r="17" spans="1:30" s="11" customFormat="1">
-      <c r="A17" s="23"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
         <v>1031</v>
@@ -5338,7 +5343,7 @@
       <c r="AD17" s="10"/>
     </row>
     <row r="18" spans="1:30" s="11" customFormat="1">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="C18" s="10" t="s">
         <v>1031</v>
       </c>
@@ -5350,7 +5355,7 @@
       </c>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
       <c r="E19" s="1" t="s">
         <v>344</v>
       </c>
@@ -5378,7 +5383,7 @@
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="23"/>
+      <c r="A20" s="22"/>
       <c r="E20" s="1" t="s">
         <v>344</v>
       </c>
@@ -5406,7 +5411,7 @@
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="E21" s="1" t="s">
         <v>344</v>
       </c>
@@ -5434,7 +5439,7 @@
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="23"/>
+      <c r="A22" s="22"/>
       <c r="E22" s="1" t="s">
         <v>344</v>
       </c>
@@ -5459,7 +5464,7 @@
       <c r="S22" s="2"/>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
       <c r="E23" s="1" t="s">
         <v>344</v>
       </c>
@@ -5484,7 +5489,7 @@
       <c r="S23" s="2"/>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>1044</v>
       </c>
       <c r="E24" s="2"/>
@@ -5507,7 +5512,7 @@
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="7" t="s">
@@ -5528,7 +5533,7 @@
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="7" t="s">
@@ -5549,7 +5554,7 @@
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="23"/>
+      <c r="A27" s="22"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="7" t="s">
@@ -5570,7 +5575,7 @@
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="7" t="s">
@@ -5591,7 +5596,7 @@
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="23"/>
+      <c r="A29" s="22"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="7" t="s">
@@ -5612,7 +5617,7 @@
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="1:30">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
@@ -5658,7 +5663,7 @@
       <c r="AD30" s="2"/>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="23"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
@@ -5704,7 +5709,7 @@
       <c r="AD31" s="2"/>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32" s="23"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
@@ -5750,7 +5755,7 @@
       <c r="AD32" s="2"/>
     </row>
     <row r="33" spans="1:30">
-      <c r="A33" s="23"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="1" t="s">
         <v>14</v>
       </c>
@@ -5798,7 +5803,7 @@
       <c r="AD33" s="2"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="23"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
@@ -5846,7 +5851,7 @@
       <c r="AD34" s="2"/>
     </row>
     <row r="35" spans="1:30" s="11" customFormat="1">
-      <c r="A35" s="23"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10" t="s">
         <v>1031</v>
@@ -5898,7 +5903,7 @@
       <c r="AD35" s="10"/>
     </row>
     <row r="36" spans="1:30" s="11" customFormat="1">
-      <c r="A36" s="23"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
         <v>1031</v>
@@ -5950,7 +5955,7 @@
       <c r="AD36" s="10"/>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="23"/>
+      <c r="A37" s="22"/>
       <c r="E37" s="1" t="s">
         <v>15</v>
       </c>
@@ -5976,7 +5981,7 @@
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="1:30">
-      <c r="A38" s="23"/>
+      <c r="A38" s="22"/>
       <c r="E38" s="1" t="s">
         <v>344</v>
       </c>
@@ -6001,7 +6006,7 @@
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="1:30">
-      <c r="A39" s="23"/>
+      <c r="A39" s="22"/>
       <c r="E39" s="1" t="s">
         <v>344</v>
       </c>
@@ -6026,7 +6031,7 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="1:30">
-      <c r="A40" s="23"/>
+      <c r="A40" s="22"/>
       <c r="E40" s="1" t="s">
         <v>344</v>
       </c>
@@ -6051,7 +6056,7 @@
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="1:30">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="E41" s="1" t="s">
         <v>344</v>
       </c>
@@ -6076,7 +6081,7 @@
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="1:30">
-      <c r="A42" s="23"/>
+      <c r="A42" s="22"/>
       <c r="E42" s="1" t="s">
         <v>344</v>
       </c>
@@ -6100,7 +6105,7 @@
       <c r="S42" s="2"/>
     </row>
     <row r="43" spans="1:30" s="11" customFormat="1">
-      <c r="A43" s="23"/>
+      <c r="A43" s="22"/>
       <c r="C43" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6131,7 +6136,7 @@
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:30" s="11" customFormat="1">
-      <c r="A44" s="23"/>
+      <c r="A44" s="22"/>
       <c r="C44" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6164,7 +6169,7 @@
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:30" s="11" customFormat="1">
-      <c r="A45" s="23"/>
+      <c r="A45" s="22"/>
       <c r="C45" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6197,7 +6202,7 @@
       <c r="U45" s="10"/>
     </row>
     <row r="46" spans="1:30" s="11" customFormat="1">
-      <c r="A46" s="23"/>
+      <c r="A46" s="22"/>
       <c r="C46" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6228,7 +6233,7 @@
       <c r="U46" s="10"/>
     </row>
     <row r="47" spans="1:30" s="11" customFormat="1">
-      <c r="A47" s="23"/>
+      <c r="A47" s="22"/>
       <c r="C47" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6261,7 +6266,7 @@
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:30" s="11" customFormat="1">
-      <c r="A48" s="23"/>
+      <c r="A48" s="22"/>
       <c r="C48" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6292,7 +6297,7 @@
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:30" s="11" customFormat="1">
-      <c r="A49" s="23"/>
+      <c r="A49" s="22"/>
       <c r="C49" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6323,7 +6328,7 @@
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:30" s="11" customFormat="1">
-      <c r="A50" s="23"/>
+      <c r="A50" s="22"/>
       <c r="C50" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6356,7 +6361,7 @@
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:30" s="11" customFormat="1">
-      <c r="A51" s="23"/>
+      <c r="A51" s="22"/>
       <c r="C51" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6389,7 +6394,7 @@
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:30" s="11" customFormat="1">
-      <c r="A52" s="23"/>
+      <c r="A52" s="22"/>
       <c r="C52" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6422,7 +6427,7 @@
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:30">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="22" t="s">
         <v>1045</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -6470,7 +6475,7 @@
       <c r="AD53" s="2"/>
     </row>
     <row r="54" spans="1:30">
-      <c r="A54" s="23"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="1" t="s">
         <v>14</v>
       </c>
@@ -6516,7 +6521,7 @@
       <c r="AD54" s="2"/>
     </row>
     <row r="55" spans="1:30">
-      <c r="A55" s="23"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="1" t="s">
         <v>14</v>
       </c>
@@ -6562,7 +6567,7 @@
       <c r="AD55" s="2"/>
     </row>
     <row r="56" spans="1:30">
-      <c r="A56" s="23"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="1" t="s">
         <v>14</v>
       </c>
@@ -6610,7 +6615,7 @@
       <c r="AD56" s="2"/>
     </row>
     <row r="57" spans="1:30">
-      <c r="A57" s="23"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="1" t="s">
         <v>14</v>
       </c>
@@ -6658,7 +6663,7 @@
       <c r="AD57" s="2"/>
     </row>
     <row r="58" spans="1:30" s="11" customFormat="1">
-      <c r="A58" s="23"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
         <v>1031</v>
@@ -6710,7 +6715,7 @@
       <c r="AD58" s="10"/>
     </row>
     <row r="59" spans="1:30" s="11" customFormat="1">
-      <c r="A59" s="23"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10" t="s">
         <v>1031</v>
@@ -6762,7 +6767,7 @@
       <c r="AD59" s="10"/>
     </row>
     <row r="60" spans="1:30" s="11" customFormat="1">
-      <c r="A60" s="23"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -6785,7 +6790,7 @@
       <c r="U60" s="10"/>
     </row>
     <row r="61" spans="1:30">
-      <c r="A61" s="23"/>
+      <c r="A61" s="22"/>
       <c r="E61" s="1" t="s">
         <v>15</v>
       </c>
@@ -6808,7 +6813,7 @@
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="1:30">
-      <c r="A62" s="23"/>
+      <c r="A62" s="22"/>
       <c r="E62" s="1" t="s">
         <v>344</v>
       </c>
@@ -6832,7 +6837,7 @@
       <c r="S62" s="2"/>
     </row>
     <row r="63" spans="1:30">
-      <c r="A63" s="23"/>
+      <c r="A63" s="22"/>
       <c r="E63" s="1" t="s">
         <v>344</v>
       </c>
@@ -6856,7 +6861,7 @@
       <c r="S63" s="2"/>
     </row>
     <row r="64" spans="1:30">
-      <c r="A64" s="23"/>
+      <c r="A64" s="22"/>
       <c r="E64" s="1" t="s">
         <v>344</v>
       </c>
@@ -6880,7 +6885,7 @@
       <c r="S64" s="2"/>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="23"/>
+      <c r="A65" s="22"/>
       <c r="E65" s="1" t="s">
         <v>344</v>
       </c>
@@ -6904,7 +6909,7 @@
       <c r="S65" s="2"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="23"/>
+      <c r="A66" s="22"/>
       <c r="E66" s="1" t="s">
         <v>344</v>
       </c>
@@ -6928,7 +6933,7 @@
       <c r="S66" s="2"/>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="23"/>
+      <c r="A67" s="22"/>
       <c r="E67" s="1" t="s">
         <v>344</v>
       </c>
@@ -6952,7 +6957,7 @@
       <c r="S67" s="2"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="23"/>
+      <c r="A68" s="22"/>
       <c r="E68" s="1" t="s">
         <v>344</v>
       </c>
@@ -6975,7 +6980,7 @@
       <c r="R68" s="2"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="23"/>
+      <c r="A69" s="22"/>
       <c r="E69" s="1" t="s">
         <v>344</v>
       </c>
@@ -6999,7 +7004,7 @@
       <c r="S69" s="2"/>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="23"/>
+      <c r="A70" s="22"/>
       <c r="E70" s="1" t="s">
         <v>15</v>
       </c>
@@ -7025,7 +7030,7 @@
       <c r="P70" s="2"/>
     </row>
     <row r="71" spans="1:21" s="11" customFormat="1">
-      <c r="A71" s="23"/>
+      <c r="A71" s="22"/>
       <c r="C71" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7056,7 +7061,7 @@
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="1:21" s="11" customFormat="1">
-      <c r="A72" s="23"/>
+      <c r="A72" s="22"/>
       <c r="C72" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7089,7 +7094,7 @@
       <c r="U72" s="10"/>
     </row>
     <row r="73" spans="1:21" s="11" customFormat="1">
-      <c r="A73" s="23"/>
+      <c r="A73" s="22"/>
       <c r="C73" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7122,7 +7127,7 @@
       <c r="U73" s="10"/>
     </row>
     <row r="74" spans="1:21" s="11" customFormat="1">
-      <c r="A74" s="23"/>
+      <c r="A74" s="22"/>
       <c r="C74" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7155,7 +7160,7 @@
       <c r="U74" s="10"/>
     </row>
     <row r="75" spans="1:21" s="11" customFormat="1">
-      <c r="A75" s="23"/>
+      <c r="A75" s="22"/>
       <c r="C75" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7188,7 +7193,7 @@
       <c r="U75" s="10"/>
     </row>
     <row r="76" spans="1:21" s="11" customFormat="1">
-      <c r="A76" s="23"/>
+      <c r="A76" s="22"/>
       <c r="C76" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7221,7 +7226,7 @@
       <c r="U76" s="10"/>
     </row>
     <row r="77" spans="1:21" s="11" customFormat="1">
-      <c r="A77" s="23"/>
+      <c r="A77" s="22"/>
       <c r="C77" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7252,7 +7257,7 @@
       <c r="U77" s="10"/>
     </row>
     <row r="78" spans="1:21" s="11" customFormat="1">
-      <c r="A78" s="23"/>
+      <c r="A78" s="22"/>
       <c r="C78" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7285,7 +7290,7 @@
       <c r="U78" s="10"/>
     </row>
     <row r="79" spans="1:21" s="11" customFormat="1">
-      <c r="A79" s="23"/>
+      <c r="A79" s="22"/>
       <c r="C79" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7314,7 +7319,7 @@
       <c r="U79" s="10"/>
     </row>
     <row r="80" spans="1:21" s="16" customFormat="1">
-      <c r="A80" s="23"/>
+      <c r="A80" s="22"/>
       <c r="B80" s="18"/>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
@@ -7337,7 +7342,7 @@
       <c r="U80" s="17"/>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="23"/>
+      <c r="A81" s="22"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="7" t="s">
@@ -7358,7 +7363,7 @@
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="23"/>
+      <c r="A82" s="22"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="7" t="s">
@@ -7379,7 +7384,7 @@
       <c r="U82" s="2"/>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="23"/>
+      <c r="A83" s="22"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="7" t="s">
@@ -7400,7 +7405,7 @@
       <c r="U83" s="2"/>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="23"/>
+      <c r="A84" s="22"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="7" t="s">
@@ -7421,7 +7426,7 @@
       <c r="U84" s="2"/>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="23"/>
+      <c r="A85" s="22"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="7" t="s">
@@ -7442,7 +7447,7 @@
       <c r="U85" s="2"/>
     </row>
     <row r="86" spans="1:21">
-      <c r="A86" s="24" t="s">
+      <c r="A86" s="23" t="s">
         <v>1046</v>
       </c>
       <c r="E86" s="3" t="s">
@@ -7476,7 +7481,7 @@
       <c r="U86" s="2"/>
     </row>
     <row r="87" spans="1:21">
-      <c r="A87" s="24"/>
+      <c r="A87" s="23"/>
       <c r="E87" s="3" t="s">
         <v>15</v>
       </c>
@@ -7508,7 +7513,7 @@
       <c r="U87" s="2"/>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="24"/>
+      <c r="A88" s="23"/>
       <c r="E88" s="3" t="s">
         <v>15</v>
       </c>
@@ -7540,7 +7545,7 @@
       <c r="U88" s="2"/>
     </row>
     <row r="89" spans="1:21" s="11" customFormat="1">
-      <c r="A89" s="24"/>
+      <c r="A89" s="23"/>
       <c r="C89" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7579,7 +7584,7 @@
       <c r="U89" s="10"/>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="24"/>
+      <c r="A90" s="23"/>
       <c r="E90" s="3" t="s">
         <v>15</v>
       </c>
@@ -7611,7 +7616,7 @@
       <c r="U90" s="2"/>
     </row>
     <row r="91" spans="1:21" s="11" customFormat="1">
-      <c r="A91" s="24"/>
+      <c r="A91" s="23"/>
       <c r="C91" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7652,7 +7657,7 @@
       <c r="U91" s="10"/>
     </row>
     <row r="92" spans="1:21">
-      <c r="A92" s="24"/>
+      <c r="A92" s="23"/>
       <c r="E92" s="3" t="s">
         <v>15</v>
       </c>
@@ -7684,7 +7689,7 @@
       <c r="U92" s="2"/>
     </row>
     <row r="93" spans="1:21" s="11" customFormat="1">
-      <c r="A93" s="24"/>
+      <c r="A93" s="23"/>
       <c r="C93" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7727,7 +7732,7 @@
       <c r="U93" s="10"/>
     </row>
     <row r="94" spans="1:21">
-      <c r="A94" s="24"/>
+      <c r="A94" s="23"/>
       <c r="E94" s="3" t="s">
         <v>15</v>
       </c>
@@ -7759,7 +7764,7 @@
       <c r="U94" s="2"/>
     </row>
     <row r="95" spans="1:21" s="11" customFormat="1">
-      <c r="A95" s="24"/>
+      <c r="A95" s="23"/>
       <c r="C95" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7798,7 +7803,7 @@
       <c r="U95" s="10"/>
     </row>
     <row r="96" spans="1:21">
-      <c r="A96" s="24"/>
+      <c r="A96" s="23"/>
       <c r="E96" s="3" t="s">
         <v>15</v>
       </c>
@@ -7830,7 +7835,7 @@
       <c r="U96" s="2"/>
     </row>
     <row r="97" spans="1:21" s="11" customFormat="1">
-      <c r="A97" s="24"/>
+      <c r="A97" s="23"/>
       <c r="C97" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7869,7 +7874,7 @@
       <c r="U97" s="10"/>
     </row>
     <row r="98" spans="1:21">
-      <c r="A98" s="24"/>
+      <c r="A98" s="23"/>
       <c r="E98" s="3" t="s">
         <v>15</v>
       </c>
@@ -7901,7 +7906,7 @@
       <c r="U98" s="2"/>
     </row>
     <row r="99" spans="1:21">
-      <c r="A99" s="24"/>
+      <c r="A99" s="23"/>
       <c r="E99" s="3" t="s">
         <v>15</v>
       </c>
@@ -7933,7 +7938,7 @@
       <c r="U99" s="2"/>
     </row>
     <row r="100" spans="1:21">
-      <c r="A100" s="24"/>
+      <c r="A100" s="23"/>
       <c r="E100" s="3" t="s">
         <v>15</v>
       </c>
@@ -7965,7 +7970,7 @@
       <c r="U100" s="2"/>
     </row>
     <row r="101" spans="1:21" s="11" customFormat="1">
-      <c r="A101" s="24"/>
+      <c r="A101" s="23"/>
       <c r="C101" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8004,7 +8009,7 @@
       <c r="U101" s="10"/>
     </row>
     <row r="102" spans="1:21">
-      <c r="A102" s="24"/>
+      <c r="A102" s="23"/>
       <c r="E102" s="3" t="s">
         <v>15</v>
       </c>
@@ -8036,7 +8041,7 @@
       <c r="U102" s="2"/>
     </row>
     <row r="103" spans="1:21" s="11" customFormat="1">
-      <c r="A103" s="24"/>
+      <c r="A103" s="23"/>
       <c r="C103" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8077,7 +8082,7 @@
       <c r="U103" s="10"/>
     </row>
     <row r="104" spans="1:21">
-      <c r="A104" s="24"/>
+      <c r="A104" s="23"/>
       <c r="E104" s="3" t="s">
         <v>15</v>
       </c>
@@ -8109,7 +8114,7 @@
       <c r="U104" s="2"/>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="24"/>
+      <c r="A105" s="23"/>
       <c r="E105" s="3" t="s">
         <v>15</v>
       </c>
@@ -8141,7 +8146,7 @@
       <c r="U105" s="2"/>
     </row>
     <row r="106" spans="1:21" s="11" customFormat="1">
-      <c r="A106" s="24"/>
+      <c r="A106" s="23"/>
       <c r="C106" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8182,7 +8187,7 @@
       <c r="U106" s="10"/>
     </row>
     <row r="107" spans="1:21">
-      <c r="A107" s="24"/>
+      <c r="A107" s="23"/>
       <c r="E107" s="3" t="s">
         <v>15</v>
       </c>
@@ -8214,7 +8219,7 @@
       <c r="U107" s="2"/>
     </row>
     <row r="108" spans="1:21" s="11" customFormat="1">
-      <c r="A108" s="24"/>
+      <c r="A108" s="23"/>
       <c r="C108" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8253,7 +8258,7 @@
       <c r="U108" s="10"/>
     </row>
     <row r="109" spans="1:21">
-      <c r="A109" s="24"/>
+      <c r="A109" s="23"/>
       <c r="E109" s="3" t="s">
         <v>15</v>
       </c>
@@ -8285,7 +8290,7 @@
       <c r="U109" s="2"/>
     </row>
     <row r="110" spans="1:21">
-      <c r="A110" s="24"/>
+      <c r="A110" s="23"/>
       <c r="E110" s="3" t="s">
         <v>15</v>
       </c>
@@ -8315,7 +8320,7 @@
       <c r="U110" s="2"/>
     </row>
     <row r="111" spans="1:21" s="11" customFormat="1">
-      <c r="A111" s="24"/>
+      <c r="A111" s="23"/>
       <c r="C111" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8356,7 +8361,7 @@
       <c r="U111" s="10"/>
     </row>
     <row r="112" spans="1:21">
-      <c r="A112" s="24"/>
+      <c r="A112" s="23"/>
       <c r="E112" s="3" t="s">
         <v>15</v>
       </c>
@@ -8386,7 +8391,7 @@
       <c r="U112" s="2"/>
     </row>
     <row r="113" spans="1:21">
-      <c r="A113" s="24"/>
+      <c r="A113" s="23"/>
       <c r="E113" s="3" t="s">
         <v>15</v>
       </c>
@@ -8416,7 +8421,7 @@
       <c r="U113" s="2"/>
     </row>
     <row r="114" spans="1:21" s="11" customFormat="1">
-      <c r="A114" s="24"/>
+      <c r="A114" s="23"/>
       <c r="C114" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8457,7 +8462,7 @@
       <c r="U114" s="10"/>
     </row>
     <row r="115" spans="1:21">
-      <c r="A115" s="24"/>
+      <c r="A115" s="23"/>
       <c r="E115" s="3" t="s">
         <v>15</v>
       </c>
@@ -8489,7 +8494,7 @@
       <c r="U115" s="2"/>
     </row>
     <row r="116" spans="1:21" s="11" customFormat="1">
-      <c r="A116" s="24"/>
+      <c r="A116" s="23"/>
       <c r="C116" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8528,7 +8533,7 @@
       <c r="U116" s="10"/>
     </row>
     <row r="117" spans="1:21">
-      <c r="A117" s="23" t="s">
+      <c r="A117" s="22" t="s">
         <v>1048</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -8554,7 +8559,7 @@
       <c r="S117" s="2"/>
     </row>
     <row r="118" spans="1:21">
-      <c r="A118" s="23"/>
+      <c r="A118" s="22"/>
       <c r="E118" s="1" t="s">
         <v>344</v>
       </c>
@@ -8578,7 +8583,7 @@
       <c r="S118" s="2"/>
     </row>
     <row r="119" spans="1:21">
-      <c r="A119" s="23"/>
+      <c r="A119" s="22"/>
       <c r="E119" s="1" t="s">
         <v>344</v>
       </c>
@@ -8602,7 +8607,7 @@
       <c r="S119" s="2"/>
     </row>
     <row r="120" spans="1:21">
-      <c r="A120" s="23"/>
+      <c r="A120" s="22"/>
       <c r="E120" s="1" t="s">
         <v>344</v>
       </c>
@@ -8626,7 +8631,7 @@
       <c r="S120" s="2"/>
     </row>
     <row r="121" spans="1:21">
-      <c r="A121" s="23"/>
+      <c r="A121" s="22"/>
       <c r="E121" s="1" t="s">
         <v>344</v>
       </c>
@@ -8650,7 +8655,7 @@
       <c r="S121" s="2"/>
     </row>
     <row r="122" spans="1:21" s="11" customFormat="1">
-      <c r="A122" s="23"/>
+      <c r="A122" s="22"/>
       <c r="C122" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8675,7 +8680,7 @@
       <c r="U122" s="10"/>
     </row>
     <row r="123" spans="1:21" s="11" customFormat="1">
-      <c r="A123" s="23"/>
+      <c r="A123" s="22"/>
       <c r="C123" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8700,7 +8705,7 @@
       <c r="U123" s="10"/>
     </row>
     <row r="124" spans="1:21" s="11" customFormat="1">
-      <c r="A124" s="23"/>
+      <c r="A124" s="22"/>
       <c r="C124" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8725,7 +8730,7 @@
       <c r="U124" s="10"/>
     </row>
     <row r="125" spans="1:21" s="11" customFormat="1">
-      <c r="A125" s="23"/>
+      <c r="A125" s="22"/>
       <c r="C125" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8750,7 +8755,7 @@
       <c r="U125" s="10"/>
     </row>
     <row r="126" spans="1:21" s="11" customFormat="1">
-      <c r="A126" s="23"/>
+      <c r="A126" s="22"/>
       <c r="C126" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8779,7 +8784,7 @@
       <c r="U126" s="10"/>
     </row>
     <row r="127" spans="1:21">
-      <c r="A127" s="23" t="s">
+      <c r="A127" s="22" t="s">
         <v>1047</v>
       </c>
       <c r="C127" s="19" t="s">
@@ -8793,7 +8798,7 @@
       </c>
     </row>
     <row r="128" spans="1:21">
-      <c r="A128" s="23"/>
+      <c r="A128" s="22"/>
       <c r="E128" s="1" t="s">
         <v>15</v>
       </c>
@@ -8819,7 +8824,7 @@
       <c r="P128" s="2"/>
     </row>
     <row r="129" spans="1:21">
-      <c r="A129" s="23"/>
+      <c r="A129" s="22"/>
       <c r="E129" s="1" t="s">
         <v>15</v>
       </c>
@@ -8845,7 +8850,7 @@
       <c r="P129" s="2"/>
     </row>
     <row r="130" spans="1:21">
-      <c r="A130" s="23"/>
+      <c r="A130" s="22"/>
       <c r="E130" s="1" t="s">
         <v>15</v>
       </c>
@@ -8868,7 +8873,7 @@
       <c r="O130" s="2"/>
     </row>
     <row r="131" spans="1:21">
-      <c r="A131" s="23"/>
+      <c r="A131" s="22"/>
       <c r="E131" s="1" t="s">
         <v>15</v>
       </c>
@@ -8893,8 +8898,8 @@
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="1:21" s="11" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A132" s="23"/>
+    <row r="132" spans="1:21" s="11" customFormat="1" ht="17" customHeight="1">
+      <c r="A132" s="22"/>
       <c r="C132" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8927,7 +8932,7 @@
       <c r="U132" s="10"/>
     </row>
     <row r="133" spans="1:21" s="11" customFormat="1">
-      <c r="A133" s="23"/>
+      <c r="A133" s="22"/>
       <c r="C133" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8960,7 +8965,7 @@
       <c r="U133" s="10"/>
     </row>
     <row r="134" spans="1:21" s="11" customFormat="1">
-      <c r="A134" s="23"/>
+      <c r="A134" s="22"/>
       <c r="C134" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8995,7 +9000,7 @@
       <c r="U134" s="10"/>
     </row>
     <row r="135" spans="1:21">
-      <c r="A135" s="23"/>
+      <c r="A135" s="22"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="3"/>
@@ -9019,7 +9024,7 @@
       <c r="U135" s="2"/>
     </row>
     <row r="136" spans="1:21" s="11" customFormat="1">
-      <c r="A136" s="23"/>
+      <c r="A136" s="22"/>
       <c r="C136" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9052,7 +9057,7 @@
       <c r="U136" s="10"/>
     </row>
     <row r="137" spans="1:21" s="11" customFormat="1">
-      <c r="A137" s="23"/>
+      <c r="A137" s="22"/>
       <c r="C137" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9087,7 +9092,7 @@
       <c r="U137" s="10"/>
     </row>
     <row r="138" spans="1:21" s="11" customFormat="1">
-      <c r="A138" s="23"/>
+      <c r="A138" s="22"/>
       <c r="C138" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9120,7 +9125,7 @@
       <c r="U138" s="10"/>
     </row>
     <row r="139" spans="1:21" s="11" customFormat="1">
-      <c r="A139" s="23"/>
+      <c r="A139" s="22"/>
       <c r="C139" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9151,7 +9156,7 @@
       <c r="U139" s="10"/>
     </row>
     <row r="140" spans="1:21" s="11" customFormat="1">
-      <c r="A140" s="23"/>
+      <c r="A140" s="22"/>
       <c r="C140" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9184,7 +9189,7 @@
       <c r="U140" s="10"/>
     </row>
     <row r="141" spans="1:21" s="11" customFormat="1">
-      <c r="A141" s="23"/>
+      <c r="A141" s="22"/>
       <c r="C141" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9215,7 +9220,7 @@
       <c r="U141" s="10"/>
     </row>
     <row r="142" spans="1:21" s="11" customFormat="1">
-      <c r="A142" s="23"/>
+      <c r="A142" s="22"/>
       <c r="C142" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9246,7 +9251,7 @@
       <c r="U142" s="10"/>
     </row>
     <row r="143" spans="1:21">
-      <c r="A143" s="23"/>
+      <c r="A143" s="22"/>
       <c r="E143" s="1" t="s">
         <v>15</v>
       </c>
@@ -9272,7 +9277,7 @@
       <c r="P143" s="2"/>
     </row>
     <row r="144" spans="1:21">
-      <c r="A144" s="23"/>
+      <c r="A144" s="22"/>
       <c r="E144" s="1" t="s">
         <v>344</v>
       </c>
@@ -9295,7 +9300,7 @@
       <c r="S144" s="2"/>
     </row>
     <row r="145" spans="1:21">
-      <c r="A145" s="23"/>
+      <c r="A145" s="22"/>
       <c r="E145" s="1" t="s">
         <v>344</v>
       </c>
@@ -9319,7 +9324,7 @@
       <c r="T145" s="2"/>
     </row>
     <row r="146" spans="1:21">
-      <c r="A146" s="23"/>
+      <c r="A146" s="22"/>
       <c r="E146" s="1" t="s">
         <v>15</v>
       </c>
@@ -9345,7 +9350,7 @@
       <c r="P146" s="2"/>
     </row>
     <row r="147" spans="1:21">
-      <c r="A147" s="23"/>
+      <c r="A147" s="22"/>
       <c r="E147" s="1" t="s">
         <v>344</v>
       </c>
@@ -9369,7 +9374,7 @@
       <c r="T147" s="2"/>
     </row>
     <row r="148" spans="1:21">
-      <c r="A148" s="23"/>
+      <c r="A148" s="22"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="1" t="s">
@@ -9390,7 +9395,7 @@
       <c r="U148" s="2"/>
     </row>
     <row r="149" spans="1:21">
-      <c r="A149" s="23"/>
+      <c r="A149" s="22"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="1" t="s">
@@ -9411,7 +9416,7 @@
       <c r="U149" s="2"/>
     </row>
     <row r="150" spans="1:21">
-      <c r="A150" s="23" t="s">
+      <c r="A150" s="22" t="s">
         <v>1049</v>
       </c>
       <c r="E150" s="1" t="s">
@@ -9436,7 +9441,7 @@
       <c r="S150" s="2"/>
     </row>
     <row r="151" spans="1:21">
-      <c r="A151" s="23"/>
+      <c r="A151" s="22"/>
       <c r="E151" s="1" t="s">
         <v>344</v>
       </c>
@@ -9459,7 +9464,7 @@
       <c r="S151" s="2"/>
     </row>
     <row r="152" spans="1:21">
-      <c r="A152" s="23"/>
+      <c r="A152" s="22"/>
       <c r="E152" s="1" t="s">
         <v>344</v>
       </c>
@@ -9482,7 +9487,7 @@
       <c r="S152" s="2"/>
     </row>
     <row r="153" spans="1:21">
-      <c r="A153" s="23"/>
+      <c r="A153" s="22"/>
       <c r="E153" s="1" t="s">
         <v>344</v>
       </c>
@@ -9505,7 +9510,7 @@
       <c r="S153" s="2"/>
     </row>
     <row r="154" spans="1:21">
-      <c r="A154" s="23"/>
+      <c r="A154" s="22"/>
       <c r="E154" s="1" t="s">
         <v>15</v>
       </c>
@@ -9531,7 +9536,7 @@
       <c r="P154" s="2"/>
     </row>
     <row r="155" spans="1:21">
-      <c r="A155" s="23"/>
+      <c r="A155" s="22"/>
       <c r="E155" s="1" t="s">
         <v>344</v>
       </c>
@@ -9554,7 +9559,7 @@
       <c r="S155" s="2"/>
     </row>
     <row r="156" spans="1:21">
-      <c r="A156" s="23"/>
+      <c r="A156" s="22"/>
       <c r="E156" s="1" t="s">
         <v>344</v>
       </c>
@@ -9576,7 +9581,7 @@
       <c r="R156" s="2"/>
     </row>
     <row r="157" spans="1:21">
-      <c r="A157" s="23"/>
+      <c r="A157" s="22"/>
       <c r="E157" s="1" t="s">
         <v>344</v>
       </c>
@@ -9598,7 +9603,7 @@
       <c r="R157" s="2"/>
     </row>
     <row r="158" spans="1:21">
-      <c r="A158" s="23"/>
+      <c r="A158" s="22"/>
       <c r="E158" s="1" t="s">
         <v>344</v>
       </c>
@@ -9621,7 +9626,7 @@
       <c r="S158" s="2"/>
     </row>
     <row r="159" spans="1:21">
-      <c r="A159" s="23"/>
+      <c r="A159" s="22"/>
       <c r="E159" s="1" t="s">
         <v>344</v>
       </c>
@@ -9644,7 +9649,7 @@
       <c r="S159" s="2"/>
     </row>
     <row r="160" spans="1:21">
-      <c r="A160" s="23"/>
+      <c r="A160" s="22"/>
       <c r="E160" s="1" t="s">
         <v>344</v>
       </c>
@@ -9667,7 +9672,7 @@
       <c r="S160" s="2"/>
     </row>
     <row r="161" spans="1:20">
-      <c r="A161" s="23"/>
+      <c r="A161" s="22"/>
       <c r="E161" s="1" t="s">
         <v>344</v>
       </c>
@@ -9690,7 +9695,7 @@
       <c r="S161" s="2"/>
     </row>
     <row r="162" spans="1:20">
-      <c r="A162" s="23"/>
+      <c r="A162" s="22"/>
       <c r="E162" s="1" t="s">
         <v>344</v>
       </c>
@@ -9713,7 +9718,7 @@
       <c r="S162" s="2"/>
     </row>
     <row r="163" spans="1:20">
-      <c r="A163" s="23"/>
+      <c r="A163" s="22"/>
       <c r="E163" s="1" t="s">
         <v>344</v>
       </c>
@@ -9736,7 +9741,7 @@
       <c r="S163" s="2"/>
     </row>
     <row r="164" spans="1:20">
-      <c r="A164" s="23"/>
+      <c r="A164" s="22"/>
       <c r="E164" s="1" t="s">
         <v>344</v>
       </c>
@@ -9758,7 +9763,7 @@
       <c r="R164" s="2"/>
     </row>
     <row r="165" spans="1:20">
-      <c r="A165" s="23"/>
+      <c r="A165" s="22"/>
       <c r="E165" s="1" t="s">
         <v>344</v>
       </c>
@@ -9780,7 +9785,7 @@
       <c r="R165" s="2"/>
     </row>
     <row r="166" spans="1:20">
-      <c r="A166" s="23"/>
+      <c r="A166" s="22"/>
       <c r="E166" s="1" t="s">
         <v>344</v>
       </c>
@@ -9803,7 +9808,7 @@
       <c r="S166" s="2"/>
     </row>
     <row r="167" spans="1:20">
-      <c r="A167" s="23"/>
+      <c r="A167" s="22"/>
       <c r="E167" s="1" t="s">
         <v>344</v>
       </c>
@@ -9826,7 +9831,7 @@
       <c r="S167" s="2"/>
     </row>
     <row r="168" spans="1:20">
-      <c r="A168" s="23"/>
+      <c r="A168" s="22"/>
       <c r="E168" s="1" t="s">
         <v>344</v>
       </c>
@@ -9849,7 +9854,7 @@
       <c r="S168" s="2"/>
     </row>
     <row r="169" spans="1:20">
-      <c r="A169" s="23"/>
+      <c r="A169" s="22"/>
       <c r="E169" s="1" t="s">
         <v>344</v>
       </c>
@@ -9872,7 +9877,7 @@
       <c r="S169" s="2"/>
     </row>
     <row r="170" spans="1:20">
-      <c r="A170" s="23"/>
+      <c r="A170" s="22"/>
       <c r="E170" s="1" t="s">
         <v>344</v>
       </c>
@@ -9896,7 +9901,7 @@
       <c r="T170" s="2"/>
     </row>
     <row r="171" spans="1:20">
-      <c r="A171" s="23"/>
+      <c r="A171" s="22"/>
       <c r="E171" s="1" t="s">
         <v>344</v>
       </c>
@@ -9918,7 +9923,7 @@
       <c r="R171" s="2"/>
     </row>
     <row r="172" spans="1:20">
-      <c r="A172" s="23"/>
+      <c r="A172" s="22"/>
       <c r="E172" s="1" t="s">
         <v>344</v>
       </c>
@@ -9940,7 +9945,7 @@
       <c r="R172" s="2"/>
     </row>
     <row r="173" spans="1:20">
-      <c r="A173" s="23"/>
+      <c r="A173" s="22"/>
       <c r="E173" s="1" t="s">
         <v>344</v>
       </c>
@@ -9963,7 +9968,7 @@
       <c r="S173" s="2"/>
     </row>
     <row r="174" spans="1:20">
-      <c r="A174" s="23"/>
+      <c r="A174" s="22"/>
       <c r="E174" s="1" t="s">
         <v>344</v>
       </c>
@@ -9986,7 +9991,7 @@
       <c r="S174" s="2"/>
     </row>
     <row r="175" spans="1:20">
-      <c r="A175" s="23"/>
+      <c r="A175" s="22"/>
       <c r="E175" s="1" t="s">
         <v>344</v>
       </c>
@@ -10009,7 +10014,7 @@
       <c r="S175" s="2"/>
     </row>
     <row r="176" spans="1:20">
-      <c r="A176" s="23"/>
+      <c r="A176" s="22"/>
       <c r="E176" s="1" t="s">
         <v>344</v>
       </c>
@@ -10032,7 +10037,7 @@
       <c r="S176" s="2"/>
     </row>
     <row r="177" spans="1:30">
-      <c r="A177" s="23"/>
+      <c r="A177" s="22"/>
       <c r="E177" s="1" t="s">
         <v>344</v>
       </c>
@@ -10056,7 +10061,7 @@
       <c r="T177" s="2"/>
     </row>
     <row r="178" spans="1:30">
-      <c r="A178" s="23"/>
+      <c r="A178" s="22"/>
       <c r="E178" s="1" t="s">
         <v>344</v>
       </c>
@@ -10078,7 +10083,7 @@
       <c r="R178" s="2"/>
     </row>
     <row r="179" spans="1:30">
-      <c r="A179" s="23"/>
+      <c r="A179" s="22"/>
       <c r="E179" s="1" t="s">
         <v>344</v>
       </c>
@@ -10100,7 +10105,7 @@
       <c r="R179" s="2"/>
     </row>
     <row r="180" spans="1:30">
-      <c r="A180" s="23"/>
+      <c r="A180" s="22"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1" t="s">
@@ -10118,7 +10123,7 @@
       <c r="R180" s="2"/>
     </row>
     <row r="181" spans="1:30">
-      <c r="A181" s="23"/>
+      <c r="A181" s="22"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1" t="s">
@@ -10134,7 +10139,7 @@
       <c r="P181" s="2"/>
     </row>
     <row r="182" spans="1:30">
-      <c r="A182" s="23"/>
+      <c r="A182" s="22"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2" t="s">
@@ -10155,7 +10160,7 @@
       <c r="U182" s="2"/>
     </row>
     <row r="183" spans="1:30">
-      <c r="A183" s="23"/>
+      <c r="A183" s="22"/>
       <c r="G183" s="7"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
@@ -10169,7 +10174,7 @@
       <c r="S183" s="2"/>
     </row>
     <row r="184" spans="1:30">
-      <c r="A184" s="23"/>
+      <c r="A184" s="22"/>
       <c r="G184" s="7"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
@@ -10183,11 +10188,11 @@
       <c r="S184" s="2"/>
     </row>
     <row r="185" spans="1:30">
-      <c r="A185" s="23"/>
+      <c r="A185" s="22"/>
       <c r="G185" s="7"/>
     </row>
     <row r="186" spans="1:30">
-      <c r="A186" s="23" t="s">
+      <c r="A186" s="22" t="s">
         <v>1050</v>
       </c>
       <c r="B186" s="1" t="s">
@@ -10237,7 +10242,7 @@
       <c r="AD186" s="2"/>
     </row>
     <row r="187" spans="1:30">
-      <c r="A187" s="23"/>
+      <c r="A187" s="22"/>
       <c r="B187" s="1" t="s">
         <v>14</v>
       </c>
@@ -10282,7 +10287,7 @@
       <c r="AA187" s="2"/>
     </row>
     <row r="188" spans="1:30">
-      <c r="A188" s="23"/>
+      <c r="A188" s="22"/>
       <c r="B188" s="1" t="s">
         <v>14</v>
       </c>
@@ -10330,7 +10335,7 @@
       <c r="AD188" s="2"/>
     </row>
     <row r="189" spans="1:30">
-      <c r="A189" s="23"/>
+      <c r="A189" s="22"/>
       <c r="B189" s="1" t="s">
         <v>14</v>
       </c>
@@ -10380,7 +10385,7 @@
       <c r="AD189" s="2"/>
     </row>
     <row r="190" spans="1:30">
-      <c r="A190" s="23"/>
+      <c r="A190" s="22"/>
       <c r="B190" s="1" t="s">
         <v>14</v>
       </c>
@@ -10430,7 +10435,7 @@
       <c r="AD190" s="2"/>
     </row>
     <row r="191" spans="1:30">
-      <c r="A191" s="23"/>
+      <c r="A191" s="22"/>
       <c r="E191" s="1" t="s">
         <v>344</v>
       </c>
@@ -10454,7 +10459,7 @@
       <c r="O191" s="2"/>
     </row>
     <row r="192" spans="1:30">
-      <c r="A192" s="23"/>
+      <c r="A192" s="22"/>
       <c r="E192" s="1" t="s">
         <v>344</v>
       </c>
@@ -10478,7 +10483,7 @@
       <c r="O192" s="2"/>
     </row>
     <row r="193" spans="1:21">
-      <c r="A193" s="23"/>
+      <c r="A193" s="22"/>
       <c r="E193" s="1" t="s">
         <v>344</v>
       </c>
@@ -10506,7 +10511,7 @@
       <c r="O193" s="2"/>
     </row>
     <row r="194" spans="1:21">
-      <c r="A194" s="23"/>
+      <c r="A194" s="22"/>
       <c r="E194" s="1" t="s">
         <v>344</v>
       </c>
@@ -10534,7 +10539,7 @@
       <c r="O194" s="2"/>
     </row>
     <row r="195" spans="1:21">
-      <c r="A195" s="23"/>
+      <c r="A195" s="22"/>
       <c r="E195" s="1" t="s">
         <v>344</v>
       </c>
@@ -10559,7 +10564,7 @@
       <c r="N195" s="2"/>
     </row>
     <row r="196" spans="1:21">
-      <c r="A196" s="23"/>
+      <c r="A196" s="22"/>
       <c r="E196" s="1" t="s">
         <v>344</v>
       </c>
@@ -10584,7 +10589,7 @@
       <c r="N196" s="2"/>
     </row>
     <row r="197" spans="1:21" s="11" customFormat="1">
-      <c r="A197" s="23"/>
+      <c r="A197" s="22"/>
       <c r="C197" s="10" t="s">
         <v>1031</v>
       </c>
@@ -10623,7 +10628,7 @@
       <c r="U197" s="10"/>
     </row>
     <row r="198" spans="1:21" s="11" customFormat="1">
-      <c r="A198" s="23"/>
+      <c r="A198" s="22"/>
       <c r="C198" s="10" t="s">
         <v>1031</v>
       </c>
@@ -10662,7 +10667,7 @@
       <c r="U198" s="10"/>
     </row>
     <row r="199" spans="1:21" s="11" customFormat="1">
-      <c r="A199" s="23"/>
+      <c r="A199" s="22"/>
       <c r="C199" s="10" t="s">
         <v>1031</v>
       </c>
@@ -10701,7 +10706,7 @@
       <c r="U199" s="10"/>
     </row>
     <row r="200" spans="1:21" s="11" customFormat="1">
-      <c r="A200" s="23"/>
+      <c r="A200" s="22"/>
       <c r="C200" s="10" t="s">
         <v>1031</v>
       </c>
@@ -10740,7 +10745,7 @@
       <c r="U200" s="10"/>
     </row>
     <row r="201" spans="1:21">
-      <c r="A201" s="23"/>
+      <c r="A201" s="22"/>
       <c r="E201" s="1" t="s">
         <v>344</v>
       </c>
@@ -10768,7 +10773,7 @@
       <c r="O201" s="2"/>
     </row>
     <row r="202" spans="1:21">
-      <c r="A202" s="23"/>
+      <c r="A202" s="22"/>
       <c r="E202" s="1" t="s">
         <v>344</v>
       </c>
@@ -10796,7 +10801,7 @@
       <c r="O202" s="2"/>
     </row>
     <row r="203" spans="1:21">
-      <c r="A203" s="23"/>
+      <c r="A203" s="22"/>
       <c r="E203" s="1" t="s">
         <v>344</v>
       </c>
@@ -10821,7 +10826,7 @@
       <c r="N203" s="2"/>
     </row>
     <row r="204" spans="1:21">
-      <c r="A204" s="23"/>
+      <c r="A204" s="22"/>
       <c r="E204" s="1" t="s">
         <v>344</v>
       </c>
@@ -10846,7 +10851,7 @@
       <c r="N204" s="2"/>
     </row>
     <row r="205" spans="1:21" s="11" customFormat="1">
-      <c r="A205" s="23"/>
+      <c r="A205" s="22"/>
       <c r="C205" s="10" t="s">
         <v>1031</v>
       </c>
@@ -10885,7 +10890,7 @@
       <c r="U205" s="10"/>
     </row>
     <row r="206" spans="1:21" s="11" customFormat="1">
-      <c r="A206" s="23"/>
+      <c r="A206" s="22"/>
       <c r="C206" s="10" t="s">
         <v>1031</v>
       </c>
@@ -10924,7 +10929,7 @@
       <c r="U206" s="10"/>
     </row>
     <row r="207" spans="1:21" s="11" customFormat="1">
-      <c r="A207" s="23"/>
+      <c r="A207" s="22"/>
       <c r="C207" s="10" t="s">
         <v>1031</v>
       </c>
@@ -10963,7 +10968,7 @@
       <c r="U207" s="10"/>
     </row>
     <row r="208" spans="1:21" s="11" customFormat="1">
-      <c r="A208" s="23"/>
+      <c r="A208" s="22"/>
       <c r="C208" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11002,7 +11007,7 @@
       <c r="U208" s="10"/>
     </row>
     <row r="209" spans="1:30">
-      <c r="A209" s="23"/>
+      <c r="A209" s="22"/>
       <c r="E209" s="1" t="s">
         <v>344</v>
       </c>
@@ -11030,7 +11035,7 @@
       <c r="O209" s="2"/>
     </row>
     <row r="210" spans="1:30">
-      <c r="A210" s="23"/>
+      <c r="A210" s="22"/>
       <c r="E210" s="1" t="s">
         <v>344</v>
       </c>
@@ -11058,7 +11063,7 @@
       <c r="O210" s="2"/>
     </row>
     <row r="211" spans="1:30">
-      <c r="A211" s="23"/>
+      <c r="A211" s="22"/>
       <c r="E211" s="1" t="s">
         <v>344</v>
       </c>
@@ -11083,7 +11088,7 @@
       <c r="N211" s="2"/>
     </row>
     <row r="212" spans="1:30">
-      <c r="A212" s="23"/>
+      <c r="A212" s="22"/>
       <c r="E212" s="1" t="s">
         <v>344</v>
       </c>
@@ -11108,7 +11113,7 @@
       <c r="N212" s="2"/>
     </row>
     <row r="213" spans="1:30" s="11" customFormat="1">
-      <c r="A213" s="23"/>
+      <c r="A213" s="22"/>
       <c r="C213" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11147,7 +11152,7 @@
       <c r="U213" s="10"/>
     </row>
     <row r="214" spans="1:30" s="11" customFormat="1">
-      <c r="A214" s="23"/>
+      <c r="A214" s="22"/>
       <c r="C214" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11186,7 +11191,7 @@
       <c r="U214" s="10"/>
     </row>
     <row r="215" spans="1:30" s="11" customFormat="1">
-      <c r="A215" s="23"/>
+      <c r="A215" s="22"/>
       <c r="C215" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11225,7 +11230,7 @@
       <c r="U215" s="10"/>
     </row>
     <row r="216" spans="1:30" s="11" customFormat="1">
-      <c r="A216" s="23"/>
+      <c r="A216" s="22"/>
       <c r="C216" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11264,7 +11269,7 @@
       <c r="U216" s="10"/>
     </row>
     <row r="217" spans="1:30">
-      <c r="A217" s="23"/>
+      <c r="A217" s="22"/>
       <c r="B217" s="1" t="s">
         <v>14</v>
       </c>
@@ -11314,7 +11319,7 @@
       <c r="AD217" s="2"/>
     </row>
     <row r="218" spans="1:30">
-      <c r="A218" s="23"/>
+      <c r="A218" s="22"/>
       <c r="B218" s="1" t="s">
         <v>14</v>
       </c>
@@ -11362,7 +11367,7 @@
       <c r="AD218" s="2"/>
     </row>
     <row r="219" spans="1:30" s="11" customFormat="1">
-      <c r="A219" s="23"/>
+      <c r="A219" s="22"/>
       <c r="C219" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11389,7 +11394,7 @@
       <c r="Q219" s="10"/>
     </row>
     <row r="220" spans="1:30" s="11" customFormat="1">
-      <c r="A220" s="23"/>
+      <c r="A220" s="22"/>
       <c r="C220" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11416,7 +11421,7 @@
       <c r="Q220" s="10"/>
     </row>
     <row r="221" spans="1:30">
-      <c r="A221" s="23"/>
+      <c r="A221" s="22"/>
       <c r="B221" s="1" t="s">
         <v>14</v>
       </c>
@@ -11464,7 +11469,7 @@
       <c r="AD221" s="2"/>
     </row>
     <row r="222" spans="1:30">
-      <c r="A222" s="23"/>
+      <c r="A222" s="22"/>
       <c r="E222" s="1" t="s">
         <v>344</v>
       </c>
@@ -11490,7 +11495,7 @@
       <c r="P222" s="2"/>
     </row>
     <row r="223" spans="1:30">
-      <c r="A223" s="23"/>
+      <c r="A223" s="22"/>
       <c r="E223" s="1" t="s">
         <v>344</v>
       </c>
@@ -11516,7 +11521,7 @@
       <c r="P223" s="2"/>
     </row>
     <row r="224" spans="1:30">
-      <c r="A224" s="23"/>
+      <c r="A224" s="22"/>
       <c r="E224" s="1" t="s">
         <v>344</v>
       </c>
@@ -11542,7 +11547,7 @@
       <c r="P224" s="2"/>
     </row>
     <row r="225" spans="1:21">
-      <c r="A225" s="23"/>
+      <c r="A225" s="22"/>
       <c r="E225" s="1" t="s">
         <v>344</v>
       </c>
@@ -11568,7 +11573,7 @@
       <c r="P225" s="2"/>
     </row>
     <row r="226" spans="1:21" s="11" customFormat="1">
-      <c r="A226" s="23"/>
+      <c r="A226" s="22"/>
       <c r="C226" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11607,7 +11612,7 @@
       <c r="U226" s="10"/>
     </row>
     <row r="227" spans="1:21" s="11" customFormat="1">
-      <c r="A227" s="23"/>
+      <c r="A227" s="22"/>
       <c r="C227" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11646,7 +11651,7 @@
       <c r="U227" s="10"/>
     </row>
     <row r="228" spans="1:21" s="11" customFormat="1">
-      <c r="A228" s="23"/>
+      <c r="A228" s="22"/>
       <c r="C228" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11685,7 +11690,7 @@
       <c r="U228" s="10"/>
     </row>
     <row r="229" spans="1:21" s="11" customFormat="1">
-      <c r="A229" s="23"/>
+      <c r="A229" s="22"/>
       <c r="C229" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11724,7 +11729,7 @@
       <c r="U229" s="10"/>
     </row>
     <row r="230" spans="1:21" s="11" customFormat="1">
-      <c r="A230" s="23"/>
+      <c r="A230" s="22"/>
       <c r="C230" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11751,7 +11756,7 @@
       <c r="Q230" s="10"/>
     </row>
     <row r="231" spans="1:21" s="11" customFormat="1">
-      <c r="A231" s="23"/>
+      <c r="A231" s="22"/>
       <c r="C231" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11778,7 +11783,7 @@
       <c r="Q231" s="10"/>
     </row>
     <row r="232" spans="1:21" s="11" customFormat="1">
-      <c r="A232" s="23"/>
+      <c r="A232" s="22"/>
       <c r="C232" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11817,7 +11822,7 @@
       <c r="U232" s="10"/>
     </row>
     <row r="233" spans="1:21" s="11" customFormat="1">
-      <c r="A233" s="23"/>
+      <c r="A233" s="22"/>
       <c r="C233" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11856,7 +11861,7 @@
       <c r="U233" s="10"/>
     </row>
     <row r="234" spans="1:21" s="11" customFormat="1">
-      <c r="A234" s="23"/>
+      <c r="A234" s="22"/>
       <c r="C234" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11895,7 +11900,7 @@
       <c r="U234" s="10"/>
     </row>
     <row r="235" spans="1:21" s="11" customFormat="1">
-      <c r="A235" s="23"/>
+      <c r="A235" s="22"/>
       <c r="C235" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11934,7 +11939,7 @@
       <c r="U235" s="10"/>
     </row>
     <row r="236" spans="1:21">
-      <c r="A236" s="23"/>
+      <c r="A236" s="22"/>
       <c r="E236" s="3" t="s">
         <v>15</v>
       </c>
@@ -11964,7 +11969,7 @@
       <c r="U236" s="2"/>
     </row>
     <row r="237" spans="1:21" s="11" customFormat="1">
-      <c r="A237" s="23"/>
+      <c r="A237" s="22"/>
       <c r="C237" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11999,7 +12004,7 @@
       <c r="U237" s="10"/>
     </row>
     <row r="238" spans="1:21">
-      <c r="A238" s="23"/>
+      <c r="A238" s="22"/>
       <c r="E238" s="3" t="s">
         <v>15</v>
       </c>
@@ -12029,7 +12034,7 @@
       <c r="U238" s="2"/>
     </row>
     <row r="239" spans="1:21" s="11" customFormat="1">
-      <c r="A239" s="23"/>
+      <c r="A239" s="22"/>
       <c r="C239" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12064,7 +12069,7 @@
       <c r="U239" s="10"/>
     </row>
     <row r="240" spans="1:21">
-      <c r="A240" s="23"/>
+      <c r="A240" s="22"/>
       <c r="E240" s="1" t="s">
         <v>344</v>
       </c>
@@ -12089,7 +12094,7 @@
       <c r="P240" s="2"/>
     </row>
     <row r="241" spans="1:21">
-      <c r="A241" s="23"/>
+      <c r="A241" s="22"/>
       <c r="E241" s="1" t="s">
         <v>344</v>
       </c>
@@ -12114,7 +12119,7 @@
       <c r="P241" s="2"/>
     </row>
     <row r="242" spans="1:21">
-      <c r="A242" s="23"/>
+      <c r="A242" s="22"/>
       <c r="E242" s="1" t="s">
         <v>344</v>
       </c>
@@ -12139,7 +12144,7 @@
       <c r="P242" s="2"/>
     </row>
     <row r="243" spans="1:21">
-      <c r="A243" s="23"/>
+      <c r="A243" s="22"/>
       <c r="E243" s="1" t="s">
         <v>344</v>
       </c>
@@ -12164,7 +12169,7 @@
       <c r="P243" s="2"/>
     </row>
     <row r="244" spans="1:21">
-      <c r="A244" s="23"/>
+      <c r="A244" s="22"/>
       <c r="E244" s="3" t="s">
         <v>15</v>
       </c>
@@ -12194,7 +12199,7 @@
       <c r="U244" s="2"/>
     </row>
     <row r="245" spans="1:21">
-      <c r="A245" s="23"/>
+      <c r="A245" s="22"/>
       <c r="E245" s="1" t="s">
         <v>344</v>
       </c>
@@ -12219,7 +12224,7 @@
       <c r="P245" s="2"/>
     </row>
     <row r="246" spans="1:21">
-      <c r="A246" s="23"/>
+      <c r="A246" s="22"/>
       <c r="E246" s="1" t="s">
         <v>344</v>
       </c>
@@ -12244,7 +12249,7 @@
       <c r="P246" s="2"/>
     </row>
     <row r="247" spans="1:21">
-      <c r="A247" s="23"/>
+      <c r="A247" s="22"/>
       <c r="E247" s="1" t="s">
         <v>344</v>
       </c>
@@ -12269,7 +12274,7 @@
       <c r="P247" s="2"/>
     </row>
     <row r="248" spans="1:21">
-      <c r="A248" s="23"/>
+      <c r="A248" s="22"/>
       <c r="E248" s="1" t="s">
         <v>344</v>
       </c>
@@ -12294,7 +12299,7 @@
       <c r="P248" s="2"/>
     </row>
     <row r="249" spans="1:21" s="11" customFormat="1">
-      <c r="A249" s="23"/>
+      <c r="A249" s="22"/>
       <c r="C249" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12329,7 +12334,7 @@
       <c r="U249" s="10"/>
     </row>
     <row r="250" spans="1:21" s="11" customFormat="1">
-      <c r="A250" s="23"/>
+      <c r="A250" s="22"/>
       <c r="C250" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12364,7 +12369,7 @@
       <c r="U250" s="10"/>
     </row>
     <row r="251" spans="1:21" s="11" customFormat="1">
-      <c r="A251" s="23"/>
+      <c r="A251" s="22"/>
       <c r="C251" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12393,7 +12398,7 @@
       <c r="U251" s="10"/>
     </row>
     <row r="252" spans="1:21" s="11" customFormat="1">
-      <c r="A252" s="23"/>
+      <c r="A252" s="22"/>
       <c r="C252" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12419,7 +12424,7 @@
       <c r="P252" s="10"/>
     </row>
     <row r="253" spans="1:21">
-      <c r="A253" s="23"/>
+      <c r="A253" s="22"/>
       <c r="E253" s="3" t="s">
         <v>15</v>
       </c>
@@ -12449,7 +12454,7 @@
       <c r="U253" s="2"/>
     </row>
     <row r="254" spans="1:21" s="11" customFormat="1">
-      <c r="A254" s="23"/>
+      <c r="A254" s="22"/>
       <c r="C254" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12484,7 +12489,7 @@
       <c r="U254" s="10"/>
     </row>
     <row r="255" spans="1:21">
-      <c r="A255" s="23"/>
+      <c r="A255" s="22"/>
       <c r="E255" s="3" t="s">
         <v>15</v>
       </c>
@@ -12514,7 +12519,7 @@
       <c r="U255" s="2"/>
     </row>
     <row r="256" spans="1:21" s="11" customFormat="1">
-      <c r="A256" s="23"/>
+      <c r="A256" s="22"/>
       <c r="C256" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12549,13 +12554,13 @@
       <c r="U256" s="10"/>
     </row>
     <row r="257" spans="1:21">
-      <c r="A257" s="23"/>
+      <c r="A257" s="22"/>
       <c r="H257" s="7" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="258" spans="1:21">
-      <c r="A258" s="23"/>
+      <c r="A258" s="22"/>
       <c r="E258" s="1" t="s">
         <v>344</v>
       </c>
@@ -12585,7 +12590,7 @@
       <c r="U258" s="2"/>
     </row>
     <row r="259" spans="1:21">
-      <c r="A259" s="23"/>
+      <c r="A259" s="22"/>
       <c r="E259" s="1" t="s">
         <v>344</v>
       </c>
@@ -12613,7 +12618,7 @@
       <c r="U259" s="2"/>
     </row>
     <row r="260" spans="1:21">
-      <c r="A260" s="23"/>
+      <c r="A260" s="22"/>
       <c r="E260" s="1" t="s">
         <v>344</v>
       </c>
@@ -12639,7 +12644,7 @@
       <c r="S260" s="2"/>
     </row>
     <row r="261" spans="1:21">
-      <c r="A261" s="23"/>
+      <c r="A261" s="22"/>
       <c r="E261" s="1" t="s">
         <v>344</v>
       </c>
@@ -12666,7 +12671,7 @@
       <c r="T261" s="2"/>
     </row>
     <row r="262" spans="1:21">
-      <c r="A262" s="23"/>
+      <c r="A262" s="22"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
@@ -12689,7 +12694,7 @@
       <c r="T262" s="2"/>
     </row>
     <row r="263" spans="1:21">
-      <c r="A263" s="23"/>
+      <c r="A263" s="22"/>
       <c r="E263" s="1" t="s">
         <v>344</v>
       </c>
@@ -12714,7 +12719,7 @@
       <c r="R263" s="2"/>
     </row>
     <row r="264" spans="1:21">
-      <c r="A264" s="23"/>
+      <c r="A264" s="22"/>
       <c r="E264" s="1" t="s">
         <v>344</v>
       </c>
@@ -12739,13 +12744,13 @@
       <c r="R264" s="2"/>
     </row>
     <row r="265" spans="1:21">
-      <c r="A265" s="23"/>
+      <c r="A265" s="22"/>
       <c r="H265" s="7" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="266" spans="1:21">
-      <c r="A266" s="23"/>
+      <c r="A266" s="22"/>
       <c r="E266" s="1" t="s">
         <v>344</v>
       </c>
@@ -12770,7 +12775,7 @@
       <c r="P266" s="2"/>
     </row>
     <row r="267" spans="1:21">
-      <c r="A267" s="23"/>
+      <c r="A267" s="22"/>
       <c r="E267" s="1" t="s">
         <v>344</v>
       </c>
@@ -12792,7 +12797,7 @@
       <c r="P267" s="2"/>
     </row>
     <row r="268" spans="1:21">
-      <c r="A268" s="23"/>
+      <c r="A268" s="22"/>
       <c r="E268" s="1" t="s">
         <v>15</v>
       </c>
@@ -12825,7 +12830,7 @@
       </c>
     </row>
     <row r="269" spans="1:21">
-      <c r="A269" s="23"/>
+      <c r="A269" s="22"/>
       <c r="E269" s="1" t="s">
         <v>15</v>
       </c>
@@ -12856,7 +12861,7 @@
       <c r="U269" s="2"/>
     </row>
     <row r="270" spans="1:21">
-      <c r="A270" s="23"/>
+      <c r="A270" s="22"/>
       <c r="E270" s="1" t="s">
         <v>15</v>
       </c>
@@ -12885,7 +12890,7 @@
       <c r="Q270" s="2"/>
     </row>
     <row r="271" spans="1:21">
-      <c r="A271" s="23"/>
+      <c r="A271" s="22"/>
       <c r="E271" s="1" t="s">
         <v>15</v>
       </c>
@@ -12914,7 +12919,7 @@
       <c r="Q271" s="2"/>
     </row>
     <row r="272" spans="1:21">
-      <c r="A272" s="23"/>
+      <c r="A272" s="22"/>
       <c r="E272" s="1" t="s">
         <v>15</v>
       </c>
@@ -12943,7 +12948,7 @@
       <c r="Q272" s="2"/>
     </row>
     <row r="273" spans="1:21">
-      <c r="A273" s="23"/>
+      <c r="A273" s="22"/>
       <c r="E273" s="1" t="s">
         <v>15</v>
       </c>
@@ -12966,7 +12971,7 @@
       <c r="O273" s="2"/>
     </row>
     <row r="274" spans="1:21">
-      <c r="A274" s="23"/>
+      <c r="A274" s="22"/>
       <c r="H274" s="19" t="s">
         <v>1058</v>
       </c>
@@ -12978,7 +12983,7 @@
       </c>
     </row>
     <row r="275" spans="1:21">
-      <c r="A275" s="23"/>
+      <c r="A275" s="22"/>
       <c r="H275" s="19" t="s">
         <v>1078</v>
       </c>
@@ -12990,7 +12995,7 @@
       </c>
     </row>
     <row r="276" spans="1:21">
-      <c r="A276" s="23"/>
+      <c r="A276" s="22"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
       <c r="H276" s="19" t="s">
@@ -13004,7 +13009,7 @@
       </c>
     </row>
     <row r="277" spans="1:21">
-      <c r="A277" s="23"/>
+      <c r="A277" s="22"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
       <c r="H277" s="19" t="s">
@@ -13018,7 +13023,7 @@
       </c>
     </row>
     <row r="278" spans="1:21">
-      <c r="A278" s="23"/>
+      <c r="A278" s="22"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
       <c r="H278" s="19" t="s">
@@ -13032,7 +13037,7 @@
       </c>
     </row>
     <row r="279" spans="1:21">
-      <c r="A279" s="23"/>
+      <c r="A279" s="22"/>
       <c r="E279" s="1" t="s">
         <v>344</v>
       </c>
@@ -13063,7 +13068,7 @@
       <c r="T279" s="2"/>
     </row>
     <row r="280" spans="1:21">
-      <c r="A280" s="23"/>
+      <c r="A280" s="22"/>
       <c r="E280" s="1" t="s">
         <v>344</v>
       </c>
@@ -13094,7 +13099,7 @@
       <c r="T280" s="2"/>
     </row>
     <row r="281" spans="1:21">
-      <c r="A281" s="23"/>
+      <c r="A281" s="22"/>
       <c r="E281" s="1" t="s">
         <v>344</v>
       </c>
@@ -13125,7 +13130,7 @@
       <c r="T281" s="2"/>
     </row>
     <row r="282" spans="1:21">
-      <c r="A282" s="23"/>
+      <c r="A282" s="22"/>
       <c r="E282" s="1" t="s">
         <v>344</v>
       </c>
@@ -13156,7 +13161,7 @@
       <c r="T282" s="2"/>
     </row>
     <row r="283" spans="1:21">
-      <c r="A283" s="23"/>
+      <c r="A283" s="22"/>
       <c r="E283" s="1" t="s">
         <v>344</v>
       </c>
@@ -13187,7 +13192,7 @@
       <c r="T283" s="2"/>
     </row>
     <row r="284" spans="1:21">
-      <c r="A284" s="23"/>
+      <c r="A284" s="22"/>
       <c r="E284" s="1" t="s">
         <v>344</v>
       </c>
@@ -13218,7 +13223,7 @@
       <c r="T284" s="2"/>
     </row>
     <row r="285" spans="1:21">
-      <c r="A285" s="23"/>
+      <c r="A285" s="22"/>
       <c r="E285" s="1" t="s">
         <v>344</v>
       </c>
@@ -13249,7 +13254,7 @@
       <c r="T285" s="2"/>
     </row>
     <row r="286" spans="1:21">
-      <c r="A286" s="23"/>
+      <c r="A286" s="22"/>
       <c r="E286" s="1" t="s">
         <v>344</v>
       </c>
@@ -13281,7 +13286,7 @@
       <c r="U286" s="2"/>
     </row>
     <row r="287" spans="1:21">
-      <c r="A287" s="23"/>
+      <c r="A287" s="22"/>
       <c r="E287" s="1" t="s">
         <v>344</v>
       </c>
@@ -13312,7 +13317,7 @@
       <c r="T287" s="2"/>
     </row>
     <row r="288" spans="1:21">
-      <c r="A288" s="23"/>
+      <c r="A288" s="22"/>
       <c r="E288" s="1" t="s">
         <v>344</v>
       </c>
@@ -13343,7 +13348,7 @@
       <c r="T288" s="2"/>
     </row>
     <row r="289" spans="1:21">
-      <c r="A289" s="23"/>
+      <c r="A289" s="22"/>
       <c r="E289" s="1" t="s">
         <v>344</v>
       </c>
@@ -13374,7 +13379,7 @@
       <c r="T289" s="2"/>
     </row>
     <row r="290" spans="1:21">
-      <c r="A290" s="23"/>
+      <c r="A290" s="22"/>
       <c r="E290" s="1" t="s">
         <v>344</v>
       </c>
@@ -13406,7 +13411,7 @@
       <c r="U290" s="2"/>
     </row>
     <row r="291" spans="1:21">
-      <c r="A291" s="23"/>
+      <c r="A291" s="22"/>
       <c r="H291" s="19" t="s">
         <v>1061</v>
       </c>
@@ -13418,7 +13423,7 @@
       </c>
     </row>
     <row r="292" spans="1:21">
-      <c r="A292" s="23"/>
+      <c r="A292" s="22"/>
       <c r="H292" s="19" t="s">
         <v>1063</v>
       </c>
@@ -13430,7 +13435,7 @@
       </c>
     </row>
     <row r="293" spans="1:21">
-      <c r="A293" s="23"/>
+      <c r="A293" s="22"/>
       <c r="H293" s="19" t="s">
         <v>1065</v>
       </c>
@@ -13442,7 +13447,7 @@
       </c>
     </row>
     <row r="294" spans="1:21">
-      <c r="A294" s="23"/>
+      <c r="A294" s="22"/>
       <c r="H294" s="19" t="s">
         <v>1067</v>
       </c>
@@ -13454,7 +13459,7 @@
       </c>
     </row>
     <row r="295" spans="1:21">
-      <c r="A295" s="23"/>
+      <c r="A295" s="22"/>
       <c r="H295" s="19" t="s">
         <v>1069</v>
       </c>
@@ -13466,7 +13471,7 @@
       </c>
     </row>
     <row r="296" spans="1:21">
-      <c r="A296" s="23"/>
+      <c r="A296" s="22"/>
       <c r="H296" s="19" t="s">
         <v>1071</v>
       </c>
@@ -13478,7 +13483,7 @@
       </c>
     </row>
     <row r="297" spans="1:21">
-      <c r="A297" s="23"/>
+      <c r="A297" s="22"/>
       <c r="H297" s="19" t="s">
         <v>1073</v>
       </c>
@@ -13490,7 +13495,7 @@
       </c>
     </row>
     <row r="298" spans="1:21">
-      <c r="A298" s="23"/>
+      <c r="A298" s="22"/>
       <c r="H298" s="19" t="s">
         <v>1075</v>
       </c>
@@ -13502,7 +13507,7 @@
       </c>
     </row>
     <row r="299" spans="1:21">
-      <c r="A299" s="23"/>
+      <c r="A299" s="22"/>
       <c r="B299" s="21"/>
       <c r="C299" s="21"/>
       <c r="H299" s="19" t="s">
@@ -13516,7 +13521,7 @@
       </c>
     </row>
     <row r="300" spans="1:21">
-      <c r="A300" s="23"/>
+      <c r="A300" s="22"/>
       <c r="H300" s="19" t="s">
         <v>1087</v>
       </c>
@@ -13528,7 +13533,7 @@
       </c>
     </row>
     <row r="301" spans="1:21">
-      <c r="A301" s="23"/>
+      <c r="A301" s="22"/>
       <c r="H301" s="19" t="s">
         <v>1088</v>
       </c>
@@ -13540,7 +13545,7 @@
       </c>
     </row>
     <row r="302" spans="1:21">
-      <c r="A302" s="23"/>
+      <c r="A302" s="22"/>
       <c r="H302" s="19" t="s">
         <v>1089</v>
       </c>
@@ -13552,7 +13557,7 @@
       </c>
     </row>
     <row r="303" spans="1:21">
-      <c r="A303" s="23"/>
+      <c r="A303" s="22"/>
       <c r="H303" s="19" t="s">
         <v>1090</v>
       </c>
@@ -13564,7 +13569,7 @@
       </c>
     </row>
     <row r="304" spans="1:21">
-      <c r="A304" s="23"/>
+      <c r="A304" s="22"/>
       <c r="H304" s="19" t="s">
         <v>1091</v>
       </c>
@@ -13576,7 +13581,7 @@
       </c>
     </row>
     <row r="305" spans="1:10">
-      <c r="A305" s="23"/>
+      <c r="A305" s="22"/>
       <c r="H305" s="19" t="s">
         <v>1092</v>
       </c>
@@ -13588,7 +13593,7 @@
       </c>
     </row>
     <row r="306" spans="1:10">
-      <c r="A306" s="23"/>
+      <c r="A306" s="22"/>
       <c r="H306" s="19" t="s">
         <v>1093</v>
       </c>
@@ -13600,7 +13605,7 @@
       </c>
     </row>
     <row r="307" spans="1:10">
-      <c r="A307" s="23"/>
+      <c r="A307" s="22"/>
       <c r="H307" s="19" t="s">
         <v>1094</v>
       </c>
@@ -13612,7 +13617,7 @@
       </c>
     </row>
     <row r="308" spans="1:10">
-      <c r="A308" s="23"/>
+      <c r="A308" s="22"/>
       <c r="H308" s="19" t="s">
         <v>1095</v>
       </c>
@@ -13624,7 +13629,7 @@
       </c>
     </row>
     <row r="309" spans="1:10">
-      <c r="A309" s="23"/>
+      <c r="A309" s="22"/>
       <c r="H309" s="19" t="s">
         <v>1097</v>
       </c>
@@ -13636,7 +13641,7 @@
       </c>
     </row>
     <row r="310" spans="1:10">
-      <c r="A310" s="23"/>
+      <c r="A310" s="22"/>
       <c r="H310" s="19" t="s">
         <v>1099</v>
       </c>
@@ -13648,7 +13653,7 @@
       </c>
     </row>
     <row r="311" spans="1:10">
-      <c r="A311" s="23"/>
+      <c r="A311" s="22"/>
       <c r="H311" s="19" t="s">
         <v>1100</v>
       </c>
@@ -13660,7 +13665,7 @@
       </c>
     </row>
     <row r="312" spans="1:10">
-      <c r="A312" s="23"/>
+      <c r="A312" s="22"/>
       <c r="H312" s="19" t="s">
         <v>1101</v>
       </c>
@@ -13672,7 +13677,7 @@
       </c>
     </row>
     <row r="313" spans="1:10">
-      <c r="A313" s="23"/>
+      <c r="A313" s="22"/>
       <c r="H313" s="19" t="s">
         <v>1102</v>
       </c>
@@ -13684,7 +13689,7 @@
       </c>
     </row>
     <row r="314" spans="1:10">
-      <c r="A314" s="23"/>
+      <c r="A314" s="22"/>
       <c r="H314" s="19" t="s">
         <v>1103</v>
       </c>
@@ -13696,7 +13701,7 @@
       </c>
     </row>
     <row r="315" spans="1:10">
-      <c r="A315" s="23"/>
+      <c r="A315" s="22"/>
       <c r="H315" s="19" t="s">
         <v>1104</v>
       </c>
@@ -13708,7 +13713,7 @@
       </c>
     </row>
     <row r="316" spans="1:10">
-      <c r="A316" s="23"/>
+      <c r="A316" s="22"/>
       <c r="H316" s="19" t="s">
         <v>1105</v>
       </c>
@@ -13720,7 +13725,7 @@
       </c>
     </row>
     <row r="317" spans="1:10">
-      <c r="A317" s="23"/>
+      <c r="A317" s="22"/>
       <c r="H317" s="19" t="s">
         <v>1106</v>
       </c>
@@ -13732,7 +13737,7 @@
       </c>
     </row>
     <row r="318" spans="1:10">
-      <c r="A318" s="23"/>
+      <c r="A318" s="22"/>
       <c r="H318" s="19" t="s">
         <v>1107</v>
       </c>
@@ -13744,7 +13749,7 @@
       </c>
     </row>
     <row r="319" spans="1:10">
-      <c r="A319" s="23"/>
+      <c r="A319" s="22"/>
       <c r="H319" s="19" t="s">
         <v>1108</v>
       </c>
@@ -13756,7 +13761,7 @@
       </c>
     </row>
     <row r="320" spans="1:10">
-      <c r="A320" s="23"/>
+      <c r="A320" s="22"/>
       <c r="H320" s="19" t="s">
         <v>1109</v>
       </c>
@@ -13768,7 +13773,7 @@
       </c>
     </row>
     <row r="321" spans="1:10">
-      <c r="A321" s="23"/>
+      <c r="A321" s="22"/>
       <c r="H321" s="19" t="s">
         <v>1110</v>
       </c>
@@ -13780,7 +13785,7 @@
       </c>
     </row>
     <row r="322" spans="1:10">
-      <c r="A322" s="23"/>
+      <c r="A322" s="22"/>
       <c r="H322" s="19" t="s">
         <v>1111</v>
       </c>
@@ -13792,7 +13797,7 @@
       </c>
     </row>
     <row r="323" spans="1:10">
-      <c r="A323" s="23"/>
+      <c r="A323" s="22"/>
       <c r="H323" s="19" t="s">
         <v>1112</v>
       </c>
@@ -13804,7 +13809,7 @@
       </c>
     </row>
     <row r="324" spans="1:10">
-      <c r="A324" s="23"/>
+      <c r="A324" s="22"/>
       <c r="H324" s="19" t="s">
         <v>1113</v>
       </c>
@@ -13816,7 +13821,7 @@
       </c>
     </row>
     <row r="325" spans="1:10">
-      <c r="A325" s="23"/>
+      <c r="A325" s="22"/>
       <c r="H325" s="19" t="s">
         <v>1114</v>
       </c>
@@ -13828,7 +13833,7 @@
       </c>
     </row>
     <row r="326" spans="1:10">
-      <c r="A326" s="23"/>
+      <c r="A326" s="22"/>
       <c r="H326" s="19" t="s">
         <v>1115</v>
       </c>
@@ -13840,7 +13845,7 @@
       </c>
     </row>
     <row r="327" spans="1:10">
-      <c r="A327" s="23"/>
+      <c r="A327" s="22"/>
       <c r="H327" s="19" t="s">
         <v>1116</v>
       </c>
@@ -13852,7 +13857,7 @@
       </c>
     </row>
     <row r="328" spans="1:10">
-      <c r="A328" s="23"/>
+      <c r="A328" s="22"/>
       <c r="H328" s="19" t="s">
         <v>1117</v>
       </c>
@@ -13864,7 +13869,7 @@
       </c>
     </row>
     <row r="329" spans="1:10">
-      <c r="A329" s="23"/>
+      <c r="A329" s="22"/>
       <c r="H329" s="19" t="s">
         <v>1118</v>
       </c>
@@ -13876,7 +13881,7 @@
       </c>
     </row>
     <row r="330" spans="1:10">
-      <c r="A330" s="23"/>
+      <c r="A330" s="22"/>
       <c r="H330" s="19" t="s">
         <v>1119</v>
       </c>
@@ -13888,7 +13893,7 @@
       </c>
     </row>
     <row r="331" spans="1:10">
-      <c r="A331" s="23"/>
+      <c r="A331" s="22"/>
       <c r="H331" s="19" t="s">
         <v>1120</v>
       </c>
@@ -13900,7 +13905,7 @@
       </c>
     </row>
     <row r="332" spans="1:10">
-      <c r="A332" s="23"/>
+      <c r="A332" s="22"/>
       <c r="H332" s="19" t="s">
         <v>1121</v>
       </c>
@@ -13912,7 +13917,7 @@
       </c>
     </row>
     <row r="333" spans="1:10">
-      <c r="A333" s="23"/>
+      <c r="A333" s="22"/>
       <c r="H333" s="19" t="s">
         <v>1122</v>
       </c>
@@ -13924,7 +13929,7 @@
       </c>
     </row>
     <row r="334" spans="1:10">
-      <c r="A334" s="23"/>
+      <c r="A334" s="22"/>
       <c r="H334" s="19" t="s">
         <v>1123</v>
       </c>
@@ -13936,7 +13941,7 @@
       </c>
     </row>
     <row r="335" spans="1:10">
-      <c r="A335" s="23"/>
+      <c r="A335" s="22"/>
       <c r="H335" s="19" t="s">
         <v>1124</v>
       </c>
@@ -13948,7 +13953,7 @@
       </c>
     </row>
     <row r="336" spans="1:10">
-      <c r="A336" s="23"/>
+      <c r="A336" s="22"/>
       <c r="H336" s="19" t="s">
         <v>1125</v>
       </c>
@@ -13960,7 +13965,7 @@
       </c>
     </row>
     <row r="337" spans="1:19">
-      <c r="A337" s="23"/>
+      <c r="A337" s="22"/>
       <c r="H337" s="19" t="s">
         <v>1126</v>
       </c>
@@ -13972,7 +13977,7 @@
       </c>
     </row>
     <row r="338" spans="1:19">
-      <c r="A338" s="23"/>
+      <c r="A338" s="22"/>
       <c r="H338" s="19" t="s">
         <v>1127</v>
       </c>
@@ -13984,7 +13989,7 @@
       </c>
     </row>
     <row r="339" spans="1:19">
-      <c r="A339" s="23"/>
+      <c r="A339" s="22"/>
       <c r="H339" s="19" t="s">
         <v>1128</v>
       </c>
@@ -13996,7 +14001,7 @@
       </c>
     </row>
     <row r="340" spans="1:19">
-      <c r="A340" s="23"/>
+      <c r="A340" s="22"/>
       <c r="H340" s="19" t="s">
         <v>1129</v>
       </c>
@@ -14008,7 +14013,7 @@
       </c>
     </row>
     <row r="341" spans="1:19">
-      <c r="A341" s="23"/>
+      <c r="A341" s="22"/>
       <c r="H341" s="19" t="s">
         <v>1130</v>
       </c>
@@ -14020,7 +14025,7 @@
       </c>
     </row>
     <row r="342" spans="1:19">
-      <c r="A342" s="23"/>
+      <c r="A342" s="22"/>
       <c r="H342" s="19" t="s">
         <v>1131</v>
       </c>
@@ -14032,7 +14037,7 @@
       </c>
     </row>
     <row r="343" spans="1:19">
-      <c r="A343" s="23"/>
+      <c r="A343" s="22"/>
       <c r="H343" s="19" t="s">
         <v>1132</v>
       </c>
@@ -14044,7 +14049,7 @@
       </c>
     </row>
     <row r="344" spans="1:19">
-      <c r="A344" s="23"/>
+      <c r="A344" s="22"/>
       <c r="H344" s="19" t="s">
         <v>1135</v>
       </c>
@@ -14056,7 +14061,7 @@
       </c>
     </row>
     <row r="345" spans="1:19">
-      <c r="A345" s="23"/>
+      <c r="A345" s="22"/>
       <c r="H345" s="19" t="s">
         <v>1138</v>
       </c>
@@ -14068,7 +14073,7 @@
       </c>
     </row>
     <row r="346" spans="1:19">
-      <c r="A346" s="23"/>
+      <c r="A346" s="22"/>
       <c r="H346" s="19" t="s">
         <v>1139</v>
       </c>
@@ -14080,7 +14085,7 @@
       </c>
     </row>
     <row r="347" spans="1:19">
-      <c r="A347" s="23"/>
+      <c r="A347" s="22"/>
       <c r="H347" s="19" t="s">
         <v>1140</v>
       </c>
@@ -14092,7 +14097,7 @@
       </c>
     </row>
     <row r="348" spans="1:19">
-      <c r="A348" s="23"/>
+      <c r="A348" s="22"/>
       <c r="H348" s="19" t="s">
         <v>1142</v>
       </c>
@@ -14104,7 +14109,7 @@
       </c>
     </row>
     <row r="349" spans="1:19">
-      <c r="A349" s="23" t="s">
+      <c r="A349" s="22" t="s">
         <v>1051</v>
       </c>
       <c r="E349" s="1" t="s">
@@ -14129,7 +14134,7 @@
       <c r="S349" s="2"/>
     </row>
     <row r="350" spans="1:19">
-      <c r="A350" s="23"/>
+      <c r="A350" s="22"/>
       <c r="E350" s="1" t="s">
         <v>344</v>
       </c>
@@ -14150,7 +14155,7 @@
       <c r="Q350" s="2"/>
     </row>
     <row r="351" spans="1:19">
-      <c r="A351" s="23" t="s">
+      <c r="A351" s="22" t="s">
         <v>1052</v>
       </c>
       <c r="E351" s="1" t="s">
@@ -14165,7 +14170,7 @@
       </c>
     </row>
     <row r="352" spans="1:19">
-      <c r="A352" s="23"/>
+      <c r="A352" s="22"/>
       <c r="E352" s="1" t="s">
         <v>344</v>
       </c>
@@ -14178,7 +14183,7 @@
       </c>
     </row>
     <row r="353" spans="1:20">
-      <c r="A353" s="23"/>
+      <c r="A353" s="22"/>
       <c r="E353" s="1" t="s">
         <v>344</v>
       </c>
@@ -14191,7 +14196,7 @@
       </c>
     </row>
     <row r="354" spans="1:20">
-      <c r="A354" s="23"/>
+      <c r="A354" s="22"/>
       <c r="E354" s="1" t="s">
         <v>344</v>
       </c>
@@ -14204,7 +14209,7 @@
       </c>
     </row>
     <row r="355" spans="1:20">
-      <c r="A355" s="23"/>
+      <c r="A355" s="22"/>
       <c r="E355" s="1" t="s">
         <v>344</v>
       </c>
@@ -14217,7 +14222,7 @@
       </c>
     </row>
     <row r="356" spans="1:20">
-      <c r="A356" s="23"/>
+      <c r="A356" s="22"/>
       <c r="E356" s="1" t="s">
         <v>344</v>
       </c>
@@ -14230,7 +14235,7 @@
       </c>
     </row>
     <row r="357" spans="1:20">
-      <c r="A357" s="23"/>
+      <c r="A357" s="22"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
       <c r="G357" s="2"/>
@@ -14239,7 +14244,7 @@
       </c>
     </row>
     <row r="358" spans="1:20">
-      <c r="A358" s="23" t="s">
+      <c r="A358" s="22" t="s">
         <v>1053</v>
       </c>
       <c r="E358" s="1" t="s">
@@ -14264,7 +14269,7 @@
       <c r="S358" s="2"/>
     </row>
     <row r="359" spans="1:20">
-      <c r="A359" s="23"/>
+      <c r="A359" s="22"/>
       <c r="E359" s="1" t="s">
         <v>344</v>
       </c>
@@ -14287,7 +14292,7 @@
       <c r="S359" s="2"/>
     </row>
     <row r="360" spans="1:20">
-      <c r="A360" s="23"/>
+      <c r="A360" s="22"/>
       <c r="E360" s="1" t="s">
         <v>344</v>
       </c>
@@ -14310,7 +14315,7 @@
       <c r="S360" s="2"/>
     </row>
     <row r="361" spans="1:20">
-      <c r="A361" s="23"/>
+      <c r="A361" s="22"/>
       <c r="E361" s="1" t="s">
         <v>344</v>
       </c>
@@ -14334,7 +14339,7 @@
       <c r="T361" s="2"/>
     </row>
     <row r="362" spans="1:20">
-      <c r="A362" s="23"/>
+      <c r="A362" s="22"/>
       <c r="E362" s="1" t="s">
         <v>344</v>
       </c>
@@ -14357,7 +14362,7 @@
       <c r="S362" s="2"/>
     </row>
     <row r="363" spans="1:20">
-      <c r="A363" s="23"/>
+      <c r="A363" s="22"/>
       <c r="E363" s="1" t="s">
         <v>344</v>
       </c>
@@ -14380,7 +14385,7 @@
       <c r="S363" s="2"/>
     </row>
     <row r="364" spans="1:20">
-      <c r="A364" s="23"/>
+      <c r="A364" s="22"/>
       <c r="E364" s="1" t="s">
         <v>344</v>
       </c>
@@ -14404,7 +14409,7 @@
       <c r="T364" s="2"/>
     </row>
     <row r="365" spans="1:20">
-      <c r="A365" s="23"/>
+      <c r="A365" s="22"/>
       <c r="E365" s="1" t="s">
         <v>344</v>
       </c>
@@ -14422,7 +14427,7 @@
       <c r="N365" s="2"/>
     </row>
     <row r="366" spans="1:20">
-      <c r="A366" s="23" t="s">
+      <c r="A366" s="22" t="s">
         <v>1054</v>
       </c>
       <c r="E366" s="1" t="s">
@@ -14446,7 +14451,7 @@
       <c r="R366" s="2"/>
     </row>
     <row r="367" spans="1:20">
-      <c r="A367" s="23"/>
+      <c r="A367" s="22"/>
       <c r="E367" s="1" t="s">
         <v>344</v>
       </c>
@@ -14467,7 +14472,7 @@
       <c r="Q367" s="2"/>
     </row>
     <row r="368" spans="1:20">
-      <c r="A368" s="23"/>
+      <c r="A368" s="22"/>
       <c r="E368" s="1" t="s">
         <v>344</v>
       </c>
@@ -14490,7 +14495,7 @@
       <c r="S368" s="2"/>
     </row>
     <row r="369" spans="1:21">
-      <c r="A369" s="23"/>
+      <c r="A369" s="22"/>
       <c r="E369" s="1" t="s">
         <v>344</v>
       </c>
@@ -14508,7 +14513,7 @@
       <c r="N369" s="2"/>
     </row>
     <row r="370" spans="1:21">
-      <c r="A370" s="23"/>
+      <c r="A370" s="22"/>
       <c r="E370" s="1" t="s">
         <v>15</v>
       </c>
@@ -14534,7 +14539,7 @@
       <c r="P370" s="2"/>
     </row>
     <row r="371" spans="1:21">
-      <c r="A371" s="23"/>
+      <c r="A371" s="22"/>
       <c r="E371" s="1" t="s">
         <v>15</v>
       </c>
@@ -14560,7 +14565,7 @@
       <c r="P371" s="2"/>
     </row>
     <row r="372" spans="1:21">
-      <c r="A372" s="23" t="s">
+      <c r="A372" s="22" t="s">
         <v>1144</v>
       </c>
       <c r="E372" s="2"/>
@@ -14584,7 +14589,7 @@
       <c r="U372" s="2"/>
     </row>
     <row r="373" spans="1:21">
-      <c r="A373" s="23"/>
+      <c r="A373" s="22"/>
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
       <c r="G373" s="2"/>
@@ -14606,7 +14611,7 @@
       <c r="U373" s="2"/>
     </row>
     <row r="374" spans="1:21">
-      <c r="A374" s="23"/>
+      <c r="A374" s="22"/>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
       <c r="G374" s="2"/>
@@ -14628,7 +14633,7 @@
       <c r="U374" s="2"/>
     </row>
     <row r="375" spans="1:21">
-      <c r="A375" s="23"/>
+      <c r="A375" s="22"/>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
       <c r="G375" s="2"/>
@@ -14650,7 +14655,7 @@
       <c r="U375" s="2"/>
     </row>
     <row r="376" spans="1:21">
-      <c r="A376" s="23"/>
+      <c r="A376" s="22"/>
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
       <c r="G376" s="2"/>
@@ -14672,7 +14677,7 @@
       <c r="U376" s="2"/>
     </row>
     <row r="377" spans="1:21">
-      <c r="A377" s="23"/>
+      <c r="A377" s="22"/>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
       <c r="G377" s="2"/>
@@ -14694,7 +14699,7 @@
       <c r="U377" s="2"/>
     </row>
     <row r="378" spans="1:21">
-      <c r="A378" s="23"/>
+      <c r="A378" s="22"/>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
       <c r="G378" s="2"/>
@@ -14716,7 +14721,7 @@
       <c r="U378" s="2"/>
     </row>
     <row r="379" spans="1:21">
-      <c r="A379" s="23"/>
+      <c r="A379" s="22"/>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
@@ -14738,7 +14743,7 @@
       <c r="U379" s="2"/>
     </row>
     <row r="380" spans="1:21">
-      <c r="A380" s="23"/>
+      <c r="A380" s="22"/>
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
@@ -14760,7 +14765,7 @@
       <c r="U380" s="2"/>
     </row>
     <row r="381" spans="1:21">
-      <c r="A381" s="23"/>
+      <c r="A381" s="22"/>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
@@ -14782,7 +14787,7 @@
       <c r="U381" s="2"/>
     </row>
     <row r="382" spans="1:21">
-      <c r="A382" s="23"/>
+      <c r="A382" s="22"/>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
       <c r="G382" s="2"/>
@@ -14804,7 +14809,7 @@
       <c r="U382" s="2"/>
     </row>
     <row r="383" spans="1:21">
-      <c r="A383" s="23"/>
+      <c r="A383" s="22"/>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
       <c r="G383" s="2"/>
@@ -14826,7 +14831,7 @@
       <c r="U383" s="2"/>
     </row>
     <row r="384" spans="1:21">
-      <c r="A384" s="23"/>
+      <c r="A384" s="22"/>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
       <c r="G384" s="2"/>
@@ -14848,7 +14853,7 @@
       <c r="U384" s="2"/>
     </row>
     <row r="385" spans="1:21">
-      <c r="A385" s="23"/>
+      <c r="A385" s="22"/>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
       <c r="G385" s="2"/>
@@ -14870,7 +14875,7 @@
       <c r="U385" s="2"/>
     </row>
     <row r="386" spans="1:21">
-      <c r="A386" s="23"/>
+      <c r="A386" s="22"/>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
       <c r="G386" s="2"/>
@@ -14892,7 +14897,7 @@
       <c r="U386" s="2"/>
     </row>
     <row r="387" spans="1:21">
-      <c r="A387" s="23"/>
+      <c r="A387" s="22"/>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
       <c r="G387" s="2"/>
@@ -14914,7 +14919,7 @@
       <c r="U387" s="2"/>
     </row>
     <row r="388" spans="1:21">
-      <c r="A388" s="23"/>
+      <c r="A388" s="22"/>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -14936,7 +14941,7 @@
       <c r="U388" s="2"/>
     </row>
     <row r="389" spans="1:21">
-      <c r="A389" s="23"/>
+      <c r="A389" s="22"/>
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
       <c r="G389" s="2"/>
@@ -14958,7 +14963,7 @@
       <c r="U389" s="2"/>
     </row>
     <row r="390" spans="1:21">
-      <c r="A390" s="23"/>
+      <c r="A390" s="22"/>
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
       <c r="G390" s="2"/>
@@ -14980,7 +14985,7 @@
       <c r="U390" s="2"/>
     </row>
     <row r="391" spans="1:21">
-      <c r="A391" s="23"/>
+      <c r="A391" s="22"/>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
       <c r="G391" s="2"/>
@@ -15002,7 +15007,7 @@
       <c r="U391" s="2"/>
     </row>
     <row r="392" spans="1:21">
-      <c r="A392" s="23"/>
+      <c r="A392" s="22"/>
       <c r="E392" s="1" t="s">
         <v>344</v>
       </c>
@@ -15028,7 +15033,7 @@
       <c r="U392" s="2"/>
     </row>
     <row r="393" spans="1:21">
-      <c r="A393" s="23"/>
+      <c r="A393" s="22"/>
       <c r="E393" s="1" t="s">
         <v>344</v>
       </c>
@@ -15054,7 +15059,7 @@
       <c r="U393" s="2"/>
     </row>
     <row r="394" spans="1:21">
-      <c r="A394" s="23"/>
+      <c r="A394" s="22"/>
       <c r="E394" s="1" t="s">
         <v>344</v>
       </c>
@@ -15080,7 +15085,7 @@
       <c r="U394" s="2"/>
     </row>
     <row r="395" spans="1:21">
-      <c r="A395" s="23"/>
+      <c r="A395" s="22"/>
       <c r="E395" s="1" t="s">
         <v>344</v>
       </c>
@@ -15106,7 +15111,7 @@
       <c r="O395" s="2"/>
     </row>
     <row r="396" spans="1:21">
-      <c r="A396" s="23"/>
+      <c r="A396" s="22"/>
       <c r="E396" s="1" t="s">
         <v>344</v>
       </c>
@@ -15140,7 +15145,7 @@
       </c>
     </row>
     <row r="397" spans="1:21">
-      <c r="A397" s="23"/>
+      <c r="A397" s="22"/>
       <c r="E397" s="1" t="s">
         <v>344</v>
       </c>
@@ -15172,7 +15177,7 @@
       <c r="U397" s="2"/>
     </row>
     <row r="398" spans="1:21">
-      <c r="A398" s="23"/>
+      <c r="A398" s="22"/>
       <c r="E398" s="1"/>
       <c r="F398" s="2"/>
       <c r="G398" s="2"/>
@@ -15194,7 +15199,7 @@
       <c r="U398" s="2"/>
     </row>
     <row r="399" spans="1:21">
-      <c r="A399" s="23"/>
+      <c r="A399" s="22"/>
       <c r="E399" s="1"/>
       <c r="F399" s="2"/>
       <c r="G399" s="2"/>
@@ -15216,7 +15221,7 @@
       <c r="U399" s="2"/>
     </row>
     <row r="400" spans="1:21">
-      <c r="A400" s="23"/>
+      <c r="A400" s="22"/>
       <c r="E400" s="1"/>
       <c r="F400" s="2"/>
       <c r="G400" s="2"/>
@@ -15238,7 +15243,7 @@
       <c r="U400" s="2"/>
     </row>
     <row r="401" spans="1:21">
-      <c r="A401" s="23"/>
+      <c r="A401" s="22"/>
       <c r="E401" s="1"/>
       <c r="F401" s="2"/>
       <c r="G401" s="2"/>
@@ -15262,7 +15267,7 @@
       <c r="U401" s="2"/>
     </row>
     <row r="402" spans="1:21">
-      <c r="A402" s="23"/>
+      <c r="A402" s="22"/>
       <c r="E402" s="1" t="s">
         <v>344</v>
       </c>
@@ -15296,7 +15301,7 @@
       </c>
     </row>
     <row r="403" spans="1:21">
-      <c r="A403" s="23"/>
+      <c r="A403" s="22"/>
       <c r="E403" s="1" t="s">
         <v>344</v>
       </c>
@@ -15322,7 +15327,7 @@
       <c r="U403" s="2"/>
     </row>
     <row r="404" spans="1:21">
-      <c r="A404" s="23"/>
+      <c r="A404" s="22"/>
       <c r="E404" s="1" t="s">
         <v>344</v>
       </c>
@@ -15348,7 +15353,7 @@
       <c r="U404" s="2"/>
     </row>
     <row r="405" spans="1:21">
-      <c r="A405" s="23"/>
+      <c r="A405" s="22"/>
       <c r="E405" s="1" t="s">
         <v>344</v>
       </c>
@@ -15376,7 +15381,7 @@
       <c r="U405" s="2"/>
     </row>
     <row r="406" spans="1:21">
-      <c r="A406" s="23"/>
+      <c r="A406" s="22"/>
       <c r="E406" s="1" t="s">
         <v>344</v>
       </c>
@@ -15406,7 +15411,7 @@
       </c>
     </row>
     <row r="407" spans="1:21">
-      <c r="A407" s="23"/>
+      <c r="A407" s="22"/>
       <c r="E407" s="1" t="s">
         <v>344</v>
       </c>
@@ -15434,7 +15439,7 @@
       <c r="U407" s="2"/>
     </row>
     <row r="408" spans="1:21">
-      <c r="A408" s="23"/>
+      <c r="A408" s="22"/>
       <c r="E408" s="1" t="s">
         <v>344</v>
       </c>
@@ -15464,7 +15469,7 @@
       </c>
     </row>
     <row r="409" spans="1:21">
-      <c r="A409" s="23"/>
+      <c r="A409" s="22"/>
       <c r="E409" s="1" t="s">
         <v>344</v>
       </c>
@@ -15492,7 +15497,7 @@
       <c r="U409" s="2"/>
     </row>
     <row r="410" spans="1:21">
-      <c r="A410" s="23"/>
+      <c r="A410" s="22"/>
       <c r="E410" s="1"/>
       <c r="F410" s="2"/>
       <c r="G410" s="2"/>
@@ -15514,7 +15519,7 @@
       <c r="U410" s="2"/>
     </row>
     <row r="411" spans="1:21">
-      <c r="A411" s="23"/>
+      <c r="A411" s="22"/>
       <c r="E411" s="1"/>
       <c r="F411" s="2"/>
       <c r="G411" s="2"/>
@@ -15536,7 +15541,7 @@
       <c r="U411" s="2"/>
     </row>
     <row r="412" spans="1:21">
-      <c r="A412" s="23"/>
+      <c r="A412" s="22"/>
       <c r="E412" s="1"/>
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
@@ -15558,7 +15563,7 @@
       <c r="U412" s="2"/>
     </row>
     <row r="413" spans="1:21">
-      <c r="A413" s="23"/>
+      <c r="A413" s="22"/>
       <c r="E413" s="1" t="s">
         <v>344</v>
       </c>
@@ -15592,7 +15597,7 @@
       </c>
     </row>
     <row r="414" spans="1:21">
-      <c r="A414" s="23"/>
+      <c r="A414" s="22"/>
       <c r="E414" s="1" t="s">
         <v>344</v>
       </c>
@@ -15618,7 +15623,7 @@
       <c r="U414" s="2"/>
     </row>
     <row r="415" spans="1:21">
-      <c r="A415" s="23"/>
+      <c r="A415" s="22"/>
       <c r="E415" s="1" t="s">
         <v>344</v>
       </c>
@@ -15648,7 +15653,7 @@
       </c>
     </row>
     <row r="416" spans="1:21">
-      <c r="A416" s="23"/>
+      <c r="A416" s="22"/>
       <c r="E416" s="1" t="s">
         <v>344</v>
       </c>
@@ -15676,7 +15681,7 @@
       <c r="U416" s="2"/>
     </row>
     <row r="417" spans="1:21">
-      <c r="A417" s="23"/>
+      <c r="A417" s="22"/>
       <c r="E417" s="1" t="s">
         <v>344</v>
       </c>
@@ -15704,7 +15709,7 @@
       <c r="U417" s="2"/>
     </row>
     <row r="418" spans="1:21">
-      <c r="A418" s="23"/>
+      <c r="A418" s="22"/>
       <c r="E418" s="1" t="s">
         <v>344</v>
       </c>
@@ -15740,7 +15745,7 @@
       <c r="U418" s="2"/>
     </row>
     <row r="419" spans="1:21">
-      <c r="A419" s="23"/>
+      <c r="A419" s="22"/>
       <c r="E419" s="1" t="s">
         <v>344</v>
       </c>
@@ -15768,7 +15773,7 @@
       <c r="U419" s="2"/>
     </row>
     <row r="420" spans="1:21">
-      <c r="A420" s="23"/>
+      <c r="A420" s="22"/>
       <c r="E420" s="1" t="s">
         <v>344</v>
       </c>
@@ -15801,7 +15806,7 @@
       <c r="T420" s="2"/>
     </row>
     <row r="421" spans="1:21">
-      <c r="A421" s="23"/>
+      <c r="A421" s="22"/>
       <c r="E421" s="1" t="s">
         <v>344</v>
       </c>
@@ -15829,7 +15834,7 @@
       <c r="U421" s="2"/>
     </row>
     <row r="422" spans="1:21">
-      <c r="A422" s="23"/>
+      <c r="A422" s="22"/>
       <c r="E422" s="1" t="s">
         <v>344</v>
       </c>
@@ -15861,7 +15866,7 @@
       <c r="U422" s="2"/>
     </row>
     <row r="423" spans="1:21">
-      <c r="A423" s="23"/>
+      <c r="A423" s="22"/>
       <c r="E423" s="1"/>
       <c r="F423" s="2"/>
       <c r="G423" s="2"/>
@@ -15883,7 +15888,7 @@
       <c r="U423" s="2"/>
     </row>
     <row r="424" spans="1:21">
-      <c r="A424" s="23"/>
+      <c r="A424" s="22"/>
       <c r="E424" s="1"/>
       <c r="F424" s="2"/>
       <c r="G424" s="2"/>
@@ -15905,7 +15910,7 @@
       <c r="U424" s="2"/>
     </row>
     <row r="425" spans="1:21">
-      <c r="A425" s="23"/>
+      <c r="A425" s="22"/>
       <c r="E425" s="1"/>
       <c r="F425" s="2"/>
       <c r="G425" s="2"/>
@@ -15929,7 +15934,7 @@
       <c r="U425" s="2"/>
     </row>
     <row r="426" spans="1:21">
-      <c r="A426" s="23"/>
+      <c r="A426" s="22"/>
       <c r="E426" s="1" t="s">
         <v>344</v>
       </c>
@@ -15959,7 +15964,7 @@
       <c r="U426" s="1"/>
     </row>
     <row r="427" spans="1:21">
-      <c r="A427" s="23"/>
+      <c r="A427" s="22"/>
       <c r="E427" s="1" t="s">
         <v>344</v>
       </c>
@@ -15996,7 +16001,7 @@
       </c>
     </row>
     <row r="428" spans="1:21">
-      <c r="A428" s="23"/>
+      <c r="A428" s="22"/>
       <c r="E428" s="1" t="s">
         <v>344</v>
       </c>
@@ -16028,7 +16033,7 @@
       <c r="U428" s="2"/>
     </row>
     <row r="429" spans="1:21">
-      <c r="A429" s="23"/>
+      <c r="A429" s="22"/>
       <c r="E429" s="1" t="s">
         <v>344</v>
       </c>
@@ -16063,7 +16068,7 @@
       </c>
     </row>
     <row r="430" spans="1:21">
-      <c r="A430" s="23"/>
+      <c r="A430" s="22"/>
       <c r="E430" s="1" t="s">
         <v>344</v>
       </c>
@@ -16093,7 +16098,7 @@
       <c r="U430" s="2"/>
     </row>
     <row r="431" spans="1:21">
-      <c r="A431" s="23"/>
+      <c r="A431" s="22"/>
       <c r="E431" s="1" t="s">
         <v>344</v>
       </c>
@@ -16126,7 +16131,7 @@
       <c r="T431" s="2"/>
     </row>
     <row r="432" spans="1:21">
-      <c r="A432" s="23"/>
+      <c r="A432" s="22"/>
       <c r="E432" s="1" t="s">
         <v>344</v>
       </c>
@@ -16151,7 +16156,7 @@
       <c r="P432" s="2"/>
     </row>
     <row r="433" spans="1:21">
-      <c r="A433" s="23"/>
+      <c r="A433" s="22"/>
       <c r="E433" s="1" t="s">
         <v>344</v>
       </c>
@@ -16182,7 +16187,7 @@
       </c>
     </row>
     <row r="434" spans="1:21">
-      <c r="A434" s="23"/>
+      <c r="A434" s="22"/>
       <c r="E434" s="1" t="s">
         <v>344</v>
       </c>
@@ -16210,7 +16215,7 @@
       <c r="U434" s="2"/>
     </row>
     <row r="435" spans="1:21">
-      <c r="A435" s="23"/>
+      <c r="A435" s="22"/>
       <c r="E435" s="1" t="s">
         <v>344</v>
       </c>
@@ -16238,7 +16243,7 @@
       <c r="U435" s="2"/>
     </row>
     <row r="436" spans="1:21">
-      <c r="A436" s="23"/>
+      <c r="A436" s="22"/>
       <c r="E436" s="1" t="s">
         <v>344</v>
       </c>
@@ -16262,7 +16267,7 @@
       <c r="Q436" s="2"/>
     </row>
     <row r="437" spans="1:21">
-      <c r="A437" s="23"/>
+      <c r="A437" s="22"/>
       <c r="E437" s="1" t="s">
         <v>344</v>
       </c>
@@ -16293,7 +16298,7 @@
       </c>
     </row>
     <row r="438" spans="1:21">
-      <c r="A438" s="23"/>
+      <c r="A438" s="22"/>
       <c r="E438" s="1" t="s">
         <v>344</v>
       </c>
@@ -16321,7 +16326,7 @@
       <c r="U438" s="2"/>
     </row>
     <row r="439" spans="1:21">
-      <c r="A439" s="23"/>
+      <c r="A439" s="22"/>
       <c r="E439" s="1" t="s">
         <v>344</v>
       </c>
@@ -16349,7 +16354,7 @@
       <c r="U439" s="2"/>
     </row>
     <row r="440" spans="1:21">
-      <c r="A440" s="23"/>
+      <c r="A440" s="22"/>
       <c r="E440" s="1" t="s">
         <v>344</v>
       </c>
@@ -16377,7 +16382,7 @@
       <c r="U440" s="2"/>
     </row>
     <row r="441" spans="1:21">
-      <c r="A441" s="23"/>
+      <c r="A441" s="22"/>
       <c r="E441" s="1" t="s">
         <v>344</v>
       </c>
@@ -16402,7 +16407,7 @@
       <c r="R441" s="2"/>
     </row>
     <row r="442" spans="1:21">
-      <c r="A442" s="23"/>
+      <c r="A442" s="22"/>
       <c r="E442" s="1" t="s">
         <v>344</v>
       </c>
@@ -16432,7 +16437,7 @@
       <c r="Q442" s="2"/>
     </row>
     <row r="443" spans="1:21">
-      <c r="A443" s="23"/>
+      <c r="A443" s="22"/>
       <c r="E443" s="1" t="s">
         <v>344</v>
       </c>
@@ -16458,7 +16463,7 @@
       <c r="U443" s="2"/>
     </row>
     <row r="444" spans="1:21">
-      <c r="A444" s="23"/>
+      <c r="A444" s="22"/>
       <c r="E444" s="1" t="s">
         <v>344</v>
       </c>
@@ -16482,7 +16487,7 @@
       <c r="Q444" s="2"/>
     </row>
     <row r="445" spans="1:21">
-      <c r="A445" s="23"/>
+      <c r="A445" s="22"/>
       <c r="E445" s="1" t="s">
         <v>344</v>
       </c>
@@ -16513,7 +16518,7 @@
       <c r="R445" s="2"/>
     </row>
     <row r="446" spans="1:21">
-      <c r="A446" s="23"/>
+      <c r="A446" s="22"/>
       <c r="E446" s="1" t="s">
         <v>344</v>
       </c>
@@ -16539,7 +16544,7 @@
       <c r="U446" s="2"/>
     </row>
     <row r="447" spans="1:21">
-      <c r="A447" s="23"/>
+      <c r="A447" s="22"/>
       <c r="E447" s="1"/>
       <c r="F447" s="2"/>
       <c r="G447" s="2"/>
@@ -16561,7 +16566,7 @@
       <c r="U447" s="2"/>
     </row>
     <row r="448" spans="1:21">
-      <c r="A448" s="23"/>
+      <c r="A448" s="22"/>
       <c r="E448" s="1"/>
       <c r="F448" s="2"/>
       <c r="G448" s="2"/>
@@ -16583,7 +16588,7 @@
       <c r="U448" s="2"/>
     </row>
     <row r="449" spans="1:21">
-      <c r="A449" s="23"/>
+      <c r="A449" s="22"/>
       <c r="E449" s="1"/>
       <c r="F449" s="2"/>
       <c r="G449" s="2"/>
@@ -16605,7 +16610,7 @@
       <c r="U449" s="2"/>
     </row>
     <row r="450" spans="1:21">
-      <c r="A450" s="23"/>
+      <c r="A450" s="22"/>
       <c r="E450" s="1" t="s">
         <v>344</v>
       </c>
@@ -16637,7 +16642,7 @@
       </c>
     </row>
     <row r="451" spans="1:21">
-      <c r="A451" s="23"/>
+      <c r="A451" s="22"/>
       <c r="E451" s="1" t="s">
         <v>344</v>
       </c>
@@ -16663,7 +16668,7 @@
       <c r="U451" s="2"/>
     </row>
     <row r="452" spans="1:21">
-      <c r="A452" s="23"/>
+      <c r="A452" s="22"/>
       <c r="E452" s="1" t="s">
         <v>344</v>
       </c>
@@ -16689,7 +16694,7 @@
       <c r="U452" s="2"/>
     </row>
     <row r="453" spans="1:21">
-      <c r="A453" s="23"/>
+      <c r="A453" s="22"/>
       <c r="E453" s="1"/>
       <c r="F453" s="2"/>
       <c r="G453" s="2"/>
@@ -16711,7 +16716,7 @@
       <c r="U453" s="2"/>
     </row>
     <row r="454" spans="1:21">
-      <c r="A454" s="23"/>
+      <c r="A454" s="22"/>
       <c r="E454" s="1"/>
       <c r="F454" s="2"/>
       <c r="G454" s="2"/>
@@ -16733,7 +16738,7 @@
       <c r="U454" s="2"/>
     </row>
     <row r="455" spans="1:21">
-      <c r="A455" s="23"/>
+      <c r="A455" s="22"/>
       <c r="E455" s="1" t="s">
         <v>344</v>
       </c>
@@ -16769,7 +16774,7 @@
       </c>
     </row>
     <row r="456" spans="1:21">
-      <c r="A456" s="23"/>
+      <c r="A456" s="22"/>
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
       <c r="G456" s="2"/>
@@ -16791,7 +16796,7 @@
       <c r="U456" s="2"/>
     </row>
     <row r="457" spans="1:21">
-      <c r="A457" s="23"/>
+      <c r="A457" s="22"/>
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
       <c r="G457" s="2"/>
@@ -16813,7 +16818,7 @@
       <c r="U457" s="2"/>
     </row>
     <row r="458" spans="1:21">
-      <c r="A458" s="23"/>
+      <c r="A458" s="22"/>
       <c r="E458" s="1" t="s">
         <v>344</v>
       </c>
@@ -16849,7 +16854,7 @@
       <c r="U458" s="2"/>
     </row>
     <row r="459" spans="1:21">
-      <c r="A459" s="23"/>
+      <c r="A459" s="22"/>
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
       <c r="G459" s="2"/>
@@ -16871,7 +16876,7 @@
       <c r="U459" s="2"/>
     </row>
     <row r="460" spans="1:21">
-      <c r="A460" s="23"/>
+      <c r="A460" s="22"/>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
       <c r="G460" s="2"/>
@@ -16893,7 +16898,7 @@
       <c r="U460" s="2"/>
     </row>
     <row r="461" spans="1:21">
-      <c r="A461" s="23"/>
+      <c r="A461" s="22"/>
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
       <c r="G461" s="2"/>
@@ -16915,7 +16920,7 @@
       <c r="U461" s="2"/>
     </row>
     <row r="462" spans="1:21">
-      <c r="A462" s="23"/>
+      <c r="A462" s="22"/>
       <c r="E462" s="1" t="s">
         <v>344</v>
       </c>
@@ -16951,7 +16956,7 @@
       <c r="U462" s="2"/>
     </row>
     <row r="463" spans="1:21">
-      <c r="A463" s="23"/>
+      <c r="A463" s="22"/>
       <c r="E463" s="1" t="s">
         <v>344</v>
       </c>
@@ -16989,7 +16994,7 @@
       </c>
     </row>
     <row r="464" spans="1:21">
-      <c r="A464" s="23"/>
+      <c r="A464" s="22"/>
       <c r="E464" s="2" t="s">
         <v>344</v>
       </c>
@@ -17015,7 +17020,7 @@
       <c r="U464" s="2"/>
     </row>
     <row r="465" spans="1:21">
-      <c r="A465" s="23"/>
+      <c r="A465" s="22"/>
       <c r="E465" s="1" t="s">
         <v>344</v>
       </c>
@@ -17051,7 +17056,7 @@
       </c>
     </row>
     <row r="466" spans="1:21">
-      <c r="A466" s="23"/>
+      <c r="A466" s="22"/>
       <c r="E466" s="1" t="s">
         <v>344</v>
       </c>
@@ -17077,7 +17082,7 @@
       <c r="U466" s="2"/>
     </row>
     <row r="467" spans="1:21">
-      <c r="A467" s="23"/>
+      <c r="A467" s="22"/>
       <c r="E467" s="1"/>
       <c r="F467" s="2"/>
       <c r="G467" s="2"/>
@@ -17101,7 +17106,7 @@
       <c r="U467" s="2"/>
     </row>
     <row r="468" spans="1:21">
-      <c r="A468" s="23"/>
+      <c r="A468" s="22"/>
       <c r="E468" s="1" t="s">
         <v>344</v>
       </c>
@@ -17134,7 +17139,7 @@
       <c r="T468" s="2"/>
     </row>
     <row r="469" spans="1:21">
-      <c r="A469" s="23"/>
+      <c r="A469" s="22"/>
       <c r="E469" s="1" t="s">
         <v>344</v>
       </c>
@@ -17160,7 +17165,7 @@
       <c r="U469" s="2"/>
     </row>
     <row r="470" spans="1:21">
-      <c r="A470" s="23"/>
+      <c r="A470" s="22"/>
       <c r="E470" s="1" t="s">
         <v>344</v>
       </c>
@@ -17195,7 +17200,7 @@
       <c r="T470" s="2"/>
     </row>
     <row r="471" spans="1:21">
-      <c r="A471" s="23"/>
+      <c r="A471" s="22"/>
       <c r="E471" s="1"/>
       <c r="F471" s="2"/>
       <c r="G471" s="2"/>
@@ -17217,7 +17222,7 @@
       <c r="U471" s="2"/>
     </row>
     <row r="472" spans="1:21">
-      <c r="A472" s="23"/>
+      <c r="A472" s="22"/>
       <c r="E472" s="1" t="s">
         <v>344</v>
       </c>
@@ -17243,7 +17248,7 @@
       <c r="U472" s="2"/>
     </row>
     <row r="473" spans="1:21">
-      <c r="A473" s="23"/>
+      <c r="A473" s="22"/>
       <c r="E473" s="1"/>
       <c r="F473" s="2"/>
       <c r="G473" s="2"/>
@@ -17265,7 +17270,7 @@
       <c r="U473" s="2"/>
     </row>
     <row r="474" spans="1:21">
-      <c r="A474" s="23"/>
+      <c r="A474" s="22"/>
       <c r="E474" s="1" t="s">
         <v>344</v>
       </c>
@@ -17297,7 +17302,7 @@
       <c r="S474" s="2"/>
     </row>
     <row r="475" spans="1:21">
-      <c r="A475" s="23"/>
+      <c r="A475" s="22"/>
       <c r="E475" s="1" t="s">
         <v>344</v>
       </c>
@@ -17323,7 +17328,7 @@
       <c r="U475" s="2"/>
     </row>
     <row r="476" spans="1:21">
-      <c r="A476" s="23"/>
+      <c r="A476" s="22"/>
       <c r="E476" s="1" t="s">
         <v>344</v>
       </c>
@@ -17355,7 +17360,7 @@
       <c r="S476" s="2"/>
     </row>
     <row r="477" spans="1:21">
-      <c r="A477" s="23"/>
+      <c r="A477" s="22"/>
       <c r="E477" s="1" t="s">
         <v>344</v>
       </c>
@@ -17383,7 +17388,7 @@
       <c r="U477" s="2"/>
     </row>
     <row r="478" spans="1:21">
-      <c r="A478" s="23"/>
+      <c r="A478" s="22"/>
       <c r="E478" s="1" t="s">
         <v>344</v>
       </c>
@@ -17415,7 +17420,7 @@
       <c r="S478" s="2"/>
     </row>
     <row r="479" spans="1:21">
-      <c r="A479" s="23"/>
+      <c r="A479" s="22"/>
       <c r="E479" s="1" t="s">
         <v>344</v>
       </c>
@@ -17443,7 +17448,7 @@
       <c r="U479" s="2"/>
     </row>
     <row r="480" spans="1:21">
-      <c r="A480" s="23"/>
+      <c r="A480" s="22"/>
       <c r="E480" s="1" t="s">
         <v>344</v>
       </c>
@@ -17479,7 +17484,7 @@
       </c>
     </row>
     <row r="481" spans="1:21">
-      <c r="A481" s="23"/>
+      <c r="A481" s="22"/>
       <c r="E481" s="1" t="s">
         <v>344</v>
       </c>
@@ -17507,7 +17512,7 @@
       <c r="U481" s="2"/>
     </row>
     <row r="482" spans="1:21">
-      <c r="A482" s="23"/>
+      <c r="A482" s="22"/>
       <c r="E482" s="1" t="s">
         <v>344</v>
       </c>
@@ -17543,7 +17548,7 @@
       </c>
     </row>
     <row r="483" spans="1:21">
-      <c r="A483" s="23"/>
+      <c r="A483" s="22"/>
       <c r="E483" s="1" t="s">
         <v>344</v>
       </c>
@@ -17571,7 +17576,7 @@
       <c r="U483" s="2"/>
     </row>
     <row r="484" spans="1:21">
-      <c r="A484" s="23"/>
+      <c r="A484" s="22"/>
       <c r="E484" s="1" t="s">
         <v>344</v>
       </c>
@@ -17597,7 +17602,7 @@
       <c r="U484" s="2"/>
     </row>
     <row r="485" spans="1:21">
-      <c r="A485" s="23"/>
+      <c r="A485" s="22"/>
       <c r="E485" s="1" t="s">
         <v>344</v>
       </c>
@@ -17625,7 +17630,7 @@
       <c r="U485" s="2"/>
     </row>
     <row r="486" spans="1:21">
-      <c r="A486" s="23"/>
+      <c r="A486" s="22"/>
       <c r="E486" s="1" t="s">
         <v>344</v>
       </c>
@@ -17651,7 +17656,7 @@
       <c r="U486" s="2"/>
     </row>
     <row r="487" spans="1:21">
-      <c r="A487" s="23"/>
+      <c r="A487" s="22"/>
       <c r="E487" s="1" t="s">
         <v>344</v>
       </c>
@@ -17682,7 +17687,7 @@
       <c r="R487" s="2"/>
     </row>
     <row r="488" spans="1:21">
-      <c r="A488" s="23"/>
+      <c r="A488" s="22"/>
       <c r="E488" s="1" t="s">
         <v>344</v>
       </c>
@@ -17708,7 +17713,7 @@
       <c r="U488" s="2"/>
     </row>
     <row r="489" spans="1:21">
-      <c r="A489" s="23"/>
+      <c r="A489" s="22"/>
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
       <c r="G489" s="2"/>
@@ -17730,7 +17735,7 @@
       <c r="U489" s="2"/>
     </row>
     <row r="490" spans="1:21">
-      <c r="A490" s="23"/>
+      <c r="A490" s="22"/>
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
       <c r="G490" s="2"/>
@@ -17752,7 +17757,7 @@
       <c r="U490" s="2"/>
     </row>
     <row r="491" spans="1:21">
-      <c r="A491" s="23"/>
+      <c r="A491" s="22"/>
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
       <c r="G491" s="2"/>
@@ -17774,7 +17779,7 @@
       <c r="U491" s="2"/>
     </row>
     <row r="492" spans="1:21">
-      <c r="A492" s="23"/>
+      <c r="A492" s="22"/>
       <c r="E492" s="1" t="s">
         <v>344</v>
       </c>
@@ -17809,7 +17814,7 @@
       </c>
     </row>
     <row r="493" spans="1:21">
-      <c r="A493" s="23"/>
+      <c r="A493" s="22"/>
       <c r="E493" s="1" t="s">
         <v>344</v>
       </c>
@@ -17835,7 +17840,7 @@
       <c r="U493" s="2"/>
     </row>
     <row r="494" spans="1:21">
-      <c r="A494" s="23"/>
+      <c r="A494" s="22"/>
       <c r="E494" s="1" t="s">
         <v>344</v>
       </c>
@@ -17863,7 +17868,7 @@
       <c r="U494" s="2"/>
     </row>
     <row r="495" spans="1:21">
-      <c r="A495" s="23"/>
+      <c r="A495" s="22"/>
       <c r="E495" s="1" t="s">
         <v>344</v>
       </c>
@@ -17891,7 +17896,7 @@
       <c r="U495" s="2"/>
     </row>
     <row r="496" spans="1:21">
-      <c r="A496" s="23"/>
+      <c r="A496" s="22"/>
       <c r="E496" s="1" t="s">
         <v>344</v>
       </c>
@@ -17917,7 +17922,7 @@
       <c r="U496" s="2"/>
     </row>
     <row r="497" spans="1:21">
-      <c r="A497" s="23"/>
+      <c r="A497" s="22"/>
       <c r="E497" s="1" t="s">
         <v>344</v>
       </c>
@@ -17943,7 +17948,7 @@
       <c r="Q497" s="2"/>
     </row>
     <row r="498" spans="1:21">
-      <c r="A498" s="23"/>
+      <c r="A498" s="22"/>
       <c r="E498" s="1" t="s">
         <v>344</v>
       </c>
@@ -17971,7 +17976,7 @@
       <c r="U498" s="2"/>
     </row>
     <row r="499" spans="1:21">
-      <c r="A499" s="23"/>
+      <c r="A499" s="22"/>
       <c r="E499" s="1" t="s">
         <v>344</v>
       </c>
@@ -17999,7 +18004,7 @@
       <c r="U499" s="2"/>
     </row>
     <row r="500" spans="1:21">
-      <c r="A500" s="23"/>
+      <c r="A500" s="22"/>
       <c r="E500" s="1" t="s">
         <v>344</v>
       </c>
@@ -18025,7 +18030,7 @@
       <c r="U500" s="2"/>
     </row>
     <row r="501" spans="1:21">
-      <c r="A501" s="23"/>
+      <c r="A501" s="22"/>
       <c r="E501" s="1" t="s">
         <v>344</v>
       </c>
@@ -18053,7 +18058,7 @@
       <c r="U501" s="2"/>
     </row>
     <row r="502" spans="1:21">
-      <c r="A502" s="23"/>
+      <c r="A502" s="22"/>
       <c r="E502" s="1" t="s">
         <v>344</v>
       </c>
@@ -18076,7 +18081,7 @@
       <c r="R502" s="2"/>
     </row>
     <row r="503" spans="1:21">
-      <c r="A503" s="23"/>
+      <c r="A503" s="22"/>
       <c r="E503" s="1" t="s">
         <v>344</v>
       </c>
@@ -18109,7 +18114,7 @@
       </c>
     </row>
     <row r="504" spans="1:21">
-      <c r="A504" s="23"/>
+      <c r="A504" s="22"/>
       <c r="E504" s="1" t="s">
         <v>344</v>
       </c>
@@ -18142,7 +18147,7 @@
       </c>
     </row>
     <row r="505" spans="1:21">
-      <c r="A505" s="23"/>
+      <c r="A505" s="22"/>
       <c r="E505" s="1" t="s">
         <v>344</v>
       </c>
@@ -18177,7 +18182,7 @@
       </c>
     </row>
     <row r="506" spans="1:21">
-      <c r="A506" s="23"/>
+      <c r="A506" s="22"/>
       <c r="E506" s="1" t="s">
         <v>344</v>
       </c>
@@ -18212,7 +18217,7 @@
       </c>
     </row>
     <row r="507" spans="1:21">
-      <c r="A507" s="23"/>
+      <c r="A507" s="22"/>
       <c r="E507" s="1" t="s">
         <v>344</v>
       </c>
@@ -18249,7 +18254,7 @@
       </c>
     </row>
     <row r="508" spans="1:21">
-      <c r="A508" s="23"/>
+      <c r="A508" s="22"/>
       <c r="E508" s="1" t="s">
         <v>344</v>
       </c>
@@ -18286,7 +18291,7 @@
       </c>
     </row>
     <row r="509" spans="1:21">
-      <c r="A509" s="23"/>
+      <c r="A509" s="22"/>
       <c r="E509" s="1" t="s">
         <v>344</v>
       </c>
@@ -18323,7 +18328,7 @@
       </c>
     </row>
     <row r="510" spans="1:21">
-      <c r="A510" s="23"/>
+      <c r="A510" s="22"/>
       <c r="E510" s="1" t="s">
         <v>344</v>
       </c>
@@ -18353,7 +18358,7 @@
       <c r="U510" s="2"/>
     </row>
     <row r="511" spans="1:21">
-      <c r="A511" s="23"/>
+      <c r="A511" s="22"/>
       <c r="E511" s="1" t="s">
         <v>344</v>
       </c>
@@ -18381,7 +18386,7 @@
       <c r="S511" s="2"/>
     </row>
     <row r="512" spans="1:21">
-      <c r="A512" s="23"/>
+      <c r="A512" s="22"/>
       <c r="E512" s="1" t="s">
         <v>344</v>
       </c>
@@ -18405,7 +18410,7 @@
       <c r="O512" s="2"/>
     </row>
     <row r="513" spans="1:20">
-      <c r="A513" s="23"/>
+      <c r="A513" s="22"/>
       <c r="E513" s="1" t="s">
         <v>344</v>
       </c>
@@ -18434,7 +18439,7 @@
       <c r="T513" s="2"/>
     </row>
     <row r="514" spans="1:20">
-      <c r="A514" s="23"/>
+      <c r="A514" s="22"/>
       <c r="E514" s="1" t="s">
         <v>344</v>
       </c>
@@ -18466,7 +18471,7 @@
       <c r="S514" s="2"/>
     </row>
     <row r="515" spans="1:20">
-      <c r="A515" s="23"/>
+      <c r="A515" s="22"/>
       <c r="E515" s="1" t="s">
         <v>344</v>
       </c>
@@ -18502,7 +18507,7 @@
       </c>
     </row>
     <row r="516" spans="1:20">
-      <c r="A516" s="23"/>
+      <c r="A516" s="22"/>
       <c r="E516" s="1" t="s">
         <v>344</v>
       </c>
@@ -18533,7 +18538,7 @@
       <c r="T516" s="2"/>
     </row>
     <row r="517" spans="1:20">
-      <c r="A517" s="23"/>
+      <c r="A517" s="22"/>
       <c r="E517" s="1" t="s">
         <v>344</v>
       </c>
@@ -18565,7 +18570,7 @@
       <c r="S517" s="2"/>
     </row>
     <row r="518" spans="1:20">
-      <c r="A518" s="23"/>
+      <c r="A518" s="22"/>
       <c r="E518" s="1" t="s">
         <v>344</v>
       </c>
@@ -18590,7 +18595,7 @@
       <c r="R518" s="2"/>
     </row>
     <row r="519" spans="1:20">
-      <c r="A519" s="23"/>
+      <c r="A519" s="22"/>
       <c r="E519" s="1" t="s">
         <v>344</v>
       </c>
@@ -18615,7 +18620,7 @@
       <c r="R519" s="2"/>
     </row>
     <row r="520" spans="1:20">
-      <c r="A520" s="23"/>
+      <c r="A520" s="22"/>
       <c r="E520" s="1" t="s">
         <v>344</v>
       </c>
@@ -18639,7 +18644,7 @@
       </c>
     </row>
     <row r="521" spans="1:20">
-      <c r="A521" s="23"/>
+      <c r="A521" s="22"/>
       <c r="E521" s="1" t="s">
         <v>344</v>
       </c>
@@ -18663,7 +18668,7 @@
       </c>
     </row>
     <row r="522" spans="1:20">
-      <c r="A522" s="23"/>
+      <c r="A522" s="22"/>
       <c r="E522" s="1" t="s">
         <v>344</v>
       </c>
@@ -18687,7 +18692,7 @@
       <c r="Q522" s="2"/>
     </row>
     <row r="523" spans="1:20">
-      <c r="A523" s="23"/>
+      <c r="A523" s="22"/>
       <c r="E523" s="1" t="s">
         <v>344</v>
       </c>
@@ -18718,7 +18723,7 @@
       </c>
     </row>
     <row r="524" spans="1:20">
-      <c r="A524" s="23"/>
+      <c r="A524" s="22"/>
       <c r="E524" s="1" t="s">
         <v>344</v>
       </c>
@@ -18749,7 +18754,7 @@
       </c>
     </row>
     <row r="525" spans="1:20">
-      <c r="A525" s="23"/>
+      <c r="A525" s="22"/>
       <c r="E525" s="1" t="s">
         <v>344</v>
       </c>
@@ -18780,7 +18785,7 @@
       </c>
     </row>
     <row r="526" spans="1:20">
-      <c r="A526" s="23"/>
+      <c r="A526" s="22"/>
       <c r="E526" s="1" t="s">
         <v>344</v>
       </c>
@@ -18862,11 +18867,11 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -18897,18 +18902,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01658F34-4982-8840-AF22-6E6480DB069B}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -19221,6 +19226,9 @@
       <c r="A22" s="1" t="s">
         <v>1239</v>
       </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
       <c r="C22" t="s">
         <v>1284</v>
       </c>
@@ -19229,6 +19237,9 @@
       <c r="A23" s="1" t="s">
         <v>1212</v>
       </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
       <c r="C23" t="s">
         <v>1285</v>
       </c>
@@ -19574,7 +19585,7 @@
         <v>1282</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" ref="D46:D48" si="3">"line along "&amp;B46&amp;" of "&amp;C46</f>
+        <f t="shared" ref="D46:D49" si="3">"line along "&amp;B46&amp;" of "&amp;C46</f>
         <v>line along proximal-distal axis of metatarsal bone of digit 3</v>
       </c>
     </row>
@@ -19610,135 +19621,119 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1254</v>
+        <v>1241</v>
+      </c>
+      <c r="B49" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1255</v>
+        <v>1244</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1255</v>
+        <v>1242</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1254</v>
+        <v>1243</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1254</v>
+        <v>1260</v>
+      </c>
+      <c r="B53" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>1243</v>
+        <v>1264</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>1255</v>
+        <v>1297</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" ref="D54:D55" si="4">"line along "&amp;B54&amp;" of "&amp;C54</f>
+        <v>line along anterior-posterior axis of lateral surface some metacarpal bone of digit 3</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>1260</v>
+        <v>1265</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B56" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D56" t="str">
-        <f t="shared" ref="D56:D57" si="4">"line along "&amp;B56&amp;" of "&amp;C56</f>
-        <v>line along anterior-posterior axis of lateral surface some metacarpal bone of digit 3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" t="s">
         <v>1296</v>
       </c>
-      <c r="D57" t="str">
+      <c r="D55" t="str">
         <f t="shared" si="4"/>
         <v>line along anterior-posterior axis of lateral surface some metatarsal bone of digit 3</v>
       </c>
     </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>655</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>658</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>1198</v>
+        <v>664</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
         <v>665</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C6BB58-E681-9A44-BAE6-1CC6AE173542}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -19771,6 +19766,31 @@
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>1249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1302</v>
       </c>
     </row>
   </sheetData>
@@ -19780,13 +19800,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBC00A8-69BB-C944-AE92-971EEE98B192}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
@@ -20121,9 +20141,53 @@
         <v>1180</v>
       </c>
     </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
     <row r="28" spans="1:16">
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
+      <c r="A28" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1255</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1255</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20138,7 +20202,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD0C77D-F1DF-C348-B876-2C494EE28F31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C771434-A868-A14F-BE81-C07B9F2158E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17100" windowHeight="16660" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16660" activeTab="4" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="1317">
   <si>
     <t>Status</t>
   </si>
@@ -4018,6 +4018,42 @@
   </si>
   <si>
     <t>proximal facet for metacarpal II on metacarpal III</t>
+  </si>
+  <si>
+    <t>lateral epicondylar tuberosity of metacarpal III</t>
+  </si>
+  <si>
+    <t>medial epicondylar tuberosity of metacarpal III</t>
+  </si>
+  <si>
+    <t>lateral epicondylar tuberosity of metatarsal III</t>
+  </si>
+  <si>
+    <t>medial epicondylar tuberosity of metatarsal III</t>
+  </si>
+  <si>
+    <t>lateral epicondylar tuberosity of phalange II</t>
+  </si>
+  <si>
+    <t>medial epicondylar tuberosity of phalange II</t>
+  </si>
+  <si>
+    <t>lateral epicondylar tuberosity of phalange I</t>
+  </si>
+  <si>
+    <t>medial epicondylar tuberosity of phalange I</t>
+  </si>
+  <si>
+    <t>lateral epicondylar tuberosity of phalange II of digit 3</t>
+  </si>
+  <si>
+    <t>medial epicondylar tuberosity of phalange II of digit 3</t>
+  </si>
+  <si>
+    <t>lateral epicondylar tuberosity of phalange I of digit 3</t>
+  </si>
+  <si>
+    <t>medial epicondylar tuberosity of phalange I of digit 3</t>
   </si>
 </sst>
 </file>
@@ -18904,7 +18940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01658F34-4982-8840-AF22-6E6480DB069B}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B51" sqref="B51:B52"/>
     </sheetView>
   </sheetViews>
@@ -19585,7 +19621,7 @@
         <v>1282</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" ref="D46:D49" si="3">"line along "&amp;B46&amp;" of "&amp;C46</f>
+        <f t="shared" ref="D46:D48" si="3">"line along "&amp;B46&amp;" of "&amp;C46</f>
         <v>line along proximal-distal axis of metatarsal bone of digit 3</v>
       </c>
     </row>
@@ -19727,10 +19763,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C6BB58-E681-9A44-BAE6-1CC6AE173542}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -19791,6 +19827,66 @@
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>1302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>1316</v>
       </c>
     </row>
   </sheetData>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C771434-A868-A14F-BE81-C07B9F2158E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCEDA50-7843-A34F-8A5B-23DBBD17E1A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16660" activeTab="4" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="30720" yWindow="-10580" windowWidth="28800" windowHeight="16660" activeTab="5" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2918" uniqueCount="1368">
   <si>
     <t>Status</t>
   </si>
@@ -4054,6 +4054,159 @@
   </si>
   <si>
     <t>medial epicondylar tuberosity of phalange I of digit 3</t>
+  </si>
+  <si>
+    <t>total length</t>
+  </si>
+  <si>
+    <t>head-body length</t>
+  </si>
+  <si>
+    <t>nose tip</t>
+  </si>
+  <si>
+    <t>'anatomical point' and 'distalmost part of' some tail)</t>
+  </si>
+  <si>
+    <t>anus</t>
+  </si>
+  <si>
+    <t>ear length from notch</t>
+  </si>
+  <si>
+    <t>helix</t>
+  </si>
+  <si>
+    <t>intertragic notch</t>
+  </si>
+  <si>
+    <t>ear length from tragus</t>
+  </si>
+  <si>
+    <t>tragus</t>
+  </si>
+  <si>
+    <t>anatomical point' and ('part of' some ('distalmost part of' some 'heel'))</t>
+  </si>
+  <si>
+    <t>anatomical point' and ('part of' some ('distalmost part of' some 'cutaneous appendage'))</t>
+  </si>
+  <si>
+    <t>anatomical point' and ('part of' some ('distalmost part of' some 'phalanx of pes'))</t>
+  </si>
+  <si>
+    <t>The intertragic notch is a feature of human ear anatomy. It is a small notch that points anteriorly. It is separates the tragus from the antitragus.</t>
+  </si>
+  <si>
+    <t>Subclass</t>
+  </si>
+  <si>
+    <t>astragalus GLl</t>
+  </si>
+  <si>
+    <t>hindfoot length</t>
+  </si>
+  <si>
+    <t>proximal-distal</t>
+  </si>
+  <si>
+    <t>lateral side' some talus</t>
+  </si>
+  <si>
+    <t>pes</t>
+  </si>
+  <si>
+    <t>forearm length</t>
+  </si>
+  <si>
+    <t>calcaneus length</t>
+  </si>
+  <si>
+    <t>calcaneus breadth</t>
+  </si>
+  <si>
+    <t>astragalus breadth</t>
+  </si>
+  <si>
+    <t>testes length</t>
+  </si>
+  <si>
+    <t>testes length right</t>
+  </si>
+  <si>
+    <t>testes length left</t>
+  </si>
+  <si>
+    <t>ovary length</t>
+  </si>
+  <si>
+    <t>ovary length right</t>
+  </si>
+  <si>
+    <t>ovary length left</t>
+  </si>
+  <si>
+    <t>astragalus length lateral</t>
+  </si>
+  <si>
+    <t>tail length</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>astragalus width</t>
+  </si>
+  <si>
+    <t>hindfoot length with nail</t>
+  </si>
+  <si>
+    <t>hindfoot length without nail</t>
+  </si>
+  <si>
+    <t>IN OBA</t>
+  </si>
+  <si>
+    <t>post-anal tail length or tail length?</t>
+  </si>
+  <si>
+    <t>external length of ear</t>
+  </si>
+  <si>
+    <t>length and ('inheres in' some pes) OR line along proximal-distal of pes</t>
+  </si>
+  <si>
+    <t>calcaneus width</t>
+  </si>
+  <si>
+    <t>length and ('inheres in' some line that connects anatomical point' and ('part of' some ('distalmost part of' some 'heel')) and anatomical point' and ('part of' some ('distalmost part of' some 'phalanx of pes'))</t>
+  </si>
+  <si>
+    <t>length and ('inheres in' some line that connects anatomical point' and ('part of' some ('distalmost part of' some 'heel')) and anatomical point' and ('part of' some ('distalmost part of' some 'cutaneous appendage'))</t>
+  </si>
+  <si>
+    <t>length and ('inheres in' some line that connects nose tip and anus)</t>
+  </si>
+  <si>
+    <t>length and ('inheres in' some line that connects nose tip and 'anatomical point' and 'distalmost part of' some tail))</t>
+  </si>
+  <si>
+    <t>length and ('inheres in' some line along proximal-distal of some tail)</t>
+  </si>
+  <si>
+    <t>length and ('inheres in' some line that connects helix and intertragic notch)</t>
+  </si>
+  <si>
+    <t>length and ('inheres in' some line that connects helix and tragus)</t>
+  </si>
+  <si>
+    <t>length and ('inheres in' some line along proximal-distal of lateral side' some talus)</t>
+  </si>
+  <si>
+    <t>astragalus bradth</t>
+  </si>
+  <si>
+    <t>humerus length</t>
   </si>
 </sst>
 </file>
@@ -4183,7 +4336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4216,6 +4369,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -18897,10 +19051,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BA4F15-3142-994E-BF8B-16093E97474D}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -18910,7 +19064,7 @@
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1149</v>
       </c>
@@ -18920,15 +19074,102 @@
       <c r="C1" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D5" t="str">
+        <f>"line that connects "&amp;B5&amp;" and "&amp;C5</f>
+        <v>line that connects nose tip and 'anatomical point' and 'distalmost part of' some tail)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" ref="D6" si="0">"line that connects "&amp;B6&amp;" and "&amp;C6</f>
+        <v>line that connects nose tip and anus</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" ref="D7:D10" si="1">"line that connects "&amp;B7&amp;" and "&amp;C7</f>
+        <v>line that connects helix and intertragic notch</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>line that connects helix and tragus</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="24" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>line that connects anatomical point' and ('part of' some ('distalmost part of' some 'heel')) and anatomical point' and ('part of' some ('distalmost part of' some 'cutaneous appendage'))</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="24" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>line that connects anatomical point' and ('part of' some ('distalmost part of' some 'heel')) and anatomical point' and ('part of' some ('distalmost part of' some 'phalanx of pes'))</v>
       </c>
     </row>
   </sheetData>
@@ -18938,10 +19179,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01658F34-4982-8840-AF22-6E6480DB069B}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:B52"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -19725,33 +19966,118 @@
         <v>line along anterior-posterior axis of lateral surface some metatarsal bone of digit 3</v>
       </c>
     </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D56" t="str">
+        <f>"line along "&amp;B56&amp;" of "&amp;C56</f>
+        <v>line along proximal-distal of lateral side' some talus</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D57" t="str">
+        <f>"line along "&amp;B57&amp;" of "&amp;C57</f>
+        <v>line along proximal-distal of pes</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>1339</v>
+      </c>
+    </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="1" t="s">
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1" t="s">
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="1" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
         <v>665</v>
       </c>
     </row>
@@ -19763,20 +20089,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C6BB58-E681-9A44-BAE6-1CC6AE173542}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1199</v>
       </c>
@@ -19784,109 +20116,117 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>1316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1330</v>
       </c>
     </row>
   </sheetData>
@@ -19896,10 +20236,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBC00A8-69BB-C944-AE92-971EEE98B192}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -20283,6 +20624,229 @@
       </c>
       <c r="C31" t="s">
         <v>1255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G34" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1317</v>
+      </c>
+      <c r="G35" t="s">
+        <v>127</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>555</v>
+      </c>
+      <c r="C36" t="s">
+        <v>555</v>
+      </c>
+      <c r="G36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1354</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>1367</v>
       </c>
     </row>
   </sheetData>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCEDA50-7843-A34F-8A5B-23DBBD17E1A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C36197-2FD9-AD40-BE8E-CC70E7E104B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="-10580" windowWidth="28800" windowHeight="16660" activeTab="5" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2918" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="1372">
   <si>
     <t>Status</t>
   </si>
@@ -4207,6 +4207,18 @@
   </si>
   <si>
     <t>humerus length</t>
+  </si>
+  <si>
+    <t>humerus length 1</t>
+  </si>
+  <si>
+    <t>humerus length 2</t>
+  </si>
+  <si>
+    <t>subclass</t>
+  </si>
+  <si>
+    <t>talus length lateral</t>
   </si>
 </sst>
 </file>
@@ -4723,7 +4735,7 @@
   <dimension ref="A1:AD531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="G157" sqref="G157"/>
     </sheetView>
@@ -19051,10 +19063,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BA4F15-3142-994E-BF8B-16093E97474D}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -19064,7 +19076,7 @@
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1149</v>
       </c>
@@ -19077,18 +19089,21 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>1317</v>
       </c>
@@ -19103,7 +19118,7 @@
         <v>line that connects nose tip and 'anatomical point' and 'distalmost part of' some tail)</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>1318</v>
       </c>
@@ -19118,7 +19133,7 @@
         <v>line that connects nose tip and anus</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1322</v>
       </c>
@@ -19133,7 +19148,7 @@
         <v>line that connects helix and intertragic notch</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>1325</v>
       </c>
@@ -19148,7 +19163,10 @@
         <v>line that connects helix and tragus</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>1351</v>
+      </c>
       <c r="B9" s="24" t="s">
         <v>1327</v>
       </c>
@@ -19160,7 +19178,10 @@
         <v>line that connects anatomical point' and ('part of' some ('distalmost part of' some 'heel')) and anatomical point' and ('part of' some ('distalmost part of' some 'cutaneous appendage'))</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>1352</v>
+      </c>
       <c r="B10" s="24" t="s">
         <v>1327</v>
       </c>
@@ -19170,6 +19191,22 @@
       <c r="D10" t="str">
         <f t="shared" si="1"/>
         <v>line that connects anatomical point' and ('part of' some ('distalmost part of' some 'heel')) and anatomical point' and ('part of' some ('distalmost part of' some 'phalanx of pes'))</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1367</v>
       </c>
     </row>
   </sheetData>
@@ -19181,8 +19218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01658F34-4982-8840-AF22-6E6480DB069B}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:A68"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -20240,7 +20277,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -20724,8 +20761,11 @@
       <c r="A42" t="s">
         <v>1332</v>
       </c>
+      <c r="B42" t="s">
+        <v>1347</v>
+      </c>
       <c r="C42" t="s">
-        <v>1347</v>
+        <v>1371</v>
       </c>
       <c r="I42" t="s">
         <v>1365</v>
@@ -20735,8 +20775,11 @@
       <c r="A43" t="s">
         <v>1350</v>
       </c>
+      <c r="B43" t="s">
+        <v>1366</v>
+      </c>
       <c r="C43" t="s">
-        <v>1366</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:9">

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C36197-2FD9-AD40-BE8E-CC70E7E104B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC507E4-EF4A-F04D-9682-FA8C6BC8414D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="-10580" windowWidth="28800" windowHeight="16660" activeTab="5" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="31220" yWindow="-10860" windowWidth="28800" windowHeight="16660" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="1372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="1402">
   <si>
     <t>Status</t>
   </si>
@@ -4219,6 +4219,96 @@
   </si>
   <si>
     <t>talus length lateral</t>
+  </si>
+  <si>
+    <t>humerus length to caput</t>
+  </si>
+  <si>
+    <t>humerus length to X</t>
+  </si>
+  <si>
+    <t>femur length X</t>
+  </si>
+  <si>
+    <t>femur length to Y</t>
+  </si>
+  <si>
+    <t>femur length</t>
+  </si>
+  <si>
+    <t>distal breadth of talus</t>
+  </si>
+  <si>
+    <t>fix pes length to have synonym "hindfoot length" and broad synonym "foot length"</t>
+  </si>
+  <si>
+    <t>{M3 length}</t>
+  </si>
+  <si>
+    <t>{M3 width}</t>
+  </si>
+  <si>
+    <t>{M2 length}</t>
+  </si>
+  <si>
+    <t>{M2 width}</t>
+  </si>
+  <si>
+    <t>{M1 length}</t>
+  </si>
+  <si>
+    <t>{M1 width}</t>
+  </si>
+  <si>
+    <t>{P4 length}</t>
+  </si>
+  <si>
+    <t>{P4 width}</t>
+  </si>
+  <si>
+    <t>{P2 length}</t>
+  </si>
+  <si>
+    <t>{P2 width}</t>
+  </si>
+  <si>
+    <t>{m3 length}</t>
+  </si>
+  <si>
+    <t>{m3 width}</t>
+  </si>
+  <si>
+    <t>{m2 length}</t>
+  </si>
+  <si>
+    <t>{m2 width}</t>
+  </si>
+  <si>
+    <t>{m1 length}</t>
+  </si>
+  <si>
+    <t>{m1 width}</t>
+  </si>
+  <si>
+    <t>{p4 length}</t>
+  </si>
+  <si>
+    <t>{p4 width}</t>
+  </si>
+  <si>
+    <t>{p2 length}</t>
+  </si>
+  <si>
+    <t>{p2 width}</t>
+  </si>
+  <si>
+    <t>{humerus length}</t>
+  </si>
+  <si>
+    <t>length and ('inheres in'</t>
+  </si>
+  <si>
+    <t>depricate: 7500030-51; 7500060</t>
   </si>
 </sst>
 </file>
@@ -4697,10 +4787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581405C8-F852-7340-B9C9-201B714E3AD5}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4723,6 +4813,16 @@
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>1401</v>
       </c>
     </row>
   </sheetData>
@@ -20273,11 +20373,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBC00A8-69BB-C944-AE92-971EEE98B192}">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -20831,7 +20931,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>1357</v>
       </c>
@@ -20839,7 +20939,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>1341</v>
       </c>
@@ -20847,7 +20947,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>1342</v>
       </c>
@@ -20855,7 +20955,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>1343</v>
       </c>
@@ -20863,7 +20963,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>1344</v>
       </c>
@@ -20871,7 +20971,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>1345</v>
       </c>
@@ -20879,7 +20979,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>1346</v>
       </c>
@@ -20887,9 +20987,199 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G56" t="s">
         <v>1367</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B60" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="I61" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>1399</v>
       </c>
     </row>
   </sheetData>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdebasto\Desktop\GitHub\fovt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC507E4-EF4A-F04D-9682-FA8C6BC8414D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C44EBDC-C856-4F38-BB7F-62B013F1AA73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31220" yWindow="-10860" windowWidth="28800" windowHeight="16660" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -26,12 +26,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="1402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2987" uniqueCount="1420">
   <si>
     <t>Status</t>
   </si>
@@ -4005,21 +4014,6 @@
     <t>length and (in</t>
   </si>
   <si>
-    <t>proximal facet for metatarsal IV on metatarsal III</t>
-  </si>
-  <si>
-    <t>proximal facet for metatarsal II on metatarsal III</t>
-  </si>
-  <si>
-    <t>posterior facet for metacarpal IV on metacarpal III</t>
-  </si>
-  <si>
-    <t>proximal facet for metacarpal IV on metacarpal III</t>
-  </si>
-  <si>
-    <t>proximal facet for metacarpal II on metacarpal III</t>
-  </si>
-  <si>
     <t>lateral epicondylar tuberosity of metacarpal III</t>
   </si>
   <si>
@@ -4309,6 +4303,75 @@
   </si>
   <si>
     <t>depricate: 7500030-51; 7500060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sagittal ridge located at the distal end of metatarsal bone of digit 3. It divides the medial and the lateral condyles. </t>
+  </si>
+  <si>
+    <t>Lateral articular prominence located at the distal end of the metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Lateral articular prominence located at the distal end of the metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Medial articular prominence located at the distal end of the metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Medial articular prominence located at the distal end of the metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Facet on the proximal surface of the metatarsal bone of digit 3 that articulates to the distal tarsal bone 4</t>
+  </si>
+  <si>
+    <t>Facet on the proximal surface of the metatarsal bone of digit 3 that articulates to the distal tarsal bone 2</t>
+  </si>
+  <si>
+    <t>Facet on the proximal surface of the metacarpal bone of digit 3 that articulates anteriorly to the distal carpal bone 4</t>
+  </si>
+  <si>
+    <t>Facet on the proximal surface of the metacarpal bone of digit 3 that articulates to the distal carpal bone 2</t>
+  </si>
+  <si>
+    <t>Facet on the proximal surface of the metacarpal bone of digit 3 that articulates posteriorly to the distal carpal bone 4</t>
+  </si>
+  <si>
+    <t>Lateral tuberosity located above the lateral condyle of the metacarpal bone of digit 3. It's the attachment site for the collateral ligaments of the metacarpophalangeal joint.</t>
+  </si>
+  <si>
+    <t>Medial tuberosity located above the medial condyle of the metacarpal bone of digit 3. It's the attachment site for the collateral ligaments of the metacarpophalangeal joint.</t>
+  </si>
+  <si>
+    <t>Lateral tuberosity located above the lateral condyle of the metatarsal bone of digit 3. It's the attachment site for collateral ligaments of the metacarpophalangeal joint.</t>
+  </si>
+  <si>
+    <t>Medial tuberosity located above the medial condyle of the metatarsal bone of digit 3. It's the attachment site for collateral ligaments of the metacarpophalangeal joint.</t>
+  </si>
+  <si>
+    <t>Lateral tuberosity located above the lateral condyle of the medial phalanx of digit 3. It's the attachment site for the collateral ligaments of the interphalangeal joint.</t>
+  </si>
+  <si>
+    <t>Medial tuberosity located above the medial condyle of the medial phalanx of digit 3. It's the attachment site for the collateral ligaments of the interphalangeal joint.</t>
+  </si>
+  <si>
+    <t>Lateral tuberosity located above the lateral condyle of the proximal phalanx of digit 3. It's the attachment site for the collateral ligaments of the interphalangeal joint.</t>
+  </si>
+  <si>
+    <t>Medial tuberosity located above the medial condyle of the proximal phalanx of digit 3. It's the attachment site for the collateral ligaments of the interphalangeal joint.</t>
+  </si>
+  <si>
+    <t>proximal facet for tarsal IV on metatarsal III</t>
+  </si>
+  <si>
+    <t>proximal facet for tarsal II on metatarsal III</t>
+  </si>
+  <si>
+    <t>proximal facet for carpal IV on metacarpal III</t>
+  </si>
+  <si>
+    <t>proximal facet for carpal II on metacarpal III</t>
+  </si>
+  <si>
+    <t>posterior facet for carpal IV on metacarpal III</t>
   </si>
 </sst>
 </file>
@@ -4465,13 +4528,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4789,11 +4852,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581405C8-F852-7340-B9C9-201B714E3AD5}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
@@ -4817,12 +4880,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
     </row>
   </sheetData>
@@ -4840,7 +4903,7 @@
       <selection pane="bottomLeft" activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" t="s">
@@ -4908,7 +4971,7 @@
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>1042</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4956,7 +5019,7 @@
       <c r="AD2" s="2"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -5002,7 +5065,7 @@
       <c r="AD3" s="2"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -5048,7 +5111,7 @@
       <c r="AD4" s="2"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="E5" s="2" t="s">
         <v>344</v>
       </c>
@@ -5078,7 +5141,7 @@
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:30" s="11" customFormat="1">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
         <v>344</v>
@@ -5111,7 +5174,7 @@
       <c r="U6" s="10"/>
     </row>
     <row r="7" spans="1:30" s="11" customFormat="1">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="10" t="s">
         <v>1148</v>
       </c>
@@ -5165,7 +5228,7 @@
       <c r="AD7" s="10"/>
     </row>
     <row r="8" spans="1:30" s="11" customFormat="1">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
         <v>1031</v>
@@ -5217,7 +5280,7 @@
       <c r="AD8" s="10"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>1043</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5265,7 +5328,7 @@
       <c r="AD9" s="2"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -5311,7 +5374,7 @@
       <c r="AD10" s="2"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
@@ -5357,7 +5420,7 @@
       <c r="AD11" s="2"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -5403,7 +5466,7 @@
       <c r="AD12" s="2"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
@@ -5449,7 +5512,7 @@
       <c r="AD13" s="2"/>
     </row>
     <row r="14" spans="1:30" s="11" customFormat="1">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
         <v>1031</v>
@@ -5499,7 +5562,7 @@
       <c r="AD14" s="10"/>
     </row>
     <row r="15" spans="1:30" s="11" customFormat="1">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
         <v>1031</v>
@@ -5547,7 +5610,7 @@
       <c r="AD15" s="10"/>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -5593,7 +5656,7 @@
       <c r="AD16" s="2"/>
     </row>
     <row r="17" spans="1:30" s="11" customFormat="1">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
         <v>1031</v>
@@ -5645,7 +5708,7 @@
       <c r="AD17" s="10"/>
     </row>
     <row r="18" spans="1:30" s="11" customFormat="1">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="C18" s="10" t="s">
         <v>1031</v>
       </c>
@@ -5657,7 +5720,7 @@
       </c>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="E19" s="1" t="s">
         <v>344</v>
       </c>
@@ -5685,7 +5748,7 @@
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="22"/>
+      <c r="A20" s="23"/>
       <c r="E20" s="1" t="s">
         <v>344</v>
       </c>
@@ -5713,7 +5776,7 @@
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="E21" s="1" t="s">
         <v>344</v>
       </c>
@@ -5741,7 +5804,7 @@
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
       <c r="E22" s="1" t="s">
         <v>344</v>
       </c>
@@ -5766,7 +5829,7 @@
       <c r="S22" s="2"/>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="E23" s="1" t="s">
         <v>344</v>
       </c>
@@ -5791,7 +5854,7 @@
       <c r="S23" s="2"/>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="23" t="s">
         <v>1044</v>
       </c>
       <c r="E24" s="2"/>
@@ -5814,7 +5877,7 @@
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="7" t="s">
@@ -5835,7 +5898,7 @@
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="7" t="s">
@@ -5856,7 +5919,7 @@
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="22"/>
+      <c r="A27" s="23"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="7" t="s">
@@ -5877,7 +5940,7 @@
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="7" t="s">
@@ -5898,7 +5961,7 @@
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="22"/>
+      <c r="A29" s="23"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="7" t="s">
@@ -5919,7 +5982,7 @@
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="1:30">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
@@ -5965,7 +6028,7 @@
       <c r="AD30" s="2"/>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
@@ -6011,7 +6074,7 @@
       <c r="AD31" s="2"/>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32" s="22"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
@@ -6057,7 +6120,7 @@
       <c r="AD32" s="2"/>
     </row>
     <row r="33" spans="1:30">
-      <c r="A33" s="22"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="1" t="s">
         <v>14</v>
       </c>
@@ -6105,7 +6168,7 @@
       <c r="AD33" s="2"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="22"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
@@ -6153,7 +6216,7 @@
       <c r="AD34" s="2"/>
     </row>
     <row r="35" spans="1:30" s="11" customFormat="1">
-      <c r="A35" s="22"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10" t="s">
         <v>1031</v>
@@ -6205,7 +6268,7 @@
       <c r="AD35" s="10"/>
     </row>
     <row r="36" spans="1:30" s="11" customFormat="1">
-      <c r="A36" s="22"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
         <v>1031</v>
@@ -6257,7 +6320,7 @@
       <c r="AD36" s="10"/>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="22"/>
+      <c r="A37" s="23"/>
       <c r="E37" s="1" t="s">
         <v>15</v>
       </c>
@@ -6283,7 +6346,7 @@
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="1:30">
-      <c r="A38" s="22"/>
+      <c r="A38" s="23"/>
       <c r="E38" s="1" t="s">
         <v>344</v>
       </c>
@@ -6308,7 +6371,7 @@
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="1:30">
-      <c r="A39" s="22"/>
+      <c r="A39" s="23"/>
       <c r="E39" s="1" t="s">
         <v>344</v>
       </c>
@@ -6333,7 +6396,7 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="1:30">
-      <c r="A40" s="22"/>
+      <c r="A40" s="23"/>
       <c r="E40" s="1" t="s">
         <v>344</v>
       </c>
@@ -6358,7 +6421,7 @@
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="1:30">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="E41" s="1" t="s">
         <v>344</v>
       </c>
@@ -6383,7 +6446,7 @@
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="1:30">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="E42" s="1" t="s">
         <v>344</v>
       </c>
@@ -6407,7 +6470,7 @@
       <c r="S42" s="2"/>
     </row>
     <row r="43" spans="1:30" s="11" customFormat="1">
-      <c r="A43" s="22"/>
+      <c r="A43" s="23"/>
       <c r="C43" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6438,7 +6501,7 @@
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:30" s="11" customFormat="1">
-      <c r="A44" s="22"/>
+      <c r="A44" s="23"/>
       <c r="C44" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6471,7 +6534,7 @@
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:30" s="11" customFormat="1">
-      <c r="A45" s="22"/>
+      <c r="A45" s="23"/>
       <c r="C45" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6504,7 +6567,7 @@
       <c r="U45" s="10"/>
     </row>
     <row r="46" spans="1:30" s="11" customFormat="1">
-      <c r="A46" s="22"/>
+      <c r="A46" s="23"/>
       <c r="C46" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6535,7 +6598,7 @@
       <c r="U46" s="10"/>
     </row>
     <row r="47" spans="1:30" s="11" customFormat="1">
-      <c r="A47" s="22"/>
+      <c r="A47" s="23"/>
       <c r="C47" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6568,7 +6631,7 @@
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:30" s="11" customFormat="1">
-      <c r="A48" s="22"/>
+      <c r="A48" s="23"/>
       <c r="C48" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6599,7 +6662,7 @@
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:30" s="11" customFormat="1">
-      <c r="A49" s="22"/>
+      <c r="A49" s="23"/>
       <c r="C49" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6630,7 +6693,7 @@
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:30" s="11" customFormat="1">
-      <c r="A50" s="22"/>
+      <c r="A50" s="23"/>
       <c r="C50" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6663,7 +6726,7 @@
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:30" s="11" customFormat="1">
-      <c r="A51" s="22"/>
+      <c r="A51" s="23"/>
       <c r="C51" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6696,7 +6759,7 @@
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:30" s="11" customFormat="1">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
       <c r="C52" s="10" t="s">
         <v>1031</v>
       </c>
@@ -6729,7 +6792,7 @@
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:30">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="23" t="s">
         <v>1045</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -6777,7 +6840,7 @@
       <c r="AD53" s="2"/>
     </row>
     <row r="54" spans="1:30">
-      <c r="A54" s="22"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="1" t="s">
         <v>14</v>
       </c>
@@ -6823,7 +6886,7 @@
       <c r="AD54" s="2"/>
     </row>
     <row r="55" spans="1:30">
-      <c r="A55" s="22"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="1" t="s">
         <v>14</v>
       </c>
@@ -6869,7 +6932,7 @@
       <c r="AD55" s="2"/>
     </row>
     <row r="56" spans="1:30">
-      <c r="A56" s="22"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="1" t="s">
         <v>14</v>
       </c>
@@ -6917,7 +6980,7 @@
       <c r="AD56" s="2"/>
     </row>
     <row r="57" spans="1:30">
-      <c r="A57" s="22"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="1" t="s">
         <v>14</v>
       </c>
@@ -6965,7 +7028,7 @@
       <c r="AD57" s="2"/>
     </row>
     <row r="58" spans="1:30" s="11" customFormat="1">
-      <c r="A58" s="22"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
         <v>1031</v>
@@ -7017,7 +7080,7 @@
       <c r="AD58" s="10"/>
     </row>
     <row r="59" spans="1:30" s="11" customFormat="1">
-      <c r="A59" s="22"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10" t="s">
         <v>1031</v>
@@ -7069,7 +7132,7 @@
       <c r="AD59" s="10"/>
     </row>
     <row r="60" spans="1:30" s="11" customFormat="1">
-      <c r="A60" s="22"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -7092,7 +7155,7 @@
       <c r="U60" s="10"/>
     </row>
     <row r="61" spans="1:30">
-      <c r="A61" s="22"/>
+      <c r="A61" s="23"/>
       <c r="E61" s="1" t="s">
         <v>15</v>
       </c>
@@ -7115,7 +7178,7 @@
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="1:30">
-      <c r="A62" s="22"/>
+      <c r="A62" s="23"/>
       <c r="E62" s="1" t="s">
         <v>344</v>
       </c>
@@ -7139,7 +7202,7 @@
       <c r="S62" s="2"/>
     </row>
     <row r="63" spans="1:30">
-      <c r="A63" s="22"/>
+      <c r="A63" s="23"/>
       <c r="E63" s="1" t="s">
         <v>344</v>
       </c>
@@ -7163,7 +7226,7 @@
       <c r="S63" s="2"/>
     </row>
     <row r="64" spans="1:30">
-      <c r="A64" s="22"/>
+      <c r="A64" s="23"/>
       <c r="E64" s="1" t="s">
         <v>344</v>
       </c>
@@ -7187,7 +7250,7 @@
       <c r="S64" s="2"/>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="22"/>
+      <c r="A65" s="23"/>
       <c r="E65" s="1" t="s">
         <v>344</v>
       </c>
@@ -7211,7 +7274,7 @@
       <c r="S65" s="2"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="22"/>
+      <c r="A66" s="23"/>
       <c r="E66" s="1" t="s">
         <v>344</v>
       </c>
@@ -7235,7 +7298,7 @@
       <c r="S66" s="2"/>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="22"/>
+      <c r="A67" s="23"/>
       <c r="E67" s="1" t="s">
         <v>344</v>
       </c>
@@ -7259,7 +7322,7 @@
       <c r="S67" s="2"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="22"/>
+      <c r="A68" s="23"/>
       <c r="E68" s="1" t="s">
         <v>344</v>
       </c>
@@ -7282,7 +7345,7 @@
       <c r="R68" s="2"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="22"/>
+      <c r="A69" s="23"/>
       <c r="E69" s="1" t="s">
         <v>344</v>
       </c>
@@ -7306,7 +7369,7 @@
       <c r="S69" s="2"/>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="22"/>
+      <c r="A70" s="23"/>
       <c r="E70" s="1" t="s">
         <v>15</v>
       </c>
@@ -7332,7 +7395,7 @@
       <c r="P70" s="2"/>
     </row>
     <row r="71" spans="1:21" s="11" customFormat="1">
-      <c r="A71" s="22"/>
+      <c r="A71" s="23"/>
       <c r="C71" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7363,7 +7426,7 @@
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="1:21" s="11" customFormat="1">
-      <c r="A72" s="22"/>
+      <c r="A72" s="23"/>
       <c r="C72" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7396,7 +7459,7 @@
       <c r="U72" s="10"/>
     </row>
     <row r="73" spans="1:21" s="11" customFormat="1">
-      <c r="A73" s="22"/>
+      <c r="A73" s="23"/>
       <c r="C73" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7429,7 +7492,7 @@
       <c r="U73" s="10"/>
     </row>
     <row r="74" spans="1:21" s="11" customFormat="1">
-      <c r="A74" s="22"/>
+      <c r="A74" s="23"/>
       <c r="C74" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7462,7 +7525,7 @@
       <c r="U74" s="10"/>
     </row>
     <row r="75" spans="1:21" s="11" customFormat="1">
-      <c r="A75" s="22"/>
+      <c r="A75" s="23"/>
       <c r="C75" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7495,7 +7558,7 @@
       <c r="U75" s="10"/>
     </row>
     <row r="76" spans="1:21" s="11" customFormat="1">
-      <c r="A76" s="22"/>
+      <c r="A76" s="23"/>
       <c r="C76" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7528,7 +7591,7 @@
       <c r="U76" s="10"/>
     </row>
     <row r="77" spans="1:21" s="11" customFormat="1">
-      <c r="A77" s="22"/>
+      <c r="A77" s="23"/>
       <c r="C77" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7559,7 +7622,7 @@
       <c r="U77" s="10"/>
     </row>
     <row r="78" spans="1:21" s="11" customFormat="1">
-      <c r="A78" s="22"/>
+      <c r="A78" s="23"/>
       <c r="C78" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7592,7 +7655,7 @@
       <c r="U78" s="10"/>
     </row>
     <row r="79" spans="1:21" s="11" customFormat="1">
-      <c r="A79" s="22"/>
+      <c r="A79" s="23"/>
       <c r="C79" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7621,7 +7684,7 @@
       <c r="U79" s="10"/>
     </row>
     <row r="80" spans="1:21" s="16" customFormat="1">
-      <c r="A80" s="22"/>
+      <c r="A80" s="23"/>
       <c r="B80" s="18"/>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
@@ -7644,7 +7707,7 @@
       <c r="U80" s="17"/>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="22"/>
+      <c r="A81" s="23"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="7" t="s">
@@ -7665,7 +7728,7 @@
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="22"/>
+      <c r="A82" s="23"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="7" t="s">
@@ -7686,7 +7749,7 @@
       <c r="U82" s="2"/>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="22"/>
+      <c r="A83" s="23"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="7" t="s">
@@ -7707,7 +7770,7 @@
       <c r="U83" s="2"/>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="22"/>
+      <c r="A84" s="23"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="7" t="s">
@@ -7728,7 +7791,7 @@
       <c r="U84" s="2"/>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="22"/>
+      <c r="A85" s="23"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="7" t="s">
@@ -7749,7 +7812,7 @@
       <c r="U85" s="2"/>
     </row>
     <row r="86" spans="1:21">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="24" t="s">
         <v>1046</v>
       </c>
       <c r="E86" s="3" t="s">
@@ -7783,7 +7846,7 @@
       <c r="U86" s="2"/>
     </row>
     <row r="87" spans="1:21">
-      <c r="A87" s="23"/>
+      <c r="A87" s="24"/>
       <c r="E87" s="3" t="s">
         <v>15</v>
       </c>
@@ -7815,7 +7878,7 @@
       <c r="U87" s="2"/>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="23"/>
+      <c r="A88" s="24"/>
       <c r="E88" s="3" t="s">
         <v>15</v>
       </c>
@@ -7847,7 +7910,7 @@
       <c r="U88" s="2"/>
     </row>
     <row r="89" spans="1:21" s="11" customFormat="1">
-      <c r="A89" s="23"/>
+      <c r="A89" s="24"/>
       <c r="C89" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7886,7 +7949,7 @@
       <c r="U89" s="10"/>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="23"/>
+      <c r="A90" s="24"/>
       <c r="E90" s="3" t="s">
         <v>15</v>
       </c>
@@ -7918,7 +7981,7 @@
       <c r="U90" s="2"/>
     </row>
     <row r="91" spans="1:21" s="11" customFormat="1">
-      <c r="A91" s="23"/>
+      <c r="A91" s="24"/>
       <c r="C91" s="10" t="s">
         <v>1031</v>
       </c>
@@ -7959,7 +8022,7 @@
       <c r="U91" s="10"/>
     </row>
     <row r="92" spans="1:21">
-      <c r="A92" s="23"/>
+      <c r="A92" s="24"/>
       <c r="E92" s="3" t="s">
         <v>15</v>
       </c>
@@ -7991,7 +8054,7 @@
       <c r="U92" s="2"/>
     </row>
     <row r="93" spans="1:21" s="11" customFormat="1">
-      <c r="A93" s="23"/>
+      <c r="A93" s="24"/>
       <c r="C93" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8034,7 +8097,7 @@
       <c r="U93" s="10"/>
     </row>
     <row r="94" spans="1:21">
-      <c r="A94" s="23"/>
+      <c r="A94" s="24"/>
       <c r="E94" s="3" t="s">
         <v>15</v>
       </c>
@@ -8066,7 +8129,7 @@
       <c r="U94" s="2"/>
     </row>
     <row r="95" spans="1:21" s="11" customFormat="1">
-      <c r="A95" s="23"/>
+      <c r="A95" s="24"/>
       <c r="C95" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8105,7 +8168,7 @@
       <c r="U95" s="10"/>
     </row>
     <row r="96" spans="1:21">
-      <c r="A96" s="23"/>
+      <c r="A96" s="24"/>
       <c r="E96" s="3" t="s">
         <v>15</v>
       </c>
@@ -8137,7 +8200,7 @@
       <c r="U96" s="2"/>
     </row>
     <row r="97" spans="1:21" s="11" customFormat="1">
-      <c r="A97" s="23"/>
+      <c r="A97" s="24"/>
       <c r="C97" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8176,7 +8239,7 @@
       <c r="U97" s="10"/>
     </row>
     <row r="98" spans="1:21">
-      <c r="A98" s="23"/>
+      <c r="A98" s="24"/>
       <c r="E98" s="3" t="s">
         <v>15</v>
       </c>
@@ -8208,7 +8271,7 @@
       <c r="U98" s="2"/>
     </row>
     <row r="99" spans="1:21">
-      <c r="A99" s="23"/>
+      <c r="A99" s="24"/>
       <c r="E99" s="3" t="s">
         <v>15</v>
       </c>
@@ -8240,7 +8303,7 @@
       <c r="U99" s="2"/>
     </row>
     <row r="100" spans="1:21">
-      <c r="A100" s="23"/>
+      <c r="A100" s="24"/>
       <c r="E100" s="3" t="s">
         <v>15</v>
       </c>
@@ -8272,7 +8335,7 @@
       <c r="U100" s="2"/>
     </row>
     <row r="101" spans="1:21" s="11" customFormat="1">
-      <c r="A101" s="23"/>
+      <c r="A101" s="24"/>
       <c r="C101" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8311,7 +8374,7 @@
       <c r="U101" s="10"/>
     </row>
     <row r="102" spans="1:21">
-      <c r="A102" s="23"/>
+      <c r="A102" s="24"/>
       <c r="E102" s="3" t="s">
         <v>15</v>
       </c>
@@ -8343,7 +8406,7 @@
       <c r="U102" s="2"/>
     </row>
     <row r="103" spans="1:21" s="11" customFormat="1">
-      <c r="A103" s="23"/>
+      <c r="A103" s="24"/>
       <c r="C103" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8384,7 +8447,7 @@
       <c r="U103" s="10"/>
     </row>
     <row r="104" spans="1:21">
-      <c r="A104" s="23"/>
+      <c r="A104" s="24"/>
       <c r="E104" s="3" t="s">
         <v>15</v>
       </c>
@@ -8416,7 +8479,7 @@
       <c r="U104" s="2"/>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="23"/>
+      <c r="A105" s="24"/>
       <c r="E105" s="3" t="s">
         <v>15</v>
       </c>
@@ -8448,7 +8511,7 @@
       <c r="U105" s="2"/>
     </row>
     <row r="106" spans="1:21" s="11" customFormat="1">
-      <c r="A106" s="23"/>
+      <c r="A106" s="24"/>
       <c r="C106" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8489,7 +8552,7 @@
       <c r="U106" s="10"/>
     </row>
     <row r="107" spans="1:21">
-      <c r="A107" s="23"/>
+      <c r="A107" s="24"/>
       <c r="E107" s="3" t="s">
         <v>15</v>
       </c>
@@ -8521,7 +8584,7 @@
       <c r="U107" s="2"/>
     </row>
     <row r="108" spans="1:21" s="11" customFormat="1">
-      <c r="A108" s="23"/>
+      <c r="A108" s="24"/>
       <c r="C108" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8560,7 +8623,7 @@
       <c r="U108" s="10"/>
     </row>
     <row r="109" spans="1:21">
-      <c r="A109" s="23"/>
+      <c r="A109" s="24"/>
       <c r="E109" s="3" t="s">
         <v>15</v>
       </c>
@@ -8592,7 +8655,7 @@
       <c r="U109" s="2"/>
     </row>
     <row r="110" spans="1:21">
-      <c r="A110" s="23"/>
+      <c r="A110" s="24"/>
       <c r="E110" s="3" t="s">
         <v>15</v>
       </c>
@@ -8622,7 +8685,7 @@
       <c r="U110" s="2"/>
     </row>
     <row r="111" spans="1:21" s="11" customFormat="1">
-      <c r="A111" s="23"/>
+      <c r="A111" s="24"/>
       <c r="C111" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8663,7 +8726,7 @@
       <c r="U111" s="10"/>
     </row>
     <row r="112" spans="1:21">
-      <c r="A112" s="23"/>
+      <c r="A112" s="24"/>
       <c r="E112" s="3" t="s">
         <v>15</v>
       </c>
@@ -8693,7 +8756,7 @@
       <c r="U112" s="2"/>
     </row>
     <row r="113" spans="1:21">
-      <c r="A113" s="23"/>
+      <c r="A113" s="24"/>
       <c r="E113" s="3" t="s">
         <v>15</v>
       </c>
@@ -8723,7 +8786,7 @@
       <c r="U113" s="2"/>
     </row>
     <row r="114" spans="1:21" s="11" customFormat="1">
-      <c r="A114" s="23"/>
+      <c r="A114" s="24"/>
       <c r="C114" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8764,7 +8827,7 @@
       <c r="U114" s="10"/>
     </row>
     <row r="115" spans="1:21">
-      <c r="A115" s="23"/>
+      <c r="A115" s="24"/>
       <c r="E115" s="3" t="s">
         <v>15</v>
       </c>
@@ -8796,7 +8859,7 @@
       <c r="U115" s="2"/>
     </row>
     <row r="116" spans="1:21" s="11" customFormat="1">
-      <c r="A116" s="23"/>
+      <c r="A116" s="24"/>
       <c r="C116" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8835,7 +8898,7 @@
       <c r="U116" s="10"/>
     </row>
     <row r="117" spans="1:21">
-      <c r="A117" s="22" t="s">
+      <c r="A117" s="23" t="s">
         <v>1048</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -8861,7 +8924,7 @@
       <c r="S117" s="2"/>
     </row>
     <row r="118" spans="1:21">
-      <c r="A118" s="22"/>
+      <c r="A118" s="23"/>
       <c r="E118" s="1" t="s">
         <v>344</v>
       </c>
@@ -8885,7 +8948,7 @@
       <c r="S118" s="2"/>
     </row>
     <row r="119" spans="1:21">
-      <c r="A119" s="22"/>
+      <c r="A119" s="23"/>
       <c r="E119" s="1" t="s">
         <v>344</v>
       </c>
@@ -8909,7 +8972,7 @@
       <c r="S119" s="2"/>
     </row>
     <row r="120" spans="1:21">
-      <c r="A120" s="22"/>
+      <c r="A120" s="23"/>
       <c r="E120" s="1" t="s">
         <v>344</v>
       </c>
@@ -8933,7 +8996,7 @@
       <c r="S120" s="2"/>
     </row>
     <row r="121" spans="1:21">
-      <c r="A121" s="22"/>
+      <c r="A121" s="23"/>
       <c r="E121" s="1" t="s">
         <v>344</v>
       </c>
@@ -8957,7 +9020,7 @@
       <c r="S121" s="2"/>
     </row>
     <row r="122" spans="1:21" s="11" customFormat="1">
-      <c r="A122" s="22"/>
+      <c r="A122" s="23"/>
       <c r="C122" s="10" t="s">
         <v>1031</v>
       </c>
@@ -8982,7 +9045,7 @@
       <c r="U122" s="10"/>
     </row>
     <row r="123" spans="1:21" s="11" customFormat="1">
-      <c r="A123" s="22"/>
+      <c r="A123" s="23"/>
       <c r="C123" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9007,7 +9070,7 @@
       <c r="U123" s="10"/>
     </row>
     <row r="124" spans="1:21" s="11" customFormat="1">
-      <c r="A124" s="22"/>
+      <c r="A124" s="23"/>
       <c r="C124" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9032,7 +9095,7 @@
       <c r="U124" s="10"/>
     </row>
     <row r="125" spans="1:21" s="11" customFormat="1">
-      <c r="A125" s="22"/>
+      <c r="A125" s="23"/>
       <c r="C125" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9057,7 +9120,7 @@
       <c r="U125" s="10"/>
     </row>
     <row r="126" spans="1:21" s="11" customFormat="1">
-      <c r="A126" s="22"/>
+      <c r="A126" s="23"/>
       <c r="C126" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9086,7 +9149,7 @@
       <c r="U126" s="10"/>
     </row>
     <row r="127" spans="1:21">
-      <c r="A127" s="22" t="s">
+      <c r="A127" s="23" t="s">
         <v>1047</v>
       </c>
       <c r="C127" s="19" t="s">
@@ -9100,7 +9163,7 @@
       </c>
     </row>
     <row r="128" spans="1:21">
-      <c r="A128" s="22"/>
+      <c r="A128" s="23"/>
       <c r="E128" s="1" t="s">
         <v>15</v>
       </c>
@@ -9126,7 +9189,7 @@
       <c r="P128" s="2"/>
     </row>
     <row r="129" spans="1:21">
-      <c r="A129" s="22"/>
+      <c r="A129" s="23"/>
       <c r="E129" s="1" t="s">
         <v>15</v>
       </c>
@@ -9152,7 +9215,7 @@
       <c r="P129" s="2"/>
     </row>
     <row r="130" spans="1:21">
-      <c r="A130" s="22"/>
+      <c r="A130" s="23"/>
       <c r="E130" s="1" t="s">
         <v>15</v>
       </c>
@@ -9175,7 +9238,7 @@
       <c r="O130" s="2"/>
     </row>
     <row r="131" spans="1:21">
-      <c r="A131" s="22"/>
+      <c r="A131" s="23"/>
       <c r="E131" s="1" t="s">
         <v>15</v>
       </c>
@@ -9200,8 +9263,8 @@
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="1:21" s="11" customFormat="1" ht="17" customHeight="1">
-      <c r="A132" s="22"/>
+    <row r="132" spans="1:21" s="11" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A132" s="23"/>
       <c r="C132" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9234,7 +9297,7 @@
       <c r="U132" s="10"/>
     </row>
     <row r="133" spans="1:21" s="11" customFormat="1">
-      <c r="A133" s="22"/>
+      <c r="A133" s="23"/>
       <c r="C133" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9267,7 +9330,7 @@
       <c r="U133" s="10"/>
     </row>
     <row r="134" spans="1:21" s="11" customFormat="1">
-      <c r="A134" s="22"/>
+      <c r="A134" s="23"/>
       <c r="C134" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9302,7 +9365,7 @@
       <c r="U134" s="10"/>
     </row>
     <row r="135" spans="1:21">
-      <c r="A135" s="22"/>
+      <c r="A135" s="23"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="3"/>
@@ -9326,7 +9389,7 @@
       <c r="U135" s="2"/>
     </row>
     <row r="136" spans="1:21" s="11" customFormat="1">
-      <c r="A136" s="22"/>
+      <c r="A136" s="23"/>
       <c r="C136" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9359,7 +9422,7 @@
       <c r="U136" s="10"/>
     </row>
     <row r="137" spans="1:21" s="11" customFormat="1">
-      <c r="A137" s="22"/>
+      <c r="A137" s="23"/>
       <c r="C137" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9394,7 +9457,7 @@
       <c r="U137" s="10"/>
     </row>
     <row r="138" spans="1:21" s="11" customFormat="1">
-      <c r="A138" s="22"/>
+      <c r="A138" s="23"/>
       <c r="C138" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9427,7 +9490,7 @@
       <c r="U138" s="10"/>
     </row>
     <row r="139" spans="1:21" s="11" customFormat="1">
-      <c r="A139" s="22"/>
+      <c r="A139" s="23"/>
       <c r="C139" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9458,7 +9521,7 @@
       <c r="U139" s="10"/>
     </row>
     <row r="140" spans="1:21" s="11" customFormat="1">
-      <c r="A140" s="22"/>
+      <c r="A140" s="23"/>
       <c r="C140" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9491,7 +9554,7 @@
       <c r="U140" s="10"/>
     </row>
     <row r="141" spans="1:21" s="11" customFormat="1">
-      <c r="A141" s="22"/>
+      <c r="A141" s="23"/>
       <c r="C141" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9522,7 +9585,7 @@
       <c r="U141" s="10"/>
     </row>
     <row r="142" spans="1:21" s="11" customFormat="1">
-      <c r="A142" s="22"/>
+      <c r="A142" s="23"/>
       <c r="C142" s="10" t="s">
         <v>1031</v>
       </c>
@@ -9553,7 +9616,7 @@
       <c r="U142" s="10"/>
     </row>
     <row r="143" spans="1:21">
-      <c r="A143" s="22"/>
+      <c r="A143" s="23"/>
       <c r="E143" s="1" t="s">
         <v>15</v>
       </c>
@@ -9579,7 +9642,7 @@
       <c r="P143" s="2"/>
     </row>
     <row r="144" spans="1:21">
-      <c r="A144" s="22"/>
+      <c r="A144" s="23"/>
       <c r="E144" s="1" t="s">
         <v>344</v>
       </c>
@@ -9602,7 +9665,7 @@
       <c r="S144" s="2"/>
     </row>
     <row r="145" spans="1:21">
-      <c r="A145" s="22"/>
+      <c r="A145" s="23"/>
       <c r="E145" s="1" t="s">
         <v>344</v>
       </c>
@@ -9626,7 +9689,7 @@
       <c r="T145" s="2"/>
     </row>
     <row r="146" spans="1:21">
-      <c r="A146" s="22"/>
+      <c r="A146" s="23"/>
       <c r="E146" s="1" t="s">
         <v>15</v>
       </c>
@@ -9652,7 +9715,7 @@
       <c r="P146" s="2"/>
     </row>
     <row r="147" spans="1:21">
-      <c r="A147" s="22"/>
+      <c r="A147" s="23"/>
       <c r="E147" s="1" t="s">
         <v>344</v>
       </c>
@@ -9676,7 +9739,7 @@
       <c r="T147" s="2"/>
     </row>
     <row r="148" spans="1:21">
-      <c r="A148" s="22"/>
+      <c r="A148" s="23"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="1" t="s">
@@ -9697,7 +9760,7 @@
       <c r="U148" s="2"/>
     </row>
     <row r="149" spans="1:21">
-      <c r="A149" s="22"/>
+      <c r="A149" s="23"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="1" t="s">
@@ -9718,7 +9781,7 @@
       <c r="U149" s="2"/>
     </row>
     <row r="150" spans="1:21">
-      <c r="A150" s="22" t="s">
+      <c r="A150" s="23" t="s">
         <v>1049</v>
       </c>
       <c r="E150" s="1" t="s">
@@ -9743,7 +9806,7 @@
       <c r="S150" s="2"/>
     </row>
     <row r="151" spans="1:21">
-      <c r="A151" s="22"/>
+      <c r="A151" s="23"/>
       <c r="E151" s="1" t="s">
         <v>344</v>
       </c>
@@ -9766,7 +9829,7 @@
       <c r="S151" s="2"/>
     </row>
     <row r="152" spans="1:21">
-      <c r="A152" s="22"/>
+      <c r="A152" s="23"/>
       <c r="E152" s="1" t="s">
         <v>344</v>
       </c>
@@ -9789,7 +9852,7 @@
       <c r="S152" s="2"/>
     </row>
     <row r="153" spans="1:21">
-      <c r="A153" s="22"/>
+      <c r="A153" s="23"/>
       <c r="E153" s="1" t="s">
         <v>344</v>
       </c>
@@ -9812,7 +9875,7 @@
       <c r="S153" s="2"/>
     </row>
     <row r="154" spans="1:21">
-      <c r="A154" s="22"/>
+      <c r="A154" s="23"/>
       <c r="E154" s="1" t="s">
         <v>15</v>
       </c>
@@ -9838,7 +9901,7 @@
       <c r="P154" s="2"/>
     </row>
     <row r="155" spans="1:21">
-      <c r="A155" s="22"/>
+      <c r="A155" s="23"/>
       <c r="E155" s="1" t="s">
         <v>344</v>
       </c>
@@ -9861,7 +9924,7 @@
       <c r="S155" s="2"/>
     </row>
     <row r="156" spans="1:21">
-      <c r="A156" s="22"/>
+      <c r="A156" s="23"/>
       <c r="E156" s="1" t="s">
         <v>344</v>
       </c>
@@ -9883,7 +9946,7 @@
       <c r="R156" s="2"/>
     </row>
     <row r="157" spans="1:21">
-      <c r="A157" s="22"/>
+      <c r="A157" s="23"/>
       <c r="E157" s="1" t="s">
         <v>344</v>
       </c>
@@ -9905,7 +9968,7 @@
       <c r="R157" s="2"/>
     </row>
     <row r="158" spans="1:21">
-      <c r="A158" s="22"/>
+      <c r="A158" s="23"/>
       <c r="E158" s="1" t="s">
         <v>344</v>
       </c>
@@ -9928,7 +9991,7 @@
       <c r="S158" s="2"/>
     </row>
     <row r="159" spans="1:21">
-      <c r="A159" s="22"/>
+      <c r="A159" s="23"/>
       <c r="E159" s="1" t="s">
         <v>344</v>
       </c>
@@ -9951,7 +10014,7 @@
       <c r="S159" s="2"/>
     </row>
     <row r="160" spans="1:21">
-      <c r="A160" s="22"/>
+      <c r="A160" s="23"/>
       <c r="E160" s="1" t="s">
         <v>344</v>
       </c>
@@ -9974,7 +10037,7 @@
       <c r="S160" s="2"/>
     </row>
     <row r="161" spans="1:20">
-      <c r="A161" s="22"/>
+      <c r="A161" s="23"/>
       <c r="E161" s="1" t="s">
         <v>344</v>
       </c>
@@ -9997,7 +10060,7 @@
       <c r="S161" s="2"/>
     </row>
     <row r="162" spans="1:20">
-      <c r="A162" s="22"/>
+      <c r="A162" s="23"/>
       <c r="E162" s="1" t="s">
         <v>344</v>
       </c>
@@ -10020,7 +10083,7 @@
       <c r="S162" s="2"/>
     </row>
     <row r="163" spans="1:20">
-      <c r="A163" s="22"/>
+      <c r="A163" s="23"/>
       <c r="E163" s="1" t="s">
         <v>344</v>
       </c>
@@ -10043,7 +10106,7 @@
       <c r="S163" s="2"/>
     </row>
     <row r="164" spans="1:20">
-      <c r="A164" s="22"/>
+      <c r="A164" s="23"/>
       <c r="E164" s="1" t="s">
         <v>344</v>
       </c>
@@ -10065,7 +10128,7 @@
       <c r="R164" s="2"/>
     </row>
     <row r="165" spans="1:20">
-      <c r="A165" s="22"/>
+      <c r="A165" s="23"/>
       <c r="E165" s="1" t="s">
         <v>344</v>
       </c>
@@ -10087,7 +10150,7 @@
       <c r="R165" s="2"/>
     </row>
     <row r="166" spans="1:20">
-      <c r="A166" s="22"/>
+      <c r="A166" s="23"/>
       <c r="E166" s="1" t="s">
         <v>344</v>
       </c>
@@ -10110,7 +10173,7 @@
       <c r="S166" s="2"/>
     </row>
     <row r="167" spans="1:20">
-      <c r="A167" s="22"/>
+      <c r="A167" s="23"/>
       <c r="E167" s="1" t="s">
         <v>344</v>
       </c>
@@ -10133,7 +10196,7 @@
       <c r="S167" s="2"/>
     </row>
     <row r="168" spans="1:20">
-      <c r="A168" s="22"/>
+      <c r="A168" s="23"/>
       <c r="E168" s="1" t="s">
         <v>344</v>
       </c>
@@ -10156,7 +10219,7 @@
       <c r="S168" s="2"/>
     </row>
     <row r="169" spans="1:20">
-      <c r="A169" s="22"/>
+      <c r="A169" s="23"/>
       <c r="E169" s="1" t="s">
         <v>344</v>
       </c>
@@ -10179,7 +10242,7 @@
       <c r="S169" s="2"/>
     </row>
     <row r="170" spans="1:20">
-      <c r="A170" s="22"/>
+      <c r="A170" s="23"/>
       <c r="E170" s="1" t="s">
         <v>344</v>
       </c>
@@ -10203,7 +10266,7 @@
       <c r="T170" s="2"/>
     </row>
     <row r="171" spans="1:20">
-      <c r="A171" s="22"/>
+      <c r="A171" s="23"/>
       <c r="E171" s="1" t="s">
         <v>344</v>
       </c>
@@ -10225,7 +10288,7 @@
       <c r="R171" s="2"/>
     </row>
     <row r="172" spans="1:20">
-      <c r="A172" s="22"/>
+      <c r="A172" s="23"/>
       <c r="E172" s="1" t="s">
         <v>344</v>
       </c>
@@ -10247,7 +10310,7 @@
       <c r="R172" s="2"/>
     </row>
     <row r="173" spans="1:20">
-      <c r="A173" s="22"/>
+      <c r="A173" s="23"/>
       <c r="E173" s="1" t="s">
         <v>344</v>
       </c>
@@ -10270,7 +10333,7 @@
       <c r="S173" s="2"/>
     </row>
     <row r="174" spans="1:20">
-      <c r="A174" s="22"/>
+      <c r="A174" s="23"/>
       <c r="E174" s="1" t="s">
         <v>344</v>
       </c>
@@ -10293,7 +10356,7 @@
       <c r="S174" s="2"/>
     </row>
     <row r="175" spans="1:20">
-      <c r="A175" s="22"/>
+      <c r="A175" s="23"/>
       <c r="E175" s="1" t="s">
         <v>344</v>
       </c>
@@ -10316,7 +10379,7 @@
       <c r="S175" s="2"/>
     </row>
     <row r="176" spans="1:20">
-      <c r="A176" s="22"/>
+      <c r="A176" s="23"/>
       <c r="E176" s="1" t="s">
         <v>344</v>
       </c>
@@ -10339,7 +10402,7 @@
       <c r="S176" s="2"/>
     </row>
     <row r="177" spans="1:30">
-      <c r="A177" s="22"/>
+      <c r="A177" s="23"/>
       <c r="E177" s="1" t="s">
         <v>344</v>
       </c>
@@ -10363,7 +10426,7 @@
       <c r="T177" s="2"/>
     </row>
     <row r="178" spans="1:30">
-      <c r="A178" s="22"/>
+      <c r="A178" s="23"/>
       <c r="E178" s="1" t="s">
         <v>344</v>
       </c>
@@ -10385,7 +10448,7 @@
       <c r="R178" s="2"/>
     </row>
     <row r="179" spans="1:30">
-      <c r="A179" s="22"/>
+      <c r="A179" s="23"/>
       <c r="E179" s="1" t="s">
         <v>344</v>
       </c>
@@ -10407,7 +10470,7 @@
       <c r="R179" s="2"/>
     </row>
     <row r="180" spans="1:30">
-      <c r="A180" s="22"/>
+      <c r="A180" s="23"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1" t="s">
@@ -10425,7 +10488,7 @@
       <c r="R180" s="2"/>
     </row>
     <row r="181" spans="1:30">
-      <c r="A181" s="22"/>
+      <c r="A181" s="23"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1" t="s">
@@ -10441,7 +10504,7 @@
       <c r="P181" s="2"/>
     </row>
     <row r="182" spans="1:30">
-      <c r="A182" s="22"/>
+      <c r="A182" s="23"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2" t="s">
@@ -10462,7 +10525,7 @@
       <c r="U182" s="2"/>
     </row>
     <row r="183" spans="1:30">
-      <c r="A183" s="22"/>
+      <c r="A183" s="23"/>
       <c r="G183" s="7"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
@@ -10476,7 +10539,7 @@
       <c r="S183" s="2"/>
     </row>
     <row r="184" spans="1:30">
-      <c r="A184" s="22"/>
+      <c r="A184" s="23"/>
       <c r="G184" s="7"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
@@ -10490,11 +10553,11 @@
       <c r="S184" s="2"/>
     </row>
     <row r="185" spans="1:30">
-      <c r="A185" s="22"/>
+      <c r="A185" s="23"/>
       <c r="G185" s="7"/>
     </row>
     <row r="186" spans="1:30">
-      <c r="A186" s="22" t="s">
+      <c r="A186" s="23" t="s">
         <v>1050</v>
       </c>
       <c r="B186" s="1" t="s">
@@ -10544,7 +10607,7 @@
       <c r="AD186" s="2"/>
     </row>
     <row r="187" spans="1:30">
-      <c r="A187" s="22"/>
+      <c r="A187" s="23"/>
       <c r="B187" s="1" t="s">
         <v>14</v>
       </c>
@@ -10589,7 +10652,7 @@
       <c r="AA187" s="2"/>
     </row>
     <row r="188" spans="1:30">
-      <c r="A188" s="22"/>
+      <c r="A188" s="23"/>
       <c r="B188" s="1" t="s">
         <v>14</v>
       </c>
@@ -10637,7 +10700,7 @@
       <c r="AD188" s="2"/>
     </row>
     <row r="189" spans="1:30">
-      <c r="A189" s="22"/>
+      <c r="A189" s="23"/>
       <c r="B189" s="1" t="s">
         <v>14</v>
       </c>
@@ -10687,7 +10750,7 @@
       <c r="AD189" s="2"/>
     </row>
     <row r="190" spans="1:30">
-      <c r="A190" s="22"/>
+      <c r="A190" s="23"/>
       <c r="B190" s="1" t="s">
         <v>14</v>
       </c>
@@ -10737,7 +10800,7 @@
       <c r="AD190" s="2"/>
     </row>
     <row r="191" spans="1:30">
-      <c r="A191" s="22"/>
+      <c r="A191" s="23"/>
       <c r="E191" s="1" t="s">
         <v>344</v>
       </c>
@@ -10761,7 +10824,7 @@
       <c r="O191" s="2"/>
     </row>
     <row r="192" spans="1:30">
-      <c r="A192" s="22"/>
+      <c r="A192" s="23"/>
       <c r="E192" s="1" t="s">
         <v>344</v>
       </c>
@@ -10785,7 +10848,7 @@
       <c r="O192" s="2"/>
     </row>
     <row r="193" spans="1:21">
-      <c r="A193" s="22"/>
+      <c r="A193" s="23"/>
       <c r="E193" s="1" t="s">
         <v>344</v>
       </c>
@@ -10813,7 +10876,7 @@
       <c r="O193" s="2"/>
     </row>
     <row r="194" spans="1:21">
-      <c r="A194" s="22"/>
+      <c r="A194" s="23"/>
       <c r="E194" s="1" t="s">
         <v>344</v>
       </c>
@@ -10841,7 +10904,7 @@
       <c r="O194" s="2"/>
     </row>
     <row r="195" spans="1:21">
-      <c r="A195" s="22"/>
+      <c r="A195" s="23"/>
       <c r="E195" s="1" t="s">
         <v>344</v>
       </c>
@@ -10866,7 +10929,7 @@
       <c r="N195" s="2"/>
     </row>
     <row r="196" spans="1:21">
-      <c r="A196" s="22"/>
+      <c r="A196" s="23"/>
       <c r="E196" s="1" t="s">
         <v>344</v>
       </c>
@@ -10891,7 +10954,7 @@
       <c r="N196" s="2"/>
     </row>
     <row r="197" spans="1:21" s="11" customFormat="1">
-      <c r="A197" s="22"/>
+      <c r="A197" s="23"/>
       <c r="C197" s="10" t="s">
         <v>1031</v>
       </c>
@@ -10930,7 +10993,7 @@
       <c r="U197" s="10"/>
     </row>
     <row r="198" spans="1:21" s="11" customFormat="1">
-      <c r="A198" s="22"/>
+      <c r="A198" s="23"/>
       <c r="C198" s="10" t="s">
         <v>1031</v>
       </c>
@@ -10969,7 +11032,7 @@
       <c r="U198" s="10"/>
     </row>
     <row r="199" spans="1:21" s="11" customFormat="1">
-      <c r="A199" s="22"/>
+      <c r="A199" s="23"/>
       <c r="C199" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11008,7 +11071,7 @@
       <c r="U199" s="10"/>
     </row>
     <row r="200" spans="1:21" s="11" customFormat="1">
-      <c r="A200" s="22"/>
+      <c r="A200" s="23"/>
       <c r="C200" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11047,7 +11110,7 @@
       <c r="U200" s="10"/>
     </row>
     <row r="201" spans="1:21">
-      <c r="A201" s="22"/>
+      <c r="A201" s="23"/>
       <c r="E201" s="1" t="s">
         <v>344</v>
       </c>
@@ -11075,7 +11138,7 @@
       <c r="O201" s="2"/>
     </row>
     <row r="202" spans="1:21">
-      <c r="A202" s="22"/>
+      <c r="A202" s="23"/>
       <c r="E202" s="1" t="s">
         <v>344</v>
       </c>
@@ -11103,7 +11166,7 @@
       <c r="O202" s="2"/>
     </row>
     <row r="203" spans="1:21">
-      <c r="A203" s="22"/>
+      <c r="A203" s="23"/>
       <c r="E203" s="1" t="s">
         <v>344</v>
       </c>
@@ -11128,7 +11191,7 @@
       <c r="N203" s="2"/>
     </row>
     <row r="204" spans="1:21">
-      <c r="A204" s="22"/>
+      <c r="A204" s="23"/>
       <c r="E204" s="1" t="s">
         <v>344</v>
       </c>
@@ -11153,7 +11216,7 @@
       <c r="N204" s="2"/>
     </row>
     <row r="205" spans="1:21" s="11" customFormat="1">
-      <c r="A205" s="22"/>
+      <c r="A205" s="23"/>
       <c r="C205" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11192,7 +11255,7 @@
       <c r="U205" s="10"/>
     </row>
     <row r="206" spans="1:21" s="11" customFormat="1">
-      <c r="A206" s="22"/>
+      <c r="A206" s="23"/>
       <c r="C206" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11231,7 +11294,7 @@
       <c r="U206" s="10"/>
     </row>
     <row r="207" spans="1:21" s="11" customFormat="1">
-      <c r="A207" s="22"/>
+      <c r="A207" s="23"/>
       <c r="C207" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11270,7 +11333,7 @@
       <c r="U207" s="10"/>
     </row>
     <row r="208" spans="1:21" s="11" customFormat="1">
-      <c r="A208" s="22"/>
+      <c r="A208" s="23"/>
       <c r="C208" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11309,7 +11372,7 @@
       <c r="U208" s="10"/>
     </row>
     <row r="209" spans="1:30">
-      <c r="A209" s="22"/>
+      <c r="A209" s="23"/>
       <c r="E209" s="1" t="s">
         <v>344</v>
       </c>
@@ -11337,7 +11400,7 @@
       <c r="O209" s="2"/>
     </row>
     <row r="210" spans="1:30">
-      <c r="A210" s="22"/>
+      <c r="A210" s="23"/>
       <c r="E210" s="1" t="s">
         <v>344</v>
       </c>
@@ -11365,7 +11428,7 @@
       <c r="O210" s="2"/>
     </row>
     <row r="211" spans="1:30">
-      <c r="A211" s="22"/>
+      <c r="A211" s="23"/>
       <c r="E211" s="1" t="s">
         <v>344</v>
       </c>
@@ -11390,7 +11453,7 @@
       <c r="N211" s="2"/>
     </row>
     <row r="212" spans="1:30">
-      <c r="A212" s="22"/>
+      <c r="A212" s="23"/>
       <c r="E212" s="1" t="s">
         <v>344</v>
       </c>
@@ -11415,7 +11478,7 @@
       <c r="N212" s="2"/>
     </row>
     <row r="213" spans="1:30" s="11" customFormat="1">
-      <c r="A213" s="22"/>
+      <c r="A213" s="23"/>
       <c r="C213" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11454,7 +11517,7 @@
       <c r="U213" s="10"/>
     </row>
     <row r="214" spans="1:30" s="11" customFormat="1">
-      <c r="A214" s="22"/>
+      <c r="A214" s="23"/>
       <c r="C214" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11493,7 +11556,7 @@
       <c r="U214" s="10"/>
     </row>
     <row r="215" spans="1:30" s="11" customFormat="1">
-      <c r="A215" s="22"/>
+      <c r="A215" s="23"/>
       <c r="C215" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11532,7 +11595,7 @@
       <c r="U215" s="10"/>
     </row>
     <row r="216" spans="1:30" s="11" customFormat="1">
-      <c r="A216" s="22"/>
+      <c r="A216" s="23"/>
       <c r="C216" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11571,7 +11634,7 @@
       <c r="U216" s="10"/>
     </row>
     <row r="217" spans="1:30">
-      <c r="A217" s="22"/>
+      <c r="A217" s="23"/>
       <c r="B217" s="1" t="s">
         <v>14</v>
       </c>
@@ -11621,7 +11684,7 @@
       <c r="AD217" s="2"/>
     </row>
     <row r="218" spans="1:30">
-      <c r="A218" s="22"/>
+      <c r="A218" s="23"/>
       <c r="B218" s="1" t="s">
         <v>14</v>
       </c>
@@ -11669,7 +11732,7 @@
       <c r="AD218" s="2"/>
     </row>
     <row r="219" spans="1:30" s="11" customFormat="1">
-      <c r="A219" s="22"/>
+      <c r="A219" s="23"/>
       <c r="C219" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11696,7 +11759,7 @@
       <c r="Q219" s="10"/>
     </row>
     <row r="220" spans="1:30" s="11" customFormat="1">
-      <c r="A220" s="22"/>
+      <c r="A220" s="23"/>
       <c r="C220" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11723,7 +11786,7 @@
       <c r="Q220" s="10"/>
     </row>
     <row r="221" spans="1:30">
-      <c r="A221" s="22"/>
+      <c r="A221" s="23"/>
       <c r="B221" s="1" t="s">
         <v>14</v>
       </c>
@@ -11771,7 +11834,7 @@
       <c r="AD221" s="2"/>
     </row>
     <row r="222" spans="1:30">
-      <c r="A222" s="22"/>
+      <c r="A222" s="23"/>
       <c r="E222" s="1" t="s">
         <v>344</v>
       </c>
@@ -11797,7 +11860,7 @@
       <c r="P222" s="2"/>
     </row>
     <row r="223" spans="1:30">
-      <c r="A223" s="22"/>
+      <c r="A223" s="23"/>
       <c r="E223" s="1" t="s">
         <v>344</v>
       </c>
@@ -11823,7 +11886,7 @@
       <c r="P223" s="2"/>
     </row>
     <row r="224" spans="1:30">
-      <c r="A224" s="22"/>
+      <c r="A224" s="23"/>
       <c r="E224" s="1" t="s">
         <v>344</v>
       </c>
@@ -11849,7 +11912,7 @@
       <c r="P224" s="2"/>
     </row>
     <row r="225" spans="1:21">
-      <c r="A225" s="22"/>
+      <c r="A225" s="23"/>
       <c r="E225" s="1" t="s">
         <v>344</v>
       </c>
@@ -11875,7 +11938,7 @@
       <c r="P225" s="2"/>
     </row>
     <row r="226" spans="1:21" s="11" customFormat="1">
-      <c r="A226" s="22"/>
+      <c r="A226" s="23"/>
       <c r="C226" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11914,7 +11977,7 @@
       <c r="U226" s="10"/>
     </row>
     <row r="227" spans="1:21" s="11" customFormat="1">
-      <c r="A227" s="22"/>
+      <c r="A227" s="23"/>
       <c r="C227" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11953,7 +12016,7 @@
       <c r="U227" s="10"/>
     </row>
     <row r="228" spans="1:21" s="11" customFormat="1">
-      <c r="A228" s="22"/>
+      <c r="A228" s="23"/>
       <c r="C228" s="10" t="s">
         <v>1031</v>
       </c>
@@ -11992,7 +12055,7 @@
       <c r="U228" s="10"/>
     </row>
     <row r="229" spans="1:21" s="11" customFormat="1">
-      <c r="A229" s="22"/>
+      <c r="A229" s="23"/>
       <c r="C229" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12031,7 +12094,7 @@
       <c r="U229" s="10"/>
     </row>
     <row r="230" spans="1:21" s="11" customFormat="1">
-      <c r="A230" s="22"/>
+      <c r="A230" s="23"/>
       <c r="C230" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12058,7 +12121,7 @@
       <c r="Q230" s="10"/>
     </row>
     <row r="231" spans="1:21" s="11" customFormat="1">
-      <c r="A231" s="22"/>
+      <c r="A231" s="23"/>
       <c r="C231" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12085,7 +12148,7 @@
       <c r="Q231" s="10"/>
     </row>
     <row r="232" spans="1:21" s="11" customFormat="1">
-      <c r="A232" s="22"/>
+      <c r="A232" s="23"/>
       <c r="C232" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12124,7 +12187,7 @@
       <c r="U232" s="10"/>
     </row>
     <row r="233" spans="1:21" s="11" customFormat="1">
-      <c r="A233" s="22"/>
+      <c r="A233" s="23"/>
       <c r="C233" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12163,7 +12226,7 @@
       <c r="U233" s="10"/>
     </row>
     <row r="234" spans="1:21" s="11" customFormat="1">
-      <c r="A234" s="22"/>
+      <c r="A234" s="23"/>
       <c r="C234" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12202,7 +12265,7 @@
       <c r="U234" s="10"/>
     </row>
     <row r="235" spans="1:21" s="11" customFormat="1">
-      <c r="A235" s="22"/>
+      <c r="A235" s="23"/>
       <c r="C235" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12241,7 +12304,7 @@
       <c r="U235" s="10"/>
     </row>
     <row r="236" spans="1:21">
-      <c r="A236" s="22"/>
+      <c r="A236" s="23"/>
       <c r="E236" s="3" t="s">
         <v>15</v>
       </c>
@@ -12271,7 +12334,7 @@
       <c r="U236" s="2"/>
     </row>
     <row r="237" spans="1:21" s="11" customFormat="1">
-      <c r="A237" s="22"/>
+      <c r="A237" s="23"/>
       <c r="C237" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12306,7 +12369,7 @@
       <c r="U237" s="10"/>
     </row>
     <row r="238" spans="1:21">
-      <c r="A238" s="22"/>
+      <c r="A238" s="23"/>
       <c r="E238" s="3" t="s">
         <v>15</v>
       </c>
@@ -12336,7 +12399,7 @@
       <c r="U238" s="2"/>
     </row>
     <row r="239" spans="1:21" s="11" customFormat="1">
-      <c r="A239" s="22"/>
+      <c r="A239" s="23"/>
       <c r="C239" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12371,7 +12434,7 @@
       <c r="U239" s="10"/>
     </row>
     <row r="240" spans="1:21">
-      <c r="A240" s="22"/>
+      <c r="A240" s="23"/>
       <c r="E240" s="1" t="s">
         <v>344</v>
       </c>
@@ -12396,7 +12459,7 @@
       <c r="P240" s="2"/>
     </row>
     <row r="241" spans="1:21">
-      <c r="A241" s="22"/>
+      <c r="A241" s="23"/>
       <c r="E241" s="1" t="s">
         <v>344</v>
       </c>
@@ -12421,7 +12484,7 @@
       <c r="P241" s="2"/>
     </row>
     <row r="242" spans="1:21">
-      <c r="A242" s="22"/>
+      <c r="A242" s="23"/>
       <c r="E242" s="1" t="s">
         <v>344</v>
       </c>
@@ -12446,7 +12509,7 @@
       <c r="P242" s="2"/>
     </row>
     <row r="243" spans="1:21">
-      <c r="A243" s="22"/>
+      <c r="A243" s="23"/>
       <c r="E243" s="1" t="s">
         <v>344</v>
       </c>
@@ -12471,7 +12534,7 @@
       <c r="P243" s="2"/>
     </row>
     <row r="244" spans="1:21">
-      <c r="A244" s="22"/>
+      <c r="A244" s="23"/>
       <c r="E244" s="3" t="s">
         <v>15</v>
       </c>
@@ -12501,7 +12564,7 @@
       <c r="U244" s="2"/>
     </row>
     <row r="245" spans="1:21">
-      <c r="A245" s="22"/>
+      <c r="A245" s="23"/>
       <c r="E245" s="1" t="s">
         <v>344</v>
       </c>
@@ -12526,7 +12589,7 @@
       <c r="P245" s="2"/>
     </row>
     <row r="246" spans="1:21">
-      <c r="A246" s="22"/>
+      <c r="A246" s="23"/>
       <c r="E246" s="1" t="s">
         <v>344</v>
       </c>
@@ -12551,7 +12614,7 @@
       <c r="P246" s="2"/>
     </row>
     <row r="247" spans="1:21">
-      <c r="A247" s="22"/>
+      <c r="A247" s="23"/>
       <c r="E247" s="1" t="s">
         <v>344</v>
       </c>
@@ -12576,7 +12639,7 @@
       <c r="P247" s="2"/>
     </row>
     <row r="248" spans="1:21">
-      <c r="A248" s="22"/>
+      <c r="A248" s="23"/>
       <c r="E248" s="1" t="s">
         <v>344</v>
       </c>
@@ -12601,7 +12664,7 @@
       <c r="P248" s="2"/>
     </row>
     <row r="249" spans="1:21" s="11" customFormat="1">
-      <c r="A249" s="22"/>
+      <c r="A249" s="23"/>
       <c r="C249" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12636,7 +12699,7 @@
       <c r="U249" s="10"/>
     </row>
     <row r="250" spans="1:21" s="11" customFormat="1">
-      <c r="A250" s="22"/>
+      <c r="A250" s="23"/>
       <c r="C250" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12671,7 +12734,7 @@
       <c r="U250" s="10"/>
     </row>
     <row r="251" spans="1:21" s="11" customFormat="1">
-      <c r="A251" s="22"/>
+      <c r="A251" s="23"/>
       <c r="C251" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12700,7 +12763,7 @@
       <c r="U251" s="10"/>
     </row>
     <row r="252" spans="1:21" s="11" customFormat="1">
-      <c r="A252" s="22"/>
+      <c r="A252" s="23"/>
       <c r="C252" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12726,7 +12789,7 @@
       <c r="P252" s="10"/>
     </row>
     <row r="253" spans="1:21">
-      <c r="A253" s="22"/>
+      <c r="A253" s="23"/>
       <c r="E253" s="3" t="s">
         <v>15</v>
       </c>
@@ -12756,7 +12819,7 @@
       <c r="U253" s="2"/>
     </row>
     <row r="254" spans="1:21" s="11" customFormat="1">
-      <c r="A254" s="22"/>
+      <c r="A254" s="23"/>
       <c r="C254" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12791,7 +12854,7 @@
       <c r="U254" s="10"/>
     </row>
     <row r="255" spans="1:21">
-      <c r="A255" s="22"/>
+      <c r="A255" s="23"/>
       <c r="E255" s="3" t="s">
         <v>15</v>
       </c>
@@ -12821,7 +12884,7 @@
       <c r="U255" s="2"/>
     </row>
     <row r="256" spans="1:21" s="11" customFormat="1">
-      <c r="A256" s="22"/>
+      <c r="A256" s="23"/>
       <c r="C256" s="10" t="s">
         <v>1031</v>
       </c>
@@ -12856,13 +12919,13 @@
       <c r="U256" s="10"/>
     </row>
     <row r="257" spans="1:21">
-      <c r="A257" s="22"/>
+      <c r="A257" s="23"/>
       <c r="H257" s="7" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="258" spans="1:21">
-      <c r="A258" s="22"/>
+      <c r="A258" s="23"/>
       <c r="E258" s="1" t="s">
         <v>344</v>
       </c>
@@ -12892,7 +12955,7 @@
       <c r="U258" s="2"/>
     </row>
     <row r="259" spans="1:21">
-      <c r="A259" s="22"/>
+      <c r="A259" s="23"/>
       <c r="E259" s="1" t="s">
         <v>344</v>
       </c>
@@ -12920,7 +12983,7 @@
       <c r="U259" s="2"/>
     </row>
     <row r="260" spans="1:21">
-      <c r="A260" s="22"/>
+      <c r="A260" s="23"/>
       <c r="E260" s="1" t="s">
         <v>344</v>
       </c>
@@ -12946,7 +13009,7 @@
       <c r="S260" s="2"/>
     </row>
     <row r="261" spans="1:21">
-      <c r="A261" s="22"/>
+      <c r="A261" s="23"/>
       <c r="E261" s="1" t="s">
         <v>344</v>
       </c>
@@ -12973,7 +13036,7 @@
       <c r="T261" s="2"/>
     </row>
     <row r="262" spans="1:21">
-      <c r="A262" s="22"/>
+      <c r="A262" s="23"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
@@ -12996,7 +13059,7 @@
       <c r="T262" s="2"/>
     </row>
     <row r="263" spans="1:21">
-      <c r="A263" s="22"/>
+      <c r="A263" s="23"/>
       <c r="E263" s="1" t="s">
         <v>344</v>
       </c>
@@ -13021,7 +13084,7 @@
       <c r="R263" s="2"/>
     </row>
     <row r="264" spans="1:21">
-      <c r="A264" s="22"/>
+      <c r="A264" s="23"/>
       <c r="E264" s="1" t="s">
         <v>344</v>
       </c>
@@ -13046,13 +13109,13 @@
       <c r="R264" s="2"/>
     </row>
     <row r="265" spans="1:21">
-      <c r="A265" s="22"/>
+      <c r="A265" s="23"/>
       <c r="H265" s="7" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="266" spans="1:21">
-      <c r="A266" s="22"/>
+      <c r="A266" s="23"/>
       <c r="E266" s="1" t="s">
         <v>344</v>
       </c>
@@ -13077,7 +13140,7 @@
       <c r="P266" s="2"/>
     </row>
     <row r="267" spans="1:21">
-      <c r="A267" s="22"/>
+      <c r="A267" s="23"/>
       <c r="E267" s="1" t="s">
         <v>344</v>
       </c>
@@ -13099,7 +13162,7 @@
       <c r="P267" s="2"/>
     </row>
     <row r="268" spans="1:21">
-      <c r="A268" s="22"/>
+      <c r="A268" s="23"/>
       <c r="E268" s="1" t="s">
         <v>15</v>
       </c>
@@ -13132,7 +13195,7 @@
       </c>
     </row>
     <row r="269" spans="1:21">
-      <c r="A269" s="22"/>
+      <c r="A269" s="23"/>
       <c r="E269" s="1" t="s">
         <v>15</v>
       </c>
@@ -13163,7 +13226,7 @@
       <c r="U269" s="2"/>
     </row>
     <row r="270" spans="1:21">
-      <c r="A270" s="22"/>
+      <c r="A270" s="23"/>
       <c r="E270" s="1" t="s">
         <v>15</v>
       </c>
@@ -13192,7 +13255,7 @@
       <c r="Q270" s="2"/>
     </row>
     <row r="271" spans="1:21">
-      <c r="A271" s="22"/>
+      <c r="A271" s="23"/>
       <c r="E271" s="1" t="s">
         <v>15</v>
       </c>
@@ -13221,7 +13284,7 @@
       <c r="Q271" s="2"/>
     </row>
     <row r="272" spans="1:21">
-      <c r="A272" s="22"/>
+      <c r="A272" s="23"/>
       <c r="E272" s="1" t="s">
         <v>15</v>
       </c>
@@ -13250,7 +13313,7 @@
       <c r="Q272" s="2"/>
     </row>
     <row r="273" spans="1:21">
-      <c r="A273" s="22"/>
+      <c r="A273" s="23"/>
       <c r="E273" s="1" t="s">
         <v>15</v>
       </c>
@@ -13273,7 +13336,7 @@
       <c r="O273" s="2"/>
     </row>
     <row r="274" spans="1:21">
-      <c r="A274" s="22"/>
+      <c r="A274" s="23"/>
       <c r="H274" s="19" t="s">
         <v>1058</v>
       </c>
@@ -13285,7 +13348,7 @@
       </c>
     </row>
     <row r="275" spans="1:21">
-      <c r="A275" s="22"/>
+      <c r="A275" s="23"/>
       <c r="H275" s="19" t="s">
         <v>1078</v>
       </c>
@@ -13297,7 +13360,7 @@
       </c>
     </row>
     <row r="276" spans="1:21">
-      <c r="A276" s="22"/>
+      <c r="A276" s="23"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
       <c r="H276" s="19" t="s">
@@ -13311,7 +13374,7 @@
       </c>
     </row>
     <row r="277" spans="1:21">
-      <c r="A277" s="22"/>
+      <c r="A277" s="23"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
       <c r="H277" s="19" t="s">
@@ -13325,7 +13388,7 @@
       </c>
     </row>
     <row r="278" spans="1:21">
-      <c r="A278" s="22"/>
+      <c r="A278" s="23"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
       <c r="H278" s="19" t="s">
@@ -13339,7 +13402,7 @@
       </c>
     </row>
     <row r="279" spans="1:21">
-      <c r="A279" s="22"/>
+      <c r="A279" s="23"/>
       <c r="E279" s="1" t="s">
         <v>344</v>
       </c>
@@ -13370,7 +13433,7 @@
       <c r="T279" s="2"/>
     </row>
     <row r="280" spans="1:21">
-      <c r="A280" s="22"/>
+      <c r="A280" s="23"/>
       <c r="E280" s="1" t="s">
         <v>344</v>
       </c>
@@ -13401,7 +13464,7 @@
       <c r="T280" s="2"/>
     </row>
     <row r="281" spans="1:21">
-      <c r="A281" s="22"/>
+      <c r="A281" s="23"/>
       <c r="E281" s="1" t="s">
         <v>344</v>
       </c>
@@ -13432,7 +13495,7 @@
       <c r="T281" s="2"/>
     </row>
     <row r="282" spans="1:21">
-      <c r="A282" s="22"/>
+      <c r="A282" s="23"/>
       <c r="E282" s="1" t="s">
         <v>344</v>
       </c>
@@ -13463,7 +13526,7 @@
       <c r="T282" s="2"/>
     </row>
     <row r="283" spans="1:21">
-      <c r="A283" s="22"/>
+      <c r="A283" s="23"/>
       <c r="E283" s="1" t="s">
         <v>344</v>
       </c>
@@ -13494,7 +13557,7 @@
       <c r="T283" s="2"/>
     </row>
     <row r="284" spans="1:21">
-      <c r="A284" s="22"/>
+      <c r="A284" s="23"/>
       <c r="E284" s="1" t="s">
         <v>344</v>
       </c>
@@ -13525,7 +13588,7 @@
       <c r="T284" s="2"/>
     </row>
     <row r="285" spans="1:21">
-      <c r="A285" s="22"/>
+      <c r="A285" s="23"/>
       <c r="E285" s="1" t="s">
         <v>344</v>
       </c>
@@ -13556,7 +13619,7 @@
       <c r="T285" s="2"/>
     </row>
     <row r="286" spans="1:21">
-      <c r="A286" s="22"/>
+      <c r="A286" s="23"/>
       <c r="E286" s="1" t="s">
         <v>344</v>
       </c>
@@ -13588,7 +13651,7 @@
       <c r="U286" s="2"/>
     </row>
     <row r="287" spans="1:21">
-      <c r="A287" s="22"/>
+      <c r="A287" s="23"/>
       <c r="E287" s="1" t="s">
         <v>344</v>
       </c>
@@ -13619,7 +13682,7 @@
       <c r="T287" s="2"/>
     </row>
     <row r="288" spans="1:21">
-      <c r="A288" s="22"/>
+      <c r="A288" s="23"/>
       <c r="E288" s="1" t="s">
         <v>344</v>
       </c>
@@ -13650,7 +13713,7 @@
       <c r="T288" s="2"/>
     </row>
     <row r="289" spans="1:21">
-      <c r="A289" s="22"/>
+      <c r="A289" s="23"/>
       <c r="E289" s="1" t="s">
         <v>344</v>
       </c>
@@ -13681,7 +13744,7 @@
       <c r="T289" s="2"/>
     </row>
     <row r="290" spans="1:21">
-      <c r="A290" s="22"/>
+      <c r="A290" s="23"/>
       <c r="E290" s="1" t="s">
         <v>344</v>
       </c>
@@ -13713,7 +13776,7 @@
       <c r="U290" s="2"/>
     </row>
     <row r="291" spans="1:21">
-      <c r="A291" s="22"/>
+      <c r="A291" s="23"/>
       <c r="H291" s="19" t="s">
         <v>1061</v>
       </c>
@@ -13725,7 +13788,7 @@
       </c>
     </row>
     <row r="292" spans="1:21">
-      <c r="A292" s="22"/>
+      <c r="A292" s="23"/>
       <c r="H292" s="19" t="s">
         <v>1063</v>
       </c>
@@ -13737,7 +13800,7 @@
       </c>
     </row>
     <row r="293" spans="1:21">
-      <c r="A293" s="22"/>
+      <c r="A293" s="23"/>
       <c r="H293" s="19" t="s">
         <v>1065</v>
       </c>
@@ -13749,7 +13812,7 @@
       </c>
     </row>
     <row r="294" spans="1:21">
-      <c r="A294" s="22"/>
+      <c r="A294" s="23"/>
       <c r="H294" s="19" t="s">
         <v>1067</v>
       </c>
@@ -13761,7 +13824,7 @@
       </c>
     </row>
     <row r="295" spans="1:21">
-      <c r="A295" s="22"/>
+      <c r="A295" s="23"/>
       <c r="H295" s="19" t="s">
         <v>1069</v>
       </c>
@@ -13773,7 +13836,7 @@
       </c>
     </row>
     <row r="296" spans="1:21">
-      <c r="A296" s="22"/>
+      <c r="A296" s="23"/>
       <c r="H296" s="19" t="s">
         <v>1071</v>
       </c>
@@ -13785,7 +13848,7 @@
       </c>
     </row>
     <row r="297" spans="1:21">
-      <c r="A297" s="22"/>
+      <c r="A297" s="23"/>
       <c r="H297" s="19" t="s">
         <v>1073</v>
       </c>
@@ -13797,7 +13860,7 @@
       </c>
     </row>
     <row r="298" spans="1:21">
-      <c r="A298" s="22"/>
+      <c r="A298" s="23"/>
       <c r="H298" s="19" t="s">
         <v>1075</v>
       </c>
@@ -13809,7 +13872,7 @@
       </c>
     </row>
     <row r="299" spans="1:21">
-      <c r="A299" s="22"/>
+      <c r="A299" s="23"/>
       <c r="B299" s="21"/>
       <c r="C299" s="21"/>
       <c r="H299" s="19" t="s">
@@ -13823,7 +13886,7 @@
       </c>
     </row>
     <row r="300" spans="1:21">
-      <c r="A300" s="22"/>
+      <c r="A300" s="23"/>
       <c r="H300" s="19" t="s">
         <v>1087</v>
       </c>
@@ -13835,7 +13898,7 @@
       </c>
     </row>
     <row r="301" spans="1:21">
-      <c r="A301" s="22"/>
+      <c r="A301" s="23"/>
       <c r="H301" s="19" t="s">
         <v>1088</v>
       </c>
@@ -13847,7 +13910,7 @@
       </c>
     </row>
     <row r="302" spans="1:21">
-      <c r="A302" s="22"/>
+      <c r="A302" s="23"/>
       <c r="H302" s="19" t="s">
         <v>1089</v>
       </c>
@@ -13859,7 +13922,7 @@
       </c>
     </row>
     <row r="303" spans="1:21">
-      <c r="A303" s="22"/>
+      <c r="A303" s="23"/>
       <c r="H303" s="19" t="s">
         <v>1090</v>
       </c>
@@ -13871,7 +13934,7 @@
       </c>
     </row>
     <row r="304" spans="1:21">
-      <c r="A304" s="22"/>
+      <c r="A304" s="23"/>
       <c r="H304" s="19" t="s">
         <v>1091</v>
       </c>
@@ -13883,7 +13946,7 @@
       </c>
     </row>
     <row r="305" spans="1:10">
-      <c r="A305" s="22"/>
+      <c r="A305" s="23"/>
       <c r="H305" s="19" t="s">
         <v>1092</v>
       </c>
@@ -13895,7 +13958,7 @@
       </c>
     </row>
     <row r="306" spans="1:10">
-      <c r="A306" s="22"/>
+      <c r="A306" s="23"/>
       <c r="H306" s="19" t="s">
         <v>1093</v>
       </c>
@@ -13907,7 +13970,7 @@
       </c>
     </row>
     <row r="307" spans="1:10">
-      <c r="A307" s="22"/>
+      <c r="A307" s="23"/>
       <c r="H307" s="19" t="s">
         <v>1094</v>
       </c>
@@ -13919,7 +13982,7 @@
       </c>
     </row>
     <row r="308" spans="1:10">
-      <c r="A308" s="22"/>
+      <c r="A308" s="23"/>
       <c r="H308" s="19" t="s">
         <v>1095</v>
       </c>
@@ -13931,7 +13994,7 @@
       </c>
     </row>
     <row r="309" spans="1:10">
-      <c r="A309" s="22"/>
+      <c r="A309" s="23"/>
       <c r="H309" s="19" t="s">
         <v>1097</v>
       </c>
@@ -13943,7 +14006,7 @@
       </c>
     </row>
     <row r="310" spans="1:10">
-      <c r="A310" s="22"/>
+      <c r="A310" s="23"/>
       <c r="H310" s="19" t="s">
         <v>1099</v>
       </c>
@@ -13955,7 +14018,7 @@
       </c>
     </row>
     <row r="311" spans="1:10">
-      <c r="A311" s="22"/>
+      <c r="A311" s="23"/>
       <c r="H311" s="19" t="s">
         <v>1100</v>
       </c>
@@ -13967,7 +14030,7 @@
       </c>
     </row>
     <row r="312" spans="1:10">
-      <c r="A312" s="22"/>
+      <c r="A312" s="23"/>
       <c r="H312" s="19" t="s">
         <v>1101</v>
       </c>
@@ -13979,7 +14042,7 @@
       </c>
     </row>
     <row r="313" spans="1:10">
-      <c r="A313" s="22"/>
+      <c r="A313" s="23"/>
       <c r="H313" s="19" t="s">
         <v>1102</v>
       </c>
@@ -13991,7 +14054,7 @@
       </c>
     </row>
     <row r="314" spans="1:10">
-      <c r="A314" s="22"/>
+      <c r="A314" s="23"/>
       <c r="H314" s="19" t="s">
         <v>1103</v>
       </c>
@@ -14003,7 +14066,7 @@
       </c>
     </row>
     <row r="315" spans="1:10">
-      <c r="A315" s="22"/>
+      <c r="A315" s="23"/>
       <c r="H315" s="19" t="s">
         <v>1104</v>
       </c>
@@ -14015,7 +14078,7 @@
       </c>
     </row>
     <row r="316" spans="1:10">
-      <c r="A316" s="22"/>
+      <c r="A316" s="23"/>
       <c r="H316" s="19" t="s">
         <v>1105</v>
       </c>
@@ -14027,7 +14090,7 @@
       </c>
     </row>
     <row r="317" spans="1:10">
-      <c r="A317" s="22"/>
+      <c r="A317" s="23"/>
       <c r="H317" s="19" t="s">
         <v>1106</v>
       </c>
@@ -14039,7 +14102,7 @@
       </c>
     </row>
     <row r="318" spans="1:10">
-      <c r="A318" s="22"/>
+      <c r="A318" s="23"/>
       <c r="H318" s="19" t="s">
         <v>1107</v>
       </c>
@@ -14051,7 +14114,7 @@
       </c>
     </row>
     <row r="319" spans="1:10">
-      <c r="A319" s="22"/>
+      <c r="A319" s="23"/>
       <c r="H319" s="19" t="s">
         <v>1108</v>
       </c>
@@ -14063,7 +14126,7 @@
       </c>
     </row>
     <row r="320" spans="1:10">
-      <c r="A320" s="22"/>
+      <c r="A320" s="23"/>
       <c r="H320" s="19" t="s">
         <v>1109</v>
       </c>
@@ -14075,7 +14138,7 @@
       </c>
     </row>
     <row r="321" spans="1:10">
-      <c r="A321" s="22"/>
+      <c r="A321" s="23"/>
       <c r="H321" s="19" t="s">
         <v>1110</v>
       </c>
@@ -14087,7 +14150,7 @@
       </c>
     </row>
     <row r="322" spans="1:10">
-      <c r="A322" s="22"/>
+      <c r="A322" s="23"/>
       <c r="H322" s="19" t="s">
         <v>1111</v>
       </c>
@@ -14099,7 +14162,7 @@
       </c>
     </row>
     <row r="323" spans="1:10">
-      <c r="A323" s="22"/>
+      <c r="A323" s="23"/>
       <c r="H323" s="19" t="s">
         <v>1112</v>
       </c>
@@ -14111,7 +14174,7 @@
       </c>
     </row>
     <row r="324" spans="1:10">
-      <c r="A324" s="22"/>
+      <c r="A324" s="23"/>
       <c r="H324" s="19" t="s">
         <v>1113</v>
       </c>
@@ -14123,7 +14186,7 @@
       </c>
     </row>
     <row r="325" spans="1:10">
-      <c r="A325" s="22"/>
+      <c r="A325" s="23"/>
       <c r="H325" s="19" t="s">
         <v>1114</v>
       </c>
@@ -14135,7 +14198,7 @@
       </c>
     </row>
     <row r="326" spans="1:10">
-      <c r="A326" s="22"/>
+      <c r="A326" s="23"/>
       <c r="H326" s="19" t="s">
         <v>1115</v>
       </c>
@@ -14147,7 +14210,7 @@
       </c>
     </row>
     <row r="327" spans="1:10">
-      <c r="A327" s="22"/>
+      <c r="A327" s="23"/>
       <c r="H327" s="19" t="s">
         <v>1116</v>
       </c>
@@ -14159,7 +14222,7 @@
       </c>
     </row>
     <row r="328" spans="1:10">
-      <c r="A328" s="22"/>
+      <c r="A328" s="23"/>
       <c r="H328" s="19" t="s">
         <v>1117</v>
       </c>
@@ -14171,7 +14234,7 @@
       </c>
     </row>
     <row r="329" spans="1:10">
-      <c r="A329" s="22"/>
+      <c r="A329" s="23"/>
       <c r="H329" s="19" t="s">
         <v>1118</v>
       </c>
@@ -14183,7 +14246,7 @@
       </c>
     </row>
     <row r="330" spans="1:10">
-      <c r="A330" s="22"/>
+      <c r="A330" s="23"/>
       <c r="H330" s="19" t="s">
         <v>1119</v>
       </c>
@@ -14195,7 +14258,7 @@
       </c>
     </row>
     <row r="331" spans="1:10">
-      <c r="A331" s="22"/>
+      <c r="A331" s="23"/>
       <c r="H331" s="19" t="s">
         <v>1120</v>
       </c>
@@ -14207,7 +14270,7 @@
       </c>
     </row>
     <row r="332" spans="1:10">
-      <c r="A332" s="22"/>
+      <c r="A332" s="23"/>
       <c r="H332" s="19" t="s">
         <v>1121</v>
       </c>
@@ -14219,7 +14282,7 @@
       </c>
     </row>
     <row r="333" spans="1:10">
-      <c r="A333" s="22"/>
+      <c r="A333" s="23"/>
       <c r="H333" s="19" t="s">
         <v>1122</v>
       </c>
@@ -14231,7 +14294,7 @@
       </c>
     </row>
     <row r="334" spans="1:10">
-      <c r="A334" s="22"/>
+      <c r="A334" s="23"/>
       <c r="H334" s="19" t="s">
         <v>1123</v>
       </c>
@@ -14243,7 +14306,7 @@
       </c>
     </row>
     <row r="335" spans="1:10">
-      <c r="A335" s="22"/>
+      <c r="A335" s="23"/>
       <c r="H335" s="19" t="s">
         <v>1124</v>
       </c>
@@ -14255,7 +14318,7 @@
       </c>
     </row>
     <row r="336" spans="1:10">
-      <c r="A336" s="22"/>
+      <c r="A336" s="23"/>
       <c r="H336" s="19" t="s">
         <v>1125</v>
       </c>
@@ -14267,7 +14330,7 @@
       </c>
     </row>
     <row r="337" spans="1:19">
-      <c r="A337" s="22"/>
+      <c r="A337" s="23"/>
       <c r="H337" s="19" t="s">
         <v>1126</v>
       </c>
@@ -14279,7 +14342,7 @@
       </c>
     </row>
     <row r="338" spans="1:19">
-      <c r="A338" s="22"/>
+      <c r="A338" s="23"/>
       <c r="H338" s="19" t="s">
         <v>1127</v>
       </c>
@@ -14291,7 +14354,7 @@
       </c>
     </row>
     <row r="339" spans="1:19">
-      <c r="A339" s="22"/>
+      <c r="A339" s="23"/>
       <c r="H339" s="19" t="s">
         <v>1128</v>
       </c>
@@ -14303,7 +14366,7 @@
       </c>
     </row>
     <row r="340" spans="1:19">
-      <c r="A340" s="22"/>
+      <c r="A340" s="23"/>
       <c r="H340" s="19" t="s">
         <v>1129</v>
       </c>
@@ -14315,7 +14378,7 @@
       </c>
     </row>
     <row r="341" spans="1:19">
-      <c r="A341" s="22"/>
+      <c r="A341" s="23"/>
       <c r="H341" s="19" t="s">
         <v>1130</v>
       </c>
@@ -14327,7 +14390,7 @@
       </c>
     </row>
     <row r="342" spans="1:19">
-      <c r="A342" s="22"/>
+      <c r="A342" s="23"/>
       <c r="H342" s="19" t="s">
         <v>1131</v>
       </c>
@@ -14339,7 +14402,7 @@
       </c>
     </row>
     <row r="343" spans="1:19">
-      <c r="A343" s="22"/>
+      <c r="A343" s="23"/>
       <c r="H343" s="19" t="s">
         <v>1132</v>
       </c>
@@ -14351,7 +14414,7 @@
       </c>
     </row>
     <row r="344" spans="1:19">
-      <c r="A344" s="22"/>
+      <c r="A344" s="23"/>
       <c r="H344" s="19" t="s">
         <v>1135</v>
       </c>
@@ -14363,7 +14426,7 @@
       </c>
     </row>
     <row r="345" spans="1:19">
-      <c r="A345" s="22"/>
+      <c r="A345" s="23"/>
       <c r="H345" s="19" t="s">
         <v>1138</v>
       </c>
@@ -14375,7 +14438,7 @@
       </c>
     </row>
     <row r="346" spans="1:19">
-      <c r="A346" s="22"/>
+      <c r="A346" s="23"/>
       <c r="H346" s="19" t="s">
         <v>1139</v>
       </c>
@@ -14387,7 +14450,7 @@
       </c>
     </row>
     <row r="347" spans="1:19">
-      <c r="A347" s="22"/>
+      <c r="A347" s="23"/>
       <c r="H347" s="19" t="s">
         <v>1140</v>
       </c>
@@ -14399,7 +14462,7 @@
       </c>
     </row>
     <row r="348" spans="1:19">
-      <c r="A348" s="22"/>
+      <c r="A348" s="23"/>
       <c r="H348" s="19" t="s">
         <v>1142</v>
       </c>
@@ -14411,7 +14474,7 @@
       </c>
     </row>
     <row r="349" spans="1:19">
-      <c r="A349" s="22" t="s">
+      <c r="A349" s="23" t="s">
         <v>1051</v>
       </c>
       <c r="E349" s="1" t="s">
@@ -14436,7 +14499,7 @@
       <c r="S349" s="2"/>
     </row>
     <row r="350" spans="1:19">
-      <c r="A350" s="22"/>
+      <c r="A350" s="23"/>
       <c r="E350" s="1" t="s">
         <v>344</v>
       </c>
@@ -14457,7 +14520,7 @@
       <c r="Q350" s="2"/>
     </row>
     <row r="351" spans="1:19">
-      <c r="A351" s="22" t="s">
+      <c r="A351" s="23" t="s">
         <v>1052</v>
       </c>
       <c r="E351" s="1" t="s">
@@ -14472,7 +14535,7 @@
       </c>
     </row>
     <row r="352" spans="1:19">
-      <c r="A352" s="22"/>
+      <c r="A352" s="23"/>
       <c r="E352" s="1" t="s">
         <v>344</v>
       </c>
@@ -14485,7 +14548,7 @@
       </c>
     </row>
     <row r="353" spans="1:20">
-      <c r="A353" s="22"/>
+      <c r="A353" s="23"/>
       <c r="E353" s="1" t="s">
         <v>344</v>
       </c>
@@ -14498,7 +14561,7 @@
       </c>
     </row>
     <row r="354" spans="1:20">
-      <c r="A354" s="22"/>
+      <c r="A354" s="23"/>
       <c r="E354" s="1" t="s">
         <v>344</v>
       </c>
@@ -14511,7 +14574,7 @@
       </c>
     </row>
     <row r="355" spans="1:20">
-      <c r="A355" s="22"/>
+      <c r="A355" s="23"/>
       <c r="E355" s="1" t="s">
         <v>344</v>
       </c>
@@ -14524,7 +14587,7 @@
       </c>
     </row>
     <row r="356" spans="1:20">
-      <c r="A356" s="22"/>
+      <c r="A356" s="23"/>
       <c r="E356" s="1" t="s">
         <v>344</v>
       </c>
@@ -14537,7 +14600,7 @@
       </c>
     </row>
     <row r="357" spans="1:20">
-      <c r="A357" s="22"/>
+      <c r="A357" s="23"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
       <c r="G357" s="2"/>
@@ -14546,7 +14609,7 @@
       </c>
     </row>
     <row r="358" spans="1:20">
-      <c r="A358" s="22" t="s">
+      <c r="A358" s="23" t="s">
         <v>1053</v>
       </c>
       <c r="E358" s="1" t="s">
@@ -14571,7 +14634,7 @@
       <c r="S358" s="2"/>
     </row>
     <row r="359" spans="1:20">
-      <c r="A359" s="22"/>
+      <c r="A359" s="23"/>
       <c r="E359" s="1" t="s">
         <v>344</v>
       </c>
@@ -14594,7 +14657,7 @@
       <c r="S359" s="2"/>
     </row>
     <row r="360" spans="1:20">
-      <c r="A360" s="22"/>
+      <c r="A360" s="23"/>
       <c r="E360" s="1" t="s">
         <v>344</v>
       </c>
@@ -14617,7 +14680,7 @@
       <c r="S360" s="2"/>
     </row>
     <row r="361" spans="1:20">
-      <c r="A361" s="22"/>
+      <c r="A361" s="23"/>
       <c r="E361" s="1" t="s">
         <v>344</v>
       </c>
@@ -14641,7 +14704,7 @@
       <c r="T361" s="2"/>
     </row>
     <row r="362" spans="1:20">
-      <c r="A362" s="22"/>
+      <c r="A362" s="23"/>
       <c r="E362" s="1" t="s">
         <v>344</v>
       </c>
@@ -14664,7 +14727,7 @@
       <c r="S362" s="2"/>
     </row>
     <row r="363" spans="1:20">
-      <c r="A363" s="22"/>
+      <c r="A363" s="23"/>
       <c r="E363" s="1" t="s">
         <v>344</v>
       </c>
@@ -14687,7 +14750,7 @@
       <c r="S363" s="2"/>
     </row>
     <row r="364" spans="1:20">
-      <c r="A364" s="22"/>
+      <c r="A364" s="23"/>
       <c r="E364" s="1" t="s">
         <v>344</v>
       </c>
@@ -14711,7 +14774,7 @@
       <c r="T364" s="2"/>
     </row>
     <row r="365" spans="1:20">
-      <c r="A365" s="22"/>
+      <c r="A365" s="23"/>
       <c r="E365" s="1" t="s">
         <v>344</v>
       </c>
@@ -14729,7 +14792,7 @@
       <c r="N365" s="2"/>
     </row>
     <row r="366" spans="1:20">
-      <c r="A366" s="22" t="s">
+      <c r="A366" s="23" t="s">
         <v>1054</v>
       </c>
       <c r="E366" s="1" t="s">
@@ -14753,7 +14816,7 @@
       <c r="R366" s="2"/>
     </row>
     <row r="367" spans="1:20">
-      <c r="A367" s="22"/>
+      <c r="A367" s="23"/>
       <c r="E367" s="1" t="s">
         <v>344</v>
       </c>
@@ -14774,7 +14837,7 @@
       <c r="Q367" s="2"/>
     </row>
     <row r="368" spans="1:20">
-      <c r="A368" s="22"/>
+      <c r="A368" s="23"/>
       <c r="E368" s="1" t="s">
         <v>344</v>
       </c>
@@ -14797,7 +14860,7 @@
       <c r="S368" s="2"/>
     </row>
     <row r="369" spans="1:21">
-      <c r="A369" s="22"/>
+      <c r="A369" s="23"/>
       <c r="E369" s="1" t="s">
         <v>344</v>
       </c>
@@ -14815,7 +14878,7 @@
       <c r="N369" s="2"/>
     </row>
     <row r="370" spans="1:21">
-      <c r="A370" s="22"/>
+      <c r="A370" s="23"/>
       <c r="E370" s="1" t="s">
         <v>15</v>
       </c>
@@ -14841,7 +14904,7 @@
       <c r="P370" s="2"/>
     </row>
     <row r="371" spans="1:21">
-      <c r="A371" s="22"/>
+      <c r="A371" s="23"/>
       <c r="E371" s="1" t="s">
         <v>15</v>
       </c>
@@ -14867,7 +14930,7 @@
       <c r="P371" s="2"/>
     </row>
     <row r="372" spans="1:21">
-      <c r="A372" s="22" t="s">
+      <c r="A372" s="23" t="s">
         <v>1144</v>
       </c>
       <c r="E372" s="2"/>
@@ -14891,7 +14954,7 @@
       <c r="U372" s="2"/>
     </row>
     <row r="373" spans="1:21">
-      <c r="A373" s="22"/>
+      <c r="A373" s="23"/>
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
       <c r="G373" s="2"/>
@@ -14913,7 +14976,7 @@
       <c r="U373" s="2"/>
     </row>
     <row r="374" spans="1:21">
-      <c r="A374" s="22"/>
+      <c r="A374" s="23"/>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
       <c r="G374" s="2"/>
@@ -14935,7 +14998,7 @@
       <c r="U374" s="2"/>
     </row>
     <row r="375" spans="1:21">
-      <c r="A375" s="22"/>
+      <c r="A375" s="23"/>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
       <c r="G375" s="2"/>
@@ -14957,7 +15020,7 @@
       <c r="U375" s="2"/>
     </row>
     <row r="376" spans="1:21">
-      <c r="A376" s="22"/>
+      <c r="A376" s="23"/>
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
       <c r="G376" s="2"/>
@@ -14979,7 +15042,7 @@
       <c r="U376" s="2"/>
     </row>
     <row r="377" spans="1:21">
-      <c r="A377" s="22"/>
+      <c r="A377" s="23"/>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
       <c r="G377" s="2"/>
@@ -15001,7 +15064,7 @@
       <c r="U377" s="2"/>
     </row>
     <row r="378" spans="1:21">
-      <c r="A378" s="22"/>
+      <c r="A378" s="23"/>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
       <c r="G378" s="2"/>
@@ -15023,7 +15086,7 @@
       <c r="U378" s="2"/>
     </row>
     <row r="379" spans="1:21">
-      <c r="A379" s="22"/>
+      <c r="A379" s="23"/>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
@@ -15045,7 +15108,7 @@
       <c r="U379" s="2"/>
     </row>
     <row r="380" spans="1:21">
-      <c r="A380" s="22"/>
+      <c r="A380" s="23"/>
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
@@ -15067,7 +15130,7 @@
       <c r="U380" s="2"/>
     </row>
     <row r="381" spans="1:21">
-      <c r="A381" s="22"/>
+      <c r="A381" s="23"/>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
@@ -15089,7 +15152,7 @@
       <c r="U381" s="2"/>
     </row>
     <row r="382" spans="1:21">
-      <c r="A382" s="22"/>
+      <c r="A382" s="23"/>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
       <c r="G382" s="2"/>
@@ -15111,7 +15174,7 @@
       <c r="U382" s="2"/>
     </row>
     <row r="383" spans="1:21">
-      <c r="A383" s="22"/>
+      <c r="A383" s="23"/>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
       <c r="G383" s="2"/>
@@ -15133,7 +15196,7 @@
       <c r="U383" s="2"/>
     </row>
     <row r="384" spans="1:21">
-      <c r="A384" s="22"/>
+      <c r="A384" s="23"/>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
       <c r="G384" s="2"/>
@@ -15155,7 +15218,7 @@
       <c r="U384" s="2"/>
     </row>
     <row r="385" spans="1:21">
-      <c r="A385" s="22"/>
+      <c r="A385" s="23"/>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
       <c r="G385" s="2"/>
@@ -15177,7 +15240,7 @@
       <c r="U385" s="2"/>
     </row>
     <row r="386" spans="1:21">
-      <c r="A386" s="22"/>
+      <c r="A386" s="23"/>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
       <c r="G386" s="2"/>
@@ -15199,7 +15262,7 @@
       <c r="U386" s="2"/>
     </row>
     <row r="387" spans="1:21">
-      <c r="A387" s="22"/>
+      <c r="A387" s="23"/>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
       <c r="G387" s="2"/>
@@ -15221,7 +15284,7 @@
       <c r="U387" s="2"/>
     </row>
     <row r="388" spans="1:21">
-      <c r="A388" s="22"/>
+      <c r="A388" s="23"/>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -15243,7 +15306,7 @@
       <c r="U388" s="2"/>
     </row>
     <row r="389" spans="1:21">
-      <c r="A389" s="22"/>
+      <c r="A389" s="23"/>
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
       <c r="G389" s="2"/>
@@ -15265,7 +15328,7 @@
       <c r="U389" s="2"/>
     </row>
     <row r="390" spans="1:21">
-      <c r="A390" s="22"/>
+      <c r="A390" s="23"/>
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
       <c r="G390" s="2"/>
@@ -15287,7 +15350,7 @@
       <c r="U390" s="2"/>
     </row>
     <row r="391" spans="1:21">
-      <c r="A391" s="22"/>
+      <c r="A391" s="23"/>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
       <c r="G391" s="2"/>
@@ -15309,7 +15372,7 @@
       <c r="U391" s="2"/>
     </row>
     <row r="392" spans="1:21">
-      <c r="A392" s="22"/>
+      <c r="A392" s="23"/>
       <c r="E392" s="1" t="s">
         <v>344</v>
       </c>
@@ -15335,7 +15398,7 @@
       <c r="U392" s="2"/>
     </row>
     <row r="393" spans="1:21">
-      <c r="A393" s="22"/>
+      <c r="A393" s="23"/>
       <c r="E393" s="1" t="s">
         <v>344</v>
       </c>
@@ -15361,7 +15424,7 @@
       <c r="U393" s="2"/>
     </row>
     <row r="394" spans="1:21">
-      <c r="A394" s="22"/>
+      <c r="A394" s="23"/>
       <c r="E394" s="1" t="s">
         <v>344</v>
       </c>
@@ -15387,7 +15450,7 @@
       <c r="U394" s="2"/>
     </row>
     <row r="395" spans="1:21">
-      <c r="A395" s="22"/>
+      <c r="A395" s="23"/>
       <c r="E395" s="1" t="s">
         <v>344</v>
       </c>
@@ -15413,7 +15476,7 @@
       <c r="O395" s="2"/>
     </row>
     <row r="396" spans="1:21">
-      <c r="A396" s="22"/>
+      <c r="A396" s="23"/>
       <c r="E396" s="1" t="s">
         <v>344</v>
       </c>
@@ -15447,7 +15510,7 @@
       </c>
     </row>
     <row r="397" spans="1:21">
-      <c r="A397" s="22"/>
+      <c r="A397" s="23"/>
       <c r="E397" s="1" t="s">
         <v>344</v>
       </c>
@@ -15479,7 +15542,7 @@
       <c r="U397" s="2"/>
     </row>
     <row r="398" spans="1:21">
-      <c r="A398" s="22"/>
+      <c r="A398" s="23"/>
       <c r="E398" s="1"/>
       <c r="F398" s="2"/>
       <c r="G398" s="2"/>
@@ -15501,7 +15564,7 @@
       <c r="U398" s="2"/>
     </row>
     <row r="399" spans="1:21">
-      <c r="A399" s="22"/>
+      <c r="A399" s="23"/>
       <c r="E399" s="1"/>
       <c r="F399" s="2"/>
       <c r="G399" s="2"/>
@@ -15523,7 +15586,7 @@
       <c r="U399" s="2"/>
     </row>
     <row r="400" spans="1:21">
-      <c r="A400" s="22"/>
+      <c r="A400" s="23"/>
       <c r="E400" s="1"/>
       <c r="F400" s="2"/>
       <c r="G400" s="2"/>
@@ -15545,7 +15608,7 @@
       <c r="U400" s="2"/>
     </row>
     <row r="401" spans="1:21">
-      <c r="A401" s="22"/>
+      <c r="A401" s="23"/>
       <c r="E401" s="1"/>
       <c r="F401" s="2"/>
       <c r="G401" s="2"/>
@@ -15569,7 +15632,7 @@
       <c r="U401" s="2"/>
     </row>
     <row r="402" spans="1:21">
-      <c r="A402" s="22"/>
+      <c r="A402" s="23"/>
       <c r="E402" s="1" t="s">
         <v>344</v>
       </c>
@@ -15603,7 +15666,7 @@
       </c>
     </row>
     <row r="403" spans="1:21">
-      <c r="A403" s="22"/>
+      <c r="A403" s="23"/>
       <c r="E403" s="1" t="s">
         <v>344</v>
       </c>
@@ -15629,7 +15692,7 @@
       <c r="U403" s="2"/>
     </row>
     <row r="404" spans="1:21">
-      <c r="A404" s="22"/>
+      <c r="A404" s="23"/>
       <c r="E404" s="1" t="s">
         <v>344</v>
       </c>
@@ -15655,7 +15718,7 @@
       <c r="U404" s="2"/>
     </row>
     <row r="405" spans="1:21">
-      <c r="A405" s="22"/>
+      <c r="A405" s="23"/>
       <c r="E405" s="1" t="s">
         <v>344</v>
       </c>
@@ -15683,7 +15746,7 @@
       <c r="U405" s="2"/>
     </row>
     <row r="406" spans="1:21">
-      <c r="A406" s="22"/>
+      <c r="A406" s="23"/>
       <c r="E406" s="1" t="s">
         <v>344</v>
       </c>
@@ -15713,7 +15776,7 @@
       </c>
     </row>
     <row r="407" spans="1:21">
-      <c r="A407" s="22"/>
+      <c r="A407" s="23"/>
       <c r="E407" s="1" t="s">
         <v>344</v>
       </c>
@@ -15741,7 +15804,7 @@
       <c r="U407" s="2"/>
     </row>
     <row r="408" spans="1:21">
-      <c r="A408" s="22"/>
+      <c r="A408" s="23"/>
       <c r="E408" s="1" t="s">
         <v>344</v>
       </c>
@@ -15771,7 +15834,7 @@
       </c>
     </row>
     <row r="409" spans="1:21">
-      <c r="A409" s="22"/>
+      <c r="A409" s="23"/>
       <c r="E409" s="1" t="s">
         <v>344</v>
       </c>
@@ -15799,7 +15862,7 @@
       <c r="U409" s="2"/>
     </row>
     <row r="410" spans="1:21">
-      <c r="A410" s="22"/>
+      <c r="A410" s="23"/>
       <c r="E410" s="1"/>
       <c r="F410" s="2"/>
       <c r="G410" s="2"/>
@@ -15821,7 +15884,7 @@
       <c r="U410" s="2"/>
     </row>
     <row r="411" spans="1:21">
-      <c r="A411" s="22"/>
+      <c r="A411" s="23"/>
       <c r="E411" s="1"/>
       <c r="F411" s="2"/>
       <c r="G411" s="2"/>
@@ -15843,7 +15906,7 @@
       <c r="U411" s="2"/>
     </row>
     <row r="412" spans="1:21">
-      <c r="A412" s="22"/>
+      <c r="A412" s="23"/>
       <c r="E412" s="1"/>
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
@@ -15865,7 +15928,7 @@
       <c r="U412" s="2"/>
     </row>
     <row r="413" spans="1:21">
-      <c r="A413" s="22"/>
+      <c r="A413" s="23"/>
       <c r="E413" s="1" t="s">
         <v>344</v>
       </c>
@@ -15899,7 +15962,7 @@
       </c>
     </row>
     <row r="414" spans="1:21">
-      <c r="A414" s="22"/>
+      <c r="A414" s="23"/>
       <c r="E414" s="1" t="s">
         <v>344</v>
       </c>
@@ -15925,7 +15988,7 @@
       <c r="U414" s="2"/>
     </row>
     <row r="415" spans="1:21">
-      <c r="A415" s="22"/>
+      <c r="A415" s="23"/>
       <c r="E415" s="1" t="s">
         <v>344</v>
       </c>
@@ -15955,7 +16018,7 @@
       </c>
     </row>
     <row r="416" spans="1:21">
-      <c r="A416" s="22"/>
+      <c r="A416" s="23"/>
       <c r="E416" s="1" t="s">
         <v>344</v>
       </c>
@@ -15983,7 +16046,7 @@
       <c r="U416" s="2"/>
     </row>
     <row r="417" spans="1:21">
-      <c r="A417" s="22"/>
+      <c r="A417" s="23"/>
       <c r="E417" s="1" t="s">
         <v>344</v>
       </c>
@@ -16011,7 +16074,7 @@
       <c r="U417" s="2"/>
     </row>
     <row r="418" spans="1:21">
-      <c r="A418" s="22"/>
+      <c r="A418" s="23"/>
       <c r="E418" s="1" t="s">
         <v>344</v>
       </c>
@@ -16047,7 +16110,7 @@
       <c r="U418" s="2"/>
     </row>
     <row r="419" spans="1:21">
-      <c r="A419" s="22"/>
+      <c r="A419" s="23"/>
       <c r="E419" s="1" t="s">
         <v>344</v>
       </c>
@@ -16075,7 +16138,7 @@
       <c r="U419" s="2"/>
     </row>
     <row r="420" spans="1:21">
-      <c r="A420" s="22"/>
+      <c r="A420" s="23"/>
       <c r="E420" s="1" t="s">
         <v>344</v>
       </c>
@@ -16108,7 +16171,7 @@
       <c r="T420" s="2"/>
     </row>
     <row r="421" spans="1:21">
-      <c r="A421" s="22"/>
+      <c r="A421" s="23"/>
       <c r="E421" s="1" t="s">
         <v>344</v>
       </c>
@@ -16136,7 +16199,7 @@
       <c r="U421" s="2"/>
     </row>
     <row r="422" spans="1:21">
-      <c r="A422" s="22"/>
+      <c r="A422" s="23"/>
       <c r="E422" s="1" t="s">
         <v>344</v>
       </c>
@@ -16168,7 +16231,7 @@
       <c r="U422" s="2"/>
     </row>
     <row r="423" spans="1:21">
-      <c r="A423" s="22"/>
+      <c r="A423" s="23"/>
       <c r="E423" s="1"/>
       <c r="F423" s="2"/>
       <c r="G423" s="2"/>
@@ -16190,7 +16253,7 @@
       <c r="U423" s="2"/>
     </row>
     <row r="424" spans="1:21">
-      <c r="A424" s="22"/>
+      <c r="A424" s="23"/>
       <c r="E424" s="1"/>
       <c r="F424" s="2"/>
       <c r="G424" s="2"/>
@@ -16212,7 +16275,7 @@
       <c r="U424" s="2"/>
     </row>
     <row r="425" spans="1:21">
-      <c r="A425" s="22"/>
+      <c r="A425" s="23"/>
       <c r="E425" s="1"/>
       <c r="F425" s="2"/>
       <c r="G425" s="2"/>
@@ -16236,7 +16299,7 @@
       <c r="U425" s="2"/>
     </row>
     <row r="426" spans="1:21">
-      <c r="A426" s="22"/>
+      <c r="A426" s="23"/>
       <c r="E426" s="1" t="s">
         <v>344</v>
       </c>
@@ -16266,7 +16329,7 @@
       <c r="U426" s="1"/>
     </row>
     <row r="427" spans="1:21">
-      <c r="A427" s="22"/>
+      <c r="A427" s="23"/>
       <c r="E427" s="1" t="s">
         <v>344</v>
       </c>
@@ -16303,7 +16366,7 @@
       </c>
     </row>
     <row r="428" spans="1:21">
-      <c r="A428" s="22"/>
+      <c r="A428" s="23"/>
       <c r="E428" s="1" t="s">
         <v>344</v>
       </c>
@@ -16335,7 +16398,7 @@
       <c r="U428" s="2"/>
     </row>
     <row r="429" spans="1:21">
-      <c r="A429" s="22"/>
+      <c r="A429" s="23"/>
       <c r="E429" s="1" t="s">
         <v>344</v>
       </c>
@@ -16370,7 +16433,7 @@
       </c>
     </row>
     <row r="430" spans="1:21">
-      <c r="A430" s="22"/>
+      <c r="A430" s="23"/>
       <c r="E430" s="1" t="s">
         <v>344</v>
       </c>
@@ -16400,7 +16463,7 @@
       <c r="U430" s="2"/>
     </row>
     <row r="431" spans="1:21">
-      <c r="A431" s="22"/>
+      <c r="A431" s="23"/>
       <c r="E431" s="1" t="s">
         <v>344</v>
       </c>
@@ -16433,7 +16496,7 @@
       <c r="T431" s="2"/>
     </row>
     <row r="432" spans="1:21">
-      <c r="A432" s="22"/>
+      <c r="A432" s="23"/>
       <c r="E432" s="1" t="s">
         <v>344</v>
       </c>
@@ -16458,7 +16521,7 @@
       <c r="P432" s="2"/>
     </row>
     <row r="433" spans="1:21">
-      <c r="A433" s="22"/>
+      <c r="A433" s="23"/>
       <c r="E433" s="1" t="s">
         <v>344</v>
       </c>
@@ -16489,7 +16552,7 @@
       </c>
     </row>
     <row r="434" spans="1:21">
-      <c r="A434" s="22"/>
+      <c r="A434" s="23"/>
       <c r="E434" s="1" t="s">
         <v>344</v>
       </c>
@@ -16517,7 +16580,7 @@
       <c r="U434" s="2"/>
     </row>
     <row r="435" spans="1:21">
-      <c r="A435" s="22"/>
+      <c r="A435" s="23"/>
       <c r="E435" s="1" t="s">
         <v>344</v>
       </c>
@@ -16545,7 +16608,7 @@
       <c r="U435" s="2"/>
     </row>
     <row r="436" spans="1:21">
-      <c r="A436" s="22"/>
+      <c r="A436" s="23"/>
       <c r="E436" s="1" t="s">
         <v>344</v>
       </c>
@@ -16569,7 +16632,7 @@
       <c r="Q436" s="2"/>
     </row>
     <row r="437" spans="1:21">
-      <c r="A437" s="22"/>
+      <c r="A437" s="23"/>
       <c r="E437" s="1" t="s">
         <v>344</v>
       </c>
@@ -16600,7 +16663,7 @@
       </c>
     </row>
     <row r="438" spans="1:21">
-      <c r="A438" s="22"/>
+      <c r="A438" s="23"/>
       <c r="E438" s="1" t="s">
         <v>344</v>
       </c>
@@ -16628,7 +16691,7 @@
       <c r="U438" s="2"/>
     </row>
     <row r="439" spans="1:21">
-      <c r="A439" s="22"/>
+      <c r="A439" s="23"/>
       <c r="E439" s="1" t="s">
         <v>344</v>
       </c>
@@ -16656,7 +16719,7 @@
       <c r="U439" s="2"/>
     </row>
     <row r="440" spans="1:21">
-      <c r="A440" s="22"/>
+      <c r="A440" s="23"/>
       <c r="E440" s="1" t="s">
         <v>344</v>
       </c>
@@ -16684,7 +16747,7 @@
       <c r="U440" s="2"/>
     </row>
     <row r="441" spans="1:21">
-      <c r="A441" s="22"/>
+      <c r="A441" s="23"/>
       <c r="E441" s="1" t="s">
         <v>344</v>
       </c>
@@ -16709,7 +16772,7 @@
       <c r="R441" s="2"/>
     </row>
     <row r="442" spans="1:21">
-      <c r="A442" s="22"/>
+      <c r="A442" s="23"/>
       <c r="E442" s="1" t="s">
         <v>344</v>
       </c>
@@ -16739,7 +16802,7 @@
       <c r="Q442" s="2"/>
     </row>
     <row r="443" spans="1:21">
-      <c r="A443" s="22"/>
+      <c r="A443" s="23"/>
       <c r="E443" s="1" t="s">
         <v>344</v>
       </c>
@@ -16765,7 +16828,7 @@
       <c r="U443" s="2"/>
     </row>
     <row r="444" spans="1:21">
-      <c r="A444" s="22"/>
+      <c r="A444" s="23"/>
       <c r="E444" s="1" t="s">
         <v>344</v>
       </c>
@@ -16789,7 +16852,7 @@
       <c r="Q444" s="2"/>
     </row>
     <row r="445" spans="1:21">
-      <c r="A445" s="22"/>
+      <c r="A445" s="23"/>
       <c r="E445" s="1" t="s">
         <v>344</v>
       </c>
@@ -16820,7 +16883,7 @@
       <c r="R445" s="2"/>
     </row>
     <row r="446" spans="1:21">
-      <c r="A446" s="22"/>
+      <c r="A446" s="23"/>
       <c r="E446" s="1" t="s">
         <v>344</v>
       </c>
@@ -16846,7 +16909,7 @@
       <c r="U446" s="2"/>
     </row>
     <row r="447" spans="1:21">
-      <c r="A447" s="22"/>
+      <c r="A447" s="23"/>
       <c r="E447" s="1"/>
       <c r="F447" s="2"/>
       <c r="G447" s="2"/>
@@ -16868,7 +16931,7 @@
       <c r="U447" s="2"/>
     </row>
     <row r="448" spans="1:21">
-      <c r="A448" s="22"/>
+      <c r="A448" s="23"/>
       <c r="E448" s="1"/>
       <c r="F448" s="2"/>
       <c r="G448" s="2"/>
@@ -16890,7 +16953,7 @@
       <c r="U448" s="2"/>
     </row>
     <row r="449" spans="1:21">
-      <c r="A449" s="22"/>
+      <c r="A449" s="23"/>
       <c r="E449" s="1"/>
       <c r="F449" s="2"/>
       <c r="G449" s="2"/>
@@ -16912,7 +16975,7 @@
       <c r="U449" s="2"/>
     </row>
     <row r="450" spans="1:21">
-      <c r="A450" s="22"/>
+      <c r="A450" s="23"/>
       <c r="E450" s="1" t="s">
         <v>344</v>
       </c>
@@ -16944,7 +17007,7 @@
       </c>
     </row>
     <row r="451" spans="1:21">
-      <c r="A451" s="22"/>
+      <c r="A451" s="23"/>
       <c r="E451" s="1" t="s">
         <v>344</v>
       </c>
@@ -16970,7 +17033,7 @@
       <c r="U451" s="2"/>
     </row>
     <row r="452" spans="1:21">
-      <c r="A452" s="22"/>
+      <c r="A452" s="23"/>
       <c r="E452" s="1" t="s">
         <v>344</v>
       </c>
@@ -16996,7 +17059,7 @@
       <c r="U452" s="2"/>
     </row>
     <row r="453" spans="1:21">
-      <c r="A453" s="22"/>
+      <c r="A453" s="23"/>
       <c r="E453" s="1"/>
       <c r="F453" s="2"/>
       <c r="G453" s="2"/>
@@ -17018,7 +17081,7 @@
       <c r="U453" s="2"/>
     </row>
     <row r="454" spans="1:21">
-      <c r="A454" s="22"/>
+      <c r="A454" s="23"/>
       <c r="E454" s="1"/>
       <c r="F454" s="2"/>
       <c r="G454" s="2"/>
@@ -17040,7 +17103,7 @@
       <c r="U454" s="2"/>
     </row>
     <row r="455" spans="1:21">
-      <c r="A455" s="22"/>
+      <c r="A455" s="23"/>
       <c r="E455" s="1" t="s">
         <v>344</v>
       </c>
@@ -17076,7 +17139,7 @@
       </c>
     </row>
     <row r="456" spans="1:21">
-      <c r="A456" s="22"/>
+      <c r="A456" s="23"/>
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
       <c r="G456" s="2"/>
@@ -17098,7 +17161,7 @@
       <c r="U456" s="2"/>
     </row>
     <row r="457" spans="1:21">
-      <c r="A457" s="22"/>
+      <c r="A457" s="23"/>
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
       <c r="G457" s="2"/>
@@ -17120,7 +17183,7 @@
       <c r="U457" s="2"/>
     </row>
     <row r="458" spans="1:21">
-      <c r="A458" s="22"/>
+      <c r="A458" s="23"/>
       <c r="E458" s="1" t="s">
         <v>344</v>
       </c>
@@ -17156,7 +17219,7 @@
       <c r="U458" s="2"/>
     </row>
     <row r="459" spans="1:21">
-      <c r="A459" s="22"/>
+      <c r="A459" s="23"/>
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
       <c r="G459" s="2"/>
@@ -17178,7 +17241,7 @@
       <c r="U459" s="2"/>
     </row>
     <row r="460" spans="1:21">
-      <c r="A460" s="22"/>
+      <c r="A460" s="23"/>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
       <c r="G460" s="2"/>
@@ -17200,7 +17263,7 @@
       <c r="U460" s="2"/>
     </row>
     <row r="461" spans="1:21">
-      <c r="A461" s="22"/>
+      <c r="A461" s="23"/>
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
       <c r="G461" s="2"/>
@@ -17222,7 +17285,7 @@
       <c r="U461" s="2"/>
     </row>
     <row r="462" spans="1:21">
-      <c r="A462" s="22"/>
+      <c r="A462" s="23"/>
       <c r="E462" s="1" t="s">
         <v>344</v>
       </c>
@@ -17258,7 +17321,7 @@
       <c r="U462" s="2"/>
     </row>
     <row r="463" spans="1:21">
-      <c r="A463" s="22"/>
+      <c r="A463" s="23"/>
       <c r="E463" s="1" t="s">
         <v>344</v>
       </c>
@@ -17296,7 +17359,7 @@
       </c>
     </row>
     <row r="464" spans="1:21">
-      <c r="A464" s="22"/>
+      <c r="A464" s="23"/>
       <c r="E464" s="2" t="s">
         <v>344</v>
       </c>
@@ -17322,7 +17385,7 @@
       <c r="U464" s="2"/>
     </row>
     <row r="465" spans="1:21">
-      <c r="A465" s="22"/>
+      <c r="A465" s="23"/>
       <c r="E465" s="1" t="s">
         <v>344</v>
       </c>
@@ -17358,7 +17421,7 @@
       </c>
     </row>
     <row r="466" spans="1:21">
-      <c r="A466" s="22"/>
+      <c r="A466" s="23"/>
       <c r="E466" s="1" t="s">
         <v>344</v>
       </c>
@@ -17384,7 +17447,7 @@
       <c r="U466" s="2"/>
     </row>
     <row r="467" spans="1:21">
-      <c r="A467" s="22"/>
+      <c r="A467" s="23"/>
       <c r="E467" s="1"/>
       <c r="F467" s="2"/>
       <c r="G467" s="2"/>
@@ -17408,7 +17471,7 @@
       <c r="U467" s="2"/>
     </row>
     <row r="468" spans="1:21">
-      <c r="A468" s="22"/>
+      <c r="A468" s="23"/>
       <c r="E468" s="1" t="s">
         <v>344</v>
       </c>
@@ -17441,7 +17504,7 @@
       <c r="T468" s="2"/>
     </row>
     <row r="469" spans="1:21">
-      <c r="A469" s="22"/>
+      <c r="A469" s="23"/>
       <c r="E469" s="1" t="s">
         <v>344</v>
       </c>
@@ -17467,7 +17530,7 @@
       <c r="U469" s="2"/>
     </row>
     <row r="470" spans="1:21">
-      <c r="A470" s="22"/>
+      <c r="A470" s="23"/>
       <c r="E470" s="1" t="s">
         <v>344</v>
       </c>
@@ -17502,7 +17565,7 @@
       <c r="T470" s="2"/>
     </row>
     <row r="471" spans="1:21">
-      <c r="A471" s="22"/>
+      <c r="A471" s="23"/>
       <c r="E471" s="1"/>
       <c r="F471" s="2"/>
       <c r="G471" s="2"/>
@@ -17524,7 +17587,7 @@
       <c r="U471" s="2"/>
     </row>
     <row r="472" spans="1:21">
-      <c r="A472" s="22"/>
+      <c r="A472" s="23"/>
       <c r="E472" s="1" t="s">
         <v>344</v>
       </c>
@@ -17550,7 +17613,7 @@
       <c r="U472" s="2"/>
     </row>
     <row r="473" spans="1:21">
-      <c r="A473" s="22"/>
+      <c r="A473" s="23"/>
       <c r="E473" s="1"/>
       <c r="F473" s="2"/>
       <c r="G473" s="2"/>
@@ -17572,7 +17635,7 @@
       <c r="U473" s="2"/>
     </row>
     <row r="474" spans="1:21">
-      <c r="A474" s="22"/>
+      <c r="A474" s="23"/>
       <c r="E474" s="1" t="s">
         <v>344</v>
       </c>
@@ -17604,7 +17667,7 @@
       <c r="S474" s="2"/>
     </row>
     <row r="475" spans="1:21">
-      <c r="A475" s="22"/>
+      <c r="A475" s="23"/>
       <c r="E475" s="1" t="s">
         <v>344</v>
       </c>
@@ -17630,7 +17693,7 @@
       <c r="U475" s="2"/>
     </row>
     <row r="476" spans="1:21">
-      <c r="A476" s="22"/>
+      <c r="A476" s="23"/>
       <c r="E476" s="1" t="s">
         <v>344</v>
       </c>
@@ -17662,7 +17725,7 @@
       <c r="S476" s="2"/>
     </row>
     <row r="477" spans="1:21">
-      <c r="A477" s="22"/>
+      <c r="A477" s="23"/>
       <c r="E477" s="1" t="s">
         <v>344</v>
       </c>
@@ -17690,7 +17753,7 @@
       <c r="U477" s="2"/>
     </row>
     <row r="478" spans="1:21">
-      <c r="A478" s="22"/>
+      <c r="A478" s="23"/>
       <c r="E478" s="1" t="s">
         <v>344</v>
       </c>
@@ -17722,7 +17785,7 @@
       <c r="S478" s="2"/>
     </row>
     <row r="479" spans="1:21">
-      <c r="A479" s="22"/>
+      <c r="A479" s="23"/>
       <c r="E479" s="1" t="s">
         <v>344</v>
       </c>
@@ -17750,7 +17813,7 @@
       <c r="U479" s="2"/>
     </row>
     <row r="480" spans="1:21">
-      <c r="A480" s="22"/>
+      <c r="A480" s="23"/>
       <c r="E480" s="1" t="s">
         <v>344</v>
       </c>
@@ -17786,7 +17849,7 @@
       </c>
     </row>
     <row r="481" spans="1:21">
-      <c r="A481" s="22"/>
+      <c r="A481" s="23"/>
       <c r="E481" s="1" t="s">
         <v>344</v>
       </c>
@@ -17814,7 +17877,7 @@
       <c r="U481" s="2"/>
     </row>
     <row r="482" spans="1:21">
-      <c r="A482" s="22"/>
+      <c r="A482" s="23"/>
       <c r="E482" s="1" t="s">
         <v>344</v>
       </c>
@@ -17850,7 +17913,7 @@
       </c>
     </row>
     <row r="483" spans="1:21">
-      <c r="A483" s="22"/>
+      <c r="A483" s="23"/>
       <c r="E483" s="1" t="s">
         <v>344</v>
       </c>
@@ -17878,7 +17941,7 @@
       <c r="U483" s="2"/>
     </row>
     <row r="484" spans="1:21">
-      <c r="A484" s="22"/>
+      <c r="A484" s="23"/>
       <c r="E484" s="1" t="s">
         <v>344</v>
       </c>
@@ -17904,7 +17967,7 @@
       <c r="U484" s="2"/>
     </row>
     <row r="485" spans="1:21">
-      <c r="A485" s="22"/>
+      <c r="A485" s="23"/>
       <c r="E485" s="1" t="s">
         <v>344</v>
       </c>
@@ -17932,7 +17995,7 @@
       <c r="U485" s="2"/>
     </row>
     <row r="486" spans="1:21">
-      <c r="A486" s="22"/>
+      <c r="A486" s="23"/>
       <c r="E486" s="1" t="s">
         <v>344</v>
       </c>
@@ -17958,7 +18021,7 @@
       <c r="U486" s="2"/>
     </row>
     <row r="487" spans="1:21">
-      <c r="A487" s="22"/>
+      <c r="A487" s="23"/>
       <c r="E487" s="1" t="s">
         <v>344</v>
       </c>
@@ -17989,7 +18052,7 @@
       <c r="R487" s="2"/>
     </row>
     <row r="488" spans="1:21">
-      <c r="A488" s="22"/>
+      <c r="A488" s="23"/>
       <c r="E488" s="1" t="s">
         <v>344</v>
       </c>
@@ -18015,7 +18078,7 @@
       <c r="U488" s="2"/>
     </row>
     <row r="489" spans="1:21">
-      <c r="A489" s="22"/>
+      <c r="A489" s="23"/>
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
       <c r="G489" s="2"/>
@@ -18037,7 +18100,7 @@
       <c r="U489" s="2"/>
     </row>
     <row r="490" spans="1:21">
-      <c r="A490" s="22"/>
+      <c r="A490" s="23"/>
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
       <c r="G490" s="2"/>
@@ -18059,7 +18122,7 @@
       <c r="U490" s="2"/>
     </row>
     <row r="491" spans="1:21">
-      <c r="A491" s="22"/>
+      <c r="A491" s="23"/>
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
       <c r="G491" s="2"/>
@@ -18081,7 +18144,7 @@
       <c r="U491" s="2"/>
     </row>
     <row r="492" spans="1:21">
-      <c r="A492" s="22"/>
+      <c r="A492" s="23"/>
       <c r="E492" s="1" t="s">
         <v>344</v>
       </c>
@@ -18116,7 +18179,7 @@
       </c>
     </row>
     <row r="493" spans="1:21">
-      <c r="A493" s="22"/>
+      <c r="A493" s="23"/>
       <c r="E493" s="1" t="s">
         <v>344</v>
       </c>
@@ -18142,7 +18205,7 @@
       <c r="U493" s="2"/>
     </row>
     <row r="494" spans="1:21">
-      <c r="A494" s="22"/>
+      <c r="A494" s="23"/>
       <c r="E494" s="1" t="s">
         <v>344</v>
       </c>
@@ -18170,7 +18233,7 @@
       <c r="U494" s="2"/>
     </row>
     <row r="495" spans="1:21">
-      <c r="A495" s="22"/>
+      <c r="A495" s="23"/>
       <c r="E495" s="1" t="s">
         <v>344</v>
       </c>
@@ -18198,7 +18261,7 @@
       <c r="U495" s="2"/>
     </row>
     <row r="496" spans="1:21">
-      <c r="A496" s="22"/>
+      <c r="A496" s="23"/>
       <c r="E496" s="1" t="s">
         <v>344</v>
       </c>
@@ -18224,7 +18287,7 @@
       <c r="U496" s="2"/>
     </row>
     <row r="497" spans="1:21">
-      <c r="A497" s="22"/>
+      <c r="A497" s="23"/>
       <c r="E497" s="1" t="s">
         <v>344</v>
       </c>
@@ -18250,7 +18313,7 @@
       <c r="Q497" s="2"/>
     </row>
     <row r="498" spans="1:21">
-      <c r="A498" s="22"/>
+      <c r="A498" s="23"/>
       <c r="E498" s="1" t="s">
         <v>344</v>
       </c>
@@ -18278,7 +18341,7 @@
       <c r="U498" s="2"/>
     </row>
     <row r="499" spans="1:21">
-      <c r="A499" s="22"/>
+      <c r="A499" s="23"/>
       <c r="E499" s="1" t="s">
         <v>344</v>
       </c>
@@ -18306,7 +18369,7 @@
       <c r="U499" s="2"/>
     </row>
     <row r="500" spans="1:21">
-      <c r="A500" s="22"/>
+      <c r="A500" s="23"/>
       <c r="E500" s="1" t="s">
         <v>344</v>
       </c>
@@ -18332,7 +18395,7 @@
       <c r="U500" s="2"/>
     </row>
     <row r="501" spans="1:21">
-      <c r="A501" s="22"/>
+      <c r="A501" s="23"/>
       <c r="E501" s="1" t="s">
         <v>344</v>
       </c>
@@ -18360,7 +18423,7 @@
       <c r="U501" s="2"/>
     </row>
     <row r="502" spans="1:21">
-      <c r="A502" s="22"/>
+      <c r="A502" s="23"/>
       <c r="E502" s="1" t="s">
         <v>344</v>
       </c>
@@ -18383,7 +18446,7 @@
       <c r="R502" s="2"/>
     </row>
     <row r="503" spans="1:21">
-      <c r="A503" s="22"/>
+      <c r="A503" s="23"/>
       <c r="E503" s="1" t="s">
         <v>344</v>
       </c>
@@ -18416,7 +18479,7 @@
       </c>
     </row>
     <row r="504" spans="1:21">
-      <c r="A504" s="22"/>
+      <c r="A504" s="23"/>
       <c r="E504" s="1" t="s">
         <v>344</v>
       </c>
@@ -18449,7 +18512,7 @@
       </c>
     </row>
     <row r="505" spans="1:21">
-      <c r="A505" s="22"/>
+      <c r="A505" s="23"/>
       <c r="E505" s="1" t="s">
         <v>344</v>
       </c>
@@ -18484,7 +18547,7 @@
       </c>
     </row>
     <row r="506" spans="1:21">
-      <c r="A506" s="22"/>
+      <c r="A506" s="23"/>
       <c r="E506" s="1" t="s">
         <v>344</v>
       </c>
@@ -18519,7 +18582,7 @@
       </c>
     </row>
     <row r="507" spans="1:21">
-      <c r="A507" s="22"/>
+      <c r="A507" s="23"/>
       <c r="E507" s="1" t="s">
         <v>344</v>
       </c>
@@ -18556,7 +18619,7 @@
       </c>
     </row>
     <row r="508" spans="1:21">
-      <c r="A508" s="22"/>
+      <c r="A508" s="23"/>
       <c r="E508" s="1" t="s">
         <v>344</v>
       </c>
@@ -18593,7 +18656,7 @@
       </c>
     </row>
     <row r="509" spans="1:21">
-      <c r="A509" s="22"/>
+      <c r="A509" s="23"/>
       <c r="E509" s="1" t="s">
         <v>344</v>
       </c>
@@ -18630,7 +18693,7 @@
       </c>
     </row>
     <row r="510" spans="1:21">
-      <c r="A510" s="22"/>
+      <c r="A510" s="23"/>
       <c r="E510" s="1" t="s">
         <v>344</v>
       </c>
@@ -18660,7 +18723,7 @@
       <c r="U510" s="2"/>
     </row>
     <row r="511" spans="1:21">
-      <c r="A511" s="22"/>
+      <c r="A511" s="23"/>
       <c r="E511" s="1" t="s">
         <v>344</v>
       </c>
@@ -18688,7 +18751,7 @@
       <c r="S511" s="2"/>
     </row>
     <row r="512" spans="1:21">
-      <c r="A512" s="22"/>
+      <c r="A512" s="23"/>
       <c r="E512" s="1" t="s">
         <v>344</v>
       </c>
@@ -18712,7 +18775,7 @@
       <c r="O512" s="2"/>
     </row>
     <row r="513" spans="1:20">
-      <c r="A513" s="22"/>
+      <c r="A513" s="23"/>
       <c r="E513" s="1" t="s">
         <v>344</v>
       </c>
@@ -18741,7 +18804,7 @@
       <c r="T513" s="2"/>
     </row>
     <row r="514" spans="1:20">
-      <c r="A514" s="22"/>
+      <c r="A514" s="23"/>
       <c r="E514" s="1" t="s">
         <v>344</v>
       </c>
@@ -18773,7 +18836,7 @@
       <c r="S514" s="2"/>
     </row>
     <row r="515" spans="1:20">
-      <c r="A515" s="22"/>
+      <c r="A515" s="23"/>
       <c r="E515" s="1" t="s">
         <v>344</v>
       </c>
@@ -18809,7 +18872,7 @@
       </c>
     </row>
     <row r="516" spans="1:20">
-      <c r="A516" s="22"/>
+      <c r="A516" s="23"/>
       <c r="E516" s="1" t="s">
         <v>344</v>
       </c>
@@ -18840,7 +18903,7 @@
       <c r="T516" s="2"/>
     </row>
     <row r="517" spans="1:20">
-      <c r="A517" s="22"/>
+      <c r="A517" s="23"/>
       <c r="E517" s="1" t="s">
         <v>344</v>
       </c>
@@ -18872,7 +18935,7 @@
       <c r="S517" s="2"/>
     </row>
     <row r="518" spans="1:20">
-      <c r="A518" s="22"/>
+      <c r="A518" s="23"/>
       <c r="E518" s="1" t="s">
         <v>344</v>
       </c>
@@ -18897,7 +18960,7 @@
       <c r="R518" s="2"/>
     </row>
     <row r="519" spans="1:20">
-      <c r="A519" s="22"/>
+      <c r="A519" s="23"/>
       <c r="E519" s="1" t="s">
         <v>344</v>
       </c>
@@ -18922,7 +18985,7 @@
       <c r="R519" s="2"/>
     </row>
     <row r="520" spans="1:20">
-      <c r="A520" s="22"/>
+      <c r="A520" s="23"/>
       <c r="E520" s="1" t="s">
         <v>344</v>
       </c>
@@ -18946,7 +19009,7 @@
       </c>
     </row>
     <row r="521" spans="1:20">
-      <c r="A521" s="22"/>
+      <c r="A521" s="23"/>
       <c r="E521" s="1" t="s">
         <v>344</v>
       </c>
@@ -18970,7 +19033,7 @@
       </c>
     </row>
     <row r="522" spans="1:20">
-      <c r="A522" s="22"/>
+      <c r="A522" s="23"/>
       <c r="E522" s="1" t="s">
         <v>344</v>
       </c>
@@ -18994,7 +19057,7 @@
       <c r="Q522" s="2"/>
     </row>
     <row r="523" spans="1:20">
-      <c r="A523" s="22"/>
+      <c r="A523" s="23"/>
       <c r="E523" s="1" t="s">
         <v>344</v>
       </c>
@@ -19025,7 +19088,7 @@
       </c>
     </row>
     <row r="524" spans="1:20">
-      <c r="A524" s="22"/>
+      <c r="A524" s="23"/>
       <c r="E524" s="1" t="s">
         <v>344</v>
       </c>
@@ -19056,7 +19119,7 @@
       </c>
     </row>
     <row r="525" spans="1:20">
-      <c r="A525" s="22"/>
+      <c r="A525" s="23"/>
       <c r="E525" s="1" t="s">
         <v>344</v>
       </c>
@@ -19087,7 +19150,7 @@
       </c>
     </row>
     <row r="526" spans="1:20">
-      <c r="A526" s="22"/>
+      <c r="A526" s="23"/>
       <c r="E526" s="1" t="s">
         <v>344</v>
       </c>
@@ -19169,11 +19232,11 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -19190,7 +19253,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -19205,13 +19268,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="B5" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="C5" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="D5" t="str">
         <f>"line that connects "&amp;B5&amp;" and "&amp;C5</f>
@@ -19220,13 +19283,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="B6" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="C6" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ref="D6" si="0">"line that connects "&amp;B6&amp;" and "&amp;C6</f>
@@ -19235,13 +19298,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="B7" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="C7" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ref="D7:D10" si="1">"line that connects "&amp;B7&amp;" and "&amp;C7</f>
@@ -19250,13 +19313,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="B8" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="C8" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
@@ -19265,13 +19328,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>1328</v>
+        <v>1346</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>1323</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
@@ -19280,13 +19343,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>1329</v>
+        <v>1347</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>1324</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
@@ -19295,18 +19358,18 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="E11" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="E12" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
     </row>
   </sheetData>
@@ -19322,12 +19385,12 @@
       <selection activeCell="A58" sqref="A58:A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20105,13 +20168,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="B56" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>1335</v>
+        <v>1329</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>1330</v>
       </c>
       <c r="D56" t="str">
         <f>"line along "&amp;B56&amp;" of "&amp;C56</f>
@@ -20120,13 +20183,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="B57" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="C57" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="D57" t="str">
         <f>"line along "&amp;B57&amp;" of "&amp;C57</f>
@@ -20135,52 +20198,52 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="68" spans="1:1">
@@ -20228,18 +20291,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C6BB58-E681-9A44-BAE6-1CC6AE173542}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1153</v>
       </c>
       <c r="B1" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -20252,118 +20315,172 @@
       <c r="B2" t="s">
         <v>1200</v>
       </c>
+      <c r="C2" t="s">
+        <v>1397</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1251</v>
       </c>
+      <c r="C3" t="s">
+        <v>1398</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>1250</v>
       </c>
+      <c r="C4" t="s">
+        <v>1399</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>1248</v>
       </c>
+      <c r="C5" t="s">
+        <v>1400</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>1249</v>
       </c>
+      <c r="C6" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1300</v>
+        <v>1415</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1402</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1301</v>
+        <v>1416</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1403</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1303</v>
+        <v>1417</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1404</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1304</v>
+        <v>1418</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>1302</v>
+        <v>1419</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1406</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>1305</v>
+        <v>1300</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1407</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>1306</v>
+        <v>1301</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1408</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>1307</v>
+        <v>1302</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1409</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>1308</v>
+        <v>1303</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1410</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1313</v>
+        <v>1308</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1411</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>1314</v>
+        <v>1309</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1412</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1315</v>
+        <v>1310</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1413</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>1316</v>
+        <v>1311</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="C24" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
     </row>
   </sheetData>
@@ -20380,7 +20497,7 @@
       <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
@@ -20765,30 +20882,30 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="C34" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="G34" t="s">
         <v>127</v>
       </c>
       <c r="I34" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="C35" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="G35" t="s">
         <v>127</v>
       </c>
       <c r="I35" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -20804,24 +20921,24 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B37" t="s">
         <v>1348</v>
       </c>
-      <c r="B37" t="s">
-        <v>1353</v>
-      </c>
       <c r="C37" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="I37" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="B38" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -20832,10 +20949,10 @@
         <v>142</v>
       </c>
       <c r="G39" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="I39" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -20846,10 +20963,10 @@
         <v>1030</v>
       </c>
       <c r="G40" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="I40" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -20859,24 +20976,24 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="B42" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="C42" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="I42" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="B43" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="C43" t="s">
         <v>319</v>
@@ -20884,144 +21001,144 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="C44" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="I44" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="C45" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="I45" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="C46" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="I46" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="C47" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="C48" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="C49" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="C50" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="C51" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="C52" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="C53" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="C54" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="C55" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="G56" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="G57" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="G58" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="G59" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="B60" t="s">
         <v>274</v>
@@ -21029,157 +21146,157 @@
     </row>
     <row r="61" spans="1:9">
       <c r="I61" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
     </row>
   </sheetData>
@@ -21195,7 +21312,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdebasto\Desktop\GitHub\fovt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C44EBDC-C856-4F38-BB7F-62B013F1AA73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE416708-3603-5044-8344-CBBB2B6AAB0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14720" windowHeight="16660" activeTab="4" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -26,21 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2987" uniqueCount="1420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="1422">
   <si>
     <t>Status</t>
   </si>
@@ -4372,6 +4363,12 @@
   </si>
   <si>
     <t>posterior facet for carpal IV on metacarpal III</t>
+  </si>
+  <si>
+    <t>distal keel metacarpal III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sagittal ridge located at the distal end of metacarpal bone of digit 3. It divides the medial and the lateral condyles. </t>
   </si>
 </sst>
 </file>
@@ -4856,7 +4853,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
@@ -4903,7 +4900,7 @@
       <selection pane="bottomLeft" activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" t="s">
@@ -9263,7 +9260,7 @@
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="1:21" s="11" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="132" spans="1:21" s="11" customFormat="1" ht="17" customHeight="1">
       <c r="A132" s="23"/>
       <c r="C132" s="10" t="s">
         <v>1031</v>
@@ -19232,11 +19229,11 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -19385,12 +19382,12 @@
       <selection activeCell="A58" sqref="A58:A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20289,13 +20286,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C6BB58-E681-9A44-BAE6-1CC6AE173542}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -20310,7 +20307,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1199</v>
+        <v>1420</v>
       </c>
       <c r="B2" t="s">
         <v>1200</v>
@@ -20321,165 +20318,176 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1251</v>
+        <v>1199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1200</v>
       </c>
       <c r="C3" t="s">
-        <v>1398</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="C5" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1415</v>
+        <v>1249</v>
       </c>
       <c r="C7" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C8" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C9" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C10" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C11" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>1300</v>
+        <v>1419</v>
       </c>
       <c r="C12" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C13" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C14" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C15" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>1304</v>
+        <v>1303</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1410</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1411</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C21" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C22" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C23" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>1319</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>1325</v>
       </c>
     </row>
@@ -20497,7 +20505,7 @@
       <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
@@ -21312,7 +21320,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdebasto\Desktop\GitHub\fovt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE416708-3603-5044-8344-CBBB2B6AAB0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36905D7E-51A0-49E2-B8A6-388B0A8C39A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14720" windowHeight="16660" activeTab="4" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -26,12 +26,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="1422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="1430">
   <si>
     <t>Status</t>
   </si>
@@ -4369,6 +4378,30 @@
   </si>
   <si>
     <t xml:space="preserve">Sagittal ridge located at the distal end of metacarpal bone of digit 3. It divides the medial and the lateral condyles. </t>
+  </si>
+  <si>
+    <t>proximal facet for carpal III on metacarpal III</t>
+  </si>
+  <si>
+    <t>Facet on the proximal surface of the metacarpal bone of digit 3 that articulates anteriorly to the distal carpal bone 3</t>
+  </si>
+  <si>
+    <t>proximal facet for tarsal III on metatarsal III</t>
+  </si>
+  <si>
+    <t>Facet on the proximal surface of the metatarsal bone of digit 3 that articulates to the distal tarsal bone 3</t>
+  </si>
+  <si>
+    <t>Lateral tuberosity located above the lateral condyle of the medial phalanx. It's the attachment site for the collateral ligaments of the interphalangeal joint.</t>
+  </si>
+  <si>
+    <t>Medial tuberosity located above the medial condyle of the medial phalanx. It's the attachment site for the collateral ligaments of the interphalangeal joint.</t>
+  </si>
+  <si>
+    <t>Lateral tuberosity located above the lateral condyle of the proximal phalanx. It's the attachment site for the collateral ligaments of the interphalangeal joint.</t>
+  </si>
+  <si>
+    <t>Medial tuberosity located above the medial condyle of the proximal phalanx. It's the attachment site for the collateral ligaments of the interphalangeal joint.</t>
   </si>
 </sst>
 </file>
@@ -4853,7 +4886,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
@@ -4900,7 +4933,7 @@
       <selection pane="bottomLeft" activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" t="s">
@@ -9260,7 +9293,7 @@
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="1:21" s="11" customFormat="1" ht="17" customHeight="1">
+    <row r="132" spans="1:21" s="11" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A132" s="23"/>
       <c r="C132" s="10" t="s">
         <v>1031</v>
@@ -19229,11 +19262,11 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -19382,12 +19415,12 @@
       <selection activeCell="A58" sqref="A58:A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20286,13 +20319,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C6BB58-E681-9A44-BAE6-1CC6AE173542}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="45.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -20369,125 +20405,153 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1416</v>
+        <v>1424</v>
       </c>
       <c r="C9" t="s">
-        <v>1403</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C10" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C11" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="C12" t="s">
-        <v>1406</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>1300</v>
+        <v>1418</v>
       </c>
       <c r="C13" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>1301</v>
+        <v>1419</v>
       </c>
       <c r="C14" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C15" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C16" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1304</v>
+        <v>1302</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1409</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1305</v>
+        <v>1303</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1410</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1306</v>
+        <v>1304</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1307</v>
+        <v>1305</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1427</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C21" t="s">
-        <v>1411</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C22" t="s">
-        <v>1412</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C23" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C24" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>1319</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>1325</v>
       </c>
     </row>
@@ -20505,7 +20569,7 @@
       <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
@@ -21320,7 +21384,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B77FA69-2856-E543-8905-2223FCC0F626}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C58D98D-13B0-404E-86C1-E7B085AF3F1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19440" windowHeight="15000" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -26,21 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="1442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3027" uniqueCount="1450">
   <si>
     <t>Status</t>
   </si>
@@ -4200,12 +4191,6 @@
     <t>humerus length</t>
   </si>
   <si>
-    <t>humerus length 1</t>
-  </si>
-  <si>
-    <t>humerus length 2</t>
-  </si>
-  <si>
     <t>subclass</t>
   </si>
   <si>
@@ -4438,6 +4423,36 @@
   </si>
   <si>
     <t>femur length to head of femur?</t>
+  </si>
+  <si>
+    <t>humerus length from trochlea to greater tubercle</t>
+  </si>
+  <si>
+    <t>humerus length from trochlea to caput</t>
+  </si>
+  <si>
+    <t>femur length from greater trochanter to medial condyle</t>
+  </si>
+  <si>
+    <t>femur length from caput to medial condyle</t>
+  </si>
+  <si>
+    <t>trochlea of humerus</t>
+  </si>
+  <si>
+    <t>proximal head of humerus</t>
+  </si>
+  <si>
+    <t>ventral tubercle of humerus</t>
+  </si>
+  <si>
+    <t>medial condyle of femur</t>
+  </si>
+  <si>
+    <t>greater trochanter</t>
+  </si>
+  <si>
+    <t>head of femur</t>
   </si>
 </sst>
 </file>
@@ -4918,8 +4933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581405C8-F852-7340-B9C9-201B714E3AD5}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4929,15 +4944,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="C1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>117</v>
@@ -4945,10 +4960,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4956,12 +4971,12 @@
         <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>119</v>
@@ -4969,26 +4984,26 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C6" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="3" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D8" t="s">
         <v>1436</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5044,7 +5059,7 @@
         <v>7500051</v>
       </c>
       <c r="D15" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5052,7 +5067,7 @@
         <v>7500060</v>
       </c>
       <c r="D16" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -5060,7 +5075,7 @@
         <v>7500045</v>
       </c>
       <c r="D17" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -5068,7 +5083,7 @@
         <v>7500050</v>
       </c>
       <c r="D18" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
   </sheetData>
@@ -5081,9 +5096,9 @@
   <dimension ref="A1:AD531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G157" sqref="G157"/>
+      <selection pane="bottomLeft" activeCell="A372" sqref="A372:A526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -19409,10 +19424,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BA4F15-3142-994E-BF8B-16093E97474D}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -19436,7 +19451,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -19490,7 +19505,7 @@
         <v>1318</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7:D10" si="1">"line that connects "&amp;B7&amp;" and "&amp;C7</f>
+        <f t="shared" ref="D7:D14" si="1">"line that connects "&amp;B7&amp;" and "&amp;C7</f>
         <v>line that connects helix and intertragic notch</v>
       </c>
     </row>
@@ -19541,18 +19556,62 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>1362</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1361</v>
+        <v>1440</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>line that connects trochlea of humerus and ventral tubercle of humerus</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>1363</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1361</v>
+        <v>1441</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>line that connects trochlea of humerus and proximal head of humerus</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>line that connects medial condyle of femur and greater trochanter</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>line that connects medial condyle of femur and head of femur</v>
       </c>
     </row>
   </sheetData>
@@ -20496,13 +20555,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B2" t="s">
         <v>1199</v>
       </c>
       <c r="C2" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -20513,7 +20572,7 @@
         <v>1199</v>
       </c>
       <c r="C3" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -20521,7 +20580,7 @@
         <v>1250</v>
       </c>
       <c r="C4" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -20529,7 +20588,7 @@
         <v>1249</v>
       </c>
       <c r="C5" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -20537,7 +20596,7 @@
         <v>1247</v>
       </c>
       <c r="C6" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -20545,63 +20604,63 @@
         <v>1248</v>
       </c>
       <c r="C7" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C8" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C9" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C10" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C11" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="C12" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="C13" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C14" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -20609,7 +20668,7 @@
         <v>1299</v>
       </c>
       <c r="C15" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -20617,7 +20676,7 @@
         <v>1300</v>
       </c>
       <c r="C16" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -20625,7 +20684,7 @@
         <v>1301</v>
       </c>
       <c r="C17" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -20633,7 +20692,7 @@
         <v>1302</v>
       </c>
       <c r="C18" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -20641,7 +20700,7 @@
         <v>1303</v>
       </c>
       <c r="C19" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -20649,7 +20708,7 @@
         <v>1304</v>
       </c>
       <c r="C20" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -20657,7 +20716,7 @@
         <v>1305</v>
       </c>
       <c r="C21" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -20665,7 +20724,7 @@
         <v>1306</v>
       </c>
       <c r="C22" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -20673,7 +20732,7 @@
         <v>1307</v>
       </c>
       <c r="C23" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -20681,7 +20740,7 @@
         <v>1308</v>
       </c>
       <c r="C24" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -20689,7 +20748,7 @@
         <v>1309</v>
       </c>
       <c r="C25" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -20697,7 +20756,7 @@
         <v>1310</v>
       </c>
       <c r="C26" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -21207,7 +21266,7 @@
         <v>1341</v>
       </c>
       <c r="C42" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="I42" t="s">
         <v>1359</v>
@@ -21331,7 +21390,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="G56" t="s">
         <v>1361</v>
@@ -21339,7 +21398,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="G57" t="s">
         <v>1361</v>
@@ -21347,23 +21406,23 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G58" t="s">
         <v>1368</v>
-      </c>
-      <c r="G58" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="G59" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B60" t="s">
         <v>273</v>
@@ -21371,157 +21430,157 @@
     </row>
     <row r="61" spans="1:9">
       <c r="I61" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
   </sheetData>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C58D98D-13B0-404E-86C1-E7B085AF3F1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3250E0D3-C0FB-5E4E-9EED-3EBC0ED22003}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19440" windowHeight="15000" activeTab="6" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3027" uniqueCount="1450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="1726">
   <si>
     <t>Status</t>
   </si>
@@ -3591,24 +3591,6 @@
     <t>Metapodial Length</t>
   </si>
   <si>
-    <t>Metapodial Width AP</t>
-  </si>
-  <si>
-    <t>Metapodial Width ML</t>
-  </si>
-  <si>
-    <t>metapodial Length</t>
-  </si>
-  <si>
-    <t>metacarpal greatest breadth distal</t>
-  </si>
-  <si>
-    <t>metacarpal greatest depth distal</t>
-  </si>
-  <si>
-    <t>metacarpal greatest depth proximal</t>
-  </si>
-  <si>
     <t>metacarpal greatest length</t>
   </si>
   <si>
@@ -3645,9 +3627,6 @@
     <t>metatarsal smallest diameter transverse plane</t>
   </si>
   <si>
-    <t>Length of metapodial along proximal-distal xis.</t>
-  </si>
-  <si>
     <t>Pattern Name</t>
   </si>
   <si>
@@ -3660,27 +3639,9 @@
     <t>line along medial-lateral axis of metapodial skeleton</t>
   </si>
   <si>
-    <t>line along medial-lateral axis of distal surface some metacarpal bone</t>
-  </si>
-  <si>
-    <t>line along anterior-posterior axis of proximal surface some metacarpal bone</t>
-  </si>
-  <si>
     <t>line along proximal-distal axis of metacarpal bone</t>
   </si>
   <si>
-    <t>line along medial-lateral axis of proximal surface some metacarpal bone</t>
-  </si>
-  <si>
-    <t>line along medial-lateral axis of distal surface some metatarsal bone</t>
-  </si>
-  <si>
-    <t>line along medial-lateral axis of proximal surface some metatarsal bone</t>
-  </si>
-  <si>
-    <t>line along anterior-posterior axis of proximal surface some metatarsal bone</t>
-  </si>
-  <si>
     <t>line along proximal-distal axis of metatarsal bone</t>
   </si>
   <si>
@@ -3822,9 +3783,6 @@
     <t>Metatarsal II distal articular breadth; M5</t>
   </si>
   <si>
-    <t>Metatarsal III breadth of facet for third tarsal; M7</t>
-  </si>
-  <si>
     <t>Metatarsal III breadth of facet for fourth tarsal; M8</t>
   </si>
   <si>
@@ -3837,9 +3795,6 @@
     <t>Metacarpal III breadth of anterior facet for fourth carpal; M8</t>
   </si>
   <si>
-    <t>Metacarpal III breadth of facet for third carpal; M7</t>
-  </si>
-  <si>
     <t>Metacarpal III supra-articular breadth; M10</t>
   </si>
   <si>
@@ -3996,12 +3951,6 @@
     <t>lateral surface some metacarpal bone of digit 3</t>
   </si>
   <si>
-    <t>diameter and (inheres in some (proximal surface some metatarsal bone of digit 3)</t>
-  </si>
-  <si>
-    <t>length and (in</t>
-  </si>
-  <si>
     <t>lateral epicondylar tuberosity of metacarpal III</t>
   </si>
   <si>
@@ -4083,9 +4032,6 @@
     <t>Subclass</t>
   </si>
   <si>
-    <t>astragalus GLl</t>
-  </si>
-  <si>
     <t>hindfoot length</t>
   </si>
   <si>
@@ -4134,33 +4080,15 @@
     <t>tail length</t>
   </si>
   <si>
-    <t>mass</t>
-  </si>
-  <si>
-    <t>astragalus width</t>
-  </si>
-  <si>
     <t>hindfoot length with nail</t>
   </si>
   <si>
     <t>hindfoot length without nail</t>
   </si>
   <si>
-    <t>IN OBA</t>
-  </si>
-  <si>
-    <t>post-anal tail length or tail length?</t>
-  </si>
-  <si>
     <t>external length of ear</t>
   </si>
   <si>
-    <t>length and ('inheres in' some pes) OR line along proximal-distal of pes</t>
-  </si>
-  <si>
-    <t>calcaneus width</t>
-  </si>
-  <si>
     <t>length and ('inheres in' some line that connects anatomical point' and ('part of' some ('distalmost part of' some 'heel')) and anatomical point' and ('part of' some ('distalmost part of' some 'phalanx of pes'))</t>
   </si>
   <si>
@@ -4173,9 +4101,6 @@
     <t>length and ('inheres in' some line that connects nose tip and 'anatomical point' and 'distalmost part of' some tail))</t>
   </si>
   <si>
-    <t>length and ('inheres in' some line along proximal-distal of some tail)</t>
-  </si>
-  <si>
     <t>length and ('inheres in' some line that connects helix and intertragic notch)</t>
   </si>
   <si>
@@ -4185,9 +4110,6 @@
     <t>length and ('inheres in' some line along proximal-distal of lateral side' some talus)</t>
   </si>
   <si>
-    <t>astragalus bradth</t>
-  </si>
-  <si>
     <t>humerus length</t>
   </si>
   <si>
@@ -4200,90 +4122,12 @@
     <t>humerus length to caput</t>
   </si>
   <si>
-    <t>humerus length to X</t>
-  </si>
-  <si>
-    <t>femur length X</t>
-  </si>
-  <si>
-    <t>femur length to Y</t>
-  </si>
-  <si>
     <t>femur length</t>
   </si>
   <si>
-    <t>distal breadth of talus</t>
-  </si>
-  <si>
     <t>fix pes length to have synonym "hindfoot length" and broad synonym "foot length"</t>
   </si>
   <si>
-    <t>{M3 length}</t>
-  </si>
-  <si>
-    <t>{M3 width}</t>
-  </si>
-  <si>
-    <t>{M2 length}</t>
-  </si>
-  <si>
-    <t>{M2 width}</t>
-  </si>
-  <si>
-    <t>{M1 length}</t>
-  </si>
-  <si>
-    <t>{M1 width}</t>
-  </si>
-  <si>
-    <t>{P4 length}</t>
-  </si>
-  <si>
-    <t>{P4 width}</t>
-  </si>
-  <si>
-    <t>{P2 length}</t>
-  </si>
-  <si>
-    <t>{P2 width}</t>
-  </si>
-  <si>
-    <t>{m3 length}</t>
-  </si>
-  <si>
-    <t>{m3 width}</t>
-  </si>
-  <si>
-    <t>{m2 length}</t>
-  </si>
-  <si>
-    <t>{m2 width}</t>
-  </si>
-  <si>
-    <t>{m1 length}</t>
-  </si>
-  <si>
-    <t>{m1 width}</t>
-  </si>
-  <si>
-    <t>{p4 length}</t>
-  </si>
-  <si>
-    <t>{p4 width}</t>
-  </si>
-  <si>
-    <t>{p2 length}</t>
-  </si>
-  <si>
-    <t>{p2 width}</t>
-  </si>
-  <si>
-    <t>{humerus length}</t>
-  </si>
-  <si>
-    <t>length and ('inheres in'</t>
-  </si>
-  <si>
     <t>depricate: 7500030-51; 7500060</t>
   </si>
   <si>
@@ -4453,13 +4297,997 @@
   </si>
   <si>
     <t>head of femur</t>
+  </si>
+  <si>
+    <t>FOVT status</t>
+  </si>
+  <si>
+    <t>uberonfovt status</t>
+  </si>
+  <si>
+    <t>mapped</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>Von Den Dreisch</t>
+  </si>
+  <si>
+    <t>Scott 19990</t>
+  </si>
+  <si>
+    <t>Other mappings</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>in FOVT; no equivalency yet</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>A length measurement of the body that excludes a tail, usually ending at the anus.</t>
+  </si>
+  <si>
+    <t>ear length for non-bat mammals</t>
+  </si>
+  <si>
+    <t>The length of a line of an ear from a helix of the outer ear to a tragus of an ear. This measurement is often taken in bats.</t>
+  </si>
+  <si>
+    <t>ear length for bats</t>
+  </si>
+  <si>
+    <t>calcaneus</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>calcaneus width ML</t>
+  </si>
+  <si>
+    <t>calcaneus distal breadth</t>
+  </si>
+  <si>
+    <t>The width of a caclcaneus along the medial-lateral axis of the distal end.</t>
+  </si>
+  <si>
+    <t>Eisenmann; von den Dreisch</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>calcaneus greatest length</t>
+  </si>
+  <si>
+    <t>The maximal length of a calcaneus.</t>
+  </si>
+  <si>
+    <t>calcaneus proximal length</t>
+  </si>
+  <si>
+    <t>calcaneus minimal breadth</t>
+  </si>
+  <si>
+    <t>calcaneus maximal breadth</t>
+  </si>
+  <si>
+    <t>calcaneus maximal depth</t>
+  </si>
+  <si>
+    <t>calcanus distal depth</t>
+  </si>
+  <si>
+    <t>astragalus</t>
+  </si>
+  <si>
+    <t>astragalus greatest length</t>
+  </si>
+  <si>
+    <t>The length of a talus along the distal-proximal axis.</t>
+  </si>
+  <si>
+    <t>von den Dreisch</t>
+  </si>
+  <si>
+    <t>GLl</t>
+  </si>
+  <si>
+    <t>GLm</t>
+  </si>
+  <si>
+    <t>astragalus length medial</t>
+  </si>
+  <si>
+    <t>talus length medial</t>
+  </si>
+  <si>
+    <t>astragalus width ML</t>
+  </si>
+  <si>
+    <t>The width of a talus along the medial-lateral axis.</t>
+  </si>
+  <si>
+    <t>Dl</t>
+  </si>
+  <si>
+    <t>astragalus lateral width AP</t>
+  </si>
+  <si>
+    <t>talus lateral depth</t>
+  </si>
+  <si>
+    <t>Dm</t>
+  </si>
+  <si>
+    <t>astragalus medial width AP</t>
+  </si>
+  <si>
+    <t>talus medial depth</t>
+  </si>
+  <si>
+    <t>Bd</t>
+  </si>
+  <si>
+    <t>astragalus distal width ML</t>
+  </si>
+  <si>
+    <t>talus distal breadth</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>astragalus height</t>
+  </si>
+  <si>
+    <t>talus height</t>
+  </si>
+  <si>
+    <t>BFd</t>
+  </si>
+  <si>
+    <t>astragalus distal articular width ML</t>
+  </si>
+  <si>
+    <t>talus distal articular breadth</t>
+  </si>
+  <si>
+    <t>LmT</t>
+  </si>
+  <si>
+    <t>astragalus medial trochlea tali length; astragalus diameter of medial condyle</t>
+  </si>
+  <si>
+    <t>talus medial trochlea tali length</t>
+  </si>
+  <si>
+    <t>astragalus trochlea breadth</t>
+  </si>
+  <si>
+    <t>talus trochlea breadth</t>
+  </si>
+  <si>
+    <t>astragalus distal articular width AP</t>
+  </si>
+  <si>
+    <t>talus distal articular depth</t>
+  </si>
+  <si>
+    <t>Body length measured from tip of nose to cloaca.</t>
+  </si>
+  <si>
+    <t>The length of a tooth row.</t>
+  </si>
+  <si>
+    <t>A length measurement of a hind foot that includes a nail.</t>
+  </si>
+  <si>
+    <t>A length measurement of a hind foot that excludes a nail.</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>A length measurement of a third upper molar tooth along the sagittal plane.</t>
+  </si>
+  <si>
+    <t>M3 occlusal length</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>A width measurement of a third upper molar tooth along the transverse plane.</t>
+  </si>
+  <si>
+    <t>M3 occlusal width ML</t>
+  </si>
+  <si>
+    <t>M3 occlusal breadth</t>
+  </si>
+  <si>
+    <t>A length measurement of a second upper molar tooth along the sagittal plane.</t>
+  </si>
+  <si>
+    <t>M2 occlusal length</t>
+  </si>
+  <si>
+    <t>A width measurement of a second upper molar tooth along the transverse plane.</t>
+  </si>
+  <si>
+    <t>M2 occlusal width ML</t>
+  </si>
+  <si>
+    <t>M2 occlusal breadth</t>
+  </si>
+  <si>
+    <t>A length measurement of a first upper molar tooth along the sagittal plane.</t>
+  </si>
+  <si>
+    <t>M1 occlusal length</t>
+  </si>
+  <si>
+    <t>A width measurement of a first upper molar tooth along the transverse plane.</t>
+  </si>
+  <si>
+    <t>M1 occlusal width ML</t>
+  </si>
+  <si>
+    <t>M1 occlusal breadth</t>
+  </si>
+  <si>
+    <t>premolar tooth</t>
+  </si>
+  <si>
+    <t>A length measurement of a fourth upper premolar tooth along the sagittal plane.</t>
+  </si>
+  <si>
+    <t>P4 occlusal length</t>
+  </si>
+  <si>
+    <t>A width measurement of a fourth upper premolar tooth along the transverse plane.</t>
+  </si>
+  <si>
+    <t>P4 occlusal width ML</t>
+  </si>
+  <si>
+    <t>P4 occlusal breadth</t>
+  </si>
+  <si>
+    <t>P2 length</t>
+  </si>
+  <si>
+    <t>A length measurement of a second upper premolar tooth along the sagittal plane.</t>
+  </si>
+  <si>
+    <t>P2 occlusal length</t>
+  </si>
+  <si>
+    <t>P2 width</t>
+  </si>
+  <si>
+    <t>A width measurement of a second upper premolar tooth along the transverse plane.</t>
+  </si>
+  <si>
+    <t>P2 occlusal width ML</t>
+  </si>
+  <si>
+    <t>P2 occlusal breadth</t>
+  </si>
+  <si>
+    <t>A length measurement of a third lower molar tooth along the sagittal plane.</t>
+  </si>
+  <si>
+    <t>m3 occlusal length</t>
+  </si>
+  <si>
+    <t>A width measurement of a third lower molar tooth along the transverse plane.</t>
+  </si>
+  <si>
+    <t>m3 occlusal width ML</t>
+  </si>
+  <si>
+    <t>m3 occlusal breadth</t>
+  </si>
+  <si>
+    <t>A length measurement of a second lower molar tooth along the sagittal plane.</t>
+  </si>
+  <si>
+    <t>m2 occlusal length</t>
+  </si>
+  <si>
+    <t>A width measurement of a second lower molar tooth along the transverse plane.</t>
+  </si>
+  <si>
+    <t>m2 occlusal width ML</t>
+  </si>
+  <si>
+    <t>m2 occlusal breadth</t>
+  </si>
+  <si>
+    <t>A length measurement of a first lower molar tooth along the sagittal plane.</t>
+  </si>
+  <si>
+    <t>m1 occlusal length</t>
+  </si>
+  <si>
+    <t>A width measurement of a first lower molar tooth along the transverse plane.</t>
+  </si>
+  <si>
+    <t>m1 occlusal width ML</t>
+  </si>
+  <si>
+    <t>m1 occlusal breadth</t>
+  </si>
+  <si>
+    <t>A length measurement of a fourth lower premolar tooth along the sagittal plane.</t>
+  </si>
+  <si>
+    <t>p4 occlusal length</t>
+  </si>
+  <si>
+    <t>A width measurement of a fourth lower premolar tooth along the transverse plane.</t>
+  </si>
+  <si>
+    <t>p4 occlusal width ML</t>
+  </si>
+  <si>
+    <t>p4 occlusal breadth</t>
+  </si>
+  <si>
+    <t>p2 length</t>
+  </si>
+  <si>
+    <t>A length measurement of a second lower premolar tooth along the sagittal plane.</t>
+  </si>
+  <si>
+    <t>p2 occlusal length</t>
+  </si>
+  <si>
+    <t>p2 width</t>
+  </si>
+  <si>
+    <t>A width measurement of a second lower premolar tooth along the transverse plane.</t>
+  </si>
+  <si>
+    <t>p2 occlusal width ML</t>
+  </si>
+  <si>
+    <t>p2 occlusal breadth</t>
+  </si>
+  <si>
+    <t>CALD</t>
+  </si>
+  <si>
+    <t>calcaneus lateral depth</t>
+  </si>
+  <si>
+    <t>Purdue 1987</t>
+  </si>
+  <si>
+    <t>Bc</t>
+  </si>
+  <si>
+    <t>Dc</t>
+  </si>
+  <si>
+    <t>pattern done</t>
+  </si>
+  <si>
+    <t>metapodial</t>
+  </si>
+  <si>
+    <t>metapodial length</t>
+  </si>
+  <si>
+    <t>metapodial depth</t>
+  </si>
+  <si>
+    <t>metapodial breadth</t>
+  </si>
+  <si>
+    <t>metacarpal III</t>
+  </si>
+  <si>
+    <t>metacarpal III greatest breadth distal</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of distal surface some metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>metacarpal II</t>
+  </si>
+  <si>
+    <t>metacarpal II distal articular breadth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of distal surface some metacarpal bone of digit 2</t>
+  </si>
+  <si>
+    <t>metacarpal IV</t>
+  </si>
+  <si>
+    <t>metacarpal IV distal articular breadth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of distal surface some metacarpal bone of digit 4</t>
+  </si>
+  <si>
+    <t>metacarpal II distal articular depth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of distal surface of some metacarpal bone of digit 2</t>
+  </si>
+  <si>
+    <t>metacarpal IV distal articular depth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of distal surface of some metacarpal bone of digit 4</t>
+  </si>
+  <si>
+    <t>metacarpal III greatest depth proximal</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of proximal surface some metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>metacarpal II greatest depth proximal</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of proximal surface some metacarpal bone of digit 2</t>
+  </si>
+  <si>
+    <t>metacarpal IV greatest depth proximal</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of proximal surface some metacarpal bone of digit 4</t>
+  </si>
+  <si>
+    <t>metacarpal II greatest length</t>
+  </si>
+  <si>
+    <t>line along proximal-distal axis of metacarpal bone of digit 2</t>
+  </si>
+  <si>
+    <t>metacarpal III greatest length</t>
+  </si>
+  <si>
+    <t>line along proximal-distal axis of metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>metacarpal IV greatest length</t>
+  </si>
+  <si>
+    <t>line along proximal-distal axis of metacarpal bone of digit 4</t>
+  </si>
+  <si>
+    <t>metatarsal II</t>
+  </si>
+  <si>
+    <t>metatarsal II proximal maximal breadth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of proximal surface some metatarsal bone of digit 2</t>
+  </si>
+  <si>
+    <t>metatarsal IV proximal maximal breadth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of proximal surface some metatarsal bone of digit 4</t>
+  </si>
+  <si>
+    <t>metacarpal II proximal maximal breadth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of proximal surface some metacarpal bone of digit 2</t>
+  </si>
+  <si>
+    <t>metacarpal IV proximal maximal breadth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of proximal surface some metacarpal bone of digit 4</t>
+  </si>
+  <si>
+    <t>metatarsal III</t>
+  </si>
+  <si>
+    <t>metatarsal III greatest breadth distal</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of distal surface some metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>metatarsal II distal articular breadth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of distal surface some metatarsal bone of digit 2</t>
+  </si>
+  <si>
+    <t>metatarsal IV</t>
+  </si>
+  <si>
+    <t>metatarsal IV distal articular breadth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of distal surface some metatarsal bone of digit 4</t>
+  </si>
+  <si>
+    <t>metatarsal III; metapodial</t>
+  </si>
+  <si>
+    <t>Bp</t>
+  </si>
+  <si>
+    <t>metapodial proximal breadth; metapodial proximal width ML</t>
+  </si>
+  <si>
+    <t>metatarsal III proximal articular breadth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of proximal surface some metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>metapodial diaphysis smallest breadth; metapodial diaphysis smallest width ML</t>
+  </si>
+  <si>
+    <t>metacarpal III minimal breadth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of anterior surface some metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>metatarsal III minimal breadth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of anterior surface some metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>metatarsal II distal articular depth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of distal surface of some metatarsal bone of digit 2</t>
+  </si>
+  <si>
+    <t>metatarsal IV distal articular depth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of distal surface of some metatarsal bone of digit 4</t>
+  </si>
+  <si>
+    <t>metatarsal III greatest depth proximal</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of proximal surface some metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>metatarsal II greatest depth proximal</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of proximal surface some metatarsal bone of digit 2</t>
+  </si>
+  <si>
+    <t>metatarsal IV greatest depth proximal</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of proximal surface some metatarsal bone of digit 4</t>
+  </si>
+  <si>
+    <t>metatarsal II greatest length</t>
+  </si>
+  <si>
+    <t>line along proximal-distal axis of metatarsal bone of digit 2</t>
+  </si>
+  <si>
+    <t>metatarsal III greatest length</t>
+  </si>
+  <si>
+    <t>line along proximal-distal axis of metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>metatarsal IV greatest length</t>
+  </si>
+  <si>
+    <t>line along proximal-distal axis of metatarsal bone of digit 4</t>
+  </si>
+  <si>
+    <t>Dd</t>
+  </si>
+  <si>
+    <t>metapodial disal depth; metapodial distal width AP</t>
+  </si>
+  <si>
+    <t>metacarpal III distal maximal depth of keel</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of distal keel of metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>metatarsal III distal maximal depth of keel</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of distal keel of metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>metatarsal III distal minimum depth of lateral condyle</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lateral condyle of metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>metatarsal III distal maximal depth of medial condyle</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of medial condyle of metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>metacarpal III distal minimum depth of lateral condyle</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lateral condyle of metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>metacarpal III distal maximal depth of medial condyle</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of medial condyle of metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>metacarpal III proximal articular breadth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of proximal surface some metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>metacarpal III medial length</t>
+  </si>
+  <si>
+    <t>metacarpal II minimal depth of diaphysis</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of medial surface of some metacarpal bone of digit 2</t>
+  </si>
+  <si>
+    <t>metacarpal IV minimal depth of diaphysis</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of medial surface of some metacarpal bone of digit 4</t>
+  </si>
+  <si>
+    <t>metatarsal III medial length</t>
+  </si>
+  <si>
+    <t>metatarsal II minimal depth of diaphysis</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of medial surface of some metatarsal bone of digit 2</t>
+  </si>
+  <si>
+    <t>metatarsal IV minimal depth of diaphysis</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of medial surface of some metatarsal bone of digit 4</t>
+  </si>
+  <si>
+    <t>metatarsal III breadth of facet for fourth tarsal</t>
+  </si>
+  <si>
+    <t>metacarpal III breadth of anterior facet for fourth carpal</t>
+  </si>
+  <si>
+    <t>metacarpal III breadth of proximal facet for second carpal</t>
+  </si>
+  <si>
+    <t>metatarsal III breadth of proximal facet for second tarsal</t>
+  </si>
+  <si>
+    <t>metacarpal III breadth of posterior facet for fourth carpal</t>
+  </si>
+  <si>
+    <t>metacarpal III depth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lateral surface some metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>metatarsal III depth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lateral surface some metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>metacarpal III diameter of facet for third carpal</t>
+  </si>
+  <si>
+    <t>metacarpal III supra-articular breadth</t>
+  </si>
+  <si>
+    <t>metatarsal III supra-articular breadth</t>
+  </si>
+  <si>
+    <t>metatarsal III diameter of facet for third tarsal</t>
+  </si>
+  <si>
+    <t>Dp</t>
+  </si>
+  <si>
+    <t>metapodial proxiimal width AP</t>
+  </si>
+  <si>
+    <t>metapodial proximal depth</t>
+  </si>
+  <si>
+    <t>Ll</t>
+  </si>
+  <si>
+    <t>metapodial length lateral</t>
+  </si>
+  <si>
+    <t>metapodial greatest length lateral</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>metapodial diaphysis circumference</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>metapodial diaphysis depth</t>
+  </si>
+  <si>
+    <t>metapodial distal width  ML</t>
+  </si>
+  <si>
+    <t>metapodial distal breadth</t>
+  </si>
+  <si>
+    <t>LeP</t>
+  </si>
+  <si>
+    <t>metapodial length without plantar projection</t>
+  </si>
+  <si>
+    <t>femur</t>
+  </si>
+  <si>
+    <t>femur greatest length</t>
+  </si>
+  <si>
+    <t>GLC</t>
+  </si>
+  <si>
+    <t>femur proximal width ML</t>
+  </si>
+  <si>
+    <t>femur proximal breadth</t>
+  </si>
+  <si>
+    <t>BTr</t>
+  </si>
+  <si>
+    <t>femur trochander width ML</t>
+  </si>
+  <si>
+    <t>femur trochanter breadth</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>femur caput width AP</t>
+  </si>
+  <si>
+    <t>femur caput depth</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>femur diaphysis width ML</t>
+  </si>
+  <si>
+    <t>femur diaphysis breadth</t>
+  </si>
+  <si>
+    <t>femur diaphysis circumference</t>
+  </si>
+  <si>
+    <t>femur distal width ML</t>
+  </si>
+  <si>
+    <t>femur distal breadth</t>
+  </si>
+  <si>
+    <t>femur length from caput to lateral condyle</t>
+  </si>
+  <si>
+    <t>femur proximal width AP</t>
+  </si>
+  <si>
+    <t>femur proximal depth</t>
+  </si>
+  <si>
+    <t>femur distal width AP</t>
+  </si>
+  <si>
+    <t>femur distal depth</t>
+  </si>
+  <si>
+    <t>femor trochlea width ML</t>
+  </si>
+  <si>
+    <t>femur trochlea breadth</t>
+  </si>
+  <si>
+    <t>tibia</t>
+  </si>
+  <si>
+    <t>tibia greatest length</t>
+  </si>
+  <si>
+    <t>tibia length</t>
+  </si>
+  <si>
+    <t>tibia length medial</t>
+  </si>
+  <si>
+    <t>tibia diaphysis width ML</t>
+  </si>
+  <si>
+    <t>tibia diaphysis breadth</t>
+  </si>
+  <si>
+    <t>tibia diaphysis width AP</t>
+  </si>
+  <si>
+    <t>tibia diaphysis depth</t>
+  </si>
+  <si>
+    <t>tibia proximal width ML</t>
+  </si>
+  <si>
+    <t>tibia proximal width AP</t>
+  </si>
+  <si>
+    <t>tibia proximal depth</t>
+  </si>
+  <si>
+    <t>tibia distal width ML</t>
+  </si>
+  <si>
+    <t>tibia distal breadth</t>
+  </si>
+  <si>
+    <t>tibia distal width AP</t>
+  </si>
+  <si>
+    <t>fossa digitalis length</t>
+  </si>
+  <si>
+    <t>tibia length lateral</t>
+  </si>
+  <si>
+    <t>tibia diaphysis circumference</t>
+  </si>
+  <si>
+    <t>Lm</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>femur length medial</t>
+  </si>
+  <si>
+    <t>femur diaphysis width AP</t>
+  </si>
+  <si>
+    <t>femur diaphysis depth</t>
+  </si>
+  <si>
+    <t>humerus</t>
+  </si>
+  <si>
+    <t>humerus length from trochlea to ventral tubercle</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>humerus diaphysis width ML</t>
+  </si>
+  <si>
+    <t>humerus diaphysis breadth</t>
+  </si>
+  <si>
+    <t>humerus proximal width ML</t>
+  </si>
+  <si>
+    <t>humerus proximal breadth</t>
+  </si>
+  <si>
+    <t>humerus proximal width AP at median tubercule</t>
+  </si>
+  <si>
+    <t>humerus proximal depth at median tubercule</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>humerus trochlea width ML</t>
+  </si>
+  <si>
+    <t>humerus trochlea breadth</t>
+  </si>
+  <si>
+    <t>humerus distal width AP</t>
+  </si>
+  <si>
+    <t>humerus distal depth</t>
+  </si>
+  <si>
+    <t>maximal humerus trochlear height (medial side)</t>
+  </si>
+  <si>
+    <t>minimal humerus trochlear height</t>
+  </si>
+  <si>
+    <t>humerus trochlear height at sagittal crest</t>
+  </si>
+  <si>
+    <t>humerus length  lateral</t>
+  </si>
+  <si>
+    <t>humerus proximal width AP</t>
+  </si>
+  <si>
+    <t>humerus proximal depth</t>
+  </si>
+  <si>
+    <t>humerus distal width ML</t>
+  </si>
+  <si>
+    <t>humerus distal breadth</t>
+  </si>
+  <si>
+    <t>humerus diaphysis width AP</t>
+  </si>
+  <si>
+    <t>humerus diaphysis depth</t>
+  </si>
+  <si>
+    <t>upper tooth row</t>
+  </si>
+  <si>
+    <t>lower tooth row</t>
+  </si>
+  <si>
+    <t>upper tooth row on right side</t>
+  </si>
+  <si>
+    <t>upper tooth row on left side</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4554,6 +5382,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4582,7 +5417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4616,6 +5451,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4944,15 +5780,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1427</v>
+        <v>1375</v>
       </c>
       <c r="C1" t="s">
-        <v>1428</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1429</v>
+        <v>1377</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>117</v>
@@ -4960,10 +5796,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1430</v>
+        <v>1378</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1431</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4971,12 +5807,12 @@
         <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>1432</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1429</v>
+        <v>1377</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>119</v>
@@ -4984,26 +5820,26 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="3" t="s">
-        <v>1370</v>
+        <v>1340</v>
       </c>
       <c r="C6" t="s">
-        <v>1433</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="3" t="s">
-        <v>1393</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="3" t="s">
-        <v>1434</v>
+        <v>1382</v>
       </c>
       <c r="C8" t="s">
-        <v>1435</v>
+        <v>1383</v>
       </c>
       <c r="D8" t="s">
-        <v>1436</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5011,7 +5847,7 @@
         <v>7500036</v>
       </c>
       <c r="D9" t="s">
-        <v>1342</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5027,7 +5863,7 @@
         <v>7500038</v>
       </c>
       <c r="D11" t="s">
-        <v>1345</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5035,7 +5871,7 @@
         <v>7500042</v>
       </c>
       <c r="D12" t="s">
-        <v>1346</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5043,7 +5879,7 @@
         <v>7500043</v>
       </c>
       <c r="D13" t="s">
-        <v>1312</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5051,7 +5887,7 @@
         <v>7500044</v>
       </c>
       <c r="D14" t="s">
-        <v>1311</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5059,7 +5895,7 @@
         <v>7500051</v>
       </c>
       <c r="D15" t="s">
-        <v>1364</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5067,7 +5903,7 @@
         <v>7500060</v>
       </c>
       <c r="D16" t="s">
-        <v>1437</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -5075,7 +5911,7 @@
         <v>7500045</v>
       </c>
       <c r="D17" t="s">
-        <v>1438</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -5083,7 +5919,7 @@
         <v>7500050</v>
       </c>
       <c r="D18" t="s">
-        <v>1439</v>
+        <v>1387</v>
       </c>
     </row>
   </sheetData>
@@ -19426,8 +20262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BA4F15-3142-994E-BF8B-16093E97474D}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -19451,28 +20287,28 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>1362</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>1245</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>1246</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>1311</v>
+        <v>1294</v>
       </c>
       <c r="B5" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="C5" t="s">
-        <v>1314</v>
+        <v>1297</v>
       </c>
       <c r="D5" t="str">
         <f>"line that connects "&amp;B5&amp;" and "&amp;C5</f>
@@ -19481,13 +20317,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>1312</v>
+        <v>1295</v>
       </c>
       <c r="B6" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="C6" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ref="D6" si="0">"line that connects "&amp;B6&amp;" and "&amp;C6</f>
@@ -19496,13 +20332,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="B7" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="C7" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ref="D7:D14" si="1">"line that connects "&amp;B7&amp;" and "&amp;C7</f>
@@ -19511,13 +20347,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="B8" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="C8" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
@@ -19526,13 +20362,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>1345</v>
+        <v>1325</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>1321</v>
+        <v>1304</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>1322</v>
+        <v>1305</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
@@ -19541,13 +20377,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>1346</v>
+        <v>1326</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>1321</v>
+        <v>1304</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>1323</v>
+        <v>1306</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
@@ -19556,13 +20392,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>1440</v>
+        <v>1388</v>
       </c>
       <c r="B11" t="s">
-        <v>1444</v>
+        <v>1392</v>
       </c>
       <c r="C11" t="s">
-        <v>1446</v>
+        <v>1394</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
@@ -19571,13 +20407,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>1441</v>
+        <v>1389</v>
       </c>
       <c r="B12" t="s">
-        <v>1444</v>
+        <v>1392</v>
       </c>
       <c r="C12" t="s">
-        <v>1445</v>
+        <v>1393</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="1"/>
@@ -19586,13 +20422,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>1442</v>
+        <v>1390</v>
       </c>
       <c r="B13" t="s">
-        <v>1447</v>
+        <v>1395</v>
       </c>
       <c r="C13" t="s">
-        <v>1448</v>
+        <v>1396</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
@@ -19601,13 +20437,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>1443</v>
+        <v>1391</v>
       </c>
       <c r="B14" t="s">
-        <v>1447</v>
+        <v>1395</v>
       </c>
       <c r="C14" t="s">
-        <v>1449</v>
+        <v>1397</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="1"/>
@@ -19623,8 +20459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01658F34-4982-8840-AF22-6E6480DB069B}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:A68"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -19646,7 +20482,7 @@
         <v>1152</v>
       </c>
       <c r="D1" t="s">
-        <v>1195</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -19666,7 +20502,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1237</v>
+        <v>1224</v>
       </c>
       <c r="B3" t="s">
         <v>112</v>
@@ -19681,7 +20517,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>1236</v>
+        <v>1223</v>
       </c>
       <c r="B4" t="s">
         <v>108</v>
@@ -19696,13 +20532,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>1207</v>
+        <v>1194</v>
       </c>
       <c r="B5" t="s">
         <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>1251</v>
+        <v>1236</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -19711,35 +20547,35 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>1209</v>
+        <v>1196</v>
       </c>
       <c r="B6" t="s">
         <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>1273</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>1208</v>
+        <v>1195</v>
       </c>
       <c r="B7" t="s">
         <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>1274</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>1212</v>
+        <v>1199</v>
       </c>
       <c r="B8" t="s">
         <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>1252</v>
+        <v>1237</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -19748,13 +20584,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1213</v>
+        <v>1200</v>
       </c>
       <c r="B9" t="s">
         <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>1269</v>
+        <v>1254</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -19763,13 +20599,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1202</v>
+        <v>1189</v>
       </c>
       <c r="B10" t="s">
         <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>1253</v>
+        <v>1238</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -19778,13 +20614,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1203</v>
+        <v>1190</v>
       </c>
       <c r="B11" t="s">
         <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>1271</v>
+        <v>1256</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -19793,13 +20629,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1262</v>
+        <v>1247</v>
       </c>
       <c r="B12" t="s">
         <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>1272</v>
+        <v>1257</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -19808,7 +20644,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1201</v>
+        <v>1188</v>
       </c>
       <c r="B13" t="s">
         <v>110</v>
@@ -19823,13 +20659,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1227</v>
+        <v>1214</v>
       </c>
       <c r="B14" t="s">
         <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>1277</v>
+        <v>1262</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -19838,13 +20674,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1228</v>
+        <v>1215</v>
       </c>
       <c r="B15" t="s">
         <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>1278</v>
+        <v>1263</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -19853,13 +20689,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1229</v>
+        <v>1216</v>
       </c>
       <c r="B16" t="s">
         <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>1279</v>
+        <v>1264</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -19868,13 +20704,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>1265</v>
+        <v>1250</v>
       </c>
       <c r="B17" t="s">
         <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -19883,13 +20719,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>1266</v>
+        <v>1251</v>
       </c>
       <c r="B18" t="s">
         <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>1276</v>
+        <v>1261</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -19898,13 +20734,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1267</v>
+        <v>1252</v>
       </c>
       <c r="B19" t="s">
         <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>1271</v>
+        <v>1256</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -19913,13 +20749,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>1268</v>
+        <v>1253</v>
       </c>
       <c r="B20" t="s">
         <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>1272</v>
+        <v>1257</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -19928,13 +20764,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1210</v>
+        <v>1197</v>
       </c>
       <c r="B21" t="s">
         <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>1255</v>
+        <v>1240</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -19943,35 +20779,35 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
       <c r="B22" t="s">
         <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>1283</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>1211</v>
+        <v>1198</v>
       </c>
       <c r="B23" t="s">
         <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>1284</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>1222</v>
+        <v>1209</v>
       </c>
       <c r="B24" t="s">
         <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>1254</v>
+        <v>1239</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -19980,13 +20816,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="B25" t="s">
         <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>1285</v>
+        <v>1270</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -19995,13 +20831,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>1261</v>
+        <v>1246</v>
       </c>
       <c r="B26" t="s">
         <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>1286</v>
+        <v>1271</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -20010,13 +20846,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>1214</v>
+        <v>1201</v>
       </c>
       <c r="B27" t="s">
         <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>1256</v>
+        <v>1241</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -20025,13 +20861,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>1215</v>
+        <v>1202</v>
       </c>
       <c r="B28" t="s">
         <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>1270</v>
+        <v>1255</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -20040,13 +20876,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>1204</v>
+        <v>1191</v>
       </c>
       <c r="B29" t="s">
         <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>1254</v>
+        <v>1239</v>
       </c>
       <c r="D29" t="str">
         <f>"line along "&amp;B29&amp;" of "&amp;C29</f>
@@ -20055,13 +20891,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>1205</v>
+        <v>1192</v>
       </c>
       <c r="B30" t="s">
         <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="D30" t="str">
         <f>"line along "&amp;B30&amp;" of "&amp;C30</f>
@@ -20070,13 +20906,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>1206</v>
+        <v>1193</v>
       </c>
       <c r="B31" t="s">
         <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>1276</v>
+        <v>1261</v>
       </c>
       <c r="D31" t="str">
         <f>"line along "&amp;B31&amp;" of "&amp;C31</f>
@@ -20085,7 +20921,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>1200</v>
+        <v>1187</v>
       </c>
       <c r="B32" t="s">
         <v>110</v>
@@ -20100,13 +20936,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>1224</v>
+        <v>1211</v>
       </c>
       <c r="B33" t="s">
         <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>1280</v>
+        <v>1265</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -20115,13 +20951,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>1225</v>
+        <v>1212</v>
       </c>
       <c r="B34" t="s">
         <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>1281</v>
+        <v>1266</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -20130,13 +20966,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>1226</v>
+        <v>1213</v>
       </c>
       <c r="B35" t="s">
         <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>1282</v>
+        <v>1267</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -20145,13 +20981,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>1220</v>
+        <v>1207</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>1257</v>
+        <v>1242</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" ref="D36:D41" si="1">"line along "&amp;B36&amp;" of "&amp;C36</f>
@@ -20160,13 +20996,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>1221</v>
+        <v>1208</v>
       </c>
       <c r="B37" t="s">
         <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>1258</v>
+        <v>1243</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="1"/>
@@ -20175,13 +21011,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>1216</v>
+        <v>1203</v>
       </c>
       <c r="B38" t="s">
         <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>1287</v>
+        <v>1272</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="1"/>
@@ -20190,13 +21026,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="B39" t="s">
         <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>1289</v>
+        <v>1274</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="1"/>
@@ -20205,13 +21041,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>1218</v>
+        <v>1205</v>
       </c>
       <c r="B40" t="s">
         <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>1288</v>
+        <v>1273</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="1"/>
@@ -20220,13 +21056,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>1219</v>
+        <v>1206</v>
       </c>
       <c r="B41" t="s">
         <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>1290</v>
+        <v>1275</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="1"/>
@@ -20235,13 +21071,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>1223</v>
+        <v>1210</v>
       </c>
       <c r="B42" t="s">
         <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>1253</v>
+        <v>1238</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" ref="D42:D45" si="2">"line along "&amp;B42&amp;" of "&amp;C42</f>
@@ -20250,13 +21086,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>1230</v>
+        <v>1217</v>
       </c>
       <c r="B43" t="s">
         <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>1278</v>
+        <v>1263</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
@@ -20265,13 +21101,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>1231</v>
+        <v>1218</v>
       </c>
       <c r="B44" t="s">
         <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>1291</v>
+        <v>1276</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
@@ -20280,13 +21116,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>1232</v>
+        <v>1219</v>
       </c>
       <c r="B45" t="s">
         <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>1292</v>
+        <v>1277</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
@@ -20295,13 +21131,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
       <c r="B46" t="s">
         <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>1281</v>
+        <v>1266</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" ref="D46:D48" si="3">"line along "&amp;B46&amp;" of "&amp;C46</f>
@@ -20310,13 +21146,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="B47" t="s">
         <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>1293</v>
+        <v>1278</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="3"/>
@@ -20325,13 +21161,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="B48" t="s">
         <v>112</v>
       </c>
       <c r="C48" t="s">
-        <v>1294</v>
+        <v>1279</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="3"/>
@@ -20340,7 +21176,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>1240</v>
+        <v>1226</v>
       </c>
       <c r="B49" t="s">
         <v>110</v>
@@ -20348,7 +21184,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>1243</v>
+        <v>1229</v>
       </c>
       <c r="B50" t="s">
         <v>110</v>
@@ -20356,7 +21192,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>1241</v>
+        <v>1227</v>
       </c>
       <c r="B51" t="s">
         <v>110</v>
@@ -20364,7 +21200,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>1242</v>
+        <v>1228</v>
       </c>
       <c r="B52" t="s">
         <v>110</v>
@@ -20372,7 +21208,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>1259</v>
+        <v>1244</v>
       </c>
       <c r="B53" t="s">
         <v>110</v>
@@ -20380,13 +21216,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>1263</v>
+        <v>1248</v>
       </c>
       <c r="B54" t="s">
         <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>1296</v>
+        <v>1281</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" ref="D54:D55" si="4">"line along "&amp;B54&amp;" of "&amp;C54</f>
@@ -20395,13 +21231,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>1264</v>
+        <v>1249</v>
       </c>
       <c r="B55" t="s">
         <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>1295</v>
+        <v>1280</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="4"/>
@@ -20410,13 +21246,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>1341</v>
+        <v>1323</v>
       </c>
       <c r="B56" t="s">
-        <v>1328</v>
+        <v>1310</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>1329</v>
+        <v>1311</v>
       </c>
       <c r="D56" t="str">
         <f>"line along "&amp;B56&amp;" of "&amp;C56</f>
@@ -20425,13 +21261,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>1327</v>
+        <v>1309</v>
       </c>
       <c r="B57" t="s">
-        <v>1328</v>
+        <v>1310</v>
       </c>
       <c r="C57" t="s">
-        <v>1330</v>
+        <v>1312</v>
       </c>
       <c r="D57" t="str">
         <f>"line along "&amp;B57&amp;" of "&amp;C57</f>
@@ -20440,52 +21276,52 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>1331</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>1333</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>1334</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>1335</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>1336</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>1337</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>1338</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>1339</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>1340</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="68" spans="1:1">
@@ -20505,12 +21341,12 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>1197</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>1196</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="79" spans="1:1">
@@ -20534,7 +21370,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -20547,7 +21383,7 @@
         <v>1152</v>
       </c>
       <c r="B1" t="s">
-        <v>1325</v>
+        <v>1308</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -20555,216 +21391,216 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1417</v>
+        <v>1365</v>
       </c>
       <c r="B2" t="s">
-        <v>1199</v>
+        <v>1186</v>
       </c>
       <c r="C2" t="s">
-        <v>1394</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1198</v>
+        <v>1185</v>
       </c>
       <c r="B3" t="s">
-        <v>1199</v>
+        <v>1186</v>
       </c>
       <c r="C3" t="s">
-        <v>1418</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1250</v>
+        <v>1235</v>
       </c>
       <c r="C4" t="s">
-        <v>1395</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="C5" t="s">
-        <v>1396</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
       <c r="C6" t="s">
-        <v>1397</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1248</v>
+        <v>1233</v>
       </c>
       <c r="C7" t="s">
-        <v>1398</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1412</v>
+        <v>1360</v>
       </c>
       <c r="C8" t="s">
-        <v>1399</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1421</v>
+        <v>1369</v>
       </c>
       <c r="C9" t="s">
-        <v>1422</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1413</v>
+        <v>1361</v>
       </c>
       <c r="C10" t="s">
-        <v>1400</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>1414</v>
+        <v>1362</v>
       </c>
       <c r="C11" t="s">
-        <v>1401</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>1419</v>
+        <v>1367</v>
       </c>
       <c r="C12" t="s">
-        <v>1420</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>1415</v>
+        <v>1363</v>
       </c>
       <c r="C13" t="s">
-        <v>1402</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>1416</v>
+        <v>1364</v>
       </c>
       <c r="C14" t="s">
-        <v>1403</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>1299</v>
+        <v>1282</v>
       </c>
       <c r="C15" t="s">
-        <v>1404</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>1300</v>
+        <v>1283</v>
       </c>
       <c r="C16" t="s">
-        <v>1405</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="C17" t="s">
-        <v>1406</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1302</v>
+        <v>1285</v>
       </c>
       <c r="C18" t="s">
-        <v>1407</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="C19" t="s">
-        <v>1423</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1304</v>
+        <v>1287</v>
       </c>
       <c r="C20" t="s">
-        <v>1424</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>1305</v>
+        <v>1288</v>
       </c>
       <c r="C21" t="s">
-        <v>1425</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="C22" t="s">
-        <v>1426</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>1307</v>
+        <v>1290</v>
       </c>
       <c r="C23" t="s">
-        <v>1408</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="C24" t="s">
-        <v>1409</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="C25" t="s">
-        <v>1410</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C26" t="s">
-        <v>1411</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C27" t="s">
-        <v>1324</v>
+        <v>1307</v>
       </c>
     </row>
   </sheetData>
@@ -20774,813 +21610,3698 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBC00A8-69BB-C944-AE92-971EEE98B192}">
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:X195"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="J4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1332</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1414</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1416</v>
+      </c>
+      <c r="X6" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1419</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1420</v>
+      </c>
+      <c r="X7" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="D8" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="X8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="D9" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1422</v>
+      </c>
+      <c r="X9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="D10" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1423</v>
+      </c>
+      <c r="X10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="D11" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1424</v>
+      </c>
+      <c r="X11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="D12" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1425</v>
+      </c>
+      <c r="X12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="D13" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1427</v>
+      </c>
+      <c r="J13" t="s">
+        <v>340</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1428</v>
+      </c>
+      <c r="X13" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1430</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1323</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1337</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1334</v>
+      </c>
+      <c r="X14" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="D15" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1431</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1432</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1433</v>
+      </c>
+      <c r="X15" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1434</v>
+      </c>
+      <c r="J16" t="s">
+        <v>318</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1435</v>
+      </c>
+      <c r="X16" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="D17" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1437</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1438</v>
+      </c>
+      <c r="X17" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="C18" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1441</v>
+      </c>
+      <c r="X18" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="D19" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1442</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1443</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1444</v>
+      </c>
+      <c r="X19" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="C20" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1446</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1447</v>
+      </c>
+      <c r="X20" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="C21" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1450</v>
+      </c>
+      <c r="X21" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="C22" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1452</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1453</v>
+      </c>
+      <c r="X22" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="C23" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1454</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1455</v>
+      </c>
+      <c r="X23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="C24" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1456</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1457</v>
+      </c>
+      <c r="X24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J25" t="s">
+        <v>554</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J26" t="s">
+        <v>547</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1325</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1460</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1326</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1461</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="C29" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="J29" t="s">
+        <v>390</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1462</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="J30" t="s">
+        <v>1464</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="C31" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="J31" t="s">
+        <v>394</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1465</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" t="s">
+        <v>1467</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1468</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33" t="s">
+        <v>362</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1462</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12">
+      <c r="J34" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12">
+      <c r="C35" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" t="s">
+        <v>367</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1465</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12">
+      <c r="I36" t="s">
+        <v>1472</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="C37" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="J37" t="s">
+        <v>354</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1462</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12">
+      <c r="J38" t="s">
+        <v>1475</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12">
+      <c r="C39" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39" t="s">
+        <v>358</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1465</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12">
+      <c r="I40" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12">
+      <c r="C41" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J41" t="s">
+        <v>426</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1462</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12">
+      <c r="J42" t="s">
+        <v>1481</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12">
+      <c r="C43" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J43" t="s">
+        <v>430</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1465</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12">
+      <c r="I44" t="s">
+        <v>1483</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1484</v>
+      </c>
+      <c r="K44" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12">
+      <c r="C45" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1485</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1462</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12">
+      <c r="J46" t="s">
+        <v>1487</v>
+      </c>
+      <c r="K46" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12">
+      <c r="C47" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1488</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1465</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12">
+      <c r="I48" t="s">
+        <v>1490</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1491</v>
+      </c>
+      <c r="K48" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12">
+      <c r="C49" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="J49" t="s">
+        <v>380</v>
+      </c>
+      <c r="K49" t="s">
+        <v>1462</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12">
+      <c r="J50" t="s">
+        <v>1493</v>
+      </c>
+      <c r="K50" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12">
+      <c r="C51" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="J51" t="s">
+        <v>385</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1465</v>
+      </c>
+      <c r="L51" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12">
+      <c r="I52" t="s">
+        <v>1495</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1496</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12">
+      <c r="C53" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J53" t="s">
+        <v>372</v>
+      </c>
+      <c r="K53" t="s">
+        <v>1462</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12">
+      <c r="J54" t="s">
+        <v>1498</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12">
+      <c r="C55" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="J55" t="s">
+        <v>376</v>
+      </c>
+      <c r="K55" t="s">
+        <v>1465</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12">
+      <c r="I56" t="s">
+        <v>1500</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1501</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" ht="17" customHeight="1">
+      <c r="C57" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J57" t="s">
+        <v>344</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1462</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" ht="17" customHeight="1">
+      <c r="J58" t="s">
+        <v>1503</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12">
+      <c r="C59" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="J59" t="s">
+        <v>349</v>
+      </c>
+      <c r="K59" t="s">
+        <v>1465</v>
+      </c>
+      <c r="L59" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12">
+      <c r="I60" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1506</v>
+      </c>
+      <c r="K60" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12">
+      <c r="C61" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J61" t="s">
+        <v>416</v>
+      </c>
+      <c r="K61" t="s">
+        <v>1462</v>
+      </c>
+      <c r="L61" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12">
+      <c r="J62" t="s">
+        <v>1508</v>
+      </c>
+      <c r="K62" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12">
+      <c r="C63" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J63" t="s">
+        <v>421</v>
+      </c>
+      <c r="K63" t="s">
+        <v>1465</v>
+      </c>
+      <c r="L63" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12">
+      <c r="I64" t="s">
+        <v>1510</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1511</v>
+      </c>
+      <c r="K64" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24">
+      <c r="C65" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1512</v>
+      </c>
+      <c r="K65" t="s">
+        <v>1462</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24">
+      <c r="J66" t="s">
+        <v>1514</v>
+      </c>
+      <c r="K66" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24">
+      <c r="C67" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J67" t="s">
+        <v>1515</v>
+      </c>
+      <c r="K67" t="s">
+        <v>1465</v>
+      </c>
+      <c r="L67" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24">
+      <c r="I68" t="s">
+        <v>1517</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1518</v>
+      </c>
+      <c r="K68" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24">
+      <c r="C70" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1519</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1520</v>
+      </c>
+      <c r="X70" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24">
+      <c r="D71" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24">
+      <c r="D72" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24">
+      <c r="B73" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J73" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P73" t="s">
+        <v>1175</v>
+      </c>
+      <c r="Q73" t="str">
+        <f>"length and ('inheres in' some '"&amp;P73&amp;"')"</f>
+        <v>length and ('inheres in' some 'line along proximal-distal axis of metapodial skeleton')</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24">
+      <c r="B74" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P74" t="s">
+        <v>1176</v>
+      </c>
+      <c r="Q74" t="str">
+        <f t="shared" ref="Q74:Q126" si="0">"length and ('inheres in' some '"&amp;P74&amp;"')"</f>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of metapodial skeleton')</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24">
+      <c r="B75" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J75" t="s">
+        <v>1528</v>
+      </c>
+      <c r="P75" t="s">
+        <v>1177</v>
+      </c>
+      <c r="Q75" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along medial-lateral axis of metapodial skeleton')</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24">
+      <c r="B76" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F76">
+        <v>11</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1528</v>
+      </c>
+      <c r="P76" t="s">
+        <v>1531</v>
+      </c>
+      <c r="Q76" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along medial-lateral axis of distal surface some metacarpal bone of digit 3')</v>
+      </c>
+      <c r="X76" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24">
+      <c r="B77" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1528</v>
+      </c>
+      <c r="P77" t="s">
+        <v>1534</v>
+      </c>
+      <c r="Q77" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along medial-lateral axis of distal surface some metacarpal bone of digit 2')</v>
+      </c>
+      <c r="X77" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24">
+      <c r="B78" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1528</v>
+      </c>
+      <c r="P78" t="s">
+        <v>1537</v>
+      </c>
+      <c r="Q78" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along medial-lateral axis of distal surface some metacarpal bone of digit 4')</v>
+      </c>
+      <c r="X78" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24">
+      <c r="B79" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P79" t="s">
+        <v>1539</v>
+      </c>
+      <c r="Q79" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of distal surface of some metacarpal bone of digit 2')</v>
+      </c>
+      <c r="X79" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24">
+      <c r="B80" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P80" t="s">
+        <v>1541</v>
+      </c>
+      <c r="Q80" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of distal surface of some metacarpal bone of digit 4')</v>
+      </c>
+      <c r="X80" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="2:24">
+      <c r="B81" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P81" t="s">
+        <v>1543</v>
+      </c>
+      <c r="Q81" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of proximal surface some metacarpal bone of digit 3')</v>
+      </c>
+      <c r="X81" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="2:24">
+      <c r="B82" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F82">
+        <v>4</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P82" t="s">
+        <v>1545</v>
+      </c>
+      <c r="Q82" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of proximal surface some metacarpal bone of digit 2')</v>
+      </c>
+      <c r="X82" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="83" spans="2:24">
+      <c r="B83" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P83" t="s">
+        <v>1547</v>
+      </c>
+      <c r="Q83" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of proximal surface some metacarpal bone of digit 4')</v>
+      </c>
+      <c r="X83" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="2:24">
+      <c r="B84" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="J84" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P84" t="s">
+        <v>1178</v>
+      </c>
+      <c r="Q84" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along proximal-distal axis of metacarpal bone')</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24">
+      <c r="B85" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="K85" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P85" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q85" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along proximal-distal axis of metacarpal bone of digit 2')</v>
+      </c>
+      <c r="X85" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="2:24">
+      <c r="B86" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P86" t="s">
+        <v>1551</v>
+      </c>
+      <c r="Q86" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along proximal-distal axis of metacarpal bone of digit 3')</v>
+      </c>
+      <c r="X86" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="87" spans="2:24">
+      <c r="B87" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P87" t="s">
+        <v>1553</v>
+      </c>
+      <c r="Q87" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along proximal-distal axis of metacarpal bone of digit 4')</v>
+      </c>
+      <c r="X87" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="88" spans="2:24">
+      <c r="B88" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1528</v>
+      </c>
+      <c r="P88" t="s">
+        <v>1556</v>
+      </c>
+      <c r="Q88" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along medial-lateral axis of proximal surface some metatarsal bone of digit 2')</v>
+      </c>
+      <c r="X88" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="89" spans="2:24">
+      <c r="B89" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="K89" t="s">
+        <v>1528</v>
+      </c>
+      <c r="P89" t="s">
+        <v>1558</v>
+      </c>
+      <c r="Q89" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along medial-lateral axis of proximal surface some metatarsal bone of digit 4')</v>
+      </c>
+      <c r="X89" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="90" spans="2:24">
+      <c r="B90" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="K90" t="s">
+        <v>1528</v>
+      </c>
+      <c r="P90" t="s">
+        <v>1560</v>
+      </c>
+      <c r="Q90" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along medial-lateral axis of proximal surface some metacarpal bone of digit 2')</v>
+      </c>
+      <c r="X90" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="2:24">
+      <c r="B91" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K91" t="s">
+        <v>1528</v>
+      </c>
+      <c r="P91" t="s">
+        <v>1562</v>
+      </c>
+      <c r="Q91" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along medial-lateral axis of proximal surface some metacarpal bone of digit 4')</v>
+      </c>
+      <c r="X91" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="92" spans="2:24">
+      <c r="B92" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F92">
+        <v>11</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="K92" t="s">
+        <v>1528</v>
+      </c>
+      <c r="P92" t="s">
+        <v>1565</v>
+      </c>
+      <c r="Q92" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along medial-lateral axis of distal surface some metatarsal bone of digit 3')</v>
+      </c>
+      <c r="X92" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="2:24">
+      <c r="B93" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="K93" t="s">
+        <v>1528</v>
+      </c>
+      <c r="P93" t="s">
+        <v>1567</v>
+      </c>
+      <c r="Q93" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along medial-lateral axis of distal surface some metatarsal bone of digit 2')</v>
+      </c>
+      <c r="X93" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="2:24">
+      <c r="B94" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1528</v>
+      </c>
+      <c r="P94" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q94" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along medial-lateral axis of distal surface some metatarsal bone of digit 4')</v>
+      </c>
+      <c r="X94" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="2:24">
+      <c r="B95" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F95">
+        <v>5</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1573</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K95" t="s">
+        <v>1528</v>
+      </c>
+      <c r="P95" t="s">
+        <v>1575</v>
+      </c>
+      <c r="Q95" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along medial-lateral axis of proximal surface some metatarsal bone of digit 3')</v>
+      </c>
+      <c r="X95" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="96" spans="2:24">
+      <c r="B96" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="K96" t="s">
+        <v>1528</v>
+      </c>
+      <c r="P96" t="s">
+        <v>1579</v>
+      </c>
+      <c r="Q96" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along medial-lateral axis of anterior surface some metacarpal bone of digit 3')</v>
+      </c>
+      <c r="X96" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="97" spans="2:24">
+      <c r="B97" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K97" t="s">
+        <v>1528</v>
+      </c>
+      <c r="P97" t="s">
+        <v>1581</v>
+      </c>
+      <c r="Q97" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along medial-lateral axis of anterior surface some metatarsal bone of digit 3')</v>
+      </c>
+      <c r="X97" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="98" spans="2:24">
+      <c r="B98" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F98">
+        <v>6</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K98" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P98" t="s">
+        <v>1583</v>
+      </c>
+      <c r="Q98" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of distal surface of some metatarsal bone of digit 2')</v>
+      </c>
+      <c r="X98" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="99" spans="2:24">
+      <c r="B99" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F99">
+        <v>6</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K99" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P99" t="s">
+        <v>1585</v>
+      </c>
+      <c r="Q99" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of distal surface of some metatarsal bone of digit 4')</v>
+      </c>
+      <c r="X99" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="2:24">
+      <c r="B100" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F100">
+        <v>6</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K100" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P100" t="s">
+        <v>1587</v>
+      </c>
+      <c r="Q100" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of proximal surface some metatarsal bone of digit 3')</v>
+      </c>
+      <c r="X100" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="101" spans="2:24">
+      <c r="B101" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="K101" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P101" t="s">
+        <v>1589</v>
+      </c>
+      <c r="Q101" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of proximal surface some metatarsal bone of digit 2')</v>
+      </c>
+      <c r="X101" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="2:24">
+      <c r="B102" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K102" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P102" t="s">
+        <v>1591</v>
+      </c>
+      <c r="Q102" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of proximal surface some metatarsal bone of digit 4')</v>
+      </c>
+      <c r="X102" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="2:24">
+      <c r="B103" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="K103" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P103" t="s">
+        <v>1179</v>
+      </c>
+      <c r="Q103" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along proximal-distal axis of metatarsal bone')</v>
+      </c>
+    </row>
+    <row r="104" spans="2:24">
+      <c r="B104" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="K104" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P104" t="s">
+        <v>1593</v>
+      </c>
+      <c r="Q104" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along proximal-distal axis of metatarsal bone of digit 2')</v>
+      </c>
+      <c r="X104" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="105" spans="2:24">
+      <c r="B105" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K105" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P105" t="s">
+        <v>1595</v>
+      </c>
+      <c r="Q105" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along proximal-distal axis of metatarsal bone of digit 3')</v>
+      </c>
+      <c r="X105" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106" spans="2:24">
+      <c r="B106" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="K106" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P106" t="s">
+        <v>1597</v>
+      </c>
+      <c r="Q106" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along proximal-distal axis of metatarsal bone of digit 4')</v>
+      </c>
+      <c r="X106" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="107" spans="2:24">
+      <c r="B107" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F107">
+        <v>12</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="K107" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P107" t="s">
+        <v>1601</v>
+      </c>
+      <c r="Q107" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of distal keel of metacarpal bone of digit 3')</v>
+      </c>
+      <c r="X107" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="108" spans="2:24">
+      <c r="B108" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F108">
+        <v>12</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="K108" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P108" t="s">
+        <v>1603</v>
+      </c>
+      <c r="Q108" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of distal keel of metatarsal bone of digit 3')</v>
+      </c>
+      <c r="X108" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="109" spans="2:24">
+      <c r="B109" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F109">
+        <v>13</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1604</v>
+      </c>
+      <c r="K109" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P109" t="s">
+        <v>1605</v>
+      </c>
+      <c r="Q109" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of lateral condyle of metatarsal bone of digit 3')</v>
+      </c>
+    </row>
+    <row r="110" spans="2:24">
+      <c r="B110" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F110">
+        <v>14</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1606</v>
+      </c>
+      <c r="K110" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P110" t="s">
+        <v>1607</v>
+      </c>
+      <c r="Q110" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of medial condyle of metatarsal bone of digit 3')</v>
+      </c>
+    </row>
+    <row r="111" spans="2:24">
+      <c r="B111" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F111">
+        <v>13</v>
+      </c>
+      <c r="J111" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K111" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P111" t="s">
+        <v>1609</v>
+      </c>
+      <c r="Q111" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of lateral condyle of metacarpal bone of digit 3')</v>
+      </c>
+    </row>
+    <row r="112" spans="2:24">
+      <c r="B112" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F112">
+        <v>14</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1610</v>
+      </c>
+      <c r="K112" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P112" t="s">
+        <v>1611</v>
+      </c>
+      <c r="Q112" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of medial condyle of metacarpal bone of digit 3')</v>
+      </c>
+    </row>
+    <row r="113" spans="2:24">
+      <c r="B113" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F113">
+        <v>5</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1573</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K113" t="s">
+        <v>1528</v>
+      </c>
+      <c r="P113" t="s">
+        <v>1613</v>
+      </c>
+      <c r="Q113" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along medial-lateral axis of proximal surface some metacarpal bone of digit 3')</v>
+      </c>
+      <c r="X113" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="114" spans="2:24">
+      <c r="B114" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="K114" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P114" t="s">
+        <v>1551</v>
+      </c>
+      <c r="Q114" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along proximal-distal axis of metacarpal bone of digit 3')</v>
+      </c>
+    </row>
+    <row r="115" spans="2:24">
+      <c r="B115" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="K115" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P115" t="s">
+        <v>1616</v>
+      </c>
+      <c r="Q115" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of medial surface of some metacarpal bone of digit 2')</v>
+      </c>
+    </row>
+    <row r="116" spans="2:24">
+      <c r="B116" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="K116" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P116" t="s">
+        <v>1618</v>
+      </c>
+      <c r="Q116" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of medial surface of some metacarpal bone of digit 4')</v>
+      </c>
+    </row>
+    <row r="117" spans="2:24">
+      <c r="B117" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="K117" s="25" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P117" t="s">
+        <v>1595</v>
+      </c>
+      <c r="Q117" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along proximal-distal axis of metatarsal bone of digit 3')</v>
+      </c>
+    </row>
+    <row r="118" spans="2:24">
+      <c r="B118" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="K118" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P118" t="s">
+        <v>1621</v>
+      </c>
+      <c r="Q118" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of medial surface of some metatarsal bone of digit 2')</v>
+      </c>
+    </row>
+    <row r="119" spans="2:24">
+      <c r="D119" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F119" s="1">
+        <v>2</v>
+      </c>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="K119" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P119" t="s">
+        <v>1623</v>
+      </c>
+      <c r="Q119" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of medial surface of some metatarsal bone of digit 4')</v>
+      </c>
+      <c r="X119" t="s">
         <v>1181</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="120" spans="2:24">
+      <c r="C120" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F120" s="1">
+        <v>8</v>
+      </c>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="K120" t="s">
+        <v>1528</v>
+      </c>
+      <c r="L120" s="1"/>
+      <c r="X120" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="121" spans="2:24">
+      <c r="C121" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F121" s="2">
+        <v>8</v>
+      </c>
+      <c r="I121" s="2"/>
+      <c r="J121" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="K121" t="s">
+        <v>1528</v>
+      </c>
+      <c r="L121" s="2"/>
+      <c r="X121" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="122" spans="2:24">
+      <c r="D122" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F122" s="1">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I122" s="1"/>
+      <c r="J122" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="K122" t="s">
+        <v>1528</v>
+      </c>
+      <c r="L122" s="1"/>
+      <c r="X122" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="123" spans="2:24">
+      <c r="C123" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F123" s="1">
+        <v>9</v>
+      </c>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="K123" t="s">
+        <v>1528</v>
+      </c>
+      <c r="L123" s="1"/>
+      <c r="X123" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="124" spans="2:24">
+      <c r="D124" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F124" s="1">
+        <v>16</v>
+      </c>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K124" t="s">
+        <v>1528</v>
+      </c>
+      <c r="L124" s="1"/>
+      <c r="X124" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="125" spans="2:24">
+      <c r="B125" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F125" s="1">
+        <v>4</v>
+      </c>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="K125" t="s">
+        <v>1527</v>
+      </c>
+      <c r="L125" s="1"/>
+      <c r="P125" t="s">
+        <v>1630</v>
+      </c>
+      <c r="Q125" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of lateral surface some metacarpal bone of digit 3')</v>
+      </c>
+      <c r="X125" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="126" spans="2:24">
+      <c r="B126" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F126" s="1">
+        <v>4</v>
+      </c>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="K126" t="s">
+        <v>1527</v>
+      </c>
+      <c r="L126" s="1"/>
+      <c r="P126" t="s">
+        <v>1632</v>
+      </c>
+      <c r="Q126" t="str">
+        <f t="shared" si="0"/>
+        <v>length and ('inheres in' some 'line along anterior-posterior axis of lateral surface some metatarsal bone of digit 3')</v>
+      </c>
+      <c r="X126" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="127" spans="2:24">
+      <c r="I127" s="1"/>
+      <c r="J127" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="K127" s="1"/>
+      <c r="X127" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="128" spans="2:24">
+      <c r="I128" s="1"/>
+      <c r="J128" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K128" s="1"/>
+      <c r="X128" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="129" spans="3:24">
+      <c r="I129" s="1"/>
+      <c r="J129" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="K129" s="1"/>
+      <c r="X129" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="130" spans="3:24">
+      <c r="I130" s="1"/>
+      <c r="J130" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="K130" s="1"/>
+      <c r="X130" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="131" spans="3:24">
+      <c r="I131" s="1"/>
+      <c r="J131" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K131" s="1"/>
+      <c r="X131" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="132" spans="3:24">
+      <c r="I132" s="1"/>
+      <c r="J132" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="K132" s="1"/>
+      <c r="X132" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="133" spans="3:24">
+      <c r="I133" s="1"/>
+      <c r="J133" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="K133" s="1"/>
+      <c r="X133" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="134" spans="3:24">
+      <c r="I134" s="1"/>
+      <c r="J134" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K134" s="1"/>
+      <c r="X134" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="135" spans="3:24">
+      <c r="I135" s="1"/>
+      <c r="J135" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="K135" s="1"/>
+      <c r="X135" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="136" spans="3:24">
+      <c r="I136" s="1"/>
+      <c r="J136" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K136" s="1"/>
+    </row>
+    <row r="137" spans="3:24">
+      <c r="I137" s="1"/>
+      <c r="J137" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K137" s="1"/>
+      <c r="X137" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="138" spans="3:24">
+      <c r="C138" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F138">
+        <v>7</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="X138" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="139" spans="3:24">
+      <c r="D139" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F139">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J139" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="X139" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="140" spans="3:24">
+      <c r="C140" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F140">
+        <v>10</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="X140" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="141" spans="3:24">
+      <c r="C141" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F141">
+        <v>7</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="X141" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="142" spans="3:24">
+      <c r="D142" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1638</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="X142" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="143" spans="3:24">
+      <c r="D143" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1640</v>
+      </c>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="X143" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="144" spans="3:24">
+      <c r="D144" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="X144" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="145" spans="3:24">
+      <c r="D145" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1643</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="X145" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="146" spans="3:24">
+      <c r="D146" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="X146" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="147" spans="3:24">
+      <c r="D147" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1442</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1647</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="X147" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="148" spans="3:24">
+      <c r="D148" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1649</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="X148" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="149" spans="3:24">
+      <c r="C149" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>1652</v>
+      </c>
+      <c r="K149" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="150" spans="3:24">
+      <c r="D150" t="s">
+        <v>1651</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="151" spans="3:24">
+      <c r="C151" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J151" t="s">
+        <v>1391</v>
+      </c>
+      <c r="K151" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="152" spans="3:24">
+      <c r="C152" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F152">
+        <v>5</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J152" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="153" spans="3:24">
+      <c r="C153" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I153" t="s">
+        <v>1657</v>
+      </c>
+      <c r="J153" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="154" spans="3:24">
+      <c r="C154" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F154">
+        <v>10</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1660</v>
+      </c>
+      <c r="J154" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="155" spans="3:24">
+      <c r="C155" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F155">
+        <v>3</v>
+      </c>
+      <c r="G155" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1663</v>
+      </c>
+      <c r="J155" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="156" spans="3:24">
+      <c r="C156" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1643</v>
+      </c>
+      <c r="J156" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="157" spans="3:24">
+      <c r="C157" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F157">
+        <v>7</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1666</v>
+      </c>
+      <c r="J157" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="158" spans="3:24">
+      <c r="C158" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="J158" t="s">
+        <v>1668</v>
+      </c>
+      <c r="K158" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="159" spans="3:24">
+      <c r="C159" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="3:24">
+      <c r="C160" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F160">
+        <v>6</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J160" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="161" spans="3:11">
+      <c r="C161" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F161">
+        <v>8</v>
+      </c>
+      <c r="I161" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J161" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="162" spans="3:11">
+      <c r="C162" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F162">
+        <v>9</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1673</v>
+      </c>
+      <c r="J162" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="163" spans="3:11">
+      <c r="C163" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="J163" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K163" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="164" spans="3:11">
+      <c r="C164" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F164">
+        <v>2</v>
+      </c>
+      <c r="J164" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K164" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="165" spans="3:11">
+      <c r="C165" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F165">
+        <v>3</v>
+      </c>
+      <c r="I165" t="s">
+        <v>1679</v>
+      </c>
+      <c r="J165" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="166" spans="3:11">
+      <c r="C166" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F166">
+        <v>4</v>
+      </c>
+      <c r="I166" t="s">
+        <v>1681</v>
+      </c>
+      <c r="J166" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="167" spans="3:11">
+      <c r="C167" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F167">
+        <v>5</v>
+      </c>
+      <c r="I167" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J167" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="168" spans="3:11">
+      <c r="C168" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F168">
+        <v>6</v>
+      </c>
+      <c r="I168" t="s">
+        <v>1684</v>
+      </c>
+      <c r="J168" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="169" spans="3:11">
+      <c r="C169" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F169">
+        <v>7</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1686</v>
+      </c>
+      <c r="J169" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="170" spans="3:11">
+      <c r="C170" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F170">
+        <v>8</v>
+      </c>
+      <c r="I170" t="s">
+        <v>1688</v>
+      </c>
+      <c r="J170" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="171" spans="3:11">
+      <c r="C171" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F171">
+        <v>9</v>
+      </c>
+      <c r="J171" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="172" spans="3:11">
+      <c r="C172" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J172" t="s">
+        <v>1690</v>
+      </c>
+      <c r="K172" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="173" spans="3:11">
+      <c r="C173" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1643</v>
+      </c>
+      <c r="J173" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="174" spans="3:11">
+      <c r="C174" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G174" t="s">
+        <v>1693</v>
+      </c>
+      <c r="J174" t="s">
+        <v>1694</v>
+      </c>
+      <c r="K174" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="175" spans="3:11">
+      <c r="C175" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I175" t="s">
+        <v>1695</v>
+      </c>
+      <c r="J175" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="176" spans="3:11">
+      <c r="C176" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="I176" t="s">
+        <v>1698</v>
+      </c>
+      <c r="J176" t="s">
+        <v>1388</v>
+      </c>
+      <c r="K176" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="177" spans="3:11">
+      <c r="C177" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F177">
+        <v>2</v>
+      </c>
+      <c r="J177" t="s">
+        <v>1389</v>
+      </c>
+      <c r="K177" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="178" spans="3:11">
+      <c r="C178" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F178">
+        <v>3</v>
+      </c>
+      <c r="G178" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I178" t="s">
+        <v>1700</v>
+      </c>
+      <c r="J178" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="179" spans="3:11">
+      <c r="C179" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="3:11">
+      <c r="C180" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F180">
+        <v>5</v>
+      </c>
+      <c r="I180" t="s">
+        <v>1702</v>
+      </c>
+      <c r="J180" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="181" spans="3:11">
+      <c r="C181" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F181">
+        <v>6</v>
+      </c>
+      <c r="I181" t="s">
+        <v>1704</v>
+      </c>
+      <c r="J181" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="182" spans="3:11">
+      <c r="C182" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F182">
+        <v>7</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1707</v>
+      </c>
+      <c r="I182" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J182" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="183" spans="3:11">
+      <c r="C183" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F183">
+        <v>8</v>
+      </c>
+      <c r="I183" t="s">
+        <v>1710</v>
+      </c>
+      <c r="J183" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="184" spans="3:11">
+      <c r="C184" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F184">
+        <v>9</v>
+      </c>
+      <c r="J184" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="185" spans="3:11">
+      <c r="C185" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F185">
+        <v>10</v>
+      </c>
+      <c r="J185" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="186" spans="3:11">
+      <c r="C186" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F186">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1180</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1182</v>
-      </c>
-      <c r="I2" t="str">
-        <f>"length and ('inheres in' some "&amp;H2&amp;")"</f>
-        <v>length and ('inheres in' some line along proximal-distal axis of metapodial skeleton)</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I9" si="0">"length and ('inheres in' some "&amp;H3&amp;")"</f>
-        <v>length and ('inheres in' some line along anterior-posterior axis of metapodial skeleton)</v>
-      </c>
-      <c r="P3" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1184</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="0"/>
-        <v>length and ('inheres in' some line along medial-lateral axis of metapodial skeleton)</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1185</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="0"/>
-        <v>length and ('inheres in' some line along medial-lateral axis of distal surface some metacarpal bone)</v>
-      </c>
-      <c r="P5" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="P6" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1186</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="0"/>
-        <v>length and ('inheres in' some line along anterior-posterior axis of proximal surface some metacarpal bone)</v>
-      </c>
-      <c r="P7" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="0"/>
-        <v>length and ('inheres in' some line along proximal-distal axis of metacarpal bone)</v>
-      </c>
-      <c r="P8" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="0"/>
-        <v>length and ('inheres in' some line along medial-lateral axis of proximal surface some metacarpal bone)</v>
-      </c>
-      <c r="P9" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="P10" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="P11" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="P12" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="P13" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1189</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" ref="I14:I18" si="1">"length and ('inheres in' some "&amp;H14&amp;")"</f>
-        <v>length and ('inheres in' some line along medial-lateral axis of distal surface some metatarsal bone)</v>
-      </c>
-      <c r="P14" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1190</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="1"/>
-        <v>length and ('inheres in' some line along medial-lateral axis of proximal surface some metatarsal bone)</v>
-      </c>
-      <c r="P15" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="P16" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="1"/>
-        <v>length and ('inheres in' some line along anterior-posterior axis of proximal surface some metatarsal bone)</v>
-      </c>
-      <c r="P17" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1192</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="1"/>
-        <v>length and ('inheres in' some line along proximal-distal axis of metatarsal bone)</v>
-      </c>
-      <c r="P18" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="I26" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="1" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="1" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1254</v>
-      </c>
-      <c r="I28" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1312</v>
-      </c>
-      <c r="G34" t="s">
-        <v>126</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1311</v>
-      </c>
-      <c r="G35" t="s">
-        <v>126</v>
-      </c>
-      <c r="I35" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>554</v>
-      </c>
-      <c r="C36" t="s">
-        <v>554</v>
-      </c>
-      <c r="G36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1348</v>
-      </c>
-      <c r="I37" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" t="s">
-        <v>141</v>
-      </c>
-      <c r="G39" t="s">
-        <v>1349</v>
-      </c>
-      <c r="I39" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1349</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1363</v>
-      </c>
-      <c r="I42" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C43" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1327</v>
-      </c>
-      <c r="I44" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I45" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1346</v>
-      </c>
-      <c r="I46" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
+      <c r="J186" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="187" spans="3:11">
+      <c r="C187" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J187" t="s">
+        <v>1715</v>
+      </c>
+      <c r="K187" t="s">
         <v>1335</v>
       </c>
-      <c r="C50" t="s">
+    </row>
+    <row r="188" spans="3:11">
+      <c r="C188" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1716</v>
+      </c>
+      <c r="J188" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="189" spans="3:11">
+      <c r="C189" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1442</v>
+      </c>
+      <c r="I189" t="s">
+        <v>1718</v>
+      </c>
+      <c r="J189" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="190" spans="3:11">
+      <c r="C190" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1697</v>
+      </c>
+      <c r="J190" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
-        <v>1364</v>
-      </c>
-      <c r="G56" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>1365</v>
-      </c>
-      <c r="G57" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" t="s">
-        <v>1366</v>
-      </c>
-      <c r="G58" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" t="s">
-        <v>1367</v>
-      </c>
-      <c r="G59" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B60" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="I61" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>1391</v>
+    <row r="191" spans="3:11">
+      <c r="I191" t="s">
+        <v>1720</v>
+      </c>
+      <c r="J191" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="192" spans="3:11">
+      <c r="J192" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="193" spans="10:10">
+      <c r="J193" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="194" spans="10:10">
+      <c r="J194" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="195" spans="10:10">
+      <c r="J195" t="s">
+        <v>1725</v>
       </c>
     </row>
   </sheetData>
@@ -21592,8 +25313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F219010-EE42-FC44-9B1F-2EFE57E8E324}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3250E0D3-C0FB-5E4E-9EED-3EBC0ED22003}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBAAC97-7527-684D-9958-291185BB4789}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19440" windowHeight="15000" activeTab="6" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="30920" yWindow="-10940" windowWidth="19440" windowHeight="15000" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="1726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3749" uniqueCount="1727">
   <si>
     <t>Status</t>
   </si>
@@ -5281,6 +5281,9 @@
   </si>
   <si>
     <t>upper tooth row on left side</t>
+  </si>
+  <si>
+    <t>add structures to uberon</t>
   </si>
 </sst>
 </file>
@@ -5767,10 +5770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581405C8-F852-7340-B9C9-201B714E3AD5}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -5906,7 +5909,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="2:4">
       <c r="C17">
         <v>7500045</v>
       </c>
@@ -5914,12 +5917,17 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="2:4">
       <c r="C18">
         <v>7500050</v>
       </c>
       <c r="D18" t="s">
         <v>1387</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>1726</v>
       </c>
     </row>
   </sheetData>
@@ -25313,7 +25321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F219010-EE42-FC44-9B1F-2EFE57E8E324}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBAAC97-7527-684D-9958-291185BB4789}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86516687-0406-F64B-A317-4DBFCF75B184}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30920" yWindow="-10940" windowWidth="19440" windowHeight="15000" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3749" uniqueCount="1727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3751" uniqueCount="1726">
   <si>
     <t>Status</t>
   </si>
@@ -4348,9 +4348,6 @@
   </si>
   <si>
     <t>calcaneus width ML</t>
-  </si>
-  <si>
-    <t>calcaneus distal breadth</t>
   </si>
   <si>
     <t>The width of a caclcaneus along the medial-lateral axis of the distal end.</t>
@@ -5772,7 +5769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581405C8-F852-7340-B9C9-201B714E3AD5}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -5927,7 +5924,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
   </sheetData>
@@ -5940,7 +5937,7 @@
   <dimension ref="A1:AD531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A460" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A372" sqref="A372:A526"/>
     </sheetView>
@@ -20465,9 +20462,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01658F34-4982-8840-AF22-6E6480DB069B}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -21253,117 +21250,123 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" t="s">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
         <v>1323</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B90" t="s">
         <v>1310</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C90" s="22" t="s">
         <v>1311</v>
       </c>
-      <c r="D56" t="str">
-        <f>"line along "&amp;B56&amp;" of "&amp;C56</f>
+      <c r="D90" t="str">
+        <f>"line along "&amp;B90&amp;" of "&amp;C90</f>
         <v>line along proximal-distal of lateral side' some talus</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
         <v>1309</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B91" t="s">
         <v>1310</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C91" t="s">
         <v>1312</v>
       </c>
-      <c r="D57" t="str">
-        <f>"line along "&amp;B57&amp;" of "&amp;C57</f>
+      <c r="D91" t="str">
+        <f>"line along "&amp;B91&amp;" of "&amp;C91</f>
         <v>line along proximal-distal of pes</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="1" t="s">
+    <row r="109" spans="1:1">
+      <c r="A109" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="1" t="s">
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="1" t="s">
+    <row r="111" spans="1:1">
+      <c r="A111" s="1" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="1" t="s">
+    <row r="112" spans="1:1">
+      <c r="A112" s="1" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="1" t="s">
+    <row r="113" spans="1:1">
+      <c r="A113" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="1" t="s">
+    <row r="114" spans="1:1">
+      <c r="A114" s="1" t="s">
         <v>664</v>
       </c>
     </row>
@@ -21621,8 +21624,8 @@
   <dimension ref="A1:X195"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -21817,13 +21820,13 @@
         <v>1414</v>
       </c>
       <c r="J6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L6" t="s">
         <v>1415</v>
       </c>
-      <c r="L6" t="s">
+      <c r="X6" t="s">
         <v>1416</v>
-      </c>
-      <c r="X6" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -21837,19 +21840,19 @@
         <v>1412</v>
       </c>
       <c r="E7" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
+        <v>1418</v>
+      </c>
+      <c r="L7" t="s">
         <v>1419</v>
       </c>
-      <c r="L7" t="s">
-        <v>1420</v>
-      </c>
       <c r="X7" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -21860,7 +21863,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="X8" t="s">
         <v>276</v>
@@ -21874,7 +21877,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="X9" t="s">
         <v>276</v>
@@ -21888,7 +21891,7 @@
         <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="X10" t="s">
         <v>276</v>
@@ -21902,7 +21905,7 @@
         <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="X11" t="s">
         <v>276</v>
@@ -21916,7 +21919,7 @@
         <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="X12" t="s">
         <v>276</v>
@@ -21924,22 +21927,22 @@
     </row>
     <row r="13" spans="1:24">
       <c r="D13" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I13" t="s">
         <v>1426</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1418</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1427</v>
       </c>
       <c r="J13" t="s">
         <v>340</v>
       </c>
       <c r="L13" t="s">
+        <v>1427</v>
+      </c>
+      <c r="X13" t="s">
         <v>1428</v>
-      </c>
-      <c r="X13" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -21950,10 +21953,10 @@
         <v>1407</v>
       </c>
       <c r="D14" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E14" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="I14" t="s">
         <v>1323</v>
@@ -21965,24 +21968,24 @@
         <v>1334</v>
       </c>
       <c r="X14" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="D15" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E15" t="s">
+        <v>1430</v>
+      </c>
+      <c r="I15" t="s">
         <v>1431</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>1432</v>
       </c>
-      <c r="J15" t="s">
-        <v>1433</v>
-      </c>
       <c r="X15" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -21993,7 +21996,7 @@
         <v>1407</v>
       </c>
       <c r="D16" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E16" t="s">
         <v>1413</v>
@@ -22002,33 +22005,33 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="J16" t="s">
         <v>318</v>
       </c>
       <c r="L16" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="X16" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="17" spans="1:24">
       <c r="D17" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E17" t="s">
+        <v>1435</v>
+      </c>
+      <c r="I17" t="s">
         <v>1436</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>1437</v>
       </c>
-      <c r="J17" t="s">
-        <v>1438</v>
-      </c>
       <c r="X17" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -22036,39 +22039,39 @@
         <v>1407</v>
       </c>
       <c r="D18" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E18" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F18">
         <v>7</v>
       </c>
       <c r="I18" t="s">
+        <v>1439</v>
+      </c>
+      <c r="J18" t="s">
         <v>1440</v>
       </c>
-      <c r="J18" t="s">
-        <v>1441</v>
-      </c>
       <c r="X18" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="D19" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E19" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I19" t="s">
         <v>1442</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>1443</v>
       </c>
-      <c r="J19" t="s">
-        <v>1444</v>
-      </c>
       <c r="X19" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -22076,22 +22079,22 @@
         <v>1407</v>
       </c>
       <c r="D20" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E20" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
+        <v>1445</v>
+      </c>
+      <c r="J20" t="s">
         <v>1446</v>
       </c>
-      <c r="J20" t="s">
-        <v>1447</v>
-      </c>
       <c r="X20" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -22099,22 +22102,22 @@
         <v>1407</v>
       </c>
       <c r="D21" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E21" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
       <c r="I21" t="s">
+        <v>1448</v>
+      </c>
+      <c r="J21" t="s">
         <v>1449</v>
       </c>
-      <c r="J21" t="s">
-        <v>1450</v>
-      </c>
       <c r="X21" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -22122,22 +22125,22 @@
         <v>1407</v>
       </c>
       <c r="D22" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E22" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="I22" t="s">
+        <v>1451</v>
+      </c>
+      <c r="J22" t="s">
         <v>1452</v>
       </c>
-      <c r="J22" t="s">
-        <v>1453</v>
-      </c>
       <c r="X22" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -22145,16 +22148,16 @@
         <v>1407</v>
       </c>
       <c r="D23" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F23">
         <v>4</v>
       </c>
       <c r="I23" t="s">
+        <v>1453</v>
+      </c>
+      <c r="J23" t="s">
         <v>1454</v>
-      </c>
-      <c r="J23" t="s">
-        <v>1455</v>
       </c>
       <c r="X23" t="s">
         <v>276</v>
@@ -22165,16 +22168,16 @@
         <v>1407</v>
       </c>
       <c r="D24" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F24">
         <v>6</v>
       </c>
       <c r="I24" t="s">
+        <v>1455</v>
+      </c>
+      <c r="J24" t="s">
         <v>1456</v>
-      </c>
-      <c r="J24" t="s">
-        <v>1457</v>
       </c>
       <c r="X24" t="s">
         <v>276</v>
@@ -22191,7 +22194,7 @@
         <v>554</v>
       </c>
       <c r="L25" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -22202,7 +22205,7 @@
         <v>547</v>
       </c>
       <c r="L26" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -22213,7 +22216,7 @@
         <v>1325</v>
       </c>
       <c r="L27" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="N27" t="s">
         <v>1028</v>
@@ -22230,7 +22233,7 @@
         <v>1326</v>
       </c>
       <c r="L28" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="N28" t="s">
         <v>1028</v>
@@ -22254,10 +22257,10 @@
         <v>390</v>
       </c>
       <c r="K29" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L29" t="s">
         <v>1462</v>
-      </c>
-      <c r="L29" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -22266,10 +22269,10 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="J30" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="K30" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -22287,10 +22290,10 @@
         <v>394</v>
       </c>
       <c r="K31" t="s">
+        <v>1464</v>
+      </c>
+      <c r="L31" t="s">
         <v>1465</v>
-      </c>
-      <c r="L31" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -22299,13 +22302,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J32" t="s">
         <v>1467</v>
       </c>
-      <c r="J32" t="s">
-        <v>1468</v>
-      </c>
       <c r="K32" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="33" spans="3:12">
@@ -22319,18 +22322,18 @@
         <v>362</v>
       </c>
       <c r="K33" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="L33" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="34" spans="3:12">
       <c r="J34" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="K34" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="35" spans="3:12">
@@ -22344,21 +22347,21 @@
         <v>367</v>
       </c>
       <c r="K35" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="L35" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="36" spans="3:12">
       <c r="I36" t="s">
+        <v>1471</v>
+      </c>
+      <c r="J36" t="s">
         <v>1472</v>
       </c>
-      <c r="J36" t="s">
-        <v>1473</v>
-      </c>
       <c r="K36" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="37" spans="3:12">
@@ -22372,18 +22375,18 @@
         <v>354</v>
       </c>
       <c r="K37" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="L37" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="38" spans="3:12">
       <c r="J38" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="K38" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="39" spans="3:12">
@@ -22397,21 +22400,21 @@
         <v>358</v>
       </c>
       <c r="K39" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="L39" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="40" spans="3:12">
       <c r="I40" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J40" t="s">
         <v>1477</v>
       </c>
-      <c r="J40" t="s">
-        <v>1478</v>
-      </c>
       <c r="K40" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="41" spans="3:12">
@@ -22419,24 +22422,24 @@
         <v>1407</v>
       </c>
       <c r="D41" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="J41" t="s">
         <v>426</v>
       </c>
       <c r="K41" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="L41" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="42" spans="3:12">
       <c r="J42" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="K42" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="43" spans="3:12">
@@ -22444,27 +22447,27 @@
         <v>1407</v>
       </c>
       <c r="D43" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="J43" t="s">
         <v>430</v>
       </c>
       <c r="K43" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="L43" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="44" spans="3:12">
       <c r="I44" t="s">
+        <v>1482</v>
+      </c>
+      <c r="J44" t="s">
         <v>1483</v>
       </c>
-      <c r="J44" t="s">
-        <v>1484</v>
-      </c>
       <c r="K44" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="45" spans="3:12">
@@ -22472,24 +22475,24 @@
         <v>1407</v>
       </c>
       <c r="D45" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="J45" t="s">
+        <v>1484</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L45" t="s">
         <v>1485</v>
-      </c>
-      <c r="K45" t="s">
-        <v>1462</v>
-      </c>
-      <c r="L45" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="46" spans="3:12">
       <c r="J46" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="K46" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="47" spans="3:12">
@@ -22497,27 +22500,27 @@
         <v>1407</v>
       </c>
       <c r="D47" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="J47" t="s">
+        <v>1487</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1464</v>
+      </c>
+      <c r="L47" t="s">
         <v>1488</v>
-      </c>
-      <c r="K47" t="s">
-        <v>1465</v>
-      </c>
-      <c r="L47" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="48" spans="3:12">
       <c r="I48" t="s">
+        <v>1489</v>
+      </c>
+      <c r="J48" t="s">
         <v>1490</v>
       </c>
-      <c r="J48" t="s">
-        <v>1491</v>
-      </c>
       <c r="K48" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="49" spans="3:12">
@@ -22531,18 +22534,18 @@
         <v>380</v>
       </c>
       <c r="K49" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="L49" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="50" spans="3:12">
       <c r="J50" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="K50" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="51" spans="3:12">
@@ -22556,21 +22559,21 @@
         <v>385</v>
       </c>
       <c r="K51" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="L51" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="52" spans="3:12">
       <c r="I52" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J52" t="s">
         <v>1495</v>
       </c>
-      <c r="J52" t="s">
-        <v>1496</v>
-      </c>
       <c r="K52" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="53" spans="3:12">
@@ -22584,18 +22587,18 @@
         <v>372</v>
       </c>
       <c r="K53" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="L53" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="54" spans="3:12">
       <c r="J54" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="K54" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="55" spans="3:12">
@@ -22609,21 +22612,21 @@
         <v>376</v>
       </c>
       <c r="K55" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="L55" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="56" spans="3:12">
       <c r="I56" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J56" t="s">
         <v>1500</v>
       </c>
-      <c r="J56" t="s">
-        <v>1501</v>
-      </c>
       <c r="K56" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="57" spans="3:12" ht="17" customHeight="1">
@@ -22637,18 +22640,18 @@
         <v>344</v>
       </c>
       <c r="K57" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="L57" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="58" spans="3:12" ht="17" customHeight="1">
       <c r="J58" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="K58" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="59" spans="3:12">
@@ -22662,21 +22665,21 @@
         <v>349</v>
       </c>
       <c r="K59" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="L59" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="60" spans="3:12">
       <c r="I60" t="s">
+        <v>1504</v>
+      </c>
+      <c r="J60" t="s">
         <v>1505</v>
       </c>
-      <c r="J60" t="s">
-        <v>1506</v>
-      </c>
       <c r="K60" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="61" spans="3:12">
@@ -22684,24 +22687,24 @@
         <v>1407</v>
       </c>
       <c r="D61" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="J61" t="s">
         <v>416</v>
       </c>
       <c r="K61" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="L61" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="62" spans="3:12">
       <c r="J62" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="K62" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="63" spans="3:12">
@@ -22709,27 +22712,27 @@
         <v>1407</v>
       </c>
       <c r="D63" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="J63" t="s">
         <v>421</v>
       </c>
       <c r="K63" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="L63" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="64" spans="3:12">
       <c r="I64" t="s">
+        <v>1509</v>
+      </c>
+      <c r="J64" t="s">
         <v>1510</v>
       </c>
-      <c r="J64" t="s">
-        <v>1511</v>
-      </c>
       <c r="K64" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="65" spans="2:24">
@@ -22737,24 +22740,24 @@
         <v>1407</v>
       </c>
       <c r="D65" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="J65" t="s">
+        <v>1511</v>
+      </c>
+      <c r="K65" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L65" t="s">
         <v>1512</v>
-      </c>
-      <c r="K65" t="s">
-        <v>1462</v>
-      </c>
-      <c r="L65" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="66" spans="2:24">
       <c r="J66" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="K66" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="67" spans="2:24">
@@ -22762,27 +22765,27 @@
         <v>1407</v>
       </c>
       <c r="D67" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="J67" t="s">
+        <v>1514</v>
+      </c>
+      <c r="K67" t="s">
+        <v>1464</v>
+      </c>
+      <c r="L67" t="s">
         <v>1515</v>
-      </c>
-      <c r="K67" t="s">
-        <v>1465</v>
-      </c>
-      <c r="L67" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="68" spans="2:24">
       <c r="I68" t="s">
+        <v>1516</v>
+      </c>
+      <c r="J68" t="s">
         <v>1517</v>
       </c>
-      <c r="J68" t="s">
-        <v>1518</v>
-      </c>
       <c r="K68" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="70" spans="2:24">
@@ -22793,13 +22796,13 @@
         <v>1412</v>
       </c>
       <c r="E70" t="s">
+        <v>1518</v>
+      </c>
+      <c r="J70" t="s">
         <v>1519</v>
       </c>
-      <c r="J70" t="s">
+      <c r="X70" t="s">
         <v>1520</v>
-      </c>
-      <c r="X70" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="71" spans="2:24">
@@ -22807,7 +22810,7 @@
         <v>1412</v>
       </c>
       <c r="E71" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="72" spans="2:24">
@@ -22815,24 +22818,24 @@
         <v>1412</v>
       </c>
       <c r="E72" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="73" spans="2:24">
       <c r="B73" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C73" t="s">
         <v>1407</v>
       </c>
       <c r="D73" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1417</v>
+      </c>
+      <c r="J73" t="s">
         <v>1525</v>
-      </c>
-      <c r="E73" t="s">
-        <v>1418</v>
-      </c>
-      <c r="J73" t="s">
-        <v>1526</v>
       </c>
       <c r="P73" t="s">
         <v>1175</v>
@@ -22844,7 +22847,7 @@
     </row>
     <row r="74" spans="2:24">
       <c r="B74" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C74" t="s">
         <v>1407</v>
@@ -22853,7 +22856,7 @@
         <v>1159</v>
       </c>
       <c r="J74" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="P74" t="s">
         <v>1176</v>
@@ -22865,7 +22868,7 @@
     </row>
     <row r="75" spans="2:24">
       <c r="B75" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C75" t="s">
         <v>1407</v>
@@ -22874,7 +22877,7 @@
         <v>1160</v>
       </c>
       <c r="J75" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="P75" t="s">
         <v>1177</v>
@@ -22886,25 +22889,25 @@
     </row>
     <row r="76" spans="2:24">
       <c r="B76" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C76" t="s">
         <v>1407</v>
       </c>
       <c r="D76" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="F76">
-        <v>11</v>
-      </c>
-      <c r="J76" s="1" t="s">
+      <c r="K76" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P76" t="s">
         <v>1530</v>
-      </c>
-      <c r="K76" t="s">
-        <v>1528</v>
-      </c>
-      <c r="P76" t="s">
-        <v>1531</v>
       </c>
       <c r="Q76" t="str">
         <f t="shared" si="0"/>
@@ -22916,22 +22919,22 @@
     </row>
     <row r="77" spans="2:24">
       <c r="B77" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D77" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F77">
         <v>5</v>
       </c>
       <c r="J77" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P77" t="s">
         <v>1533</v>
-      </c>
-      <c r="K77" t="s">
-        <v>1528</v>
-      </c>
-      <c r="P77" t="s">
-        <v>1534</v>
       </c>
       <c r="Q77" t="str">
         <f t="shared" si="0"/>
@@ -22943,22 +22946,22 @@
     </row>
     <row r="78" spans="2:24">
       <c r="B78" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D78" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F78">
         <v>5</v>
       </c>
       <c r="J78" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P78" t="s">
         <v>1536</v>
-      </c>
-      <c r="K78" t="s">
-        <v>1528</v>
-      </c>
-      <c r="P78" t="s">
-        <v>1537</v>
       </c>
       <c r="Q78" t="str">
         <f t="shared" si="0"/>
@@ -22970,22 +22973,22 @@
     </row>
     <row r="79" spans="2:24">
       <c r="B79" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D79" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F79">
         <v>6</v>
       </c>
       <c r="J79" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P79" t="s">
         <v>1538</v>
-      </c>
-      <c r="K79" t="s">
-        <v>1527</v>
-      </c>
-      <c r="P79" t="s">
-        <v>1539</v>
       </c>
       <c r="Q79" t="str">
         <f t="shared" si="0"/>
@@ -22997,22 +23000,22 @@
     </row>
     <row r="80" spans="2:24">
       <c r="B80" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D80" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F80">
         <v>6</v>
       </c>
       <c r="J80" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P80" t="s">
         <v>1540</v>
-      </c>
-      <c r="K80" t="s">
-        <v>1527</v>
-      </c>
-      <c r="P80" t="s">
-        <v>1541</v>
       </c>
       <c r="Q80" t="str">
         <f t="shared" si="0"/>
@@ -23024,25 +23027,25 @@
     </row>
     <row r="81" spans="2:24">
       <c r="B81" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C81" t="s">
         <v>1407</v>
       </c>
       <c r="D81" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F81">
         <v>6</v>
       </c>
       <c r="J81" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P81" t="s">
         <v>1542</v>
-      </c>
-      <c r="K81" t="s">
-        <v>1527</v>
-      </c>
-      <c r="P81" t="s">
-        <v>1543</v>
       </c>
       <c r="Q81" t="str">
         <f t="shared" si="0"/>
@@ -23054,22 +23057,22 @@
     </row>
     <row r="82" spans="2:24">
       <c r="B82" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D82" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F82">
         <v>4</v>
       </c>
       <c r="J82" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P82" t="s">
         <v>1544</v>
-      </c>
-      <c r="K82" t="s">
-        <v>1527</v>
-      </c>
-      <c r="P82" t="s">
-        <v>1545</v>
       </c>
       <c r="Q82" t="str">
         <f t="shared" si="0"/>
@@ -23081,22 +23084,22 @@
     </row>
     <row r="83" spans="2:24">
       <c r="B83" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D83" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F83">
         <v>4</v>
       </c>
       <c r="J83" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P83" t="s">
         <v>1546</v>
-      </c>
-      <c r="K83" t="s">
-        <v>1527</v>
-      </c>
-      <c r="P83" t="s">
-        <v>1547</v>
       </c>
       <c r="Q83" t="str">
         <f t="shared" si="0"/>
@@ -23108,14 +23111,14 @@
     </row>
     <row r="84" spans="2:24">
       <c r="B84" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D84" s="2"/>
       <c r="J84" s="1" t="s">
         <v>1162</v>
       </c>
       <c r="K84" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="P84" t="s">
         <v>1178</v>
@@ -23127,22 +23130,22 @@
     </row>
     <row r="85" spans="2:24">
       <c r="B85" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D85" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="J85" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="K85" t="s">
+        <v>1525</v>
+      </c>
+      <c r="P85" t="s">
         <v>1548</v>
-      </c>
-      <c r="K85" t="s">
-        <v>1526</v>
-      </c>
-      <c r="P85" t="s">
-        <v>1549</v>
       </c>
       <c r="Q85" t="str">
         <f t="shared" si="0"/>
@@ -23154,55 +23157,55 @@
     </row>
     <row r="86" spans="2:24">
       <c r="B86" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C86" t="s">
         <v>1407</v>
       </c>
       <c r="D86" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E86" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="J86" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1525</v>
+      </c>
+      <c r="P86" t="s">
         <v>1550</v>
-      </c>
-      <c r="K86" t="s">
-        <v>1526</v>
-      </c>
-      <c r="P86" t="s">
-        <v>1551</v>
       </c>
       <c r="Q86" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some 'line along proximal-distal axis of metacarpal bone of digit 3')</v>
       </c>
       <c r="X86" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="87" spans="2:24">
       <c r="B87" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D87" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="J87" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1525</v>
+      </c>
+      <c r="P87" t="s">
         <v>1552</v>
-      </c>
-      <c r="K87" t="s">
-        <v>1526</v>
-      </c>
-      <c r="P87" t="s">
-        <v>1553</v>
       </c>
       <c r="Q87" t="str">
         <f t="shared" si="0"/>
@@ -23214,22 +23217,22 @@
     </row>
     <row r="88" spans="2:24">
       <c r="B88" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D88" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="F88">
         <v>3</v>
       </c>
       <c r="J88" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P88" t="s">
         <v>1555</v>
-      </c>
-      <c r="K88" t="s">
-        <v>1528</v>
-      </c>
-      <c r="P88" t="s">
-        <v>1556</v>
       </c>
       <c r="Q88" t="str">
         <f t="shared" si="0"/>
@@ -23241,22 +23244,22 @@
     </row>
     <row r="89" spans="2:24">
       <c r="B89" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D89" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F89">
         <v>3</v>
       </c>
       <c r="J89" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="K89" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P89" t="s">
         <v>1557</v>
-      </c>
-      <c r="K89" t="s">
-        <v>1528</v>
-      </c>
-      <c r="P89" t="s">
-        <v>1558</v>
       </c>
       <c r="Q89" t="str">
         <f t="shared" si="0"/>
@@ -23268,22 +23271,22 @@
     </row>
     <row r="90" spans="2:24">
       <c r="B90" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D90" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F90">
         <v>3</v>
       </c>
       <c r="J90" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K90" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P90" t="s">
         <v>1559</v>
-      </c>
-      <c r="K90" t="s">
-        <v>1528</v>
-      </c>
-      <c r="P90" t="s">
-        <v>1560</v>
       </c>
       <c r="Q90" t="str">
         <f t="shared" si="0"/>
@@ -23295,22 +23298,22 @@
     </row>
     <row r="91" spans="2:24">
       <c r="B91" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D91" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F91">
         <v>3</v>
       </c>
       <c r="J91" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="K91" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P91" t="s">
         <v>1561</v>
-      </c>
-      <c r="K91" t="s">
-        <v>1528</v>
-      </c>
-      <c r="P91" t="s">
-        <v>1562</v>
       </c>
       <c r="Q91" t="str">
         <f t="shared" si="0"/>
@@ -23322,25 +23325,28 @@
     </row>
     <row r="92" spans="2:24">
       <c r="B92" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C92" t="s">
         <v>1407</v>
       </c>
       <c r="D92" t="s">
-        <v>1563</v>
+        <v>1562</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1441</v>
       </c>
       <c r="F92">
         <v>11</v>
       </c>
       <c r="J92" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K92" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P92" t="s">
         <v>1564</v>
-      </c>
-      <c r="K92" t="s">
-        <v>1528</v>
-      </c>
-      <c r="P92" t="s">
-        <v>1565</v>
       </c>
       <c r="Q92" t="str">
         <f t="shared" si="0"/>
@@ -23352,22 +23358,22 @@
     </row>
     <row r="93" spans="2:24">
       <c r="B93" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D93" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="F93">
         <v>5</v>
       </c>
       <c r="J93" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K93" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P93" t="s">
         <v>1566</v>
-      </c>
-      <c r="K93" t="s">
-        <v>1528</v>
-      </c>
-      <c r="P93" t="s">
-        <v>1567</v>
       </c>
       <c r="Q93" t="str">
         <f t="shared" si="0"/>
@@ -23379,22 +23385,22 @@
     </row>
     <row r="94" spans="2:24">
       <c r="B94" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D94" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="F94">
         <v>5</v>
       </c>
       <c r="J94" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P94" t="s">
         <v>1569</v>
-      </c>
-      <c r="K94" t="s">
-        <v>1528</v>
-      </c>
-      <c r="P94" t="s">
-        <v>1570</v>
       </c>
       <c r="Q94" t="str">
         <f t="shared" si="0"/>
@@ -23406,130 +23412,130 @@
     </row>
     <row r="95" spans="2:24">
       <c r="B95" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C95" t="s">
         <v>1407</v>
       </c>
       <c r="D95" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E95" t="s">
         <v>1571</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1572</v>
       </c>
       <c r="F95">
         <v>5</v>
       </c>
       <c r="I95" t="s">
+        <v>1572</v>
+      </c>
+      <c r="J95" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="K95" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P95" t="s">
         <v>1574</v>
-      </c>
-      <c r="K95" t="s">
-        <v>1528</v>
-      </c>
-      <c r="P95" t="s">
-        <v>1575</v>
       </c>
       <c r="Q95" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some 'line along medial-lateral axis of proximal surface some metatarsal bone of digit 3')</v>
       </c>
       <c r="X95" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="96" spans="2:24">
       <c r="B96" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C96" t="s">
         <v>1407</v>
       </c>
       <c r="D96" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E96" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="F96">
         <v>3</v>
       </c>
       <c r="I96" t="s">
+        <v>1576</v>
+      </c>
+      <c r="J96" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="K96" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P96" t="s">
         <v>1578</v>
-      </c>
-      <c r="K96" t="s">
-        <v>1528</v>
-      </c>
-      <c r="P96" t="s">
-        <v>1579</v>
       </c>
       <c r="Q96" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some 'line along medial-lateral axis of anterior surface some metacarpal bone of digit 3')</v>
       </c>
       <c r="X96" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="97" spans="2:24">
       <c r="B97" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C97" t="s">
         <v>1407</v>
       </c>
       <c r="D97" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E97" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="F97">
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="J97" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K97" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P97" t="s">
         <v>1580</v>
-      </c>
-      <c r="K97" t="s">
-        <v>1528</v>
-      </c>
-      <c r="P97" t="s">
-        <v>1581</v>
       </c>
       <c r="Q97" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some 'line along medial-lateral axis of anterior surface some metatarsal bone of digit 3')</v>
       </c>
       <c r="X97" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="98" spans="2:24">
       <c r="B98" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D98" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="F98">
         <v>6</v>
       </c>
       <c r="J98" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K98" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P98" t="s">
         <v>1582</v>
-      </c>
-      <c r="K98" t="s">
-        <v>1527</v>
-      </c>
-      <c r="P98" t="s">
-        <v>1583</v>
       </c>
       <c r="Q98" t="str">
         <f t="shared" si="0"/>
@@ -23541,22 +23547,22 @@
     </row>
     <row r="99" spans="2:24">
       <c r="B99" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D99" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="F99">
         <v>6</v>
       </c>
       <c r="J99" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K99" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P99" t="s">
         <v>1584</v>
-      </c>
-      <c r="K99" t="s">
-        <v>1527</v>
-      </c>
-      <c r="P99" t="s">
-        <v>1585</v>
       </c>
       <c r="Q99" t="str">
         <f t="shared" si="0"/>
@@ -23568,25 +23574,25 @@
     </row>
     <row r="100" spans="2:24">
       <c r="B100" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C100" t="s">
         <v>1407</v>
       </c>
       <c r="D100" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F100">
         <v>6</v>
       </c>
       <c r="J100" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K100" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P100" t="s">
         <v>1586</v>
-      </c>
-      <c r="K100" t="s">
-        <v>1527</v>
-      </c>
-      <c r="P100" t="s">
-        <v>1587</v>
       </c>
       <c r="Q100" t="str">
         <f t="shared" si="0"/>
@@ -23598,22 +23604,22 @@
     </row>
     <row r="101" spans="2:24">
       <c r="B101" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D101" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="F101">
         <v>4</v>
       </c>
       <c r="J101" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="K101" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P101" t="s">
         <v>1588</v>
-      </c>
-      <c r="K101" t="s">
-        <v>1527</v>
-      </c>
-      <c r="P101" t="s">
-        <v>1589</v>
       </c>
       <c r="Q101" t="str">
         <f t="shared" si="0"/>
@@ -23625,22 +23631,22 @@
     </row>
     <row r="102" spans="2:24">
       <c r="B102" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D102" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="F102">
         <v>4</v>
       </c>
       <c r="J102" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="K102" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P102" t="s">
         <v>1590</v>
-      </c>
-      <c r="K102" t="s">
-        <v>1527</v>
-      </c>
-      <c r="P102" t="s">
-        <v>1591</v>
       </c>
       <c r="Q102" t="str">
         <f t="shared" si="0"/>
@@ -23652,13 +23658,13 @@
     </row>
     <row r="103" spans="2:24">
       <c r="B103" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>1171</v>
       </c>
       <c r="K103" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="P103" t="s">
         <v>1179</v>
@@ -23670,22 +23676,22 @@
     </row>
     <row r="104" spans="2:24">
       <c r="B104" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D104" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="F104">
         <v>1</v>
       </c>
       <c r="J104" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="K104" t="s">
+        <v>1525</v>
+      </c>
+      <c r="P104" t="s">
         <v>1592</v>
-      </c>
-      <c r="K104" t="s">
-        <v>1526</v>
-      </c>
-      <c r="P104" t="s">
-        <v>1593</v>
       </c>
       <c r="Q104" t="str">
         <f t="shared" si="0"/>
@@ -23697,28 +23703,28 @@
     </row>
     <row r="105" spans="2:24">
       <c r="B105" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C105" t="s">
         <v>1407</v>
       </c>
       <c r="D105" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E105" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F105">
         <v>1</v>
       </c>
       <c r="J105" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="K105" t="s">
+        <v>1525</v>
+      </c>
+      <c r="P105" t="s">
         <v>1594</v>
-      </c>
-      <c r="K105" t="s">
-        <v>1526</v>
-      </c>
-      <c r="P105" t="s">
-        <v>1595</v>
       </c>
       <c r="Q105" t="str">
         <f t="shared" si="0"/>
@@ -23730,22 +23736,22 @@
     </row>
     <row r="106" spans="2:24">
       <c r="B106" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D106" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="F106">
         <v>1</v>
       </c>
       <c r="J106" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K106" t="s">
+        <v>1525</v>
+      </c>
+      <c r="P106" t="s">
         <v>1596</v>
-      </c>
-      <c r="K106" t="s">
-        <v>1526</v>
-      </c>
-      <c r="P106" t="s">
-        <v>1597</v>
       </c>
       <c r="Q106" t="str">
         <f t="shared" si="0"/>
@@ -23757,94 +23763,94 @@
     </row>
     <row r="107" spans="2:24">
       <c r="B107" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D107" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E107" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="F107">
         <v>12</v>
       </c>
       <c r="I107" t="s">
+        <v>1598</v>
+      </c>
+      <c r="J107" s="1" t="s">
         <v>1599</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="K107" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P107" t="s">
         <v>1600</v>
-      </c>
-      <c r="K107" t="s">
-        <v>1527</v>
-      </c>
-      <c r="P107" t="s">
-        <v>1601</v>
       </c>
       <c r="Q107" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some 'line along anterior-posterior axis of distal keel of metacarpal bone of digit 3')</v>
       </c>
       <c r="X107" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="108" spans="2:24">
       <c r="B108" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C108" t="s">
         <v>1407</v>
       </c>
       <c r="D108" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E108" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="F108">
         <v>12</v>
       </c>
       <c r="I108" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="J108" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="K108" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P108" t="s">
         <v>1602</v>
-      </c>
-      <c r="K108" t="s">
-        <v>1527</v>
-      </c>
-      <c r="P108" t="s">
-        <v>1603</v>
       </c>
       <c r="Q108" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some 'line along anterior-posterior axis of distal keel of metatarsal bone of digit 3')</v>
       </c>
       <c r="X108" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="109" spans="2:24">
       <c r="B109" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C109" t="s">
         <v>1407</v>
       </c>
       <c r="D109" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F109">
         <v>13</v>
       </c>
       <c r="J109" t="s">
+        <v>1603</v>
+      </c>
+      <c r="K109" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P109" t="s">
         <v>1604</v>
-      </c>
-      <c r="K109" t="s">
-        <v>1527</v>
-      </c>
-      <c r="P109" t="s">
-        <v>1605</v>
       </c>
       <c r="Q109" t="str">
         <f t="shared" si="0"/>
@@ -23853,25 +23859,25 @@
     </row>
     <row r="110" spans="2:24">
       <c r="B110" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C110" t="s">
         <v>1407</v>
       </c>
       <c r="D110" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F110">
         <v>14</v>
       </c>
       <c r="J110" t="s">
+        <v>1605</v>
+      </c>
+      <c r="K110" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P110" t="s">
         <v>1606</v>
-      </c>
-      <c r="K110" t="s">
-        <v>1527</v>
-      </c>
-      <c r="P110" t="s">
-        <v>1607</v>
       </c>
       <c r="Q110" t="str">
         <f t="shared" si="0"/>
@@ -23880,22 +23886,22 @@
     </row>
     <row r="111" spans="2:24">
       <c r="B111" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D111" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F111">
         <v>13</v>
       </c>
       <c r="J111" t="s">
+        <v>1607</v>
+      </c>
+      <c r="K111" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P111" t="s">
         <v>1608</v>
-      </c>
-      <c r="K111" t="s">
-        <v>1527</v>
-      </c>
-      <c r="P111" t="s">
-        <v>1609</v>
       </c>
       <c r="Q111" t="str">
         <f t="shared" si="0"/>
@@ -23904,22 +23910,22 @@
     </row>
     <row r="112" spans="2:24">
       <c r="B112" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D112" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F112">
         <v>14</v>
       </c>
       <c r="J112" t="s">
+        <v>1609</v>
+      </c>
+      <c r="K112" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P112" t="s">
         <v>1610</v>
-      </c>
-      <c r="K112" t="s">
-        <v>1527</v>
-      </c>
-      <c r="P112" t="s">
-        <v>1611</v>
       </c>
       <c r="Q112" t="str">
         <f t="shared" si="0"/>
@@ -23928,61 +23934,61 @@
     </row>
     <row r="113" spans="2:24">
       <c r="B113" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C113" t="s">
         <v>1407</v>
       </c>
       <c r="D113" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E113" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="F113">
         <v>5</v>
       </c>
       <c r="I113" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="J113" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="K113" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P113" t="s">
         <v>1612</v>
-      </c>
-      <c r="K113" t="s">
-        <v>1528</v>
-      </c>
-      <c r="P113" t="s">
-        <v>1613</v>
       </c>
       <c r="Q113" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some 'line along medial-lateral axis of proximal surface some metacarpal bone of digit 3')</v>
       </c>
       <c r="X113" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="114" spans="2:24">
       <c r="B114" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C114" t="s">
         <v>1407</v>
       </c>
       <c r="D114" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F114">
         <v>2</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="K114" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="P114" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="Q114" t="str">
         <f t="shared" si="0"/>
@@ -23991,22 +23997,22 @@
     </row>
     <row r="115" spans="2:24">
       <c r="B115" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D115" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F115">
         <v>2</v>
       </c>
       <c r="J115" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="K115" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P115" t="s">
         <v>1615</v>
-      </c>
-      <c r="K115" t="s">
-        <v>1527</v>
-      </c>
-      <c r="P115" t="s">
-        <v>1616</v>
       </c>
       <c r="Q115" t="str">
         <f t="shared" si="0"/>
@@ -24015,22 +24021,22 @@
     </row>
     <row r="116" spans="2:24">
       <c r="B116" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D116" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F116">
         <v>2</v>
       </c>
       <c r="J116" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="K116" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P116" t="s">
         <v>1617</v>
-      </c>
-      <c r="K116" t="s">
-        <v>1527</v>
-      </c>
-      <c r="P116" t="s">
-        <v>1618</v>
       </c>
       <c r="Q116" t="str">
         <f t="shared" si="0"/>
@@ -24039,25 +24045,25 @@
     </row>
     <row r="117" spans="2:24">
       <c r="B117" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C117" t="s">
         <v>1407</v>
       </c>
       <c r="D117" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F117">
         <v>2</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="K117" s="25" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="P117" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="Q117" t="str">
         <f t="shared" si="0"/>
@@ -24066,22 +24072,22 @@
     </row>
     <row r="118" spans="2:24">
       <c r="B118" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D118" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="F118">
         <v>2</v>
       </c>
       <c r="J118" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="K118" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P118" t="s">
         <v>1620</v>
-      </c>
-      <c r="K118" t="s">
-        <v>1527</v>
-      </c>
-      <c r="P118" t="s">
-        <v>1621</v>
       </c>
       <c r="Q118" t="str">
         <f t="shared" si="0"/>
@@ -24090,20 +24096,20 @@
     </row>
     <row r="119" spans="2:24">
       <c r="D119" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="F119" s="1">
         <v>2</v>
       </c>
       <c r="I119" s="1"/>
       <c r="J119" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K119" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P119" t="s">
         <v>1622</v>
-      </c>
-      <c r="K119" t="s">
-        <v>1527</v>
-      </c>
-      <c r="P119" t="s">
-        <v>1623</v>
       </c>
       <c r="Q119" t="str">
         <f t="shared" si="0"/>
@@ -24118,17 +24124,17 @@
         <v>1407</v>
       </c>
       <c r="D120" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F120" s="1">
         <v>8</v>
       </c>
       <c r="I120" s="1"/>
       <c r="J120" s="1" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="K120" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="L120" s="1"/>
       <c r="X120" t="s">
@@ -24140,17 +24146,17 @@
         <v>1407</v>
       </c>
       <c r="D121" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F121" s="2">
         <v>8</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="K121" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="L121" s="2"/>
       <c r="X121" t="s">
@@ -24159,17 +24165,17 @@
     </row>
     <row r="122" spans="2:24">
       <c r="D122" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F122" s="1">
         <v>9</v>
       </c>
       <c r="I122" s="1"/>
       <c r="J122" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="K122" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="L122" s="1"/>
       <c r="X122" t="s">
@@ -24181,17 +24187,17 @@
         <v>1407</v>
       </c>
       <c r="D123" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F123" s="1">
         <v>9</v>
       </c>
       <c r="I123" s="1"/>
       <c r="J123" s="1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="K123" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="L123" s="1"/>
       <c r="X123" t="s">
@@ -24200,17 +24206,17 @@
     </row>
     <row r="124" spans="2:24">
       <c r="D124" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F124" s="1">
         <v>16</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="K124" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="L124" s="1"/>
       <c r="X124" t="s">
@@ -24219,27 +24225,27 @@
     </row>
     <row r="125" spans="2:24">
       <c r="B125" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C125" t="s">
         <v>1407</v>
       </c>
       <c r="D125" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F125" s="1">
         <v>4</v>
       </c>
       <c r="I125" s="1"/>
       <c r="J125" s="1" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="K125" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="L125" s="1"/>
       <c r="P125" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="Q125" t="str">
         <f t="shared" si="0"/>
@@ -24251,27 +24257,27 @@
     </row>
     <row r="126" spans="2:24">
       <c r="B126" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C126" t="s">
         <v>1407</v>
       </c>
       <c r="D126" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F126" s="1">
         <v>4</v>
       </c>
       <c r="I126" s="1"/>
       <c r="J126" s="1" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="K126" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="L126" s="1"/>
       <c r="P126" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="Q126" t="str">
         <f t="shared" si="0"/>
@@ -24393,13 +24399,13 @@
         <v>1407</v>
       </c>
       <c r="D138" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F138">
         <v>7</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="X138" t="s">
         <v>1180</v>
@@ -24407,13 +24413,13 @@
     </row>
     <row r="139" spans="3:24">
       <c r="D139" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F139">
         <v>10</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="X139" t="s">
         <v>1180</v>
@@ -24424,13 +24430,13 @@
         <v>1407</v>
       </c>
       <c r="D140" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F140">
         <v>10</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="X140" t="s">
         <v>1180</v>
@@ -24441,13 +24447,13 @@
         <v>1407</v>
       </c>
       <c r="D141" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F141">
         <v>7</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="X141" t="s">
         <v>1180</v>
@@ -24455,16 +24461,16 @@
     </row>
     <row r="142" spans="3:24">
       <c r="D142" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E142" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I142" t="s">
         <v>1637</v>
       </c>
-      <c r="I142" t="s">
+      <c r="J142" s="1" t="s">
         <v>1638</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>1639</v>
       </c>
       <c r="X142" t="s">
         <v>1181</v>
@@ -24472,14 +24478,14 @@
     </row>
     <row r="143" spans="3:24">
       <c r="D143" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E143" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="I143" s="1"/>
       <c r="J143" s="1" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="X143" t="s">
         <v>1181</v>
@@ -24487,13 +24493,13 @@
     </row>
     <row r="144" spans="3:24">
       <c r="D144" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E144" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="X144" t="s">
         <v>1181</v>
@@ -24501,13 +24507,13 @@
     </row>
     <row r="145" spans="3:24">
       <c r="D145" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E145" t="s">
+        <v>1642</v>
+      </c>
+      <c r="J145" s="1" t="s">
         <v>1643</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>1644</v>
       </c>
       <c r="X145" t="s">
         <v>1181</v>
@@ -24515,13 +24521,13 @@
     </row>
     <row r="146" spans="3:24">
       <c r="D146" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E146" t="s">
+        <v>1644</v>
+      </c>
+      <c r="J146" s="1" t="s">
         <v>1645</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>1646</v>
       </c>
       <c r="X146" t="s">
         <v>1181</v>
@@ -24529,16 +24535,16 @@
     </row>
     <row r="147" spans="3:24">
       <c r="D147" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E147" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="I147" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J147" s="1" t="s">
         <v>1647</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>1648</v>
       </c>
       <c r="X147" t="s">
         <v>1181</v>
@@ -24546,13 +24552,13 @@
     </row>
     <row r="148" spans="3:24">
       <c r="D148" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E148" t="s">
+        <v>1648</v>
+      </c>
+      <c r="J148" s="1" t="s">
         <v>1649</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>1650</v>
       </c>
       <c r="X148" t="s">
         <v>1181</v>
@@ -24563,16 +24569,16 @@
         <v>1407</v>
       </c>
       <c r="D149" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E149" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F149">
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="K149" t="s">
         <v>1339</v>
@@ -24580,7 +24586,7 @@
     </row>
     <row r="150" spans="3:24">
       <c r="D150" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>1390</v>
@@ -24591,10 +24597,10 @@
         <v>1407</v>
       </c>
       <c r="D151" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E151" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="J151" t="s">
         <v>1391</v>
@@ -24608,19 +24614,19 @@
         <v>1407</v>
       </c>
       <c r="D152" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E152" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="F152">
         <v>5</v>
       </c>
       <c r="I152" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J152" t="s">
         <v>1654</v>
-      </c>
-      <c r="J152" t="s">
-        <v>1655</v>
       </c>
     </row>
     <row r="153" spans="3:24">
@@ -24628,16 +24634,16 @@
         <v>1407</v>
       </c>
       <c r="D153" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E153" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I153" t="s">
         <v>1656</v>
       </c>
-      <c r="I153" t="s">
+      <c r="J153" t="s">
         <v>1657</v>
-      </c>
-      <c r="J153" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="154" spans="3:24">
@@ -24645,19 +24651,19 @@
         <v>1407</v>
       </c>
       <c r="D154" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E154" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="F154">
         <v>10</v>
       </c>
       <c r="I154" t="s">
+        <v>1659</v>
+      </c>
+      <c r="J154" t="s">
         <v>1660</v>
-      </c>
-      <c r="J154" t="s">
-        <v>1661</v>
       </c>
     </row>
     <row r="155" spans="3:24">
@@ -24665,22 +24671,22 @@
         <v>1407</v>
       </c>
       <c r="D155" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E155" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="F155">
         <v>3</v>
       </c>
       <c r="G155" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I155" t="s">
         <v>1662</v>
       </c>
-      <c r="I155" t="s">
+      <c r="J155" t="s">
         <v>1663</v>
-      </c>
-      <c r="J155" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="156" spans="3:24">
@@ -24688,13 +24694,13 @@
         <v>1407</v>
       </c>
       <c r="D156" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E156" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="J156" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="157" spans="3:24">
@@ -24702,19 +24708,19 @@
         <v>1407</v>
       </c>
       <c r="D157" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E157" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="F157">
         <v>7</v>
       </c>
       <c r="I157" t="s">
+        <v>1665</v>
+      </c>
+      <c r="J157" t="s">
         <v>1666</v>
-      </c>
-      <c r="J157" t="s">
-        <v>1667</v>
       </c>
     </row>
     <row r="158" spans="3:24">
@@ -24722,13 +24728,13 @@
         <v>1407</v>
       </c>
       <c r="D158" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="F158">
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K158" t="s">
         <v>1339</v>
@@ -24739,7 +24745,7 @@
         <v>1407</v>
       </c>
       <c r="D159" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="F159">
         <v>4</v>
@@ -24750,16 +24756,16 @@
         <v>1407</v>
       </c>
       <c r="D160" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="F160">
         <v>6</v>
       </c>
       <c r="I160" t="s">
+        <v>1668</v>
+      </c>
+      <c r="J160" t="s">
         <v>1669</v>
-      </c>
-      <c r="J160" t="s">
-        <v>1670</v>
       </c>
     </row>
     <row r="161" spans="3:11">
@@ -24767,16 +24773,16 @@
         <v>1407</v>
       </c>
       <c r="D161" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="F161">
         <v>8</v>
       </c>
       <c r="I161" t="s">
+        <v>1670</v>
+      </c>
+      <c r="J161" t="s">
         <v>1671</v>
-      </c>
-      <c r="J161" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="162" spans="3:11">
@@ -24784,16 +24790,16 @@
         <v>1407</v>
       </c>
       <c r="D162" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="F162">
         <v>9</v>
       </c>
       <c r="I162" t="s">
+        <v>1672</v>
+      </c>
+      <c r="J162" t="s">
         <v>1673</v>
-      </c>
-      <c r="J162" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="163" spans="3:11">
@@ -24801,19 +24807,19 @@
         <v>1407</v>
       </c>
       <c r="D163" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E163" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F163">
         <v>1</v>
       </c>
       <c r="J163" t="s">
+        <v>1675</v>
+      </c>
+      <c r="K163" t="s">
         <v>1676</v>
-      </c>
-      <c r="K163" t="s">
-        <v>1677</v>
       </c>
     </row>
     <row r="164" spans="3:11">
@@ -24821,16 +24827,16 @@
         <v>1407</v>
       </c>
       <c r="D164" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="F164">
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K164" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="165" spans="3:11">
@@ -24838,19 +24844,19 @@
         <v>1407</v>
       </c>
       <c r="D165" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E165" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="F165">
         <v>3</v>
       </c>
       <c r="I165" t="s">
+        <v>1678</v>
+      </c>
+      <c r="J165" t="s">
         <v>1679</v>
-      </c>
-      <c r="J165" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="166" spans="3:11">
@@ -24858,16 +24864,16 @@
         <v>1407</v>
       </c>
       <c r="D166" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="F166">
         <v>4</v>
       </c>
       <c r="I166" t="s">
+        <v>1680</v>
+      </c>
+      <c r="J166" t="s">
         <v>1681</v>
-      </c>
-      <c r="J166" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="167" spans="3:11">
@@ -24875,16 +24881,16 @@
         <v>1407</v>
       </c>
       <c r="D167" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E167" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="F167">
         <v>5</v>
       </c>
       <c r="I167" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="J167" t="s">
         <v>720</v>
@@ -24895,16 +24901,16 @@
         <v>1407</v>
       </c>
       <c r="D168" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="F168">
         <v>6</v>
       </c>
       <c r="I168" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J168" t="s">
         <v>1684</v>
-      </c>
-      <c r="J168" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="169" spans="3:11">
@@ -24912,19 +24918,19 @@
         <v>1407</v>
       </c>
       <c r="D169" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E169" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="F169">
         <v>7</v>
       </c>
       <c r="I169" t="s">
+        <v>1685</v>
+      </c>
+      <c r="J169" t="s">
         <v>1686</v>
-      </c>
-      <c r="J169" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="170" spans="3:11">
@@ -24932,16 +24938,16 @@
         <v>1407</v>
       </c>
       <c r="D170" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E170" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="F170">
         <v>8</v>
       </c>
       <c r="I170" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="J170" t="s">
         <v>715</v>
@@ -24952,13 +24958,13 @@
         <v>1407</v>
       </c>
       <c r="D171" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="F171">
         <v>9</v>
       </c>
       <c r="J171" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="172" spans="3:11">
@@ -24966,16 +24972,16 @@
         <v>1407</v>
       </c>
       <c r="D172" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E172" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="J172" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="K172" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="173" spans="3:11">
@@ -24983,13 +24989,13 @@
         <v>1407</v>
       </c>
       <c r="D173" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E173" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="J173" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="174" spans="3:11">
@@ -24997,16 +25003,16 @@
         <v>1407</v>
       </c>
       <c r="D174" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E174" t="s">
+        <v>1691</v>
+      </c>
+      <c r="G174" t="s">
         <v>1692</v>
       </c>
-      <c r="G174" t="s">
+      <c r="J174" t="s">
         <v>1693</v>
-      </c>
-      <c r="J174" t="s">
-        <v>1694</v>
       </c>
       <c r="K174" t="s">
         <v>1339</v>
@@ -25017,13 +25023,13 @@
         <v>1407</v>
       </c>
       <c r="D175" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="I175" t="s">
+        <v>1694</v>
+      </c>
+      <c r="J175" t="s">
         <v>1695</v>
-      </c>
-      <c r="J175" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="176" spans="3:11">
@@ -25031,16 +25037,16 @@
         <v>1407</v>
       </c>
       <c r="D176" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E176" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F176">
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="J176" t="s">
         <v>1388</v>
@@ -25054,10 +25060,10 @@
         <v>1407</v>
       </c>
       <c r="D177" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E177" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="F177">
         <v>2</v>
@@ -25074,22 +25080,22 @@
         <v>1407</v>
       </c>
       <c r="D178" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E178" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="F178">
         <v>3</v>
       </c>
       <c r="G178" t="s">
+        <v>1698</v>
+      </c>
+      <c r="I178" t="s">
         <v>1699</v>
       </c>
-      <c r="I178" t="s">
+      <c r="J178" t="s">
         <v>1700</v>
-      </c>
-      <c r="J178" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="179" spans="3:11">
@@ -25097,7 +25103,7 @@
         <v>1407</v>
       </c>
       <c r="D179" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F179">
         <v>4</v>
@@ -25108,19 +25114,19 @@
         <v>1407</v>
       </c>
       <c r="D180" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E180" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="F180">
         <v>5</v>
       </c>
       <c r="I180" t="s">
+        <v>1701</v>
+      </c>
+      <c r="J180" t="s">
         <v>1702</v>
-      </c>
-      <c r="J180" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="181" spans="3:11">
@@ -25128,16 +25134,16 @@
         <v>1407</v>
       </c>
       <c r="D181" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F181">
         <v>6</v>
       </c>
       <c r="I181" t="s">
+        <v>1703</v>
+      </c>
+      <c r="J181" t="s">
         <v>1704</v>
-      </c>
-      <c r="J181" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="182" spans="3:11">
@@ -25145,22 +25151,22 @@
         <v>1407</v>
       </c>
       <c r="D182" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E182" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F182">
         <v>7</v>
       </c>
       <c r="G182" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I182" t="s">
         <v>1707</v>
       </c>
-      <c r="I182" t="s">
+      <c r="J182" t="s">
         <v>1708</v>
-      </c>
-      <c r="J182" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="183" spans="3:11">
@@ -25168,16 +25174,16 @@
         <v>1407</v>
       </c>
       <c r="D183" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F183">
         <v>8</v>
       </c>
       <c r="I183" t="s">
+        <v>1709</v>
+      </c>
+      <c r="J183" t="s">
         <v>1710</v>
-      </c>
-      <c r="J183" t="s">
-        <v>1711</v>
       </c>
     </row>
     <row r="184" spans="3:11">
@@ -25185,13 +25191,13 @@
         <v>1407</v>
       </c>
       <c r="D184" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F184">
         <v>9</v>
       </c>
       <c r="J184" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="185" spans="3:11">
@@ -25199,13 +25205,13 @@
         <v>1407</v>
       </c>
       <c r="D185" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F185">
         <v>10</v>
       </c>
       <c r="J185" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="186" spans="3:11">
@@ -25213,13 +25219,13 @@
         <v>1407</v>
       </c>
       <c r="D186" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F186">
         <v>11</v>
       </c>
       <c r="J186" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="187" spans="3:11">
@@ -25227,13 +25233,13 @@
         <v>1407</v>
       </c>
       <c r="D187" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E187" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="J187" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="K187" t="s">
         <v>1335</v>
@@ -25244,16 +25250,16 @@
         <v>1407</v>
       </c>
       <c r="D188" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E188" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="I188" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J188" t="s">
         <v>1716</v>
-      </c>
-      <c r="J188" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="189" spans="3:11">
@@ -25261,16 +25267,16 @@
         <v>1407</v>
       </c>
       <c r="D189" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E189" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="I189" t="s">
+        <v>1717</v>
+      </c>
+      <c r="J189" t="s">
         <v>1718</v>
-      </c>
-      <c r="J189" t="s">
-        <v>1719</v>
       </c>
     </row>
     <row r="190" spans="3:11">
@@ -25278,7 +25284,7 @@
         <v>1407</v>
       </c>
       <c r="D190" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="J190" t="s">
         <v>1335</v>
@@ -25286,30 +25292,30 @@
     </row>
     <row r="191" spans="3:11">
       <c r="I191" t="s">
+        <v>1719</v>
+      </c>
+      <c r="J191" t="s">
         <v>1720</v>
-      </c>
-      <c r="J191" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="192" spans="3:11">
       <c r="J192" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="193" spans="10:10">
       <c r="J193" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="194" spans="10:10">
       <c r="J194" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="195" spans="10:10">
       <c r="J195" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
   </sheetData>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdebasto\Desktop\GitHub\fovt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E4CBEB-A3A3-7349-AFF4-52C0A74240FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB8386D-FEAC-46B3-8C6C-BE63CEBBA16A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30920" yWindow="-10940" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -26,12 +26,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3817" uniqueCount="1793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4000" uniqueCount="1860">
   <si>
     <t>Status</t>
   </si>
@@ -3738,9 +3747,6 @@
     <t>distal surface some metacarpal bone of digit 3</t>
   </si>
   <si>
-    <t>distal surface of some metacarpal bone of digit 2</t>
-  </si>
-  <si>
     <t>proximal surface some metacarpal bone of digit 3</t>
   </si>
   <si>
@@ -3750,9 +3756,6 @@
     <t>distal surface some metatarsal bone of digit 3</t>
   </si>
   <si>
-    <t>distal surface of some metatarsal bone of digit 2</t>
-  </si>
-  <si>
     <t>distal keel of metacarpal bone of digit 3</t>
   </si>
   <si>
@@ -3768,12 +3771,6 @@
     <t>Metatarsal III depth; M4</t>
   </si>
   <si>
-    <t>distal surface of some metacarpal bone of digit 4</t>
-  </si>
-  <si>
-    <t>distal surface of some metatarsal bone of digit 4</t>
-  </si>
-  <si>
     <t>proximal surface some metacarpal bone of digit 2</t>
   </si>
   <si>
@@ -3834,18 +3831,6 @@
     <t>medial condyle of metacarpal bone of digit 3</t>
   </si>
   <si>
-    <t>medial surface of some metacarpal bone of digit 2</t>
-  </si>
-  <si>
-    <t>medial surface of some metacarpal bone of digit 4</t>
-  </si>
-  <si>
-    <t>medial surface of some metatarsal bone of digit 2</t>
-  </si>
-  <si>
-    <t>medial surface of some metatarsal bone of digit 4</t>
-  </si>
-  <si>
     <t>lateral surface some metatarsal bone of digit 3</t>
   </si>
   <si>
@@ -5187,9 +5172,6 @@
     <t>add structures to uberon</t>
   </si>
   <si>
-    <t>Metacarpal III greatest breadth distal; M1; GL1</t>
-  </si>
-  <si>
     <t>Metacarpal II distal articular breadth; M5; Bp</t>
   </si>
   <si>
@@ -5250,30 +5232,9 @@
     <t>Metatarsal IV greatest length; M1; GL</t>
   </si>
   <si>
-    <t>Metacarpal III distal maximal depth of keel; M1; GL2</t>
-  </si>
-  <si>
-    <t>Metatarsal III distal maximal depth of keel; M1; GL2</t>
-  </si>
-  <si>
-    <t>Metatarsal III distal minimum depth of lateral condyle: M1; GL3</t>
-  </si>
-  <si>
-    <t>Metatarsal III distal maximal depth of medial condyle: M1; GL4</t>
-  </si>
-  <si>
-    <t>Metacarpal III distal minimum depth of lateral condyle: M1; GL3</t>
-  </si>
-  <si>
-    <t>Metacarpal III distal maximal depth of medial condyle: M1; GL4</t>
-  </si>
-  <si>
     <t>Metacarpal III proximal articular breadth; M5; Bp</t>
   </si>
   <si>
-    <t>Metacarpal III breadth of posterior facet for fourth carpal; M1; GL6</t>
-  </si>
-  <si>
     <t>Metapodial III+IV greatest length; GL</t>
   </si>
   <si>
@@ -5346,9 +5307,6 @@
     <t>Metatarsal III+IV distal depth; Dd</t>
   </si>
   <si>
-    <t>Metapodial greatest length; GL</t>
-  </si>
-  <si>
     <t>Metapodial greatest length of lateral part; GLl</t>
   </si>
   <si>
@@ -5370,51 +5328,24 @@
     <t>Metapodial distal depth; Dd</t>
   </si>
   <si>
-    <t>Metacarpal IV greatest length; GL</t>
-  </si>
-  <si>
     <t>Metacarpal IV length without plantar projection; LeP</t>
   </si>
   <si>
-    <t>Metacarpal IV proximal breadth; Bp</t>
-  </si>
-  <si>
     <t>Metacarpal IV breadth at middle of diaphysis; B</t>
   </si>
   <si>
-    <t>Metacarpal IV distal breadth; Bd</t>
-  </si>
-  <si>
-    <t>Metatarsal IV greatest length; GL</t>
-  </si>
-  <si>
     <t>Metatarsal IV length without plantar projection; LeP</t>
   </si>
   <si>
-    <t>Metatarsal IV proximal breadth; Bp</t>
-  </si>
-  <si>
     <t>Metatarsal IV breadth at middle of diaphysis; B</t>
   </si>
   <si>
-    <t>Metatarsal IV distal breadth; Bd</t>
-  </si>
-  <si>
-    <t>Metapodial IV greatest length; GL</t>
-  </si>
-  <si>
     <t>Metapodial IV length without plantar projection; LeP</t>
   </si>
   <si>
-    <t>Metapodial IV proximal breadth; Bp</t>
-  </si>
-  <si>
     <t>Metapodial IV breadth at middle of diaphysis; B</t>
   </si>
   <si>
-    <t>Metapodial IV distal breadth; Bd</t>
-  </si>
-  <si>
     <t>Metapodial length without plantar projection; LeP</t>
   </si>
   <si>
@@ -5424,12 +5355,6 @@
     <t>Metacarpal III length without plantar projection; LeP</t>
   </si>
   <si>
-    <t>Metacarpal III depth at middle of diaphysis; B</t>
-  </si>
-  <si>
-    <t>Metapodial II greatest length; GL</t>
-  </si>
-  <si>
     <t>Metapodial V greatest length; GL</t>
   </si>
   <si>
@@ -5451,37 +5376,322 @@
     <t>Metapodial III greatest length of lateral part; GLl</t>
   </si>
   <si>
-    <t>Metapodial III proximal depth; Dp</t>
-  </si>
-  <si>
     <t>Metapodial III smallest diaphysis circumference; CD</t>
   </si>
   <si>
-    <t>Metapodial III distal breadth; Bd</t>
-  </si>
-  <si>
     <t>Metacarpal III greatest length of lateral part; GLl</t>
   </si>
   <si>
-    <t>Metacarpal III proximal depth; Dp</t>
-  </si>
-  <si>
     <t>Metacarpal III smallest diaphysis circumference; CD</t>
   </si>
   <si>
-    <t>Metacarpal III distal breadth; Bd</t>
-  </si>
-  <si>
     <t>Metatarsal III greatest length of lateral part; GLl</t>
   </si>
   <si>
-    <t>Metatarsal III proximal depth; Dp</t>
-  </si>
-  <si>
     <t>Metatarsal III smallest diaphysis circumference; CD</t>
   </si>
   <si>
-    <t>Metatarsal III distal breadth; Bd</t>
+    <t>Metacarpal III distal maximal depth of keel; M12; GL2</t>
+  </si>
+  <si>
+    <t>Metatarsal III distal maximal depth of keel; M12; GL2</t>
+  </si>
+  <si>
+    <t>Metatarsal III distal minimum depth of lateral condyle: M13; GL3</t>
+  </si>
+  <si>
+    <t>Metatarsal III distal maximal depth of medial condyle: M14; GL4</t>
+  </si>
+  <si>
+    <t>Metacarpal III distal minimum depth of lateral condyle: M13; GL3</t>
+  </si>
+  <si>
+    <t>Metacarpal III distal maximal depth of medial condyle: M14; GL4</t>
+  </si>
+  <si>
+    <t>Metapodial III supra-articular breadth; M10</t>
+  </si>
+  <si>
+    <t>Metacarpal III breadth of posterior facet for fourth carpal; M16; GL6</t>
+  </si>
+  <si>
+    <t>Metatarsal III distal articular breadth; M11</t>
+  </si>
+  <si>
+    <t>Metacarpal III distal articular breadth; M11</t>
+  </si>
+  <si>
+    <t>Metapodial II minimal depth of diaphysis; M2</t>
+  </si>
+  <si>
+    <t>Metapodial III medial length; M2</t>
+  </si>
+  <si>
+    <t>Metapodial IV minimal depth of diaphysis; M2</t>
+  </si>
+  <si>
+    <t>Metapodial II proximal maximal breadth; M3; SD</t>
+  </si>
+  <si>
+    <t>Metapodial IV proximal maximal breadth; M3; SD</t>
+  </si>
+  <si>
+    <t>Metapodiall III minimal breadth; M3; SD</t>
+  </si>
+  <si>
+    <t>metapodial bone</t>
+  </si>
+  <si>
+    <t>Metapodiall II greatest depth proximal; M4</t>
+  </si>
+  <si>
+    <t>Metapodiall IV greatest depth proximal; M4</t>
+  </si>
+  <si>
+    <t>Metapodial III depth; M4</t>
+  </si>
+  <si>
+    <t>Metapodial II distal articular breadth; M5; Bp</t>
+  </si>
+  <si>
+    <t>Metapodial IV distal articular breadth; M5; Bp</t>
+  </si>
+  <si>
+    <t>Metapodial III proximal articular breadth; M5; Bp</t>
+  </si>
+  <si>
+    <t>Metapodial IV distal articular depth; M6</t>
+  </si>
+  <si>
+    <t>Metapodial II distal articular depth; M6</t>
+  </si>
+  <si>
+    <t>Metapodial III greatest depth proximal; M6</t>
+  </si>
+  <si>
+    <t>Metapodial III distal articular breadth; M11</t>
+  </si>
+  <si>
+    <t>Metapodial III distal maximal depth of keel; M12; GL2</t>
+  </si>
+  <si>
+    <t>Metapodial III distal minimum depth of lateral condyle: M13; GL3</t>
+  </si>
+  <si>
+    <t>Metapodial III distal maximal depth of medial condyle: M14; GL4</t>
+  </si>
+  <si>
+    <t>medial surface of some metapodial bone of digit 2</t>
+  </si>
+  <si>
+    <t>proximal surface some metapodial bone of digit 4</t>
+  </si>
+  <si>
+    <t>lateral surface some metapodial bone of digit 3</t>
+  </si>
+  <si>
+    <t>medial condyle of metapodial bone of digit 3</t>
+  </si>
+  <si>
+    <t>anterior surface some metapodial bone of digit 3</t>
+  </si>
+  <si>
+    <t>proximal surface some metapodial bone of digit 2</t>
+  </si>
+  <si>
+    <t>distal surface some metapodial bone of digit 4</t>
+  </si>
+  <si>
+    <t>proximal surface some metapodial bone of digit 3</t>
+  </si>
+  <si>
+    <t>distal surface of some metapodial bone of digit 4</t>
+  </si>
+  <si>
+    <t>distal surface some metapodial bone of digit 3</t>
+  </si>
+  <si>
+    <t>distal keel of metapodial bone of digit 3</t>
+  </si>
+  <si>
+    <t>lateral condyle of metapodial bone of digit 3</t>
+  </si>
+  <si>
+    <t>distal surface of some metapodial bone of digit 2</t>
+  </si>
+  <si>
+    <t>distal surface some metapodial bone of digit 2</t>
+  </si>
+  <si>
+    <t>medial surface of some metapodial bone of digit 4</t>
+  </si>
+  <si>
+    <t>Metapodial greatest length; GL; M1</t>
+  </si>
+  <si>
+    <t>Metapodial II greatest length; GL; M1</t>
+  </si>
+  <si>
+    <t>Metapodial III proximal depth; Dp; M6</t>
+  </si>
+  <si>
+    <t>Metacarpal IV greatest length; GL; M1</t>
+  </si>
+  <si>
+    <t>Metacarpal IV proximal breadth; Bp; M3</t>
+  </si>
+  <si>
+    <t>Metacarpal IV distal breadth; Bd; M5</t>
+  </si>
+  <si>
+    <t>Metatarsal IV greatest length; GL; M1</t>
+  </si>
+  <si>
+    <t>Metatarsal IV proximal breadth; Bp; M3</t>
+  </si>
+  <si>
+    <t>Metatarsal IV distal breadth; Bd; M5</t>
+  </si>
+  <si>
+    <t>Metapodial IV greatest length; GL; M1</t>
+  </si>
+  <si>
+    <t>Metapodial IV proximal breadth; Bp; M3</t>
+  </si>
+  <si>
+    <t>Metapodial IV distal breadth; Bd; M5</t>
+  </si>
+  <si>
+    <t>Metapodial III distal breadth; Bd; M11</t>
+  </si>
+  <si>
+    <t>Metacarpal III proximal depth; Dp; M6</t>
+  </si>
+  <si>
+    <t>Metacarpal III distal breadth; Bd; M11</t>
+  </si>
+  <si>
+    <t>Metatarsal III proximal depth; Dp; M6</t>
+  </si>
+  <si>
+    <t>Metatarsal III distal breadth; Bd; M11</t>
+  </si>
+  <si>
+    <t>metapodial bone of digit 4</t>
+  </si>
+  <si>
+    <t>metapodial bone of digit 2</t>
+  </si>
+  <si>
+    <t>Metacarpal III greatest breadth distal; M11; GL1</t>
+  </si>
+  <si>
+    <t>distal surface some metarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>fused metapodial bones 3 and 4</t>
+  </si>
+  <si>
+    <t>proximal surface some fused metapodial bones 3 and 4</t>
+  </si>
+  <si>
+    <t>medial surface of some metapodial bone of digit 3</t>
+  </si>
+  <si>
+    <t>medial surface some metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>medial surface some metacarpal bone of digit 2</t>
+  </si>
+  <si>
+    <t>medial surface some metacarpal bone of digit 4</t>
+  </si>
+  <si>
+    <t>medial surface osome metatarsal bone of digit 2</t>
+  </si>
+  <si>
+    <t>medial surface some metatarsal bone of digit 4</t>
+  </si>
+  <si>
+    <t>fused metacarpal bones 3 and 4</t>
+  </si>
+  <si>
+    <t>fused metatarsal bones 3 and 4</t>
+  </si>
+  <si>
+    <t>lateral surface some fused metacarpal bones 3 and 4</t>
+  </si>
+  <si>
+    <t>proximal surface some fused metacarpal bones 3 and 4</t>
+  </si>
+  <si>
+    <t>diaphysis some fused metacarpal bones 3 ad 4</t>
+  </si>
+  <si>
+    <t>distal surface some fused metapodial bones 3 and 4</t>
+  </si>
+  <si>
+    <t>distal surface some fused metapodial 3 and 4</t>
+  </si>
+  <si>
+    <t>diaphysis some fused metapodial bones 3 ad 4</t>
+  </si>
+  <si>
+    <t>lateral surface some fused metatarsal bones 3 and 4</t>
+  </si>
+  <si>
+    <t>proximal surface some fused metatarsal bones 3 and 4</t>
+  </si>
+  <si>
+    <t>diaphysis some fused metatarsal bones 3 and 4</t>
+  </si>
+  <si>
+    <t>distal surface some fused metatarsal bones 3 and 4</t>
+  </si>
+  <si>
+    <t>lateral surface some fused metapodial bones 3 and 4</t>
+  </si>
+  <si>
+    <t>proximal surface some metapodial bone</t>
+  </si>
+  <si>
+    <t>diaphysis some metapodial bone</t>
+  </si>
+  <si>
+    <t>distal surface some metapodial bone</t>
+  </si>
+  <si>
+    <t>diaphysis some metacarpal bone of digit 4</t>
+  </si>
+  <si>
+    <t>diaphysis some metatarsal bone of digit 4</t>
+  </si>
+  <si>
+    <t>diaphysis some metapodial bone of digit 4</t>
+  </si>
+  <si>
+    <t>diaphysis some metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metacarpal III depth at middle of diaphysis; B; M4</t>
+  </si>
+  <si>
+    <t>metapodial bone of digit 5</t>
+  </si>
+  <si>
+    <t>metacarpal bone of digit 5</t>
+  </si>
+  <si>
+    <t>metatarsal bone of digit 5</t>
+  </si>
+  <si>
+    <t>distal surface some metapodial bone of digit 5</t>
+  </si>
+  <si>
+    <t>distal surface some metacarpal bone of digit 5</t>
+  </si>
+  <si>
+    <t>distal surface some metatarsal bone of digit 5</t>
   </si>
 </sst>
 </file>
@@ -5974,22 +6184,22 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1342</v>
+        <v>1334</v>
       </c>
       <c r="C1" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>117</v>
@@ -5997,10 +6207,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6008,12 +6218,12 @@
         <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>119</v>
@@ -6021,26 +6231,26 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="3" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="C6" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="3" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="3" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="C8" t="s">
-        <v>1350</v>
+        <v>1342</v>
       </c>
       <c r="D8" t="s">
-        <v>1351</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6048,7 +6258,7 @@
         <v>7500036</v>
       </c>
       <c r="D9" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6064,7 +6274,7 @@
         <v>7500038</v>
       </c>
       <c r="D11" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6072,7 +6282,7 @@
         <v>7500042</v>
       </c>
       <c r="D12" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6080,7 +6290,7 @@
         <v>7500043</v>
       </c>
       <c r="D13" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6088,7 +6298,7 @@
         <v>7500044</v>
       </c>
       <c r="D14" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6096,7 +6306,7 @@
         <v>7500051</v>
       </c>
       <c r="D15" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6104,7 +6314,7 @@
         <v>7500060</v>
       </c>
       <c r="D16" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -6112,7 +6322,7 @@
         <v>7500045</v>
       </c>
       <c r="D17" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -6120,12 +6330,12 @@
         <v>7500050</v>
       </c>
       <c r="D18" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>1693</v>
+        <v>1685</v>
       </c>
     </row>
   </sheetData>
@@ -6143,7 +6353,7 @@
       <selection pane="bottomLeft" activeCell="A372" sqref="A372:A526"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" t="s">
@@ -10503,7 +10713,7 @@
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="1:21" s="11" customFormat="1" ht="17" customHeight="1">
+    <row r="132" spans="1:21" s="11" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A132" s="24"/>
       <c r="C132" s="10" t="s">
         <v>1030</v>
@@ -20466,17 +20676,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BA4F15-3142-994E-BF8B-16093E97474D}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -20493,7 +20703,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20506,152 +20716,160 @@
         <v>1205</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>1765</v>
+      </c>
+    </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D5" t="str">
-        <f>"line that connects "&amp;B5&amp;" and "&amp;C5</f>
-        <v>line that connects nose tip and 'anatomical point' and 'distalmost part of' some tail)</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="B6" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="C6" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6" si="0">"line that connects "&amp;B6&amp;" and "&amp;C6</f>
-        <v>line that connects nose tip and anus</v>
+        <f>"line that connects "&amp;B6&amp;" and "&amp;C6</f>
+        <v>line that connects nose tip and 'anatomical point' and 'distalmost part of' some tail)</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="B7" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="C7" t="s">
-        <v>1268</v>
+        <v>1257</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7:D14" si="1">"line that connects "&amp;B7&amp;" and "&amp;C7</f>
-        <v>line that connects helix and intertragic notch</v>
+        <f t="shared" ref="D7" si="0">"line that connects "&amp;B7&amp;" and "&amp;C7</f>
+        <v>line that connects nose tip and anus</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>1269</v>
+        <v>1258</v>
       </c>
       <c r="B8" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="C8" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="D8" t="str">
+        <f t="shared" ref="D8:D15" si="1">"line that connects "&amp;B8&amp;" and "&amp;C8</f>
+        <v>line that connects helix and intertragic notch</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D9" t="str">
         <f t="shared" si="1"/>
         <v>line that connects helix and tragus</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D9" t="str">
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D10" t="str">
         <f t="shared" si="1"/>
         <v>line that connects anatomical point' and ('part of' some ('distalmost part of' some 'heel')) and anatomical point' and ('part of' some ('distalmost part of' some 'cutaneous appendage'))</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D10" t="str">
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D11" t="str">
         <f t="shared" si="1"/>
         <v>line that connects anatomical point' and ('part of' some ('distalmost part of' some 'heel')) and anatomical point' and ('part of' some ('distalmost part of' some 'phalanx of pes'))</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D11" t="str">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D12" t="str">
         <f t="shared" si="1"/>
         <v>line that connects trochlea of humerus and ventral tubercle of humerus</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1360</v>
-      </c>
-      <c r="D12" t="str">
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D13" t="str">
         <f t="shared" si="1"/>
         <v>line that connects trochlea of humerus and proximal head of humerus</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D13" t="str">
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D14" t="str">
         <f t="shared" si="1"/>
         <v>line that connects medial condyle of femur and greater trochanter</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D14" t="str">
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D15" t="str">
         <f t="shared" si="1"/>
         <v>line that connects medial condyle of femur and head of femur</v>
       </c>
@@ -20663,18 +20881,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01658F34-4982-8840-AF22-6E6480DB069B}">
-  <dimension ref="A1:D324"/>
+  <dimension ref="A1:D328"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20693,7 +20912,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1694</v>
+        <v>1823</v>
       </c>
       <c r="B2" t="s">
         <v>108</v>
@@ -20702,30 +20921,38 @@
         <v>1210</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D45" si="0">"line along "&amp;B2&amp;" of "&amp;C2</f>
+        <f t="shared" ref="D2:D50" si="0">"line along "&amp;B2&amp;" of "&amp;C2</f>
         <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1695</v>
+        <v>1686</v>
       </c>
       <c r="B3" t="s">
         <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>1225</v>
+        <v>1221</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="B4" t="s">
         <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>1226</v>
+        <v>1222</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20736,11 +20963,11 @@
         <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>1211</v>
+        <v>1221</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>line along anterior-posterior axis of distal surface of some metacarpal bone of digit 2</v>
+        <v>line along anterior-posterior axis of distal surface some metacarpal bone of digit 2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -20751,11 +20978,11 @@
         <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>line along anterior-posterior axis of distal surface of some metacarpal bone of digit 4</v>
+        <v>line along anterior-posterior axis of distal surface some metacarpal bone of digit 4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -20766,7 +20993,7 @@
         <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -20781,7 +21008,7 @@
         <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -20790,13 +21017,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B9" t="s">
         <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -20805,7 +21032,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="B10" t="s">
         <v>110</v>
@@ -20820,13 +21047,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="B11" t="s">
         <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -20835,13 +21062,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="B12" t="s">
         <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -20850,13 +21077,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="B13" t="s">
         <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -20865,13 +21092,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="B14" t="s">
         <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -20880,13 +21107,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="B15" t="s">
         <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -20895,13 +21122,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1703</v>
+        <v>1694</v>
       </c>
       <c r="B16" t="s">
         <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -20910,13 +21137,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>1704</v>
+        <v>1695</v>
       </c>
       <c r="B17" t="s">
         <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -20925,13 +21152,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>1705</v>
+        <v>1696</v>
       </c>
       <c r="B18" t="s">
         <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -20940,35 +21167,43 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1706</v>
+        <v>1697</v>
       </c>
       <c r="B19" t="s">
         <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>1235</v>
+        <v>1231</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>1707</v>
+        <v>1698</v>
       </c>
       <c r="B20" t="s">
         <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>1236</v>
+        <v>1232</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1708</v>
+        <v>1699</v>
       </c>
       <c r="B21" t="s">
         <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -20977,13 +21212,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1709</v>
+        <v>1700</v>
       </c>
       <c r="B22" t="s">
         <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -20992,13 +21227,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>1710</v>
+        <v>1701</v>
       </c>
       <c r="B23" t="s">
         <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -21013,11 +21248,11 @@
         <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>1215</v>
+        <v>1231</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>line along anterior-posterior axis of distal surface of some metatarsal bone of digit 2</v>
+        <v>line along anterior-posterior axis of distal surface some metatarsal bone of digit 2</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -21028,11 +21263,11 @@
         <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>1222</v>
+        <v>1232</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>line along anterior-posterior axis of distal surface of some metatarsal bone of digit 4</v>
+        <v>line along anterior-posterior axis of distal surface some metatarsal bone of digit 4</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -21043,7 +21278,7 @@
         <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D26" t="str">
         <f>"line along "&amp;B26&amp;" of "&amp;C26</f>
@@ -21058,7 +21293,7 @@
         <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="D27" t="str">
         <f>"line along "&amp;B27&amp;" of "&amp;C27</f>
@@ -21073,7 +21308,7 @@
         <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="D28" t="str">
         <f>"line along "&amp;B28&amp;" of "&amp;C28</f>
@@ -21082,7 +21317,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>1711</v>
+        <v>1702</v>
       </c>
       <c r="B29" t="s">
         <v>110</v>
@@ -21097,13 +21332,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>1712</v>
+        <v>1703</v>
       </c>
       <c r="B30" t="s">
         <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -21112,13 +21347,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>1713</v>
+        <v>1704</v>
       </c>
       <c r="B31" t="s">
         <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -21127,13 +21362,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>1714</v>
+        <v>1705</v>
       </c>
       <c r="B32" t="s">
         <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -21142,13 +21377,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>1715</v>
+        <v>1759</v>
       </c>
       <c r="B33" t="s">
         <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -21157,13 +21392,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>1716</v>
+        <v>1760</v>
       </c>
       <c r="B34" t="s">
         <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -21172,13 +21407,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>1717</v>
+        <v>1761</v>
       </c>
       <c r="B35" t="s">
         <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -21187,13 +21422,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>1718</v>
+        <v>1762</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -21202,13 +21437,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>1719</v>
+        <v>1763</v>
       </c>
       <c r="B37" t="s">
         <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -21217,13 +21452,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>1720</v>
+        <v>1764</v>
       </c>
       <c r="B38" t="s">
         <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -21232,13 +21467,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>1721</v>
+        <v>1706</v>
       </c>
       <c r="B39" t="s">
         <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -21253,11 +21488,11 @@
         <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>1230</v>
+        <v>1828</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
-        <v>line along proximal-distal axis of metacarpal bone of digit 3</v>
+        <v>line along proximal-distal axis of medial surface some metacarpal bone of digit 3</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -21268,11 +21503,11 @@
         <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>1243</v>
+        <v>1829</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
-        <v>line along anterior-posterior axis of medial surface of some metacarpal bone of digit 2</v>
+        <v>line along anterior-posterior axis of medial surface some metacarpal bone of digit 2</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -21283,11 +21518,11 @@
         <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>1244</v>
+        <v>1830</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
-        <v>line along anterior-posterior axis of medial surface of some metacarpal bone of digit 4</v>
+        <v>line along anterior-posterior axis of medial surface some metacarpal bone of digit 4</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -21298,7 +21533,7 @@
         <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -21313,11 +21548,11 @@
         <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>1245</v>
+        <v>1831</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
-        <v>line along anterior-posterior axis of medial surface of some metatarsal bone of digit 2</v>
+        <v>line along anterior-posterior axis of medial surface osome metatarsal bone of digit 2</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -21328,11 +21563,11 @@
         <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>1246</v>
+        <v>1832</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
-        <v>line along anterior-posterior axis of medial surface of some metatarsal bone of digit 4</v>
+        <v>line along anterior-posterior axis of medial surface some metatarsal bone of digit 4</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -21342,6 +21577,13 @@
       <c r="B46" t="s">
         <v>110</v>
       </c>
+      <c r="C46" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>line along proximal-distal axis of proximal surface some metatarsal bone of digit 3</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
@@ -21350,6 +21592,13 @@
       <c r="B47" t="s">
         <v>110</v>
       </c>
+      <c r="C47" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>line along proximal-distal axis of proximal surface some metacarpal bone of digit 3</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
@@ -21358,6 +21607,13 @@
       <c r="B48" t="s">
         <v>110</v>
       </c>
+      <c r="C48" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>line along proximal-distal axis of proximal surface some metacarpal bone of digit 3</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
@@ -21366,39 +21622,53 @@
       <c r="B49" t="s">
         <v>110</v>
       </c>
+      <c r="C49" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>line along proximal-distal axis of proximal surface some metatarsal bone of digit 3</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>1722</v>
+        <v>1766</v>
       </c>
       <c r="B50" t="s">
         <v>110</v>
       </c>
+      <c r="C50" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>line along proximal-distal axis of proximal surface some metacarpal bone of digit 3</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B51" t="s">
         <v>112</v>
       </c>
       <c r="C51" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" ref="D51:D52" si="1">"line along "&amp;B51&amp;" of "&amp;C51</f>
+        <f t="shared" ref="D51:D53" si="1">"line along "&amp;B51&amp;" of "&amp;C51</f>
         <v>line along anterior-posterior axis of lateral surface some metacarpal bone of digit 3</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B52" t="s">
         <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="1"/>
@@ -21407,501 +21677,1386 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>1723</v>
+        <v>1767</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="1"/>
+        <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 3</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>1724</v>
+        <v>1768</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" ref="D54:D55" si="2">"line along "&amp;B54&amp;" of "&amp;C54</f>
+        <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 3</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>1724</v>
+        <v>1707</v>
+      </c>
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="2"/>
+        <v>line along proximal-distal axis of fused metapodial bones 3 and 4</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>1725</v>
+      <c r="A56" s="1" t="s">
+        <v>1708</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>1726</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="1" t="s">
-        <v>1727</v>
+      <c r="A58" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" ref="D58:D62" si="3">"line along "&amp;B58&amp;" of "&amp;C58</f>
+        <v>line along medial-lateral axis of proximal surface some fused metapodial bones 3 and 4</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>1728</v>
+        <v>1710</v>
+      </c>
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="3"/>
+        <v>line along anterior-posterior axis of proximal surface some fused metapodial bones 3 and 4</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>1729</v>
+        <v>1711</v>
+      </c>
+      <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="3"/>
+        <v>line along medial-lateral axis of diaphysis some fused metapodial bones 3 ad 4</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>1730</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>1731</v>
+        <v>1713</v>
+      </c>
+      <c r="B62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="3"/>
+        <v>line along medial-lateral axis of distal surface some fused metapodial 3 and 4</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>1732</v>
+        <v>1714</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" ref="D63:D67" si="4">"line along "&amp;B63&amp;" of "&amp;C63</f>
+        <v>line along anterior-posterior axis of distal surface some fused metapodial 3 and 4</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="4"/>
+        <v>line along proximal-distal axis of fused metacarpal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B65" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="4"/>
+        <v>line along proximal-distal axis of lateral surface some fused metacarpal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="4"/>
+        <v>line along medial-lateral axis of proximal surface some fused metacarpal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B68" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" ref="D68:D71" si="5">"line along "&amp;B68&amp;" of "&amp;C68</f>
+        <v>line along anterior-posterior axis of proximal surface some fused metacarpal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B69" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="5"/>
+        <v>line along medial-lateral axis of diaphysis some fused metacarpal bones 3 ad 4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B71" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="5"/>
+        <v>line along medial-lateral axis of distal surface some fused metapodial bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B72" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" ref="D72:D76" si="6">"line along "&amp;B72&amp;" of "&amp;C72</f>
+        <v>line along anterior-posterior axis of distal surface some fused metapodial bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B73" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="6"/>
+        <v>line along proximal-distal axis of fused metatarsal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="6"/>
+        <v>line along proximal-distal axis of lateral surface some fused metatarsal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B76" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="6"/>
+        <v>line along medial-lateral axis of proximal surface some fused metatarsal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B77" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" ref="D77:D80" si="7">"line along "&amp;B77&amp;" of "&amp;C77</f>
+        <v>line along anterior-posterior axis of proximal surface some fused metatarsal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B78" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="7"/>
+        <v>line along medial-lateral axis of diaphysis some fused metatarsal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B80" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="7"/>
+        <v>line along medial-lateral axis of distal surface some fused metatarsal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B81" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" ref="D81" si="8">"line along "&amp;B81&amp;" of "&amp;C81</f>
+        <v>line along anterior-posterior axis of distal surface some fused metatarsal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B82" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" ref="D82:D85" si="9">"line along "&amp;B82&amp;" of "&amp;C82</f>
+        <v>line along proximal-distal axis of metapodial bone</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B83" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="9"/>
+        <v>line along proximal-distal axis of lateral surface some fused metapodial bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
         <v>1732</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+      <c r="B85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="9"/>
+        <v>line along medial-lateral axis of proximal surface some metapodial bone</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
         <v>1733</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1" t="s">
+      <c r="B86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" ref="D86:D89" si="10">"line along "&amp;B86&amp;" of "&amp;C86</f>
+        <v>line along anterior-posterior axis of proximal surface some metapodial bone</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
         <v>1734</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="1" t="s">
+      <c r="B87" t="s">
+        <v>108</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="10"/>
+        <v>line along medial-lateral axis of diaphysis some metapodial bone</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
         <v>1735</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
         <v>1736</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="1" t="s">
+      <c r="B89" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="10"/>
+        <v>line along medial-lateral axis of distal surface some metapodial bone</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
         <v>1737</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="1" t="s">
+      <c r="B90" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" ref="D90" si="11">"line along "&amp;B90&amp;" of "&amp;C90</f>
+        <v>line along anterior-posterior axis of distal surface some metapodial bone</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" ref="D91" si="12">"line along "&amp;B91&amp;" of "&amp;C91</f>
+        <v>line along proximal-distal axis of metacarpal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
         <v>1738</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B93" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" ref="D93:D94" si="13">"line along "&amp;B93&amp;" of "&amp;C93</f>
+        <v>line along medial-lateral axis of proximal surface some metacarpal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
         <v>1739</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="1" t="s">
+      <c r="B94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="13"/>
+        <v>line along medial-lateral axis of diaphysis some metacarpal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B95" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" ref="D95" si="14">"line along "&amp;B95&amp;" of "&amp;C95</f>
+        <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B96" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" ref="D96" si="15">"line along "&amp;B96&amp;" of "&amp;C96</f>
+        <v>line along proximal-distal axis of metatarsal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="1" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B98" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" ref="D98:D100" si="16">"line along "&amp;B98&amp;" of "&amp;C98</f>
+        <v>line along medial-lateral axis of proximal surface some metatarsal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
         <v>1741</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="1" t="s">
+      <c r="B99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="16"/>
+        <v>line along medial-lateral axis of diaphysis some metatarsal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B100" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="16"/>
+        <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B101" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" ref="D101" si="17">"line along "&amp;B101&amp;" of "&amp;C101</f>
+        <v>line along proximal-distal axis of metapodial bone of digit 4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
         <v>1742</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="1" t="s">
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" ref="D103:D109" si="18">"line along "&amp;B103&amp;" of "&amp;C103</f>
+        <v>line along medial-lateral axis of proximal surface some metapodial bone of digit 4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
         <v>1743</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="1" t="s">
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="18"/>
+        <v>line along medial-lateral axis of diaphysis some metapodial bone of digit 4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="18"/>
+        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
         <v>1744</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="1" t="s">
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="s">
         <v>1745</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="1" t="s">
+      <c r="B107" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="18"/>
+        <v>line along anterior-posterior axis of diaphysis some metapodial bone</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="s">
         <v>1746</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="1" t="s">
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="18"/>
+        <v>line along anterior-posterior axis of diaphysis some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" ref="D110:D111" si="19">"line along "&amp;B110&amp;" of "&amp;C110</f>
+        <v>line along proximal-distal axis of metapodial bone of digit 2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
         <v>1747</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="1" t="s">
+      <c r="B111" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="19"/>
+        <v>line along proximal-distal axis of metapodial bone of digit 5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
         <v>1748</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="1" t="s">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+      <c r="B112" t="s">
+        <v>110</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" ref="D112" si="20">"line along "&amp;B112&amp;" of "&amp;C112</f>
+        <v>line along proximal-distal axis of metacarpal bone of digit 5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
         <v>1749</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="1" t="s">
+      <c r="B113" t="s">
+        <v>110</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" ref="D113:D114" si="21">"line along "&amp;B113&amp;" of "&amp;C113</f>
+        <v>line along proximal-distal axis of metatarsal bone of digit 5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="s">
         <v>1750</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="1" t="s">
+      <c r="B114" t="s">
+        <v>108</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="21"/>
+        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
         <v>1751</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="1" t="s">
+      <c r="B115" t="s">
+        <v>108</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" ref="D115" si="22">"line along "&amp;B115&amp;" of "&amp;C115</f>
+        <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
         <v>1752</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="1" t="s">
+      <c r="B116" t="s">
+        <v>108</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" ref="D116:D117" si="23">"line along "&amp;B116&amp;" of "&amp;C116</f>
+        <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="1" t="s">
+      <c r="B117" t="s">
+        <v>110</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="23"/>
+        <v>line along proximal-distal axis of lateral surface some metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B119" t="s">
+        <v>112</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D119" t="str">
+        <f>"line along "&amp;B119&amp;" of "&amp;C119</f>
+        <v>line along anterior-posterior axis of proximal surface some metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="s">
         <v>1754</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="1" t="s">
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B121" t="s">
+        <v>108</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" ref="D121:D122" si="24">"line along "&amp;B121&amp;" of "&amp;C121</f>
+        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
         <v>1755</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="1" t="s">
+      <c r="B122" t="s">
+        <v>110</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="24"/>
+        <v>line along proximal-distal axis of lateral surface some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B124" t="s">
+        <v>112</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D124" t="str">
+        <f>"line along "&amp;B124&amp;" of "&amp;C124</f>
+        <v>line along anterior-posterior axis of proximal surface some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="s">
         <v>1756</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B126" t="s">
+        <v>108</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" ref="D126:D127" si="25">"line along "&amp;B126&amp;" of "&amp;C126</f>
+        <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="1" t="s">
+      <c r="B127" t="s">
+        <v>110</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="25"/>
+        <v>line along proximal-distal axis of lateral surface some metatarsal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B129" t="s">
+        <v>112</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D129" t="str">
+        <f>"line along "&amp;B129&amp;" of "&amp;C129</f>
+        <v>line along anterior-posterior axis of proximal surface some metatarsal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="1" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="1" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="1" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="1" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="1" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="1" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="1" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="1" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="1" t="s">
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B131" t="s">
+        <v>108</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" ref="D131" si="26">"line along "&amp;B131&amp;" of "&amp;C131</f>
+        <v>line along medial-lateral axis of distal surface some metarsal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="s">
         <v>1769</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="1" t="s">
+      <c r="B132" t="s">
+        <v>112</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" ref="D132:D137" si="27">"line along "&amp;B132&amp;" of "&amp;C132</f>
+        <v>line along anterior-posterior axis of medial surface of some metapodial bone of digit 2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B133" t="s">
+        <v>112</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" ref="D133" si="28">"line along "&amp;B133&amp;" of "&amp;C133</f>
+        <v>line along anterior-posterior axis of medial surface of some metapodial bone of digit 4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
         <v>1770</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="1" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="1" t="s">
+      <c r="B134" t="s">
+        <v>110</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="27"/>
+        <v>line along proximal-distal axis of medial surface of some metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
         <v>1772</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="1" t="s">
+      <c r="B135" t="s">
+        <v>108</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="27"/>
+        <v>line along medial-lateral axis of proximal surface some metapodial bone of digit 2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
         <v>1773</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="1" t="s">
+      <c r="B136" t="s">
+        <v>108</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" ref="D136" si="29">"line along "&amp;B136&amp;" of "&amp;C136</f>
+        <v>line along medial-lateral axis of proximal surface some metapodial bone of digit 4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="1" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="1" t="s">
+      <c r="B137" t="s">
+        <v>108</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="27"/>
+        <v>line along medial-lateral axis of anterior surface some metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="s">
         <v>1776</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="1" t="s">
+      <c r="B138" t="s">
+        <v>112</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D138" t="str">
+        <f>"line along "&amp;B138&amp;" of "&amp;C138</f>
+        <v>line along anterior-posterior axis of proximal surface some metapodial bone of digit 2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1" t="s">
         <v>1777</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="1" t="s">
+      <c r="B139" t="s">
+        <v>112</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D139" t="str">
+        <f>"line along "&amp;B139&amp;" of "&amp;C139</f>
+        <v>line along anterior-posterior axis of proximal surface some metapodial bone of digit 4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1" t="s">
         <v>1778</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="1" t="s">
+      <c r="B140" t="s">
+        <v>112</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" ref="D140:D142" si="30">"line along "&amp;B140&amp;" of "&amp;C140</f>
+        <v>line along anterior-posterior axis of lateral surface some metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
         <v>1779</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="1" t="s">
+      <c r="B141" t="s">
+        <v>108</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="30"/>
+        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
         <v>1780</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="1" t="s">
+      <c r="B142" t="s">
+        <v>108</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="30"/>
+        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
         <v>1781</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="1" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="1" t="s">
+      <c r="B143" t="s">
+        <v>108</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" ref="D143:D144" si="31">"line along "&amp;B143&amp;" of "&amp;C143</f>
+        <v>line along medial-lateral axis of proximal surface some metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B144" t="s">
+        <v>112</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="31"/>
+        <v>line along anterior-posterior axis of distal surface of some metapodial bone of digit 2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1" t="s">
         <v>1782</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="1" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="1" t="s">
+      <c r="B145" t="s">
+        <v>112</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" ref="D145" si="32">"line along "&amp;B145&amp;" of "&amp;C145</f>
+        <v>line along anterior-posterior axis of distal surface of some metapodial bone of digit 4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1" t="s">
         <v>1784</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="1" t="s">
+      <c r="B146" t="s">
+        <v>112</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D146" t="str">
+        <f>"line along "&amp;B146&amp;" of "&amp;C146</f>
+        <v>line along anterior-posterior axis of proximal surface some metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1" t="s">
         <v>1785</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="1" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="1" t="s">
+      <c r="B147" t="s">
+        <v>108</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" ref="D147:D150" si="33">"line along "&amp;B147&amp;" of "&amp;C147</f>
+        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="s">
         <v>1786</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="1" t="s">
+      <c r="B148" t="s">
+        <v>112</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="33"/>
+        <v>line along anterior-posterior axis of distal keel of metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
         <v>1787</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="1" t="s">
+      <c r="B149" t="s">
+        <v>112</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="33"/>
+        <v>line along anterior-posterior axis of lateral condyle of metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
         <v>1788</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="1" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="1" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="1" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="1" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="1" t="s">
+      <c r="B150" t="s">
+        <v>112</v>
+      </c>
+      <c r="C150" t="s">
         <v>1792</v>
       </c>
-    </row>
-    <row r="300" spans="1:4">
-      <c r="A300" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B300" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C300" s="22" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D300" t="str">
-        <f>"line along "&amp;B300&amp;" of "&amp;C300</f>
-        <v>line along proximal-distal of lateral side' some talus</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4">
-      <c r="A301" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C301" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D301" t="str">
-        <f>"line along "&amp;B301&amp;" of "&amp;C301</f>
-        <v>line along proximal-distal of pes</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4">
-      <c r="A302" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4">
-      <c r="A303" t="s">
-        <v>1281</v>
+      <c r="D150" t="str">
+        <f t="shared" si="33"/>
+        <v>line along anterior-posterior axis of medial condyle of metapodial bone of digit 3</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="305" spans="1:1">
+      <c r="B304" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C304" s="22" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D304" t="str">
+        <f>"line along "&amp;B304&amp;" of "&amp;C304</f>
+        <v>line along proximal-distal of lateral side' some talus</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1">
+        <v>1268</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D305" t="str">
+        <f>"line along "&amp;B305&amp;" of "&amp;C305</f>
+        <v>line along proximal-distal of pes</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" t="s">
         <v>554</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1">
-      <c r="A319" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1">
-      <c r="A320" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1">
-      <c r="A321" s="1" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1">
-      <c r="A322" s="1" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="1" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="1" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="1" t="s">
         <v>664</v>
       </c>
     </row>
@@ -21919,9 +23074,9 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -21929,7 +23084,7 @@
         <v>1152</v>
       </c>
       <c r="B1" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -21937,13 +23092,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="B2" t="s">
         <v>1184</v>
       </c>
       <c r="C2" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -21954,7 +23109,7 @@
         <v>1184</v>
       </c>
       <c r="C3" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -21962,7 +23117,7 @@
         <v>1209</v>
       </c>
       <c r="C4" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -21970,7 +23125,7 @@
         <v>1208</v>
       </c>
       <c r="C5" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -21978,7 +23133,7 @@
         <v>1206</v>
       </c>
       <c r="C6" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -21986,167 +23141,167 @@
         <v>1207</v>
       </c>
       <c r="C7" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1327</v>
+        <v>1319</v>
       </c>
       <c r="C8" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="C9" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
       <c r="C10" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="C11" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>1334</v>
+        <v>1326</v>
       </c>
       <c r="C12" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="C13" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="C14" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="C15" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="C16" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="C17" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="C18" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="C19" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="C20" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="C21" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="C22" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="C23" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="C24" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="C25" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="C26" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="C27" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
     </row>
   </sheetData>
@@ -22159,40 +23314,40 @@
   <dimension ref="A1:X195"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
       <c r="B1" t="s">
-        <v>1366</v>
+        <v>1358</v>
       </c>
       <c r="C1" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
       <c r="D1" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1369</v>
+        <v>1361</v>
       </c>
       <c r="F1" t="s">
         <v>276</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -22216,7 +23371,7 @@
         <v>1172</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>9</v>
@@ -22245,16 +23400,16 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="C2" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="H2" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="I2" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="J2" t="s">
         <v>124</v>
@@ -22263,38 +23418,38 @@
         <v>125</v>
       </c>
       <c r="Q2" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="C3" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="H3" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="I3" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="J3" t="s">
         <v>130</v>
       </c>
       <c r="L3" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="Q3" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="C4" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="J4" t="s">
         <v>141</v>
@@ -22303,102 +23458,102 @@
         <v>142</v>
       </c>
       <c r="N4" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="Q4" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="U4" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="C5" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="J5" t="s">
         <v>1029</v>
       </c>
       <c r="L5" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="N5" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="Q5" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="U5" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="C6" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D6" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="E6" t="s">
-        <v>1380</v>
+        <v>1372</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="J6" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="L6" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="X6" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="C7" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D7" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="E7" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>1386</v>
+        <v>1378</v>
       </c>
       <c r="L7" t="s">
-        <v>1387</v>
+        <v>1379</v>
       </c>
       <c r="X7" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="D8" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="X8" t="s">
         <v>276</v>
@@ -22406,13 +23561,13 @@
     </row>
     <row r="9" spans="1:24">
       <c r="D9" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="X9" t="s">
         <v>276</v>
@@ -22420,13 +23575,13 @@
     </row>
     <row r="10" spans="1:24">
       <c r="D10" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>1390</v>
+        <v>1382</v>
       </c>
       <c r="X10" t="s">
         <v>276</v>
@@ -22434,13 +23589,13 @@
     </row>
     <row r="11" spans="1:24">
       <c r="D11" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="X11" t="s">
         <v>276</v>
@@ -22448,13 +23603,13 @@
     </row>
     <row r="12" spans="1:24">
       <c r="D12" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="F12">
         <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="X12" t="s">
         <v>276</v>
@@ -22462,237 +23617,237 @@
     </row>
     <row r="13" spans="1:24">
       <c r="D13" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="E13" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="I13" t="s">
-        <v>1394</v>
+        <v>1386</v>
       </c>
       <c r="J13" t="s">
         <v>340</v>
       </c>
       <c r="L13" t="s">
-        <v>1395</v>
+        <v>1387</v>
       </c>
       <c r="X13" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="C14" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D14" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="E14" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="I14" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="J14" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
       <c r="Q14" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="X14" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="D15" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="E15" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
       <c r="I15" t="s">
-        <v>1399</v>
+        <v>1391</v>
       </c>
       <c r="J15" t="s">
-        <v>1400</v>
+        <v>1392</v>
       </c>
       <c r="X15" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="C16" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D16" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="E16" t="s">
-        <v>1380</v>
+        <v>1372</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>1401</v>
+        <v>1393</v>
       </c>
       <c r="J16" t="s">
         <v>318</v>
       </c>
       <c r="L16" t="s">
-        <v>1402</v>
+        <v>1394</v>
       </c>
       <c r="X16" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="17" spans="1:24">
       <c r="D17" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="E17" t="s">
-        <v>1403</v>
+        <v>1395</v>
       </c>
       <c r="I17" t="s">
-        <v>1404</v>
+        <v>1396</v>
       </c>
       <c r="J17" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
       <c r="X17" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="18" spans="1:24">
       <c r="C18" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D18" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="E18" t="s">
-        <v>1406</v>
+        <v>1398</v>
       </c>
       <c r="F18">
         <v>7</v>
       </c>
       <c r="I18" t="s">
-        <v>1407</v>
+        <v>1399</v>
       </c>
       <c r="J18" t="s">
-        <v>1408</v>
+        <v>1400</v>
       </c>
       <c r="X18" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="D19" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="E19" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="I19" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="J19" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="X19" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="C20" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D20" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="E20" t="s">
-        <v>1412</v>
+        <v>1404</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>1413</v>
+        <v>1405</v>
       </c>
       <c r="J20" t="s">
-        <v>1414</v>
+        <v>1406</v>
       </c>
       <c r="X20" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="C21" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D21" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="E21" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>1416</v>
+        <v>1408</v>
       </c>
       <c r="J21" t="s">
-        <v>1417</v>
+        <v>1409</v>
       </c>
       <c r="X21" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="C22" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D22" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="E22" t="s">
-        <v>1418</v>
+        <v>1410</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>1419</v>
+        <v>1411</v>
       </c>
       <c r="J22" t="s">
-        <v>1420</v>
+        <v>1412</v>
       </c>
       <c r="X22" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="C23" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D23" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="F23">
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>1421</v>
+        <v>1413</v>
       </c>
       <c r="J23" t="s">
-        <v>1422</v>
+        <v>1414</v>
       </c>
       <c r="X23" t="s">
         <v>276</v>
@@ -22700,19 +23855,19 @@
     </row>
     <row r="24" spans="1:24">
       <c r="C24" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D24" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="F24">
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
       <c r="J24" t="s">
-        <v>1424</v>
+        <v>1416</v>
       </c>
       <c r="X24" t="s">
         <v>276</v>
@@ -22720,66 +23875,66 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="I25" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="J25" t="s">
         <v>554</v>
       </c>
       <c r="L25" t="s">
-        <v>1425</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="J26" t="s">
         <v>547</v>
       </c>
       <c r="L26" t="s">
-        <v>1426</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="J27" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="L27" t="s">
-        <v>1427</v>
+        <v>1419</v>
       </c>
       <c r="N27" t="s">
         <v>1028</v>
       </c>
       <c r="Q27" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="J28" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="L28" t="s">
-        <v>1428</v>
+        <v>1420</v>
       </c>
       <c r="N28" t="s">
         <v>1028</v>
       </c>
       <c r="Q28" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="C29" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D29" t="s">
         <v>69</v>
@@ -22792,10 +23947,10 @@
         <v>390</v>
       </c>
       <c r="K29" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="L29" t="s">
-        <v>1430</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -22804,15 +23959,15 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="J30" t="s">
-        <v>1431</v>
+        <v>1423</v>
       </c>
       <c r="K30" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="C31" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D31" t="s">
         <v>69</v>
@@ -22825,10 +23980,10 @@
         <v>394</v>
       </c>
       <c r="K31" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="L31" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -22837,18 +23992,18 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
       <c r="J32" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
       <c r="K32" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="33" spans="3:12">
       <c r="C33" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D33" t="s">
         <v>69</v>
@@ -22857,23 +24012,23 @@
         <v>362</v>
       </c>
       <c r="K33" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="L33" t="s">
-        <v>1436</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="34" spans="3:12">
       <c r="J34" t="s">
-        <v>1437</v>
+        <v>1429</v>
       </c>
       <c r="K34" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="35" spans="3:12">
       <c r="C35" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D35" t="s">
         <v>69</v>
@@ -22882,26 +24037,26 @@
         <v>367</v>
       </c>
       <c r="K35" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="L35" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="36" spans="3:12">
       <c r="I36" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
       <c r="J36" t="s">
-        <v>1440</v>
+        <v>1432</v>
       </c>
       <c r="K36" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="37" spans="3:12">
       <c r="C37" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D37" t="s">
         <v>69</v>
@@ -22910,23 +24065,23 @@
         <v>354</v>
       </c>
       <c r="K37" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="L37" t="s">
-        <v>1441</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="38" spans="3:12">
       <c r="J38" t="s">
-        <v>1442</v>
+        <v>1434</v>
       </c>
       <c r="K38" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="39" spans="3:12">
       <c r="C39" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D39" t="s">
         <v>69</v>
@@ -22935,132 +24090,132 @@
         <v>358</v>
       </c>
       <c r="K39" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="L39" t="s">
-        <v>1443</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="40" spans="3:12">
       <c r="I40" t="s">
-        <v>1444</v>
+        <v>1436</v>
       </c>
       <c r="J40" t="s">
-        <v>1445</v>
+        <v>1437</v>
       </c>
       <c r="K40" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="41" spans="3:12">
       <c r="C41" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D41" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="J41" t="s">
         <v>426</v>
       </c>
       <c r="K41" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="L41" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="42" spans="3:12">
       <c r="J42" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
       <c r="K42" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="43" spans="3:12">
       <c r="C43" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D43" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="J43" t="s">
         <v>430</v>
       </c>
       <c r="K43" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="L43" t="s">
-        <v>1449</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="44" spans="3:12">
       <c r="I44" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="J44" t="s">
-        <v>1451</v>
+        <v>1443</v>
       </c>
       <c r="K44" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="45" spans="3:12">
       <c r="C45" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D45" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="J45" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="K45" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="L45" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="46" spans="3:12">
       <c r="J46" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
       <c r="K46" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="47" spans="3:12">
       <c r="C47" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D47" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="J47" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="K47" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="L47" t="s">
-        <v>1456</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="48" spans="3:12">
       <c r="I48" t="s">
-        <v>1457</v>
+        <v>1449</v>
       </c>
       <c r="J48" t="s">
-        <v>1458</v>
+        <v>1450</v>
       </c>
       <c r="K48" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="49" spans="3:12">
       <c r="C49" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D49" t="s">
         <v>69</v>
@@ -23069,23 +24224,23 @@
         <v>380</v>
       </c>
       <c r="K49" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="L49" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="50" spans="3:12">
       <c r="J50" t="s">
-        <v>1460</v>
+        <v>1452</v>
       </c>
       <c r="K50" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="51" spans="3:12">
       <c r="C51" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D51" t="s">
         <v>69</v>
@@ -23094,26 +24249,26 @@
         <v>385</v>
       </c>
       <c r="K51" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="L51" t="s">
-        <v>1461</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="52" spans="3:12">
       <c r="I52" t="s">
-        <v>1462</v>
+        <v>1454</v>
       </c>
       <c r="J52" t="s">
-        <v>1463</v>
+        <v>1455</v>
       </c>
       <c r="K52" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="53" spans="3:12">
       <c r="C53" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D53" t="s">
         <v>69</v>
@@ -23122,23 +24277,23 @@
         <v>372</v>
       </c>
       <c r="K53" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="L53" t="s">
-        <v>1464</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="54" spans="3:12">
       <c r="J54" t="s">
-        <v>1465</v>
+        <v>1457</v>
       </c>
       <c r="K54" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="55" spans="3:12">
       <c r="C55" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D55" t="s">
         <v>69</v>
@@ -23147,26 +24302,26 @@
         <v>376</v>
       </c>
       <c r="K55" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="L55" t="s">
-        <v>1466</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="56" spans="3:12">
       <c r="I56" t="s">
-        <v>1467</v>
+        <v>1459</v>
       </c>
       <c r="J56" t="s">
-        <v>1468</v>
+        <v>1460</v>
       </c>
       <c r="K56" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="57" spans="3:12" ht="17" customHeight="1">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" ht="17.100000000000001" customHeight="1">
       <c r="C57" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D57" t="s">
         <v>69</v>
@@ -23175,23 +24330,23 @@
         <v>344</v>
       </c>
       <c r="K57" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="L57" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" ht="17" customHeight="1">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" ht="17.100000000000001" customHeight="1">
       <c r="J58" t="s">
-        <v>1470</v>
+        <v>1462</v>
       </c>
       <c r="K58" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="59" spans="3:12">
       <c r="C59" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D59" t="s">
         <v>69</v>
@@ -23200,177 +24355,177 @@
         <v>349</v>
       </c>
       <c r="K59" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="L59" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="60" spans="3:12">
       <c r="I60" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
       <c r="J60" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="K60" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="61" spans="3:12">
       <c r="C61" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D61" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="J61" t="s">
         <v>416</v>
       </c>
       <c r="K61" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="L61" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="62" spans="3:12">
       <c r="J62" t="s">
-        <v>1475</v>
+        <v>1467</v>
       </c>
       <c r="K62" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="63" spans="3:12">
       <c r="C63" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D63" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="J63" t="s">
         <v>421</v>
       </c>
       <c r="K63" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="L63" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="64" spans="3:12">
       <c r="I64" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="J64" t="s">
-        <v>1478</v>
+        <v>1470</v>
       </c>
       <c r="K64" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="65" spans="2:24">
       <c r="C65" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D65" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="J65" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="K65" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="L65" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="66" spans="2:24">
       <c r="J66" t="s">
-        <v>1481</v>
+        <v>1473</v>
       </c>
       <c r="K66" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="67" spans="2:24">
       <c r="C67" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D67" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="J67" t="s">
-        <v>1482</v>
+        <v>1474</v>
       </c>
       <c r="K67" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="L67" t="s">
-        <v>1483</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="68" spans="2:24">
       <c r="I68" t="s">
-        <v>1484</v>
+        <v>1476</v>
       </c>
       <c r="J68" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
       <c r="K68" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="70" spans="2:24">
       <c r="C70" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D70" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="E70" t="s">
-        <v>1486</v>
+        <v>1478</v>
       </c>
       <c r="J70" t="s">
-        <v>1487</v>
+        <v>1479</v>
       </c>
       <c r="X70" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="71" spans="2:24">
       <c r="D71" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="E71" t="s">
-        <v>1489</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="72" spans="2:24">
       <c r="D72" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="E72" t="s">
-        <v>1490</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="73" spans="2:24">
       <c r="B73" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C73" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D73" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
       <c r="E73" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="J73" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="P73" t="s">
         <v>1173</v>
@@ -23382,16 +24537,16 @@
     </row>
     <row r="74" spans="2:24">
       <c r="B74" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C74" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="I74" t="s">
         <v>1158</v>
       </c>
       <c r="J74" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P74" t="s">
         <v>1174</v>
@@ -23403,16 +24558,16 @@
     </row>
     <row r="75" spans="2:24">
       <c r="B75" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C75" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="I75" t="s">
         <v>1159</v>
       </c>
       <c r="J75" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="P75" t="s">
         <v>1175</v>
@@ -23424,25 +24579,25 @@
     </row>
     <row r="76" spans="2:24">
       <c r="B76" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C76" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D76" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="F76">
         <v>11</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>1497</v>
+        <v>1489</v>
       </c>
       <c r="K76" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="P76" t="s">
-        <v>1498</v>
+        <v>1490</v>
       </c>
       <c r="Q76" t="str">
         <f t="shared" si="0"/>
@@ -23454,22 +24609,22 @@
     </row>
     <row r="77" spans="2:24">
       <c r="B77" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D77" t="s">
         <v>1491</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1499</v>
       </c>
       <c r="F77">
         <v>5</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>1500</v>
+        <v>1492</v>
       </c>
       <c r="K77" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="P77" t="s">
-        <v>1501</v>
+        <v>1493</v>
       </c>
       <c r="Q77" t="str">
         <f t="shared" si="0"/>
@@ -23481,22 +24636,22 @@
     </row>
     <row r="78" spans="2:24">
       <c r="B78" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D78" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="F78">
         <v>5</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
       <c r="K78" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="P78" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
       <c r="Q78" t="str">
         <f t="shared" si="0"/>
@@ -23508,22 +24663,22 @@
     </row>
     <row r="79" spans="2:24">
       <c r="B79" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D79" t="s">
         <v>1491</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1499</v>
       </c>
       <c r="F79">
         <v>6</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>1505</v>
+        <v>1497</v>
       </c>
       <c r="K79" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P79" t="s">
-        <v>1506</v>
+        <v>1498</v>
       </c>
       <c r="Q79" t="str">
         <f t="shared" si="0"/>
@@ -23535,22 +24690,22 @@
     </row>
     <row r="80" spans="2:24">
       <c r="B80" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D80" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="F80">
         <v>6</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>1507</v>
+        <v>1499</v>
       </c>
       <c r="K80" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P80" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
       <c r="Q80" t="str">
         <f t="shared" si="0"/>
@@ -23562,25 +24717,25 @@
     </row>
     <row r="81" spans="2:24">
       <c r="B81" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C81" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D81" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="F81">
         <v>6</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="K81" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P81" t="s">
-        <v>1510</v>
+        <v>1502</v>
       </c>
       <c r="Q81" t="str">
         <f t="shared" si="0"/>
@@ -23592,22 +24747,22 @@
     </row>
     <row r="82" spans="2:24">
       <c r="B82" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D82" t="s">
         <v>1491</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1499</v>
       </c>
       <c r="F82">
         <v>4</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>1511</v>
+        <v>1503</v>
       </c>
       <c r="K82" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P82" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="Q82" t="str">
         <f t="shared" si="0"/>
@@ -23619,22 +24774,22 @@
     </row>
     <row r="83" spans="2:24">
       <c r="B83" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D83" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="F83">
         <v>4</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
       <c r="K83" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P83" t="s">
-        <v>1514</v>
+        <v>1506</v>
       </c>
       <c r="Q83" t="str">
         <f t="shared" si="0"/>
@@ -23646,14 +24801,14 @@
     </row>
     <row r="84" spans="2:24">
       <c r="B84" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D84" s="2"/>
       <c r="J84" s="1" t="s">
         <v>1160</v>
       </c>
       <c r="K84" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="P84" t="s">
         <v>1176</v>
@@ -23665,22 +24820,22 @@
     </row>
     <row r="85" spans="2:24">
       <c r="B85" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D85" t="s">
         <v>1491</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1499</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>1515</v>
+        <v>1507</v>
       </c>
       <c r="K85" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="P85" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
       <c r="Q85" t="str">
         <f t="shared" si="0"/>
@@ -23692,55 +24847,55 @@
     </row>
     <row r="86" spans="2:24">
       <c r="B86" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C86" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D86" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="E86" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="K86" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="P86" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="Q86" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some 'line along proximal-distal axis of metacarpal bone of digit 3')</v>
       </c>
       <c r="X86" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="87" spans="2:24">
       <c r="B87" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D87" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>1519</v>
+        <v>1511</v>
       </c>
       <c r="K87" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="P87" t="s">
-        <v>1520</v>
+        <v>1512</v>
       </c>
       <c r="Q87" t="str">
         <f t="shared" si="0"/>
@@ -23752,22 +24907,22 @@
     </row>
     <row r="88" spans="2:24">
       <c r="B88" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D88" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
       <c r="F88">
         <v>3</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>1522</v>
+        <v>1514</v>
       </c>
       <c r="K88" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="P88" t="s">
-        <v>1523</v>
+        <v>1515</v>
       </c>
       <c r="Q88" t="str">
         <f t="shared" si="0"/>
@@ -23779,22 +24934,22 @@
     </row>
     <row r="89" spans="2:24">
       <c r="B89" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D89" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="F89">
         <v>3</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>1524</v>
+        <v>1516</v>
       </c>
       <c r="K89" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="P89" t="s">
-        <v>1525</v>
+        <v>1517</v>
       </c>
       <c r="Q89" t="str">
         <f t="shared" si="0"/>
@@ -23806,22 +24961,22 @@
     </row>
     <row r="90" spans="2:24">
       <c r="B90" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D90" t="s">
         <v>1491</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1499</v>
       </c>
       <c r="F90">
         <v>3</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>1526</v>
+        <v>1518</v>
       </c>
       <c r="K90" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="P90" t="s">
-        <v>1527</v>
+        <v>1519</v>
       </c>
       <c r="Q90" t="str">
         <f t="shared" si="0"/>
@@ -23833,22 +24988,22 @@
     </row>
     <row r="91" spans="2:24">
       <c r="B91" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D91" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="F91">
         <v>3</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>1528</v>
+        <v>1520</v>
       </c>
       <c r="K91" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="P91" t="s">
-        <v>1529</v>
+        <v>1521</v>
       </c>
       <c r="Q91" t="str">
         <f t="shared" si="0"/>
@@ -23860,25 +25015,25 @@
     </row>
     <row r="92" spans="2:24">
       <c r="B92" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C92" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D92" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="F92">
         <v>11</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
       <c r="K92" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="P92" t="s">
-        <v>1532</v>
+        <v>1524</v>
       </c>
       <c r="Q92" t="str">
         <f t="shared" si="0"/>
@@ -23890,22 +25045,22 @@
     </row>
     <row r="93" spans="2:24">
       <c r="B93" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D93" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
       <c r="F93">
         <v>5</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>1533</v>
+        <v>1525</v>
       </c>
       <c r="K93" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="P93" t="s">
-        <v>1534</v>
+        <v>1526</v>
       </c>
       <c r="Q93" t="str">
         <f t="shared" si="0"/>
@@ -23917,22 +25072,22 @@
     </row>
     <row r="94" spans="2:24">
       <c r="B94" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D94" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
       <c r="F94">
         <v>5</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="K94" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="P94" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="Q94" t="str">
         <f t="shared" si="0"/>
@@ -23944,130 +25099,130 @@
     </row>
     <row r="95" spans="2:24">
       <c r="B95" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C95" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D95" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="E95" t="s">
-        <v>1539</v>
+        <v>1531</v>
       </c>
       <c r="F95">
         <v>5</v>
       </c>
       <c r="I95" t="s">
-        <v>1540</v>
+        <v>1532</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>1541</v>
+        <v>1533</v>
       </c>
       <c r="K95" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="P95" t="s">
-        <v>1542</v>
+        <v>1534</v>
       </c>
       <c r="Q95" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some 'line along medial-lateral axis of proximal surface some metatarsal bone of digit 3')</v>
       </c>
       <c r="X95" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="96" spans="2:24">
       <c r="B96" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C96" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D96" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="E96" t="s">
-        <v>1543</v>
+        <v>1535</v>
       </c>
       <c r="F96">
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>1544</v>
+        <v>1536</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>1545</v>
+        <v>1537</v>
       </c>
       <c r="K96" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="P96" t="s">
-        <v>1546</v>
+        <v>1538</v>
       </c>
       <c r="Q96" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some 'line along medial-lateral axis of anterior surface some metacarpal bone of digit 3')</v>
       </c>
       <c r="X96" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="97" spans="2:24">
       <c r="B97" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C97" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D97" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="E97" t="s">
-        <v>1543</v>
+        <v>1535</v>
       </c>
       <c r="F97">
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>1544</v>
+        <v>1536</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>1547</v>
+        <v>1539</v>
       </c>
       <c r="K97" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="P97" t="s">
-        <v>1548</v>
+        <v>1540</v>
       </c>
       <c r="Q97" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some 'line along medial-lateral axis of anterior surface some metatarsal bone of digit 3')</v>
       </c>
       <c r="X97" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="98" spans="2:24">
       <c r="B98" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D98" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
       <c r="F98">
         <v>6</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>1549</v>
+        <v>1541</v>
       </c>
       <c r="K98" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P98" t="s">
-        <v>1550</v>
+        <v>1542</v>
       </c>
       <c r="Q98" t="str">
         <f t="shared" si="0"/>
@@ -24079,22 +25234,22 @@
     </row>
     <row r="99" spans="2:24">
       <c r="B99" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D99" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
       <c r="F99">
         <v>6</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="K99" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P99" t="s">
-        <v>1552</v>
+        <v>1544</v>
       </c>
       <c r="Q99" t="str">
         <f t="shared" si="0"/>
@@ -24106,25 +25261,25 @@
     </row>
     <row r="100" spans="2:24">
       <c r="B100" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C100" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D100" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="F100">
         <v>6</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>1553</v>
+        <v>1545</v>
       </c>
       <c r="K100" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P100" t="s">
-        <v>1554</v>
+        <v>1546</v>
       </c>
       <c r="Q100" t="str">
         <f t="shared" si="0"/>
@@ -24136,22 +25291,22 @@
     </row>
     <row r="101" spans="2:24">
       <c r="B101" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D101" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
       <c r="F101">
         <v>4</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>1555</v>
+        <v>1547</v>
       </c>
       <c r="K101" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P101" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="Q101" t="str">
         <f t="shared" si="0"/>
@@ -24163,22 +25318,22 @@
     </row>
     <row r="102" spans="2:24">
       <c r="B102" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D102" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
       <c r="F102">
         <v>4</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>1557</v>
+        <v>1549</v>
       </c>
       <c r="K102" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P102" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="Q102" t="str">
         <f t="shared" si="0"/>
@@ -24190,13 +25345,13 @@
     </row>
     <row r="103" spans="2:24">
       <c r="B103" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>1169</v>
       </c>
       <c r="K103" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="P103" t="s">
         <v>1177</v>
@@ -24208,22 +25363,22 @@
     </row>
     <row r="104" spans="2:24">
       <c r="B104" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D104" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
       <c r="F104">
         <v>1</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>1559</v>
+        <v>1551</v>
       </c>
       <c r="K104" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="P104" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="Q104" t="str">
         <f t="shared" si="0"/>
@@ -24235,28 +25390,28 @@
     </row>
     <row r="105" spans="2:24">
       <c r="B105" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C105" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D105" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="E105" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="F105">
         <v>1</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="K105" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="P105" t="s">
-        <v>1562</v>
+        <v>1554</v>
       </c>
       <c r="Q105" t="str">
         <f t="shared" si="0"/>
@@ -24268,22 +25423,22 @@
     </row>
     <row r="106" spans="2:24">
       <c r="B106" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D106" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
       <c r="F106">
         <v>1</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>1563</v>
+        <v>1555</v>
       </c>
       <c r="K106" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="P106" t="s">
-        <v>1564</v>
+        <v>1556</v>
       </c>
       <c r="Q106" t="str">
         <f t="shared" si="0"/>
@@ -24295,94 +25450,94 @@
     </row>
     <row r="107" spans="2:24">
       <c r="B107" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D107" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="E107" t="s">
-        <v>1565</v>
+        <v>1557</v>
       </c>
       <c r="F107">
         <v>12</v>
       </c>
       <c r="I107" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>1567</v>
+        <v>1559</v>
       </c>
       <c r="K107" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P107" t="s">
-        <v>1568</v>
+        <v>1560</v>
       </c>
       <c r="Q107" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some 'line along anterior-posterior axis of distal keel of metacarpal bone of digit 3')</v>
       </c>
       <c r="X107" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="108" spans="2:24">
       <c r="B108" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C108" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D108" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="E108" t="s">
-        <v>1565</v>
+        <v>1557</v>
       </c>
       <c r="F108">
         <v>12</v>
       </c>
       <c r="I108" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>1569</v>
+        <v>1561</v>
       </c>
       <c r="K108" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P108" t="s">
-        <v>1570</v>
+        <v>1562</v>
       </c>
       <c r="Q108" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some 'line along anterior-posterior axis of distal keel of metatarsal bone of digit 3')</v>
       </c>
       <c r="X108" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="109" spans="2:24">
       <c r="B109" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C109" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D109" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="F109">
         <v>13</v>
       </c>
       <c r="J109" t="s">
-        <v>1571</v>
+        <v>1563</v>
       </c>
       <c r="K109" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P109" t="s">
-        <v>1572</v>
+        <v>1564</v>
       </c>
       <c r="Q109" t="str">
         <f t="shared" si="0"/>
@@ -24391,25 +25546,25 @@
     </row>
     <row r="110" spans="2:24">
       <c r="B110" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C110" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D110" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="F110">
         <v>14</v>
       </c>
       <c r="J110" t="s">
-        <v>1573</v>
+        <v>1565</v>
       </c>
       <c r="K110" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P110" t="s">
-        <v>1574</v>
+        <v>1566</v>
       </c>
       <c r="Q110" t="str">
         <f t="shared" si="0"/>
@@ -24418,22 +25573,22 @@
     </row>
     <row r="111" spans="2:24">
       <c r="B111" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D111" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="F111">
         <v>13</v>
       </c>
       <c r="J111" t="s">
-        <v>1575</v>
+        <v>1567</v>
       </c>
       <c r="K111" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P111" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
       <c r="Q111" t="str">
         <f t="shared" si="0"/>
@@ -24442,22 +25597,22 @@
     </row>
     <row r="112" spans="2:24">
       <c r="B112" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D112" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="F112">
         <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
       <c r="K112" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P112" t="s">
-        <v>1578</v>
+        <v>1570</v>
       </c>
       <c r="Q112" t="str">
         <f t="shared" si="0"/>
@@ -24466,61 +25621,61 @@
     </row>
     <row r="113" spans="2:24">
       <c r="B113" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C113" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D113" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="E113" t="s">
-        <v>1539</v>
+        <v>1531</v>
       </c>
       <c r="F113">
         <v>5</v>
       </c>
       <c r="I113" t="s">
-        <v>1540</v>
+        <v>1532</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>1579</v>
+        <v>1571</v>
       </c>
       <c r="K113" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="P113" t="s">
-        <v>1580</v>
+        <v>1572</v>
       </c>
       <c r="Q113" t="str">
         <f t="shared" si="0"/>
         <v>length and ('inheres in' some 'line along medial-lateral axis of proximal surface some metacarpal bone of digit 3')</v>
       </c>
       <c r="X113" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="114" spans="2:24">
       <c r="B114" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C114" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D114" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="F114">
         <v>2</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>1581</v>
+        <v>1573</v>
       </c>
       <c r="K114" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="P114" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="Q114" t="str">
         <f t="shared" si="0"/>
@@ -24529,22 +25684,22 @@
     </row>
     <row r="115" spans="2:24">
       <c r="B115" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D115" t="s">
         <v>1491</v>
-      </c>
-      <c r="D115" t="s">
-        <v>1499</v>
       </c>
       <c r="F115">
         <v>2</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>1582</v>
+        <v>1574</v>
       </c>
       <c r="K115" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P115" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
       <c r="Q115" t="str">
         <f t="shared" si="0"/>
@@ -24553,22 +25708,22 @@
     </row>
     <row r="116" spans="2:24">
       <c r="B116" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D116" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="F116">
         <v>2</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
       <c r="K116" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P116" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
       <c r="Q116" t="str">
         <f t="shared" si="0"/>
@@ -24577,25 +25732,25 @@
     </row>
     <row r="117" spans="2:24">
       <c r="B117" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C117" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D117" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="F117">
         <v>2</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
       <c r="K117" s="23" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="P117" t="s">
-        <v>1562</v>
+        <v>1554</v>
       </c>
       <c r="Q117" t="str">
         <f t="shared" si="0"/>
@@ -24604,22 +25759,22 @@
     </row>
     <row r="118" spans="2:24">
       <c r="B118" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="D118" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
       <c r="F118">
         <v>2</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
       <c r="K118" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P118" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="Q118" t="str">
         <f t="shared" si="0"/>
@@ -24628,20 +25783,20 @@
     </row>
     <row r="119" spans="2:24">
       <c r="D119" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
       <c r="F119" s="1">
         <v>2</v>
       </c>
       <c r="I119" s="1"/>
       <c r="J119" s="1" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
       <c r="K119" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="P119" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
       <c r="Q119" t="str">
         <f t="shared" si="0"/>
@@ -24653,20 +25808,20 @@
     </row>
     <row r="120" spans="2:24">
       <c r="C120" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D120" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="F120" s="1">
         <v>8</v>
       </c>
       <c r="I120" s="1"/>
       <c r="J120" s="1" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
       <c r="K120" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="L120" s="1"/>
       <c r="X120" t="s">
@@ -24675,20 +25830,20 @@
     </row>
     <row r="121" spans="2:24">
       <c r="C121" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D121" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="F121" s="2">
         <v>8</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="1" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
       <c r="K121" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="L121" s="2"/>
       <c r="X121" t="s">
@@ -24697,17 +25852,17 @@
     </row>
     <row r="122" spans="2:24">
       <c r="D122" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="F122" s="1">
         <v>9</v>
       </c>
       <c r="I122" s="1"/>
       <c r="J122" s="1" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
       <c r="K122" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="L122" s="1"/>
       <c r="X122" t="s">
@@ -24716,20 +25871,20 @@
     </row>
     <row r="123" spans="2:24">
       <c r="C123" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D123" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="F123" s="1">
         <v>9</v>
       </c>
       <c r="I123" s="1"/>
       <c r="J123" s="1" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
       <c r="K123" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="L123" s="1"/>
       <c r="X123" t="s">
@@ -24738,17 +25893,17 @@
     </row>
     <row r="124" spans="2:24">
       <c r="D124" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="F124" s="1">
         <v>16</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" s="1" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
       <c r="K124" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="L124" s="1"/>
       <c r="X124" t="s">
@@ -24757,27 +25912,27 @@
     </row>
     <row r="125" spans="2:24">
       <c r="B125" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C125" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D125" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="F125" s="1">
         <v>4</v>
       </c>
       <c r="I125" s="1"/>
       <c r="J125" s="1" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
       <c r="K125" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="L125" s="1"/>
       <c r="P125" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
       <c r="Q125" t="str">
         <f t="shared" si="0"/>
@@ -24789,27 +25944,27 @@
     </row>
     <row r="126" spans="2:24">
       <c r="B126" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C126" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D126" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="F126" s="1">
         <v>4</v>
       </c>
       <c r="I126" s="1"/>
       <c r="J126" s="1" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
       <c r="K126" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="L126" s="1"/>
       <c r="P126" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
       <c r="Q126" t="str">
         <f t="shared" si="0"/>
@@ -24928,16 +26083,16 @@
     </row>
     <row r="138" spans="3:24">
       <c r="C138" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D138" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="F138">
         <v>7</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
       <c r="X138" t="s">
         <v>1178</v>
@@ -24945,13 +26100,13 @@
     </row>
     <row r="139" spans="3:24">
       <c r="D139" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="F139">
         <v>10</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
       <c r="X139" t="s">
         <v>1178</v>
@@ -24959,16 +26114,16 @@
     </row>
     <row r="140" spans="3:24">
       <c r="C140" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D140" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="F140">
         <v>10</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
       <c r="X140" t="s">
         <v>1178</v>
@@ -24976,16 +26131,16 @@
     </row>
     <row r="141" spans="3:24">
       <c r="C141" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D141" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="F141">
         <v>7</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="X141" t="s">
         <v>1178</v>
@@ -24993,16 +26148,16 @@
     </row>
     <row r="142" spans="3:24">
       <c r="D142" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="E142" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
       <c r="I142" t="s">
-        <v>1605</v>
+        <v>1597</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="X142" t="s">
         <v>1179</v>
@@ -25010,14 +26165,14 @@
     </row>
     <row r="143" spans="3:24">
       <c r="D143" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="E143" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="I143" s="1"/>
       <c r="J143" s="1" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="X143" t="s">
         <v>1179</v>
@@ -25025,13 +26180,13 @@
     </row>
     <row r="144" spans="3:24">
       <c r="D144" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
       <c r="E144" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="X144" t="s">
         <v>1179</v>
@@ -25039,13 +26194,13 @@
     </row>
     <row r="145" spans="3:24">
       <c r="D145" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
       <c r="E145" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="X145" t="s">
         <v>1179</v>
@@ -25053,13 +26208,13 @@
     </row>
     <row r="146" spans="3:24">
       <c r="D146" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
       <c r="E146" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="X146" t="s">
         <v>1179</v>
@@ -25067,16 +26222,16 @@
     </row>
     <row r="147" spans="3:24">
       <c r="D147" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
       <c r="E147" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="I147" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="X147" t="s">
         <v>1179</v>
@@ -25084,13 +26239,13 @@
     </row>
     <row r="148" spans="3:24">
       <c r="D148" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
       <c r="E148" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="X148" t="s">
         <v>1179</v>
@@ -25098,186 +26253,186 @@
     </row>
     <row r="149" spans="3:24">
       <c r="C149" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D149" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="E149" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="F149">
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="K149" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="150" spans="3:24">
       <c r="D150" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="151" spans="3:24">
       <c r="C151" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D151" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="E151" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="J151" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="K151" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="152" spans="3:24">
       <c r="C152" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D152" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="E152" t="s">
-        <v>1539</v>
+        <v>1531</v>
       </c>
       <c r="F152">
         <v>5</v>
       </c>
       <c r="I152" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="J152" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="153" spans="3:24">
       <c r="C153" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D153" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="E153" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="I153" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
       <c r="J153" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="154" spans="3:24">
       <c r="C154" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D154" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E154" t="s">
         <v>1618</v>
-      </c>
-      <c r="E154" t="s">
-        <v>1626</v>
       </c>
       <c r="F154">
         <v>10</v>
       </c>
       <c r="I154" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="J154" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="155" spans="3:24">
       <c r="C155" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D155" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="E155" t="s">
-        <v>1543</v>
+        <v>1535</v>
       </c>
       <c r="F155">
         <v>3</v>
       </c>
       <c r="G155" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="I155" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="J155" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="156" spans="3:24">
       <c r="C156" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D156" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="E156" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="J156" t="s">
-        <v>1632</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="157" spans="3:24">
       <c r="C157" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D157" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="E157" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="F157">
         <v>7</v>
       </c>
       <c r="I157" t="s">
-        <v>1633</v>
+        <v>1625</v>
       </c>
       <c r="J157" t="s">
-        <v>1634</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="158" spans="3:24">
       <c r="C158" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D158" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="F158">
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>1635</v>
+        <v>1627</v>
       </c>
       <c r="K158" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="159" spans="3:24">
       <c r="C159" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D159" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="F159">
         <v>4</v>
@@ -25285,144 +26440,144 @@
     </row>
     <row r="160" spans="3:24">
       <c r="C160" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D160" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="F160">
         <v>6</v>
       </c>
       <c r="I160" t="s">
-        <v>1636</v>
+        <v>1628</v>
       </c>
       <c r="J160" t="s">
-        <v>1637</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="161" spans="3:11">
       <c r="C161" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D161" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="F161">
         <v>8</v>
       </c>
       <c r="I161" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
       <c r="J161" t="s">
-        <v>1639</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="162" spans="3:11">
       <c r="C162" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D162" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="F162">
         <v>9</v>
       </c>
       <c r="I162" t="s">
-        <v>1640</v>
+        <v>1632</v>
       </c>
       <c r="J162" t="s">
-        <v>1641</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="163" spans="3:11">
       <c r="C163" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D163" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="E163" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="F163">
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>1643</v>
+        <v>1635</v>
       </c>
       <c r="K163" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="164" spans="3:11">
       <c r="C164" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D164" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="F164">
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
       <c r="K164" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="165" spans="3:11">
       <c r="C165" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D165" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="E165" t="s">
-        <v>1543</v>
+        <v>1535</v>
       </c>
       <c r="F165">
         <v>3</v>
       </c>
       <c r="I165" t="s">
-        <v>1646</v>
+        <v>1638</v>
       </c>
       <c r="J165" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="166" spans="3:11">
       <c r="C166" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D166" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="F166">
         <v>4</v>
       </c>
       <c r="I166" t="s">
-        <v>1648</v>
+        <v>1640</v>
       </c>
       <c r="J166" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="167" spans="3:11">
       <c r="C167" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D167" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="E167" t="s">
-        <v>1539</v>
+        <v>1531</v>
       </c>
       <c r="F167">
         <v>5</v>
       </c>
       <c r="I167" t="s">
-        <v>1650</v>
+        <v>1642</v>
       </c>
       <c r="J167" t="s">
         <v>720</v>
@@ -25430,56 +26585,56 @@
     </row>
     <row r="168" spans="3:11">
       <c r="C168" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D168" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="F168">
         <v>6</v>
       </c>
       <c r="I168" t="s">
-        <v>1651</v>
+        <v>1643</v>
       </c>
       <c r="J168" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="169" spans="3:11">
       <c r="C169" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D169" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="E169" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="F169">
         <v>7</v>
       </c>
       <c r="I169" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
       <c r="J169" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="170" spans="3:11">
       <c r="C170" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D170" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="E170" t="s">
-        <v>1565</v>
+        <v>1557</v>
       </c>
       <c r="F170">
         <v>8</v>
       </c>
       <c r="I170" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
       <c r="J170" t="s">
         <v>715</v>
@@ -25487,155 +26642,155 @@
     </row>
     <row r="171" spans="3:11">
       <c r="C171" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D171" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="F171">
         <v>9</v>
       </c>
       <c r="J171" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="172" spans="3:11">
       <c r="C172" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D172" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="E172" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="J172" t="s">
-        <v>1657</v>
+        <v>1649</v>
       </c>
       <c r="K172" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="173" spans="3:11">
       <c r="C173" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D173" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="E173" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="J173" t="s">
-        <v>1658</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="174" spans="3:11">
       <c r="C174" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D174" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="E174" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
       <c r="G174" t="s">
-        <v>1660</v>
+        <v>1652</v>
       </c>
       <c r="J174" t="s">
-        <v>1661</v>
+        <v>1653</v>
       </c>
       <c r="K174" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="175" spans="3:11">
       <c r="C175" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D175" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="I175" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
       <c r="J175" t="s">
-        <v>1663</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="176" spans="3:11">
       <c r="C176" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D176" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="E176" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="F176">
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
       <c r="J176" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="K176" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="177" spans="3:11">
       <c r="C177" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D177" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="E177" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="F177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="K177" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="178" spans="3:11">
       <c r="C178" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D178" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="E178" t="s">
-        <v>1543</v>
+        <v>1535</v>
       </c>
       <c r="F178">
         <v>3</v>
       </c>
       <c r="G178" t="s">
-        <v>1666</v>
+        <v>1658</v>
       </c>
       <c r="I178" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
       <c r="J178" t="s">
-        <v>1668</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="179" spans="3:11">
       <c r="C179" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D179" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="F179">
         <v>4</v>
@@ -25643,211 +26798,211 @@
     </row>
     <row r="180" spans="3:11">
       <c r="C180" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D180" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="E180" t="s">
-        <v>1539</v>
+        <v>1531</v>
       </c>
       <c r="F180">
         <v>5</v>
       </c>
       <c r="I180" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
       <c r="J180" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="181" spans="3:11">
       <c r="C181" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D181" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="F181">
         <v>6</v>
       </c>
       <c r="I181" t="s">
-        <v>1671</v>
+        <v>1663</v>
       </c>
       <c r="J181" t="s">
-        <v>1672</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="182" spans="3:11">
       <c r="C182" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D182" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="E182" t="s">
-        <v>1673</v>
+        <v>1665</v>
       </c>
       <c r="F182">
         <v>7</v>
       </c>
       <c r="G182" t="s">
-        <v>1674</v>
+        <v>1666</v>
       </c>
       <c r="I182" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="J182" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="183" spans="3:11">
       <c r="C183" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D183" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="F183">
         <v>8</v>
       </c>
       <c r="I183" t="s">
-        <v>1677</v>
+        <v>1669</v>
       </c>
       <c r="J183" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="184" spans="3:11">
       <c r="C184" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D184" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="F184">
         <v>9</v>
       </c>
       <c r="J184" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="185" spans="3:11">
       <c r="C185" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D185" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="F185">
         <v>10</v>
       </c>
       <c r="J185" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="186" spans="3:11">
       <c r="C186" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D186" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="F186">
         <v>11</v>
       </c>
       <c r="J186" t="s">
-        <v>1681</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="187" spans="3:11">
       <c r="C187" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D187" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="E187" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="J187" t="s">
-        <v>1682</v>
+        <v>1674</v>
       </c>
       <c r="K187" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="188" spans="3:11">
       <c r="C188" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D188" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="E188" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
       <c r="I188" t="s">
-        <v>1683</v>
+        <v>1675</v>
       </c>
       <c r="J188" t="s">
-        <v>1684</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="189" spans="3:11">
       <c r="C189" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D189" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="E189" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="I189" t="s">
-        <v>1685</v>
+        <v>1677</v>
       </c>
       <c r="J189" t="s">
-        <v>1686</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="190" spans="3:11">
       <c r="C190" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D190" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="J190" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="191" spans="3:11">
       <c r="I191" t="s">
-        <v>1687</v>
+        <v>1679</v>
       </c>
       <c r="J191" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="192" spans="3:11">
       <c r="J192" t="s">
-        <v>1689</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="193" spans="10:10">
       <c r="J193" t="s">
-        <v>1690</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="194" spans="10:10">
       <c r="J194" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="195" spans="10:10">
       <c r="J195" t="s">
-        <v>1692</v>
+        <v>1684</v>
       </c>
     </row>
   </sheetData>
@@ -25863,7 +27018,7 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdebasto\Desktop\GitHub\fovt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB8386D-FEAC-46B3-8C6C-BE63CEBBA16A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86EDB7F-5940-4019-9D29-3029BDF40CB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4000" uniqueCount="1860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4018" uniqueCount="1870">
   <si>
     <t>Status</t>
   </si>
@@ -5172,12 +5172,6 @@
     <t>add structures to uberon</t>
   </si>
   <si>
-    <t>Metacarpal II distal articular breadth; M5; Bp</t>
-  </si>
-  <si>
-    <t>Metacarpal IV distal articular breadth; M5; Bp</t>
-  </si>
-  <si>
     <t>Metacarpal greatest length; M1; GL</t>
   </si>
   <si>
@@ -5238,9 +5232,6 @@
     <t>Metapodial III+IV greatest length; GL</t>
   </si>
   <si>
-    <t>Metapodial III+IV greatest length of lateral part; GLl</t>
-  </si>
-  <si>
     <t>Metapodial III+IV proximal breadth; Bp</t>
   </si>
   <si>
@@ -5262,9 +5253,6 @@
     <t>Metacarpal III+IV greatest length; GL</t>
   </si>
   <si>
-    <t>Metacarpal III+IV greatest length of lateral part; GLl</t>
-  </si>
-  <si>
     <t>Metacarpal III+IV proximal breadth; Bp</t>
   </si>
   <si>
@@ -5286,9 +5274,6 @@
     <t>Metatarsal III+IV greatest length; GL</t>
   </si>
   <si>
-    <t>Metatarsal III+IV greatest length of lateral part; GLl</t>
-  </si>
-  <si>
     <t>Metatarsal III+IV proximal breadth; Bp</t>
   </si>
   <si>
@@ -5349,9 +5334,6 @@
     <t>Metapodial length without plantar projection; LeP</t>
   </si>
   <si>
-    <t>Metapodial depth at middle of diaphysis; B</t>
-  </si>
-  <si>
     <t>Metacarpal III length without plantar projection; LeP</t>
   </si>
   <si>
@@ -5619,9 +5601,6 @@
     <t>fused metatarsal bones 3 and 4</t>
   </si>
   <si>
-    <t>lateral surface some fused metacarpal bones 3 and 4</t>
-  </si>
-  <si>
     <t>proximal surface some fused metacarpal bones 3 and 4</t>
   </si>
   <si>
@@ -5637,9 +5616,6 @@
     <t>diaphysis some fused metapodial bones 3 ad 4</t>
   </si>
   <si>
-    <t>lateral surface some fused metatarsal bones 3 and 4</t>
-  </si>
-  <si>
     <t>proximal surface some fused metatarsal bones 3 and 4</t>
   </si>
   <si>
@@ -5673,9 +5649,6 @@
     <t>diaphysis some metacarpal bone of digit 3</t>
   </si>
   <si>
-    <t>Metacarpal III depth at middle of diaphysis; B; M4</t>
-  </si>
-  <si>
     <t>metapodial bone of digit 5</t>
   </si>
   <si>
@@ -5692,6 +5665,63 @@
   </si>
   <si>
     <t>distal surface some metatarsal bone of digit 5</t>
+  </si>
+  <si>
+    <t>diaphysis some metapodial bone of digit 3</t>
+  </si>
+  <si>
+    <t>diaphysis some metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metacarpal III depth at middle of diaphysis; DD; M4</t>
+  </si>
+  <si>
+    <t>Metapodial depth at middle of diaphysis; DD</t>
+  </si>
+  <si>
+    <t>Metacarpal II distal articular breadth; M5; Bd</t>
+  </si>
+  <si>
+    <t>Metacarpal IV distal articular breadth; M5; Bd</t>
+  </si>
+  <si>
+    <t>lateral epicondylar tuberosity of metapodial III</t>
+  </si>
+  <si>
+    <t>medial epicondylar tuberosity of metapodial III</t>
+  </si>
+  <si>
+    <t>distal keel metapodial III</t>
+  </si>
+  <si>
+    <t>distal keel metacarpal IV</t>
+  </si>
+  <si>
+    <t>distal keel metapodial IV</t>
+  </si>
+  <si>
+    <t>distal keel metatarsal IV</t>
+  </si>
+  <si>
+    <t>distal keel metapodial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sagittal ridge located at the distal end of metacarpal bone of digit 4. It divides the medial and the lateral condyles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sagittal ridge located at the distal end of metapodial bone of digit 4. It divides the medial and the lateral condyles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sagittal ridge located at the distal end of metapodial bone of digit 3. It divides the medial and the lateral condyles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sagittal ridge located at the distal end of metapodial bone. It divides the medial and the lateral condyles. </t>
+  </si>
+  <si>
+    <t>Lateral tuberosity located above the lateral condyle of the metapodial bone of digit 3. It's the attachment site for collateral ligaments of the metacarpal/tarsal-phalangeal joint.</t>
+  </si>
+  <si>
+    <t>Medial tuberosity located above the medial condyle of the metapodial bone of digit 3. It's the attachment site for collateral ligaments of the metacarpal/tarsal-phalangeal joint.</t>
   </si>
 </sst>
 </file>
@@ -20676,10 +20706,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BA4F15-3142-994E-BF8B-16093E97474D}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -20710,166 +20740,236 @@
       <c r="A2" s="1" t="s">
         <v>1204</v>
       </c>
+      <c r="B2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"line that connects "&amp;B2&amp;" and "&amp;C2</f>
+        <v>line that connects lateral epicondylar tuberosity of metacarpal III and medial epicondylar tuberosity of metacarpal III</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1205</v>
       </c>
+      <c r="B3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D3" t="str">
+        <f>"line that connects "&amp;B3&amp;" and "&amp;C3</f>
+        <v>line that connects lateral epicondylar tuberosity of metatarsal III and medial epicondylar tuberosity of metatarsal III</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>1765</v>
+        <v>1759</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D4" t="str">
+        <f>"line that connects "&amp;B4&amp;" and "&amp;C4</f>
+        <v>line that connects lateral epicondylar tuberosity of metapodial III and medial epicondylar tuberosity of metapodial III</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1860</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>1253</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B11" t="s">
         <v>1255</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C11" t="s">
         <v>1256</v>
       </c>
-      <c r="D6" t="str">
-        <f>"line that connects "&amp;B6&amp;" and "&amp;C6</f>
+      <c r="D11" t="str">
+        <f>"line that connects "&amp;B11&amp;" and "&amp;C11</f>
         <v>line that connects nose tip and 'anatomical point' and 'distalmost part of' some tail)</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>1254</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B12" t="s">
         <v>1255</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C12" t="s">
         <v>1257</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" ref="D7" si="0">"line that connects "&amp;B7&amp;" and "&amp;C7</f>
+      <c r="D12" t="str">
+        <f t="shared" ref="D12" si="0">"line that connects "&amp;B12&amp;" and "&amp;C12</f>
         <v>line that connects nose tip and anus</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>1258</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B13" t="s">
         <v>1259</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C13" t="s">
         <v>1260</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" ref="D8:D15" si="1">"line that connects "&amp;B8&amp;" and "&amp;C8</f>
+      <c r="D13" t="str">
+        <f t="shared" ref="D13:D20" si="1">"line that connects "&amp;B13&amp;" and "&amp;C13</f>
         <v>line that connects helix and intertragic notch</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>1261</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B14" t="s">
         <v>1259</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C14" t="s">
         <v>1262</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D14" t="str">
         <f t="shared" si="1"/>
         <v>line that connects helix and tragus</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>1284</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B15" s="22" t="s">
         <v>1263</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C15" s="22" t="s">
         <v>1264</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D15" t="str">
         <f t="shared" si="1"/>
         <v>line that connects anatomical point' and ('part of' some ('distalmost part of' some 'heel')) and anatomical point' and ('part of' some ('distalmost part of' some 'cutaneous appendage'))</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>1285</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B16" s="22" t="s">
         <v>1263</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C16" s="22" t="s">
         <v>1265</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D16" t="str">
         <f t="shared" si="1"/>
         <v>line that connects anatomical point' and ('part of' some ('distalmost part of' some 'heel')) and anatomical point' and ('part of' some ('distalmost part of' some 'phalanx of pes'))</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>1347</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B17" t="s">
         <v>1351</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C17" t="s">
         <v>1353</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D17" t="str">
         <f t="shared" si="1"/>
         <v>line that connects trochlea of humerus and ventral tubercle of humerus</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>1348</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B18" t="s">
         <v>1351</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C18" t="s">
         <v>1352</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D18" t="str">
         <f t="shared" si="1"/>
         <v>line that connects trochlea of humerus and proximal head of humerus</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B19" t="s">
         <v>1354</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" t="s">
         <v>1355</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D19" t="str">
         <f t="shared" si="1"/>
         <v>line that connects medial condyle of femur and greater trochanter</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>1350</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>1354</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C20" t="s">
         <v>1356</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D20" t="str">
         <f t="shared" si="1"/>
         <v>line that connects medial condyle of femur and head of femur</v>
       </c>
@@ -20881,11 +20981,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01658F34-4982-8840-AF22-6E6480DB069B}">
-  <dimension ref="A1:D328"/>
+  <dimension ref="A1:D313"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -20912,7 +21012,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="B2" t="s">
         <v>108</v>
@@ -20927,7 +21027,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1686</v>
+        <v>1855</v>
       </c>
       <c r="B3" t="s">
         <v>108</v>
@@ -20942,7 +21042,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1687</v>
+        <v>1856</v>
       </c>
       <c r="B4" t="s">
         <v>108</v>
@@ -21032,7 +21132,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="B10" t="s">
         <v>110</v>
@@ -21047,7 +21147,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="B11" t="s">
         <v>110</v>
@@ -21062,7 +21162,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="B12" t="s">
         <v>110</v>
@@ -21077,7 +21177,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B13" t="s">
         <v>110</v>
@@ -21092,7 +21192,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="B14" t="s">
         <v>108</v>
@@ -21107,7 +21207,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="B15" t="s">
         <v>108</v>
@@ -21122,7 +21222,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="B16" t="s">
         <v>108</v>
@@ -21137,7 +21237,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="B17" t="s">
         <v>108</v>
@@ -21152,7 +21252,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="B18" t="s">
         <v>108</v>
@@ -21167,7 +21267,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="B19" t="s">
         <v>108</v>
@@ -21182,7 +21282,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B20" t="s">
         <v>108</v>
@@ -21197,7 +21297,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="B21" t="s">
         <v>108</v>
@@ -21212,7 +21312,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="B22" t="s">
         <v>108</v>
@@ -21227,7 +21327,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="B23" t="s">
         <v>108</v>
@@ -21317,7 +21417,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="B29" t="s">
         <v>110</v>
@@ -21332,7 +21432,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B30" t="s">
         <v>110</v>
@@ -21347,7 +21447,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="B31" t="s">
         <v>110</v>
@@ -21362,7 +21462,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B32" t="s">
         <v>110</v>
@@ -21377,7 +21477,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
       <c r="B33" t="s">
         <v>112</v>
@@ -21392,7 +21492,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="B34" t="s">
         <v>112</v>
@@ -21407,7 +21507,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="B35" t="s">
         <v>112</v>
@@ -21422,7 +21522,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
@@ -21437,7 +21537,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="B37" t="s">
         <v>112</v>
@@ -21452,7 +21552,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
       <c r="B38" t="s">
         <v>112</v>
@@ -21467,7 +21567,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="B39" t="s">
         <v>108</v>
@@ -21488,7 +21588,7 @@
         <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -21503,7 +21603,7 @@
         <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -21518,7 +21618,7 @@
         <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -21548,7 +21648,7 @@
         <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -21563,7 +21663,7 @@
         <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>1832</v>
+        <v>1826</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -21632,7 +21732,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="B50" t="s">
         <v>110</v>
@@ -21677,7 +21777,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="B53" t="s">
         <v>108</v>
@@ -21692,7 +21792,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="B54" t="s">
         <v>108</v>
@@ -21707,13 +21807,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B55" t="s">
         <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="2"/>
@@ -21721,143 +21821,177 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="1" t="s">
-        <v>1708</v>
+      <c r="A56" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" ref="D56:D60" si="3">"line along "&amp;B56&amp;" of "&amp;C56</f>
+        <v>line along medial-lateral axis of proximal surface some fused metapodial bones 3 and 4</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="3"/>
+        <v>line along anterior-posterior axis of proximal surface some fused metapodial bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
         <v>1708</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>1709</v>
       </c>
       <c r="B58" t="s">
         <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>1826</v>
+        <v>1833</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" ref="D58:D62" si="3">"line along "&amp;B58&amp;" of "&amp;C58</f>
-        <v>line along medial-lateral axis of proximal surface some fused metapodial bones 3 and 4</v>
+        <f t="shared" si="3"/>
+        <v>line along medial-lateral axis of diaphysis some fused metapodial bones 3 ad 4</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B59" t="s">
-        <v>112</v>
+        <v>1709</v>
       </c>
       <c r="C59" t="s">
-        <v>1826</v>
+        <v>1833</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="3"/>
-        <v>line along anterior-posterior axis of proximal surface some fused metapodial bones 3 and 4</v>
+        <v>line along  of diaphysis some fused metapodial bones 3 ad 4</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B60" t="s">
         <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>1840</v>
+        <v>1832</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="3"/>
-        <v>line along medial-lateral axis of diaphysis some fused metapodial bones 3 ad 4</v>
+        <v>line along medial-lateral axis of distal surface some fused metapodial 3 and 4</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
+      </c>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" ref="D61:D63" si="4">"line along "&amp;B61&amp;" of "&amp;C61</f>
+        <v>line along anterior-posterior axis of distal surface some fused metapodial 3 and 4</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="4"/>
+        <v>line along proximal-distal axis of fused metacarpal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
         <v>1713</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>108</v>
       </c>
-      <c r="C62" t="s">
-        <v>1839</v>
-      </c>
-      <c r="D62" t="str">
-        <f t="shared" si="3"/>
-        <v>line along medial-lateral axis of distal surface some fused metapodial 3 and 4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1" t="s">
-        <v>1714</v>
-      </c>
-      <c r="B63" t="s">
-        <v>112</v>
-      </c>
       <c r="C63" t="s">
-        <v>1839</v>
+        <v>1829</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" ref="D63:D67" si="4">"line along "&amp;B63&amp;" of "&amp;C63</f>
-        <v>line along anterior-posterior axis of distal surface some fused metapodial 3 and 4</v>
+        <f t="shared" si="4"/>
+        <v>line along medial-lateral axis of proximal surface some fused metacarpal bones 3 and 4</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C64" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="4"/>
-        <v>line along proximal-distal axis of fused metacarpal bones 3 and 4</v>
+        <f t="shared" ref="D64:D67" si="5">"line along "&amp;B64&amp;" of "&amp;C64</f>
+        <v>line along anterior-posterior axis of proximal surface some fused metacarpal bones 3 and 4</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>1835</v>
+        <v>1830</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="4"/>
-        <v>line along proximal-distal axis of lateral surface some fused metacarpal bones 3 and 4</v>
+        <f t="shared" si="5"/>
+        <v>line along medial-lateral axis of diaphysis some fused metacarpal bones 3 ad 4</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>1716</v>
       </c>
+      <c r="C66" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="5"/>
+        <v>line along  of diaphysis some fused metacarpal bones 3 ad 4</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>1717</v>
       </c>
       <c r="B67" t="s">
         <v>108</v>
       </c>
       <c r="C67" t="s">
-        <v>1836</v>
+        <v>1831</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="4"/>
-        <v>line along medial-lateral axis of proximal surface some fused metacarpal bones 3 and 4</v>
+        <f t="shared" si="5"/>
+        <v>line along medial-lateral axis of distal surface some fused metapodial bones 3 and 4</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -21868,11 +22002,11 @@
         <v>112</v>
       </c>
       <c r="C68" t="s">
-        <v>1836</v>
+        <v>1831</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" ref="D68:D71" si="5">"line along "&amp;B68&amp;" of "&amp;C68</f>
-        <v>line along anterior-posterior axis of proximal surface some fused metacarpal bones 3 and 4</v>
+        <f t="shared" ref="D68:D70" si="6">"line along "&amp;B68&amp;" of "&amp;C68</f>
+        <v>line along anterior-posterior axis of distal surface some fused metapodial bones 3 and 4</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -21880,19 +22014,29 @@
         <v>1719</v>
       </c>
       <c r="B69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="6"/>
+        <v>line along proximal-distal axis of fused metatarsal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B70" t="s">
         <v>108</v>
       </c>
-      <c r="C69" t="s">
-        <v>1837</v>
-      </c>
-      <c r="D69" t="str">
-        <f t="shared" si="5"/>
-        <v>line along medial-lateral axis of diaphysis some fused metacarpal bones 3 ad 4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1" t="s">
-        <v>1720</v>
+      <c r="C70" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="6"/>
+        <v>line along medial-lateral axis of proximal surface some fused metatarsal bones 3 and 4</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -21900,14 +22044,14 @@
         <v>1721</v>
       </c>
       <c r="B71" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C71" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="5"/>
-        <v>line along medial-lateral axis of distal surface some fused metapodial bones 3 and 4</v>
+        <f t="shared" ref="D71:D74" si="7">"line along "&amp;B71&amp;" of "&amp;C71</f>
+        <v>line along anterior-posterior axis of proximal surface some fused metatarsal bones 3 and 4</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -21915,29 +22059,26 @@
         <v>1722</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C72" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" ref="D72:D76" si="6">"line along "&amp;B72&amp;" of "&amp;C72</f>
-        <v>line along anterior-posterior axis of distal surface some fused metapodial bones 3 and 4</v>
+        <f t="shared" si="7"/>
+        <v>line along medial-lateral axis of diaphysis some fused metatarsal bones 3 and 4</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
         <v>1723</v>
       </c>
-      <c r="B73" t="s">
-        <v>110</v>
-      </c>
       <c r="C73" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="6"/>
-        <v>line along proximal-distal axis of fused metatarsal bones 3 and 4</v>
+        <f t="shared" si="7"/>
+        <v>line along  of diaphysis some fused metatarsal bones 3 and 4</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -21945,34 +22086,44 @@
         <v>1724</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C74" t="s">
-        <v>1841</v>
+        <v>1836</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="6"/>
-        <v>line along proximal-distal axis of lateral surface some fused metatarsal bones 3 and 4</v>
+        <f t="shared" si="7"/>
+        <v>line along medial-lateral axis of distal surface some fused metatarsal bones 3 and 4</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>1724</v>
+        <v>1725</v>
+      </c>
+      <c r="B75" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" ref="D75" si="8">"line along "&amp;B75&amp;" of "&amp;C75</f>
+        <v>line along anterior-posterior axis of distal surface some fused metatarsal bones 3 and 4</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>1725</v>
+      <c r="A76" s="1" t="s">
+        <v>1798</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s">
-        <v>1842</v>
+        <v>1769</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="6"/>
-        <v>line along medial-lateral axis of proximal surface some fused metatarsal bones 3 and 4</v>
+        <f t="shared" ref="D76:D78" si="9">"line along "&amp;B76&amp;" of "&amp;C76</f>
+        <v>line along proximal-distal axis of metapodial bone</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -21980,35 +22131,45 @@
         <v>1726</v>
       </c>
       <c r="B77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s">
-        <v>1842</v>
+        <v>1837</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" ref="D77:D80" si="7">"line along "&amp;B77&amp;" of "&amp;C77</f>
-        <v>line along anterior-posterior axis of proximal surface some fused metatarsal bones 3 and 4</v>
+        <f t="shared" si="9"/>
+        <v>line along proximal-distal axis of lateral surface some fused metapodial bones 3 and 4</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>1727</v>
       </c>
       <c r="B78" t="s">
         <v>108</v>
       </c>
       <c r="C78" t="s">
-        <v>1843</v>
+        <v>1838</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="7"/>
-        <v>line along medial-lateral axis of diaphysis some fused metatarsal bones 3 and 4</v>
+        <f t="shared" si="9"/>
+        <v>line along medial-lateral axis of proximal surface some metapodial bone</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
         <v>1728</v>
       </c>
+      <c r="B79" t="s">
+        <v>112</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" ref="D79:D82" si="10">"line along "&amp;B79&amp;" of "&amp;C79</f>
+        <v>line along anterior-posterior axis of proximal surface some metapodial bone</v>
+      </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
@@ -22018,161 +22179,188 @@
         <v>108</v>
       </c>
       <c r="C80" t="s">
-        <v>1844</v>
+        <v>1839</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="7"/>
-        <v>line along medial-lateral axis of distal surface some fused metatarsal bones 3 and 4</v>
+        <f t="shared" si="10"/>
+        <v>line along medial-lateral axis of diaphysis some metapodial bone</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
         <v>1730</v>
       </c>
-      <c r="B81" t="s">
-        <v>112</v>
-      </c>
       <c r="C81" t="s">
-        <v>1844</v>
+        <v>1839</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" ref="D81" si="8">"line along "&amp;B81&amp;" of "&amp;C81</f>
-        <v>line along anterior-posterior axis of distal surface some fused metatarsal bones 3 and 4</v>
+        <f t="shared" si="10"/>
+        <v>line along  of diaphysis some metapodial bone</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>1804</v>
+        <v>1731</v>
       </c>
       <c r="B82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C82" t="s">
-        <v>1775</v>
+        <v>1840</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" ref="D82:D85" si="9">"line along "&amp;B82&amp;" of "&amp;C82</f>
-        <v>line along proximal-distal axis of metapodial bone</v>
+        <f t="shared" si="10"/>
+        <v>line along medial-lateral axis of distal surface some metapodial bone</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C83" t="s">
-        <v>1845</v>
+        <v>1840</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="9"/>
-        <v>line along proximal-distal axis of lateral surface some fused metapodial bones 3 and 4</v>
+        <f t="shared" ref="D83" si="11">"line along "&amp;B83&amp;" of "&amp;C83</f>
+        <v>line along anterior-posterior axis of distal surface some metapodial bone</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>1731</v>
+        <v>1801</v>
+      </c>
+      <c r="B84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" ref="D84" si="12">"line along "&amp;B84&amp;" of "&amp;C84</f>
+        <v>line along proximal-distal axis of metacarpal bone of digit 4</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>1732</v>
+        <v>1802</v>
       </c>
       <c r="B85" t="s">
         <v>108</v>
       </c>
       <c r="C85" t="s">
-        <v>1846</v>
+        <v>1220</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="9"/>
-        <v>line along medial-lateral axis of proximal surface some metapodial bone</v>
+        <f t="shared" ref="D85:D86" si="13">"line along "&amp;B85&amp;" of "&amp;C85</f>
+        <v>line along medial-lateral axis of proximal surface some metacarpal bone of digit 4</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B86" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C86" t="s">
-        <v>1846</v>
+        <v>1841</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" ref="D86:D89" si="10">"line along "&amp;B86&amp;" of "&amp;C86</f>
-        <v>line along anterior-posterior axis of proximal surface some metapodial bone</v>
+        <f t="shared" si="13"/>
+        <v>line along medial-lateral axis of diaphysis some metacarpal bone of digit 4</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>1734</v>
+        <v>1803</v>
       </c>
       <c r="B87" t="s">
         <v>108</v>
       </c>
       <c r="C87" t="s">
-        <v>1847</v>
+        <v>1222</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="10"/>
-        <v>line along medial-lateral axis of diaphysis some metapodial bone</v>
+        <f t="shared" ref="D87" si="14">"line along "&amp;B87&amp;" of "&amp;C87</f>
+        <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 4</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>1735</v>
+        <v>1804</v>
+      </c>
+      <c r="B88" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" ref="D88" si="15">"line along "&amp;B88&amp;" of "&amp;C88</f>
+        <v>line along proximal-distal axis of metatarsal bone of digit 4</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="1" t="s">
-        <v>1736</v>
+      <c r="A89" t="s">
+        <v>1805</v>
       </c>
       <c r="B89" t="s">
         <v>108</v>
       </c>
       <c r="C89" t="s">
-        <v>1848</v>
+        <v>1224</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="10"/>
-        <v>line along medial-lateral axis of distal surface some metapodial bone</v>
+        <f t="shared" ref="D89:D91" si="16">"line along "&amp;B89&amp;" of "&amp;C89</f>
+        <v>line along medial-lateral axis of proximal surface some metatarsal bone of digit 4</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B90" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C90" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" ref="D90" si="11">"line along "&amp;B90&amp;" of "&amp;C90</f>
-        <v>line along anterior-posterior axis of distal surface some metapodial bone</v>
+        <f t="shared" si="16"/>
+        <v>line along medial-lateral axis of diaphysis some metatarsal bone of digit 4</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B91" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C91" t="s">
-        <v>1227</v>
+        <v>1232</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" ref="D91" si="12">"line along "&amp;B91&amp;" of "&amp;C91</f>
-        <v>line along proximal-distal axis of metacarpal bone of digit 4</v>
+        <f t="shared" si="16"/>
+        <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 4</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>1738</v>
+        <v>1807</v>
+      </c>
+      <c r="B92" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" ref="D92" si="17">"line along "&amp;B92&amp;" of "&amp;C92</f>
+        <v>line along proximal-distal axis of metapodial bone of digit 4</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -22183,26 +22371,26 @@
         <v>108</v>
       </c>
       <c r="C93" t="s">
-        <v>1220</v>
+        <v>1784</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" ref="D93:D94" si="13">"line along "&amp;B93&amp;" of "&amp;C93</f>
-        <v>line along medial-lateral axis of proximal surface some metacarpal bone of digit 4</v>
+        <f t="shared" ref="D93:D97" si="18">"line along "&amp;B93&amp;" of "&amp;C93</f>
+        <v>line along medial-lateral axis of proximal surface some metapodial bone of digit 4</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B94" t="s">
         <v>108</v>
       </c>
       <c r="C94" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="13"/>
-        <v>line along medial-lateral axis of diaphysis some metacarpal bone of digit 4</v>
+        <f t="shared" si="18"/>
+        <v>line along medial-lateral axis of diaphysis some metapodial bone of digit 4</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -22213,46 +22401,56 @@
         <v>108</v>
       </c>
       <c r="C95" t="s">
-        <v>1222</v>
+        <v>1789</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" ref="D95" si="14">"line along "&amp;B95&amp;" of "&amp;C95</f>
-        <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 4</v>
+        <f t="shared" si="18"/>
+        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 4</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="1" t="s">
-        <v>1810</v>
+      <c r="A96" s="18" t="s">
+        <v>1854</v>
       </c>
       <c r="B96" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="18"/>
+        <v>line along anterior-posterior axis of diaphysis some metapodial bone</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="18" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B97" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="18"/>
+        <v>line along anterior-posterior axis of diaphysis some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B98" t="s">
         <v>110</v>
       </c>
-      <c r="C96" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D96" t="str">
-        <f t="shared" ref="D96" si="15">"line along "&amp;B96&amp;" of "&amp;C96</f>
-        <v>line along proximal-distal axis of metatarsal bone of digit 4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="1" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>1811</v>
-      </c>
-      <c r="B98" t="s">
-        <v>108</v>
-      </c>
       <c r="C98" t="s">
-        <v>1224</v>
+        <v>1816</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" ref="D98:D100" si="16">"line along "&amp;B98&amp;" of "&amp;C98</f>
-        <v>line along medial-lateral axis of proximal surface some metatarsal bone of digit 4</v>
+        <f t="shared" ref="D98:D99" si="19">"line along "&amp;B98&amp;" of "&amp;C98</f>
+        <v>line along proximal-distal axis of metapodial bone of digit 2</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -22260,803 +22458,659 @@
         <v>1741</v>
       </c>
       <c r="B99" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C99" t="s">
-        <v>1850</v>
+        <v>1845</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="16"/>
-        <v>line along medial-lateral axis of diaphysis some metatarsal bone of digit 4</v>
+        <f t="shared" si="19"/>
+        <v>line along proximal-distal axis of metapodial bone of digit 5</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>1812</v>
+        <v>1742</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C100" t="s">
-        <v>1232</v>
+        <v>1846</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="16"/>
-        <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 4</v>
+        <f t="shared" ref="D100" si="20">"line along "&amp;B100&amp;" of "&amp;C100</f>
+        <v>line along proximal-distal axis of metacarpal bone of digit 5</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>1813</v>
+        <v>1743</v>
       </c>
       <c r="B101" t="s">
         <v>110</v>
       </c>
       <c r="C101" t="s">
-        <v>1821</v>
+        <v>1847</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" ref="D101" si="17">"line along "&amp;B101&amp;" of "&amp;C101</f>
-        <v>line along proximal-distal axis of metapodial bone of digit 4</v>
+        <f t="shared" ref="D101:D102" si="21">"line along "&amp;B101&amp;" of "&amp;C101</f>
+        <v>line along proximal-distal axis of metatarsal bone of digit 5</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>1742</v>
+        <v>1744</v>
+      </c>
+      <c r="B102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="21"/>
+        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 5</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>1814</v>
+      <c r="A103" s="1" t="s">
+        <v>1745</v>
       </c>
       <c r="B103" t="s">
         <v>108</v>
       </c>
       <c r="C103" t="s">
-        <v>1790</v>
+        <v>1849</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" ref="D103:D109" si="18">"line along "&amp;B103&amp;" of "&amp;C103</f>
-        <v>line along medial-lateral axis of proximal surface some metapodial bone of digit 4</v>
+        <f t="shared" ref="D103" si="22">"line along "&amp;B103&amp;" of "&amp;C103</f>
+        <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 5</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="B104" t="s">
         <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="18"/>
-        <v>line along medial-lateral axis of diaphysis some metapodial bone of digit 4</v>
+        <f t="shared" ref="D104:D105" si="23">"line along "&amp;B104&amp;" of "&amp;C104</f>
+        <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 5</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>1815</v>
+        <v>1747</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>1795</v>
+        <v>1785</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="18"/>
-        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 4</v>
+        <f t="shared" si="23"/>
+        <v>line along proximal-distal axis of lateral surface some metapodial bone of digit 3</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>1744</v>
+        <v>1800</v>
+      </c>
+      <c r="B106" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D106" t="str">
+        <f>"line along "&amp;B106&amp;" of "&amp;C106</f>
+        <v>line along anterior-posterior axis of proximal surface some metapodial bone of digit 3</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>1745</v>
-      </c>
-      <c r="B107" t="s">
-        <v>112</v>
+        <v>1748</v>
       </c>
       <c r="C107" t="s">
-        <v>1847</v>
+        <v>1851</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="18"/>
-        <v>line along anterior-posterior axis of diaphysis some metapodial bone</v>
+        <f>"line along "&amp;B107&amp;" of "&amp;C107</f>
+        <v>line along  of diaphysis some metapodial bone of digit 3</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>1746</v>
+        <v>1810</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" ref="D108:D109" si="24">"line along "&amp;B108&amp;" of "&amp;C108</f>
+        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 3</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>1853</v>
+        <v>1749</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>1852</v>
+        <v>1240</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" si="18"/>
-        <v>line along anterior-posterior axis of diaphysis some metacarpal bone of digit 3</v>
+        <f t="shared" si="24"/>
+        <v>line along proximal-distal axis of lateral surface some metacarpal bone of digit 3</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>1805</v>
+        <v>1811</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>1822</v>
+        <v>1211</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" ref="D110:D111" si="19">"line along "&amp;B110&amp;" of "&amp;C110</f>
-        <v>line along proximal-distal axis of metapodial bone of digit 2</v>
+        <f>"line along "&amp;B110&amp;" of "&amp;C110</f>
+        <v>line along anterior-posterior axis of proximal surface some metacarpal bone of digit 3</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>1747</v>
-      </c>
-      <c r="B111" t="s">
-        <v>110</v>
+        <v>1750</v>
       </c>
       <c r="C111" t="s">
-        <v>1854</v>
+        <v>1844</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="19"/>
-        <v>line along proximal-distal axis of metapodial bone of digit 5</v>
+        <f>"line along "&amp;B111&amp;" of "&amp;C111</f>
+        <v>line along  of diaphysis some metacarpal bone of digit 3</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>1748</v>
+        <v>1812</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C112" t="s">
-        <v>1855</v>
+        <v>1210</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" ref="D112" si="20">"line along "&amp;B112&amp;" of "&amp;C112</f>
-        <v>line along proximal-distal axis of metacarpal bone of digit 5</v>
+        <f t="shared" ref="D112:D113" si="25">"line along "&amp;B112&amp;" of "&amp;C112</f>
+        <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 3</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="B113" t="s">
         <v>110</v>
       </c>
       <c r="C113" t="s">
-        <v>1856</v>
+        <v>1239</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" ref="D113:D114" si="21">"line along "&amp;B113&amp;" of "&amp;C113</f>
-        <v>line along proximal-distal axis of metatarsal bone of digit 5</v>
+        <f t="shared" si="25"/>
+        <v>line along proximal-distal axis of lateral surface some metatarsal bone of digit 3</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>1750</v>
+        <v>1813</v>
       </c>
       <c r="B114" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>1857</v>
+        <v>1212</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="21"/>
-        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 5</v>
+        <f>"line along "&amp;B114&amp;" of "&amp;C114</f>
+        <v>line along anterior-posterior axis of proximal surface some metatarsal bone of digit 3</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>1751</v>
-      </c>
-      <c r="B115" t="s">
-        <v>108</v>
+        <v>1752</v>
       </c>
       <c r="C115" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" ref="D115" si="22">"line along "&amp;B115&amp;" of "&amp;C115</f>
-        <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 5</v>
+        <f>"line along "&amp;B115&amp;" of "&amp;C115</f>
+        <v>line along  of diaphysis some metatarsal bone of digit 3</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>1752</v>
+        <v>1814</v>
       </c>
       <c r="B116" t="s">
         <v>108</v>
       </c>
       <c r="C116" t="s">
-        <v>1859</v>
+        <v>1818</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" ref="D116:D117" si="23">"line along "&amp;B116&amp;" of "&amp;C116</f>
-        <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 5</v>
+        <f t="shared" ref="D116" si="26">"line along "&amp;B116&amp;" of "&amp;C116</f>
+        <v>line along medial-lateral axis of distal surface some metarsal bone of digit 3</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>1753</v>
+        <v>1763</v>
       </c>
       <c r="B117" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C117" t="s">
-        <v>1791</v>
+        <v>1783</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="23"/>
-        <v>line along proximal-distal axis of lateral surface some metapodial bone of digit 3</v>
+        <f t="shared" ref="D117:D122" si="27">"line along "&amp;B117&amp;" of "&amp;C117</f>
+        <v>line along anterior-posterior axis of medial surface of some metapodial bone of digit 2</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>1753</v>
+        <v>1765</v>
+      </c>
+      <c r="B118" t="s">
+        <v>112</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" ref="D118" si="28">"line along "&amp;B118&amp;" of "&amp;C118</f>
+        <v>line along anterior-posterior axis of medial surface of some metapodial bone of digit 4</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>1806</v>
+        <v>1764</v>
       </c>
       <c r="B119" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C119" t="s">
-        <v>1796</v>
+        <v>1821</v>
       </c>
       <c r="D119" t="str">
-        <f>"line along "&amp;B119&amp;" of "&amp;C119</f>
-        <v>line along anterior-posterior axis of proximal surface some metapodial bone of digit 3</v>
+        <f t="shared" si="27"/>
+        <v>line along proximal-distal axis of medial surface of some metapodial bone of digit 3</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>1754</v>
+        <v>1766</v>
+      </c>
+      <c r="B120" t="s">
+        <v>108</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="27"/>
+        <v>line along medial-lateral axis of proximal surface some metapodial bone of digit 2</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>1816</v>
+        <v>1767</v>
       </c>
       <c r="B121" t="s">
         <v>108</v>
       </c>
       <c r="C121" t="s">
-        <v>1798</v>
+        <v>1784</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" ref="D121:D122" si="24">"line along "&amp;B121&amp;" of "&amp;C121</f>
-        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 3</v>
+        <f t="shared" ref="D121" si="29">"line along "&amp;B121&amp;" of "&amp;C121</f>
+        <v>line along medial-lateral axis of proximal surface some metapodial bone of digit 4</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>1755</v>
+        <v>1768</v>
       </c>
       <c r="B122" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C122" t="s">
-        <v>1240</v>
+        <v>1787</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="24"/>
-        <v>line along proximal-distal axis of lateral surface some metacarpal bone of digit 3</v>
+        <f t="shared" si="27"/>
+        <v>line along medial-lateral axis of anterior surface some metapodial bone of digit 3</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>1755</v>
+        <v>1770</v>
+      </c>
+      <c r="B123" t="s">
+        <v>112</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D123" t="str">
+        <f>"line along "&amp;B123&amp;" of "&amp;C123</f>
+        <v>line along anterior-posterior axis of proximal surface some metapodial bone of digit 2</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>1817</v>
+        <v>1771</v>
       </c>
       <c r="B124" t="s">
         <v>112</v>
       </c>
       <c r="C124" t="s">
-        <v>1211</v>
+        <v>1784</v>
       </c>
       <c r="D124" t="str">
         <f>"line along "&amp;B124&amp;" of "&amp;C124</f>
-        <v>line along anterior-posterior axis of proximal surface some metacarpal bone of digit 3</v>
+        <v>line along anterior-posterior axis of proximal surface some metapodial bone of digit 4</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>1756</v>
+        <v>1772</v>
+      </c>
+      <c r="B125" t="s">
+        <v>112</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" ref="D125:D127" si="30">"line along "&amp;B125&amp;" of "&amp;C125</f>
+        <v>line along anterior-posterior axis of lateral surface some metapodial bone of digit 3</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>1818</v>
+        <v>1773</v>
       </c>
       <c r="B126" t="s">
         <v>108</v>
       </c>
       <c r="C126" t="s">
-        <v>1210</v>
+        <v>1796</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" ref="D126:D127" si="25">"line along "&amp;B126&amp;" of "&amp;C126</f>
-        <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 3</v>
+        <f t="shared" si="30"/>
+        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 2</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>1757</v>
+        <v>1774</v>
       </c>
       <c r="B127" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C127" t="s">
-        <v>1239</v>
+        <v>1789</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="25"/>
-        <v>line along proximal-distal axis of lateral surface some metatarsal bone of digit 3</v>
+        <f t="shared" si="30"/>
+        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 4</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>1757</v>
+        <v>1775</v>
+      </c>
+      <c r="B128" t="s">
+        <v>108</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" ref="D128:D129" si="31">"line along "&amp;B128&amp;" of "&amp;C128</f>
+        <v>line along medial-lateral axis of proximal surface some metapodial bone of digit 3</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>1819</v>
+        <v>1777</v>
       </c>
       <c r="B129" t="s">
         <v>112</v>
       </c>
       <c r="C129" t="s">
-        <v>1212</v>
+        <v>1795</v>
       </c>
       <c r="D129" t="str">
-        <f>"line along "&amp;B129&amp;" of "&amp;C129</f>
-        <v>line along anterior-posterior axis of proximal surface some metatarsal bone of digit 3</v>
+        <f t="shared" si="31"/>
+        <v>line along anterior-posterior axis of distal surface of some metapodial bone of digit 2</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>1758</v>
+        <v>1776</v>
+      </c>
+      <c r="B130" t="s">
+        <v>112</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" ref="D130" si="32">"line along "&amp;B130&amp;" of "&amp;C130</f>
+        <v>line along anterior-posterior axis of distal surface of some metapodial bone of digit 4</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>1820</v>
+        <v>1778</v>
       </c>
       <c r="B131" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C131" t="s">
-        <v>1824</v>
+        <v>1790</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131" si="26">"line along "&amp;B131&amp;" of "&amp;C131</f>
-        <v>line along medial-lateral axis of distal surface some metarsal bone of digit 3</v>
+        <f>"line along "&amp;B131&amp;" of "&amp;C131</f>
+        <v>line along anterior-posterior axis of proximal surface some metapodial bone of digit 3</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>1769</v>
+        <v>1779</v>
       </c>
       <c r="B132" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C132" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" ref="D132:D137" si="27">"line along "&amp;B132&amp;" of "&amp;C132</f>
-        <v>line along anterior-posterior axis of medial surface of some metapodial bone of digit 2</v>
+        <f t="shared" ref="D132:D135" si="33">"line along "&amp;B132&amp;" of "&amp;C132</f>
+        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 3</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>1771</v>
+        <v>1780</v>
       </c>
       <c r="B133" t="s">
         <v>112</v>
       </c>
       <c r="C133" t="s">
-        <v>1803</v>
+        <v>1793</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" ref="D133" si="28">"line along "&amp;B133&amp;" of "&amp;C133</f>
-        <v>line along anterior-posterior axis of medial surface of some metapodial bone of digit 4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="1" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B134" t="s">
-        <v>110</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1827</v>
-      </c>
-      <c r="D134" t="str">
-        <f t="shared" si="27"/>
-        <v>line along proximal-distal axis of medial surface of some metapodial bone of digit 3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="1" t="s">
-        <v>1772</v>
-      </c>
-      <c r="B135" t="s">
-        <v>108</v>
-      </c>
-      <c r="C135" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D135" t="str">
-        <f t="shared" si="27"/>
-        <v>line along medial-lateral axis of proximal surface some metapodial bone of digit 2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="1" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B136" t="s">
-        <v>108</v>
-      </c>
-      <c r="C136" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D136" t="str">
-        <f t="shared" ref="D136" si="29">"line along "&amp;B136&amp;" of "&amp;C136</f>
-        <v>line along medial-lateral axis of proximal surface some metapodial bone of digit 4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="1" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B137" t="s">
-        <v>108</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1793</v>
-      </c>
-      <c r="D137" t="str">
-        <f t="shared" si="27"/>
-        <v>line along medial-lateral axis of anterior surface some metapodial bone of digit 3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="1" t="s">
-        <v>1776</v>
-      </c>
-      <c r="B138" t="s">
-        <v>112</v>
-      </c>
-      <c r="C138" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D138" t="str">
-        <f>"line along "&amp;B138&amp;" of "&amp;C138</f>
-        <v>line along anterior-posterior axis of proximal surface some metapodial bone of digit 2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="1" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B139" t="s">
-        <v>112</v>
-      </c>
-      <c r="C139" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D139" t="str">
-        <f>"line along "&amp;B139&amp;" of "&amp;C139</f>
-        <v>line along anterior-posterior axis of proximal surface some metapodial bone of digit 4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="1" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B140" t="s">
-        <v>112</v>
-      </c>
-      <c r="C140" t="s">
-        <v>1791</v>
-      </c>
-      <c r="D140" t="str">
-        <f t="shared" ref="D140:D142" si="30">"line along "&amp;B140&amp;" of "&amp;C140</f>
-        <v>line along anterior-posterior axis of lateral surface some metapodial bone of digit 3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="B141" t="s">
-        <v>108</v>
-      </c>
-      <c r="C141" t="s">
-        <v>1802</v>
-      </c>
-      <c r="D141" t="str">
-        <f t="shared" si="30"/>
-        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="1" t="s">
-        <v>1780</v>
-      </c>
-      <c r="B142" t="s">
-        <v>108</v>
-      </c>
-      <c r="C142" t="s">
-        <v>1795</v>
-      </c>
-      <c r="D142" t="str">
-        <f t="shared" si="30"/>
-        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="1" t="s">
-        <v>1781</v>
-      </c>
-      <c r="B143" t="s">
-        <v>108</v>
-      </c>
-      <c r="C143" t="s">
-        <v>1796</v>
-      </c>
-      <c r="D143" t="str">
-        <f t="shared" ref="D143:D144" si="31">"line along "&amp;B143&amp;" of "&amp;C143</f>
-        <v>line along medial-lateral axis of proximal surface some metapodial bone of digit 3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="1" t="s">
-        <v>1783</v>
-      </c>
-      <c r="B144" t="s">
-        <v>112</v>
-      </c>
-      <c r="C144" t="s">
-        <v>1801</v>
-      </c>
-      <c r="D144" t="str">
-        <f t="shared" si="31"/>
-        <v>line along anterior-posterior axis of distal surface of some metapodial bone of digit 2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="1" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B145" t="s">
-        <v>112</v>
-      </c>
-      <c r="C145" t="s">
-        <v>1797</v>
-      </c>
-      <c r="D145" t="str">
-        <f t="shared" ref="D145" si="32">"line along "&amp;B145&amp;" of "&amp;C145</f>
-        <v>line along anterior-posterior axis of distal surface of some metapodial bone of digit 4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="1" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B146" t="s">
-        <v>112</v>
-      </c>
-      <c r="C146" t="s">
-        <v>1796</v>
-      </c>
-      <c r="D146" t="str">
-        <f>"line along "&amp;B146&amp;" of "&amp;C146</f>
-        <v>line along anterior-posterior axis of proximal surface some metapodial bone of digit 3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="1" t="s">
-        <v>1785</v>
-      </c>
-      <c r="B147" t="s">
-        <v>108</v>
-      </c>
-      <c r="C147" t="s">
-        <v>1798</v>
-      </c>
-      <c r="D147" t="str">
-        <f t="shared" ref="D147:D150" si="33">"line along "&amp;B147&amp;" of "&amp;C147</f>
-        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="1" t="s">
-        <v>1786</v>
-      </c>
-      <c r="B148" t="s">
-        <v>112</v>
-      </c>
-      <c r="C148" t="s">
-        <v>1799</v>
-      </c>
-      <c r="D148" t="str">
         <f t="shared" si="33"/>
         <v>line along anterior-posterior axis of distal keel of metapodial bone of digit 3</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
-        <v>1787</v>
-      </c>
-      <c r="B149" t="s">
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B134" t="s">
         <v>112</v>
       </c>
-      <c r="C149" t="s">
-        <v>1800</v>
-      </c>
-      <c r="D149" t="str">
+      <c r="C134" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D134" t="str">
         <f t="shared" si="33"/>
         <v>line along anterior-posterior axis of lateral condyle of metapodial bone of digit 3</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
-        <v>1788</v>
-      </c>
-      <c r="B150" t="s">
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B135" t="s">
         <v>112</v>
       </c>
-      <c r="C150" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D150" t="str">
+      <c r="C135" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D135" t="str">
         <f t="shared" si="33"/>
         <v>line along anterior-posterior axis of medial condyle of metapodial bone of digit 3</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
-      <c r="A304" t="s">
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
         <v>1282</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B289" t="s">
         <v>1269</v>
       </c>
-      <c r="C304" s="22" t="s">
+      <c r="C289" s="22" t="s">
         <v>1270</v>
       </c>
-      <c r="D304" t="str">
-        <f>"line along "&amp;B304&amp;" of "&amp;C304</f>
+      <c r="D289" t="str">
+        <f>"line along "&amp;B289&amp;" of "&amp;C289</f>
         <v>line along proximal-distal of lateral side' some talus</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
-      <c r="A305" t="s">
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
         <v>1268</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B290" t="s">
         <v>1269</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C290" t="s">
         <v>1271</v>
       </c>
-      <c r="D305" t="str">
-        <f>"line along "&amp;B305&amp;" of "&amp;C305</f>
+      <c r="D290" t="str">
+        <f>"line along "&amp;B290&amp;" of "&amp;C290</f>
         <v>line along proximal-distal of pes</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
-      <c r="A306" t="s">
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
-      <c r="A307" t="s">
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
-      <c r="A308" t="s">
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
-      <c r="A309" t="s">
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
-      <c r="A310" t="s">
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
-      <c r="A311" t="s">
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
-      <c r="A312" t="s">
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
-      <c r="A313" t="s">
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
-      <c r="A314" t="s">
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
-      <c r="A315" t="s">
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
-      <c r="A316" t="s">
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
-      <c r="A323" s="1" t="s">
+    <row r="308" spans="1:1">
+      <c r="A308" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
-      <c r="A324" s="1" t="s">
+    <row r="309" spans="1:1">
+      <c r="A309" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
-      <c r="A325" s="1" t="s">
+    <row r="310" spans="1:1">
+      <c r="A310" s="1" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
-      <c r="A326" s="1" t="s">
+    <row r="311" spans="1:1">
+      <c r="A311" s="1" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
-      <c r="A327" s="1" t="s">
+    <row r="312" spans="1:1">
+      <c r="A312" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
-      <c r="A328" s="1" t="s">
+    <row r="313" spans="1:1">
+      <c r="A313" s="1" t="s">
         <v>664</v>
       </c>
     </row>
@@ -23068,10 +23122,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C6BB58-E681-9A44-BAE6-1CC6AE173542}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -23114,193 +23168,249 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1209</v>
+        <v>1860</v>
       </c>
       <c r="C4" t="s">
-        <v>1302</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1208</v>
+        <v>1862</v>
       </c>
       <c r="C5" t="s">
-        <v>1303</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1206</v>
+        <v>1861</v>
       </c>
       <c r="C6" t="s">
-        <v>1304</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1207</v>
+        <v>1859</v>
       </c>
       <c r="C7" t="s">
-        <v>1305</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1319</v>
+        <v>1863</v>
       </c>
       <c r="C8" t="s">
-        <v>1306</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1328</v>
+        <v>1209</v>
       </c>
       <c r="C9" t="s">
-        <v>1329</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1320</v>
+        <v>1208</v>
       </c>
       <c r="C10" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>1321</v>
+        <v>1206</v>
       </c>
       <c r="C11" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>1326</v>
+        <v>1207</v>
       </c>
       <c r="C12" t="s">
-        <v>1327</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C13" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>1323</v>
+        <v>1328</v>
       </c>
       <c r="C14" t="s">
-        <v>1310</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>1241</v>
+        <v>1320</v>
       </c>
       <c r="C15" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>1242</v>
+        <v>1321</v>
       </c>
       <c r="C16" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1243</v>
+        <v>1326</v>
       </c>
       <c r="C17" t="s">
-        <v>1313</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1244</v>
+        <v>1322</v>
       </c>
       <c r="C18" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1245</v>
+        <v>1323</v>
       </c>
       <c r="C19" t="s">
-        <v>1330</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="C20" t="s">
-        <v>1331</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="C21" t="s">
-        <v>1332</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="C22" t="s">
-        <v>1333</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="C23" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>1250</v>
+        <v>1857</v>
       </c>
       <c r="C24" t="s">
-        <v>1316</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>1251</v>
+        <v>1858</v>
       </c>
       <c r="C25" t="s">
-        <v>1317</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="C26" t="s">
-        <v>1318</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>1260</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C34" t="s">
         <v>1266</v>
       </c>
     </row>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdebasto\Desktop\GitHub\fovt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86EDB7F-5940-4019-9D29-3029BDF40CB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43598B6F-FFA6-DB42-BEDE-4668F9EF9C05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="42340" yWindow="-12180" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -26,21 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4018" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4029" uniqueCount="1870">
   <si>
     <t>Status</t>
   </si>
@@ -5025,9 +5016,6 @@
     <t>tibia length</t>
   </si>
   <si>
-    <t>tibia length medial</t>
-  </si>
-  <si>
     <t>tibia diaphysis width ML</t>
   </si>
   <si>
@@ -5061,9 +5049,6 @@
     <t>fossa digitalis length</t>
   </si>
   <si>
-    <t>tibia length lateral</t>
-  </si>
-  <si>
     <t>tibia diaphysis circumference</t>
   </si>
   <si>
@@ -5722,6 +5707,12 @@
   </si>
   <si>
     <t>Medial tuberosity located above the medial condyle of the metapodial bone of digit 3. It's the attachment site for collateral ligaments of the metacarpal/tarsal-phalangeal joint.</t>
+  </si>
+  <si>
+    <t>tibia lateral length</t>
+  </si>
+  <si>
+    <t>tibia medial length</t>
   </si>
 </sst>
 </file>
@@ -6214,7 +6205,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -6365,7 +6356,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
     </row>
   </sheetData>
@@ -6383,7 +6374,7 @@
       <selection pane="bottomLeft" activeCell="A372" sqref="A372:A526"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" t="s">
@@ -10743,7 +10734,7 @@
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="1:21" s="11" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="132" spans="1:21" s="11" customFormat="1" ht="17" customHeight="1">
       <c r="A132" s="24"/>
       <c r="C132" s="10" t="s">
         <v>1030</v>
@@ -20706,17 +20697,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BA4F15-3142-994E-BF8B-16093E97474D}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -20768,13 +20759,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="B4" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="C4" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="D4" t="str">
         <f>"line that connects "&amp;B4&amp;" and "&amp;C4</f>
@@ -20783,39 +20774,39 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="B5" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="B6" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="B7" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="B8" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="B9" t="s">
         <v>1324</v>
@@ -20972,6 +20963,11 @@
       <c r="D20" t="str">
         <f t="shared" si="1"/>
         <v>line that connects medial condyle of femur and head of femur</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>1635</v>
       </c>
     </row>
   </sheetData>
@@ -20988,12 +20984,12 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -21012,7 +21008,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="B2" t="s">
         <v>108</v>
@@ -21027,7 +21023,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="B3" t="s">
         <v>108</v>
@@ -21042,7 +21038,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="B4" t="s">
         <v>108</v>
@@ -21132,7 +21128,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="B10" t="s">
         <v>110</v>
@@ -21147,7 +21143,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="B11" t="s">
         <v>110</v>
@@ -21162,7 +21158,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="B12" t="s">
         <v>110</v>
@@ -21177,7 +21173,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="B13" t="s">
         <v>110</v>
@@ -21192,7 +21188,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="B14" t="s">
         <v>108</v>
@@ -21207,7 +21203,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B15" t="s">
         <v>108</v>
@@ -21222,7 +21218,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="B16" t="s">
         <v>108</v>
@@ -21237,7 +21233,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="B17" t="s">
         <v>108</v>
@@ -21252,7 +21248,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="B18" t="s">
         <v>108</v>
@@ -21267,7 +21263,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="B19" t="s">
         <v>108</v>
@@ -21282,7 +21278,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="B20" t="s">
         <v>108</v>
@@ -21297,7 +21293,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="B21" t="s">
         <v>108</v>
@@ -21312,7 +21308,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B22" t="s">
         <v>108</v>
@@ -21327,7 +21323,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="B23" t="s">
         <v>108</v>
@@ -21417,7 +21413,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="B29" t="s">
         <v>110</v>
@@ -21432,7 +21428,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="B30" t="s">
         <v>110</v>
@@ -21447,7 +21443,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="B31" t="s">
         <v>110</v>
@@ -21462,7 +21458,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B32" t="s">
         <v>110</v>
@@ -21477,7 +21473,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="B33" t="s">
         <v>112</v>
@@ -21492,7 +21488,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="B34" t="s">
         <v>112</v>
@@ -21507,7 +21503,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="B35" t="s">
         <v>112</v>
@@ -21522,7 +21518,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
@@ -21537,7 +21533,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="B37" t="s">
         <v>112</v>
@@ -21552,7 +21548,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="B38" t="s">
         <v>112</v>
@@ -21567,7 +21563,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="B39" t="s">
         <v>108</v>
@@ -21588,7 +21584,7 @@
         <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -21603,7 +21599,7 @@
         <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -21618,7 +21614,7 @@
         <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -21648,7 +21644,7 @@
         <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -21663,7 +21659,7 @@
         <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -21732,7 +21728,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="B50" t="s">
         <v>110</v>
@@ -21777,7 +21773,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="B53" t="s">
         <v>108</v>
@@ -21792,7 +21788,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B54" t="s">
         <v>108</v>
@@ -21807,13 +21803,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B55" t="s">
         <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="2"/>
@@ -21822,13 +21818,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="B56" t="s">
         <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" ref="D56:D60" si="3">"line along "&amp;B56&amp;" of "&amp;C56</f>
@@ -21837,13 +21833,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B57" t="s">
         <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="3"/>
@@ -21852,13 +21848,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="B58" t="s">
         <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="3"/>
@@ -21867,10 +21863,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="C59" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="3"/>
@@ -21879,13 +21875,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="B60" t="s">
         <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="3"/>
@@ -21894,13 +21890,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B61" t="s">
         <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" ref="D61:D63" si="4">"line along "&amp;B61&amp;" of "&amp;C61</f>
@@ -21909,13 +21905,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="B62" t="s">
         <v>110</v>
       </c>
       <c r="C62" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="4"/>
@@ -21924,13 +21920,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="B63" t="s">
         <v>108</v>
       </c>
       <c r="C63" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="4"/>
@@ -21939,13 +21935,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="B64" t="s">
         <v>112</v>
       </c>
       <c r="C64" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" ref="D64:D67" si="5">"line along "&amp;B64&amp;" of "&amp;C64</f>
@@ -21954,13 +21950,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B65" t="s">
         <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="5"/>
@@ -21969,10 +21965,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C66" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="5"/>
@@ -21981,13 +21977,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="B67" t="s">
         <v>108</v>
       </c>
       <c r="C67" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="5"/>
@@ -21996,13 +21992,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B68" t="s">
         <v>112</v>
       </c>
       <c r="C68" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" ref="D68:D70" si="6">"line along "&amp;B68&amp;" of "&amp;C68</f>
@@ -22011,13 +22007,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="B69" t="s">
         <v>110</v>
       </c>
       <c r="C69" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="6"/>
@@ -22026,13 +22022,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="B70" t="s">
         <v>108</v>
       </c>
       <c r="C70" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="6"/>
@@ -22041,13 +22037,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="B71" t="s">
         <v>112</v>
       </c>
       <c r="C71" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" ref="D71:D74" si="7">"line along "&amp;B71&amp;" of "&amp;C71</f>
@@ -22056,13 +22052,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="B72" t="s">
         <v>108</v>
       </c>
       <c r="C72" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="7"/>
@@ -22071,10 +22067,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="C73" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="7"/>
@@ -22083,13 +22079,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="B74" t="s">
         <v>108</v>
       </c>
       <c r="C74" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="7"/>
@@ -22098,13 +22094,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="B75" t="s">
         <v>112</v>
       </c>
       <c r="C75" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" ref="D75" si="8">"line along "&amp;B75&amp;" of "&amp;C75</f>
@@ -22113,13 +22109,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="B76" t="s">
         <v>110</v>
       </c>
       <c r="C76" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" ref="D76:D78" si="9">"line along "&amp;B76&amp;" of "&amp;C76</f>
@@ -22128,13 +22124,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="B77" t="s">
         <v>110</v>
       </c>
       <c r="C77" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="9"/>
@@ -22143,13 +22139,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="B78" t="s">
         <v>108</v>
       </c>
       <c r="C78" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="9"/>
@@ -22158,13 +22154,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="B79" t="s">
         <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" ref="D79:D82" si="10">"line along "&amp;B79&amp;" of "&amp;C79</f>
@@ -22173,13 +22169,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="B80" t="s">
         <v>108</v>
       </c>
       <c r="C80" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="10"/>
@@ -22188,10 +22184,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C81" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="10"/>
@@ -22200,13 +22196,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="B82" t="s">
         <v>108</v>
       </c>
       <c r="C82" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="10"/>
@@ -22215,13 +22211,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="B83" t="s">
         <v>112</v>
       </c>
       <c r="C83" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" ref="D83" si="11">"line along "&amp;B83&amp;" of "&amp;C83</f>
@@ -22230,7 +22226,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="B84" t="s">
         <v>110</v>
@@ -22245,7 +22241,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="B85" t="s">
         <v>108</v>
@@ -22260,13 +22256,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="B86" t="s">
         <v>108</v>
       </c>
       <c r="C86" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="13"/>
@@ -22275,7 +22271,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="B87" t="s">
         <v>108</v>
@@ -22290,7 +22286,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="B88" t="s">
         <v>110</v>
@@ -22305,7 +22301,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="B89" t="s">
         <v>108</v>
@@ -22320,13 +22316,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="B90" t="s">
         <v>108</v>
       </c>
       <c r="C90" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="16"/>
@@ -22335,7 +22331,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="B91" t="s">
         <v>108</v>
@@ -22350,13 +22346,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="B92" t="s">
         <v>110</v>
       </c>
       <c r="C92" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" ref="D92" si="17">"line along "&amp;B92&amp;" of "&amp;C92</f>
@@ -22365,13 +22361,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B93" t="s">
         <v>108</v>
       </c>
       <c r="C93" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" ref="D93:D97" si="18">"line along "&amp;B93&amp;" of "&amp;C93</f>
@@ -22380,13 +22376,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="B94" t="s">
         <v>108</v>
       </c>
       <c r="C94" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="18"/>
@@ -22395,13 +22391,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="B95" t="s">
         <v>108</v>
       </c>
       <c r="C95" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="18"/>
@@ -22410,13 +22406,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="18" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="B96" t="s">
         <v>112</v>
       </c>
       <c r="C96" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="18"/>
@@ -22425,13 +22421,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="18" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="B97" t="s">
         <v>112</v>
       </c>
       <c r="C97" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="18"/>
@@ -22440,13 +22436,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="B98" t="s">
         <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" ref="D98:D99" si="19">"line along "&amp;B98&amp;" of "&amp;C98</f>
@@ -22455,13 +22451,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="B99" t="s">
         <v>110</v>
       </c>
       <c r="C99" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="19"/>
@@ -22470,13 +22466,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="B100" t="s">
         <v>110</v>
       </c>
       <c r="C100" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" ref="D100" si="20">"line along "&amp;B100&amp;" of "&amp;C100</f>
@@ -22485,13 +22481,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="B101" t="s">
         <v>110</v>
       </c>
       <c r="C101" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" ref="D101:D102" si="21">"line along "&amp;B101&amp;" of "&amp;C101</f>
@@ -22500,13 +22496,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="B102" t="s">
         <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="21"/>
@@ -22515,13 +22511,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="B103" t="s">
         <v>108</v>
       </c>
       <c r="C103" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" ref="D103" si="22">"line along "&amp;B103&amp;" of "&amp;C103</f>
@@ -22530,13 +22526,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="B104" t="s">
         <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" ref="D104:D105" si="23">"line along "&amp;B104&amp;" of "&amp;C104</f>
@@ -22545,13 +22541,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="B105" t="s">
         <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="23"/>
@@ -22560,13 +22556,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B106" t="s">
         <v>112</v>
       </c>
       <c r="C106" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="D106" t="str">
         <f>"line along "&amp;B106&amp;" of "&amp;C106</f>
@@ -22575,10 +22571,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="C107" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="D107" t="str">
         <f>"line along "&amp;B107&amp;" of "&amp;C107</f>
@@ -22587,13 +22583,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="B108" t="s">
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" ref="D108:D109" si="24">"line along "&amp;B108&amp;" of "&amp;C108</f>
@@ -22602,7 +22598,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
@@ -22617,7 +22613,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="B110" t="s">
         <v>112</v>
@@ -22632,10 +22628,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="C111" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="D111" t="str">
         <f>"line along "&amp;B111&amp;" of "&amp;C111</f>
@@ -22644,7 +22640,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="B112" t="s">
         <v>108</v>
@@ -22659,7 +22655,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="B113" t="s">
         <v>110</v>
@@ -22674,7 +22670,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="B114" t="s">
         <v>112</v>
@@ -22689,10 +22685,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="C115" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="D115" t="str">
         <f>"line along "&amp;B115&amp;" of "&amp;C115</f>
@@ -22701,13 +22697,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="B116" t="s">
         <v>108</v>
       </c>
       <c r="C116" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" ref="D116" si="26">"line along "&amp;B116&amp;" of "&amp;C116</f>
@@ -22716,13 +22712,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="B117" t="s">
         <v>112</v>
       </c>
       <c r="C117" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" ref="D117:D122" si="27">"line along "&amp;B117&amp;" of "&amp;C117</f>
@@ -22731,13 +22727,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="B118" t="s">
         <v>112</v>
       </c>
       <c r="C118" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" ref="D118" si="28">"line along "&amp;B118&amp;" of "&amp;C118</f>
@@ -22746,13 +22742,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="B119" t="s">
         <v>110</v>
       </c>
       <c r="C119" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="27"/>
@@ -22761,13 +22757,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="B120" t="s">
         <v>108</v>
       </c>
       <c r="C120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="27"/>
@@ -22776,13 +22772,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="B121" t="s">
         <v>108</v>
       </c>
       <c r="C121" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" ref="D121" si="29">"line along "&amp;B121&amp;" of "&amp;C121</f>
@@ -22791,13 +22787,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="B122" t="s">
         <v>108</v>
       </c>
       <c r="C122" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="27"/>
@@ -22806,13 +22802,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="B123" t="s">
         <v>112</v>
       </c>
       <c r="C123" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="D123" t="str">
         <f>"line along "&amp;B123&amp;" of "&amp;C123</f>
@@ -22821,13 +22817,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="B124" t="s">
         <v>112</v>
       </c>
       <c r="C124" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="D124" t="str">
         <f>"line along "&amp;B124&amp;" of "&amp;C124</f>
@@ -22836,13 +22832,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="B125" t="s">
         <v>112</v>
       </c>
       <c r="C125" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" ref="D125:D127" si="30">"line along "&amp;B125&amp;" of "&amp;C125</f>
@@ -22851,13 +22847,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="B126" t="s">
         <v>108</v>
       </c>
       <c r="C126" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="30"/>
@@ -22866,13 +22862,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="B127" t="s">
         <v>108</v>
       </c>
       <c r="C127" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="30"/>
@@ -22881,13 +22877,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="B128" t="s">
         <v>108</v>
       </c>
       <c r="C128" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" ref="D128:D129" si="31">"line along "&amp;B128&amp;" of "&amp;C128</f>
@@ -22896,13 +22892,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="B129" t="s">
         <v>112</v>
       </c>
       <c r="C129" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="31"/>
@@ -22911,13 +22907,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="B130" t="s">
         <v>112</v>
       </c>
       <c r="C130" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" ref="D130" si="32">"line along "&amp;B130&amp;" of "&amp;C130</f>
@@ -22926,13 +22922,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="B131" t="s">
         <v>112</v>
       </c>
       <c r="C131" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="D131" t="str">
         <f>"line along "&amp;B131&amp;" of "&amp;C131</f>
@@ -22941,13 +22937,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="B132" t="s">
         <v>108</v>
       </c>
       <c r="C132" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" ref="D132:D135" si="33">"line along "&amp;B132&amp;" of "&amp;C132</f>
@@ -22956,13 +22952,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="B133" t="s">
         <v>112</v>
       </c>
       <c r="C133" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="33"/>
@@ -22971,13 +22967,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="B134" t="s">
         <v>112</v>
       </c>
       <c r="C134" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="33"/>
@@ -22986,13 +22982,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B135" t="s">
         <v>112</v>
       </c>
       <c r="C135" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="33"/>
@@ -23128,9 +23124,9 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="45.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -23168,42 +23164,42 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="C4" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C5" t="s">
         <v>1862</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1864</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="C6" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C7" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="C8" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -23328,18 +23324,18 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="C24" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="C25" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -23423,15 +23419,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBC00A8-69BB-C944-AE92-971EEE98B192}">
   <dimension ref="A1:X195"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -24429,7 +24425,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="57" spans="3:12" ht="17.100000000000001" customHeight="1">
+    <row r="57" spans="3:12" ht="17" customHeight="1">
       <c r="C57" t="s">
         <v>1366</v>
       </c>
@@ -24446,7 +24442,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="58" spans="3:12" ht="17.100000000000001" customHeight="1">
+    <row r="58" spans="3:12" ht="17" customHeight="1">
       <c r="J58" t="s">
         <v>1462</v>
       </c>
@@ -26565,7 +26561,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="161" spans="3:11">
+    <row r="161" spans="1:11">
       <c r="C161" t="s">
         <v>1366</v>
       </c>
@@ -26582,7 +26578,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="162" spans="3:11">
+    <row r="162" spans="1:11">
       <c r="C162" t="s">
         <v>1366</v>
       </c>
@@ -26599,7 +26595,10 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="163" spans="3:11">
+    <row r="163" spans="1:11">
+      <c r="A163" t="s">
+        <v>1365</v>
+      </c>
       <c r="C163" t="s">
         <v>1366</v>
       </c>
@@ -26619,7 +26618,10 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="164" spans="3:11">
+    <row r="164" spans="1:11">
+      <c r="A164" t="s">
+        <v>1365</v>
+      </c>
       <c r="C164" t="s">
         <v>1366</v>
       </c>
@@ -26630,13 +26632,16 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>1637</v>
+        <v>1869</v>
       </c>
       <c r="K164" t="s">
         <v>1636</v>
       </c>
     </row>
-    <row r="165" spans="3:11">
+    <row r="165" spans="1:11">
+      <c r="A165" t="s">
+        <v>1365</v>
+      </c>
       <c r="C165" t="s">
         <v>1366</v>
       </c>
@@ -26650,13 +26655,16 @@
         <v>3</v>
       </c>
       <c r="I165" t="s">
+        <v>1637</v>
+      </c>
+      <c r="J165" t="s">
         <v>1638</v>
       </c>
-      <c r="J165" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="166" spans="3:11">
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" t="s">
+        <v>1365</v>
+      </c>
       <c r="C166" t="s">
         <v>1366</v>
       </c>
@@ -26667,13 +26675,16 @@
         <v>4</v>
       </c>
       <c r="I166" t="s">
+        <v>1639</v>
+      </c>
+      <c r="J166" t="s">
         <v>1640</v>
       </c>
-      <c r="J166" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="167" spans="3:11">
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" t="s">
+        <v>1365</v>
+      </c>
       <c r="C167" t="s">
         <v>1366</v>
       </c>
@@ -26687,13 +26698,16 @@
         <v>5</v>
       </c>
       <c r="I167" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="J167" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="168" spans="3:11">
+    <row r="168" spans="1:11">
+      <c r="A168" t="s">
+        <v>1365</v>
+      </c>
       <c r="C168" t="s">
         <v>1366</v>
       </c>
@@ -26704,13 +26718,16 @@
         <v>6</v>
       </c>
       <c r="I168" t="s">
+        <v>1642</v>
+      </c>
+      <c r="J168" t="s">
         <v>1643</v>
       </c>
-      <c r="J168" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="169" spans="3:11">
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" t="s">
+        <v>1365</v>
+      </c>
       <c r="C169" t="s">
         <v>1366</v>
       </c>
@@ -26724,13 +26741,16 @@
         <v>7</v>
       </c>
       <c r="I169" t="s">
+        <v>1644</v>
+      </c>
+      <c r="J169" t="s">
         <v>1645</v>
       </c>
-      <c r="J169" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="170" spans="3:11">
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" t="s">
+        <v>1365</v>
+      </c>
       <c r="C170" t="s">
         <v>1366</v>
       </c>
@@ -26744,13 +26764,13 @@
         <v>8</v>
       </c>
       <c r="I170" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="J170" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="171" spans="3:11">
+    <row r="171" spans="1:11">
       <c r="C171" t="s">
         <v>1366</v>
       </c>
@@ -26761,10 +26781,13 @@
         <v>9</v>
       </c>
       <c r="J171" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="172" spans="3:11">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" t="s">
+        <v>1365</v>
+      </c>
       <c r="C172" t="s">
         <v>1366</v>
       </c>
@@ -26775,13 +26798,16 @@
         <v>1599</v>
       </c>
       <c r="J172" t="s">
-        <v>1649</v>
+        <v>1868</v>
       </c>
       <c r="K172" t="s">
         <v>1636</v>
       </c>
     </row>
-    <row r="173" spans="3:11">
+    <row r="173" spans="1:11">
+      <c r="A173" t="s">
+        <v>1365</v>
+      </c>
       <c r="C173" t="s">
         <v>1366</v>
       </c>
@@ -26792,10 +26818,10 @@
         <v>1602</v>
       </c>
       <c r="J173" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="174" spans="3:11">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="C174" t="s">
         <v>1366</v>
       </c>
@@ -26803,19 +26829,19 @@
         <v>1610</v>
       </c>
       <c r="E174" t="s">
+        <v>1649</v>
+      </c>
+      <c r="G174" t="s">
+        <v>1650</v>
+      </c>
+      <c r="J174" t="s">
         <v>1651</v>
-      </c>
-      <c r="G174" t="s">
-        <v>1652</v>
-      </c>
-      <c r="J174" t="s">
-        <v>1653</v>
       </c>
       <c r="K174" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="175" spans="3:11">
+    <row r="175" spans="1:11">
       <c r="C175" t="s">
         <v>1366</v>
       </c>
@@ -26823,18 +26849,18 @@
         <v>1610</v>
       </c>
       <c r="I175" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="J175" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="176" spans="3:11">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="C176" t="s">
         <v>1366</v>
       </c>
       <c r="D176" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="E176" t="s">
         <v>1377</v>
@@ -26843,7 +26869,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="J176" t="s">
         <v>1347</v>
@@ -26857,7 +26883,7 @@
         <v>1366</v>
       </c>
       <c r="D177" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="E177" t="s">
         <v>1612</v>
@@ -26877,7 +26903,7 @@
         <v>1366</v>
       </c>
       <c r="D178" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="E178" t="s">
         <v>1535</v>
@@ -26886,13 +26912,13 @@
         <v>3</v>
       </c>
       <c r="G178" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I178" t="s">
+        <v>1657</v>
+      </c>
+      <c r="J178" t="s">
         <v>1658</v>
-      </c>
-      <c r="I178" t="s">
-        <v>1659</v>
-      </c>
-      <c r="J178" t="s">
-        <v>1660</v>
       </c>
     </row>
     <row r="179" spans="3:11">
@@ -26900,7 +26926,7 @@
         <v>1366</v>
       </c>
       <c r="D179" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="F179">
         <v>4</v>
@@ -26911,7 +26937,7 @@
         <v>1366</v>
       </c>
       <c r="D180" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="E180" t="s">
         <v>1531</v>
@@ -26920,10 +26946,10 @@
         <v>5</v>
       </c>
       <c r="I180" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="J180" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="181" spans="3:11">
@@ -26931,16 +26957,16 @@
         <v>1366</v>
       </c>
       <c r="D181" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="F181">
         <v>6</v>
       </c>
       <c r="I181" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="J181" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="182" spans="3:11">
@@ -26948,22 +26974,22 @@
         <v>1366</v>
       </c>
       <c r="D182" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="E182" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="F182">
         <v>7</v>
       </c>
       <c r="G182" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I182" t="s">
+        <v>1665</v>
+      </c>
+      <c r="J182" t="s">
         <v>1666</v>
-      </c>
-      <c r="I182" t="s">
-        <v>1667</v>
-      </c>
-      <c r="J182" t="s">
-        <v>1668</v>
       </c>
     </row>
     <row r="183" spans="3:11">
@@ -26971,16 +26997,16 @@
         <v>1366</v>
       </c>
       <c r="D183" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="F183">
         <v>8</v>
       </c>
       <c r="I183" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="J183" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="184" spans="3:11">
@@ -26988,13 +27014,13 @@
         <v>1366</v>
       </c>
       <c r="D184" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="F184">
         <v>9</v>
       </c>
       <c r="J184" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="185" spans="3:11">
@@ -27002,13 +27028,13 @@
         <v>1366</v>
       </c>
       <c r="D185" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="F185">
         <v>10</v>
       </c>
       <c r="J185" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="186" spans="3:11">
@@ -27016,13 +27042,13 @@
         <v>1366</v>
       </c>
       <c r="D186" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="F186">
         <v>11</v>
       </c>
       <c r="J186" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="187" spans="3:11">
@@ -27030,13 +27056,13 @@
         <v>1366</v>
       </c>
       <c r="D187" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="E187" t="s">
         <v>1389</v>
       </c>
       <c r="J187" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="K187" t="s">
         <v>1294</v>
@@ -27047,16 +27073,16 @@
         <v>1366</v>
       </c>
       <c r="D188" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="E188" t="s">
         <v>1596</v>
       </c>
       <c r="I188" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="J188" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="189" spans="3:11">
@@ -27064,16 +27090,16 @@
         <v>1366</v>
       </c>
       <c r="D189" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="E189" t="s">
         <v>1401</v>
       </c>
       <c r="I189" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="J189" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="190" spans="3:11">
@@ -27081,7 +27107,7 @@
         <v>1366</v>
       </c>
       <c r="D190" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="J190" t="s">
         <v>1294</v>
@@ -27089,30 +27115,30 @@
     </row>
     <row r="191" spans="3:11">
       <c r="I191" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="J191" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="192" spans="3:11">
       <c r="J192" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="193" spans="10:10">
       <c r="J193" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="194" spans="10:10">
       <c r="J194" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="195" spans="10:10">
       <c r="J195" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
     </row>
   </sheetData>
@@ -27128,7 +27154,7 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43598B6F-FFA6-DB42-BEDE-4668F9EF9C05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B62A267-A7E6-554A-9F5C-537B6743E116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42340" yWindow="-12180" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4029" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4041" uniqueCount="1870">
   <si>
     <t>Status</t>
   </si>
@@ -5822,7 +5822,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5832,6 +5832,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5849,7 +5855,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5884,6 +5890,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -23420,8 +23427,8 @@
   <dimension ref="A1:X195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A173" sqref="A173"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -26298,7 +26305,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="145" spans="3:24">
+    <row r="145" spans="1:24">
       <c r="D145" t="s">
         <v>1484</v>
       </c>
@@ -26312,7 +26319,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="146" spans="3:24">
+    <row r="146" spans="1:24">
       <c r="D146" t="s">
         <v>1484</v>
       </c>
@@ -26326,7 +26333,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="147" spans="3:24">
+    <row r="147" spans="1:24">
       <c r="D147" t="s">
         <v>1484</v>
       </c>
@@ -26343,7 +26350,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="148" spans="3:24">
+    <row r="148" spans="1:24">
       <c r="D148" t="s">
         <v>1484</v>
       </c>
@@ -26357,7 +26364,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="149" spans="3:24">
+    <row r="149" spans="1:24">
       <c r="C149" t="s">
         <v>1366</v>
       </c>
@@ -26370,14 +26377,17 @@
       <c r="F149">
         <v>1</v>
       </c>
-      <c r="J149" t="s">
+      <c r="J149" s="26" t="s">
         <v>1611</v>
       </c>
       <c r="K149" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="150" spans="3:24">
+    <row r="150" spans="1:24">
+      <c r="A150" t="s">
+        <v>1365</v>
+      </c>
       <c r="D150" t="s">
         <v>1610</v>
       </c>
@@ -26385,7 +26395,10 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="151" spans="3:24">
+    <row r="151" spans="1:24">
+      <c r="A151" t="s">
+        <v>1365</v>
+      </c>
       <c r="C151" t="s">
         <v>1366</v>
       </c>
@@ -26402,7 +26415,10 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="152" spans="3:24">
+    <row r="152" spans="1:24">
+      <c r="A152" t="s">
+        <v>1365</v>
+      </c>
       <c r="C152" t="s">
         <v>1366</v>
       </c>
@@ -26422,7 +26438,10 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="153" spans="3:24">
+    <row r="153" spans="1:24">
+      <c r="A153" t="s">
+        <v>1365</v>
+      </c>
       <c r="C153" t="s">
         <v>1366</v>
       </c>
@@ -26439,7 +26458,10 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="154" spans="3:24">
+    <row r="154" spans="1:24">
+      <c r="A154" t="s">
+        <v>1365</v>
+      </c>
       <c r="C154" t="s">
         <v>1366</v>
       </c>
@@ -26459,7 +26481,10 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="155" spans="3:24">
+    <row r="155" spans="1:24">
+      <c r="A155" t="s">
+        <v>1365</v>
+      </c>
       <c r="C155" t="s">
         <v>1366</v>
       </c>
@@ -26482,7 +26507,10 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="156" spans="3:24">
+    <row r="156" spans="1:24">
+      <c r="A156" t="s">
+        <v>1365</v>
+      </c>
       <c r="C156" t="s">
         <v>1366</v>
       </c>
@@ -26496,7 +26524,10 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="157" spans="3:24">
+    <row r="157" spans="1:24">
+      <c r="A157" t="s">
+        <v>1365</v>
+      </c>
       <c r="C157" t="s">
         <v>1366</v>
       </c>
@@ -26516,7 +26547,10 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="158" spans="3:24">
+    <row r="158" spans="1:24">
+      <c r="A158" t="s">
+        <v>1365</v>
+      </c>
       <c r="C158" t="s">
         <v>1366</v>
       </c>
@@ -26526,14 +26560,14 @@
       <c r="F158">
         <v>2</v>
       </c>
-      <c r="J158" t="s">
+      <c r="J158" s="26" t="s">
         <v>1627</v>
       </c>
       <c r="K158" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="159" spans="3:24">
+    <row r="159" spans="1:24">
       <c r="C159" t="s">
         <v>1366</v>
       </c>
@@ -26544,7 +26578,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="3:24">
+    <row r="160" spans="1:24">
+      <c r="A160" t="s">
+        <v>1365</v>
+      </c>
       <c r="C160" t="s">
         <v>1366</v>
       </c>
@@ -26562,6 +26599,9 @@
       </c>
     </row>
     <row r="161" spans="1:11">
+      <c r="A161" t="s">
+        <v>1365</v>
+      </c>
       <c r="C161" t="s">
         <v>1366</v>
       </c>
@@ -26579,6 +26619,9 @@
       </c>
     </row>
     <row r="162" spans="1:11">
+      <c r="A162" t="s">
+        <v>1365</v>
+      </c>
       <c r="C162" t="s">
         <v>1366</v>
       </c>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B62A267-A7E6-554A-9F5C-537B6743E116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688080D5-1686-234A-A803-01BDECAF884D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42340" yWindow="-12180" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
@@ -23427,8 +23427,8 @@
   <dimension ref="A1:X195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A162" sqref="A162"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J171" sqref="J171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -26823,7 +26823,7 @@
       <c r="F171">
         <v>9</v>
       </c>
-      <c r="J171" t="s">
+      <c r="J171" s="26" t="s">
         <v>1647</v>
       </c>
     </row>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688080D5-1686-234A-A803-01BDECAF884D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323501C4-12FE-DC45-8C31-E1A25D1C6713}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42340" yWindow="-12180" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="42340" yWindow="-12200" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -23428,7 +23428,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J171" sqref="J171"/>
+      <selection pane="bottomLeft" activeCell="J175" sqref="J175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -26877,7 +26877,7 @@
       <c r="G174" t="s">
         <v>1650</v>
       </c>
-      <c r="J174" t="s">
+      <c r="J174" s="26" t="s">
         <v>1651</v>
       </c>
       <c r="K174" t="s">

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323501C4-12FE-DC45-8C31-E1A25D1C6713}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908A06C2-06B8-6F49-A248-202D0C2908DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42340" yWindow="-12200" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="42320" yWindow="-12200" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4041" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4046" uniqueCount="1870">
   <si>
     <t>Status</t>
   </si>
@@ -5091,9 +5091,6 @@
     <t>humerus proximal width AP at median tubercule</t>
   </si>
   <si>
-    <t>humerus proximal depth at median tubercule</t>
-  </si>
-  <si>
     <t>BT</t>
   </si>
   <si>
@@ -5713,6 +5710,9 @@
   </si>
   <si>
     <t>tibia medial length</t>
+  </si>
+  <si>
+    <t>humerus proximal depth at medial tubercule</t>
   </si>
 </sst>
 </file>
@@ -6363,7 +6363,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
   </sheetData>
@@ -20766,13 +20766,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B4" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C4" t="s">
         <v>1855</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1856</v>
       </c>
       <c r="D4" t="str">
         <f>"line that connects "&amp;B4&amp;" and "&amp;C4</f>
@@ -20781,39 +20781,39 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B5" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B7" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B8" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B9" t="s">
         <v>1324</v>
@@ -21015,7 +21015,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B2" t="s">
         <v>108</v>
@@ -21030,7 +21030,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B3" t="s">
         <v>108</v>
@@ -21045,7 +21045,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B4" t="s">
         <v>108</v>
@@ -21135,7 +21135,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B10" t="s">
         <v>110</v>
@@ -21150,7 +21150,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B11" t="s">
         <v>110</v>
@@ -21165,7 +21165,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B12" t="s">
         <v>110</v>
@@ -21180,7 +21180,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B13" t="s">
         <v>110</v>
@@ -21195,7 +21195,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B14" t="s">
         <v>108</v>
@@ -21210,7 +21210,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B15" t="s">
         <v>108</v>
@@ -21225,7 +21225,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B16" t="s">
         <v>108</v>
@@ -21240,7 +21240,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B17" t="s">
         <v>108</v>
@@ -21255,7 +21255,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B18" t="s">
         <v>108</v>
@@ -21270,7 +21270,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B19" t="s">
         <v>108</v>
@@ -21285,7 +21285,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B20" t="s">
         <v>108</v>
@@ -21300,7 +21300,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B21" t="s">
         <v>108</v>
@@ -21315,7 +21315,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B22" t="s">
         <v>108</v>
@@ -21330,7 +21330,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B23" t="s">
         <v>108</v>
@@ -21420,7 +21420,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B29" t="s">
         <v>110</v>
@@ -21435,7 +21435,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B30" t="s">
         <v>110</v>
@@ -21450,7 +21450,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B31" t="s">
         <v>110</v>
@@ -21465,7 +21465,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B32" t="s">
         <v>110</v>
@@ -21480,7 +21480,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B33" t="s">
         <v>112</v>
@@ -21495,7 +21495,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B34" t="s">
         <v>112</v>
@@ -21510,7 +21510,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B35" t="s">
         <v>112</v>
@@ -21525,7 +21525,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
@@ -21540,7 +21540,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B37" t="s">
         <v>112</v>
@@ -21555,7 +21555,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B38" t="s">
         <v>112</v>
@@ -21570,7 +21570,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B39" t="s">
         <v>108</v>
@@ -21591,7 +21591,7 @@
         <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -21606,7 +21606,7 @@
         <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -21621,7 +21621,7 @@
         <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -21651,7 +21651,7 @@
         <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -21666,7 +21666,7 @@
         <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -21735,7 +21735,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B50" t="s">
         <v>110</v>
@@ -21780,7 +21780,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B53" t="s">
         <v>108</v>
@@ -21795,7 +21795,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B54" t="s">
         <v>108</v>
@@ -21810,13 +21810,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B55" t="s">
         <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="2"/>
@@ -21825,13 +21825,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B56" t="s">
         <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" ref="D56:D60" si="3">"line along "&amp;B56&amp;" of "&amp;C56</f>
@@ -21840,13 +21840,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B57" t="s">
         <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="3"/>
@@ -21855,13 +21855,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B58" t="s">
         <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="3"/>
@@ -21870,10 +21870,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C59" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="3"/>
@@ -21882,13 +21882,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B60" t="s">
         <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="3"/>
@@ -21897,13 +21897,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B61" t="s">
         <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" ref="D61:D63" si="4">"line along "&amp;B61&amp;" of "&amp;C61</f>
@@ -21912,13 +21912,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B62" t="s">
         <v>110</v>
       </c>
       <c r="C62" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="4"/>
@@ -21927,13 +21927,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B63" t="s">
         <v>108</v>
       </c>
       <c r="C63" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="4"/>
@@ -21942,13 +21942,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B64" t="s">
         <v>112</v>
       </c>
       <c r="C64" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" ref="D64:D67" si="5">"line along "&amp;B64&amp;" of "&amp;C64</f>
@@ -21957,13 +21957,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B65" t="s">
         <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="5"/>
@@ -21972,10 +21972,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C66" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="5"/>
@@ -21984,13 +21984,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B67" t="s">
         <v>108</v>
       </c>
       <c r="C67" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="5"/>
@@ -21999,13 +21999,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B68" t="s">
         <v>112</v>
       </c>
       <c r="C68" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" ref="D68:D70" si="6">"line along "&amp;B68&amp;" of "&amp;C68</f>
@@ -22014,13 +22014,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B69" t="s">
         <v>110</v>
       </c>
       <c r="C69" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="6"/>
@@ -22029,13 +22029,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B70" t="s">
         <v>108</v>
       </c>
       <c r="C70" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="6"/>
@@ -22044,13 +22044,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B71" t="s">
         <v>112</v>
       </c>
       <c r="C71" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" ref="D71:D74" si="7">"line along "&amp;B71&amp;" of "&amp;C71</f>
@@ -22059,13 +22059,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B72" t="s">
         <v>108</v>
       </c>
       <c r="C72" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="7"/>
@@ -22074,10 +22074,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C73" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="7"/>
@@ -22086,13 +22086,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B74" t="s">
         <v>108</v>
       </c>
       <c r="C74" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="7"/>
@@ -22101,13 +22101,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B75" t="s">
         <v>112</v>
       </c>
       <c r="C75" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" ref="D75" si="8">"line along "&amp;B75&amp;" of "&amp;C75</f>
@@ -22116,13 +22116,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B76" t="s">
         <v>110</v>
       </c>
       <c r="C76" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" ref="D76:D78" si="9">"line along "&amp;B76&amp;" of "&amp;C76</f>
@@ -22131,13 +22131,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B77" t="s">
         <v>110</v>
       </c>
       <c r="C77" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="9"/>
@@ -22146,13 +22146,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B78" t="s">
         <v>108</v>
       </c>
       <c r="C78" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="9"/>
@@ -22161,13 +22161,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B79" t="s">
         <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" ref="D79:D82" si="10">"line along "&amp;B79&amp;" of "&amp;C79</f>
@@ -22176,13 +22176,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B80" t="s">
         <v>108</v>
       </c>
       <c r="C80" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="10"/>
@@ -22191,10 +22191,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C81" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="10"/>
@@ -22203,13 +22203,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B82" t="s">
         <v>108</v>
       </c>
       <c r="C82" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="10"/>
@@ -22218,13 +22218,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B83" t="s">
         <v>112</v>
       </c>
       <c r="C83" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" ref="D83" si="11">"line along "&amp;B83&amp;" of "&amp;C83</f>
@@ -22233,7 +22233,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B84" t="s">
         <v>110</v>
@@ -22248,7 +22248,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B85" t="s">
         <v>108</v>
@@ -22263,13 +22263,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B86" t="s">
         <v>108</v>
       </c>
       <c r="C86" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="13"/>
@@ -22278,7 +22278,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B87" t="s">
         <v>108</v>
@@ -22293,7 +22293,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B88" t="s">
         <v>110</v>
@@ -22308,7 +22308,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B89" t="s">
         <v>108</v>
@@ -22323,13 +22323,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B90" t="s">
         <v>108</v>
       </c>
       <c r="C90" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="16"/>
@@ -22338,7 +22338,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B91" t="s">
         <v>108</v>
@@ -22353,13 +22353,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B92" t="s">
         <v>110</v>
       </c>
       <c r="C92" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" ref="D92" si="17">"line along "&amp;B92&amp;" of "&amp;C92</f>
@@ -22368,13 +22368,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B93" t="s">
         <v>108</v>
       </c>
       <c r="C93" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" ref="D93:D97" si="18">"line along "&amp;B93&amp;" of "&amp;C93</f>
@@ -22383,13 +22383,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B94" t="s">
         <v>108</v>
       </c>
       <c r="C94" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="18"/>
@@ -22398,13 +22398,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B95" t="s">
         <v>108</v>
       </c>
       <c r="C95" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="18"/>
@@ -22413,13 +22413,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="18" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B96" t="s">
         <v>112</v>
       </c>
       <c r="C96" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="18"/>
@@ -22428,13 +22428,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="18" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B97" t="s">
         <v>112</v>
       </c>
       <c r="C97" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="18"/>
@@ -22443,13 +22443,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B98" t="s">
         <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" ref="D98:D99" si="19">"line along "&amp;B98&amp;" of "&amp;C98</f>
@@ -22458,13 +22458,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B99" t="s">
         <v>110</v>
       </c>
       <c r="C99" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="19"/>
@@ -22473,13 +22473,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B100" t="s">
         <v>110</v>
       </c>
       <c r="C100" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" ref="D100" si="20">"line along "&amp;B100&amp;" of "&amp;C100</f>
@@ -22488,13 +22488,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B101" t="s">
         <v>110</v>
       </c>
       <c r="C101" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" ref="D101:D102" si="21">"line along "&amp;B101&amp;" of "&amp;C101</f>
@@ -22503,13 +22503,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B102" t="s">
         <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="21"/>
@@ -22518,13 +22518,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B103" t="s">
         <v>108</v>
       </c>
       <c r="C103" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" ref="D103" si="22">"line along "&amp;B103&amp;" of "&amp;C103</f>
@@ -22533,13 +22533,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B104" t="s">
         <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" ref="D104:D105" si="23">"line along "&amp;B104&amp;" of "&amp;C104</f>
@@ -22548,13 +22548,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B105" t="s">
         <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="23"/>
@@ -22563,13 +22563,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B106" t="s">
         <v>112</v>
       </c>
       <c r="C106" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D106" t="str">
         <f>"line along "&amp;B106&amp;" of "&amp;C106</f>
@@ -22578,10 +22578,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="C107" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D107" t="str">
         <f>"line along "&amp;B107&amp;" of "&amp;C107</f>
@@ -22590,13 +22590,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B108" t="s">
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" ref="D108:D109" si="24">"line along "&amp;B108&amp;" of "&amp;C108</f>
@@ -22605,7 +22605,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
@@ -22620,7 +22620,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B110" t="s">
         <v>112</v>
@@ -22635,10 +22635,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C111" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D111" t="str">
         <f>"line along "&amp;B111&amp;" of "&amp;C111</f>
@@ -22647,7 +22647,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B112" t="s">
         <v>108</v>
@@ -22662,7 +22662,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B113" t="s">
         <v>110</v>
@@ -22677,7 +22677,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B114" t="s">
         <v>112</v>
@@ -22692,10 +22692,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C115" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D115" t="str">
         <f>"line along "&amp;B115&amp;" of "&amp;C115</f>
@@ -22704,13 +22704,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B116" t="s">
         <v>108</v>
       </c>
       <c r="C116" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" ref="D116" si="26">"line along "&amp;B116&amp;" of "&amp;C116</f>
@@ -22719,13 +22719,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B117" t="s">
         <v>112</v>
       </c>
       <c r="C117" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" ref="D117:D122" si="27">"line along "&amp;B117&amp;" of "&amp;C117</f>
@@ -22734,13 +22734,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B118" t="s">
         <v>112</v>
       </c>
       <c r="C118" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" ref="D118" si="28">"line along "&amp;B118&amp;" of "&amp;C118</f>
@@ -22749,13 +22749,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B119" t="s">
         <v>110</v>
       </c>
       <c r="C119" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="27"/>
@@ -22764,13 +22764,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B120" t="s">
         <v>108</v>
       </c>
       <c r="C120" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="27"/>
@@ -22779,13 +22779,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B121" t="s">
         <v>108</v>
       </c>
       <c r="C121" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" ref="D121" si="29">"line along "&amp;B121&amp;" of "&amp;C121</f>
@@ -22794,13 +22794,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B122" t="s">
         <v>108</v>
       </c>
       <c r="C122" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="27"/>
@@ -22809,13 +22809,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B123" t="s">
         <v>112</v>
       </c>
       <c r="C123" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="D123" t="str">
         <f>"line along "&amp;B123&amp;" of "&amp;C123</f>
@@ -22824,13 +22824,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B124" t="s">
         <v>112</v>
       </c>
       <c r="C124" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D124" t="str">
         <f>"line along "&amp;B124&amp;" of "&amp;C124</f>
@@ -22839,13 +22839,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B125" t="s">
         <v>112</v>
       </c>
       <c r="C125" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" ref="D125:D127" si="30">"line along "&amp;B125&amp;" of "&amp;C125</f>
@@ -22854,13 +22854,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B126" t="s">
         <v>108</v>
       </c>
       <c r="C126" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="30"/>
@@ -22869,13 +22869,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B127" t="s">
         <v>108</v>
       </c>
       <c r="C127" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="30"/>
@@ -22884,13 +22884,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B128" t="s">
         <v>108</v>
       </c>
       <c r="C128" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" ref="D128:D129" si="31">"line along "&amp;B128&amp;" of "&amp;C128</f>
@@ -22899,13 +22899,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B129" t="s">
         <v>112</v>
       </c>
       <c r="C129" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="31"/>
@@ -22914,13 +22914,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B130" t="s">
         <v>112</v>
       </c>
       <c r="C130" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" ref="D130" si="32">"line along "&amp;B130&amp;" of "&amp;C130</f>
@@ -22929,13 +22929,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B131" t="s">
         <v>112</v>
       </c>
       <c r="C131" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D131" t="str">
         <f>"line along "&amp;B131&amp;" of "&amp;C131</f>
@@ -22944,13 +22944,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B132" t="s">
         <v>108</v>
       </c>
       <c r="C132" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" ref="D132:D135" si="33">"line along "&amp;B132&amp;" of "&amp;C132</f>
@@ -22959,13 +22959,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B133" t="s">
         <v>112</v>
       </c>
       <c r="C133" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="33"/>
@@ -22974,13 +22974,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B134" t="s">
         <v>112</v>
       </c>
       <c r="C134" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="33"/>
@@ -22989,13 +22989,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B135" t="s">
         <v>112</v>
       </c>
       <c r="C135" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="33"/>
@@ -23171,42 +23171,42 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C4" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C5" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C6" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C7" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C8" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -23331,18 +23331,18 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="C24" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C25" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -23428,7 +23428,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J175" sqref="J175"/>
+      <selection pane="bottomLeft" activeCell="J181" sqref="J181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -26675,7 +26675,7 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="K164" t="s">
         <v>1636</v>
@@ -26841,7 +26841,7 @@
         <v>1599</v>
       </c>
       <c r="J172" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="K172" t="s">
         <v>1636</v>
@@ -26885,6 +26885,9 @@
       </c>
     </row>
     <row r="175" spans="1:11">
+      <c r="A175" t="s">
+        <v>1365</v>
+      </c>
       <c r="C175" t="s">
         <v>1366</v>
       </c>
@@ -26899,6 +26902,9 @@
       </c>
     </row>
     <row r="176" spans="1:11">
+      <c r="A176" t="s">
+        <v>1365</v>
+      </c>
       <c r="C176" t="s">
         <v>1366</v>
       </c>
@@ -26921,7 +26927,10 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="177" spans="3:11">
+    <row r="177" spans="1:11">
+      <c r="A177" t="s">
+        <v>1365</v>
+      </c>
       <c r="C177" t="s">
         <v>1366</v>
       </c>
@@ -26941,7 +26950,10 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="178" spans="3:11">
+    <row r="178" spans="1:11">
+      <c r="A178" t="s">
+        <v>1365</v>
+      </c>
       <c r="C178" t="s">
         <v>1366</v>
       </c>
@@ -26964,7 +26976,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="179" spans="3:11">
+    <row r="179" spans="1:11">
       <c r="C179" t="s">
         <v>1366</v>
       </c>
@@ -26975,7 +26987,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="3:11">
+    <row r="180" spans="1:11">
+      <c r="A180" t="s">
+        <v>1365</v>
+      </c>
       <c r="C180" t="s">
         <v>1366</v>
       </c>
@@ -26995,7 +27010,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="181" spans="3:11">
+    <row r="181" spans="1:11">
       <c r="C181" t="s">
         <v>1366</v>
       </c>
@@ -27009,10 +27024,10 @@
         <v>1661</v>
       </c>
       <c r="J181" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="182" spans="3:11">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="C182" t="s">
         <v>1366</v>
       </c>
@@ -27020,22 +27035,22 @@
         <v>1654</v>
       </c>
       <c r="E182" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="F182">
         <v>7</v>
       </c>
       <c r="G182" t="s">
+        <v>1663</v>
+      </c>
+      <c r="I182" t="s">
         <v>1664</v>
       </c>
-      <c r="I182" t="s">
+      <c r="J182" t="s">
         <v>1665</v>
       </c>
-      <c r="J182" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="183" spans="3:11">
+    </row>
+    <row r="183" spans="1:11">
       <c r="C183" t="s">
         <v>1366</v>
       </c>
@@ -27046,13 +27061,13 @@
         <v>8</v>
       </c>
       <c r="I183" t="s">
+        <v>1666</v>
+      </c>
+      <c r="J183" t="s">
         <v>1667</v>
       </c>
-      <c r="J183" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="184" spans="3:11">
+    </row>
+    <row r="184" spans="1:11">
       <c r="C184" t="s">
         <v>1366</v>
       </c>
@@ -27063,10 +27078,10 @@
         <v>9</v>
       </c>
       <c r="J184" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="185" spans="3:11">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="C185" t="s">
         <v>1366</v>
       </c>
@@ -27077,10 +27092,10 @@
         <v>10</v>
       </c>
       <c r="J185" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="186" spans="3:11">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="C186" t="s">
         <v>1366</v>
       </c>
@@ -27091,10 +27106,10 @@
         <v>11</v>
       </c>
       <c r="J186" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="187" spans="3:11">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="C187" t="s">
         <v>1366</v>
       </c>
@@ -27105,13 +27120,13 @@
         <v>1389</v>
       </c>
       <c r="J187" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K187" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="188" spans="3:11">
+    <row r="188" spans="1:11">
       <c r="C188" t="s">
         <v>1366</v>
       </c>
@@ -27122,13 +27137,13 @@
         <v>1596</v>
       </c>
       <c r="I188" t="s">
+        <v>1672</v>
+      </c>
+      <c r="J188" t="s">
         <v>1673</v>
       </c>
-      <c r="J188" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="189" spans="3:11">
+    </row>
+    <row r="189" spans="1:11">
       <c r="C189" t="s">
         <v>1366</v>
       </c>
@@ -27139,13 +27154,13 @@
         <v>1401</v>
       </c>
       <c r="I189" t="s">
+        <v>1674</v>
+      </c>
+      <c r="J189" t="s">
         <v>1675</v>
       </c>
-      <c r="J189" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="190" spans="3:11">
+    </row>
+    <row r="190" spans="1:11">
       <c r="C190" t="s">
         <v>1366</v>
       </c>
@@ -27156,32 +27171,32 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="191" spans="3:11">
+    <row r="191" spans="1:11">
       <c r="I191" t="s">
+        <v>1676</v>
+      </c>
+      <c r="J191" t="s">
         <v>1677</v>
       </c>
-      <c r="J191" t="s">
+    </row>
+    <row r="192" spans="1:11">
+      <c r="J192" t="s">
         <v>1678</v>
-      </c>
-    </row>
-    <row r="192" spans="3:11">
-      <c r="J192" t="s">
-        <v>1679</v>
       </c>
     </row>
     <row r="193" spans="10:10">
       <c r="J193" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="194" spans="10:10">
       <c r="J194" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="195" spans="10:10">
       <c r="J195" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
   </sheetData>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908A06C2-06B8-6F49-A248-202D0C2908DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD8F016-2319-8C40-B714-02A38630CD10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42320" yWindow="-12200" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="42320" yWindow="-12220" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -5091,6 +5091,9 @@
     <t>humerus proximal width AP at median tubercule</t>
   </si>
   <si>
+    <t>humerus proximal depth at median tubercule</t>
+  </si>
+  <si>
     <t>BT</t>
   </si>
   <si>
@@ -5710,9 +5713,6 @@
   </si>
   <si>
     <t>tibia medial length</t>
-  </si>
-  <si>
-    <t>humerus proximal depth at medial tubercule</t>
   </si>
 </sst>
 </file>
@@ -6363,7 +6363,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
   </sheetData>
@@ -20766,13 +20766,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B4" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="C4" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="D4" t="str">
         <f>"line that connects "&amp;B4&amp;" and "&amp;C4</f>
@@ -20781,39 +20781,39 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B5" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B6" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B7" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B8" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B9" t="s">
         <v>1324</v>
@@ -21015,7 +21015,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B2" t="s">
         <v>108</v>
@@ -21030,7 +21030,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B3" t="s">
         <v>108</v>
@@ -21045,7 +21045,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B4" t="s">
         <v>108</v>
@@ -21135,7 +21135,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B10" t="s">
         <v>110</v>
@@ -21150,7 +21150,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B11" t="s">
         <v>110</v>
@@ -21165,7 +21165,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B12" t="s">
         <v>110</v>
@@ -21180,7 +21180,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B13" t="s">
         <v>110</v>
@@ -21195,7 +21195,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B14" t="s">
         <v>108</v>
@@ -21210,7 +21210,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B15" t="s">
         <v>108</v>
@@ -21225,7 +21225,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B16" t="s">
         <v>108</v>
@@ -21240,7 +21240,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B17" t="s">
         <v>108</v>
@@ -21255,7 +21255,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B18" t="s">
         <v>108</v>
@@ -21270,7 +21270,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B19" t="s">
         <v>108</v>
@@ -21285,7 +21285,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B20" t="s">
         <v>108</v>
@@ -21300,7 +21300,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B21" t="s">
         <v>108</v>
@@ -21315,7 +21315,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B22" t="s">
         <v>108</v>
@@ -21330,7 +21330,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B23" t="s">
         <v>108</v>
@@ -21420,7 +21420,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B29" t="s">
         <v>110</v>
@@ -21435,7 +21435,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B30" t="s">
         <v>110</v>
@@ -21450,7 +21450,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B31" t="s">
         <v>110</v>
@@ -21465,7 +21465,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B32" t="s">
         <v>110</v>
@@ -21480,7 +21480,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B33" t="s">
         <v>112</v>
@@ -21495,7 +21495,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B34" t="s">
         <v>112</v>
@@ -21510,7 +21510,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B35" t="s">
         <v>112</v>
@@ -21525,7 +21525,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
@@ -21540,7 +21540,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B37" t="s">
         <v>112</v>
@@ -21555,7 +21555,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B38" t="s">
         <v>112</v>
@@ -21570,7 +21570,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B39" t="s">
         <v>108</v>
@@ -21591,7 +21591,7 @@
         <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -21606,7 +21606,7 @@
         <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -21621,7 +21621,7 @@
         <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -21651,7 +21651,7 @@
         <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -21666,7 +21666,7 @@
         <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -21735,7 +21735,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B50" t="s">
         <v>110</v>
@@ -21780,7 +21780,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B53" t="s">
         <v>108</v>
@@ -21795,7 +21795,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B54" t="s">
         <v>108</v>
@@ -21810,13 +21810,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B55" t="s">
         <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="2"/>
@@ -21825,13 +21825,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B56" t="s">
         <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" ref="D56:D60" si="3">"line along "&amp;B56&amp;" of "&amp;C56</f>
@@ -21840,13 +21840,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B57" t="s">
         <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="3"/>
@@ -21855,13 +21855,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B58" t="s">
         <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="3"/>
@@ -21870,10 +21870,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="C59" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="3"/>
@@ -21882,13 +21882,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B60" t="s">
         <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="3"/>
@@ -21897,13 +21897,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B61" t="s">
         <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" ref="D61:D63" si="4">"line along "&amp;B61&amp;" of "&amp;C61</f>
@@ -21912,13 +21912,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B62" t="s">
         <v>110</v>
       </c>
       <c r="C62" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="4"/>
@@ -21927,13 +21927,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B63" t="s">
         <v>108</v>
       </c>
       <c r="C63" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="4"/>
@@ -21942,13 +21942,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B64" t="s">
         <v>112</v>
       </c>
       <c r="C64" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" ref="D64:D67" si="5">"line along "&amp;B64&amp;" of "&amp;C64</f>
@@ -21957,13 +21957,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B65" t="s">
         <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="5"/>
@@ -21972,10 +21972,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C66" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="5"/>
@@ -21984,13 +21984,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B67" t="s">
         <v>108</v>
       </c>
       <c r="C67" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="5"/>
@@ -21999,13 +21999,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B68" t="s">
         <v>112</v>
       </c>
       <c r="C68" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" ref="D68:D70" si="6">"line along "&amp;B68&amp;" of "&amp;C68</f>
@@ -22014,13 +22014,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B69" t="s">
         <v>110</v>
       </c>
       <c r="C69" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="6"/>
@@ -22029,13 +22029,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B70" t="s">
         <v>108</v>
       </c>
       <c r="C70" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="6"/>
@@ -22044,13 +22044,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B71" t="s">
         <v>112</v>
       </c>
       <c r="C71" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" ref="D71:D74" si="7">"line along "&amp;B71&amp;" of "&amp;C71</f>
@@ -22059,13 +22059,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B72" t="s">
         <v>108</v>
       </c>
       <c r="C72" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="7"/>
@@ -22074,10 +22074,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C73" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="7"/>
@@ -22086,13 +22086,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B74" t="s">
         <v>108</v>
       </c>
       <c r="C74" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="7"/>
@@ -22101,13 +22101,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B75" t="s">
         <v>112</v>
       </c>
       <c r="C75" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" ref="D75" si="8">"line along "&amp;B75&amp;" of "&amp;C75</f>
@@ -22116,13 +22116,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B76" t="s">
         <v>110</v>
       </c>
       <c r="C76" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" ref="D76:D78" si="9">"line along "&amp;B76&amp;" of "&amp;C76</f>
@@ -22131,13 +22131,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B77" t="s">
         <v>110</v>
       </c>
       <c r="C77" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="9"/>
@@ -22146,13 +22146,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B78" t="s">
         <v>108</v>
       </c>
       <c r="C78" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="9"/>
@@ -22161,13 +22161,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B79" t="s">
         <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" ref="D79:D82" si="10">"line along "&amp;B79&amp;" of "&amp;C79</f>
@@ -22176,13 +22176,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B80" t="s">
         <v>108</v>
       </c>
       <c r="C80" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="10"/>
@@ -22191,10 +22191,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C81" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="10"/>
@@ -22203,13 +22203,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B82" t="s">
         <v>108</v>
       </c>
       <c r="C82" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="10"/>
@@ -22218,13 +22218,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B83" t="s">
         <v>112</v>
       </c>
       <c r="C83" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" ref="D83" si="11">"line along "&amp;B83&amp;" of "&amp;C83</f>
@@ -22233,7 +22233,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B84" t="s">
         <v>110</v>
@@ -22248,7 +22248,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B85" t="s">
         <v>108</v>
@@ -22263,13 +22263,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B86" t="s">
         <v>108</v>
       </c>
       <c r="C86" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="13"/>
@@ -22278,7 +22278,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B87" t="s">
         <v>108</v>
@@ -22293,7 +22293,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B88" t="s">
         <v>110</v>
@@ -22308,7 +22308,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B89" t="s">
         <v>108</v>
@@ -22323,13 +22323,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B90" t="s">
         <v>108</v>
       </c>
       <c r="C90" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="16"/>
@@ -22338,7 +22338,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B91" t="s">
         <v>108</v>
@@ -22353,13 +22353,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B92" t="s">
         <v>110</v>
       </c>
       <c r="C92" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" ref="D92" si="17">"line along "&amp;B92&amp;" of "&amp;C92</f>
@@ -22368,13 +22368,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B93" t="s">
         <v>108</v>
       </c>
       <c r="C93" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" ref="D93:D97" si="18">"line along "&amp;B93&amp;" of "&amp;C93</f>
@@ -22383,13 +22383,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B94" t="s">
         <v>108</v>
       </c>
       <c r="C94" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="18"/>
@@ -22398,13 +22398,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B95" t="s">
         <v>108</v>
       </c>
       <c r="C95" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="18"/>
@@ -22413,13 +22413,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="18" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B96" t="s">
         <v>112</v>
       </c>
       <c r="C96" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="18"/>
@@ -22428,13 +22428,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="18" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B97" t="s">
         <v>112</v>
       </c>
       <c r="C97" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="18"/>
@@ -22443,13 +22443,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="B98" t="s">
         <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" ref="D98:D99" si="19">"line along "&amp;B98&amp;" of "&amp;C98</f>
@@ -22458,13 +22458,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B99" t="s">
         <v>110</v>
       </c>
       <c r="C99" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="19"/>
@@ -22473,13 +22473,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B100" t="s">
         <v>110</v>
       </c>
       <c r="C100" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" ref="D100" si="20">"line along "&amp;B100&amp;" of "&amp;C100</f>
@@ -22488,13 +22488,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B101" t="s">
         <v>110</v>
       </c>
       <c r="C101" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" ref="D101:D102" si="21">"line along "&amp;B101&amp;" of "&amp;C101</f>
@@ -22503,13 +22503,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B102" t="s">
         <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="21"/>
@@ -22518,13 +22518,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B103" t="s">
         <v>108</v>
       </c>
       <c r="C103" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" ref="D103" si="22">"line along "&amp;B103&amp;" of "&amp;C103</f>
@@ -22533,13 +22533,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B104" t="s">
         <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" ref="D104:D105" si="23">"line along "&amp;B104&amp;" of "&amp;C104</f>
@@ -22548,13 +22548,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B105" t="s">
         <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="23"/>
@@ -22563,13 +22563,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="B106" t="s">
         <v>112</v>
       </c>
       <c r="C106" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="D106" t="str">
         <f>"line along "&amp;B106&amp;" of "&amp;C106</f>
@@ -22578,10 +22578,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="C107" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="D107" t="str">
         <f>"line along "&amp;B107&amp;" of "&amp;C107</f>
@@ -22590,13 +22590,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B108" t="s">
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" ref="D108:D109" si="24">"line along "&amp;B108&amp;" of "&amp;C108</f>
@@ -22605,7 +22605,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
@@ -22620,7 +22620,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B110" t="s">
         <v>112</v>
@@ -22635,10 +22635,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="C111" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="D111" t="str">
         <f>"line along "&amp;B111&amp;" of "&amp;C111</f>
@@ -22647,7 +22647,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B112" t="s">
         <v>108</v>
@@ -22662,7 +22662,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B113" t="s">
         <v>110</v>
@@ -22677,7 +22677,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B114" t="s">
         <v>112</v>
@@ -22692,10 +22692,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="C115" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="D115" t="str">
         <f>"line along "&amp;B115&amp;" of "&amp;C115</f>
@@ -22704,13 +22704,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B116" t="s">
         <v>108</v>
       </c>
       <c r="C116" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" ref="D116" si="26">"line along "&amp;B116&amp;" of "&amp;C116</f>
@@ -22719,13 +22719,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B117" t="s">
         <v>112</v>
       </c>
       <c r="C117" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" ref="D117:D122" si="27">"line along "&amp;B117&amp;" of "&amp;C117</f>
@@ -22734,13 +22734,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B118" t="s">
         <v>112</v>
       </c>
       <c r="C118" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" ref="D118" si="28">"line along "&amp;B118&amp;" of "&amp;C118</f>
@@ -22749,13 +22749,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B119" t="s">
         <v>110</v>
       </c>
       <c r="C119" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="27"/>
@@ -22764,13 +22764,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B120" t="s">
         <v>108</v>
       </c>
       <c r="C120" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="27"/>
@@ -22779,13 +22779,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B121" t="s">
         <v>108</v>
       </c>
       <c r="C121" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" ref="D121" si="29">"line along "&amp;B121&amp;" of "&amp;C121</f>
@@ -22794,13 +22794,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B122" t="s">
         <v>108</v>
       </c>
       <c r="C122" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="27"/>
@@ -22809,13 +22809,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B123" t="s">
         <v>112</v>
       </c>
       <c r="C123" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="D123" t="str">
         <f>"line along "&amp;B123&amp;" of "&amp;C123</f>
@@ -22824,13 +22824,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B124" t="s">
         <v>112</v>
       </c>
       <c r="C124" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="D124" t="str">
         <f>"line along "&amp;B124&amp;" of "&amp;C124</f>
@@ -22839,13 +22839,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B125" t="s">
         <v>112</v>
       </c>
       <c r="C125" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" ref="D125:D127" si="30">"line along "&amp;B125&amp;" of "&amp;C125</f>
@@ -22854,13 +22854,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B126" t="s">
         <v>108</v>
       </c>
       <c r="C126" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="30"/>
@@ -22869,13 +22869,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B127" t="s">
         <v>108</v>
       </c>
       <c r="C127" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="30"/>
@@ -22884,13 +22884,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B128" t="s">
         <v>108</v>
       </c>
       <c r="C128" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" ref="D128:D129" si="31">"line along "&amp;B128&amp;" of "&amp;C128</f>
@@ -22899,13 +22899,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B129" t="s">
         <v>112</v>
       </c>
       <c r="C129" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="31"/>
@@ -22914,13 +22914,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B130" t="s">
         <v>112</v>
       </c>
       <c r="C130" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" ref="D130" si="32">"line along "&amp;B130&amp;" of "&amp;C130</f>
@@ -22929,13 +22929,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B131" t="s">
         <v>112</v>
       </c>
       <c r="C131" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="D131" t="str">
         <f>"line along "&amp;B131&amp;" of "&amp;C131</f>
@@ -22944,13 +22944,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B132" t="s">
         <v>108</v>
       </c>
       <c r="C132" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" ref="D132:D135" si="33">"line along "&amp;B132&amp;" of "&amp;C132</f>
@@ -22959,13 +22959,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B133" t="s">
         <v>112</v>
       </c>
       <c r="C133" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="33"/>
@@ -22974,13 +22974,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B134" t="s">
         <v>112</v>
       </c>
       <c r="C134" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="33"/>
@@ -22989,13 +22989,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B135" t="s">
         <v>112</v>
       </c>
       <c r="C135" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="33"/>
@@ -23171,42 +23171,42 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="C4" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="C5" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="C6" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="C7" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="C8" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -23331,18 +23331,18 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="C24" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="C25" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -26675,7 +26675,7 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="K164" t="s">
         <v>1636</v>
@@ -26841,7 +26841,7 @@
         <v>1599</v>
       </c>
       <c r="J172" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="K172" t="s">
         <v>1636</v>
@@ -27024,7 +27024,7 @@
         <v>1661</v>
       </c>
       <c r="J181" t="s">
-        <v>1869</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -27035,19 +27035,19 @@
         <v>1654</v>
       </c>
       <c r="E182" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="F182">
         <v>7</v>
       </c>
       <c r="G182" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="I182" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="J182" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -27061,10 +27061,10 @@
         <v>8</v>
       </c>
       <c r="I183" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="J183" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -27078,7 +27078,7 @@
         <v>9</v>
       </c>
       <c r="J184" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -27092,7 +27092,7 @@
         <v>10</v>
       </c>
       <c r="J185" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -27106,7 +27106,7 @@
         <v>11</v>
       </c>
       <c r="J186" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -27120,7 +27120,7 @@
         <v>1389</v>
       </c>
       <c r="J187" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="K187" t="s">
         <v>1294</v>
@@ -27137,10 +27137,10 @@
         <v>1596</v>
       </c>
       <c r="I188" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="J188" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -27154,10 +27154,10 @@
         <v>1401</v>
       </c>
       <c r="I189" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="J189" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -27173,30 +27173,30 @@
     </row>
     <row r="191" spans="1:11">
       <c r="I191" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="J191" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="192" spans="1:11">
       <c r="J192" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="193" spans="10:10">
       <c r="J193" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="194" spans="10:10">
       <c r="J194" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="195" spans="10:10">
       <c r="J195" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
   </sheetData>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD8F016-2319-8C40-B714-02A38630CD10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65206FF1-790D-164B-9FF6-916AA193E4C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42320" yWindow="-12220" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
@@ -27023,7 +27023,7 @@
       <c r="I181" t="s">
         <v>1661</v>
       </c>
-      <c r="J181" t="s">
+      <c r="J181" s="26" t="s">
         <v>1662</v>
       </c>
     </row>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65206FF1-790D-164B-9FF6-916AA193E4C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9916AE24-FB73-F146-9EF6-875CCE7038AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42320" yWindow="-12220" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4046" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4052" uniqueCount="1870">
   <si>
     <t>Status</t>
   </si>
@@ -5121,9 +5121,6 @@
     <t>humerus trochlear height at sagittal crest</t>
   </si>
   <si>
-    <t>humerus length  lateral</t>
-  </si>
-  <si>
     <t>humerus proximal width AP</t>
   </si>
   <si>
@@ -5713,6 +5710,9 @@
   </si>
   <si>
     <t>tibia medial length</t>
+  </si>
+  <si>
+    <t>humerus lateral length</t>
   </si>
 </sst>
 </file>
@@ -6363,7 +6363,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
   </sheetData>
@@ -20766,13 +20766,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B4" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C4" t="s">
         <v>1855</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1856</v>
       </c>
       <c r="D4" t="str">
         <f>"line that connects "&amp;B4&amp;" and "&amp;C4</f>
@@ -20781,39 +20781,39 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B5" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B6" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B7" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B8" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B9" t="s">
         <v>1324</v>
@@ -21015,7 +21015,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B2" t="s">
         <v>108</v>
@@ -21030,7 +21030,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B3" t="s">
         <v>108</v>
@@ -21045,7 +21045,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B4" t="s">
         <v>108</v>
@@ -21135,7 +21135,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B10" t="s">
         <v>110</v>
@@ -21150,7 +21150,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B11" t="s">
         <v>110</v>
@@ -21165,7 +21165,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B12" t="s">
         <v>110</v>
@@ -21180,7 +21180,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B13" t="s">
         <v>110</v>
@@ -21195,7 +21195,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B14" t="s">
         <v>108</v>
@@ -21210,7 +21210,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B15" t="s">
         <v>108</v>
@@ -21225,7 +21225,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B16" t="s">
         <v>108</v>
@@ -21240,7 +21240,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B17" t="s">
         <v>108</v>
@@ -21255,7 +21255,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B18" t="s">
         <v>108</v>
@@ -21270,7 +21270,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B19" t="s">
         <v>108</v>
@@ -21285,7 +21285,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B20" t="s">
         <v>108</v>
@@ -21300,7 +21300,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B21" t="s">
         <v>108</v>
@@ -21315,7 +21315,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B22" t="s">
         <v>108</v>
@@ -21330,7 +21330,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B23" t="s">
         <v>108</v>
@@ -21420,7 +21420,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B29" t="s">
         <v>110</v>
@@ -21435,7 +21435,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B30" t="s">
         <v>110</v>
@@ -21450,7 +21450,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B31" t="s">
         <v>110</v>
@@ -21465,7 +21465,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B32" t="s">
         <v>110</v>
@@ -21480,7 +21480,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B33" t="s">
         <v>112</v>
@@ -21495,7 +21495,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B34" t="s">
         <v>112</v>
@@ -21510,7 +21510,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B35" t="s">
         <v>112</v>
@@ -21525,7 +21525,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
@@ -21540,7 +21540,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B37" t="s">
         <v>112</v>
@@ -21555,7 +21555,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B38" t="s">
         <v>112</v>
@@ -21570,7 +21570,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B39" t="s">
         <v>108</v>
@@ -21591,7 +21591,7 @@
         <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -21606,7 +21606,7 @@
         <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -21621,7 +21621,7 @@
         <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -21651,7 +21651,7 @@
         <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -21666,7 +21666,7 @@
         <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -21735,7 +21735,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B50" t="s">
         <v>110</v>
@@ -21780,7 +21780,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B53" t="s">
         <v>108</v>
@@ -21795,7 +21795,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B54" t="s">
         <v>108</v>
@@ -21810,13 +21810,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B55" t="s">
         <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="2"/>
@@ -21825,13 +21825,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B56" t="s">
         <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" ref="D56:D60" si="3">"line along "&amp;B56&amp;" of "&amp;C56</f>
@@ -21840,13 +21840,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B57" t="s">
         <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="3"/>
@@ -21855,13 +21855,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B58" t="s">
         <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="3"/>
@@ -21870,10 +21870,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C59" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="3"/>
@@ -21882,13 +21882,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B60" t="s">
         <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="3"/>
@@ -21897,13 +21897,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B61" t="s">
         <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" ref="D61:D63" si="4">"line along "&amp;B61&amp;" of "&amp;C61</f>
@@ -21912,13 +21912,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B62" t="s">
         <v>110</v>
       </c>
       <c r="C62" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="4"/>
@@ -21927,13 +21927,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B63" t="s">
         <v>108</v>
       </c>
       <c r="C63" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="4"/>
@@ -21942,13 +21942,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B64" t="s">
         <v>112</v>
       </c>
       <c r="C64" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" ref="D64:D67" si="5">"line along "&amp;B64&amp;" of "&amp;C64</f>
@@ -21957,13 +21957,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B65" t="s">
         <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="5"/>
@@ -21972,10 +21972,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C66" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="5"/>
@@ -21984,13 +21984,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B67" t="s">
         <v>108</v>
       </c>
       <c r="C67" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="5"/>
@@ -21999,13 +21999,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B68" t="s">
         <v>112</v>
       </c>
       <c r="C68" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" ref="D68:D70" si="6">"line along "&amp;B68&amp;" of "&amp;C68</f>
@@ -22014,13 +22014,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B69" t="s">
         <v>110</v>
       </c>
       <c r="C69" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="6"/>
@@ -22029,13 +22029,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B70" t="s">
         <v>108</v>
       </c>
       <c r="C70" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="6"/>
@@ -22044,13 +22044,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B71" t="s">
         <v>112</v>
       </c>
       <c r="C71" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" ref="D71:D74" si="7">"line along "&amp;B71&amp;" of "&amp;C71</f>
@@ -22059,13 +22059,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B72" t="s">
         <v>108</v>
       </c>
       <c r="C72" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="7"/>
@@ -22074,10 +22074,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C73" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="7"/>
@@ -22086,13 +22086,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B74" t="s">
         <v>108</v>
       </c>
       <c r="C74" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="7"/>
@@ -22101,13 +22101,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B75" t="s">
         <v>112</v>
       </c>
       <c r="C75" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" ref="D75" si="8">"line along "&amp;B75&amp;" of "&amp;C75</f>
@@ -22116,13 +22116,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B76" t="s">
         <v>110</v>
       </c>
       <c r="C76" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" ref="D76:D78" si="9">"line along "&amp;B76&amp;" of "&amp;C76</f>
@@ -22131,13 +22131,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B77" t="s">
         <v>110</v>
       </c>
       <c r="C77" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="9"/>
@@ -22146,13 +22146,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B78" t="s">
         <v>108</v>
       </c>
       <c r="C78" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="9"/>
@@ -22161,13 +22161,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B79" t="s">
         <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" ref="D79:D82" si="10">"line along "&amp;B79&amp;" of "&amp;C79</f>
@@ -22176,13 +22176,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B80" t="s">
         <v>108</v>
       </c>
       <c r="C80" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="10"/>
@@ -22191,10 +22191,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C81" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="10"/>
@@ -22203,13 +22203,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B82" t="s">
         <v>108</v>
       </c>
       <c r="C82" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="10"/>
@@ -22218,13 +22218,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B83" t="s">
         <v>112</v>
       </c>
       <c r="C83" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" ref="D83" si="11">"line along "&amp;B83&amp;" of "&amp;C83</f>
@@ -22233,7 +22233,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B84" t="s">
         <v>110</v>
@@ -22248,7 +22248,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B85" t="s">
         <v>108</v>
@@ -22263,13 +22263,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B86" t="s">
         <v>108</v>
       </c>
       <c r="C86" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="13"/>
@@ -22278,7 +22278,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B87" t="s">
         <v>108</v>
@@ -22293,7 +22293,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B88" t="s">
         <v>110</v>
@@ -22308,7 +22308,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B89" t="s">
         <v>108</v>
@@ -22323,13 +22323,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B90" t="s">
         <v>108</v>
       </c>
       <c r="C90" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="16"/>
@@ -22338,7 +22338,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B91" t="s">
         <v>108</v>
@@ -22353,13 +22353,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B92" t="s">
         <v>110</v>
       </c>
       <c r="C92" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" ref="D92" si="17">"line along "&amp;B92&amp;" of "&amp;C92</f>
@@ -22368,13 +22368,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B93" t="s">
         <v>108</v>
       </c>
       <c r="C93" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" ref="D93:D97" si="18">"line along "&amp;B93&amp;" of "&amp;C93</f>
@@ -22383,13 +22383,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B94" t="s">
         <v>108</v>
       </c>
       <c r="C94" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="18"/>
@@ -22398,13 +22398,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B95" t="s">
         <v>108</v>
       </c>
       <c r="C95" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="18"/>
@@ -22413,13 +22413,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="18" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B96" t="s">
         <v>112</v>
       </c>
       <c r="C96" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="18"/>
@@ -22428,13 +22428,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="18" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B97" t="s">
         <v>112</v>
       </c>
       <c r="C97" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="18"/>
@@ -22443,13 +22443,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B98" t="s">
         <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" ref="D98:D99" si="19">"line along "&amp;B98&amp;" of "&amp;C98</f>
@@ -22458,13 +22458,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B99" t="s">
         <v>110</v>
       </c>
       <c r="C99" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="19"/>
@@ -22473,13 +22473,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B100" t="s">
         <v>110</v>
       </c>
       <c r="C100" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" ref="D100" si="20">"line along "&amp;B100&amp;" of "&amp;C100</f>
@@ -22488,13 +22488,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B101" t="s">
         <v>110</v>
       </c>
       <c r="C101" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" ref="D101:D102" si="21">"line along "&amp;B101&amp;" of "&amp;C101</f>
@@ -22503,13 +22503,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B102" t="s">
         <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="21"/>
@@ -22518,13 +22518,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B103" t="s">
         <v>108</v>
       </c>
       <c r="C103" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" ref="D103" si="22">"line along "&amp;B103&amp;" of "&amp;C103</f>
@@ -22533,13 +22533,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B104" t="s">
         <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" ref="D104:D105" si="23">"line along "&amp;B104&amp;" of "&amp;C104</f>
@@ -22548,13 +22548,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B105" t="s">
         <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="23"/>
@@ -22563,13 +22563,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B106" t="s">
         <v>112</v>
       </c>
       <c r="C106" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D106" t="str">
         <f>"line along "&amp;B106&amp;" of "&amp;C106</f>
@@ -22578,10 +22578,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="C107" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D107" t="str">
         <f>"line along "&amp;B107&amp;" of "&amp;C107</f>
@@ -22590,13 +22590,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B108" t="s">
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" ref="D108:D109" si="24">"line along "&amp;B108&amp;" of "&amp;C108</f>
@@ -22605,7 +22605,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
@@ -22620,7 +22620,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B110" t="s">
         <v>112</v>
@@ -22635,10 +22635,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C111" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D111" t="str">
         <f>"line along "&amp;B111&amp;" of "&amp;C111</f>
@@ -22647,7 +22647,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B112" t="s">
         <v>108</v>
@@ -22662,7 +22662,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B113" t="s">
         <v>110</v>
@@ -22677,7 +22677,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B114" t="s">
         <v>112</v>
@@ -22692,10 +22692,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C115" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D115" t="str">
         <f>"line along "&amp;B115&amp;" of "&amp;C115</f>
@@ -22704,13 +22704,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B116" t="s">
         <v>108</v>
       </c>
       <c r="C116" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" ref="D116" si="26">"line along "&amp;B116&amp;" of "&amp;C116</f>
@@ -22719,13 +22719,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B117" t="s">
         <v>112</v>
       </c>
       <c r="C117" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" ref="D117:D122" si="27">"line along "&amp;B117&amp;" of "&amp;C117</f>
@@ -22734,13 +22734,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B118" t="s">
         <v>112</v>
       </c>
       <c r="C118" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" ref="D118" si="28">"line along "&amp;B118&amp;" of "&amp;C118</f>
@@ -22749,13 +22749,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B119" t="s">
         <v>110</v>
       </c>
       <c r="C119" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="27"/>
@@ -22764,13 +22764,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B120" t="s">
         <v>108</v>
       </c>
       <c r="C120" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="27"/>
@@ -22779,13 +22779,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B121" t="s">
         <v>108</v>
       </c>
       <c r="C121" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" ref="D121" si="29">"line along "&amp;B121&amp;" of "&amp;C121</f>
@@ -22794,13 +22794,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B122" t="s">
         <v>108</v>
       </c>
       <c r="C122" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="27"/>
@@ -22809,13 +22809,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B123" t="s">
         <v>112</v>
       </c>
       <c r="C123" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="D123" t="str">
         <f>"line along "&amp;B123&amp;" of "&amp;C123</f>
@@ -22824,13 +22824,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B124" t="s">
         <v>112</v>
       </c>
       <c r="C124" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D124" t="str">
         <f>"line along "&amp;B124&amp;" of "&amp;C124</f>
@@ -22839,13 +22839,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B125" t="s">
         <v>112</v>
       </c>
       <c r="C125" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" ref="D125:D127" si="30">"line along "&amp;B125&amp;" of "&amp;C125</f>
@@ -22854,13 +22854,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B126" t="s">
         <v>108</v>
       </c>
       <c r="C126" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="30"/>
@@ -22869,13 +22869,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B127" t="s">
         <v>108</v>
       </c>
       <c r="C127" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="30"/>
@@ -22884,13 +22884,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B128" t="s">
         <v>108</v>
       </c>
       <c r="C128" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" ref="D128:D129" si="31">"line along "&amp;B128&amp;" of "&amp;C128</f>
@@ -22899,13 +22899,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B129" t="s">
         <v>112</v>
       </c>
       <c r="C129" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="31"/>
@@ -22914,13 +22914,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B130" t="s">
         <v>112</v>
       </c>
       <c r="C130" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" ref="D130" si="32">"line along "&amp;B130&amp;" of "&amp;C130</f>
@@ -22929,13 +22929,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B131" t="s">
         <v>112</v>
       </c>
       <c r="C131" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D131" t="str">
         <f>"line along "&amp;B131&amp;" of "&amp;C131</f>
@@ -22944,13 +22944,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B132" t="s">
         <v>108</v>
       </c>
       <c r="C132" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" ref="D132:D135" si="33">"line along "&amp;B132&amp;" of "&amp;C132</f>
@@ -22959,13 +22959,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B133" t="s">
         <v>112</v>
       </c>
       <c r="C133" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="33"/>
@@ -22974,13 +22974,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B134" t="s">
         <v>112</v>
       </c>
       <c r="C134" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="33"/>
@@ -22989,13 +22989,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B135" t="s">
         <v>112</v>
       </c>
       <c r="C135" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="33"/>
@@ -23171,42 +23171,42 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C4" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C5" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C6" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C7" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C8" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -23331,18 +23331,18 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="C24" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C25" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -23428,7 +23428,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J181" sqref="J181"/>
+      <selection pane="bottomLeft" activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -26675,7 +26675,7 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="K164" t="s">
         <v>1636</v>
@@ -26841,7 +26841,7 @@
         <v>1599</v>
       </c>
       <c r="J172" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="K172" t="s">
         <v>1636</v>
@@ -27028,6 +27028,9 @@
       </c>
     </row>
     <row r="182" spans="1:11">
+      <c r="A182" t="s">
+        <v>1365</v>
+      </c>
       <c r="C182" t="s">
         <v>1366</v>
       </c>
@@ -27051,6 +27054,9 @@
       </c>
     </row>
     <row r="183" spans="1:11">
+      <c r="A183" t="s">
+        <v>1365</v>
+      </c>
       <c r="C183" t="s">
         <v>1366</v>
       </c>
@@ -27119,14 +27125,17 @@
       <c r="E187" t="s">
         <v>1389</v>
       </c>
-      <c r="J187" t="s">
-        <v>1672</v>
+      <c r="J187" s="26" t="s">
+        <v>1869</v>
       </c>
       <c r="K187" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="188" spans="1:11">
+      <c r="A188" t="s">
+        <v>1365</v>
+      </c>
       <c r="C188" t="s">
         <v>1366</v>
       </c>
@@ -27137,13 +27146,16 @@
         <v>1596</v>
       </c>
       <c r="I188" t="s">
+        <v>1672</v>
+      </c>
+      <c r="J188" t="s">
         <v>1673</v>
       </c>
-      <c r="J188" t="s">
-        <v>1674</v>
-      </c>
     </row>
     <row r="189" spans="1:11">
+      <c r="A189" t="s">
+        <v>1365</v>
+      </c>
       <c r="C189" t="s">
         <v>1366</v>
       </c>
@@ -27154,10 +27166,10 @@
         <v>1401</v>
       </c>
       <c r="I189" t="s">
+        <v>1674</v>
+      </c>
+      <c r="J189" t="s">
         <v>1675</v>
-      </c>
-      <c r="J189" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -27172,31 +27184,37 @@
       </c>
     </row>
     <row r="191" spans="1:11">
+      <c r="A191" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1654</v>
+      </c>
       <c r="I191" t="s">
+        <v>1676</v>
+      </c>
+      <c r="J191" t="s">
         <v>1677</v>
-      </c>
-      <c r="J191" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="192" spans="1:11">
       <c r="J192" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="193" spans="10:10">
       <c r="J193" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="194" spans="10:10">
       <c r="J194" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="195" spans="10:10">
       <c r="J195" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
   </sheetData>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9916AE24-FB73-F146-9EF6-875CCE7038AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8BE640-C3A9-144B-8FDE-AA0065A71071}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42320" yWindow="-12220" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4052" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4061" uniqueCount="1870">
   <si>
     <t>Status</t>
   </si>
@@ -23427,8 +23427,8 @@
   <dimension ref="A1:X195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D191" sqref="D191"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -23729,6 +23729,9 @@
       </c>
     </row>
     <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>1365</v>
+      </c>
       <c r="D13" t="s">
         <v>1385</v>
       </c>
@@ -23775,6 +23778,9 @@
       </c>
     </row>
     <row r="15" spans="1:24">
+      <c r="A15" t="s">
+        <v>1365</v>
+      </c>
       <c r="D15" t="s">
         <v>1385</v>
       </c>
@@ -23821,6 +23827,9 @@
       </c>
     </row>
     <row r="17" spans="1:24">
+      <c r="A17" t="s">
+        <v>1365</v>
+      </c>
       <c r="D17" t="s">
         <v>1385</v>
       </c>
@@ -23838,6 +23847,9 @@
       </c>
     </row>
     <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>1365</v>
+      </c>
       <c r="C18" t="s">
         <v>1366</v>
       </c>
@@ -23861,6 +23873,9 @@
       </c>
     </row>
     <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>1365</v>
+      </c>
       <c r="D19" t="s">
         <v>1385</v>
       </c>
@@ -23893,7 +23908,7 @@
       <c r="I20" t="s">
         <v>1405</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="26" t="s">
         <v>1406</v>
       </c>
       <c r="X20" t="s">
@@ -23901,6 +23916,9 @@
       </c>
     </row>
     <row r="21" spans="1:24">
+      <c r="A21" t="s">
+        <v>1365</v>
+      </c>
       <c r="C21" t="s">
         <v>1366</v>
       </c>
@@ -23924,6 +23942,9 @@
       </c>
     </row>
     <row r="22" spans="1:24">
+      <c r="A22" t="s">
+        <v>1365</v>
+      </c>
       <c r="C22" t="s">
         <v>1366</v>
       </c>
@@ -23947,6 +23968,9 @@
       </c>
     </row>
     <row r="23" spans="1:24">
+      <c r="A23" t="s">
+        <v>1365</v>
+      </c>
       <c r="C23" t="s">
         <v>1366</v>
       </c>
@@ -23967,6 +23991,9 @@
       </c>
     </row>
     <row r="24" spans="1:24">
+      <c r="A24" t="s">
+        <v>1365</v>
+      </c>
       <c r="C24" t="s">
         <v>1366</v>
       </c>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8BE640-C3A9-144B-8FDE-AA0065A71071}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4E41CE-A779-5B44-B14E-1FAA2ECE507D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42320" yWindow="-12220" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="41020" yWindow="-8260" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4061" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4063" uniqueCount="1870">
   <si>
     <t>Status</t>
   </si>
@@ -23428,7 +23428,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -23659,6 +23659,9 @@
       </c>
     </row>
     <row r="8" spans="1:24">
+      <c r="A8" t="s">
+        <v>1365</v>
+      </c>
       <c r="D8" t="s">
         <v>1371</v>
       </c>
@@ -23679,7 +23682,7 @@
       <c r="F9">
         <v>3</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="26" t="s">
         <v>1381</v>
       </c>
       <c r="X9" t="s">
@@ -23693,7 +23696,7 @@
       <c r="F10">
         <v>4</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="26" t="s">
         <v>1382</v>
       </c>
       <c r="X10" t="s">
@@ -23707,7 +23710,7 @@
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="26" t="s">
         <v>1383</v>
       </c>
       <c r="X11" t="s">
@@ -23715,6 +23718,9 @@
       </c>
     </row>
     <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>1365</v>
+      </c>
       <c r="D12" t="s">
         <v>1371</v>
       </c>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdebasto\Desktop\GitHub\fovt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4E41CE-A779-5B44-B14E-1FAA2ECE507D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C93BCA-93A6-429E-AC72-AFD267CBEF4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41020" yWindow="-8260" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -26,12 +26,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4063" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4070" uniqueCount="1875">
   <si>
     <t>Status</t>
   </si>
@@ -5713,6 +5722,21 @@
   </si>
   <si>
     <t>humerus lateral length</t>
+  </si>
+  <si>
+    <t>anterior proximal facet for the tarsometatarsal joint</t>
+  </si>
+  <si>
+    <t>anterior proximal facet for the carpometacarpal joint</t>
+  </si>
+  <si>
+    <t>anterior proximal facet for the metapodial-carpal/tarsal bone joint</t>
+  </si>
+  <si>
+    <t>metapodial-carpal/tarsal bone joint</t>
+  </si>
+  <si>
+    <t>A joint in the wrist and ankle that articulates the distal row of carpal/tarsal bones and the proximal base of the metapodial bones.</t>
   </si>
 </sst>
 </file>
@@ -5884,13 +5908,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6212,7 +6236,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -6381,7 +6405,7 @@
       <selection pane="bottomLeft" activeCell="A372" sqref="A372:A526"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" t="s">
@@ -6449,7 +6473,7 @@
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>1041</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6497,7 +6521,7 @@
       <c r="AD2" s="2"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="24"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -6543,7 +6567,7 @@
       <c r="AD3" s="2"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -6589,7 +6613,7 @@
       <c r="AD4" s="2"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="E5" s="2" t="s">
         <v>343</v>
       </c>
@@ -6619,7 +6643,7 @@
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:30" s="11" customFormat="1">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
         <v>343</v>
@@ -6652,7 +6676,7 @@
       <c r="U6" s="10"/>
     </row>
     <row r="7" spans="1:30" s="11" customFormat="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="10" t="s">
         <v>1147</v>
       </c>
@@ -6706,7 +6730,7 @@
       <c r="AD7" s="10"/>
     </row>
     <row r="8" spans="1:30" s="11" customFormat="1">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
         <v>1030</v>
@@ -6758,7 +6782,7 @@
       <c r="AD8" s="10"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="25" t="s">
         <v>1042</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6806,7 +6830,7 @@
       <c r="AD9" s="2"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -6852,7 +6876,7 @@
       <c r="AD10" s="2"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="24"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
@@ -6898,7 +6922,7 @@
       <c r="AD11" s="2"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -6944,7 +6968,7 @@
       <c r="AD12" s="2"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="24"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
@@ -6990,7 +7014,7 @@
       <c r="AD13" s="2"/>
     </row>
     <row r="14" spans="1:30" s="11" customFormat="1">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
         <v>1030</v>
@@ -7040,7 +7064,7 @@
       <c r="AD14" s="10"/>
     </row>
     <row r="15" spans="1:30" s="11" customFormat="1">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
         <v>1030</v>
@@ -7088,7 +7112,7 @@
       <c r="AD15" s="10"/>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="24"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -7134,7 +7158,7 @@
       <c r="AD16" s="2"/>
     </row>
     <row r="17" spans="1:30" s="11" customFormat="1">
-      <c r="A17" s="24"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
         <v>1030</v>
@@ -7186,7 +7210,7 @@
       <c r="AD17" s="10"/>
     </row>
     <row r="18" spans="1:30" s="11" customFormat="1">
-      <c r="A18" s="24"/>
+      <c r="A18" s="25"/>
       <c r="C18" s="10" t="s">
         <v>1030</v>
       </c>
@@ -7198,7 +7222,7 @@
       </c>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="24"/>
+      <c r="A19" s="25"/>
       <c r="E19" s="1" t="s">
         <v>343</v>
       </c>
@@ -7226,7 +7250,7 @@
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="24"/>
+      <c r="A20" s="25"/>
       <c r="E20" s="1" t="s">
         <v>343</v>
       </c>
@@ -7254,7 +7278,7 @@
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="24"/>
+      <c r="A21" s="25"/>
       <c r="E21" s="1" t="s">
         <v>343</v>
       </c>
@@ -7282,7 +7306,7 @@
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="24"/>
+      <c r="A22" s="25"/>
       <c r="E22" s="1" t="s">
         <v>343</v>
       </c>
@@ -7307,7 +7331,7 @@
       <c r="S22" s="2"/>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="24"/>
+      <c r="A23" s="25"/>
       <c r="E23" s="1" t="s">
         <v>343</v>
       </c>
@@ -7332,7 +7356,7 @@
       <c r="S23" s="2"/>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="25" t="s">
         <v>1043</v>
       </c>
       <c r="E24" s="2"/>
@@ -7355,7 +7379,7 @@
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="24"/>
+      <c r="A25" s="25"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="7" t="s">
@@ -7376,7 +7400,7 @@
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="24"/>
+      <c r="A26" s="25"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="7" t="s">
@@ -7397,7 +7421,7 @@
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="24"/>
+      <c r="A27" s="25"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="7" t="s">
@@ -7418,7 +7442,7 @@
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" s="24"/>
+      <c r="A28" s="25"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="7" t="s">
@@ -7439,7 +7463,7 @@
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="24"/>
+      <c r="A29" s="25"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="7" t="s">
@@ -7460,7 +7484,7 @@
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="1:30">
-      <c r="A30" s="24"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
@@ -7506,7 +7530,7 @@
       <c r="AD30" s="2"/>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="24"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
@@ -7552,7 +7576,7 @@
       <c r="AD31" s="2"/>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32" s="24"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
@@ -7598,7 +7622,7 @@
       <c r="AD32" s="2"/>
     </row>
     <row r="33" spans="1:30">
-      <c r="A33" s="24"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="1" t="s">
         <v>14</v>
       </c>
@@ -7646,7 +7670,7 @@
       <c r="AD33" s="2"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="24"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
@@ -7694,7 +7718,7 @@
       <c r="AD34" s="2"/>
     </row>
     <row r="35" spans="1:30" s="11" customFormat="1">
-      <c r="A35" s="24"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10" t="s">
         <v>1030</v>
@@ -7746,7 +7770,7 @@
       <c r="AD35" s="10"/>
     </row>
     <row r="36" spans="1:30" s="11" customFormat="1">
-      <c r="A36" s="24"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
         <v>1030</v>
@@ -7798,7 +7822,7 @@
       <c r="AD36" s="10"/>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="24"/>
+      <c r="A37" s="25"/>
       <c r="E37" s="1" t="s">
         <v>15</v>
       </c>
@@ -7824,7 +7848,7 @@
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="1:30">
-      <c r="A38" s="24"/>
+      <c r="A38" s="25"/>
       <c r="E38" s="1" t="s">
         <v>343</v>
       </c>
@@ -7849,7 +7873,7 @@
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="1:30">
-      <c r="A39" s="24"/>
+      <c r="A39" s="25"/>
       <c r="E39" s="1" t="s">
         <v>343</v>
       </c>
@@ -7874,7 +7898,7 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="1:30">
-      <c r="A40" s="24"/>
+      <c r="A40" s="25"/>
       <c r="E40" s="1" t="s">
         <v>343</v>
       </c>
@@ -7899,7 +7923,7 @@
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="1:30">
-      <c r="A41" s="24"/>
+      <c r="A41" s="25"/>
       <c r="E41" s="1" t="s">
         <v>343</v>
       </c>
@@ -7924,7 +7948,7 @@
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="1:30">
-      <c r="A42" s="24"/>
+      <c r="A42" s="25"/>
       <c r="E42" s="1" t="s">
         <v>343</v>
       </c>
@@ -7948,7 +7972,7 @@
       <c r="S42" s="2"/>
     </row>
     <row r="43" spans="1:30" s="11" customFormat="1">
-      <c r="A43" s="24"/>
+      <c r="A43" s="25"/>
       <c r="C43" s="10" t="s">
         <v>1030</v>
       </c>
@@ -7979,7 +8003,7 @@
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:30" s="11" customFormat="1">
-      <c r="A44" s="24"/>
+      <c r="A44" s="25"/>
       <c r="C44" s="10" t="s">
         <v>1030</v>
       </c>
@@ -8012,7 +8036,7 @@
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:30" s="11" customFormat="1">
-      <c r="A45" s="24"/>
+      <c r="A45" s="25"/>
       <c r="C45" s="10" t="s">
         <v>1030</v>
       </c>
@@ -8045,7 +8069,7 @@
       <c r="U45" s="10"/>
     </row>
     <row r="46" spans="1:30" s="11" customFormat="1">
-      <c r="A46" s="24"/>
+      <c r="A46" s="25"/>
       <c r="C46" s="10" t="s">
         <v>1030</v>
       </c>
@@ -8076,7 +8100,7 @@
       <c r="U46" s="10"/>
     </row>
     <row r="47" spans="1:30" s="11" customFormat="1">
-      <c r="A47" s="24"/>
+      <c r="A47" s="25"/>
       <c r="C47" s="10" t="s">
         <v>1030</v>
       </c>
@@ -8109,7 +8133,7 @@
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:30" s="11" customFormat="1">
-      <c r="A48" s="24"/>
+      <c r="A48" s="25"/>
       <c r="C48" s="10" t="s">
         <v>1030</v>
       </c>
@@ -8140,7 +8164,7 @@
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:30" s="11" customFormat="1">
-      <c r="A49" s="24"/>
+      <c r="A49" s="25"/>
       <c r="C49" s="10" t="s">
         <v>1030</v>
       </c>
@@ -8171,7 +8195,7 @@
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:30" s="11" customFormat="1">
-      <c r="A50" s="24"/>
+      <c r="A50" s="25"/>
       <c r="C50" s="10" t="s">
         <v>1030</v>
       </c>
@@ -8204,7 +8228,7 @@
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:30" s="11" customFormat="1">
-      <c r="A51" s="24"/>
+      <c r="A51" s="25"/>
       <c r="C51" s="10" t="s">
         <v>1030</v>
       </c>
@@ -8237,7 +8261,7 @@
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:30" s="11" customFormat="1">
-      <c r="A52" s="24"/>
+      <c r="A52" s="25"/>
       <c r="C52" s="10" t="s">
         <v>1030</v>
       </c>
@@ -8270,7 +8294,7 @@
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:30">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="25" t="s">
         <v>1044</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -8318,7 +8342,7 @@
       <c r="AD53" s="2"/>
     </row>
     <row r="54" spans="1:30">
-      <c r="A54" s="24"/>
+      <c r="A54" s="25"/>
       <c r="B54" s="1" t="s">
         <v>14</v>
       </c>
@@ -8364,7 +8388,7 @@
       <c r="AD54" s="2"/>
     </row>
     <row r="55" spans="1:30">
-      <c r="A55" s="24"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="1" t="s">
         <v>14</v>
       </c>
@@ -8410,7 +8434,7 @@
       <c r="AD55" s="2"/>
     </row>
     <row r="56" spans="1:30">
-      <c r="A56" s="24"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="1" t="s">
         <v>14</v>
       </c>
@@ -8458,7 +8482,7 @@
       <c r="AD56" s="2"/>
     </row>
     <row r="57" spans="1:30">
-      <c r="A57" s="24"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="1" t="s">
         <v>14</v>
       </c>
@@ -8506,7 +8530,7 @@
       <c r="AD57" s="2"/>
     </row>
     <row r="58" spans="1:30" s="11" customFormat="1">
-      <c r="A58" s="24"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
         <v>1030</v>
@@ -8558,7 +8582,7 @@
       <c r="AD58" s="10"/>
     </row>
     <row r="59" spans="1:30" s="11" customFormat="1">
-      <c r="A59" s="24"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10" t="s">
         <v>1030</v>
@@ -8610,7 +8634,7 @@
       <c r="AD59" s="10"/>
     </row>
     <row r="60" spans="1:30" s="11" customFormat="1">
-      <c r="A60" s="24"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -8633,7 +8657,7 @@
       <c r="U60" s="10"/>
     </row>
     <row r="61" spans="1:30">
-      <c r="A61" s="24"/>
+      <c r="A61" s="25"/>
       <c r="E61" s="1" t="s">
         <v>15</v>
       </c>
@@ -8656,7 +8680,7 @@
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="1:30">
-      <c r="A62" s="24"/>
+      <c r="A62" s="25"/>
       <c r="E62" s="1" t="s">
         <v>343</v>
       </c>
@@ -8680,7 +8704,7 @@
       <c r="S62" s="2"/>
     </row>
     <row r="63" spans="1:30">
-      <c r="A63" s="24"/>
+      <c r="A63" s="25"/>
       <c r="E63" s="1" t="s">
         <v>343</v>
       </c>
@@ -8704,7 +8728,7 @@
       <c r="S63" s="2"/>
     </row>
     <row r="64" spans="1:30">
-      <c r="A64" s="24"/>
+      <c r="A64" s="25"/>
       <c r="E64" s="1" t="s">
         <v>343</v>
       </c>
@@ -8728,7 +8752,7 @@
       <c r="S64" s="2"/>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="24"/>
+      <c r="A65" s="25"/>
       <c r="E65" s="1" t="s">
         <v>343</v>
       </c>
@@ -8752,7 +8776,7 @@
       <c r="S65" s="2"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="24"/>
+      <c r="A66" s="25"/>
       <c r="E66" s="1" t="s">
         <v>343</v>
       </c>
@@ -8776,7 +8800,7 @@
       <c r="S66" s="2"/>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="24"/>
+      <c r="A67" s="25"/>
       <c r="E67" s="1" t="s">
         <v>343</v>
       </c>
@@ -8800,7 +8824,7 @@
       <c r="S67" s="2"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="24"/>
+      <c r="A68" s="25"/>
       <c r="E68" s="1" t="s">
         <v>343</v>
       </c>
@@ -8823,7 +8847,7 @@
       <c r="R68" s="2"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="24"/>
+      <c r="A69" s="25"/>
       <c r="E69" s="1" t="s">
         <v>343</v>
       </c>
@@ -8847,7 +8871,7 @@
       <c r="S69" s="2"/>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="24"/>
+      <c r="A70" s="25"/>
       <c r="E70" s="1" t="s">
         <v>15</v>
       </c>
@@ -8873,7 +8897,7 @@
       <c r="P70" s="2"/>
     </row>
     <row r="71" spans="1:21" s="11" customFormat="1">
-      <c r="A71" s="24"/>
+      <c r="A71" s="25"/>
       <c r="C71" s="10" t="s">
         <v>1030</v>
       </c>
@@ -8904,7 +8928,7 @@
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="1:21" s="11" customFormat="1">
-      <c r="A72" s="24"/>
+      <c r="A72" s="25"/>
       <c r="C72" s="10" t="s">
         <v>1030</v>
       </c>
@@ -8937,7 +8961,7 @@
       <c r="U72" s="10"/>
     </row>
     <row r="73" spans="1:21" s="11" customFormat="1">
-      <c r="A73" s="24"/>
+      <c r="A73" s="25"/>
       <c r="C73" s="10" t="s">
         <v>1030</v>
       </c>
@@ -8970,7 +8994,7 @@
       <c r="U73" s="10"/>
     </row>
     <row r="74" spans="1:21" s="11" customFormat="1">
-      <c r="A74" s="24"/>
+      <c r="A74" s="25"/>
       <c r="C74" s="10" t="s">
         <v>1030</v>
       </c>
@@ -9003,7 +9027,7 @@
       <c r="U74" s="10"/>
     </row>
     <row r="75" spans="1:21" s="11" customFormat="1">
-      <c r="A75" s="24"/>
+      <c r="A75" s="25"/>
       <c r="C75" s="10" t="s">
         <v>1030</v>
       </c>
@@ -9036,7 +9060,7 @@
       <c r="U75" s="10"/>
     </row>
     <row r="76" spans="1:21" s="11" customFormat="1">
-      <c r="A76" s="24"/>
+      <c r="A76" s="25"/>
       <c r="C76" s="10" t="s">
         <v>1030</v>
       </c>
@@ -9069,7 +9093,7 @@
       <c r="U76" s="10"/>
     </row>
     <row r="77" spans="1:21" s="11" customFormat="1">
-      <c r="A77" s="24"/>
+      <c r="A77" s="25"/>
       <c r="C77" s="10" t="s">
         <v>1030</v>
       </c>
@@ -9100,7 +9124,7 @@
       <c r="U77" s="10"/>
     </row>
     <row r="78" spans="1:21" s="11" customFormat="1">
-      <c r="A78" s="24"/>
+      <c r="A78" s="25"/>
       <c r="C78" s="10" t="s">
         <v>1030</v>
       </c>
@@ -9133,7 +9157,7 @@
       <c r="U78" s="10"/>
     </row>
     <row r="79" spans="1:21" s="11" customFormat="1">
-      <c r="A79" s="24"/>
+      <c r="A79" s="25"/>
       <c r="C79" s="10" t="s">
         <v>1030</v>
       </c>
@@ -9162,7 +9186,7 @@
       <c r="U79" s="10"/>
     </row>
     <row r="80" spans="1:21" s="16" customFormat="1">
-      <c r="A80" s="24"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="18"/>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
@@ -9185,7 +9209,7 @@
       <c r="U80" s="17"/>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="24"/>
+      <c r="A81" s="25"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="7" t="s">
@@ -9206,7 +9230,7 @@
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="24"/>
+      <c r="A82" s="25"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="7" t="s">
@@ -9227,7 +9251,7 @@
       <c r="U82" s="2"/>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="24"/>
+      <c r="A83" s="25"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="7" t="s">
@@ -9248,7 +9272,7 @@
       <c r="U83" s="2"/>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="24"/>
+      <c r="A84" s="25"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="7" t="s">
@@ -9269,7 +9293,7 @@
       <c r="U84" s="2"/>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="24"/>
+      <c r="A85" s="25"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="7" t="s">
@@ -9290,7 +9314,7 @@
       <c r="U85" s="2"/>
     </row>
     <row r="86" spans="1:21">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="26" t="s">
         <v>1045</v>
       </c>
       <c r="E86" s="3" t="s">
@@ -9324,7 +9348,7 @@
       <c r="U86" s="2"/>
     </row>
     <row r="87" spans="1:21">
-      <c r="A87" s="25"/>
+      <c r="A87" s="26"/>
       <c r="E87" s="3" t="s">
         <v>15</v>
       </c>
@@ -9356,7 +9380,7 @@
       <c r="U87" s="2"/>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="25"/>
+      <c r="A88" s="26"/>
       <c r="E88" s="3" t="s">
         <v>15</v>
       </c>
@@ -9388,7 +9412,7 @@
       <c r="U88" s="2"/>
     </row>
     <row r="89" spans="1:21" s="11" customFormat="1">
-      <c r="A89" s="25"/>
+      <c r="A89" s="26"/>
       <c r="C89" s="10" t="s">
         <v>1030</v>
       </c>
@@ -9427,7 +9451,7 @@
       <c r="U89" s="10"/>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="25"/>
+      <c r="A90" s="26"/>
       <c r="E90" s="3" t="s">
         <v>15</v>
       </c>
@@ -9459,7 +9483,7 @@
       <c r="U90" s="2"/>
     </row>
     <row r="91" spans="1:21" s="11" customFormat="1">
-      <c r="A91" s="25"/>
+      <c r="A91" s="26"/>
       <c r="C91" s="10" t="s">
         <v>1030</v>
       </c>
@@ -9500,7 +9524,7 @@
       <c r="U91" s="10"/>
     </row>
     <row r="92" spans="1:21">
-      <c r="A92" s="25"/>
+      <c r="A92" s="26"/>
       <c r="E92" s="3" t="s">
         <v>15</v>
       </c>
@@ -9532,7 +9556,7 @@
       <c r="U92" s="2"/>
     </row>
     <row r="93" spans="1:21" s="11" customFormat="1">
-      <c r="A93" s="25"/>
+      <c r="A93" s="26"/>
       <c r="C93" s="10" t="s">
         <v>1030</v>
       </c>
@@ -9575,7 +9599,7 @@
       <c r="U93" s="10"/>
     </row>
     <row r="94" spans="1:21">
-      <c r="A94" s="25"/>
+      <c r="A94" s="26"/>
       <c r="E94" s="3" t="s">
         <v>15</v>
       </c>
@@ -9607,7 +9631,7 @@
       <c r="U94" s="2"/>
     </row>
     <row r="95" spans="1:21" s="11" customFormat="1">
-      <c r="A95" s="25"/>
+      <c r="A95" s="26"/>
       <c r="C95" s="10" t="s">
         <v>1030</v>
       </c>
@@ -9646,7 +9670,7 @@
       <c r="U95" s="10"/>
     </row>
     <row r="96" spans="1:21">
-      <c r="A96" s="25"/>
+      <c r="A96" s="26"/>
       <c r="E96" s="3" t="s">
         <v>15</v>
       </c>
@@ -9678,7 +9702,7 @@
       <c r="U96" s="2"/>
     </row>
     <row r="97" spans="1:21" s="11" customFormat="1">
-      <c r="A97" s="25"/>
+      <c r="A97" s="26"/>
       <c r="C97" s="10" t="s">
         <v>1030</v>
       </c>
@@ -9717,7 +9741,7 @@
       <c r="U97" s="10"/>
     </row>
     <row r="98" spans="1:21">
-      <c r="A98" s="25"/>
+      <c r="A98" s="26"/>
       <c r="E98" s="3" t="s">
         <v>15</v>
       </c>
@@ -9749,7 +9773,7 @@
       <c r="U98" s="2"/>
     </row>
     <row r="99" spans="1:21">
-      <c r="A99" s="25"/>
+      <c r="A99" s="26"/>
       <c r="E99" s="3" t="s">
         <v>15</v>
       </c>
@@ -9781,7 +9805,7 @@
       <c r="U99" s="2"/>
     </row>
     <row r="100" spans="1:21">
-      <c r="A100" s="25"/>
+      <c r="A100" s="26"/>
       <c r="E100" s="3" t="s">
         <v>15</v>
       </c>
@@ -9813,7 +9837,7 @@
       <c r="U100" s="2"/>
     </row>
     <row r="101" spans="1:21" s="11" customFormat="1">
-      <c r="A101" s="25"/>
+      <c r="A101" s="26"/>
       <c r="C101" s="10" t="s">
         <v>1030</v>
       </c>
@@ -9852,7 +9876,7 @@
       <c r="U101" s="10"/>
     </row>
     <row r="102" spans="1:21">
-      <c r="A102" s="25"/>
+      <c r="A102" s="26"/>
       <c r="E102" s="3" t="s">
         <v>15</v>
       </c>
@@ -9884,7 +9908,7 @@
       <c r="U102" s="2"/>
     </row>
     <row r="103" spans="1:21" s="11" customFormat="1">
-      <c r="A103" s="25"/>
+      <c r="A103" s="26"/>
       <c r="C103" s="10" t="s">
         <v>1030</v>
       </c>
@@ -9925,7 +9949,7 @@
       <c r="U103" s="10"/>
     </row>
     <row r="104" spans="1:21">
-      <c r="A104" s="25"/>
+      <c r="A104" s="26"/>
       <c r="E104" s="3" t="s">
         <v>15</v>
       </c>
@@ -9957,7 +9981,7 @@
       <c r="U104" s="2"/>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="25"/>
+      <c r="A105" s="26"/>
       <c r="E105" s="3" t="s">
         <v>15</v>
       </c>
@@ -9989,7 +10013,7 @@
       <c r="U105" s="2"/>
     </row>
     <row r="106" spans="1:21" s="11" customFormat="1">
-      <c r="A106" s="25"/>
+      <c r="A106" s="26"/>
       <c r="C106" s="10" t="s">
         <v>1030</v>
       </c>
@@ -10030,7 +10054,7 @@
       <c r="U106" s="10"/>
     </row>
     <row r="107" spans="1:21">
-      <c r="A107" s="25"/>
+      <c r="A107" s="26"/>
       <c r="E107" s="3" t="s">
         <v>15</v>
       </c>
@@ -10062,7 +10086,7 @@
       <c r="U107" s="2"/>
     </row>
     <row r="108" spans="1:21" s="11" customFormat="1">
-      <c r="A108" s="25"/>
+      <c r="A108" s="26"/>
       <c r="C108" s="10" t="s">
         <v>1030</v>
       </c>
@@ -10101,7 +10125,7 @@
       <c r="U108" s="10"/>
     </row>
     <row r="109" spans="1:21">
-      <c r="A109" s="25"/>
+      <c r="A109" s="26"/>
       <c r="E109" s="3" t="s">
         <v>15</v>
       </c>
@@ -10133,7 +10157,7 @@
       <c r="U109" s="2"/>
     </row>
     <row r="110" spans="1:21">
-      <c r="A110" s="25"/>
+      <c r="A110" s="26"/>
       <c r="E110" s="3" t="s">
         <v>15</v>
       </c>
@@ -10163,7 +10187,7 @@
       <c r="U110" s="2"/>
     </row>
     <row r="111" spans="1:21" s="11" customFormat="1">
-      <c r="A111" s="25"/>
+      <c r="A111" s="26"/>
       <c r="C111" s="10" t="s">
         <v>1030</v>
       </c>
@@ -10204,7 +10228,7 @@
       <c r="U111" s="10"/>
     </row>
     <row r="112" spans="1:21">
-      <c r="A112" s="25"/>
+      <c r="A112" s="26"/>
       <c r="E112" s="3" t="s">
         <v>15</v>
       </c>
@@ -10234,7 +10258,7 @@
       <c r="U112" s="2"/>
     </row>
     <row r="113" spans="1:21">
-      <c r="A113" s="25"/>
+      <c r="A113" s="26"/>
       <c r="E113" s="3" t="s">
         <v>15</v>
       </c>
@@ -10264,7 +10288,7 @@
       <c r="U113" s="2"/>
     </row>
     <row r="114" spans="1:21" s="11" customFormat="1">
-      <c r="A114" s="25"/>
+      <c r="A114" s="26"/>
       <c r="C114" s="10" t="s">
         <v>1030</v>
       </c>
@@ -10305,7 +10329,7 @@
       <c r="U114" s="10"/>
     </row>
     <row r="115" spans="1:21">
-      <c r="A115" s="25"/>
+      <c r="A115" s="26"/>
       <c r="E115" s="3" t="s">
         <v>15</v>
       </c>
@@ -10337,7 +10361,7 @@
       <c r="U115" s="2"/>
     </row>
     <row r="116" spans="1:21" s="11" customFormat="1">
-      <c r="A116" s="25"/>
+      <c r="A116" s="26"/>
       <c r="C116" s="10" t="s">
         <v>1030</v>
       </c>
@@ -10376,7 +10400,7 @@
       <c r="U116" s="10"/>
     </row>
     <row r="117" spans="1:21">
-      <c r="A117" s="24" t="s">
+      <c r="A117" s="25" t="s">
         <v>1047</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -10402,7 +10426,7 @@
       <c r="S117" s="2"/>
     </row>
     <row r="118" spans="1:21">
-      <c r="A118" s="24"/>
+      <c r="A118" s="25"/>
       <c r="E118" s="1" t="s">
         <v>343</v>
       </c>
@@ -10426,7 +10450,7 @@
       <c r="S118" s="2"/>
     </row>
     <row r="119" spans="1:21">
-      <c r="A119" s="24"/>
+      <c r="A119" s="25"/>
       <c r="E119" s="1" t="s">
         <v>343</v>
       </c>
@@ -10450,7 +10474,7 @@
       <c r="S119" s="2"/>
     </row>
     <row r="120" spans="1:21">
-      <c r="A120" s="24"/>
+      <c r="A120" s="25"/>
       <c r="E120" s="1" t="s">
         <v>343</v>
       </c>
@@ -10474,7 +10498,7 @@
       <c r="S120" s="2"/>
     </row>
     <row r="121" spans="1:21">
-      <c r="A121" s="24"/>
+      <c r="A121" s="25"/>
       <c r="E121" s="1" t="s">
         <v>343</v>
       </c>
@@ -10498,7 +10522,7 @@
       <c r="S121" s="2"/>
     </row>
     <row r="122" spans="1:21" s="11" customFormat="1">
-      <c r="A122" s="24"/>
+      <c r="A122" s="25"/>
       <c r="C122" s="10" t="s">
         <v>1030</v>
       </c>
@@ -10523,7 +10547,7 @@
       <c r="U122" s="10"/>
     </row>
     <row r="123" spans="1:21" s="11" customFormat="1">
-      <c r="A123" s="24"/>
+      <c r="A123" s="25"/>
       <c r="C123" s="10" t="s">
         <v>1030</v>
       </c>
@@ -10548,7 +10572,7 @@
       <c r="U123" s="10"/>
     </row>
     <row r="124" spans="1:21" s="11" customFormat="1">
-      <c r="A124" s="24"/>
+      <c r="A124" s="25"/>
       <c r="C124" s="10" t="s">
         <v>1030</v>
       </c>
@@ -10573,7 +10597,7 @@
       <c r="U124" s="10"/>
     </row>
     <row r="125" spans="1:21" s="11" customFormat="1">
-      <c r="A125" s="24"/>
+      <c r="A125" s="25"/>
       <c r="C125" s="10" t="s">
         <v>1030</v>
       </c>
@@ -10598,7 +10622,7 @@
       <c r="U125" s="10"/>
     </row>
     <row r="126" spans="1:21" s="11" customFormat="1">
-      <c r="A126" s="24"/>
+      <c r="A126" s="25"/>
       <c r="C126" s="10" t="s">
         <v>1030</v>
       </c>
@@ -10627,7 +10651,7 @@
       <c r="U126" s="10"/>
     </row>
     <row r="127" spans="1:21">
-      <c r="A127" s="24" t="s">
+      <c r="A127" s="25" t="s">
         <v>1046</v>
       </c>
       <c r="C127" s="19" t="s">
@@ -10641,7 +10665,7 @@
       </c>
     </row>
     <row r="128" spans="1:21">
-      <c r="A128" s="24"/>
+      <c r="A128" s="25"/>
       <c r="E128" s="1" t="s">
         <v>15</v>
       </c>
@@ -10667,7 +10691,7 @@
       <c r="P128" s="2"/>
     </row>
     <row r="129" spans="1:21">
-      <c r="A129" s="24"/>
+      <c r="A129" s="25"/>
       <c r="E129" s="1" t="s">
         <v>15</v>
       </c>
@@ -10693,7 +10717,7 @@
       <c r="P129" s="2"/>
     </row>
     <row r="130" spans="1:21">
-      <c r="A130" s="24"/>
+      <c r="A130" s="25"/>
       <c r="E130" s="1" t="s">
         <v>15</v>
       </c>
@@ -10716,7 +10740,7 @@
       <c r="O130" s="2"/>
     </row>
     <row r="131" spans="1:21">
-      <c r="A131" s="24"/>
+      <c r="A131" s="25"/>
       <c r="E131" s="1" t="s">
         <v>15</v>
       </c>
@@ -10741,8 +10765,8 @@
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="1:21" s="11" customFormat="1" ht="17" customHeight="1">
-      <c r="A132" s="24"/>
+    <row r="132" spans="1:21" s="11" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A132" s="25"/>
       <c r="C132" s="10" t="s">
         <v>1030</v>
       </c>
@@ -10775,7 +10799,7 @@
       <c r="U132" s="10"/>
     </row>
     <row r="133" spans="1:21" s="11" customFormat="1">
-      <c r="A133" s="24"/>
+      <c r="A133" s="25"/>
       <c r="C133" s="10" t="s">
         <v>1030</v>
       </c>
@@ -10808,7 +10832,7 @@
       <c r="U133" s="10"/>
     </row>
     <row r="134" spans="1:21" s="11" customFormat="1">
-      <c r="A134" s="24"/>
+      <c r="A134" s="25"/>
       <c r="C134" s="10" t="s">
         <v>1030</v>
       </c>
@@ -10843,7 +10867,7 @@
       <c r="U134" s="10"/>
     </row>
     <row r="135" spans="1:21">
-      <c r="A135" s="24"/>
+      <c r="A135" s="25"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="3"/>
@@ -10867,7 +10891,7 @@
       <c r="U135" s="2"/>
     </row>
     <row r="136" spans="1:21" s="11" customFormat="1">
-      <c r="A136" s="24"/>
+      <c r="A136" s="25"/>
       <c r="C136" s="10" t="s">
         <v>1030</v>
       </c>
@@ -10900,7 +10924,7 @@
       <c r="U136" s="10"/>
     </row>
     <row r="137" spans="1:21" s="11" customFormat="1">
-      <c r="A137" s="24"/>
+      <c r="A137" s="25"/>
       <c r="C137" s="10" t="s">
         <v>1030</v>
       </c>
@@ -10935,7 +10959,7 @@
       <c r="U137" s="10"/>
     </row>
     <row r="138" spans="1:21" s="11" customFormat="1">
-      <c r="A138" s="24"/>
+      <c r="A138" s="25"/>
       <c r="C138" s="10" t="s">
         <v>1030</v>
       </c>
@@ -10968,7 +10992,7 @@
       <c r="U138" s="10"/>
     </row>
     <row r="139" spans="1:21" s="11" customFormat="1">
-      <c r="A139" s="24"/>
+      <c r="A139" s="25"/>
       <c r="C139" s="10" t="s">
         <v>1030</v>
       </c>
@@ -10999,7 +11023,7 @@
       <c r="U139" s="10"/>
     </row>
     <row r="140" spans="1:21" s="11" customFormat="1">
-      <c r="A140" s="24"/>
+      <c r="A140" s="25"/>
       <c r="C140" s="10" t="s">
         <v>1030</v>
       </c>
@@ -11032,7 +11056,7 @@
       <c r="U140" s="10"/>
     </row>
     <row r="141" spans="1:21" s="11" customFormat="1">
-      <c r="A141" s="24"/>
+      <c r="A141" s="25"/>
       <c r="C141" s="10" t="s">
         <v>1030</v>
       </c>
@@ -11063,7 +11087,7 @@
       <c r="U141" s="10"/>
     </row>
     <row r="142" spans="1:21" s="11" customFormat="1">
-      <c r="A142" s="24"/>
+      <c r="A142" s="25"/>
       <c r="C142" s="10" t="s">
         <v>1030</v>
       </c>
@@ -11094,7 +11118,7 @@
       <c r="U142" s="10"/>
     </row>
     <row r="143" spans="1:21">
-      <c r="A143" s="24"/>
+      <c r="A143" s="25"/>
       <c r="E143" s="1" t="s">
         <v>15</v>
       </c>
@@ -11120,7 +11144,7 @@
       <c r="P143" s="2"/>
     </row>
     <row r="144" spans="1:21">
-      <c r="A144" s="24"/>
+      <c r="A144" s="25"/>
       <c r="E144" s="1" t="s">
         <v>343</v>
       </c>
@@ -11143,7 +11167,7 @@
       <c r="S144" s="2"/>
     </row>
     <row r="145" spans="1:21">
-      <c r="A145" s="24"/>
+      <c r="A145" s="25"/>
       <c r="E145" s="1" t="s">
         <v>343</v>
       </c>
@@ -11167,7 +11191,7 @@
       <c r="T145" s="2"/>
     </row>
     <row r="146" spans="1:21">
-      <c r="A146" s="24"/>
+      <c r="A146" s="25"/>
       <c r="E146" s="1" t="s">
         <v>15</v>
       </c>
@@ -11193,7 +11217,7 @@
       <c r="P146" s="2"/>
     </row>
     <row r="147" spans="1:21">
-      <c r="A147" s="24"/>
+      <c r="A147" s="25"/>
       <c r="E147" s="1" t="s">
         <v>343</v>
       </c>
@@ -11217,7 +11241,7 @@
       <c r="T147" s="2"/>
     </row>
     <row r="148" spans="1:21">
-      <c r="A148" s="24"/>
+      <c r="A148" s="25"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="1" t="s">
@@ -11238,7 +11262,7 @@
       <c r="U148" s="2"/>
     </row>
     <row r="149" spans="1:21">
-      <c r="A149" s="24"/>
+      <c r="A149" s="25"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="1" t="s">
@@ -11259,7 +11283,7 @@
       <c r="U149" s="2"/>
     </row>
     <row r="150" spans="1:21">
-      <c r="A150" s="24" t="s">
+      <c r="A150" s="25" t="s">
         <v>1048</v>
       </c>
       <c r="E150" s="1" t="s">
@@ -11284,7 +11308,7 @@
       <c r="S150" s="2"/>
     </row>
     <row r="151" spans="1:21">
-      <c r="A151" s="24"/>
+      <c r="A151" s="25"/>
       <c r="E151" s="1" t="s">
         <v>343</v>
       </c>
@@ -11307,7 +11331,7 @@
       <c r="S151" s="2"/>
     </row>
     <row r="152" spans="1:21">
-      <c r="A152" s="24"/>
+      <c r="A152" s="25"/>
       <c r="E152" s="1" t="s">
         <v>343</v>
       </c>
@@ -11330,7 +11354,7 @@
       <c r="S152" s="2"/>
     </row>
     <row r="153" spans="1:21">
-      <c r="A153" s="24"/>
+      <c r="A153" s="25"/>
       <c r="E153" s="1" t="s">
         <v>343</v>
       </c>
@@ -11353,7 +11377,7 @@
       <c r="S153" s="2"/>
     </row>
     <row r="154" spans="1:21">
-      <c r="A154" s="24"/>
+      <c r="A154" s="25"/>
       <c r="E154" s="1" t="s">
         <v>15</v>
       </c>
@@ -11379,7 +11403,7 @@
       <c r="P154" s="2"/>
     </row>
     <row r="155" spans="1:21">
-      <c r="A155" s="24"/>
+      <c r="A155" s="25"/>
       <c r="E155" s="1" t="s">
         <v>343</v>
       </c>
@@ -11402,7 +11426,7 @@
       <c r="S155" s="2"/>
     </row>
     <row r="156" spans="1:21">
-      <c r="A156" s="24"/>
+      <c r="A156" s="25"/>
       <c r="E156" s="1" t="s">
         <v>343</v>
       </c>
@@ -11424,7 +11448,7 @@
       <c r="R156" s="2"/>
     </row>
     <row r="157" spans="1:21">
-      <c r="A157" s="24"/>
+      <c r="A157" s="25"/>
       <c r="E157" s="1" t="s">
         <v>343</v>
       </c>
@@ -11446,7 +11470,7 @@
       <c r="R157" s="2"/>
     </row>
     <row r="158" spans="1:21">
-      <c r="A158" s="24"/>
+      <c r="A158" s="25"/>
       <c r="E158" s="1" t="s">
         <v>343</v>
       </c>
@@ -11469,7 +11493,7 @@
       <c r="S158" s="2"/>
     </row>
     <row r="159" spans="1:21">
-      <c r="A159" s="24"/>
+      <c r="A159" s="25"/>
       <c r="E159" s="1" t="s">
         <v>343</v>
       </c>
@@ -11492,7 +11516,7 @@
       <c r="S159" s="2"/>
     </row>
     <row r="160" spans="1:21">
-      <c r="A160" s="24"/>
+      <c r="A160" s="25"/>
       <c r="E160" s="1" t="s">
         <v>343</v>
       </c>
@@ -11515,7 +11539,7 @@
       <c r="S160" s="2"/>
     </row>
     <row r="161" spans="1:20">
-      <c r="A161" s="24"/>
+      <c r="A161" s="25"/>
       <c r="E161" s="1" t="s">
         <v>343</v>
       </c>
@@ -11538,7 +11562,7 @@
       <c r="S161" s="2"/>
     </row>
     <row r="162" spans="1:20">
-      <c r="A162" s="24"/>
+      <c r="A162" s="25"/>
       <c r="E162" s="1" t="s">
         <v>343</v>
       </c>
@@ -11561,7 +11585,7 @@
       <c r="S162" s="2"/>
     </row>
     <row r="163" spans="1:20">
-      <c r="A163" s="24"/>
+      <c r="A163" s="25"/>
       <c r="E163" s="1" t="s">
         <v>343</v>
       </c>
@@ -11584,7 +11608,7 @@
       <c r="S163" s="2"/>
     </row>
     <row r="164" spans="1:20">
-      <c r="A164" s="24"/>
+      <c r="A164" s="25"/>
       <c r="E164" s="1" t="s">
         <v>343</v>
       </c>
@@ -11606,7 +11630,7 @@
       <c r="R164" s="2"/>
     </row>
     <row r="165" spans="1:20">
-      <c r="A165" s="24"/>
+      <c r="A165" s="25"/>
       <c r="E165" s="1" t="s">
         <v>343</v>
       </c>
@@ -11628,7 +11652,7 @@
       <c r="R165" s="2"/>
     </row>
     <row r="166" spans="1:20">
-      <c r="A166" s="24"/>
+      <c r="A166" s="25"/>
       <c r="E166" s="1" t="s">
         <v>343</v>
       </c>
@@ -11651,7 +11675,7 @@
       <c r="S166" s="2"/>
     </row>
     <row r="167" spans="1:20">
-      <c r="A167" s="24"/>
+      <c r="A167" s="25"/>
       <c r="E167" s="1" t="s">
         <v>343</v>
       </c>
@@ -11674,7 +11698,7 @@
       <c r="S167" s="2"/>
     </row>
     <row r="168" spans="1:20">
-      <c r="A168" s="24"/>
+      <c r="A168" s="25"/>
       <c r="E168" s="1" t="s">
         <v>343</v>
       </c>
@@ -11697,7 +11721,7 @@
       <c r="S168" s="2"/>
     </row>
     <row r="169" spans="1:20">
-      <c r="A169" s="24"/>
+      <c r="A169" s="25"/>
       <c r="E169" s="1" t="s">
         <v>343</v>
       </c>
@@ -11720,7 +11744,7 @@
       <c r="S169" s="2"/>
     </row>
     <row r="170" spans="1:20">
-      <c r="A170" s="24"/>
+      <c r="A170" s="25"/>
       <c r="E170" s="1" t="s">
         <v>343</v>
       </c>
@@ -11744,7 +11768,7 @@
       <c r="T170" s="2"/>
     </row>
     <row r="171" spans="1:20">
-      <c r="A171" s="24"/>
+      <c r="A171" s="25"/>
       <c r="E171" s="1" t="s">
         <v>343</v>
       </c>
@@ -11766,7 +11790,7 @@
       <c r="R171" s="2"/>
     </row>
     <row r="172" spans="1:20">
-      <c r="A172" s="24"/>
+      <c r="A172" s="25"/>
       <c r="E172" s="1" t="s">
         <v>343</v>
       </c>
@@ -11788,7 +11812,7 @@
       <c r="R172" s="2"/>
     </row>
     <row r="173" spans="1:20">
-      <c r="A173" s="24"/>
+      <c r="A173" s="25"/>
       <c r="E173" s="1" t="s">
         <v>343</v>
       </c>
@@ -11811,7 +11835,7 @@
       <c r="S173" s="2"/>
     </row>
     <row r="174" spans="1:20">
-      <c r="A174" s="24"/>
+      <c r="A174" s="25"/>
       <c r="E174" s="1" t="s">
         <v>343</v>
       </c>
@@ -11834,7 +11858,7 @@
       <c r="S174" s="2"/>
     </row>
     <row r="175" spans="1:20">
-      <c r="A175" s="24"/>
+      <c r="A175" s="25"/>
       <c r="E175" s="1" t="s">
         <v>343</v>
       </c>
@@ -11857,7 +11881,7 @@
       <c r="S175" s="2"/>
     </row>
     <row r="176" spans="1:20">
-      <c r="A176" s="24"/>
+      <c r="A176" s="25"/>
       <c r="E176" s="1" t="s">
         <v>343</v>
       </c>
@@ -11880,7 +11904,7 @@
       <c r="S176" s="2"/>
     </row>
     <row r="177" spans="1:30">
-      <c r="A177" s="24"/>
+      <c r="A177" s="25"/>
       <c r="E177" s="1" t="s">
         <v>343</v>
       </c>
@@ -11904,7 +11928,7 @@
       <c r="T177" s="2"/>
     </row>
     <row r="178" spans="1:30">
-      <c r="A178" s="24"/>
+      <c r="A178" s="25"/>
       <c r="E178" s="1" t="s">
         <v>343</v>
       </c>
@@ -11926,7 +11950,7 @@
       <c r="R178" s="2"/>
     </row>
     <row r="179" spans="1:30">
-      <c r="A179" s="24"/>
+      <c r="A179" s="25"/>
       <c r="E179" s="1" t="s">
         <v>343</v>
       </c>
@@ -11948,7 +11972,7 @@
       <c r="R179" s="2"/>
     </row>
     <row r="180" spans="1:30">
-      <c r="A180" s="24"/>
+      <c r="A180" s="25"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1" t="s">
@@ -11966,7 +11990,7 @@
       <c r="R180" s="2"/>
     </row>
     <row r="181" spans="1:30">
-      <c r="A181" s="24"/>
+      <c r="A181" s="25"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1" t="s">
@@ -11982,7 +12006,7 @@
       <c r="P181" s="2"/>
     </row>
     <row r="182" spans="1:30">
-      <c r="A182" s="24"/>
+      <c r="A182" s="25"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2" t="s">
@@ -12003,7 +12027,7 @@
       <c r="U182" s="2"/>
     </row>
     <row r="183" spans="1:30">
-      <c r="A183" s="24"/>
+      <c r="A183" s="25"/>
       <c r="G183" s="7"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
@@ -12017,7 +12041,7 @@
       <c r="S183" s="2"/>
     </row>
     <row r="184" spans="1:30">
-      <c r="A184" s="24"/>
+      <c r="A184" s="25"/>
       <c r="G184" s="7"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
@@ -12031,11 +12055,11 @@
       <c r="S184" s="2"/>
     </row>
     <row r="185" spans="1:30">
-      <c r="A185" s="24"/>
+      <c r="A185" s="25"/>
       <c r="G185" s="7"/>
     </row>
     <row r="186" spans="1:30">
-      <c r="A186" s="24" t="s">
+      <c r="A186" s="25" t="s">
         <v>1049</v>
       </c>
       <c r="B186" s="1" t="s">
@@ -12085,7 +12109,7 @@
       <c r="AD186" s="2"/>
     </row>
     <row r="187" spans="1:30">
-      <c r="A187" s="24"/>
+      <c r="A187" s="25"/>
       <c r="B187" s="1" t="s">
         <v>14</v>
       </c>
@@ -12130,7 +12154,7 @@
       <c r="AA187" s="2"/>
     </row>
     <row r="188" spans="1:30">
-      <c r="A188" s="24"/>
+      <c r="A188" s="25"/>
       <c r="B188" s="1" t="s">
         <v>14</v>
       </c>
@@ -12178,7 +12202,7 @@
       <c r="AD188" s="2"/>
     </row>
     <row r="189" spans="1:30">
-      <c r="A189" s="24"/>
+      <c r="A189" s="25"/>
       <c r="B189" s="1" t="s">
         <v>14</v>
       </c>
@@ -12228,7 +12252,7 @@
       <c r="AD189" s="2"/>
     </row>
     <row r="190" spans="1:30">
-      <c r="A190" s="24"/>
+      <c r="A190" s="25"/>
       <c r="B190" s="1" t="s">
         <v>14</v>
       </c>
@@ -12278,7 +12302,7 @@
       <c r="AD190" s="2"/>
     </row>
     <row r="191" spans="1:30">
-      <c r="A191" s="24"/>
+      <c r="A191" s="25"/>
       <c r="E191" s="1" t="s">
         <v>343</v>
       </c>
@@ -12302,7 +12326,7 @@
       <c r="O191" s="2"/>
     </row>
     <row r="192" spans="1:30">
-      <c r="A192" s="24"/>
+      <c r="A192" s="25"/>
       <c r="E192" s="1" t="s">
         <v>343</v>
       </c>
@@ -12326,7 +12350,7 @@
       <c r="O192" s="2"/>
     </row>
     <row r="193" spans="1:21">
-      <c r="A193" s="24"/>
+      <c r="A193" s="25"/>
       <c r="E193" s="1" t="s">
         <v>343</v>
       </c>
@@ -12354,7 +12378,7 @@
       <c r="O193" s="2"/>
     </row>
     <row r="194" spans="1:21">
-      <c r="A194" s="24"/>
+      <c r="A194" s="25"/>
       <c r="E194" s="1" t="s">
         <v>343</v>
       </c>
@@ -12382,7 +12406,7 @@
       <c r="O194" s="2"/>
     </row>
     <row r="195" spans="1:21">
-      <c r="A195" s="24"/>
+      <c r="A195" s="25"/>
       <c r="E195" s="1" t="s">
         <v>343</v>
       </c>
@@ -12407,7 +12431,7 @@
       <c r="N195" s="2"/>
     </row>
     <row r="196" spans="1:21">
-      <c r="A196" s="24"/>
+      <c r="A196" s="25"/>
       <c r="E196" s="1" t="s">
         <v>343</v>
       </c>
@@ -12432,7 +12456,7 @@
       <c r="N196" s="2"/>
     </row>
     <row r="197" spans="1:21" s="11" customFormat="1">
-      <c r="A197" s="24"/>
+      <c r="A197" s="25"/>
       <c r="C197" s="10" t="s">
         <v>1030</v>
       </c>
@@ -12471,7 +12495,7 @@
       <c r="U197" s="10"/>
     </row>
     <row r="198" spans="1:21" s="11" customFormat="1">
-      <c r="A198" s="24"/>
+      <c r="A198" s="25"/>
       <c r="C198" s="10" t="s">
         <v>1030</v>
       </c>
@@ -12510,7 +12534,7 @@
       <c r="U198" s="10"/>
     </row>
     <row r="199" spans="1:21" s="11" customFormat="1">
-      <c r="A199" s="24"/>
+      <c r="A199" s="25"/>
       <c r="C199" s="10" t="s">
         <v>1030</v>
       </c>
@@ -12549,7 +12573,7 @@
       <c r="U199" s="10"/>
     </row>
     <row r="200" spans="1:21" s="11" customFormat="1">
-      <c r="A200" s="24"/>
+      <c r="A200" s="25"/>
       <c r="C200" s="10" t="s">
         <v>1030</v>
       </c>
@@ -12588,7 +12612,7 @@
       <c r="U200" s="10"/>
     </row>
     <row r="201" spans="1:21">
-      <c r="A201" s="24"/>
+      <c r="A201" s="25"/>
       <c r="E201" s="1" t="s">
         <v>343</v>
       </c>
@@ -12616,7 +12640,7 @@
       <c r="O201" s="2"/>
     </row>
     <row r="202" spans="1:21">
-      <c r="A202" s="24"/>
+      <c r="A202" s="25"/>
       <c r="E202" s="1" t="s">
         <v>343</v>
       </c>
@@ -12644,7 +12668,7 @@
       <c r="O202" s="2"/>
     </row>
     <row r="203" spans="1:21">
-      <c r="A203" s="24"/>
+      <c r="A203" s="25"/>
       <c r="E203" s="1" t="s">
         <v>343</v>
       </c>
@@ -12669,7 +12693,7 @@
       <c r="N203" s="2"/>
     </row>
     <row r="204" spans="1:21">
-      <c r="A204" s="24"/>
+      <c r="A204" s="25"/>
       <c r="E204" s="1" t="s">
         <v>343</v>
       </c>
@@ -12694,7 +12718,7 @@
       <c r="N204" s="2"/>
     </row>
     <row r="205" spans="1:21" s="11" customFormat="1">
-      <c r="A205" s="24"/>
+      <c r="A205" s="25"/>
       <c r="C205" s="10" t="s">
         <v>1030</v>
       </c>
@@ -12733,7 +12757,7 @@
       <c r="U205" s="10"/>
     </row>
     <row r="206" spans="1:21" s="11" customFormat="1">
-      <c r="A206" s="24"/>
+      <c r="A206" s="25"/>
       <c r="C206" s="10" t="s">
         <v>1030</v>
       </c>
@@ -12772,7 +12796,7 @@
       <c r="U206" s="10"/>
     </row>
     <row r="207" spans="1:21" s="11" customFormat="1">
-      <c r="A207" s="24"/>
+      <c r="A207" s="25"/>
       <c r="C207" s="10" t="s">
         <v>1030</v>
       </c>
@@ -12811,7 +12835,7 @@
       <c r="U207" s="10"/>
     </row>
     <row r="208" spans="1:21" s="11" customFormat="1">
-      <c r="A208" s="24"/>
+      <c r="A208" s="25"/>
       <c r="C208" s="10" t="s">
         <v>1030</v>
       </c>
@@ -12850,7 +12874,7 @@
       <c r="U208" s="10"/>
     </row>
     <row r="209" spans="1:30">
-      <c r="A209" s="24"/>
+      <c r="A209" s="25"/>
       <c r="E209" s="1" t="s">
         <v>343</v>
       </c>
@@ -12878,7 +12902,7 @@
       <c r="O209" s="2"/>
     </row>
     <row r="210" spans="1:30">
-      <c r="A210" s="24"/>
+      <c r="A210" s="25"/>
       <c r="E210" s="1" t="s">
         <v>343</v>
       </c>
@@ -12906,7 +12930,7 @@
       <c r="O210" s="2"/>
     </row>
     <row r="211" spans="1:30">
-      <c r="A211" s="24"/>
+      <c r="A211" s="25"/>
       <c r="E211" s="1" t="s">
         <v>343</v>
       </c>
@@ -12931,7 +12955,7 @@
       <c r="N211" s="2"/>
     </row>
     <row r="212" spans="1:30">
-      <c r="A212" s="24"/>
+      <c r="A212" s="25"/>
       <c r="E212" s="1" t="s">
         <v>343</v>
       </c>
@@ -12956,7 +12980,7 @@
       <c r="N212" s="2"/>
     </row>
     <row r="213" spans="1:30" s="11" customFormat="1">
-      <c r="A213" s="24"/>
+      <c r="A213" s="25"/>
       <c r="C213" s="10" t="s">
         <v>1030</v>
       </c>
@@ -12995,7 +13019,7 @@
       <c r="U213" s="10"/>
     </row>
     <row r="214" spans="1:30" s="11" customFormat="1">
-      <c r="A214" s="24"/>
+      <c r="A214" s="25"/>
       <c r="C214" s="10" t="s">
         <v>1030</v>
       </c>
@@ -13034,7 +13058,7 @@
       <c r="U214" s="10"/>
     </row>
     <row r="215" spans="1:30" s="11" customFormat="1">
-      <c r="A215" s="24"/>
+      <c r="A215" s="25"/>
       <c r="C215" s="10" t="s">
         <v>1030</v>
       </c>
@@ -13073,7 +13097,7 @@
       <c r="U215" s="10"/>
     </row>
     <row r="216" spans="1:30" s="11" customFormat="1">
-      <c r="A216" s="24"/>
+      <c r="A216" s="25"/>
       <c r="C216" s="10" t="s">
         <v>1030</v>
       </c>
@@ -13112,7 +13136,7 @@
       <c r="U216" s="10"/>
     </row>
     <row r="217" spans="1:30">
-      <c r="A217" s="24"/>
+      <c r="A217" s="25"/>
       <c r="B217" s="1" t="s">
         <v>14</v>
       </c>
@@ -13162,7 +13186,7 @@
       <c r="AD217" s="2"/>
     </row>
     <row r="218" spans="1:30">
-      <c r="A218" s="24"/>
+      <c r="A218" s="25"/>
       <c r="B218" s="1" t="s">
         <v>14</v>
       </c>
@@ -13210,7 +13234,7 @@
       <c r="AD218" s="2"/>
     </row>
     <row r="219" spans="1:30" s="11" customFormat="1">
-      <c r="A219" s="24"/>
+      <c r="A219" s="25"/>
       <c r="C219" s="10" t="s">
         <v>1030</v>
       </c>
@@ -13237,7 +13261,7 @@
       <c r="Q219" s="10"/>
     </row>
     <row r="220" spans="1:30" s="11" customFormat="1">
-      <c r="A220" s="24"/>
+      <c r="A220" s="25"/>
       <c r="C220" s="10" t="s">
         <v>1030</v>
       </c>
@@ -13264,7 +13288,7 @@
       <c r="Q220" s="10"/>
     </row>
     <row r="221" spans="1:30">
-      <c r="A221" s="24"/>
+      <c r="A221" s="25"/>
       <c r="B221" s="1" t="s">
         <v>14</v>
       </c>
@@ -13312,7 +13336,7 @@
       <c r="AD221" s="2"/>
     </row>
     <row r="222" spans="1:30">
-      <c r="A222" s="24"/>
+      <c r="A222" s="25"/>
       <c r="E222" s="1" t="s">
         <v>343</v>
       </c>
@@ -13338,7 +13362,7 @@
       <c r="P222" s="2"/>
     </row>
     <row r="223" spans="1:30">
-      <c r="A223" s="24"/>
+      <c r="A223" s="25"/>
       <c r="E223" s="1" t="s">
         <v>343</v>
       </c>
@@ -13364,7 +13388,7 @@
       <c r="P223" s="2"/>
     </row>
     <row r="224" spans="1:30">
-      <c r="A224" s="24"/>
+      <c r="A224" s="25"/>
       <c r="E224" s="1" t="s">
         <v>343</v>
       </c>
@@ -13390,7 +13414,7 @@
       <c r="P224" s="2"/>
     </row>
     <row r="225" spans="1:21">
-      <c r="A225" s="24"/>
+      <c r="A225" s="25"/>
       <c r="E225" s="1" t="s">
         <v>343</v>
       </c>
@@ -13416,7 +13440,7 @@
       <c r="P225" s="2"/>
     </row>
     <row r="226" spans="1:21" s="11" customFormat="1">
-      <c r="A226" s="24"/>
+      <c r="A226" s="25"/>
       <c r="C226" s="10" t="s">
         <v>1030</v>
       </c>
@@ -13455,7 +13479,7 @@
       <c r="U226" s="10"/>
     </row>
     <row r="227" spans="1:21" s="11" customFormat="1">
-      <c r="A227" s="24"/>
+      <c r="A227" s="25"/>
       <c r="C227" s="10" t="s">
         <v>1030</v>
       </c>
@@ -13494,7 +13518,7 @@
       <c r="U227" s="10"/>
     </row>
     <row r="228" spans="1:21" s="11" customFormat="1">
-      <c r="A228" s="24"/>
+      <c r="A228" s="25"/>
       <c r="C228" s="10" t="s">
         <v>1030</v>
       </c>
@@ -13533,7 +13557,7 @@
       <c r="U228" s="10"/>
     </row>
     <row r="229" spans="1:21" s="11" customFormat="1">
-      <c r="A229" s="24"/>
+      <c r="A229" s="25"/>
       <c r="C229" s="10" t="s">
         <v>1030</v>
       </c>
@@ -13572,7 +13596,7 @@
       <c r="U229" s="10"/>
     </row>
     <row r="230" spans="1:21" s="11" customFormat="1">
-      <c r="A230" s="24"/>
+      <c r="A230" s="25"/>
       <c r="C230" s="10" t="s">
         <v>1030</v>
       </c>
@@ -13599,7 +13623,7 @@
       <c r="Q230" s="10"/>
     </row>
     <row r="231" spans="1:21" s="11" customFormat="1">
-      <c r="A231" s="24"/>
+      <c r="A231" s="25"/>
       <c r="C231" s="10" t="s">
         <v>1030</v>
       </c>
@@ -13626,7 +13650,7 @@
       <c r="Q231" s="10"/>
     </row>
     <row r="232" spans="1:21" s="11" customFormat="1">
-      <c r="A232" s="24"/>
+      <c r="A232" s="25"/>
       <c r="C232" s="10" t="s">
         <v>1030</v>
       </c>
@@ -13665,7 +13689,7 @@
       <c r="U232" s="10"/>
     </row>
     <row r="233" spans="1:21" s="11" customFormat="1">
-      <c r="A233" s="24"/>
+      <c r="A233" s="25"/>
       <c r="C233" s="10" t="s">
         <v>1030</v>
       </c>
@@ -13704,7 +13728,7 @@
       <c r="U233" s="10"/>
     </row>
     <row r="234" spans="1:21" s="11" customFormat="1">
-      <c r="A234" s="24"/>
+      <c r="A234" s="25"/>
       <c r="C234" s="10" t="s">
         <v>1030</v>
       </c>
@@ -13743,7 +13767,7 @@
       <c r="U234" s="10"/>
     </row>
     <row r="235" spans="1:21" s="11" customFormat="1">
-      <c r="A235" s="24"/>
+      <c r="A235" s="25"/>
       <c r="C235" s="10" t="s">
         <v>1030</v>
       </c>
@@ -13782,7 +13806,7 @@
       <c r="U235" s="10"/>
     </row>
     <row r="236" spans="1:21">
-      <c r="A236" s="24"/>
+      <c r="A236" s="25"/>
       <c r="E236" s="3" t="s">
         <v>15</v>
       </c>
@@ -13812,7 +13836,7 @@
       <c r="U236" s="2"/>
     </row>
     <row r="237" spans="1:21" s="11" customFormat="1">
-      <c r="A237" s="24"/>
+      <c r="A237" s="25"/>
       <c r="C237" s="10" t="s">
         <v>1030</v>
       </c>
@@ -13847,7 +13871,7 @@
       <c r="U237" s="10"/>
     </row>
     <row r="238" spans="1:21">
-      <c r="A238" s="24"/>
+      <c r="A238" s="25"/>
       <c r="E238" s="3" t="s">
         <v>15</v>
       </c>
@@ -13877,7 +13901,7 @@
       <c r="U238" s="2"/>
     </row>
     <row r="239" spans="1:21" s="11" customFormat="1">
-      <c r="A239" s="24"/>
+      <c r="A239" s="25"/>
       <c r="C239" s="10" t="s">
         <v>1030</v>
       </c>
@@ -13912,7 +13936,7 @@
       <c r="U239" s="10"/>
     </row>
     <row r="240" spans="1:21">
-      <c r="A240" s="24"/>
+      <c r="A240" s="25"/>
       <c r="E240" s="1" t="s">
         <v>343</v>
       </c>
@@ -13937,7 +13961,7 @@
       <c r="P240" s="2"/>
     </row>
     <row r="241" spans="1:21">
-      <c r="A241" s="24"/>
+      <c r="A241" s="25"/>
       <c r="E241" s="1" t="s">
         <v>343</v>
       </c>
@@ -13962,7 +13986,7 @@
       <c r="P241" s="2"/>
     </row>
     <row r="242" spans="1:21">
-      <c r="A242" s="24"/>
+      <c r="A242" s="25"/>
       <c r="E242" s="1" t="s">
         <v>343</v>
       </c>
@@ -13987,7 +14011,7 @@
       <c r="P242" s="2"/>
     </row>
     <row r="243" spans="1:21">
-      <c r="A243" s="24"/>
+      <c r="A243" s="25"/>
       <c r="E243" s="1" t="s">
         <v>343</v>
       </c>
@@ -14012,7 +14036,7 @@
       <c r="P243" s="2"/>
     </row>
     <row r="244" spans="1:21">
-      <c r="A244" s="24"/>
+      <c r="A244" s="25"/>
       <c r="E244" s="3" t="s">
         <v>15</v>
       </c>
@@ -14042,7 +14066,7 @@
       <c r="U244" s="2"/>
     </row>
     <row r="245" spans="1:21">
-      <c r="A245" s="24"/>
+      <c r="A245" s="25"/>
       <c r="E245" s="1" t="s">
         <v>343</v>
       </c>
@@ -14067,7 +14091,7 @@
       <c r="P245" s="2"/>
     </row>
     <row r="246" spans="1:21">
-      <c r="A246" s="24"/>
+      <c r="A246" s="25"/>
       <c r="E246" s="1" t="s">
         <v>343</v>
       </c>
@@ -14092,7 +14116,7 @@
       <c r="P246" s="2"/>
     </row>
     <row r="247" spans="1:21">
-      <c r="A247" s="24"/>
+      <c r="A247" s="25"/>
       <c r="E247" s="1" t="s">
         <v>343</v>
       </c>
@@ -14117,7 +14141,7 @@
       <c r="P247" s="2"/>
     </row>
     <row r="248" spans="1:21">
-      <c r="A248" s="24"/>
+      <c r="A248" s="25"/>
       <c r="E248" s="1" t="s">
         <v>343</v>
       </c>
@@ -14142,7 +14166,7 @@
       <c r="P248" s="2"/>
     </row>
     <row r="249" spans="1:21" s="11" customFormat="1">
-      <c r="A249" s="24"/>
+      <c r="A249" s="25"/>
       <c r="C249" s="10" t="s">
         <v>1030</v>
       </c>
@@ -14177,7 +14201,7 @@
       <c r="U249" s="10"/>
     </row>
     <row r="250" spans="1:21" s="11" customFormat="1">
-      <c r="A250" s="24"/>
+      <c r="A250" s="25"/>
       <c r="C250" s="10" t="s">
         <v>1030</v>
       </c>
@@ -14212,7 +14236,7 @@
       <c r="U250" s="10"/>
     </row>
     <row r="251" spans="1:21" s="11" customFormat="1">
-      <c r="A251" s="24"/>
+      <c r="A251" s="25"/>
       <c r="C251" s="10" t="s">
         <v>1030</v>
       </c>
@@ -14241,7 +14265,7 @@
       <c r="U251" s="10"/>
     </row>
     <row r="252" spans="1:21" s="11" customFormat="1">
-      <c r="A252" s="24"/>
+      <c r="A252" s="25"/>
       <c r="C252" s="10" t="s">
         <v>1030</v>
       </c>
@@ -14267,7 +14291,7 @@
       <c r="P252" s="10"/>
     </row>
     <row r="253" spans="1:21">
-      <c r="A253" s="24"/>
+      <c r="A253" s="25"/>
       <c r="E253" s="3" t="s">
         <v>15</v>
       </c>
@@ -14297,7 +14321,7 @@
       <c r="U253" s="2"/>
     </row>
     <row r="254" spans="1:21" s="11" customFormat="1">
-      <c r="A254" s="24"/>
+      <c r="A254" s="25"/>
       <c r="C254" s="10" t="s">
         <v>1030</v>
       </c>
@@ -14332,7 +14356,7 @@
       <c r="U254" s="10"/>
     </row>
     <row r="255" spans="1:21">
-      <c r="A255" s="24"/>
+      <c r="A255" s="25"/>
       <c r="E255" s="3" t="s">
         <v>15</v>
       </c>
@@ -14362,7 +14386,7 @@
       <c r="U255" s="2"/>
     </row>
     <row r="256" spans="1:21" s="11" customFormat="1">
-      <c r="A256" s="24"/>
+      <c r="A256" s="25"/>
       <c r="C256" s="10" t="s">
         <v>1030</v>
       </c>
@@ -14397,13 +14421,13 @@
       <c r="U256" s="10"/>
     </row>
     <row r="257" spans="1:21">
-      <c r="A257" s="24"/>
+      <c r="A257" s="25"/>
       <c r="H257" s="7" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="258" spans="1:21">
-      <c r="A258" s="24"/>
+      <c r="A258" s="25"/>
       <c r="E258" s="1" t="s">
         <v>343</v>
       </c>
@@ -14433,7 +14457,7 @@
       <c r="U258" s="2"/>
     </row>
     <row r="259" spans="1:21">
-      <c r="A259" s="24"/>
+      <c r="A259" s="25"/>
       <c r="E259" s="1" t="s">
         <v>343</v>
       </c>
@@ -14461,7 +14485,7 @@
       <c r="U259" s="2"/>
     </row>
     <row r="260" spans="1:21">
-      <c r="A260" s="24"/>
+      <c r="A260" s="25"/>
       <c r="E260" s="1" t="s">
         <v>343</v>
       </c>
@@ -14487,7 +14511,7 @@
       <c r="S260" s="2"/>
     </row>
     <row r="261" spans="1:21">
-      <c r="A261" s="24"/>
+      <c r="A261" s="25"/>
       <c r="E261" s="1" t="s">
         <v>343</v>
       </c>
@@ -14514,7 +14538,7 @@
       <c r="T261" s="2"/>
     </row>
     <row r="262" spans="1:21">
-      <c r="A262" s="24"/>
+      <c r="A262" s="25"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
@@ -14537,7 +14561,7 @@
       <c r="T262" s="2"/>
     </row>
     <row r="263" spans="1:21">
-      <c r="A263" s="24"/>
+      <c r="A263" s="25"/>
       <c r="E263" s="1" t="s">
         <v>343</v>
       </c>
@@ -14562,7 +14586,7 @@
       <c r="R263" s="2"/>
     </row>
     <row r="264" spans="1:21">
-      <c r="A264" s="24"/>
+      <c r="A264" s="25"/>
       <c r="E264" s="1" t="s">
         <v>343</v>
       </c>
@@ -14587,13 +14611,13 @@
       <c r="R264" s="2"/>
     </row>
     <row r="265" spans="1:21">
-      <c r="A265" s="24"/>
+      <c r="A265" s="25"/>
       <c r="H265" s="7" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="266" spans="1:21">
-      <c r="A266" s="24"/>
+      <c r="A266" s="25"/>
       <c r="E266" s="1" t="s">
         <v>343</v>
       </c>
@@ -14618,7 +14642,7 @@
       <c r="P266" s="2"/>
     </row>
     <row r="267" spans="1:21">
-      <c r="A267" s="24"/>
+      <c r="A267" s="25"/>
       <c r="E267" s="1" t="s">
         <v>343</v>
       </c>
@@ -14640,7 +14664,7 @@
       <c r="P267" s="2"/>
     </row>
     <row r="268" spans="1:21">
-      <c r="A268" s="24"/>
+      <c r="A268" s="25"/>
       <c r="E268" s="1" t="s">
         <v>15</v>
       </c>
@@ -14673,7 +14697,7 @@
       </c>
     </row>
     <row r="269" spans="1:21">
-      <c r="A269" s="24"/>
+      <c r="A269" s="25"/>
       <c r="E269" s="1" t="s">
         <v>15</v>
       </c>
@@ -14704,7 +14728,7 @@
       <c r="U269" s="2"/>
     </row>
     <row r="270" spans="1:21">
-      <c r="A270" s="24"/>
+      <c r="A270" s="25"/>
       <c r="E270" s="1" t="s">
         <v>15</v>
       </c>
@@ -14733,7 +14757,7 @@
       <c r="Q270" s="2"/>
     </row>
     <row r="271" spans="1:21">
-      <c r="A271" s="24"/>
+      <c r="A271" s="25"/>
       <c r="E271" s="1" t="s">
         <v>15</v>
       </c>
@@ -14762,7 +14786,7 @@
       <c r="Q271" s="2"/>
     </row>
     <row r="272" spans="1:21">
-      <c r="A272" s="24"/>
+      <c r="A272" s="25"/>
       <c r="E272" s="1" t="s">
         <v>15</v>
       </c>
@@ -14791,7 +14815,7 @@
       <c r="Q272" s="2"/>
     </row>
     <row r="273" spans="1:21">
-      <c r="A273" s="24"/>
+      <c r="A273" s="25"/>
       <c r="E273" s="1" t="s">
         <v>15</v>
       </c>
@@ -14814,7 +14838,7 @@
       <c r="O273" s="2"/>
     </row>
     <row r="274" spans="1:21">
-      <c r="A274" s="24"/>
+      <c r="A274" s="25"/>
       <c r="H274" s="19" t="s">
         <v>1057</v>
       </c>
@@ -14826,7 +14850,7 @@
       </c>
     </row>
     <row r="275" spans="1:21">
-      <c r="A275" s="24"/>
+      <c r="A275" s="25"/>
       <c r="H275" s="19" t="s">
         <v>1077</v>
       </c>
@@ -14838,7 +14862,7 @@
       </c>
     </row>
     <row r="276" spans="1:21">
-      <c r="A276" s="24"/>
+      <c r="A276" s="25"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
       <c r="H276" s="19" t="s">
@@ -14852,7 +14876,7 @@
       </c>
     </row>
     <row r="277" spans="1:21">
-      <c r="A277" s="24"/>
+      <c r="A277" s="25"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
       <c r="H277" s="19" t="s">
@@ -14866,7 +14890,7 @@
       </c>
     </row>
     <row r="278" spans="1:21">
-      <c r="A278" s="24"/>
+      <c r="A278" s="25"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
       <c r="H278" s="19" t="s">
@@ -14880,7 +14904,7 @@
       </c>
     </row>
     <row r="279" spans="1:21">
-      <c r="A279" s="24"/>
+      <c r="A279" s="25"/>
       <c r="E279" s="1" t="s">
         <v>343</v>
       </c>
@@ -14911,7 +14935,7 @@
       <c r="T279" s="2"/>
     </row>
     <row r="280" spans="1:21">
-      <c r="A280" s="24"/>
+      <c r="A280" s="25"/>
       <c r="E280" s="1" t="s">
         <v>343</v>
       </c>
@@ -14942,7 +14966,7 @@
       <c r="T280" s="2"/>
     </row>
     <row r="281" spans="1:21">
-      <c r="A281" s="24"/>
+      <c r="A281" s="25"/>
       <c r="E281" s="1" t="s">
         <v>343</v>
       </c>
@@ -14973,7 +14997,7 @@
       <c r="T281" s="2"/>
     </row>
     <row r="282" spans="1:21">
-      <c r="A282" s="24"/>
+      <c r="A282" s="25"/>
       <c r="E282" s="1" t="s">
         <v>343</v>
       </c>
@@ -15004,7 +15028,7 @@
       <c r="T282" s="2"/>
     </row>
     <row r="283" spans="1:21">
-      <c r="A283" s="24"/>
+      <c r="A283" s="25"/>
       <c r="E283" s="1" t="s">
         <v>343</v>
       </c>
@@ -15035,7 +15059,7 @@
       <c r="T283" s="2"/>
     </row>
     <row r="284" spans="1:21">
-      <c r="A284" s="24"/>
+      <c r="A284" s="25"/>
       <c r="E284" s="1" t="s">
         <v>343</v>
       </c>
@@ -15066,7 +15090,7 @@
       <c r="T284" s="2"/>
     </row>
     <row r="285" spans="1:21">
-      <c r="A285" s="24"/>
+      <c r="A285" s="25"/>
       <c r="E285" s="1" t="s">
         <v>343</v>
       </c>
@@ -15097,7 +15121,7 @@
       <c r="T285" s="2"/>
     </row>
     <row r="286" spans="1:21">
-      <c r="A286" s="24"/>
+      <c r="A286" s="25"/>
       <c r="E286" s="1" t="s">
         <v>343</v>
       </c>
@@ -15129,7 +15153,7 @@
       <c r="U286" s="2"/>
     </row>
     <row r="287" spans="1:21">
-      <c r="A287" s="24"/>
+      <c r="A287" s="25"/>
       <c r="E287" s="1" t="s">
         <v>343</v>
       </c>
@@ -15160,7 +15184,7 @@
       <c r="T287" s="2"/>
     </row>
     <row r="288" spans="1:21">
-      <c r="A288" s="24"/>
+      <c r="A288" s="25"/>
       <c r="E288" s="1" t="s">
         <v>343</v>
       </c>
@@ -15191,7 +15215,7 @@
       <c r="T288" s="2"/>
     </row>
     <row r="289" spans="1:21">
-      <c r="A289" s="24"/>
+      <c r="A289" s="25"/>
       <c r="E289" s="1" t="s">
         <v>343</v>
       </c>
@@ -15222,7 +15246,7 @@
       <c r="T289" s="2"/>
     </row>
     <row r="290" spans="1:21">
-      <c r="A290" s="24"/>
+      <c r="A290" s="25"/>
       <c r="E290" s="1" t="s">
         <v>343</v>
       </c>
@@ -15254,7 +15278,7 @@
       <c r="U290" s="2"/>
     </row>
     <row r="291" spans="1:21">
-      <c r="A291" s="24"/>
+      <c r="A291" s="25"/>
       <c r="H291" s="19" t="s">
         <v>1060</v>
       </c>
@@ -15266,7 +15290,7 @@
       </c>
     </row>
     <row r="292" spans="1:21">
-      <c r="A292" s="24"/>
+      <c r="A292" s="25"/>
       <c r="H292" s="19" t="s">
         <v>1062</v>
       </c>
@@ -15278,7 +15302,7 @@
       </c>
     </row>
     <row r="293" spans="1:21">
-      <c r="A293" s="24"/>
+      <c r="A293" s="25"/>
       <c r="H293" s="19" t="s">
         <v>1064</v>
       </c>
@@ -15290,7 +15314,7 @@
       </c>
     </row>
     <row r="294" spans="1:21">
-      <c r="A294" s="24"/>
+      <c r="A294" s="25"/>
       <c r="H294" s="19" t="s">
         <v>1066</v>
       </c>
@@ -15302,7 +15326,7 @@
       </c>
     </row>
     <row r="295" spans="1:21">
-      <c r="A295" s="24"/>
+      <c r="A295" s="25"/>
       <c r="H295" s="19" t="s">
         <v>1068</v>
       </c>
@@ -15314,7 +15338,7 @@
       </c>
     </row>
     <row r="296" spans="1:21">
-      <c r="A296" s="24"/>
+      <c r="A296" s="25"/>
       <c r="H296" s="19" t="s">
         <v>1070</v>
       </c>
@@ -15326,7 +15350,7 @@
       </c>
     </row>
     <row r="297" spans="1:21">
-      <c r="A297" s="24"/>
+      <c r="A297" s="25"/>
       <c r="H297" s="19" t="s">
         <v>1072</v>
       </c>
@@ -15338,7 +15362,7 @@
       </c>
     </row>
     <row r="298" spans="1:21">
-      <c r="A298" s="24"/>
+      <c r="A298" s="25"/>
       <c r="H298" s="19" t="s">
         <v>1074</v>
       </c>
@@ -15350,7 +15374,7 @@
       </c>
     </row>
     <row r="299" spans="1:21">
-      <c r="A299" s="24"/>
+      <c r="A299" s="25"/>
       <c r="B299" s="21"/>
       <c r="C299" s="21"/>
       <c r="H299" s="19" t="s">
@@ -15364,7 +15388,7 @@
       </c>
     </row>
     <row r="300" spans="1:21">
-      <c r="A300" s="24"/>
+      <c r="A300" s="25"/>
       <c r="H300" s="19" t="s">
         <v>1086</v>
       </c>
@@ -15376,7 +15400,7 @@
       </c>
     </row>
     <row r="301" spans="1:21">
-      <c r="A301" s="24"/>
+      <c r="A301" s="25"/>
       <c r="H301" s="19" t="s">
         <v>1087</v>
       </c>
@@ -15388,7 +15412,7 @@
       </c>
     </row>
     <row r="302" spans="1:21">
-      <c r="A302" s="24"/>
+      <c r="A302" s="25"/>
       <c r="H302" s="19" t="s">
         <v>1088</v>
       </c>
@@ -15400,7 +15424,7 @@
       </c>
     </row>
     <row r="303" spans="1:21">
-      <c r="A303" s="24"/>
+      <c r="A303" s="25"/>
       <c r="H303" s="19" t="s">
         <v>1089</v>
       </c>
@@ -15412,7 +15436,7 @@
       </c>
     </row>
     <row r="304" spans="1:21">
-      <c r="A304" s="24"/>
+      <c r="A304" s="25"/>
       <c r="H304" s="19" t="s">
         <v>1090</v>
       </c>
@@ -15424,7 +15448,7 @@
       </c>
     </row>
     <row r="305" spans="1:10">
-      <c r="A305" s="24"/>
+      <c r="A305" s="25"/>
       <c r="H305" s="19" t="s">
         <v>1091</v>
       </c>
@@ -15436,7 +15460,7 @@
       </c>
     </row>
     <row r="306" spans="1:10">
-      <c r="A306" s="24"/>
+      <c r="A306" s="25"/>
       <c r="H306" s="19" t="s">
         <v>1092</v>
       </c>
@@ -15448,7 +15472,7 @@
       </c>
     </row>
     <row r="307" spans="1:10">
-      <c r="A307" s="24"/>
+      <c r="A307" s="25"/>
       <c r="H307" s="19" t="s">
         <v>1093</v>
       </c>
@@ -15460,7 +15484,7 @@
       </c>
     </row>
     <row r="308" spans="1:10">
-      <c r="A308" s="24"/>
+      <c r="A308" s="25"/>
       <c r="H308" s="19" t="s">
         <v>1094</v>
       </c>
@@ -15472,7 +15496,7 @@
       </c>
     </row>
     <row r="309" spans="1:10">
-      <c r="A309" s="24"/>
+      <c r="A309" s="25"/>
       <c r="H309" s="19" t="s">
         <v>1096</v>
       </c>
@@ -15484,7 +15508,7 @@
       </c>
     </row>
     <row r="310" spans="1:10">
-      <c r="A310" s="24"/>
+      <c r="A310" s="25"/>
       <c r="H310" s="19" t="s">
         <v>1098</v>
       </c>
@@ -15496,7 +15520,7 @@
       </c>
     </row>
     <row r="311" spans="1:10">
-      <c r="A311" s="24"/>
+      <c r="A311" s="25"/>
       <c r="H311" s="19" t="s">
         <v>1099</v>
       </c>
@@ -15508,7 +15532,7 @@
       </c>
     </row>
     <row r="312" spans="1:10">
-      <c r="A312" s="24"/>
+      <c r="A312" s="25"/>
       <c r="H312" s="19" t="s">
         <v>1100</v>
       </c>
@@ -15520,7 +15544,7 @@
       </c>
     </row>
     <row r="313" spans="1:10">
-      <c r="A313" s="24"/>
+      <c r="A313" s="25"/>
       <c r="H313" s="19" t="s">
         <v>1101</v>
       </c>
@@ -15532,7 +15556,7 @@
       </c>
     </row>
     <row r="314" spans="1:10">
-      <c r="A314" s="24"/>
+      <c r="A314" s="25"/>
       <c r="H314" s="19" t="s">
         <v>1102</v>
       </c>
@@ -15544,7 +15568,7 @@
       </c>
     </row>
     <row r="315" spans="1:10">
-      <c r="A315" s="24"/>
+      <c r="A315" s="25"/>
       <c r="H315" s="19" t="s">
         <v>1103</v>
       </c>
@@ -15556,7 +15580,7 @@
       </c>
     </row>
     <row r="316" spans="1:10">
-      <c r="A316" s="24"/>
+      <c r="A316" s="25"/>
       <c r="H316" s="19" t="s">
         <v>1104</v>
       </c>
@@ -15568,7 +15592,7 @@
       </c>
     </row>
     <row r="317" spans="1:10">
-      <c r="A317" s="24"/>
+      <c r="A317" s="25"/>
       <c r="H317" s="19" t="s">
         <v>1105</v>
       </c>
@@ -15580,7 +15604,7 @@
       </c>
     </row>
     <row r="318" spans="1:10">
-      <c r="A318" s="24"/>
+      <c r="A318" s="25"/>
       <c r="H318" s="19" t="s">
         <v>1106</v>
       </c>
@@ -15592,7 +15616,7 @@
       </c>
     </row>
     <row r="319" spans="1:10">
-      <c r="A319" s="24"/>
+      <c r="A319" s="25"/>
       <c r="H319" s="19" t="s">
         <v>1107</v>
       </c>
@@ -15604,7 +15628,7 @@
       </c>
     </row>
     <row r="320" spans="1:10">
-      <c r="A320" s="24"/>
+      <c r="A320" s="25"/>
       <c r="H320" s="19" t="s">
         <v>1108</v>
       </c>
@@ -15616,7 +15640,7 @@
       </c>
     </row>
     <row r="321" spans="1:10">
-      <c r="A321" s="24"/>
+      <c r="A321" s="25"/>
       <c r="H321" s="19" t="s">
         <v>1109</v>
       </c>
@@ -15628,7 +15652,7 @@
       </c>
     </row>
     <row r="322" spans="1:10">
-      <c r="A322" s="24"/>
+      <c r="A322" s="25"/>
       <c r="H322" s="19" t="s">
         <v>1110</v>
       </c>
@@ -15640,7 +15664,7 @@
       </c>
     </row>
     <row r="323" spans="1:10">
-      <c r="A323" s="24"/>
+      <c r="A323" s="25"/>
       <c r="H323" s="19" t="s">
         <v>1111</v>
       </c>
@@ -15652,7 +15676,7 @@
       </c>
     </row>
     <row r="324" spans="1:10">
-      <c r="A324" s="24"/>
+      <c r="A324" s="25"/>
       <c r="H324" s="19" t="s">
         <v>1112</v>
       </c>
@@ -15664,7 +15688,7 @@
       </c>
     </row>
     <row r="325" spans="1:10">
-      <c r="A325" s="24"/>
+      <c r="A325" s="25"/>
       <c r="H325" s="19" t="s">
         <v>1113</v>
       </c>
@@ -15676,7 +15700,7 @@
       </c>
     </row>
     <row r="326" spans="1:10">
-      <c r="A326" s="24"/>
+      <c r="A326" s="25"/>
       <c r="H326" s="19" t="s">
         <v>1114</v>
       </c>
@@ -15688,7 +15712,7 @@
       </c>
     </row>
     <row r="327" spans="1:10">
-      <c r="A327" s="24"/>
+      <c r="A327" s="25"/>
       <c r="H327" s="19" t="s">
         <v>1115</v>
       </c>
@@ -15700,7 +15724,7 @@
       </c>
     </row>
     <row r="328" spans="1:10">
-      <c r="A328" s="24"/>
+      <c r="A328" s="25"/>
       <c r="H328" s="19" t="s">
         <v>1116</v>
       </c>
@@ -15712,7 +15736,7 @@
       </c>
     </row>
     <row r="329" spans="1:10">
-      <c r="A329" s="24"/>
+      <c r="A329" s="25"/>
       <c r="H329" s="19" t="s">
         <v>1117</v>
       </c>
@@ -15724,7 +15748,7 @@
       </c>
     </row>
     <row r="330" spans="1:10">
-      <c r="A330" s="24"/>
+      <c r="A330" s="25"/>
       <c r="H330" s="19" t="s">
         <v>1118</v>
       </c>
@@ -15736,7 +15760,7 @@
       </c>
     </row>
     <row r="331" spans="1:10">
-      <c r="A331" s="24"/>
+      <c r="A331" s="25"/>
       <c r="H331" s="19" t="s">
         <v>1119</v>
       </c>
@@ -15748,7 +15772,7 @@
       </c>
     </row>
     <row r="332" spans="1:10">
-      <c r="A332" s="24"/>
+      <c r="A332" s="25"/>
       <c r="H332" s="19" t="s">
         <v>1120</v>
       </c>
@@ -15760,7 +15784,7 @@
       </c>
     </row>
     <row r="333" spans="1:10">
-      <c r="A333" s="24"/>
+      <c r="A333" s="25"/>
       <c r="H333" s="19" t="s">
         <v>1121</v>
       </c>
@@ -15772,7 +15796,7 @@
       </c>
     </row>
     <row r="334" spans="1:10">
-      <c r="A334" s="24"/>
+      <c r="A334" s="25"/>
       <c r="H334" s="19" t="s">
         <v>1122</v>
       </c>
@@ -15784,7 +15808,7 @@
       </c>
     </row>
     <row r="335" spans="1:10">
-      <c r="A335" s="24"/>
+      <c r="A335" s="25"/>
       <c r="H335" s="19" t="s">
         <v>1123</v>
       </c>
@@ -15796,7 +15820,7 @@
       </c>
     </row>
     <row r="336" spans="1:10">
-      <c r="A336" s="24"/>
+      <c r="A336" s="25"/>
       <c r="H336" s="19" t="s">
         <v>1124</v>
       </c>
@@ -15808,7 +15832,7 @@
       </c>
     </row>
     <row r="337" spans="1:19">
-      <c r="A337" s="24"/>
+      <c r="A337" s="25"/>
       <c r="H337" s="19" t="s">
         <v>1125</v>
       </c>
@@ -15820,7 +15844,7 @@
       </c>
     </row>
     <row r="338" spans="1:19">
-      <c r="A338" s="24"/>
+      <c r="A338" s="25"/>
       <c r="H338" s="19" t="s">
         <v>1126</v>
       </c>
@@ -15832,7 +15856,7 @@
       </c>
     </row>
     <row r="339" spans="1:19">
-      <c r="A339" s="24"/>
+      <c r="A339" s="25"/>
       <c r="H339" s="19" t="s">
         <v>1127</v>
       </c>
@@ -15844,7 +15868,7 @@
       </c>
     </row>
     <row r="340" spans="1:19">
-      <c r="A340" s="24"/>
+      <c r="A340" s="25"/>
       <c r="H340" s="19" t="s">
         <v>1128</v>
       </c>
@@ -15856,7 +15880,7 @@
       </c>
     </row>
     <row r="341" spans="1:19">
-      <c r="A341" s="24"/>
+      <c r="A341" s="25"/>
       <c r="H341" s="19" t="s">
         <v>1129</v>
       </c>
@@ -15868,7 +15892,7 @@
       </c>
     </row>
     <row r="342" spans="1:19">
-      <c r="A342" s="24"/>
+      <c r="A342" s="25"/>
       <c r="H342" s="19" t="s">
         <v>1130</v>
       </c>
@@ -15880,7 +15904,7 @@
       </c>
     </row>
     <row r="343" spans="1:19">
-      <c r="A343" s="24"/>
+      <c r="A343" s="25"/>
       <c r="H343" s="19" t="s">
         <v>1131</v>
       </c>
@@ -15892,7 +15916,7 @@
       </c>
     </row>
     <row r="344" spans="1:19">
-      <c r="A344" s="24"/>
+      <c r="A344" s="25"/>
       <c r="H344" s="19" t="s">
         <v>1134</v>
       </c>
@@ -15904,7 +15928,7 @@
       </c>
     </row>
     <row r="345" spans="1:19">
-      <c r="A345" s="24"/>
+      <c r="A345" s="25"/>
       <c r="H345" s="19" t="s">
         <v>1137</v>
       </c>
@@ -15916,7 +15940,7 @@
       </c>
     </row>
     <row r="346" spans="1:19">
-      <c r="A346" s="24"/>
+      <c r="A346" s="25"/>
       <c r="H346" s="19" t="s">
         <v>1138</v>
       </c>
@@ -15928,7 +15952,7 @@
       </c>
     </row>
     <row r="347" spans="1:19">
-      <c r="A347" s="24"/>
+      <c r="A347" s="25"/>
       <c r="H347" s="19" t="s">
         <v>1139</v>
       </c>
@@ -15940,7 +15964,7 @@
       </c>
     </row>
     <row r="348" spans="1:19">
-      <c r="A348" s="24"/>
+      <c r="A348" s="25"/>
       <c r="H348" s="19" t="s">
         <v>1141</v>
       </c>
@@ -15952,7 +15976,7 @@
       </c>
     </row>
     <row r="349" spans="1:19">
-      <c r="A349" s="24" t="s">
+      <c r="A349" s="25" t="s">
         <v>1050</v>
       </c>
       <c r="E349" s="1" t="s">
@@ -15977,7 +16001,7 @@
       <c r="S349" s="2"/>
     </row>
     <row r="350" spans="1:19">
-      <c r="A350" s="24"/>
+      <c r="A350" s="25"/>
       <c r="E350" s="1" t="s">
         <v>343</v>
       </c>
@@ -15998,7 +16022,7 @@
       <c r="Q350" s="2"/>
     </row>
     <row r="351" spans="1:19">
-      <c r="A351" s="24" t="s">
+      <c r="A351" s="25" t="s">
         <v>1051</v>
       </c>
       <c r="E351" s="1" t="s">
@@ -16013,7 +16037,7 @@
       </c>
     </row>
     <row r="352" spans="1:19">
-      <c r="A352" s="24"/>
+      <c r="A352" s="25"/>
       <c r="E352" s="1" t="s">
         <v>343</v>
       </c>
@@ -16026,7 +16050,7 @@
       </c>
     </row>
     <row r="353" spans="1:20">
-      <c r="A353" s="24"/>
+      <c r="A353" s="25"/>
       <c r="E353" s="1" t="s">
         <v>343</v>
       </c>
@@ -16039,7 +16063,7 @@
       </c>
     </row>
     <row r="354" spans="1:20">
-      <c r="A354" s="24"/>
+      <c r="A354" s="25"/>
       <c r="E354" s="1" t="s">
         <v>343</v>
       </c>
@@ -16052,7 +16076,7 @@
       </c>
     </row>
     <row r="355" spans="1:20">
-      <c r="A355" s="24"/>
+      <c r="A355" s="25"/>
       <c r="E355" s="1" t="s">
         <v>343</v>
       </c>
@@ -16065,7 +16089,7 @@
       </c>
     </row>
     <row r="356" spans="1:20">
-      <c r="A356" s="24"/>
+      <c r="A356" s="25"/>
       <c r="E356" s="1" t="s">
         <v>343</v>
       </c>
@@ -16078,7 +16102,7 @@
       </c>
     </row>
     <row r="357" spans="1:20">
-      <c r="A357" s="24"/>
+      <c r="A357" s="25"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
       <c r="G357" s="2"/>
@@ -16087,7 +16111,7 @@
       </c>
     </row>
     <row r="358" spans="1:20">
-      <c r="A358" s="24" t="s">
+      <c r="A358" s="25" t="s">
         <v>1052</v>
       </c>
       <c r="E358" s="1" t="s">
@@ -16112,7 +16136,7 @@
       <c r="S358" s="2"/>
     </row>
     <row r="359" spans="1:20">
-      <c r="A359" s="24"/>
+      <c r="A359" s="25"/>
       <c r="E359" s="1" t="s">
         <v>343</v>
       </c>
@@ -16135,7 +16159,7 @@
       <c r="S359" s="2"/>
     </row>
     <row r="360" spans="1:20">
-      <c r="A360" s="24"/>
+      <c r="A360" s="25"/>
       <c r="E360" s="1" t="s">
         <v>343</v>
       </c>
@@ -16158,7 +16182,7 @@
       <c r="S360" s="2"/>
     </row>
     <row r="361" spans="1:20">
-      <c r="A361" s="24"/>
+      <c r="A361" s="25"/>
       <c r="E361" s="1" t="s">
         <v>343</v>
       </c>
@@ -16182,7 +16206,7 @@
       <c r="T361" s="2"/>
     </row>
     <row r="362" spans="1:20">
-      <c r="A362" s="24"/>
+      <c r="A362" s="25"/>
       <c r="E362" s="1" t="s">
         <v>343</v>
       </c>
@@ -16205,7 +16229,7 @@
       <c r="S362" s="2"/>
     </row>
     <row r="363" spans="1:20">
-      <c r="A363" s="24"/>
+      <c r="A363" s="25"/>
       <c r="E363" s="1" t="s">
         <v>343</v>
       </c>
@@ -16228,7 +16252,7 @@
       <c r="S363" s="2"/>
     </row>
     <row r="364" spans="1:20">
-      <c r="A364" s="24"/>
+      <c r="A364" s="25"/>
       <c r="E364" s="1" t="s">
         <v>343</v>
       </c>
@@ -16252,7 +16276,7 @@
       <c r="T364" s="2"/>
     </row>
     <row r="365" spans="1:20">
-      <c r="A365" s="24"/>
+      <c r="A365" s="25"/>
       <c r="E365" s="1" t="s">
         <v>343</v>
       </c>
@@ -16270,7 +16294,7 @@
       <c r="N365" s="2"/>
     </row>
     <row r="366" spans="1:20">
-      <c r="A366" s="24" t="s">
+      <c r="A366" s="25" t="s">
         <v>1053</v>
       </c>
       <c r="E366" s="1" t="s">
@@ -16294,7 +16318,7 @@
       <c r="R366" s="2"/>
     </row>
     <row r="367" spans="1:20">
-      <c r="A367" s="24"/>
+      <c r="A367" s="25"/>
       <c r="E367" s="1" t="s">
         <v>343</v>
       </c>
@@ -16315,7 +16339,7 @@
       <c r="Q367" s="2"/>
     </row>
     <row r="368" spans="1:20">
-      <c r="A368" s="24"/>
+      <c r="A368" s="25"/>
       <c r="E368" s="1" t="s">
         <v>343</v>
       </c>
@@ -16338,7 +16362,7 @@
       <c r="S368" s="2"/>
     </row>
     <row r="369" spans="1:21">
-      <c r="A369" s="24"/>
+      <c r="A369" s="25"/>
       <c r="E369" s="1" t="s">
         <v>343</v>
       </c>
@@ -16356,7 +16380,7 @@
       <c r="N369" s="2"/>
     </row>
     <row r="370" spans="1:21">
-      <c r="A370" s="24"/>
+      <c r="A370" s="25"/>
       <c r="E370" s="1" t="s">
         <v>15</v>
       </c>
@@ -16382,7 +16406,7 @@
       <c r="P370" s="2"/>
     </row>
     <row r="371" spans="1:21">
-      <c r="A371" s="24"/>
+      <c r="A371" s="25"/>
       <c r="E371" s="1" t="s">
         <v>15</v>
       </c>
@@ -16408,7 +16432,7 @@
       <c r="P371" s="2"/>
     </row>
     <row r="372" spans="1:21">
-      <c r="A372" s="24" t="s">
+      <c r="A372" s="25" t="s">
         <v>1143</v>
       </c>
       <c r="E372" s="2"/>
@@ -16432,7 +16456,7 @@
       <c r="U372" s="2"/>
     </row>
     <row r="373" spans="1:21">
-      <c r="A373" s="24"/>
+      <c r="A373" s="25"/>
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
       <c r="G373" s="2"/>
@@ -16454,7 +16478,7 @@
       <c r="U373" s="2"/>
     </row>
     <row r="374" spans="1:21">
-      <c r="A374" s="24"/>
+      <c r="A374" s="25"/>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
       <c r="G374" s="2"/>
@@ -16476,7 +16500,7 @@
       <c r="U374" s="2"/>
     </row>
     <row r="375" spans="1:21">
-      <c r="A375" s="24"/>
+      <c r="A375" s="25"/>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
       <c r="G375" s="2"/>
@@ -16498,7 +16522,7 @@
       <c r="U375" s="2"/>
     </row>
     <row r="376" spans="1:21">
-      <c r="A376" s="24"/>
+      <c r="A376" s="25"/>
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
       <c r="G376" s="2"/>
@@ -16520,7 +16544,7 @@
       <c r="U376" s="2"/>
     </row>
     <row r="377" spans="1:21">
-      <c r="A377" s="24"/>
+      <c r="A377" s="25"/>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
       <c r="G377" s="2"/>
@@ -16542,7 +16566,7 @@
       <c r="U377" s="2"/>
     </row>
     <row r="378" spans="1:21">
-      <c r="A378" s="24"/>
+      <c r="A378" s="25"/>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
       <c r="G378" s="2"/>
@@ -16564,7 +16588,7 @@
       <c r="U378" s="2"/>
     </row>
     <row r="379" spans="1:21">
-      <c r="A379" s="24"/>
+      <c r="A379" s="25"/>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
@@ -16586,7 +16610,7 @@
       <c r="U379" s="2"/>
     </row>
     <row r="380" spans="1:21">
-      <c r="A380" s="24"/>
+      <c r="A380" s="25"/>
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
@@ -16608,7 +16632,7 @@
       <c r="U380" s="2"/>
     </row>
     <row r="381" spans="1:21">
-      <c r="A381" s="24"/>
+      <c r="A381" s="25"/>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
@@ -16630,7 +16654,7 @@
       <c r="U381" s="2"/>
     </row>
     <row r="382" spans="1:21">
-      <c r="A382" s="24"/>
+      <c r="A382" s="25"/>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
       <c r="G382" s="2"/>
@@ -16652,7 +16676,7 @@
       <c r="U382" s="2"/>
     </row>
     <row r="383" spans="1:21">
-      <c r="A383" s="24"/>
+      <c r="A383" s="25"/>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
       <c r="G383" s="2"/>
@@ -16674,7 +16698,7 @@
       <c r="U383" s="2"/>
     </row>
     <row r="384" spans="1:21">
-      <c r="A384" s="24"/>
+      <c r="A384" s="25"/>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
       <c r="G384" s="2"/>
@@ -16696,7 +16720,7 @@
       <c r="U384" s="2"/>
     </row>
     <row r="385" spans="1:21">
-      <c r="A385" s="24"/>
+      <c r="A385" s="25"/>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
       <c r="G385" s="2"/>
@@ -16718,7 +16742,7 @@
       <c r="U385" s="2"/>
     </row>
     <row r="386" spans="1:21">
-      <c r="A386" s="24"/>
+      <c r="A386" s="25"/>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
       <c r="G386" s="2"/>
@@ -16740,7 +16764,7 @@
       <c r="U386" s="2"/>
     </row>
     <row r="387" spans="1:21">
-      <c r="A387" s="24"/>
+      <c r="A387" s="25"/>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
       <c r="G387" s="2"/>
@@ -16762,7 +16786,7 @@
       <c r="U387" s="2"/>
     </row>
     <row r="388" spans="1:21">
-      <c r="A388" s="24"/>
+      <c r="A388" s="25"/>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -16784,7 +16808,7 @@
       <c r="U388" s="2"/>
     </row>
     <row r="389" spans="1:21">
-      <c r="A389" s="24"/>
+      <c r="A389" s="25"/>
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
       <c r="G389" s="2"/>
@@ -16806,7 +16830,7 @@
       <c r="U389" s="2"/>
     </row>
     <row r="390" spans="1:21">
-      <c r="A390" s="24"/>
+      <c r="A390" s="25"/>
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
       <c r="G390" s="2"/>
@@ -16828,7 +16852,7 @@
       <c r="U390" s="2"/>
     </row>
     <row r="391" spans="1:21">
-      <c r="A391" s="24"/>
+      <c r="A391" s="25"/>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
       <c r="G391" s="2"/>
@@ -16850,7 +16874,7 @@
       <c r="U391" s="2"/>
     </row>
     <row r="392" spans="1:21">
-      <c r="A392" s="24"/>
+      <c r="A392" s="25"/>
       <c r="E392" s="1" t="s">
         <v>343</v>
       </c>
@@ -16876,7 +16900,7 @@
       <c r="U392" s="2"/>
     </row>
     <row r="393" spans="1:21">
-      <c r="A393" s="24"/>
+      <c r="A393" s="25"/>
       <c r="E393" s="1" t="s">
         <v>343</v>
       </c>
@@ -16902,7 +16926,7 @@
       <c r="U393" s="2"/>
     </row>
     <row r="394" spans="1:21">
-      <c r="A394" s="24"/>
+      <c r="A394" s="25"/>
       <c r="E394" s="1" t="s">
         <v>343</v>
       </c>
@@ -16928,7 +16952,7 @@
       <c r="U394" s="2"/>
     </row>
     <row r="395" spans="1:21">
-      <c r="A395" s="24"/>
+      <c r="A395" s="25"/>
       <c r="E395" s="1" t="s">
         <v>343</v>
       </c>
@@ -16954,7 +16978,7 @@
       <c r="O395" s="2"/>
     </row>
     <row r="396" spans="1:21">
-      <c r="A396" s="24"/>
+      <c r="A396" s="25"/>
       <c r="E396" s="1" t="s">
         <v>343</v>
       </c>
@@ -16988,7 +17012,7 @@
       </c>
     </row>
     <row r="397" spans="1:21">
-      <c r="A397" s="24"/>
+      <c r="A397" s="25"/>
       <c r="E397" s="1" t="s">
         <v>343</v>
       </c>
@@ -17020,7 +17044,7 @@
       <c r="U397" s="2"/>
     </row>
     <row r="398" spans="1:21">
-      <c r="A398" s="24"/>
+      <c r="A398" s="25"/>
       <c r="E398" s="1"/>
       <c r="F398" s="2"/>
       <c r="G398" s="2"/>
@@ -17042,7 +17066,7 @@
       <c r="U398" s="2"/>
     </row>
     <row r="399" spans="1:21">
-      <c r="A399" s="24"/>
+      <c r="A399" s="25"/>
       <c r="E399" s="1"/>
       <c r="F399" s="2"/>
       <c r="G399" s="2"/>
@@ -17064,7 +17088,7 @@
       <c r="U399" s="2"/>
     </row>
     <row r="400" spans="1:21">
-      <c r="A400" s="24"/>
+      <c r="A400" s="25"/>
       <c r="E400" s="1"/>
       <c r="F400" s="2"/>
       <c r="G400" s="2"/>
@@ -17086,7 +17110,7 @@
       <c r="U400" s="2"/>
     </row>
     <row r="401" spans="1:21">
-      <c r="A401" s="24"/>
+      <c r="A401" s="25"/>
       <c r="E401" s="1"/>
       <c r="F401" s="2"/>
       <c r="G401" s="2"/>
@@ -17110,7 +17134,7 @@
       <c r="U401" s="2"/>
     </row>
     <row r="402" spans="1:21">
-      <c r="A402" s="24"/>
+      <c r="A402" s="25"/>
       <c r="E402" s="1" t="s">
         <v>343</v>
       </c>
@@ -17144,7 +17168,7 @@
       </c>
     </row>
     <row r="403" spans="1:21">
-      <c r="A403" s="24"/>
+      <c r="A403" s="25"/>
       <c r="E403" s="1" t="s">
         <v>343</v>
       </c>
@@ -17170,7 +17194,7 @@
       <c r="U403" s="2"/>
     </row>
     <row r="404" spans="1:21">
-      <c r="A404" s="24"/>
+      <c r="A404" s="25"/>
       <c r="E404" s="1" t="s">
         <v>343</v>
       </c>
@@ -17196,7 +17220,7 @@
       <c r="U404" s="2"/>
     </row>
     <row r="405" spans="1:21">
-      <c r="A405" s="24"/>
+      <c r="A405" s="25"/>
       <c r="E405" s="1" t="s">
         <v>343</v>
       </c>
@@ -17224,7 +17248,7 @@
       <c r="U405" s="2"/>
     </row>
     <row r="406" spans="1:21">
-      <c r="A406" s="24"/>
+      <c r="A406" s="25"/>
       <c r="E406" s="1" t="s">
         <v>343</v>
       </c>
@@ -17254,7 +17278,7 @@
       </c>
     </row>
     <row r="407" spans="1:21">
-      <c r="A407" s="24"/>
+      <c r="A407" s="25"/>
       <c r="E407" s="1" t="s">
         <v>343</v>
       </c>
@@ -17282,7 +17306,7 @@
       <c r="U407" s="2"/>
     </row>
     <row r="408" spans="1:21">
-      <c r="A408" s="24"/>
+      <c r="A408" s="25"/>
       <c r="E408" s="1" t="s">
         <v>343</v>
       </c>
@@ -17312,7 +17336,7 @@
       </c>
     </row>
     <row r="409" spans="1:21">
-      <c r="A409" s="24"/>
+      <c r="A409" s="25"/>
       <c r="E409" s="1" t="s">
         <v>343</v>
       </c>
@@ -17340,7 +17364,7 @@
       <c r="U409" s="2"/>
     </row>
     <row r="410" spans="1:21">
-      <c r="A410" s="24"/>
+      <c r="A410" s="25"/>
       <c r="E410" s="1"/>
       <c r="F410" s="2"/>
       <c r="G410" s="2"/>
@@ -17362,7 +17386,7 @@
       <c r="U410" s="2"/>
     </row>
     <row r="411" spans="1:21">
-      <c r="A411" s="24"/>
+      <c r="A411" s="25"/>
       <c r="E411" s="1"/>
       <c r="F411" s="2"/>
       <c r="G411" s="2"/>
@@ -17384,7 +17408,7 @@
       <c r="U411" s="2"/>
     </row>
     <row r="412" spans="1:21">
-      <c r="A412" s="24"/>
+      <c r="A412" s="25"/>
       <c r="E412" s="1"/>
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
@@ -17406,7 +17430,7 @@
       <c r="U412" s="2"/>
     </row>
     <row r="413" spans="1:21">
-      <c r="A413" s="24"/>
+      <c r="A413" s="25"/>
       <c r="E413" s="1" t="s">
         <v>343</v>
       </c>
@@ -17440,7 +17464,7 @@
       </c>
     </row>
     <row r="414" spans="1:21">
-      <c r="A414" s="24"/>
+      <c r="A414" s="25"/>
       <c r="E414" s="1" t="s">
         <v>343</v>
       </c>
@@ -17466,7 +17490,7 @@
       <c r="U414" s="2"/>
     </row>
     <row r="415" spans="1:21">
-      <c r="A415" s="24"/>
+      <c r="A415" s="25"/>
       <c r="E415" s="1" t="s">
         <v>343</v>
       </c>
@@ -17496,7 +17520,7 @@
       </c>
     </row>
     <row r="416" spans="1:21">
-      <c r="A416" s="24"/>
+      <c r="A416" s="25"/>
       <c r="E416" s="1" t="s">
         <v>343</v>
       </c>
@@ -17524,7 +17548,7 @@
       <c r="U416" s="2"/>
     </row>
     <row r="417" spans="1:21">
-      <c r="A417" s="24"/>
+      <c r="A417" s="25"/>
       <c r="E417" s="1" t="s">
         <v>343</v>
       </c>
@@ -17552,7 +17576,7 @@
       <c r="U417" s="2"/>
     </row>
     <row r="418" spans="1:21">
-      <c r="A418" s="24"/>
+      <c r="A418" s="25"/>
       <c r="E418" s="1" t="s">
         <v>343</v>
       </c>
@@ -17588,7 +17612,7 @@
       <c r="U418" s="2"/>
     </row>
     <row r="419" spans="1:21">
-      <c r="A419" s="24"/>
+      <c r="A419" s="25"/>
       <c r="E419" s="1" t="s">
         <v>343</v>
       </c>
@@ -17616,7 +17640,7 @@
       <c r="U419" s="2"/>
     </row>
     <row r="420" spans="1:21">
-      <c r="A420" s="24"/>
+      <c r="A420" s="25"/>
       <c r="E420" s="1" t="s">
         <v>343</v>
       </c>
@@ -17649,7 +17673,7 @@
       <c r="T420" s="2"/>
     </row>
     <row r="421" spans="1:21">
-      <c r="A421" s="24"/>
+      <c r="A421" s="25"/>
       <c r="E421" s="1" t="s">
         <v>343</v>
       </c>
@@ -17677,7 +17701,7 @@
       <c r="U421" s="2"/>
     </row>
     <row r="422" spans="1:21">
-      <c r="A422" s="24"/>
+      <c r="A422" s="25"/>
       <c r="E422" s="1" t="s">
         <v>343</v>
       </c>
@@ -17709,7 +17733,7 @@
       <c r="U422" s="2"/>
     </row>
     <row r="423" spans="1:21">
-      <c r="A423" s="24"/>
+      <c r="A423" s="25"/>
       <c r="E423" s="1"/>
       <c r="F423" s="2"/>
       <c r="G423" s="2"/>
@@ -17731,7 +17755,7 @@
       <c r="U423" s="2"/>
     </row>
     <row r="424" spans="1:21">
-      <c r="A424" s="24"/>
+      <c r="A424" s="25"/>
       <c r="E424" s="1"/>
       <c r="F424" s="2"/>
       <c r="G424" s="2"/>
@@ -17753,7 +17777,7 @@
       <c r="U424" s="2"/>
     </row>
     <row r="425" spans="1:21">
-      <c r="A425" s="24"/>
+      <c r="A425" s="25"/>
       <c r="E425" s="1"/>
       <c r="F425" s="2"/>
       <c r="G425" s="2"/>
@@ -17777,7 +17801,7 @@
       <c r="U425" s="2"/>
     </row>
     <row r="426" spans="1:21">
-      <c r="A426" s="24"/>
+      <c r="A426" s="25"/>
       <c r="E426" s="1" t="s">
         <v>343</v>
       </c>
@@ -17807,7 +17831,7 @@
       <c r="U426" s="1"/>
     </row>
     <row r="427" spans="1:21">
-      <c r="A427" s="24"/>
+      <c r="A427" s="25"/>
       <c r="E427" s="1" t="s">
         <v>343</v>
       </c>
@@ -17844,7 +17868,7 @@
       </c>
     </row>
     <row r="428" spans="1:21">
-      <c r="A428" s="24"/>
+      <c r="A428" s="25"/>
       <c r="E428" s="1" t="s">
         <v>343</v>
       </c>
@@ -17876,7 +17900,7 @@
       <c r="U428" s="2"/>
     </row>
     <row r="429" spans="1:21">
-      <c r="A429" s="24"/>
+      <c r="A429" s="25"/>
       <c r="E429" s="1" t="s">
         <v>343</v>
       </c>
@@ -17911,7 +17935,7 @@
       </c>
     </row>
     <row r="430" spans="1:21">
-      <c r="A430" s="24"/>
+      <c r="A430" s="25"/>
       <c r="E430" s="1" t="s">
         <v>343</v>
       </c>
@@ -17941,7 +17965,7 @@
       <c r="U430" s="2"/>
     </row>
     <row r="431" spans="1:21">
-      <c r="A431" s="24"/>
+      <c r="A431" s="25"/>
       <c r="E431" s="1" t="s">
         <v>343</v>
       </c>
@@ -17974,7 +17998,7 @@
       <c r="T431" s="2"/>
     </row>
     <row r="432" spans="1:21">
-      <c r="A432" s="24"/>
+      <c r="A432" s="25"/>
       <c r="E432" s="1" t="s">
         <v>343</v>
       </c>
@@ -17999,7 +18023,7 @@
       <c r="P432" s="2"/>
     </row>
     <row r="433" spans="1:21">
-      <c r="A433" s="24"/>
+      <c r="A433" s="25"/>
       <c r="E433" s="1" t="s">
         <v>343</v>
       </c>
@@ -18030,7 +18054,7 @@
       </c>
     </row>
     <row r="434" spans="1:21">
-      <c r="A434" s="24"/>
+      <c r="A434" s="25"/>
       <c r="E434" s="1" t="s">
         <v>343</v>
       </c>
@@ -18058,7 +18082,7 @@
       <c r="U434" s="2"/>
     </row>
     <row r="435" spans="1:21">
-      <c r="A435" s="24"/>
+      <c r="A435" s="25"/>
       <c r="E435" s="1" t="s">
         <v>343</v>
       </c>
@@ -18086,7 +18110,7 @@
       <c r="U435" s="2"/>
     </row>
     <row r="436" spans="1:21">
-      <c r="A436" s="24"/>
+      <c r="A436" s="25"/>
       <c r="E436" s="1" t="s">
         <v>343</v>
       </c>
@@ -18110,7 +18134,7 @@
       <c r="Q436" s="2"/>
     </row>
     <row r="437" spans="1:21">
-      <c r="A437" s="24"/>
+      <c r="A437" s="25"/>
       <c r="E437" s="1" t="s">
         <v>343</v>
       </c>
@@ -18141,7 +18165,7 @@
       </c>
     </row>
     <row r="438" spans="1:21">
-      <c r="A438" s="24"/>
+      <c r="A438" s="25"/>
       <c r="E438" s="1" t="s">
         <v>343</v>
       </c>
@@ -18169,7 +18193,7 @@
       <c r="U438" s="2"/>
     </row>
     <row r="439" spans="1:21">
-      <c r="A439" s="24"/>
+      <c r="A439" s="25"/>
       <c r="E439" s="1" t="s">
         <v>343</v>
       </c>
@@ -18197,7 +18221,7 @@
       <c r="U439" s="2"/>
     </row>
     <row r="440" spans="1:21">
-      <c r="A440" s="24"/>
+      <c r="A440" s="25"/>
       <c r="E440" s="1" t="s">
         <v>343</v>
       </c>
@@ -18225,7 +18249,7 @@
       <c r="U440" s="2"/>
     </row>
     <row r="441" spans="1:21">
-      <c r="A441" s="24"/>
+      <c r="A441" s="25"/>
       <c r="E441" s="1" t="s">
         <v>343</v>
       </c>
@@ -18250,7 +18274,7 @@
       <c r="R441" s="2"/>
     </row>
     <row r="442" spans="1:21">
-      <c r="A442" s="24"/>
+      <c r="A442" s="25"/>
       <c r="E442" s="1" t="s">
         <v>343</v>
       </c>
@@ -18280,7 +18304,7 @@
       <c r="Q442" s="2"/>
     </row>
     <row r="443" spans="1:21">
-      <c r="A443" s="24"/>
+      <c r="A443" s="25"/>
       <c r="E443" s="1" t="s">
         <v>343</v>
       </c>
@@ -18306,7 +18330,7 @@
       <c r="U443" s="2"/>
     </row>
     <row r="444" spans="1:21">
-      <c r="A444" s="24"/>
+      <c r="A444" s="25"/>
       <c r="E444" s="1" t="s">
         <v>343</v>
       </c>
@@ -18330,7 +18354,7 @@
       <c r="Q444" s="2"/>
     </row>
     <row r="445" spans="1:21">
-      <c r="A445" s="24"/>
+      <c r="A445" s="25"/>
       <c r="E445" s="1" t="s">
         <v>343</v>
       </c>
@@ -18361,7 +18385,7 @@
       <c r="R445" s="2"/>
     </row>
     <row r="446" spans="1:21">
-      <c r="A446" s="24"/>
+      <c r="A446" s="25"/>
       <c r="E446" s="1" t="s">
         <v>343</v>
       </c>
@@ -18387,7 +18411,7 @@
       <c r="U446" s="2"/>
     </row>
     <row r="447" spans="1:21">
-      <c r="A447" s="24"/>
+      <c r="A447" s="25"/>
       <c r="E447" s="1"/>
       <c r="F447" s="2"/>
       <c r="G447" s="2"/>
@@ -18409,7 +18433,7 @@
       <c r="U447" s="2"/>
     </row>
     <row r="448" spans="1:21">
-      <c r="A448" s="24"/>
+      <c r="A448" s="25"/>
       <c r="E448" s="1"/>
       <c r="F448" s="2"/>
       <c r="G448" s="2"/>
@@ -18431,7 +18455,7 @@
       <c r="U448" s="2"/>
     </row>
     <row r="449" spans="1:21">
-      <c r="A449" s="24"/>
+      <c r="A449" s="25"/>
       <c r="E449" s="1"/>
       <c r="F449" s="2"/>
       <c r="G449" s="2"/>
@@ -18453,7 +18477,7 @@
       <c r="U449" s="2"/>
     </row>
     <row r="450" spans="1:21">
-      <c r="A450" s="24"/>
+      <c r="A450" s="25"/>
       <c r="E450" s="1" t="s">
         <v>343</v>
       </c>
@@ -18485,7 +18509,7 @@
       </c>
     </row>
     <row r="451" spans="1:21">
-      <c r="A451" s="24"/>
+      <c r="A451" s="25"/>
       <c r="E451" s="1" t="s">
         <v>343</v>
       </c>
@@ -18511,7 +18535,7 @@
       <c r="U451" s="2"/>
     </row>
     <row r="452" spans="1:21">
-      <c r="A452" s="24"/>
+      <c r="A452" s="25"/>
       <c r="E452" s="1" t="s">
         <v>343</v>
       </c>
@@ -18537,7 +18561,7 @@
       <c r="U452" s="2"/>
     </row>
     <row r="453" spans="1:21">
-      <c r="A453" s="24"/>
+      <c r="A453" s="25"/>
       <c r="E453" s="1"/>
       <c r="F453" s="2"/>
       <c r="G453" s="2"/>
@@ -18559,7 +18583,7 @@
       <c r="U453" s="2"/>
     </row>
     <row r="454" spans="1:21">
-      <c r="A454" s="24"/>
+      <c r="A454" s="25"/>
       <c r="E454" s="1"/>
       <c r="F454" s="2"/>
       <c r="G454" s="2"/>
@@ -18581,7 +18605,7 @@
       <c r="U454" s="2"/>
     </row>
     <row r="455" spans="1:21">
-      <c r="A455" s="24"/>
+      <c r="A455" s="25"/>
       <c r="E455" s="1" t="s">
         <v>343</v>
       </c>
@@ -18617,7 +18641,7 @@
       </c>
     </row>
     <row r="456" spans="1:21">
-      <c r="A456" s="24"/>
+      <c r="A456" s="25"/>
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
       <c r="G456" s="2"/>
@@ -18639,7 +18663,7 @@
       <c r="U456" s="2"/>
     </row>
     <row r="457" spans="1:21">
-      <c r="A457" s="24"/>
+      <c r="A457" s="25"/>
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
       <c r="G457" s="2"/>
@@ -18661,7 +18685,7 @@
       <c r="U457" s="2"/>
     </row>
     <row r="458" spans="1:21">
-      <c r="A458" s="24"/>
+      <c r="A458" s="25"/>
       <c r="E458" s="1" t="s">
         <v>343</v>
       </c>
@@ -18697,7 +18721,7 @@
       <c r="U458" s="2"/>
     </row>
     <row r="459" spans="1:21">
-      <c r="A459" s="24"/>
+      <c r="A459" s="25"/>
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
       <c r="G459" s="2"/>
@@ -18719,7 +18743,7 @@
       <c r="U459" s="2"/>
     </row>
     <row r="460" spans="1:21">
-      <c r="A460" s="24"/>
+      <c r="A460" s="25"/>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
       <c r="G460" s="2"/>
@@ -18741,7 +18765,7 @@
       <c r="U460" s="2"/>
     </row>
     <row r="461" spans="1:21">
-      <c r="A461" s="24"/>
+      <c r="A461" s="25"/>
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
       <c r="G461" s="2"/>
@@ -18763,7 +18787,7 @@
       <c r="U461" s="2"/>
     </row>
     <row r="462" spans="1:21">
-      <c r="A462" s="24"/>
+      <c r="A462" s="25"/>
       <c r="E462" s="1" t="s">
         <v>343</v>
       </c>
@@ -18799,7 +18823,7 @@
       <c r="U462" s="2"/>
     </row>
     <row r="463" spans="1:21">
-      <c r="A463" s="24"/>
+      <c r="A463" s="25"/>
       <c r="E463" s="1" t="s">
         <v>343</v>
       </c>
@@ -18837,7 +18861,7 @@
       </c>
     </row>
     <row r="464" spans="1:21">
-      <c r="A464" s="24"/>
+      <c r="A464" s="25"/>
       <c r="E464" s="2" t="s">
         <v>343</v>
       </c>
@@ -18863,7 +18887,7 @@
       <c r="U464" s="2"/>
     </row>
     <row r="465" spans="1:21">
-      <c r="A465" s="24"/>
+      <c r="A465" s="25"/>
       <c r="E465" s="1" t="s">
         <v>343</v>
       </c>
@@ -18899,7 +18923,7 @@
       </c>
     </row>
     <row r="466" spans="1:21">
-      <c r="A466" s="24"/>
+      <c r="A466" s="25"/>
       <c r="E466" s="1" t="s">
         <v>343</v>
       </c>
@@ -18925,7 +18949,7 @@
       <c r="U466" s="2"/>
     </row>
     <row r="467" spans="1:21">
-      <c r="A467" s="24"/>
+      <c r="A467" s="25"/>
       <c r="E467" s="1"/>
       <c r="F467" s="2"/>
       <c r="G467" s="2"/>
@@ -18949,7 +18973,7 @@
       <c r="U467" s="2"/>
     </row>
     <row r="468" spans="1:21">
-      <c r="A468" s="24"/>
+      <c r="A468" s="25"/>
       <c r="E468" s="1" t="s">
         <v>343</v>
       </c>
@@ -18982,7 +19006,7 @@
       <c r="T468" s="2"/>
     </row>
     <row r="469" spans="1:21">
-      <c r="A469" s="24"/>
+      <c r="A469" s="25"/>
       <c r="E469" s="1" t="s">
         <v>343</v>
       </c>
@@ -19008,7 +19032,7 @@
       <c r="U469" s="2"/>
     </row>
     <row r="470" spans="1:21">
-      <c r="A470" s="24"/>
+      <c r="A470" s="25"/>
       <c r="E470" s="1" t="s">
         <v>343</v>
       </c>
@@ -19043,7 +19067,7 @@
       <c r="T470" s="2"/>
     </row>
     <row r="471" spans="1:21">
-      <c r="A471" s="24"/>
+      <c r="A471" s="25"/>
       <c r="E471" s="1"/>
       <c r="F471" s="2"/>
       <c r="G471" s="2"/>
@@ -19065,7 +19089,7 @@
       <c r="U471" s="2"/>
     </row>
     <row r="472" spans="1:21">
-      <c r="A472" s="24"/>
+      <c r="A472" s="25"/>
       <c r="E472" s="1" t="s">
         <v>343</v>
       </c>
@@ -19091,7 +19115,7 @@
       <c r="U472" s="2"/>
     </row>
     <row r="473" spans="1:21">
-      <c r="A473" s="24"/>
+      <c r="A473" s="25"/>
       <c r="E473" s="1"/>
       <c r="F473" s="2"/>
       <c r="G473" s="2"/>
@@ -19113,7 +19137,7 @@
       <c r="U473" s="2"/>
     </row>
     <row r="474" spans="1:21">
-      <c r="A474" s="24"/>
+      <c r="A474" s="25"/>
       <c r="E474" s="1" t="s">
         <v>343</v>
       </c>
@@ -19145,7 +19169,7 @@
       <c r="S474" s="2"/>
     </row>
     <row r="475" spans="1:21">
-      <c r="A475" s="24"/>
+      <c r="A475" s="25"/>
       <c r="E475" s="1" t="s">
         <v>343</v>
       </c>
@@ -19171,7 +19195,7 @@
       <c r="U475" s="2"/>
     </row>
     <row r="476" spans="1:21">
-      <c r="A476" s="24"/>
+      <c r="A476" s="25"/>
       <c r="E476" s="1" t="s">
         <v>343</v>
       </c>
@@ -19203,7 +19227,7 @@
       <c r="S476" s="2"/>
     </row>
     <row r="477" spans="1:21">
-      <c r="A477" s="24"/>
+      <c r="A477" s="25"/>
       <c r="E477" s="1" t="s">
         <v>343</v>
       </c>
@@ -19231,7 +19255,7 @@
       <c r="U477" s="2"/>
     </row>
     <row r="478" spans="1:21">
-      <c r="A478" s="24"/>
+      <c r="A478" s="25"/>
       <c r="E478" s="1" t="s">
         <v>343</v>
       </c>
@@ -19263,7 +19287,7 @@
       <c r="S478" s="2"/>
     </row>
     <row r="479" spans="1:21">
-      <c r="A479" s="24"/>
+      <c r="A479" s="25"/>
       <c r="E479" s="1" t="s">
         <v>343</v>
       </c>
@@ -19291,7 +19315,7 @@
       <c r="U479" s="2"/>
     </row>
     <row r="480" spans="1:21">
-      <c r="A480" s="24"/>
+      <c r="A480" s="25"/>
       <c r="E480" s="1" t="s">
         <v>343</v>
       </c>
@@ -19327,7 +19351,7 @@
       </c>
     </row>
     <row r="481" spans="1:21">
-      <c r="A481" s="24"/>
+      <c r="A481" s="25"/>
       <c r="E481" s="1" t="s">
         <v>343</v>
       </c>
@@ -19355,7 +19379,7 @@
       <c r="U481" s="2"/>
     </row>
     <row r="482" spans="1:21">
-      <c r="A482" s="24"/>
+      <c r="A482" s="25"/>
       <c r="E482" s="1" t="s">
         <v>343</v>
       </c>
@@ -19391,7 +19415,7 @@
       </c>
     </row>
     <row r="483" spans="1:21">
-      <c r="A483" s="24"/>
+      <c r="A483" s="25"/>
       <c r="E483" s="1" t="s">
         <v>343</v>
       </c>
@@ -19419,7 +19443,7 @@
       <c r="U483" s="2"/>
     </row>
     <row r="484" spans="1:21">
-      <c r="A484" s="24"/>
+      <c r="A484" s="25"/>
       <c r="E484" s="1" t="s">
         <v>343</v>
       </c>
@@ -19445,7 +19469,7 @@
       <c r="U484" s="2"/>
     </row>
     <row r="485" spans="1:21">
-      <c r="A485" s="24"/>
+      <c r="A485" s="25"/>
       <c r="E485" s="1" t="s">
         <v>343</v>
       </c>
@@ -19473,7 +19497,7 @@
       <c r="U485" s="2"/>
     </row>
     <row r="486" spans="1:21">
-      <c r="A486" s="24"/>
+      <c r="A486" s="25"/>
       <c r="E486" s="1" t="s">
         <v>343</v>
       </c>
@@ -19499,7 +19523,7 @@
       <c r="U486" s="2"/>
     </row>
     <row r="487" spans="1:21">
-      <c r="A487" s="24"/>
+      <c r="A487" s="25"/>
       <c r="E487" s="1" t="s">
         <v>343</v>
       </c>
@@ -19530,7 +19554,7 @@
       <c r="R487" s="2"/>
     </row>
     <row r="488" spans="1:21">
-      <c r="A488" s="24"/>
+      <c r="A488" s="25"/>
       <c r="E488" s="1" t="s">
         <v>343</v>
       </c>
@@ -19556,7 +19580,7 @@
       <c r="U488" s="2"/>
     </row>
     <row r="489" spans="1:21">
-      <c r="A489" s="24"/>
+      <c r="A489" s="25"/>
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
       <c r="G489" s="2"/>
@@ -19578,7 +19602,7 @@
       <c r="U489" s="2"/>
     </row>
     <row r="490" spans="1:21">
-      <c r="A490" s="24"/>
+      <c r="A490" s="25"/>
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
       <c r="G490" s="2"/>
@@ -19600,7 +19624,7 @@
       <c r="U490" s="2"/>
     </row>
     <row r="491" spans="1:21">
-      <c r="A491" s="24"/>
+      <c r="A491" s="25"/>
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
       <c r="G491" s="2"/>
@@ -19622,7 +19646,7 @@
       <c r="U491" s="2"/>
     </row>
     <row r="492" spans="1:21">
-      <c r="A492" s="24"/>
+      <c r="A492" s="25"/>
       <c r="E492" s="1" t="s">
         <v>343</v>
       </c>
@@ -19657,7 +19681,7 @@
       </c>
     </row>
     <row r="493" spans="1:21">
-      <c r="A493" s="24"/>
+      <c r="A493" s="25"/>
       <c r="E493" s="1" t="s">
         <v>343</v>
       </c>
@@ -19683,7 +19707,7 @@
       <c r="U493" s="2"/>
     </row>
     <row r="494" spans="1:21">
-      <c r="A494" s="24"/>
+      <c r="A494" s="25"/>
       <c r="E494" s="1" t="s">
         <v>343</v>
       </c>
@@ -19711,7 +19735,7 @@
       <c r="U494" s="2"/>
     </row>
     <row r="495" spans="1:21">
-      <c r="A495" s="24"/>
+      <c r="A495" s="25"/>
       <c r="E495" s="1" t="s">
         <v>343</v>
       </c>
@@ -19739,7 +19763,7 @@
       <c r="U495" s="2"/>
     </row>
     <row r="496" spans="1:21">
-      <c r="A496" s="24"/>
+      <c r="A496" s="25"/>
       <c r="E496" s="1" t="s">
         <v>343</v>
       </c>
@@ -19765,7 +19789,7 @@
       <c r="U496" s="2"/>
     </row>
     <row r="497" spans="1:21">
-      <c r="A497" s="24"/>
+      <c r="A497" s="25"/>
       <c r="E497" s="1" t="s">
         <v>343</v>
       </c>
@@ -19791,7 +19815,7 @@
       <c r="Q497" s="2"/>
     </row>
     <row r="498" spans="1:21">
-      <c r="A498" s="24"/>
+      <c r="A498" s="25"/>
       <c r="E498" s="1" t="s">
         <v>343</v>
       </c>
@@ -19819,7 +19843,7 @@
       <c r="U498" s="2"/>
     </row>
     <row r="499" spans="1:21">
-      <c r="A499" s="24"/>
+      <c r="A499" s="25"/>
       <c r="E499" s="1" t="s">
         <v>343</v>
       </c>
@@ -19847,7 +19871,7 @@
       <c r="U499" s="2"/>
     </row>
     <row r="500" spans="1:21">
-      <c r="A500" s="24"/>
+      <c r="A500" s="25"/>
       <c r="E500" s="1" t="s">
         <v>343</v>
       </c>
@@ -19873,7 +19897,7 @@
       <c r="U500" s="2"/>
     </row>
     <row r="501" spans="1:21">
-      <c r="A501" s="24"/>
+      <c r="A501" s="25"/>
       <c r="E501" s="1" t="s">
         <v>343</v>
       </c>
@@ -19901,7 +19925,7 @@
       <c r="U501" s="2"/>
     </row>
     <row r="502" spans="1:21">
-      <c r="A502" s="24"/>
+      <c r="A502" s="25"/>
       <c r="E502" s="1" t="s">
         <v>343</v>
       </c>
@@ -19924,7 +19948,7 @@
       <c r="R502" s="2"/>
     </row>
     <row r="503" spans="1:21">
-      <c r="A503" s="24"/>
+      <c r="A503" s="25"/>
       <c r="E503" s="1" t="s">
         <v>343</v>
       </c>
@@ -19957,7 +19981,7 @@
       </c>
     </row>
     <row r="504" spans="1:21">
-      <c r="A504" s="24"/>
+      <c r="A504" s="25"/>
       <c r="E504" s="1" t="s">
         <v>343</v>
       </c>
@@ -19990,7 +20014,7 @@
       </c>
     </row>
     <row r="505" spans="1:21">
-      <c r="A505" s="24"/>
+      <c r="A505" s="25"/>
       <c r="E505" s="1" t="s">
         <v>343</v>
       </c>
@@ -20025,7 +20049,7 @@
       </c>
     </row>
     <row r="506" spans="1:21">
-      <c r="A506" s="24"/>
+      <c r="A506" s="25"/>
       <c r="E506" s="1" t="s">
         <v>343</v>
       </c>
@@ -20060,7 +20084,7 @@
       </c>
     </row>
     <row r="507" spans="1:21">
-      <c r="A507" s="24"/>
+      <c r="A507" s="25"/>
       <c r="E507" s="1" t="s">
         <v>343</v>
       </c>
@@ -20097,7 +20121,7 @@
       </c>
     </row>
     <row r="508" spans="1:21">
-      <c r="A508" s="24"/>
+      <c r="A508" s="25"/>
       <c r="E508" s="1" t="s">
         <v>343</v>
       </c>
@@ -20134,7 +20158,7 @@
       </c>
     </row>
     <row r="509" spans="1:21">
-      <c r="A509" s="24"/>
+      <c r="A509" s="25"/>
       <c r="E509" s="1" t="s">
         <v>343</v>
       </c>
@@ -20171,7 +20195,7 @@
       </c>
     </row>
     <row r="510" spans="1:21">
-      <c r="A510" s="24"/>
+      <c r="A510" s="25"/>
       <c r="E510" s="1" t="s">
         <v>343</v>
       </c>
@@ -20201,7 +20225,7 @@
       <c r="U510" s="2"/>
     </row>
     <row r="511" spans="1:21">
-      <c r="A511" s="24"/>
+      <c r="A511" s="25"/>
       <c r="E511" s="1" t="s">
         <v>343</v>
       </c>
@@ -20229,7 +20253,7 @@
       <c r="S511" s="2"/>
     </row>
     <row r="512" spans="1:21">
-      <c r="A512" s="24"/>
+      <c r="A512" s="25"/>
       <c r="E512" s="1" t="s">
         <v>343</v>
       </c>
@@ -20253,7 +20277,7 @@
       <c r="O512" s="2"/>
     </row>
     <row r="513" spans="1:20">
-      <c r="A513" s="24"/>
+      <c r="A513" s="25"/>
       <c r="E513" s="1" t="s">
         <v>343</v>
       </c>
@@ -20282,7 +20306,7 @@
       <c r="T513" s="2"/>
     </row>
     <row r="514" spans="1:20">
-      <c r="A514" s="24"/>
+      <c r="A514" s="25"/>
       <c r="E514" s="1" t="s">
         <v>343</v>
       </c>
@@ -20314,7 +20338,7 @@
       <c r="S514" s="2"/>
     </row>
     <row r="515" spans="1:20">
-      <c r="A515" s="24"/>
+      <c r="A515" s="25"/>
       <c r="E515" s="1" t="s">
         <v>343</v>
       </c>
@@ -20350,7 +20374,7 @@
       </c>
     </row>
     <row r="516" spans="1:20">
-      <c r="A516" s="24"/>
+      <c r="A516" s="25"/>
       <c r="E516" s="1" t="s">
         <v>343</v>
       </c>
@@ -20381,7 +20405,7 @@
       <c r="T516" s="2"/>
     </row>
     <row r="517" spans="1:20">
-      <c r="A517" s="24"/>
+      <c r="A517" s="25"/>
       <c r="E517" s="1" t="s">
         <v>343</v>
       </c>
@@ -20413,7 +20437,7 @@
       <c r="S517" s="2"/>
     </row>
     <row r="518" spans="1:20">
-      <c r="A518" s="24"/>
+      <c r="A518" s="25"/>
       <c r="E518" s="1" t="s">
         <v>343</v>
       </c>
@@ -20438,7 +20462,7 @@
       <c r="R518" s="2"/>
     </row>
     <row r="519" spans="1:20">
-      <c r="A519" s="24"/>
+      <c r="A519" s="25"/>
       <c r="E519" s="1" t="s">
         <v>343</v>
       </c>
@@ -20463,7 +20487,7 @@
       <c r="R519" s="2"/>
     </row>
     <row r="520" spans="1:20">
-      <c r="A520" s="24"/>
+      <c r="A520" s="25"/>
       <c r="E520" s="1" t="s">
         <v>343</v>
       </c>
@@ -20487,7 +20511,7 @@
       </c>
     </row>
     <row r="521" spans="1:20">
-      <c r="A521" s="24"/>
+      <c r="A521" s="25"/>
       <c r="E521" s="1" t="s">
         <v>343</v>
       </c>
@@ -20511,7 +20535,7 @@
       </c>
     </row>
     <row r="522" spans="1:20">
-      <c r="A522" s="24"/>
+      <c r="A522" s="25"/>
       <c r="E522" s="1" t="s">
         <v>343</v>
       </c>
@@ -20535,7 +20559,7 @@
       <c r="Q522" s="2"/>
     </row>
     <row r="523" spans="1:20">
-      <c r="A523" s="24"/>
+      <c r="A523" s="25"/>
       <c r="E523" s="1" t="s">
         <v>343</v>
       </c>
@@ -20566,7 +20590,7 @@
       </c>
     </row>
     <row r="524" spans="1:20">
-      <c r="A524" s="24"/>
+      <c r="A524" s="25"/>
       <c r="E524" s="1" t="s">
         <v>343</v>
       </c>
@@ -20597,7 +20621,7 @@
       </c>
     </row>
     <row r="525" spans="1:20">
-      <c r="A525" s="24"/>
+      <c r="A525" s="25"/>
       <c r="E525" s="1" t="s">
         <v>343</v>
       </c>
@@ -20628,7 +20652,7 @@
       </c>
     </row>
     <row r="526" spans="1:20">
-      <c r="A526" s="24"/>
+      <c r="A526" s="25"/>
       <c r="E526" s="1" t="s">
         <v>343</v>
       </c>
@@ -20706,15 +20730,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BA4F15-3142-994E-BF8B-16093E97474D}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -20786,6 +20810,13 @@
       <c r="B5" t="s">
         <v>1857</v>
       </c>
+      <c r="C5" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D9" si="0">"line that connects "&amp;B5&amp;" and "&amp;C5</f>
+        <v>line that connects distal keel metacarpal IV and anterior proximal facet for the carpometacarpal joint</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
@@ -20794,6 +20825,13 @@
       <c r="B6" t="s">
         <v>1859</v>
       </c>
+      <c r="C6" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>line that connects distal keel metatarsal IV and anterior proximal facet for the tarsometatarsal joint</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -20802,6 +20840,13 @@
       <c r="B7" t="s">
         <v>1858</v>
       </c>
+      <c r="C7" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>line that connects distal keel metapodial IV and anterior proximal facet for the metapodial-carpal/tarsal bone joint</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
@@ -20810,6 +20855,13 @@
       <c r="B8" t="s">
         <v>1860</v>
       </c>
+      <c r="C8" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>line that connects distal keel metapodial and anterior proximal facet for the metapodial-carpal/tarsal bone joint</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
@@ -20818,6 +20870,13 @@
       <c r="B9" t="s">
         <v>1324</v>
       </c>
+      <c r="C9" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>line that connects distal keel metacarpal III and anterior proximal facet for the carpometacarpal joint</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
@@ -20848,7 +20907,7 @@
         <v>1257</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" ref="D12" si="0">"line that connects "&amp;B12&amp;" and "&amp;C12</f>
+        <f t="shared" ref="D12" si="1">"line that connects "&amp;B12&amp;" and "&amp;C12</f>
         <v>line that connects nose tip and anus</v>
       </c>
     </row>
@@ -20863,7 +20922,7 @@
         <v>1260</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" ref="D13:D20" si="1">"line that connects "&amp;B13&amp;" and "&amp;C13</f>
+        <f t="shared" ref="D13:D20" si="2">"line that connects "&amp;B13&amp;" and "&amp;C13</f>
         <v>line that connects helix and intertragic notch</v>
       </c>
     </row>
@@ -20878,7 +20937,7 @@
         <v>1262</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>line that connects helix and tragus</v>
       </c>
     </row>
@@ -20893,7 +20952,7 @@
         <v>1264</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>line that connects anatomical point' and ('part of' some ('distalmost part of' some 'heel')) and anatomical point' and ('part of' some ('distalmost part of' some 'cutaneous appendage'))</v>
       </c>
     </row>
@@ -20908,7 +20967,7 @@
         <v>1265</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>line that connects anatomical point' and ('part of' some ('distalmost part of' some 'heel')) and anatomical point' and ('part of' some ('distalmost part of' some 'phalanx of pes'))</v>
       </c>
     </row>
@@ -20923,7 +20982,7 @@
         <v>1353</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>line that connects trochlea of humerus and ventral tubercle of humerus</v>
       </c>
     </row>
@@ -20938,7 +20997,7 @@
         <v>1352</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>line that connects trochlea of humerus and proximal head of humerus</v>
       </c>
     </row>
@@ -20953,7 +21012,7 @@
         <v>1355</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>line that connects medial condyle of femur and greater trochanter</v>
       </c>
     </row>
@@ -20968,7 +21027,7 @@
         <v>1356</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>line that connects medial condyle of femur and head of femur</v>
       </c>
     </row>
@@ -20987,16 +21046,16 @@
   <dimension ref="A1:D313"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -23125,15 +23184,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C6BB58-E681-9A44-BAE6-1CC6AE173542}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -23411,9 +23470,17 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>1260</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>1266</v>
       </c>
     </row>
@@ -23426,15 +23493,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBC00A8-69BB-C944-AE92-971EEE98B192}">
   <dimension ref="A1:X195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -23682,7 +23749,7 @@
       <c r="F9">
         <v>3</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="24" t="s">
         <v>1381</v>
       </c>
       <c r="X9" t="s">
@@ -23696,7 +23763,7 @@
       <c r="F10">
         <v>4</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="24" t="s">
         <v>1382</v>
       </c>
       <c r="X10" t="s">
@@ -23710,7 +23777,7 @@
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="24" t="s">
         <v>1383</v>
       </c>
       <c r="X11" t="s">
@@ -23914,7 +23981,7 @@
       <c r="I20" t="s">
         <v>1405</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="24" t="s">
         <v>1406</v>
       </c>
       <c r="X20" t="s">
@@ -24465,7 +24532,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="57" spans="3:12" ht="17" customHeight="1">
+    <row r="57" spans="3:12" ht="17.100000000000001" customHeight="1">
       <c r="C57" t="s">
         <v>1366</v>
       </c>
@@ -24482,7 +24549,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="58" spans="3:12" ht="17" customHeight="1">
+    <row r="58" spans="3:12" ht="17.100000000000001" customHeight="1">
       <c r="J58" t="s">
         <v>1462</v>
       </c>
@@ -26410,7 +26477,7 @@
       <c r="F149">
         <v>1</v>
       </c>
-      <c r="J149" s="26" t="s">
+      <c r="J149" s="24" t="s">
         <v>1611</v>
       </c>
       <c r="K149" t="s">
@@ -26593,7 +26660,7 @@
       <c r="F158">
         <v>2</v>
       </c>
-      <c r="J158" s="26" t="s">
+      <c r="J158" s="24" t="s">
         <v>1627</v>
       </c>
       <c r="K158" t="s">
@@ -26856,7 +26923,7 @@
       <c r="F171">
         <v>9</v>
       </c>
-      <c r="J171" s="26" t="s">
+      <c r="J171" s="24" t="s">
         <v>1647</v>
       </c>
     </row>
@@ -26910,7 +26977,7 @@
       <c r="G174" t="s">
         <v>1650</v>
       </c>
-      <c r="J174" s="26" t="s">
+      <c r="J174" s="24" t="s">
         <v>1651</v>
       </c>
       <c r="K174" t="s">
@@ -27056,7 +27123,7 @@
       <c r="I181" t="s">
         <v>1661</v>
       </c>
-      <c r="J181" s="26" t="s">
+      <c r="J181" s="24" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -27158,7 +27225,7 @@
       <c r="E187" t="s">
         <v>1389</v>
       </c>
-      <c r="J187" s="26" t="s">
+      <c r="J187" s="24" t="s">
         <v>1869</v>
       </c>
       <c r="K187" t="s">
@@ -27263,7 +27330,7 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdebasto\Desktop\GitHub\fovt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C93BCA-93A6-429E-AC72-AFD267CBEF4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D721673-4C96-8347-8947-00277A91BAF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -26,21 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4070" uniqueCount="1875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4075" uniqueCount="1879">
   <si>
     <t>Status</t>
   </si>
@@ -5737,6 +5728,18 @@
   </si>
   <si>
     <t>A joint in the wrist and ankle that articulates the distal row of carpal/tarsal bones and the proximal base of the metapodial bones.</t>
+  </si>
+  <si>
+    <t>AP length of tooth</t>
+  </si>
+  <si>
+    <t>occlusal surface of tooth</t>
+  </si>
+  <si>
+    <t>Surface of a tooth that contacts another tooth.</t>
+  </si>
+  <si>
+    <t>occlusal surface of tooth characteristic_of some tooth</t>
   </si>
 </sst>
 </file>
@@ -6236,7 +6239,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -6400,12 +6403,12 @@
   <dimension ref="A1:AD531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A372" sqref="A372:A526"/>
+      <selection pane="bottomLeft" activeCell="A186" sqref="A186:A348"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" t="s">
@@ -10765,7 +10768,7 @@
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="1:21" s="11" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="132" spans="1:21" s="11" customFormat="1" ht="17" customHeight="1">
       <c r="A132" s="25"/>
       <c r="C132" s="10" t="s">
         <v>1030</v>
@@ -20730,15 +20733,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BA4F15-3142-994E-BF8B-16093E97474D}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -21045,17 +21048,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01658F34-4982-8840-AF22-6E6480DB069B}">
   <dimension ref="A1:D313"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.1640625" customWidth="1"/>
+    <col min="4" max="4" width="65.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -23059,6 +23062,17 @@
       <c r="D135" t="str">
         <f t="shared" si="33"/>
         <v>line along anterior-posterior axis of medial condyle of metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B139" t="s">
+        <v>112</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1878</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -23184,15 +23198,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C6BB58-E681-9A44-BAE6-1CC6AE173542}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="45.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -23482,6 +23496,14 @@
       </c>
       <c r="C35" t="s">
         <v>1266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1877</v>
       </c>
     </row>
   </sheetData>
@@ -23494,14 +23516,14 @@
   <dimension ref="A1:X195"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -24532,7 +24554,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="57" spans="3:12" ht="17.100000000000001" customHeight="1">
+    <row r="57" spans="3:12" ht="17" customHeight="1">
       <c r="C57" t="s">
         <v>1366</v>
       </c>
@@ -24549,7 +24571,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="58" spans="3:12" ht="17.100000000000001" customHeight="1">
+    <row r="58" spans="3:12" ht="17" customHeight="1">
       <c r="J58" t="s">
         <v>1462</v>
       </c>
@@ -27330,7 +27352,7 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D721673-4C96-8347-8947-00277A91BAF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9737501-2589-8840-8A5D-97D1C799D5E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" activeTab="4" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4075" uniqueCount="1879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4072" uniqueCount="1877">
   <si>
     <t>Status</t>
   </si>
@@ -5730,16 +5730,10 @@
     <t>A joint in the wrist and ankle that articulates the distal row of carpal/tarsal bones and the proximal base of the metapodial bones.</t>
   </si>
   <si>
-    <t>AP length of tooth</t>
-  </si>
-  <si>
     <t>occlusal surface of tooth</t>
   </si>
   <si>
     <t>Surface of a tooth that contacts another tooth.</t>
-  </si>
-  <si>
-    <t>occlusal surface of tooth characteristic_of some tooth</t>
   </si>
 </sst>
 </file>
@@ -6403,9 +6397,9 @@
   <dimension ref="A1:AD531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A186" sqref="A186:A348"/>
+      <selection pane="bottomLeft" activeCell="F223" sqref="F223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -21048,9 +21042,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01658F34-4982-8840-AF22-6E6480DB069B}">
   <dimension ref="A1:D313"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
+      <selection pane="bottomLeft" activeCell="A139" sqref="A139:C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -23064,17 +23058,6 @@
         <v>line along anterior-posterior axis of medial condyle of metapodial bone of digit 3</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
-        <v>1875</v>
-      </c>
-      <c r="B139" t="s">
-        <v>112</v>
-      </c>
-      <c r="C139" t="s">
-        <v>1878</v>
-      </c>
-    </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>1282</v>
@@ -23200,7 +23183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C6BB58-E681-9A44-BAE6-1CC6AE173542}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -23500,10 +23483,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C38" t="s">
         <v>1876</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1877</v>
       </c>
     </row>
   </sheetData>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\fovt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588E8A14-2000-C248-AD01-B17E41A0CD34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32F9E70-2074-4662-947E-33C863E2CDC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
   <sheets>
     <sheet name="To Dos" sheetId="4" r:id="rId1"/>
@@ -26,12 +26,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3947" uniqueCount="1833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="1841">
   <si>
     <t>Status</t>
   </si>
@@ -5602,6 +5611,30 @@
   </si>
   <si>
     <t>not needed</t>
+  </si>
+  <si>
+    <t>Molar 1 width</t>
+  </si>
+  <si>
+    <t>molar tooth 1</t>
+  </si>
+  <si>
+    <t>Upper molar 1 width</t>
+  </si>
+  <si>
+    <t>Lower molar 1 width</t>
+  </si>
+  <si>
+    <t>Upper secondary molar 1 width</t>
+  </si>
+  <si>
+    <t>Upper primary molar 1 width</t>
+  </si>
+  <si>
+    <t>Lower secondary molar 1 width</t>
+  </si>
+  <si>
+    <t>Lower primary molar 1 width</t>
   </si>
 </sst>
 </file>
@@ -5792,18 +5825,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6125,7 +6158,7 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -6286,19 +6319,19 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="27"/>
+      <c r="A21" s="25"/>
       <c r="B21" t="s">
         <v>1826</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="28"/>
+      <c r="A22" s="26"/>
       <c r="B22" t="s">
         <v>1827</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6309,13 +6342,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A27AA15-0A87-AC4A-A35D-D4FB3D2ACF67}">
   <dimension ref="A1:AD500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" t="s">
@@ -6383,7 +6416,7 @@
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="31" t="s">
         <v>994</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6428,100 +6461,100 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" s="28" customFormat="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="30" t="s">
+    <row r="3" spans="1:30" s="26" customFormat="1">
+      <c r="A3" s="31"/>
+      <c r="B3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="28" t="s">
         <v>978</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="29" t="s">
         <v>1828</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="30" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30" t="s">
+      <c r="J3" s="28"/>
+      <c r="K3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30" t="s">
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-    </row>
-    <row r="4" spans="1:30" s="28" customFormat="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="30" t="s">
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+    </row>
+    <row r="4" spans="1:30" s="26" customFormat="1">
+      <c r="A4" s="31"/>
+      <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>978</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="29" t="s">
         <v>1828</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="30" t="s">
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30" t="s">
+      <c r="J4" s="28"/>
+      <c r="K4" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30" t="s">
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="25"/>
+      <c r="A5" s="31"/>
       <c r="C5" t="s">
         <v>983</v>
       </c>
@@ -6554,7 +6587,7 @@
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:30" s="11" customFormat="1">
-      <c r="A6" s="25"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="10" t="s">
         <v>1830</v>
       </c>
@@ -6590,7 +6623,7 @@
       <c r="U6" s="10"/>
     </row>
     <row r="7" spans="1:30" s="11" customFormat="1">
-      <c r="A7" s="25"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="10" t="s">
         <v>1830</v>
       </c>
@@ -6642,7 +6675,7 @@
       <c r="AD7" s="10"/>
     </row>
     <row r="8" spans="1:30" s="11" customFormat="1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="10" t="s">
         <v>1830</v>
       </c>
@@ -6694,7 +6727,7 @@
       <c r="AD8" s="10"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="31" t="s">
         <v>995</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6740,7 +6773,7 @@
       <c r="AD9" s="2"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="25"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="1" t="s">
         <v>1829</v>
       </c>
@@ -6784,7 +6817,7 @@
       <c r="AD10" s="2"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="25"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="1" t="s">
         <v>1829</v>
       </c>
@@ -6827,96 +6860,96 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" s="28" customFormat="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="30" t="s">
+    <row r="12" spans="1:30" s="26" customFormat="1">
+      <c r="A12" s="31"/>
+      <c r="B12" s="28" t="s">
         <v>1829</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="29" t="s">
         <v>1828</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="30" t="s">
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30" t="s">
+      <c r="J12" s="28"/>
+      <c r="K12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30" t="s">
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-    </row>
-    <row r="13" spans="1:30" s="28" customFormat="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="30" t="s">
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+    </row>
+    <row r="13" spans="1:30" s="26" customFormat="1">
+      <c r="A13" s="31"/>
+      <c r="B13" s="28" t="s">
         <v>1829</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="29" t="s">
         <v>1828</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30" t="s">
+      <c r="G13" s="29"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30" t="s">
+      <c r="J13" s="28"/>
+      <c r="K13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30" t="s">
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
     </row>
     <row r="14" spans="1:30" s="11" customFormat="1">
-      <c r="A14" s="25"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="10" t="s">
         <v>1830</v>
       </c>
@@ -6966,7 +6999,7 @@
       <c r="AD14" s="10"/>
     </row>
     <row r="15" spans="1:30" s="11" customFormat="1">
-      <c r="A15" s="25"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="10" t="s">
         <v>1830</v>
       </c>
@@ -7013,52 +7046,52 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
     </row>
-    <row r="16" spans="1:30" s="28" customFormat="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="30" t="s">
+    <row r="16" spans="1:30" s="26" customFormat="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="28" t="s">
         <v>1829</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="30" t="s">
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30" t="s">
+      <c r="J16" s="28"/>
+      <c r="K16" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30" t="s">
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
     </row>
     <row r="17" spans="1:30" s="11" customFormat="1">
-      <c r="A17" s="25"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="10" t="s">
         <v>1830</v>
       </c>
@@ -7110,7 +7143,7 @@
       <c r="AD17" s="10"/>
     </row>
     <row r="18" spans="1:30" s="11" customFormat="1">
-      <c r="A18" s="25"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="10" t="s">
         <v>1830</v>
       </c>
@@ -7123,7 +7156,7 @@
       </c>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="25"/>
+      <c r="A19" s="31"/>
       <c r="C19" s="1" t="s">
         <v>983</v>
       </c>
@@ -7154,7 +7187,7 @@
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="25"/>
+      <c r="A20" s="31"/>
       <c r="C20" s="1" t="s">
         <v>983</v>
       </c>
@@ -7185,7 +7218,7 @@
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="25"/>
+      <c r="A21" s="31"/>
       <c r="C21" s="1" t="s">
         <v>983</v>
       </c>
@@ -7216,7 +7249,7 @@
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="25"/>
+      <c r="A22" s="31"/>
       <c r="E22" s="1" t="s">
         <v>343</v>
       </c>
@@ -7241,7 +7274,7 @@
       <c r="S22" s="2"/>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="25"/>
+      <c r="A23" s="31"/>
       <c r="E23" s="1" t="s">
         <v>343</v>
       </c>
@@ -7266,7 +7299,7 @@
       <c r="S23" s="2"/>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="31" t="s">
         <v>996</v>
       </c>
       <c r="E24" s="2"/>
@@ -7289,7 +7322,7 @@
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="25"/>
+      <c r="A25" s="31"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="7" t="s">
@@ -7310,7 +7343,7 @@
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="25"/>
+      <c r="A26" s="31"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="7" t="s">
@@ -7331,7 +7364,7 @@
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="25"/>
+      <c r="A27" s="31"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="7" t="s">
@@ -7352,7 +7385,7 @@
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" s="25"/>
+      <c r="A28" s="31"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="7" t="s">
@@ -7373,7 +7406,7 @@
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="25"/>
+      <c r="A29" s="31"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="7" t="s">
@@ -7394,7 +7427,7 @@
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="1:30">
-      <c r="A30" s="25"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="1" t="s">
         <v>1829</v>
       </c>
@@ -7438,7 +7471,7 @@
       <c r="AD30" s="2"/>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="25"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="1" t="s">
         <v>1829</v>
       </c>
@@ -7482,7 +7515,7 @@
       <c r="AD31" s="2"/>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32" s="25"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="1" t="s">
         <v>1829</v>
       </c>
@@ -7525,100 +7558,100 @@
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
     </row>
-    <row r="33" spans="1:30" s="28" customFormat="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="30" t="s">
+    <row r="33" spans="1:30" s="26" customFormat="1">
+      <c r="A33" s="31"/>
+      <c r="B33" s="28" t="s">
         <v>1829</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30" t="s">
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="30" t="s">
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30" t="s">
+      <c r="J33" s="28"/>
+      <c r="K33" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30" t="s">
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30" t="s">
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="31"/>
-      <c r="AD33" s="31"/>
-    </row>
-    <row r="34" spans="1:30" s="28" customFormat="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="30" t="s">
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+    </row>
+    <row r="34" spans="1:30" s="26" customFormat="1">
+      <c r="A34" s="31"/>
+      <c r="B34" s="28" t="s">
         <v>1829</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30" t="s">
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="30" t="s">
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30" t="s">
+      <c r="J34" s="28"/>
+      <c r="K34" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30" t="s">
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30" t="s">
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="31"/>
-      <c r="AD34" s="31"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
     </row>
     <row r="35" spans="1:30" s="11" customFormat="1">
-      <c r="A35" s="25"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="10" t="s">
         <v>1830</v>
       </c>
@@ -7670,7 +7703,7 @@
       <c r="AD35" s="10"/>
     </row>
     <row r="36" spans="1:30" s="11" customFormat="1">
-      <c r="A36" s="25"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="10" t="s">
         <v>1830</v>
       </c>
@@ -7722,7 +7755,7 @@
       <c r="AD36" s="10"/>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="25"/>
+      <c r="A37" s="31"/>
       <c r="E37" s="1" t="s">
         <v>15</v>
       </c>
@@ -7748,7 +7781,7 @@
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="1:30">
-      <c r="A38" s="25"/>
+      <c r="A38" s="31"/>
       <c r="E38" s="1" t="s">
         <v>343</v>
       </c>
@@ -7773,7 +7806,7 @@
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="1:30">
-      <c r="A39" s="25"/>
+      <c r="A39" s="31"/>
       <c r="E39" s="1" t="s">
         <v>343</v>
       </c>
@@ -7798,7 +7831,7 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="1:30">
-      <c r="A40" s="25"/>
+      <c r="A40" s="31"/>
       <c r="E40" s="1" t="s">
         <v>343</v>
       </c>
@@ -7823,7 +7856,7 @@
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="1:30">
-      <c r="A41" s="25"/>
+      <c r="A41" s="31"/>
       <c r="E41" s="1" t="s">
         <v>343</v>
       </c>
@@ -7848,7 +7881,7 @@
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="1:30">
-      <c r="A42" s="25"/>
+      <c r="A42" s="31"/>
       <c r="E42" s="1" t="s">
         <v>343</v>
       </c>
@@ -7872,7 +7905,7 @@
       <c r="S42" s="2"/>
     </row>
     <row r="43" spans="1:30" s="11" customFormat="1">
-      <c r="A43" s="25"/>
+      <c r="A43" s="31"/>
       <c r="C43" s="10" t="s">
         <v>983</v>
       </c>
@@ -7903,7 +7936,7 @@
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:30" s="11" customFormat="1">
-      <c r="A44" s="25"/>
+      <c r="A44" s="31"/>
       <c r="C44" s="10" t="s">
         <v>983</v>
       </c>
@@ -7936,7 +7969,7 @@
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:30" s="11" customFormat="1">
-      <c r="A45" s="25"/>
+      <c r="A45" s="31"/>
       <c r="C45" s="10" t="s">
         <v>983</v>
       </c>
@@ -7969,7 +8002,7 @@
       <c r="U45" s="10"/>
     </row>
     <row r="46" spans="1:30" s="11" customFormat="1">
-      <c r="A46" s="25"/>
+      <c r="A46" s="31"/>
       <c r="C46" s="10" t="s">
         <v>983</v>
       </c>
@@ -8000,7 +8033,7 @@
       <c r="U46" s="10"/>
     </row>
     <row r="47" spans="1:30" s="11" customFormat="1">
-      <c r="A47" s="25"/>
+      <c r="A47" s="31"/>
       <c r="C47" s="10" t="s">
         <v>983</v>
       </c>
@@ -8033,7 +8066,7 @@
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:30" s="11" customFormat="1">
-      <c r="A48" s="25"/>
+      <c r="A48" s="31"/>
       <c r="C48" s="10" t="s">
         <v>983</v>
       </c>
@@ -8064,7 +8097,7 @@
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:30" s="11" customFormat="1">
-      <c r="A49" s="25"/>
+      <c r="A49" s="31"/>
       <c r="C49" s="10" t="s">
         <v>983</v>
       </c>
@@ -8095,7 +8128,7 @@
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:30" s="11" customFormat="1">
-      <c r="A50" s="25"/>
+      <c r="A50" s="31"/>
       <c r="C50" s="10" t="s">
         <v>983</v>
       </c>
@@ -8128,7 +8161,7 @@
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:30" s="11" customFormat="1">
-      <c r="A51" s="25"/>
+      <c r="A51" s="31"/>
       <c r="C51" s="10" t="s">
         <v>983</v>
       </c>
@@ -8161,7 +8194,7 @@
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:30" s="11" customFormat="1">
-      <c r="A52" s="25"/>
+      <c r="A52" s="31"/>
       <c r="C52" s="10" t="s">
         <v>983</v>
       </c>
@@ -8194,7 +8227,7 @@
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:30">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="31" t="s">
         <v>997</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -8240,7 +8273,7 @@
       <c r="AD53" s="2"/>
     </row>
     <row r="54" spans="1:30">
-      <c r="A54" s="25"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="1" t="s">
         <v>1829</v>
       </c>
@@ -8284,7 +8317,7 @@
       <c r="AD54" s="2"/>
     </row>
     <row r="55" spans="1:30">
-      <c r="A55" s="25"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="1" t="s">
         <v>1829</v>
       </c>
@@ -8327,104 +8360,104 @@
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
     </row>
-    <row r="56" spans="1:30" s="28" customFormat="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="30" t="s">
+    <row r="56" spans="1:30" s="26" customFormat="1">
+      <c r="A56" s="31"/>
+      <c r="B56" s="28" t="s">
         <v>1829</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="28" t="s">
         <v>1831</v>
       </c>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30" t="s">
+      <c r="D56" s="28"/>
+      <c r="E56" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="30" t="s">
+      <c r="F56" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="30" t="s">
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30" t="s">
+      <c r="J56" s="28"/>
+      <c r="K56" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30" t="s">
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30" t="s">
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="31"/>
-      <c r="W56" s="31"/>
-      <c r="X56" s="31"/>
-      <c r="Y56" s="31"/>
-      <c r="Z56" s="31"/>
-      <c r="AA56" s="31"/>
-      <c r="AB56" s="31"/>
-      <c r="AC56" s="31"/>
-      <c r="AD56" s="31"/>
-    </row>
-    <row r="57" spans="1:30" s="28" customFormat="1">
-      <c r="A57" s="25"/>
-      <c r="B57" s="30" t="s">
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="29"/>
+      <c r="X56" s="29"/>
+      <c r="Y56" s="29"/>
+      <c r="Z56" s="29"/>
+      <c r="AA56" s="29"/>
+      <c r="AB56" s="29"/>
+      <c r="AC56" s="29"/>
+      <c r="AD56" s="29"/>
+    </row>
+    <row r="57" spans="1:30" s="26" customFormat="1">
+      <c r="A57" s="31"/>
+      <c r="B57" s="28" t="s">
         <v>1829</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="28" t="s">
         <v>1831</v>
       </c>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30" t="s">
+      <c r="D57" s="28"/>
+      <c r="E57" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="30" t="s">
+      <c r="F57" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="30" t="s">
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30" t="s">
+      <c r="J57" s="28"/>
+      <c r="K57" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="L57" s="30"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="30" t="s">
+      <c r="L57" s="28"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30" t="s">
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="31"/>
-      <c r="W57" s="31"/>
-      <c r="X57" s="31"/>
-      <c r="Y57" s="31"/>
-      <c r="Z57" s="31"/>
-      <c r="AA57" s="31"/>
-      <c r="AB57" s="31"/>
-      <c r="AC57" s="31"/>
-      <c r="AD57" s="31"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29"/>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29"/>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="29"/>
+      <c r="Z57" s="29"/>
+      <c r="AA57" s="29"/>
+      <c r="AB57" s="29"/>
+      <c r="AC57" s="29"/>
+      <c r="AD57" s="29"/>
     </row>
     <row r="58" spans="1:30" s="11" customFormat="1">
-      <c r="A58" s="25"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
         <v>983</v>
@@ -8476,7 +8509,7 @@
       <c r="AD58" s="10"/>
     </row>
     <row r="59" spans="1:30" s="11" customFormat="1">
-      <c r="A59" s="25"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10" t="s">
         <v>983</v>
@@ -8528,7 +8561,7 @@
       <c r="AD59" s="10"/>
     </row>
     <row r="60" spans="1:30" s="11" customFormat="1">
-      <c r="A60" s="25"/>
+      <c r="A60" s="31"/>
       <c r="B60" s="9"/>
       <c r="C60" s="10" t="s">
         <v>983</v>
@@ -8554,7 +8587,7 @@
       <c r="U60" s="10"/>
     </row>
     <row r="61" spans="1:30">
-      <c r="A61" s="25"/>
+      <c r="A61" s="31"/>
       <c r="C61" s="17" t="s">
         <v>983</v>
       </c>
@@ -8580,7 +8613,7 @@
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="1:30" s="11" customFormat="1">
-      <c r="A62" s="25"/>
+      <c r="A62" s="31"/>
       <c r="C62" s="10" t="s">
         <v>983</v>
       </c>
@@ -8607,7 +8640,7 @@
       <c r="S62" s="10"/>
     </row>
     <row r="63" spans="1:30" s="11" customFormat="1">
-      <c r="A63" s="25"/>
+      <c r="A63" s="31"/>
       <c r="C63" s="10" t="s">
         <v>983</v>
       </c>
@@ -8634,7 +8667,7 @@
       <c r="S63" s="10"/>
     </row>
     <row r="64" spans="1:30">
-      <c r="A64" s="25"/>
+      <c r="A64" s="31"/>
       <c r="C64" s="17" t="s">
         <v>983</v>
       </c>
@@ -8661,7 +8694,7 @@
       <c r="S64" s="2"/>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="25"/>
+      <c r="A65" s="31"/>
       <c r="C65" s="17" t="s">
         <v>983</v>
       </c>
@@ -8688,7 +8721,7 @@
       <c r="S65" s="2"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="25"/>
+      <c r="A66" s="31"/>
       <c r="C66" s="17" t="s">
         <v>983</v>
       </c>
@@ -8715,7 +8748,7 @@
       <c r="S66" s="2"/>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="25"/>
+      <c r="A67" s="31"/>
       <c r="C67" s="17" t="s">
         <v>983</v>
       </c>
@@ -8741,7 +8774,7 @@
       <c r="R67" s="2"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="25"/>
+      <c r="A68" s="31"/>
       <c r="C68" s="17" t="s">
         <v>983</v>
       </c>
@@ -8768,7 +8801,7 @@
       <c r="S68" s="2"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="25"/>
+      <c r="A69" s="31"/>
       <c r="C69" s="17" t="s">
         <v>983</v>
       </c>
@@ -8797,7 +8830,7 @@
       <c r="P69" s="2"/>
     </row>
     <row r="70" spans="1:21" s="11" customFormat="1">
-      <c r="A70" s="25"/>
+      <c r="A70" s="31"/>
       <c r="C70" s="10" t="s">
         <v>983</v>
       </c>
@@ -8828,7 +8861,7 @@
       <c r="U70" s="10"/>
     </row>
     <row r="71" spans="1:21" s="11" customFormat="1">
-      <c r="A71" s="25"/>
+      <c r="A71" s="31"/>
       <c r="C71" s="10" t="s">
         <v>983</v>
       </c>
@@ -8861,7 +8894,7 @@
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="1:21" s="11" customFormat="1">
-      <c r="A72" s="25"/>
+      <c r="A72" s="31"/>
       <c r="C72" s="10" t="s">
         <v>983</v>
       </c>
@@ -8894,7 +8927,7 @@
       <c r="U72" s="10"/>
     </row>
     <row r="73" spans="1:21" s="11" customFormat="1">
-      <c r="A73" s="25"/>
+      <c r="A73" s="31"/>
       <c r="C73" s="10" t="s">
         <v>983</v>
       </c>
@@ -8927,7 +8960,7 @@
       <c r="U73" s="10"/>
     </row>
     <row r="74" spans="1:21" s="11" customFormat="1">
-      <c r="A74" s="25"/>
+      <c r="A74" s="31"/>
       <c r="C74" s="10" t="s">
         <v>983</v>
       </c>
@@ -8960,7 +8993,7 @@
       <c r="U74" s="10"/>
     </row>
     <row r="75" spans="1:21" s="11" customFormat="1">
-      <c r="A75" s="25"/>
+      <c r="A75" s="31"/>
       <c r="C75" s="10" t="s">
         <v>983</v>
       </c>
@@ -8993,7 +9026,7 @@
       <c r="U75" s="10"/>
     </row>
     <row r="76" spans="1:21" s="11" customFormat="1">
-      <c r="A76" s="25"/>
+      <c r="A76" s="31"/>
       <c r="C76" s="10" t="s">
         <v>983</v>
       </c>
@@ -9024,7 +9057,7 @@
       <c r="U76" s="10"/>
     </row>
     <row r="77" spans="1:21" s="11" customFormat="1">
-      <c r="A77" s="25"/>
+      <c r="A77" s="31"/>
       <c r="C77" s="10" t="s">
         <v>983</v>
       </c>
@@ -9057,7 +9090,7 @@
       <c r="U77" s="10"/>
     </row>
     <row r="78" spans="1:21" s="11" customFormat="1">
-      <c r="A78" s="25"/>
+      <c r="A78" s="31"/>
       <c r="C78" s="10" t="s">
         <v>983</v>
       </c>
@@ -9086,7 +9119,7 @@
       <c r="U78" s="10"/>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="25"/>
+      <c r="A79" s="31"/>
       <c r="C79" s="17" t="s">
         <v>983</v>
       </c>
@@ -9110,7 +9143,7 @@
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="25"/>
+      <c r="A80" s="31"/>
       <c r="C80" s="17" t="s">
         <v>983</v>
       </c>
@@ -9134,7 +9167,7 @@
       <c r="U80" s="2"/>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="25"/>
+      <c r="A81" s="31"/>
       <c r="C81" s="17" t="s">
         <v>983</v>
       </c>
@@ -9158,7 +9191,7 @@
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="25"/>
+      <c r="A82" s="31"/>
       <c r="C82" s="17" t="s">
         <v>983</v>
       </c>
@@ -9182,7 +9215,7 @@
       <c r="U82" s="2"/>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="25"/>
+      <c r="A83" s="31"/>
       <c r="C83" s="17" t="s">
         <v>983</v>
       </c>
@@ -9206,7 +9239,7 @@
       <c r="U83" s="2"/>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="26" t="s">
+      <c r="A84" s="32" t="s">
         <v>998</v>
       </c>
       <c r="B84" t="s">
@@ -9244,7 +9277,7 @@
       <c r="U84" s="2"/>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="26"/>
+      <c r="A85" s="32"/>
       <c r="B85" t="s">
         <v>1832</v>
       </c>
@@ -9280,7 +9313,7 @@
       <c r="U85" s="2"/>
     </row>
     <row r="86" spans="1:21">
-      <c r="A86" s="26"/>
+      <c r="A86" s="32"/>
       <c r="C86" s="17"/>
       <c r="E86" s="3" t="s">
         <v>15</v>
@@ -9313,7 +9346,7 @@
       <c r="U86" s="2"/>
     </row>
     <row r="87" spans="1:21" s="11" customFormat="1">
-      <c r="A87" s="26"/>
+      <c r="A87" s="32"/>
       <c r="C87" s="10"/>
       <c r="E87" s="12" t="s">
         <v>15</v>
@@ -9350,7 +9383,7 @@
       <c r="U87" s="10"/>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="26"/>
+      <c r="A88" s="32"/>
       <c r="C88" s="17" t="s">
         <v>983</v>
       </c>
@@ -9385,7 +9418,7 @@
       <c r="U88" s="2"/>
     </row>
     <row r="89" spans="1:21" s="11" customFormat="1">
-      <c r="A89" s="26"/>
+      <c r="A89" s="32"/>
       <c r="C89" s="10"/>
       <c r="E89" s="12" t="s">
         <v>15</v>
@@ -9424,7 +9457,7 @@
       <c r="U89" s="10"/>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="26"/>
+      <c r="A90" s="32"/>
       <c r="C90" s="17" t="s">
         <v>983</v>
       </c>
@@ -9459,7 +9492,7 @@
       <c r="U90" s="2"/>
     </row>
     <row r="91" spans="1:21" s="11" customFormat="1">
-      <c r="A91" s="26"/>
+      <c r="A91" s="32"/>
       <c r="C91" s="10"/>
       <c r="E91" s="12" t="s">
         <v>15</v>
@@ -9500,7 +9533,7 @@
       <c r="U91" s="10"/>
     </row>
     <row r="92" spans="1:21">
-      <c r="A92" s="26"/>
+      <c r="A92" s="32"/>
       <c r="C92" s="17" t="s">
         <v>983</v>
       </c>
@@ -9535,7 +9568,7 @@
       <c r="U92" s="2"/>
     </row>
     <row r="93" spans="1:21" s="11" customFormat="1">
-      <c r="A93" s="26"/>
+      <c r="A93" s="32"/>
       <c r="C93" s="10"/>
       <c r="E93" s="12" t="s">
         <v>15</v>
@@ -9572,7 +9605,7 @@
       <c r="U93" s="10"/>
     </row>
     <row r="94" spans="1:21">
-      <c r="A94" s="26"/>
+      <c r="A94" s="32"/>
       <c r="C94" s="17" t="s">
         <v>983</v>
       </c>
@@ -9607,7 +9640,7 @@
       <c r="U94" s="2"/>
     </row>
     <row r="95" spans="1:21" s="11" customFormat="1">
-      <c r="A95" s="26"/>
+      <c r="A95" s="32"/>
       <c r="C95" s="10"/>
       <c r="E95" s="12" t="s">
         <v>15</v>
@@ -9644,7 +9677,7 @@
       <c r="U95" s="10"/>
     </row>
     <row r="96" spans="1:21">
-      <c r="A96" s="26"/>
+      <c r="A96" s="32"/>
       <c r="E96" s="3" t="s">
         <v>15</v>
       </c>
@@ -9676,7 +9709,7 @@
       <c r="U96" s="2"/>
     </row>
     <row r="97" spans="1:21">
-      <c r="A97" s="26"/>
+      <c r="A97" s="32"/>
       <c r="E97" s="3" t="s">
         <v>15</v>
       </c>
@@ -9708,7 +9741,7 @@
       <c r="U97" s="2"/>
     </row>
     <row r="98" spans="1:21">
-      <c r="A98" s="26"/>
+      <c r="A98" s="32"/>
       <c r="C98" s="17" t="s">
         <v>983</v>
       </c>
@@ -9743,7 +9776,7 @@
       <c r="U98" s="2"/>
     </row>
     <row r="99" spans="1:21" s="11" customFormat="1">
-      <c r="A99" s="26"/>
+      <c r="A99" s="32"/>
       <c r="C99" s="10"/>
       <c r="E99" s="12" t="s">
         <v>15</v>
@@ -9780,7 +9813,7 @@
       <c r="U99" s="10"/>
     </row>
     <row r="100" spans="1:21">
-      <c r="A100" s="26"/>
+      <c r="A100" s="32"/>
       <c r="C100" s="17" t="s">
         <v>983</v>
       </c>
@@ -9815,7 +9848,7 @@
       <c r="U100" s="2"/>
     </row>
     <row r="101" spans="1:21" s="11" customFormat="1">
-      <c r="A101" s="26"/>
+      <c r="A101" s="32"/>
       <c r="C101" s="10"/>
       <c r="E101" s="12" t="s">
         <v>15</v>
@@ -9854,7 +9887,7 @@
       <c r="U101" s="10"/>
     </row>
     <row r="102" spans="1:21">
-      <c r="A102" s="26"/>
+      <c r="A102" s="32"/>
       <c r="E102" s="3" t="s">
         <v>15</v>
       </c>
@@ -9886,7 +9919,7 @@
       <c r="U102" s="2"/>
     </row>
     <row r="103" spans="1:21">
-      <c r="A103" s="26"/>
+      <c r="A103" s="32"/>
       <c r="C103" s="17" t="s">
         <v>983</v>
       </c>
@@ -9921,7 +9954,7 @@
       <c r="U103" s="2"/>
     </row>
     <row r="104" spans="1:21" s="11" customFormat="1">
-      <c r="A104" s="26"/>
+      <c r="A104" s="32"/>
       <c r="C104" s="10"/>
       <c r="E104" s="12" t="s">
         <v>15</v>
@@ -9960,7 +9993,7 @@
       <c r="U104" s="10"/>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="26"/>
+      <c r="A105" s="32"/>
       <c r="C105" s="17" t="s">
         <v>983</v>
       </c>
@@ -9995,7 +10028,7 @@
       <c r="U105" s="2"/>
     </row>
     <row r="106" spans="1:21" s="11" customFormat="1">
-      <c r="A106" s="26"/>
+      <c r="A106" s="32"/>
       <c r="C106" s="10"/>
       <c r="E106" s="12" t="s">
         <v>15</v>
@@ -10032,7 +10065,7 @@
       <c r="U106" s="10"/>
     </row>
     <row r="107" spans="1:21">
-      <c r="A107" s="26"/>
+      <c r="A107" s="32"/>
       <c r="E107" s="3" t="s">
         <v>15</v>
       </c>
@@ -10064,7 +10097,7 @@
       <c r="U107" s="2"/>
     </row>
     <row r="108" spans="1:21">
-      <c r="A108" s="26"/>
+      <c r="A108" s="32"/>
       <c r="C108" t="s">
         <v>983</v>
       </c>
@@ -10097,7 +10130,7 @@
       <c r="U108" s="2"/>
     </row>
     <row r="109" spans="1:21" s="11" customFormat="1">
-      <c r="A109" s="26"/>
+      <c r="A109" s="32"/>
       <c r="C109" s="10"/>
       <c r="E109" s="12" t="s">
         <v>15</v>
@@ -10136,7 +10169,7 @@
       <c r="U109" s="10"/>
     </row>
     <row r="110" spans="1:21">
-      <c r="A110" s="26"/>
+      <c r="A110" s="32"/>
       <c r="E110" s="3" t="s">
         <v>15</v>
       </c>
@@ -10166,7 +10199,7 @@
       <c r="U110" s="2"/>
     </row>
     <row r="111" spans="1:21">
-      <c r="A111" s="26"/>
+      <c r="A111" s="32"/>
       <c r="C111" t="s">
         <v>983</v>
       </c>
@@ -10199,7 +10232,7 @@
       <c r="U111" s="2"/>
     </row>
     <row r="112" spans="1:21" s="11" customFormat="1">
-      <c r="A112" s="26"/>
+      <c r="A112" s="32"/>
       <c r="C112" s="10"/>
       <c r="E112" s="12" t="s">
         <v>15</v>
@@ -10238,7 +10271,7 @@
       <c r="U112" s="10"/>
     </row>
     <row r="113" spans="1:21">
-      <c r="A113" s="26"/>
+      <c r="A113" s="32"/>
       <c r="C113" t="s">
         <v>983</v>
       </c>
@@ -10273,7 +10306,7 @@
       <c r="U113" s="2"/>
     </row>
     <row r="114" spans="1:21" s="11" customFormat="1">
-      <c r="A114" s="26"/>
+      <c r="A114" s="32"/>
       <c r="C114" s="10"/>
       <c r="E114" s="12" t="s">
         <v>15</v>
@@ -10310,7 +10343,7 @@
       <c r="U114" s="10"/>
     </row>
     <row r="115" spans="1:21">
-      <c r="A115" s="25" t="s">
+      <c r="A115" s="31" t="s">
         <v>1000</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -10336,7 +10369,7 @@
       <c r="S115" s="2"/>
     </row>
     <row r="116" spans="1:21">
-      <c r="A116" s="25"/>
+      <c r="A116" s="31"/>
       <c r="E116" s="1" t="s">
         <v>343</v>
       </c>
@@ -10360,7 +10393,7 @@
       <c r="S116" s="2"/>
     </row>
     <row r="117" spans="1:21">
-      <c r="A117" s="25"/>
+      <c r="A117" s="31"/>
       <c r="E117" s="1" t="s">
         <v>343</v>
       </c>
@@ -10384,7 +10417,7 @@
       <c r="S117" s="2"/>
     </row>
     <row r="118" spans="1:21">
-      <c r="A118" s="25"/>
+      <c r="A118" s="31"/>
       <c r="E118" s="1" t="s">
         <v>343</v>
       </c>
@@ -10408,7 +10441,7 @@
       <c r="S118" s="2"/>
     </row>
     <row r="119" spans="1:21">
-      <c r="A119" s="25"/>
+      <c r="A119" s="31"/>
       <c r="E119" s="1" t="s">
         <v>343</v>
       </c>
@@ -10432,7 +10465,7 @@
       <c r="S119" s="2"/>
     </row>
     <row r="120" spans="1:21" s="11" customFormat="1">
-      <c r="A120" s="25"/>
+      <c r="A120" s="31"/>
       <c r="C120" s="10" t="s">
         <v>983</v>
       </c>
@@ -10457,7 +10490,7 @@
       <c r="U120" s="10"/>
     </row>
     <row r="121" spans="1:21" s="11" customFormat="1">
-      <c r="A121" s="25"/>
+      <c r="A121" s="31"/>
       <c r="C121" s="10" t="s">
         <v>983</v>
       </c>
@@ -10482,7 +10515,7 @@
       <c r="U121" s="10"/>
     </row>
     <row r="122" spans="1:21" s="11" customFormat="1">
-      <c r="A122" s="25"/>
+      <c r="A122" s="31"/>
       <c r="C122" s="10" t="s">
         <v>983</v>
       </c>
@@ -10507,7 +10540,7 @@
       <c r="U122" s="10"/>
     </row>
     <row r="123" spans="1:21" s="11" customFormat="1">
-      <c r="A123" s="25"/>
+      <c r="A123" s="31"/>
       <c r="C123" s="10" t="s">
         <v>983</v>
       </c>
@@ -10532,7 +10565,7 @@
       <c r="U123" s="10"/>
     </row>
     <row r="124" spans="1:21" s="11" customFormat="1">
-      <c r="A124" s="25"/>
+      <c r="A124" s="31"/>
       <c r="C124" s="10" t="s">
         <v>983</v>
       </c>
@@ -10561,7 +10594,7 @@
       <c r="U124" s="10"/>
     </row>
     <row r="125" spans="1:21">
-      <c r="A125" s="25" t="s">
+      <c r="A125" s="31" t="s">
         <v>999</v>
       </c>
       <c r="C125" s="19" t="s">
@@ -10575,7 +10608,7 @@
       </c>
     </row>
     <row r="126" spans="1:21">
-      <c r="A126" s="25"/>
+      <c r="A126" s="31"/>
       <c r="E126" s="1" t="s">
         <v>15</v>
       </c>
@@ -10601,7 +10634,7 @@
       <c r="P126" s="2"/>
     </row>
     <row r="127" spans="1:21">
-      <c r="A127" s="25"/>
+      <c r="A127" s="31"/>
       <c r="E127" s="1" t="s">
         <v>15</v>
       </c>
@@ -10627,7 +10660,7 @@
       <c r="P127" s="2"/>
     </row>
     <row r="128" spans="1:21">
-      <c r="A128" s="25"/>
+      <c r="A128" s="31"/>
       <c r="E128" s="1" t="s">
         <v>15</v>
       </c>
@@ -10650,7 +10683,7 @@
       <c r="O128" s="2"/>
     </row>
     <row r="129" spans="1:21">
-      <c r="A129" s="25"/>
+      <c r="A129" s="31"/>
       <c r="E129" s="1" t="s">
         <v>15</v>
       </c>
@@ -10676,7 +10709,7 @@
       <c r="P129" s="2"/>
     </row>
     <row r="130" spans="1:21" s="11" customFormat="1" ht="17" customHeight="1">
-      <c r="A130" s="25"/>
+      <c r="A130" s="31"/>
       <c r="C130" s="10" t="s">
         <v>983</v>
       </c>
@@ -10709,7 +10742,7 @@
       <c r="U130" s="10"/>
     </row>
     <row r="131" spans="1:21" s="11" customFormat="1">
-      <c r="A131" s="25"/>
+      <c r="A131" s="31"/>
       <c r="C131" s="10" t="s">
         <v>983</v>
       </c>
@@ -10742,7 +10775,7 @@
       <c r="U131" s="10"/>
     </row>
     <row r="132" spans="1:21" s="11" customFormat="1">
-      <c r="A132" s="25"/>
+      <c r="A132" s="31"/>
       <c r="C132" s="10" t="s">
         <v>983</v>
       </c>
@@ -10777,7 +10810,7 @@
       <c r="U132" s="10"/>
     </row>
     <row r="133" spans="1:21">
-      <c r="A133" s="25"/>
+      <c r="A133" s="31"/>
       <c r="C133" s="17" t="s">
         <v>983</v>
       </c>
@@ -10804,7 +10837,7 @@
       <c r="U133" s="2"/>
     </row>
     <row r="134" spans="1:21" s="11" customFormat="1">
-      <c r="A134" s="25"/>
+      <c r="A134" s="31"/>
       <c r="C134" s="10" t="s">
         <v>983</v>
       </c>
@@ -10837,7 +10870,7 @@
       <c r="U134" s="10"/>
     </row>
     <row r="135" spans="1:21" s="11" customFormat="1">
-      <c r="A135" s="25"/>
+      <c r="A135" s="31"/>
       <c r="C135" s="10" t="s">
         <v>983</v>
       </c>
@@ -10872,7 +10905,7 @@
       <c r="U135" s="10"/>
     </row>
     <row r="136" spans="1:21" s="11" customFormat="1">
-      <c r="A136" s="25"/>
+      <c r="A136" s="31"/>
       <c r="C136" s="10" t="s">
         <v>983</v>
       </c>
@@ -10905,7 +10938,7 @@
       <c r="U136" s="10"/>
     </row>
     <row r="137" spans="1:21" s="11" customFormat="1">
-      <c r="A137" s="25"/>
+      <c r="A137" s="31"/>
       <c r="C137" s="10" t="s">
         <v>983</v>
       </c>
@@ -10936,7 +10969,7 @@
       <c r="U137" s="10"/>
     </row>
     <row r="138" spans="1:21" s="11" customFormat="1">
-      <c r="A138" s="25"/>
+      <c r="A138" s="31"/>
       <c r="C138" s="10" t="s">
         <v>983</v>
       </c>
@@ -10969,7 +11002,7 @@
       <c r="U138" s="10"/>
     </row>
     <row r="139" spans="1:21" s="11" customFormat="1">
-      <c r="A139" s="25"/>
+      <c r="A139" s="31"/>
       <c r="C139" s="10" t="s">
         <v>983</v>
       </c>
@@ -11000,7 +11033,7 @@
       <c r="U139" s="10"/>
     </row>
     <row r="140" spans="1:21" s="11" customFormat="1">
-      <c r="A140" s="25"/>
+      <c r="A140" s="31"/>
       <c r="C140" s="10" t="s">
         <v>983</v>
       </c>
@@ -11031,7 +11064,7 @@
       <c r="U140" s="10"/>
     </row>
     <row r="141" spans="1:21" s="11" customFormat="1">
-      <c r="A141" s="25"/>
+      <c r="A141" s="31"/>
       <c r="E141" s="9" t="s">
         <v>15</v>
       </c>
@@ -11057,7 +11090,7 @@
       <c r="P141" s="10"/>
     </row>
     <row r="142" spans="1:21">
-      <c r="A142" s="25"/>
+      <c r="A142" s="31"/>
       <c r="E142" s="1" t="s">
         <v>343</v>
       </c>
@@ -11080,7 +11113,7 @@
       <c r="S142" s="2"/>
     </row>
     <row r="143" spans="1:21">
-      <c r="A143" s="25"/>
+      <c r="A143" s="31"/>
       <c r="E143" s="1" t="s">
         <v>343</v>
       </c>
@@ -11104,7 +11137,7 @@
       <c r="T143" s="2"/>
     </row>
     <row r="144" spans="1:21" s="11" customFormat="1">
-      <c r="A144" s="25"/>
+      <c r="A144" s="31"/>
       <c r="E144" s="9" t="s">
         <v>15</v>
       </c>
@@ -11130,7 +11163,7 @@
       <c r="P144" s="10"/>
     </row>
     <row r="145" spans="1:20">
-      <c r="A145" s="25"/>
+      <c r="A145" s="31"/>
       <c r="E145" s="1" t="s">
         <v>343</v>
       </c>
@@ -11154,7 +11187,7 @@
       <c r="T145" s="2"/>
     </row>
     <row r="146" spans="1:20" s="11" customFormat="1">
-      <c r="A146" s="25" t="s">
+      <c r="A146" s="31" t="s">
         <v>1001</v>
       </c>
       <c r="E146" s="9" t="s">
@@ -11179,7 +11212,7 @@
       <c r="S146" s="10"/>
     </row>
     <row r="147" spans="1:20" s="11" customFormat="1">
-      <c r="A147" s="25"/>
+      <c r="A147" s="31"/>
       <c r="E147" s="9" t="s">
         <v>343</v>
       </c>
@@ -11202,7 +11235,7 @@
       <c r="S147" s="10"/>
     </row>
     <row r="148" spans="1:20" s="11" customFormat="1">
-      <c r="A148" s="25"/>
+      <c r="A148" s="31"/>
       <c r="E148" s="9" t="s">
         <v>343</v>
       </c>
@@ -11225,7 +11258,7 @@
       <c r="S148" s="10"/>
     </row>
     <row r="149" spans="1:20">
-      <c r="A149" s="25"/>
+      <c r="A149" s="31"/>
       <c r="E149" s="1" t="s">
         <v>343</v>
       </c>
@@ -11248,7 +11281,7 @@
       <c r="S149" s="2"/>
     </row>
     <row r="150" spans="1:20">
-      <c r="A150" s="25"/>
+      <c r="A150" s="31"/>
       <c r="E150" s="1" t="s">
         <v>15</v>
       </c>
@@ -11274,7 +11307,7 @@
       <c r="P150" s="2"/>
     </row>
     <row r="151" spans="1:20">
-      <c r="A151" s="25"/>
+      <c r="A151" s="31"/>
       <c r="E151" s="1" t="s">
         <v>343</v>
       </c>
@@ -11297,7 +11330,7 @@
       <c r="S151" s="2"/>
     </row>
     <row r="152" spans="1:20">
-      <c r="A152" s="25"/>
+      <c r="A152" s="31"/>
       <c r="E152" s="1" t="s">
         <v>343</v>
       </c>
@@ -11319,7 +11352,7 @@
       <c r="R152" s="2"/>
     </row>
     <row r="153" spans="1:20">
-      <c r="A153" s="25"/>
+      <c r="A153" s="31"/>
       <c r="E153" s="1" t="s">
         <v>343</v>
       </c>
@@ -11341,7 +11374,7 @@
       <c r="R153" s="2"/>
     </row>
     <row r="154" spans="1:20">
-      <c r="A154" s="25"/>
+      <c r="A154" s="31"/>
       <c r="E154" s="1" t="s">
         <v>343</v>
       </c>
@@ -11364,7 +11397,7 @@
       <c r="S154" s="2"/>
     </row>
     <row r="155" spans="1:20" s="11" customFormat="1">
-      <c r="A155" s="25"/>
+      <c r="A155" s="31"/>
       <c r="E155" s="9" t="s">
         <v>343</v>
       </c>
@@ -11387,7 +11420,7 @@
       <c r="S155" s="10"/>
     </row>
     <row r="156" spans="1:20" s="11" customFormat="1">
-      <c r="A156" s="25"/>
+      <c r="A156" s="31"/>
       <c r="E156" s="9" t="s">
         <v>343</v>
       </c>
@@ -11410,7 +11443,7 @@
       <c r="S156" s="10"/>
     </row>
     <row r="157" spans="1:20" s="11" customFormat="1">
-      <c r="A157" s="25"/>
+      <c r="A157" s="31"/>
       <c r="E157" s="9" t="s">
         <v>343</v>
       </c>
@@ -11433,7 +11466,7 @@
       <c r="S157" s="10"/>
     </row>
     <row r="158" spans="1:20" s="11" customFormat="1">
-      <c r="A158" s="25"/>
+      <c r="A158" s="31"/>
       <c r="E158" s="9" t="s">
         <v>343</v>
       </c>
@@ -11456,7 +11489,7 @@
       <c r="S158" s="10"/>
     </row>
     <row r="159" spans="1:20">
-      <c r="A159" s="25"/>
+      <c r="A159" s="31"/>
       <c r="E159" s="1" t="s">
         <v>343</v>
       </c>
@@ -11479,7 +11512,7 @@
       <c r="S159" s="2"/>
     </row>
     <row r="160" spans="1:20">
-      <c r="A160" s="25"/>
+      <c r="A160" s="31"/>
       <c r="E160" s="1" t="s">
         <v>343</v>
       </c>
@@ -11501,7 +11534,7 @@
       <c r="R160" s="2"/>
     </row>
     <row r="161" spans="1:30">
-      <c r="A161" s="25"/>
+      <c r="A161" s="31"/>
       <c r="E161" s="1" t="s">
         <v>343</v>
       </c>
@@ -11523,7 +11556,7 @@
       <c r="R161" s="2"/>
     </row>
     <row r="162" spans="1:30">
-      <c r="A162" s="25"/>
+      <c r="A162" s="31"/>
       <c r="E162" s="1" t="s">
         <v>343</v>
       </c>
@@ -11546,7 +11579,7 @@
       <c r="S162" s="2"/>
     </row>
     <row r="163" spans="1:30">
-      <c r="A163" s="25"/>
+      <c r="A163" s="31"/>
       <c r="E163" s="1" t="s">
         <v>343</v>
       </c>
@@ -11569,7 +11602,7 @@
       <c r="S163" s="2"/>
     </row>
     <row r="164" spans="1:30">
-      <c r="A164" s="25"/>
+      <c r="A164" s="31"/>
       <c r="E164" s="1" t="s">
         <v>343</v>
       </c>
@@ -11592,7 +11625,7 @@
       <c r="S164" s="2"/>
     </row>
     <row r="165" spans="1:30">
-      <c r="A165" s="25"/>
+      <c r="A165" s="31"/>
       <c r="E165" s="1" t="s">
         <v>343</v>
       </c>
@@ -11615,7 +11648,7 @@
       <c r="S165" s="2"/>
     </row>
     <row r="166" spans="1:30">
-      <c r="A166" s="25"/>
+      <c r="A166" s="31"/>
       <c r="E166" s="1" t="s">
         <v>343</v>
       </c>
@@ -11639,7 +11672,7 @@
       <c r="T166" s="2"/>
     </row>
     <row r="167" spans="1:30">
-      <c r="A167" s="25"/>
+      <c r="A167" s="31"/>
       <c r="E167" s="1" t="s">
         <v>343</v>
       </c>
@@ -11661,7 +11694,7 @@
       <c r="R167" s="2"/>
     </row>
     <row r="168" spans="1:30">
-      <c r="A168" s="25"/>
+      <c r="A168" s="31"/>
       <c r="E168" s="1" t="s">
         <v>343</v>
       </c>
@@ -11683,7 +11716,7 @@
       <c r="R168" s="2"/>
     </row>
     <row r="169" spans="1:30">
-      <c r="A169" s="25"/>
+      <c r="A169" s="31"/>
       <c r="E169" s="1" t="s">
         <v>343</v>
       </c>
@@ -11706,7 +11739,7 @@
       <c r="S169" s="2"/>
     </row>
     <row r="170" spans="1:30">
-      <c r="A170" s="25"/>
+      <c r="A170" s="31"/>
       <c r="E170" s="1" t="s">
         <v>343</v>
       </c>
@@ -11729,7 +11762,7 @@
       <c r="S170" s="2"/>
     </row>
     <row r="171" spans="1:30">
-      <c r="A171" s="25"/>
+      <c r="A171" s="31"/>
       <c r="E171" s="1" t="s">
         <v>343</v>
       </c>
@@ -11752,7 +11785,7 @@
       <c r="S171" s="2"/>
     </row>
     <row r="172" spans="1:30">
-      <c r="A172" s="25"/>
+      <c r="A172" s="31"/>
       <c r="E172" s="1" t="s">
         <v>343</v>
       </c>
@@ -11775,7 +11808,7 @@
       <c r="S172" s="2"/>
     </row>
     <row r="173" spans="1:30">
-      <c r="A173" s="25"/>
+      <c r="A173" s="31"/>
       <c r="E173" s="1" t="s">
         <v>343</v>
       </c>
@@ -11799,7 +11832,7 @@
       <c r="T173" s="2"/>
     </row>
     <row r="174" spans="1:30">
-      <c r="A174" s="25"/>
+      <c r="A174" s="31"/>
       <c r="E174" s="1" t="s">
         <v>343</v>
       </c>
@@ -11821,7 +11854,7 @@
       <c r="R174" s="2"/>
     </row>
     <row r="175" spans="1:30">
-      <c r="A175" s="25"/>
+      <c r="A175" s="31"/>
       <c r="E175" s="1" t="s">
         <v>343</v>
       </c>
@@ -11843,7 +11876,7 @@
       <c r="R175" s="2"/>
     </row>
     <row r="176" spans="1:30">
-      <c r="A176" s="25" t="s">
+      <c r="A176" s="31" t="s">
         <v>1002</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -11891,7 +11924,7 @@
       <c r="AD176" s="2"/>
     </row>
     <row r="177" spans="1:30">
-      <c r="A177" s="25"/>
+      <c r="A177" s="31"/>
       <c r="B177" s="1" t="s">
         <v>1829</v>
       </c>
@@ -11934,7 +11967,7 @@
       <c r="AA177" s="2"/>
     </row>
     <row r="178" spans="1:30">
-      <c r="A178" s="25"/>
+      <c r="A178" s="31"/>
       <c r="B178" s="1" t="s">
         <v>1829</v>
       </c>
@@ -11980,7 +12013,7 @@
       <c r="AD178" s="2"/>
     </row>
     <row r="179" spans="1:30">
-      <c r="A179" s="25"/>
+      <c r="A179" s="31"/>
       <c r="B179" s="1" t="s">
         <v>1829</v>
       </c>
@@ -12028,7 +12061,7 @@
       <c r="AD179" s="2"/>
     </row>
     <row r="180" spans="1:30">
-      <c r="A180" s="25"/>
+      <c r="A180" s="31"/>
       <c r="B180" s="1" t="s">
         <v>1829</v>
       </c>
@@ -12076,7 +12109,7 @@
       <c r="AD180" s="2"/>
     </row>
     <row r="181" spans="1:30">
-      <c r="A181" s="25"/>
+      <c r="A181" s="31"/>
       <c r="E181" s="1" t="s">
         <v>343</v>
       </c>
@@ -12100,7 +12133,7 @@
       <c r="O181" s="2"/>
     </row>
     <row r="182" spans="1:30">
-      <c r="A182" s="25"/>
+      <c r="A182" s="31"/>
       <c r="E182" s="1" t="s">
         <v>343</v>
       </c>
@@ -12124,7 +12157,7 @@
       <c r="O182" s="2"/>
     </row>
     <row r="183" spans="1:30">
-      <c r="A183" s="25"/>
+      <c r="A183" s="31"/>
       <c r="E183" s="1" t="s">
         <v>343</v>
       </c>
@@ -12152,7 +12185,7 @@
       <c r="O183" s="2"/>
     </row>
     <row r="184" spans="1:30">
-      <c r="A184" s="25"/>
+      <c r="A184" s="31"/>
       <c r="E184" s="1" t="s">
         <v>343</v>
       </c>
@@ -12180,7 +12213,7 @@
       <c r="O184" s="2"/>
     </row>
     <row r="185" spans="1:30">
-      <c r="A185" s="25"/>
+      <c r="A185" s="31"/>
       <c r="E185" s="1" t="s">
         <v>343</v>
       </c>
@@ -12205,7 +12238,7 @@
       <c r="N185" s="2"/>
     </row>
     <row r="186" spans="1:30">
-      <c r="A186" s="25"/>
+      <c r="A186" s="31"/>
       <c r="E186" s="1" t="s">
         <v>343</v>
       </c>
@@ -12230,7 +12263,7 @@
       <c r="N186" s="2"/>
     </row>
     <row r="187" spans="1:30" s="11" customFormat="1">
-      <c r="A187" s="25"/>
+      <c r="A187" s="31"/>
       <c r="C187" s="10" t="s">
         <v>983</v>
       </c>
@@ -12269,7 +12302,7 @@
       <c r="U187" s="10"/>
     </row>
     <row r="188" spans="1:30" s="11" customFormat="1">
-      <c r="A188" s="25"/>
+      <c r="A188" s="31"/>
       <c r="C188" s="10" t="s">
         <v>983</v>
       </c>
@@ -12308,7 +12341,7 @@
       <c r="U188" s="10"/>
     </row>
     <row r="189" spans="1:30" s="11" customFormat="1">
-      <c r="A189" s="25"/>
+      <c r="A189" s="31"/>
       <c r="C189" s="10" t="s">
         <v>983</v>
       </c>
@@ -12347,7 +12380,7 @@
       <c r="U189" s="10"/>
     </row>
     <row r="190" spans="1:30" s="11" customFormat="1">
-      <c r="A190" s="25"/>
+      <c r="A190" s="31"/>
       <c r="C190" s="10" t="s">
         <v>983</v>
       </c>
@@ -12386,7 +12419,7 @@
       <c r="U190" s="10"/>
     </row>
     <row r="191" spans="1:30" s="11" customFormat="1">
-      <c r="A191" s="25"/>
+      <c r="A191" s="31"/>
       <c r="C191" s="10" t="s">
         <v>983</v>
       </c>
@@ -12425,7 +12458,7 @@
       <c r="U191" s="10"/>
     </row>
     <row r="192" spans="1:30" s="11" customFormat="1">
-      <c r="A192" s="25"/>
+      <c r="A192" s="31"/>
       <c r="C192" s="10" t="s">
         <v>983</v>
       </c>
@@ -12464,7 +12497,7 @@
       <c r="U192" s="10"/>
     </row>
     <row r="193" spans="1:30" s="11" customFormat="1">
-      <c r="A193" s="25"/>
+      <c r="A193" s="31"/>
       <c r="C193" s="10" t="s">
         <v>983</v>
       </c>
@@ -12503,7 +12536,7 @@
       <c r="U193" s="10"/>
     </row>
     <row r="194" spans="1:30" s="11" customFormat="1">
-      <c r="A194" s="25"/>
+      <c r="A194" s="31"/>
       <c r="C194" s="10" t="s">
         <v>983</v>
       </c>
@@ -12542,7 +12575,7 @@
       <c r="U194" s="10"/>
     </row>
     <row r="195" spans="1:30" s="11" customFormat="1">
-      <c r="A195" s="25"/>
+      <c r="A195" s="31"/>
       <c r="C195" s="10" t="s">
         <v>983</v>
       </c>
@@ -12581,7 +12614,7 @@
       <c r="U195" s="10"/>
     </row>
     <row r="196" spans="1:30" s="11" customFormat="1">
-      <c r="A196" s="25"/>
+      <c r="A196" s="31"/>
       <c r="C196" s="10" t="s">
         <v>983</v>
       </c>
@@ -12620,7 +12653,7 @@
       <c r="U196" s="10"/>
     </row>
     <row r="197" spans="1:30" s="11" customFormat="1">
-      <c r="A197" s="25"/>
+      <c r="A197" s="31"/>
       <c r="C197" s="10" t="s">
         <v>983</v>
       </c>
@@ -12659,7 +12692,7 @@
       <c r="U197" s="10"/>
     </row>
     <row r="198" spans="1:30" s="11" customFormat="1">
-      <c r="A198" s="25"/>
+      <c r="A198" s="31"/>
       <c r="C198" s="10" t="s">
         <v>983</v>
       </c>
@@ -12698,7 +12731,7 @@
       <c r="U198" s="10"/>
     </row>
     <row r="199" spans="1:30">
-      <c r="A199" s="25"/>
+      <c r="A199" s="31"/>
       <c r="B199" s="1" t="s">
         <v>1829</v>
       </c>
@@ -12746,7 +12779,7 @@
       <c r="AD199" s="2"/>
     </row>
     <row r="200" spans="1:30">
-      <c r="A200" s="25"/>
+      <c r="A200" s="31"/>
       <c r="B200" s="1" t="s">
         <v>1829</v>
       </c>
@@ -12792,7 +12825,7 @@
       <c r="AD200" s="2"/>
     </row>
     <row r="201" spans="1:30">
-      <c r="A201" s="25"/>
+      <c r="A201" s="31"/>
       <c r="B201" s="1" t="s">
         <v>1829</v>
       </c>
@@ -12838,7 +12871,7 @@
       <c r="AD201" s="2"/>
     </row>
     <row r="202" spans="1:30" s="11" customFormat="1">
-      <c r="A202" s="25"/>
+      <c r="A202" s="31"/>
       <c r="C202" s="10" t="s">
         <v>983</v>
       </c>
@@ -12877,7 +12910,7 @@
       <c r="U202" s="10"/>
     </row>
     <row r="203" spans="1:30" s="11" customFormat="1">
-      <c r="A203" s="25"/>
+      <c r="A203" s="31"/>
       <c r="C203" s="10" t="s">
         <v>983</v>
       </c>
@@ -12916,7 +12949,7 @@
       <c r="U203" s="10"/>
     </row>
     <row r="204" spans="1:30" s="11" customFormat="1">
-      <c r="A204" s="25"/>
+      <c r="A204" s="31"/>
       <c r="C204" s="10" t="s">
         <v>983</v>
       </c>
@@ -12955,7 +12988,7 @@
       <c r="U204" s="10"/>
     </row>
     <row r="205" spans="1:30" s="11" customFormat="1">
-      <c r="A205" s="25"/>
+      <c r="A205" s="31"/>
       <c r="C205" s="10" t="s">
         <v>983</v>
       </c>
@@ -12994,7 +13027,7 @@
       <c r="U205" s="10"/>
     </row>
     <row r="206" spans="1:30" s="11" customFormat="1">
-      <c r="A206" s="25"/>
+      <c r="A206" s="31"/>
       <c r="C206" s="10" t="s">
         <v>983</v>
       </c>
@@ -13021,7 +13054,7 @@
       <c r="Q206" s="10"/>
     </row>
     <row r="207" spans="1:30" s="11" customFormat="1">
-      <c r="A207" s="25"/>
+      <c r="A207" s="31"/>
       <c r="C207" s="10" t="s">
         <v>983</v>
       </c>
@@ -13048,7 +13081,7 @@
       <c r="Q207" s="10"/>
     </row>
     <row r="208" spans="1:30" s="11" customFormat="1">
-      <c r="A208" s="25"/>
+      <c r="A208" s="31"/>
       <c r="C208" s="10" t="s">
         <v>983</v>
       </c>
@@ -13087,7 +13120,7 @@
       <c r="U208" s="10"/>
     </row>
     <row r="209" spans="1:21" s="11" customFormat="1">
-      <c r="A209" s="25"/>
+      <c r="A209" s="31"/>
       <c r="C209" s="10" t="s">
         <v>983</v>
       </c>
@@ -13126,7 +13159,7 @@
       <c r="U209" s="10"/>
     </row>
     <row r="210" spans="1:21" s="11" customFormat="1">
-      <c r="A210" s="25"/>
+      <c r="A210" s="31"/>
       <c r="C210" s="10" t="s">
         <v>983</v>
       </c>
@@ -13165,7 +13198,7 @@
       <c r="U210" s="10"/>
     </row>
     <row r="211" spans="1:21" s="11" customFormat="1">
-      <c r="A211" s="25"/>
+      <c r="A211" s="31"/>
       <c r="C211" s="10" t="s">
         <v>983</v>
       </c>
@@ -13204,7 +13237,7 @@
       <c r="U211" s="10"/>
     </row>
     <row r="212" spans="1:21">
-      <c r="A212" s="25"/>
+      <c r="A212" s="31"/>
       <c r="C212" s="17" t="s">
         <v>983</v>
       </c>
@@ -13237,7 +13270,7 @@
       <c r="U212" s="2"/>
     </row>
     <row r="213" spans="1:21" s="16" customFormat="1">
-      <c r="A213" s="25"/>
+      <c r="A213" s="31"/>
       <c r="C213" s="17"/>
       <c r="E213" s="18" t="s">
         <v>343</v>
@@ -13270,11 +13303,11 @@
       <c r="U213" s="17"/>
     </row>
     <row r="214" spans="1:21" s="16" customFormat="1">
-      <c r="A214" s="25"/>
+      <c r="A214" s="31"/>
       <c r="C214" s="17" t="s">
         <v>983</v>
       </c>
-      <c r="E214" s="32" t="s">
+      <c r="E214" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F214" s="17" t="s">
@@ -13303,7 +13336,7 @@
       <c r="U214" s="17"/>
     </row>
     <row r="215" spans="1:21" s="16" customFormat="1">
-      <c r="A215" s="25"/>
+      <c r="A215" s="31"/>
       <c r="C215" s="17"/>
       <c r="E215" s="18" t="s">
         <v>343</v>
@@ -13336,7 +13369,7 @@
       <c r="U215" s="17"/>
     </row>
     <row r="216" spans="1:21" s="16" customFormat="1">
-      <c r="A216" s="25"/>
+      <c r="A216" s="31"/>
       <c r="C216" s="17" t="s">
         <v>983</v>
       </c>
@@ -13364,7 +13397,7 @@
       <c r="P216" s="17"/>
     </row>
     <row r="217" spans="1:21" s="16" customFormat="1">
-      <c r="A217" s="25"/>
+      <c r="A217" s="31"/>
       <c r="C217" s="17" t="s">
         <v>983</v>
       </c>
@@ -13392,7 +13425,7 @@
       <c r="P217" s="17"/>
     </row>
     <row r="218" spans="1:21" s="16" customFormat="1">
-      <c r="A218" s="25"/>
+      <c r="A218" s="31"/>
       <c r="C218" s="17" t="s">
         <v>983</v>
       </c>
@@ -13420,7 +13453,7 @@
       <c r="P218" s="17"/>
     </row>
     <row r="219" spans="1:21" s="16" customFormat="1">
-      <c r="A219" s="25"/>
+      <c r="A219" s="31"/>
       <c r="C219" s="17" t="s">
         <v>983</v>
       </c>
@@ -13448,7 +13481,7 @@
       <c r="P219" s="17"/>
     </row>
     <row r="220" spans="1:21" s="16" customFormat="1">
-      <c r="A220" s="25"/>
+      <c r="A220" s="31"/>
       <c r="C220" s="17" t="s">
         <v>983</v>
       </c>
@@ -13476,7 +13509,7 @@
       <c r="P220" s="17"/>
     </row>
     <row r="221" spans="1:21" s="16" customFormat="1">
-      <c r="A221" s="25"/>
+      <c r="A221" s="31"/>
       <c r="C221" s="17" t="s">
         <v>983</v>
       </c>
@@ -13503,8 +13536,8 @@
       <c r="O221" s="17"/>
       <c r="P221" s="17"/>
     </row>
-    <row r="222" spans="1:21" s="16" customFormat="1" ht="19" customHeight="1">
-      <c r="A222" s="25"/>
+    <row r="222" spans="1:21" s="16" customFormat="1" ht="19.05" customHeight="1">
+      <c r="A222" s="31"/>
       <c r="C222" s="17" t="s">
         <v>983</v>
       </c>
@@ -13532,7 +13565,7 @@
       <c r="P222" s="17"/>
     </row>
     <row r="223" spans="1:21" s="16" customFormat="1">
-      <c r="A223" s="25"/>
+      <c r="A223" s="31"/>
       <c r="C223" s="17" t="s">
         <v>983</v>
       </c>
@@ -13560,7 +13593,7 @@
       <c r="P223" s="17"/>
     </row>
     <row r="224" spans="1:21" s="16" customFormat="1">
-      <c r="A224" s="25"/>
+      <c r="A224" s="31"/>
       <c r="C224" s="17" t="s">
         <v>983</v>
       </c>
@@ -13595,7 +13628,7 @@
       <c r="U224" s="17"/>
     </row>
     <row r="225" spans="1:21" s="16" customFormat="1">
-      <c r="A225" s="25"/>
+      <c r="A225" s="31"/>
       <c r="C225" s="17" t="s">
         <v>983</v>
       </c>
@@ -13630,13 +13663,13 @@
       <c r="U225" s="17"/>
     </row>
     <row r="226" spans="1:21">
-      <c r="A226" s="25"/>
+      <c r="A226" s="31"/>
       <c r="H226" s="7" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="227" spans="1:21">
-      <c r="A227" s="25"/>
+      <c r="A227" s="31"/>
       <c r="E227" s="1" t="s">
         <v>343</v>
       </c>
@@ -13666,7 +13699,7 @@
       <c r="U227" s="2"/>
     </row>
     <row r="228" spans="1:21">
-      <c r="A228" s="25"/>
+      <c r="A228" s="31"/>
       <c r="E228" s="1" t="s">
         <v>343</v>
       </c>
@@ -13694,7 +13727,7 @@
       <c r="U228" s="2"/>
     </row>
     <row r="229" spans="1:21">
-      <c r="A229" s="25"/>
+      <c r="A229" s="31"/>
       <c r="E229" s="1" t="s">
         <v>343</v>
       </c>
@@ -13720,7 +13753,7 @@
       <c r="S229" s="2"/>
     </row>
     <row r="230" spans="1:21">
-      <c r="A230" s="25"/>
+      <c r="A230" s="31"/>
       <c r="E230" s="1" t="s">
         <v>343</v>
       </c>
@@ -13747,7 +13780,7 @@
       <c r="T230" s="2"/>
     </row>
     <row r="231" spans="1:21">
-      <c r="A231" s="25"/>
+      <c r="A231" s="31"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
@@ -13770,7 +13803,7 @@
       <c r="T231" s="2"/>
     </row>
     <row r="232" spans="1:21">
-      <c r="A232" s="25"/>
+      <c r="A232" s="31"/>
       <c r="E232" s="1" t="s">
         <v>343</v>
       </c>
@@ -13795,7 +13828,7 @@
       <c r="R232" s="2"/>
     </row>
     <row r="233" spans="1:21">
-      <c r="A233" s="25"/>
+      <c r="A233" s="31"/>
       <c r="E233" s="1" t="s">
         <v>343</v>
       </c>
@@ -13820,13 +13853,13 @@
       <c r="R233" s="2"/>
     </row>
     <row r="234" spans="1:21">
-      <c r="A234" s="25"/>
+      <c r="A234" s="31"/>
       <c r="H234" s="7" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="235" spans="1:21">
-      <c r="A235" s="25"/>
+      <c r="A235" s="31"/>
       <c r="E235" s="1" t="s">
         <v>343</v>
       </c>
@@ -13851,7 +13884,7 @@
       <c r="P235" s="2"/>
     </row>
     <row r="236" spans="1:21">
-      <c r="A236" s="25"/>
+      <c r="A236" s="31"/>
       <c r="E236" s="1" t="s">
         <v>343</v>
       </c>
@@ -13873,7 +13906,7 @@
       <c r="P236" s="2"/>
     </row>
     <row r="237" spans="1:21">
-      <c r="A237" s="25"/>
+      <c r="A237" s="31"/>
       <c r="E237" s="1" t="s">
         <v>15</v>
       </c>
@@ -13906,7 +13939,7 @@
       </c>
     </row>
     <row r="238" spans="1:21">
-      <c r="A238" s="25"/>
+      <c r="A238" s="31"/>
       <c r="E238" s="1" t="s">
         <v>15</v>
       </c>
@@ -13937,7 +13970,7 @@
       <c r="U238" s="2"/>
     </row>
     <row r="239" spans="1:21">
-      <c r="A239" s="25"/>
+      <c r="A239" s="31"/>
       <c r="E239" s="1" t="s">
         <v>15</v>
       </c>
@@ -13966,7 +13999,7 @@
       <c r="Q239" s="2"/>
     </row>
     <row r="240" spans="1:21">
-      <c r="A240" s="25"/>
+      <c r="A240" s="31"/>
       <c r="E240" s="1" t="s">
         <v>15</v>
       </c>
@@ -13995,7 +14028,7 @@
       <c r="Q240" s="2"/>
     </row>
     <row r="241" spans="1:21">
-      <c r="A241" s="25"/>
+      <c r="A241" s="31"/>
       <c r="E241" s="1" t="s">
         <v>15</v>
       </c>
@@ -14024,7 +14057,7 @@
       <c r="Q241" s="2"/>
     </row>
     <row r="242" spans="1:21">
-      <c r="A242" s="25"/>
+      <c r="A242" s="31"/>
       <c r="E242" s="1" t="s">
         <v>15</v>
       </c>
@@ -14047,7 +14080,7 @@
       <c r="O242" s="2"/>
     </row>
     <row r="243" spans="1:21">
-      <c r="A243" s="25"/>
+      <c r="A243" s="31"/>
       <c r="H243" s="19" t="s">
         <v>1010</v>
       </c>
@@ -14059,7 +14092,7 @@
       </c>
     </row>
     <row r="244" spans="1:21">
-      <c r="A244" s="25"/>
+      <c r="A244" s="31"/>
       <c r="H244" s="19" t="s">
         <v>1030</v>
       </c>
@@ -14071,7 +14104,7 @@
       </c>
     </row>
     <row r="245" spans="1:21">
-      <c r="A245" s="25"/>
+      <c r="A245" s="31"/>
       <c r="B245" s="21"/>
       <c r="C245" s="21"/>
       <c r="H245" s="19" t="s">
@@ -14085,7 +14118,7 @@
       </c>
     </row>
     <row r="246" spans="1:21">
-      <c r="A246" s="25"/>
+      <c r="A246" s="31"/>
       <c r="B246" s="21"/>
       <c r="C246" s="21"/>
       <c r="H246" s="19" t="s">
@@ -14099,7 +14132,7 @@
       </c>
     </row>
     <row r="247" spans="1:21">
-      <c r="A247" s="25"/>
+      <c r="A247" s="31"/>
       <c r="B247" s="21"/>
       <c r="C247" s="21"/>
       <c r="H247" s="19" t="s">
@@ -14113,7 +14146,7 @@
       </c>
     </row>
     <row r="248" spans="1:21">
-      <c r="A248" s="25"/>
+      <c r="A248" s="31"/>
       <c r="E248" s="1" t="s">
         <v>343</v>
       </c>
@@ -14144,7 +14177,7 @@
       <c r="T248" s="2"/>
     </row>
     <row r="249" spans="1:21">
-      <c r="A249" s="25"/>
+      <c r="A249" s="31"/>
       <c r="E249" s="1" t="s">
         <v>343</v>
       </c>
@@ -14175,7 +14208,7 @@
       <c r="T249" s="2"/>
     </row>
     <row r="250" spans="1:21">
-      <c r="A250" s="25"/>
+      <c r="A250" s="31"/>
       <c r="E250" s="1" t="s">
         <v>343</v>
       </c>
@@ -14206,7 +14239,7 @@
       <c r="T250" s="2"/>
     </row>
     <row r="251" spans="1:21">
-      <c r="A251" s="25"/>
+      <c r="A251" s="31"/>
       <c r="E251" s="1" t="s">
         <v>343</v>
       </c>
@@ -14237,7 +14270,7 @@
       <c r="T251" s="2"/>
     </row>
     <row r="252" spans="1:21">
-      <c r="A252" s="25"/>
+      <c r="A252" s="31"/>
       <c r="E252" s="1" t="s">
         <v>343</v>
       </c>
@@ -14268,7 +14301,7 @@
       <c r="T252" s="2"/>
     </row>
     <row r="253" spans="1:21">
-      <c r="A253" s="25"/>
+      <c r="A253" s="31"/>
       <c r="E253" s="1" t="s">
         <v>343</v>
       </c>
@@ -14299,7 +14332,7 @@
       <c r="T253" s="2"/>
     </row>
     <row r="254" spans="1:21">
-      <c r="A254" s="25"/>
+      <c r="A254" s="31"/>
       <c r="E254" s="1" t="s">
         <v>343</v>
       </c>
@@ -14330,7 +14363,7 @@
       <c r="T254" s="2"/>
     </row>
     <row r="255" spans="1:21">
-      <c r="A255" s="25"/>
+      <c r="A255" s="31"/>
       <c r="E255" s="1" t="s">
         <v>343</v>
       </c>
@@ -14362,7 +14395,7 @@
       <c r="U255" s="2"/>
     </row>
     <row r="256" spans="1:21">
-      <c r="A256" s="25"/>
+      <c r="A256" s="31"/>
       <c r="E256" s="1" t="s">
         <v>343</v>
       </c>
@@ -14393,7 +14426,7 @@
       <c r="T256" s="2"/>
     </row>
     <row r="257" spans="1:21">
-      <c r="A257" s="25"/>
+      <c r="A257" s="31"/>
       <c r="E257" s="1" t="s">
         <v>343</v>
       </c>
@@ -14424,7 +14457,7 @@
       <c r="T257" s="2"/>
     </row>
     <row r="258" spans="1:21">
-      <c r="A258" s="25"/>
+      <c r="A258" s="31"/>
       <c r="E258" s="1" t="s">
         <v>343</v>
       </c>
@@ -14455,7 +14488,7 @@
       <c r="T258" s="2"/>
     </row>
     <row r="259" spans="1:21">
-      <c r="A259" s="25"/>
+      <c r="A259" s="31"/>
       <c r="E259" s="1" t="s">
         <v>343</v>
       </c>
@@ -14487,7 +14520,7 @@
       <c r="U259" s="2"/>
     </row>
     <row r="260" spans="1:21">
-      <c r="A260" s="25"/>
+      <c r="A260" s="31"/>
       <c r="H260" s="19" t="s">
         <v>1013</v>
       </c>
@@ -14499,7 +14532,7 @@
       </c>
     </row>
     <row r="261" spans="1:21">
-      <c r="A261" s="25"/>
+      <c r="A261" s="31"/>
       <c r="H261" s="19" t="s">
         <v>1015</v>
       </c>
@@ -14511,7 +14544,7 @@
       </c>
     </row>
     <row r="262" spans="1:21">
-      <c r="A262" s="25"/>
+      <c r="A262" s="31"/>
       <c r="H262" s="19" t="s">
         <v>1017</v>
       </c>
@@ -14523,7 +14556,7 @@
       </c>
     </row>
     <row r="263" spans="1:21">
-      <c r="A263" s="25"/>
+      <c r="A263" s="31"/>
       <c r="H263" s="19" t="s">
         <v>1019</v>
       </c>
@@ -14535,7 +14568,7 @@
       </c>
     </row>
     <row r="264" spans="1:21">
-      <c r="A264" s="25"/>
+      <c r="A264" s="31"/>
       <c r="H264" s="19" t="s">
         <v>1021</v>
       </c>
@@ -14547,7 +14580,7 @@
       </c>
     </row>
     <row r="265" spans="1:21">
-      <c r="A265" s="25"/>
+      <c r="A265" s="31"/>
       <c r="H265" s="19" t="s">
         <v>1023</v>
       </c>
@@ -14559,7 +14592,7 @@
       </c>
     </row>
     <row r="266" spans="1:21">
-      <c r="A266" s="25"/>
+      <c r="A266" s="31"/>
       <c r="H266" s="19" t="s">
         <v>1025</v>
       </c>
@@ -14571,7 +14604,7 @@
       </c>
     </row>
     <row r="267" spans="1:21">
-      <c r="A267" s="25"/>
+      <c r="A267" s="31"/>
       <c r="H267" s="19" t="s">
         <v>1027</v>
       </c>
@@ -14583,7 +14616,7 @@
       </c>
     </row>
     <row r="268" spans="1:21">
-      <c r="A268" s="25"/>
+      <c r="A268" s="31"/>
       <c r="B268" s="21"/>
       <c r="C268" s="21"/>
       <c r="H268" s="19" t="s">
@@ -14597,7 +14630,7 @@
       </c>
     </row>
     <row r="269" spans="1:21">
-      <c r="A269" s="25"/>
+      <c r="A269" s="31"/>
       <c r="H269" s="19" t="s">
         <v>1039</v>
       </c>
@@ -14609,7 +14642,7 @@
       </c>
     </row>
     <row r="270" spans="1:21">
-      <c r="A270" s="25"/>
+      <c r="A270" s="31"/>
       <c r="H270" s="19" t="s">
         <v>1040</v>
       </c>
@@ -14621,7 +14654,7 @@
       </c>
     </row>
     <row r="271" spans="1:21">
-      <c r="A271" s="25"/>
+      <c r="A271" s="31"/>
       <c r="H271" s="19" t="s">
         <v>1041</v>
       </c>
@@ -14633,7 +14666,7 @@
       </c>
     </row>
     <row r="272" spans="1:21">
-      <c r="A272" s="25"/>
+      <c r="A272" s="31"/>
       <c r="H272" s="19" t="s">
         <v>1042</v>
       </c>
@@ -14645,7 +14678,7 @@
       </c>
     </row>
     <row r="273" spans="1:10">
-      <c r="A273" s="25"/>
+      <c r="A273" s="31"/>
       <c r="H273" s="19" t="s">
         <v>1043</v>
       </c>
@@ -14657,7 +14690,7 @@
       </c>
     </row>
     <row r="274" spans="1:10">
-      <c r="A274" s="25"/>
+      <c r="A274" s="31"/>
       <c r="H274" s="19" t="s">
         <v>1044</v>
       </c>
@@ -14669,7 +14702,7 @@
       </c>
     </row>
     <row r="275" spans="1:10">
-      <c r="A275" s="25"/>
+      <c r="A275" s="31"/>
       <c r="H275" s="19" t="s">
         <v>1045</v>
       </c>
@@ -14681,7 +14714,7 @@
       </c>
     </row>
     <row r="276" spans="1:10">
-      <c r="A276" s="25"/>
+      <c r="A276" s="31"/>
       <c r="H276" s="19" t="s">
         <v>1046</v>
       </c>
@@ -14693,7 +14726,7 @@
       </c>
     </row>
     <row r="277" spans="1:10">
-      <c r="A277" s="25"/>
+      <c r="A277" s="31"/>
       <c r="H277" s="19" t="s">
         <v>1047</v>
       </c>
@@ -14705,7 +14738,7 @@
       </c>
     </row>
     <row r="278" spans="1:10">
-      <c r="A278" s="25"/>
+      <c r="A278" s="31"/>
       <c r="H278" s="19" t="s">
         <v>1049</v>
       </c>
@@ -14717,7 +14750,7 @@
       </c>
     </row>
     <row r="279" spans="1:10">
-      <c r="A279" s="25"/>
+      <c r="A279" s="31"/>
       <c r="H279" s="19" t="s">
         <v>1051</v>
       </c>
@@ -14729,7 +14762,7 @@
       </c>
     </row>
     <row r="280" spans="1:10">
-      <c r="A280" s="25"/>
+      <c r="A280" s="31"/>
       <c r="H280" s="19" t="s">
         <v>1052</v>
       </c>
@@ -14741,7 +14774,7 @@
       </c>
     </row>
     <row r="281" spans="1:10">
-      <c r="A281" s="25"/>
+      <c r="A281" s="31"/>
       <c r="H281" s="19" t="s">
         <v>1053</v>
       </c>
@@ -14753,7 +14786,7 @@
       </c>
     </row>
     <row r="282" spans="1:10">
-      <c r="A282" s="25"/>
+      <c r="A282" s="31"/>
       <c r="H282" s="19" t="s">
         <v>1054</v>
       </c>
@@ -14765,7 +14798,7 @@
       </c>
     </row>
     <row r="283" spans="1:10">
-      <c r="A283" s="25"/>
+      <c r="A283" s="31"/>
       <c r="H283" s="19" t="s">
         <v>1055</v>
       </c>
@@ -14777,7 +14810,7 @@
       </c>
     </row>
     <row r="284" spans="1:10">
-      <c r="A284" s="25"/>
+      <c r="A284" s="31"/>
       <c r="H284" s="19" t="s">
         <v>1056</v>
       </c>
@@ -14789,7 +14822,7 @@
       </c>
     </row>
     <row r="285" spans="1:10">
-      <c r="A285" s="25"/>
+      <c r="A285" s="31"/>
       <c r="H285" s="19" t="s">
         <v>1057</v>
       </c>
@@ -14801,7 +14834,7 @@
       </c>
     </row>
     <row r="286" spans="1:10">
-      <c r="A286" s="25"/>
+      <c r="A286" s="31"/>
       <c r="H286" s="19" t="s">
         <v>1058</v>
       </c>
@@ -14813,7 +14846,7 @@
       </c>
     </row>
     <row r="287" spans="1:10">
-      <c r="A287" s="25"/>
+      <c r="A287" s="31"/>
       <c r="H287" s="19" t="s">
         <v>1059</v>
       </c>
@@ -14825,7 +14858,7 @@
       </c>
     </row>
     <row r="288" spans="1:10">
-      <c r="A288" s="25"/>
+      <c r="A288" s="31"/>
       <c r="H288" s="19" t="s">
         <v>1060</v>
       </c>
@@ -14837,7 +14870,7 @@
       </c>
     </row>
     <row r="289" spans="1:10">
-      <c r="A289" s="25"/>
+      <c r="A289" s="31"/>
       <c r="H289" s="19" t="s">
         <v>1061</v>
       </c>
@@ -14849,7 +14882,7 @@
       </c>
     </row>
     <row r="290" spans="1:10">
-      <c r="A290" s="25"/>
+      <c r="A290" s="31"/>
       <c r="H290" s="19" t="s">
         <v>1062</v>
       </c>
@@ -14861,7 +14894,7 @@
       </c>
     </row>
     <row r="291" spans="1:10">
-      <c r="A291" s="25"/>
+      <c r="A291" s="31"/>
       <c r="H291" s="19" t="s">
         <v>1063</v>
       </c>
@@ -14873,7 +14906,7 @@
       </c>
     </row>
     <row r="292" spans="1:10">
-      <c r="A292" s="25"/>
+      <c r="A292" s="31"/>
       <c r="H292" s="19" t="s">
         <v>1064</v>
       </c>
@@ -14885,7 +14918,7 @@
       </c>
     </row>
     <row r="293" spans="1:10">
-      <c r="A293" s="25"/>
+      <c r="A293" s="31"/>
       <c r="H293" s="19" t="s">
         <v>1065</v>
       </c>
@@ -14897,7 +14930,7 @@
       </c>
     </row>
     <row r="294" spans="1:10">
-      <c r="A294" s="25"/>
+      <c r="A294" s="31"/>
       <c r="H294" s="19" t="s">
         <v>1066</v>
       </c>
@@ -14909,7 +14942,7 @@
       </c>
     </row>
     <row r="295" spans="1:10">
-      <c r="A295" s="25"/>
+      <c r="A295" s="31"/>
       <c r="H295" s="19" t="s">
         <v>1067</v>
       </c>
@@ -14921,7 +14954,7 @@
       </c>
     </row>
     <row r="296" spans="1:10">
-      <c r="A296" s="25"/>
+      <c r="A296" s="31"/>
       <c r="H296" s="19" t="s">
         <v>1068</v>
       </c>
@@ -14933,7 +14966,7 @@
       </c>
     </row>
     <row r="297" spans="1:10">
-      <c r="A297" s="25"/>
+      <c r="A297" s="31"/>
       <c r="H297" s="19" t="s">
         <v>1069</v>
       </c>
@@ -14945,7 +14978,7 @@
       </c>
     </row>
     <row r="298" spans="1:10">
-      <c r="A298" s="25"/>
+      <c r="A298" s="31"/>
       <c r="H298" s="19" t="s">
         <v>1070</v>
       </c>
@@ -14957,7 +14990,7 @@
       </c>
     </row>
     <row r="299" spans="1:10">
-      <c r="A299" s="25"/>
+      <c r="A299" s="31"/>
       <c r="H299" s="19" t="s">
         <v>1071</v>
       </c>
@@ -14969,7 +15002,7 @@
       </c>
     </row>
     <row r="300" spans="1:10">
-      <c r="A300" s="25"/>
+      <c r="A300" s="31"/>
       <c r="H300" s="19" t="s">
         <v>1072</v>
       </c>
@@ -14981,7 +15014,7 @@
       </c>
     </row>
     <row r="301" spans="1:10">
-      <c r="A301" s="25"/>
+      <c r="A301" s="31"/>
       <c r="H301" s="19" t="s">
         <v>1073</v>
       </c>
@@ -14993,7 +15026,7 @@
       </c>
     </row>
     <row r="302" spans="1:10">
-      <c r="A302" s="25"/>
+      <c r="A302" s="31"/>
       <c r="H302" s="19" t="s">
         <v>1074</v>
       </c>
@@ -15005,7 +15038,7 @@
       </c>
     </row>
     <row r="303" spans="1:10">
-      <c r="A303" s="25"/>
+      <c r="A303" s="31"/>
       <c r="H303" s="19" t="s">
         <v>1075</v>
       </c>
@@ -15017,7 +15050,7 @@
       </c>
     </row>
     <row r="304" spans="1:10">
-      <c r="A304" s="25"/>
+      <c r="A304" s="31"/>
       <c r="H304" s="19" t="s">
         <v>1076</v>
       </c>
@@ -15029,7 +15062,7 @@
       </c>
     </row>
     <row r="305" spans="1:19">
-      <c r="A305" s="25"/>
+      <c r="A305" s="31"/>
       <c r="H305" s="19" t="s">
         <v>1077</v>
       </c>
@@ -15041,7 +15074,7 @@
       </c>
     </row>
     <row r="306" spans="1:19">
-      <c r="A306" s="25"/>
+      <c r="A306" s="31"/>
       <c r="H306" s="19" t="s">
         <v>1078</v>
       </c>
@@ -15053,7 +15086,7 @@
       </c>
     </row>
     <row r="307" spans="1:19">
-      <c r="A307" s="25"/>
+      <c r="A307" s="31"/>
       <c r="H307" s="19" t="s">
         <v>1079</v>
       </c>
@@ -15065,7 +15098,7 @@
       </c>
     </row>
     <row r="308" spans="1:19">
-      <c r="A308" s="25"/>
+      <c r="A308" s="31"/>
       <c r="H308" s="19" t="s">
         <v>1080</v>
       </c>
@@ -15077,7 +15110,7 @@
       </c>
     </row>
     <row r="309" spans="1:19">
-      <c r="A309" s="25"/>
+      <c r="A309" s="31"/>
       <c r="H309" s="19" t="s">
         <v>1081</v>
       </c>
@@ -15089,7 +15122,7 @@
       </c>
     </row>
     <row r="310" spans="1:19">
-      <c r="A310" s="25"/>
+      <c r="A310" s="31"/>
       <c r="H310" s="19" t="s">
         <v>1082</v>
       </c>
@@ -15101,7 +15134,7 @@
       </c>
     </row>
     <row r="311" spans="1:19">
-      <c r="A311" s="25"/>
+      <c r="A311" s="31"/>
       <c r="H311" s="19" t="s">
         <v>1083</v>
       </c>
@@ -15113,7 +15146,7 @@
       </c>
     </row>
     <row r="312" spans="1:19">
-      <c r="A312" s="25"/>
+      <c r="A312" s="31"/>
       <c r="H312" s="19" t="s">
         <v>1084</v>
       </c>
@@ -15125,7 +15158,7 @@
       </c>
     </row>
     <row r="313" spans="1:19">
-      <c r="A313" s="25"/>
+      <c r="A313" s="31"/>
       <c r="H313" s="19" t="s">
         <v>1087</v>
       </c>
@@ -15137,7 +15170,7 @@
       </c>
     </row>
     <row r="314" spans="1:19">
-      <c r="A314" s="25"/>
+      <c r="A314" s="31"/>
       <c r="H314" s="19" t="s">
         <v>1090</v>
       </c>
@@ -15149,7 +15182,7 @@
       </c>
     </row>
     <row r="315" spans="1:19">
-      <c r="A315" s="25"/>
+      <c r="A315" s="31"/>
       <c r="H315" s="19" t="s">
         <v>1091</v>
       </c>
@@ -15161,7 +15194,7 @@
       </c>
     </row>
     <row r="316" spans="1:19">
-      <c r="A316" s="25"/>
+      <c r="A316" s="31"/>
       <c r="H316" s="19" t="s">
         <v>1092</v>
       </c>
@@ -15173,7 +15206,7 @@
       </c>
     </row>
     <row r="317" spans="1:19">
-      <c r="A317" s="25"/>
+      <c r="A317" s="31"/>
       <c r="H317" s="19" t="s">
         <v>1094</v>
       </c>
@@ -15185,7 +15218,7 @@
       </c>
     </row>
     <row r="318" spans="1:19">
-      <c r="A318" s="25" t="s">
+      <c r="A318" s="31" t="s">
         <v>1003</v>
       </c>
       <c r="E318" s="1" t="s">
@@ -15210,7 +15243,7 @@
       <c r="S318" s="2"/>
     </row>
     <row r="319" spans="1:19">
-      <c r="A319" s="25"/>
+      <c r="A319" s="31"/>
       <c r="E319" s="1" t="s">
         <v>343</v>
       </c>
@@ -15231,7 +15264,7 @@
       <c r="Q319" s="2"/>
     </row>
     <row r="320" spans="1:19">
-      <c r="A320" s="25" t="s">
+      <c r="A320" s="31" t="s">
         <v>1004</v>
       </c>
       <c r="E320" s="1" t="s">
@@ -15246,7 +15279,7 @@
       </c>
     </row>
     <row r="321" spans="1:20">
-      <c r="A321" s="25"/>
+      <c r="A321" s="31"/>
       <c r="E321" s="1" t="s">
         <v>343</v>
       </c>
@@ -15259,7 +15292,7 @@
       </c>
     </row>
     <row r="322" spans="1:20">
-      <c r="A322" s="25"/>
+      <c r="A322" s="31"/>
       <c r="E322" s="1" t="s">
         <v>343</v>
       </c>
@@ -15272,7 +15305,7 @@
       </c>
     </row>
     <row r="323" spans="1:20">
-      <c r="A323" s="25"/>
+      <c r="A323" s="31"/>
       <c r="E323" s="1" t="s">
         <v>343</v>
       </c>
@@ -15285,7 +15318,7 @@
       </c>
     </row>
     <row r="324" spans="1:20">
-      <c r="A324" s="25"/>
+      <c r="A324" s="31"/>
       <c r="E324" s="1" t="s">
         <v>343</v>
       </c>
@@ -15298,7 +15331,7 @@
       </c>
     </row>
     <row r="325" spans="1:20">
-      <c r="A325" s="25"/>
+      <c r="A325" s="31"/>
       <c r="E325" s="1" t="s">
         <v>343</v>
       </c>
@@ -15311,7 +15344,7 @@
       </c>
     </row>
     <row r="326" spans="1:20">
-      <c r="A326" s="25"/>
+      <c r="A326" s="31"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
       <c r="G326" s="2"/>
@@ -15320,7 +15353,7 @@
       </c>
     </row>
     <row r="327" spans="1:20">
-      <c r="A327" s="25" t="s">
+      <c r="A327" s="31" t="s">
         <v>1005</v>
       </c>
       <c r="E327" s="1" t="s">
@@ -15345,7 +15378,7 @@
       <c r="S327" s="2"/>
     </row>
     <row r="328" spans="1:20">
-      <c r="A328" s="25"/>
+      <c r="A328" s="31"/>
       <c r="E328" s="1" t="s">
         <v>343</v>
       </c>
@@ -15368,7 +15401,7 @@
       <c r="S328" s="2"/>
     </row>
     <row r="329" spans="1:20">
-      <c r="A329" s="25"/>
+      <c r="A329" s="31"/>
       <c r="E329" s="1" t="s">
         <v>343</v>
       </c>
@@ -15391,7 +15424,7 @@
       <c r="S329" s="2"/>
     </row>
     <row r="330" spans="1:20">
-      <c r="A330" s="25"/>
+      <c r="A330" s="31"/>
       <c r="E330" s="1" t="s">
         <v>343</v>
       </c>
@@ -15415,7 +15448,7 @@
       <c r="T330" s="2"/>
     </row>
     <row r="331" spans="1:20">
-      <c r="A331" s="25"/>
+      <c r="A331" s="31"/>
       <c r="E331" s="1" t="s">
         <v>343</v>
       </c>
@@ -15438,7 +15471,7 @@
       <c r="S331" s="2"/>
     </row>
     <row r="332" spans="1:20">
-      <c r="A332" s="25"/>
+      <c r="A332" s="31"/>
       <c r="E332" s="1" t="s">
         <v>343</v>
       </c>
@@ -15461,7 +15494,7 @@
       <c r="S332" s="2"/>
     </row>
     <row r="333" spans="1:20">
-      <c r="A333" s="25"/>
+      <c r="A333" s="31"/>
       <c r="E333" s="1" t="s">
         <v>343</v>
       </c>
@@ -15485,7 +15518,7 @@
       <c r="T333" s="2"/>
     </row>
     <row r="334" spans="1:20">
-      <c r="A334" s="25"/>
+      <c r="A334" s="31"/>
       <c r="E334" s="1" t="s">
         <v>343</v>
       </c>
@@ -15503,7 +15536,7 @@
       <c r="N334" s="2"/>
     </row>
     <row r="335" spans="1:20">
-      <c r="A335" s="25" t="s">
+      <c r="A335" s="31" t="s">
         <v>1006</v>
       </c>
       <c r="E335" s="1" t="s">
@@ -15527,7 +15560,7 @@
       <c r="R335" s="2"/>
     </row>
     <row r="336" spans="1:20">
-      <c r="A336" s="25"/>
+      <c r="A336" s="31"/>
       <c r="E336" s="1" t="s">
         <v>343</v>
       </c>
@@ -15548,7 +15581,7 @@
       <c r="Q336" s="2"/>
     </row>
     <row r="337" spans="1:21">
-      <c r="A337" s="25"/>
+      <c r="A337" s="31"/>
       <c r="E337" s="1" t="s">
         <v>343</v>
       </c>
@@ -15571,7 +15604,7 @@
       <c r="S337" s="2"/>
     </row>
     <row r="338" spans="1:21">
-      <c r="A338" s="25"/>
+      <c r="A338" s="31"/>
       <c r="E338" s="1" t="s">
         <v>343</v>
       </c>
@@ -15589,7 +15622,7 @@
       <c r="N338" s="2"/>
     </row>
     <row r="339" spans="1:21">
-      <c r="A339" s="25"/>
+      <c r="A339" s="31"/>
       <c r="E339" s="1" t="s">
         <v>15</v>
       </c>
@@ -15615,7 +15648,7 @@
       <c r="P339" s="2"/>
     </row>
     <row r="340" spans="1:21">
-      <c r="A340" s="25"/>
+      <c r="A340" s="31"/>
       <c r="E340" s="1" t="s">
         <v>15</v>
       </c>
@@ -15641,7 +15674,7 @@
       <c r="P340" s="2"/>
     </row>
     <row r="341" spans="1:21">
-      <c r="A341" s="25" t="s">
+      <c r="A341" s="31" t="s">
         <v>1096</v>
       </c>
       <c r="E341" s="2"/>
@@ -15665,7 +15698,7 @@
       <c r="U341" s="2"/>
     </row>
     <row r="342" spans="1:21">
-      <c r="A342" s="25"/>
+      <c r="A342" s="31"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
       <c r="G342" s="2"/>
@@ -15687,7 +15720,7 @@
       <c r="U342" s="2"/>
     </row>
     <row r="343" spans="1:21">
-      <c r="A343" s="25"/>
+      <c r="A343" s="31"/>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
       <c r="G343" s="2"/>
@@ -15709,7 +15742,7 @@
       <c r="U343" s="2"/>
     </row>
     <row r="344" spans="1:21">
-      <c r="A344" s="25"/>
+      <c r="A344" s="31"/>
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
       <c r="G344" s="2"/>
@@ -15731,7 +15764,7 @@
       <c r="U344" s="2"/>
     </row>
     <row r="345" spans="1:21">
-      <c r="A345" s="25"/>
+      <c r="A345" s="31"/>
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
@@ -15753,7 +15786,7 @@
       <c r="U345" s="2"/>
     </row>
     <row r="346" spans="1:21">
-      <c r="A346" s="25"/>
+      <c r="A346" s="31"/>
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
       <c r="G346" s="2"/>
@@ -15775,7 +15808,7 @@
       <c r="U346" s="2"/>
     </row>
     <row r="347" spans="1:21">
-      <c r="A347" s="25"/>
+      <c r="A347" s="31"/>
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
       <c r="G347" s="2"/>
@@ -15797,7 +15830,7 @@
       <c r="U347" s="2"/>
     </row>
     <row r="348" spans="1:21">
-      <c r="A348" s="25"/>
+      <c r="A348" s="31"/>
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
       <c r="G348" s="2"/>
@@ -15819,7 +15852,7 @@
       <c r="U348" s="2"/>
     </row>
     <row r="349" spans="1:21">
-      <c r="A349" s="25"/>
+      <c r="A349" s="31"/>
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
       <c r="G349" s="2"/>
@@ -15841,7 +15874,7 @@
       <c r="U349" s="2"/>
     </row>
     <row r="350" spans="1:21">
-      <c r="A350" s="25"/>
+      <c r="A350" s="31"/>
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
@@ -15863,7 +15896,7 @@
       <c r="U350" s="2"/>
     </row>
     <row r="351" spans="1:21">
-      <c r="A351" s="25"/>
+      <c r="A351" s="31"/>
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
@@ -15885,7 +15918,7 @@
       <c r="U351" s="2"/>
     </row>
     <row r="352" spans="1:21">
-      <c r="A352" s="25"/>
+      <c r="A352" s="31"/>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -15907,7 +15940,7 @@
       <c r="U352" s="2"/>
     </row>
     <row r="353" spans="1:21">
-      <c r="A353" s="25"/>
+      <c r="A353" s="31"/>
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
       <c r="G353" s="2"/>
@@ -15929,7 +15962,7 @@
       <c r="U353" s="2"/>
     </row>
     <row r="354" spans="1:21">
-      <c r="A354" s="25"/>
+      <c r="A354" s="31"/>
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
       <c r="G354" s="2"/>
@@ -15951,7 +15984,7 @@
       <c r="U354" s="2"/>
     </row>
     <row r="355" spans="1:21">
-      <c r="A355" s="25"/>
+      <c r="A355" s="31"/>
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
@@ -15973,7 +16006,7 @@
       <c r="U355" s="2"/>
     </row>
     <row r="356" spans="1:21">
-      <c r="A356" s="25"/>
+      <c r="A356" s="31"/>
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
       <c r="G356" s="2"/>
@@ -15995,7 +16028,7 @@
       <c r="U356" s="2"/>
     </row>
     <row r="357" spans="1:21">
-      <c r="A357" s="25"/>
+      <c r="A357" s="31"/>
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
       <c r="G357" s="2"/>
@@ -16017,7 +16050,7 @@
       <c r="U357" s="2"/>
     </row>
     <row r="358" spans="1:21">
-      <c r="A358" s="25"/>
+      <c r="A358" s="31"/>
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
       <c r="G358" s="2"/>
@@ -16039,7 +16072,7 @@
       <c r="U358" s="2"/>
     </row>
     <row r="359" spans="1:21">
-      <c r="A359" s="25"/>
+      <c r="A359" s="31"/>
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
       <c r="G359" s="2"/>
@@ -16061,7 +16094,7 @@
       <c r="U359" s="2"/>
     </row>
     <row r="360" spans="1:21">
-      <c r="A360" s="25"/>
+      <c r="A360" s="31"/>
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
       <c r="G360" s="2"/>
@@ -16083,7 +16116,7 @@
       <c r="U360" s="2"/>
     </row>
     <row r="361" spans="1:21">
-      <c r="A361" s="25"/>
+      <c r="A361" s="31"/>
       <c r="E361" s="1" t="s">
         <v>343</v>
       </c>
@@ -16109,7 +16142,7 @@
       <c r="U361" s="2"/>
     </row>
     <row r="362" spans="1:21">
-      <c r="A362" s="25"/>
+      <c r="A362" s="31"/>
       <c r="E362" s="1" t="s">
         <v>343</v>
       </c>
@@ -16135,7 +16168,7 @@
       <c r="U362" s="2"/>
     </row>
     <row r="363" spans="1:21">
-      <c r="A363" s="25"/>
+      <c r="A363" s="31"/>
       <c r="E363" s="1" t="s">
         <v>343</v>
       </c>
@@ -16161,7 +16194,7 @@
       <c r="U363" s="2"/>
     </row>
     <row r="364" spans="1:21">
-      <c r="A364" s="25"/>
+      <c r="A364" s="31"/>
       <c r="E364" s="1" t="s">
         <v>343</v>
       </c>
@@ -16187,7 +16220,7 @@
       <c r="O364" s="2"/>
     </row>
     <row r="365" spans="1:21">
-      <c r="A365" s="25"/>
+      <c r="A365" s="31"/>
       <c r="E365" s="1" t="s">
         <v>343</v>
       </c>
@@ -16221,7 +16254,7 @@
       </c>
     </row>
     <row r="366" spans="1:21">
-      <c r="A366" s="25"/>
+      <c r="A366" s="31"/>
       <c r="E366" s="1" t="s">
         <v>343</v>
       </c>
@@ -16253,7 +16286,7 @@
       <c r="U366" s="2"/>
     </row>
     <row r="367" spans="1:21">
-      <c r="A367" s="25"/>
+      <c r="A367" s="31"/>
       <c r="E367" s="1"/>
       <c r="F367" s="2"/>
       <c r="G367" s="2"/>
@@ -16275,7 +16308,7 @@
       <c r="U367" s="2"/>
     </row>
     <row r="368" spans="1:21">
-      <c r="A368" s="25"/>
+      <c r="A368" s="31"/>
       <c r="E368" s="1"/>
       <c r="F368" s="2"/>
       <c r="G368" s="2"/>
@@ -16297,7 +16330,7 @@
       <c r="U368" s="2"/>
     </row>
     <row r="369" spans="1:21">
-      <c r="A369" s="25"/>
+      <c r="A369" s="31"/>
       <c r="E369" s="1"/>
       <c r="F369" s="2"/>
       <c r="G369" s="2"/>
@@ -16319,7 +16352,7 @@
       <c r="U369" s="2"/>
     </row>
     <row r="370" spans="1:21">
-      <c r="A370" s="25"/>
+      <c r="A370" s="31"/>
       <c r="E370" s="1"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
@@ -16343,7 +16376,7 @@
       <c r="U370" s="2"/>
     </row>
     <row r="371" spans="1:21">
-      <c r="A371" s="25"/>
+      <c r="A371" s="31"/>
       <c r="E371" s="1" t="s">
         <v>343</v>
       </c>
@@ -16377,7 +16410,7 @@
       </c>
     </row>
     <row r="372" spans="1:21">
-      <c r="A372" s="25"/>
+      <c r="A372" s="31"/>
       <c r="E372" s="1" t="s">
         <v>343</v>
       </c>
@@ -16403,7 +16436,7 @@
       <c r="U372" s="2"/>
     </row>
     <row r="373" spans="1:21">
-      <c r="A373" s="25"/>
+      <c r="A373" s="31"/>
       <c r="E373" s="1" t="s">
         <v>343</v>
       </c>
@@ -16429,7 +16462,7 @@
       <c r="U373" s="2"/>
     </row>
     <row r="374" spans="1:21">
-      <c r="A374" s="25"/>
+      <c r="A374" s="31"/>
       <c r="E374" s="1" t="s">
         <v>343</v>
       </c>
@@ -16457,7 +16490,7 @@
       <c r="U374" s="2"/>
     </row>
     <row r="375" spans="1:21">
-      <c r="A375" s="25"/>
+      <c r="A375" s="31"/>
       <c r="E375" s="1" t="s">
         <v>343</v>
       </c>
@@ -16487,7 +16520,7 @@
       </c>
     </row>
     <row r="376" spans="1:21">
-      <c r="A376" s="25"/>
+      <c r="A376" s="31"/>
       <c r="E376" s="1" t="s">
         <v>343</v>
       </c>
@@ -16515,7 +16548,7 @@
       <c r="U376" s="2"/>
     </row>
     <row r="377" spans="1:21">
-      <c r="A377" s="25"/>
+      <c r="A377" s="31"/>
       <c r="E377" s="1" t="s">
         <v>343</v>
       </c>
@@ -16545,7 +16578,7 @@
       </c>
     </row>
     <row r="378" spans="1:21">
-      <c r="A378" s="25"/>
+      <c r="A378" s="31"/>
       <c r="E378" s="1" t="s">
         <v>343</v>
       </c>
@@ -16573,7 +16606,7 @@
       <c r="U378" s="2"/>
     </row>
     <row r="379" spans="1:21">
-      <c r="A379" s="25"/>
+      <c r="A379" s="31"/>
       <c r="E379" s="1"/>
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
@@ -16595,7 +16628,7 @@
       <c r="U379" s="2"/>
     </row>
     <row r="380" spans="1:21">
-      <c r="A380" s="25"/>
+      <c r="A380" s="31"/>
       <c r="E380" s="1"/>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
@@ -16617,7 +16650,7 @@
       <c r="U380" s="2"/>
     </row>
     <row r="381" spans="1:21">
-      <c r="A381" s="25"/>
+      <c r="A381" s="31"/>
       <c r="E381" s="1"/>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
@@ -16639,7 +16672,7 @@
       <c r="U381" s="2"/>
     </row>
     <row r="382" spans="1:21">
-      <c r="A382" s="25"/>
+      <c r="A382" s="31"/>
       <c r="E382" s="1" t="s">
         <v>343</v>
       </c>
@@ -16673,7 +16706,7 @@
       </c>
     </row>
     <row r="383" spans="1:21">
-      <c r="A383" s="25"/>
+      <c r="A383" s="31"/>
       <c r="E383" s="1" t="s">
         <v>343</v>
       </c>
@@ -16699,7 +16732,7 @@
       <c r="U383" s="2"/>
     </row>
     <row r="384" spans="1:21">
-      <c r="A384" s="25"/>
+      <c r="A384" s="31"/>
       <c r="E384" s="1" t="s">
         <v>343</v>
       </c>
@@ -16729,7 +16762,7 @@
       </c>
     </row>
     <row r="385" spans="1:21">
-      <c r="A385" s="25"/>
+      <c r="A385" s="31"/>
       <c r="E385" s="1" t="s">
         <v>343</v>
       </c>
@@ -16757,7 +16790,7 @@
       <c r="U385" s="2"/>
     </row>
     <row r="386" spans="1:21">
-      <c r="A386" s="25"/>
+      <c r="A386" s="31"/>
       <c r="E386" s="1" t="s">
         <v>343</v>
       </c>
@@ -16785,7 +16818,7 @@
       <c r="U386" s="2"/>
     </row>
     <row r="387" spans="1:21">
-      <c r="A387" s="25"/>
+      <c r="A387" s="31"/>
       <c r="E387" s="1" t="s">
         <v>343</v>
       </c>
@@ -16821,7 +16854,7 @@
       <c r="U387" s="2"/>
     </row>
     <row r="388" spans="1:21">
-      <c r="A388" s="25"/>
+      <c r="A388" s="31"/>
       <c r="E388" s="1" t="s">
         <v>343</v>
       </c>
@@ -16849,7 +16882,7 @@
       <c r="U388" s="2"/>
     </row>
     <row r="389" spans="1:21">
-      <c r="A389" s="25"/>
+      <c r="A389" s="31"/>
       <c r="E389" s="1" t="s">
         <v>343</v>
       </c>
@@ -16882,7 +16915,7 @@
       <c r="T389" s="2"/>
     </row>
     <row r="390" spans="1:21">
-      <c r="A390" s="25"/>
+      <c r="A390" s="31"/>
       <c r="E390" s="1" t="s">
         <v>343</v>
       </c>
@@ -16910,7 +16943,7 @@
       <c r="U390" s="2"/>
     </row>
     <row r="391" spans="1:21">
-      <c r="A391" s="25"/>
+      <c r="A391" s="31"/>
       <c r="E391" s="1" t="s">
         <v>343</v>
       </c>
@@ -16942,7 +16975,7 @@
       <c r="U391" s="2"/>
     </row>
     <row r="392" spans="1:21">
-      <c r="A392" s="25"/>
+      <c r="A392" s="31"/>
       <c r="E392" s="1"/>
       <c r="F392" s="2"/>
       <c r="G392" s="2"/>
@@ -16964,7 +16997,7 @@
       <c r="U392" s="2"/>
     </row>
     <row r="393" spans="1:21">
-      <c r="A393" s="25"/>
+      <c r="A393" s="31"/>
       <c r="E393" s="1"/>
       <c r="F393" s="2"/>
       <c r="G393" s="2"/>
@@ -16986,7 +17019,7 @@
       <c r="U393" s="2"/>
     </row>
     <row r="394" spans="1:21">
-      <c r="A394" s="25"/>
+      <c r="A394" s="31"/>
       <c r="E394" s="1"/>
       <c r="F394" s="2"/>
       <c r="G394" s="2"/>
@@ -17010,7 +17043,7 @@
       <c r="U394" s="2"/>
     </row>
     <row r="395" spans="1:21">
-      <c r="A395" s="25"/>
+      <c r="A395" s="31"/>
       <c r="E395" s="1" t="s">
         <v>343</v>
       </c>
@@ -17040,7 +17073,7 @@
       <c r="U395" s="1"/>
     </row>
     <row r="396" spans="1:21">
-      <c r="A396" s="25"/>
+      <c r="A396" s="31"/>
       <c r="E396" s="1" t="s">
         <v>343</v>
       </c>
@@ -17077,7 +17110,7 @@
       </c>
     </row>
     <row r="397" spans="1:21">
-      <c r="A397" s="25"/>
+      <c r="A397" s="31"/>
       <c r="E397" s="1" t="s">
         <v>343</v>
       </c>
@@ -17109,7 +17142,7 @@
       <c r="U397" s="2"/>
     </row>
     <row r="398" spans="1:21">
-      <c r="A398" s="25"/>
+      <c r="A398" s="31"/>
       <c r="E398" s="1" t="s">
         <v>343</v>
       </c>
@@ -17144,7 +17177,7 @@
       </c>
     </row>
     <row r="399" spans="1:21">
-      <c r="A399" s="25"/>
+      <c r="A399" s="31"/>
       <c r="E399" s="1" t="s">
         <v>343</v>
       </c>
@@ -17174,7 +17207,7 @@
       <c r="U399" s="2"/>
     </row>
     <row r="400" spans="1:21">
-      <c r="A400" s="25"/>
+      <c r="A400" s="31"/>
       <c r="E400" s="1" t="s">
         <v>343</v>
       </c>
@@ -17207,7 +17240,7 @@
       <c r="T400" s="2"/>
     </row>
     <row r="401" spans="1:21">
-      <c r="A401" s="25"/>
+      <c r="A401" s="31"/>
       <c r="E401" s="1" t="s">
         <v>343</v>
       </c>
@@ -17232,7 +17265,7 @@
       <c r="P401" s="2"/>
     </row>
     <row r="402" spans="1:21">
-      <c r="A402" s="25"/>
+      <c r="A402" s="31"/>
       <c r="E402" s="1" t="s">
         <v>343</v>
       </c>
@@ -17263,7 +17296,7 @@
       </c>
     </row>
     <row r="403" spans="1:21">
-      <c r="A403" s="25"/>
+      <c r="A403" s="31"/>
       <c r="E403" s="1" t="s">
         <v>343</v>
       </c>
@@ -17291,7 +17324,7 @@
       <c r="U403" s="2"/>
     </row>
     <row r="404" spans="1:21">
-      <c r="A404" s="25"/>
+      <c r="A404" s="31"/>
       <c r="E404" s="1" t="s">
         <v>343</v>
       </c>
@@ -17319,7 +17352,7 @@
       <c r="U404" s="2"/>
     </row>
     <row r="405" spans="1:21">
-      <c r="A405" s="25"/>
+      <c r="A405" s="31"/>
       <c r="E405" s="1" t="s">
         <v>343</v>
       </c>
@@ -17343,7 +17376,7 @@
       <c r="Q405" s="2"/>
     </row>
     <row r="406" spans="1:21">
-      <c r="A406" s="25"/>
+      <c r="A406" s="31"/>
       <c r="E406" s="1" t="s">
         <v>343</v>
       </c>
@@ -17374,7 +17407,7 @@
       </c>
     </row>
     <row r="407" spans="1:21">
-      <c r="A407" s="25"/>
+      <c r="A407" s="31"/>
       <c r="E407" s="1" t="s">
         <v>343</v>
       </c>
@@ -17402,7 +17435,7 @@
       <c r="U407" s="2"/>
     </row>
     <row r="408" spans="1:21">
-      <c r="A408" s="25"/>
+      <c r="A408" s="31"/>
       <c r="E408" s="1" t="s">
         <v>343</v>
       </c>
@@ -17430,7 +17463,7 @@
       <c r="U408" s="2"/>
     </row>
     <row r="409" spans="1:21">
-      <c r="A409" s="25"/>
+      <c r="A409" s="31"/>
       <c r="E409" s="1" t="s">
         <v>343</v>
       </c>
@@ -17458,7 +17491,7 @@
       <c r="U409" s="2"/>
     </row>
     <row r="410" spans="1:21">
-      <c r="A410" s="25"/>
+      <c r="A410" s="31"/>
       <c r="E410" s="1" t="s">
         <v>343</v>
       </c>
@@ -17483,7 +17516,7 @@
       <c r="R410" s="2"/>
     </row>
     <row r="411" spans="1:21">
-      <c r="A411" s="25"/>
+      <c r="A411" s="31"/>
       <c r="E411" s="1" t="s">
         <v>343</v>
       </c>
@@ -17513,7 +17546,7 @@
       <c r="Q411" s="2"/>
     </row>
     <row r="412" spans="1:21">
-      <c r="A412" s="25"/>
+      <c r="A412" s="31"/>
       <c r="E412" s="1" t="s">
         <v>343</v>
       </c>
@@ -17539,7 +17572,7 @@
       <c r="U412" s="2"/>
     </row>
     <row r="413" spans="1:21">
-      <c r="A413" s="25"/>
+      <c r="A413" s="31"/>
       <c r="E413" s="1" t="s">
         <v>343</v>
       </c>
@@ -17563,7 +17596,7 @@
       <c r="Q413" s="2"/>
     </row>
     <row r="414" spans="1:21">
-      <c r="A414" s="25"/>
+      <c r="A414" s="31"/>
       <c r="E414" s="1" t="s">
         <v>343</v>
       </c>
@@ -17594,7 +17627,7 @@
       <c r="R414" s="2"/>
     </row>
     <row r="415" spans="1:21">
-      <c r="A415" s="25"/>
+      <c r="A415" s="31"/>
       <c r="E415" s="1" t="s">
         <v>343</v>
       </c>
@@ -17620,7 +17653,7 @@
       <c r="U415" s="2"/>
     </row>
     <row r="416" spans="1:21">
-      <c r="A416" s="25"/>
+      <c r="A416" s="31"/>
       <c r="E416" s="1"/>
       <c r="F416" s="2"/>
       <c r="G416" s="2"/>
@@ -17642,7 +17675,7 @@
       <c r="U416" s="2"/>
     </row>
     <row r="417" spans="1:21">
-      <c r="A417" s="25"/>
+      <c r="A417" s="31"/>
       <c r="E417" s="1"/>
       <c r="F417" s="2"/>
       <c r="G417" s="2"/>
@@ -17664,7 +17697,7 @@
       <c r="U417" s="2"/>
     </row>
     <row r="418" spans="1:21">
-      <c r="A418" s="25"/>
+      <c r="A418" s="31"/>
       <c r="E418" s="1"/>
       <c r="F418" s="2"/>
       <c r="G418" s="2"/>
@@ -17686,7 +17719,7 @@
       <c r="U418" s="2"/>
     </row>
     <row r="419" spans="1:21">
-      <c r="A419" s="25"/>
+      <c r="A419" s="31"/>
       <c r="E419" s="1" t="s">
         <v>343</v>
       </c>
@@ -17718,7 +17751,7 @@
       </c>
     </row>
     <row r="420" spans="1:21">
-      <c r="A420" s="25"/>
+      <c r="A420" s="31"/>
       <c r="E420" s="1" t="s">
         <v>343</v>
       </c>
@@ -17744,7 +17777,7 @@
       <c r="U420" s="2"/>
     </row>
     <row r="421" spans="1:21">
-      <c r="A421" s="25"/>
+      <c r="A421" s="31"/>
       <c r="E421" s="1" t="s">
         <v>343</v>
       </c>
@@ -17770,7 +17803,7 @@
       <c r="U421" s="2"/>
     </row>
     <row r="422" spans="1:21">
-      <c r="A422" s="25"/>
+      <c r="A422" s="31"/>
       <c r="E422" s="1"/>
       <c r="F422" s="2"/>
       <c r="G422" s="2"/>
@@ -17792,7 +17825,7 @@
       <c r="U422" s="2"/>
     </row>
     <row r="423" spans="1:21">
-      <c r="A423" s="25"/>
+      <c r="A423" s="31"/>
       <c r="E423" s="1"/>
       <c r="F423" s="2"/>
       <c r="G423" s="2"/>
@@ -17814,7 +17847,7 @@
       <c r="U423" s="2"/>
     </row>
     <row r="424" spans="1:21">
-      <c r="A424" s="25"/>
+      <c r="A424" s="31"/>
       <c r="E424" s="1" t="s">
         <v>343</v>
       </c>
@@ -17850,7 +17883,7 @@
       </c>
     </row>
     <row r="425" spans="1:21">
-      <c r="A425" s="25"/>
+      <c r="A425" s="31"/>
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
       <c r="G425" s="2"/>
@@ -17872,7 +17905,7 @@
       <c r="U425" s="2"/>
     </row>
     <row r="426" spans="1:21">
-      <c r="A426" s="25"/>
+      <c r="A426" s="31"/>
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
       <c r="G426" s="2"/>
@@ -17894,7 +17927,7 @@
       <c r="U426" s="2"/>
     </row>
     <row r="427" spans="1:21">
-      <c r="A427" s="25"/>
+      <c r="A427" s="31"/>
       <c r="E427" s="1" t="s">
         <v>343</v>
       </c>
@@ -17930,7 +17963,7 @@
       <c r="U427" s="2"/>
     </row>
     <row r="428" spans="1:21">
-      <c r="A428" s="25"/>
+      <c r="A428" s="31"/>
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
       <c r="G428" s="2"/>
@@ -17952,7 +17985,7 @@
       <c r="U428" s="2"/>
     </row>
     <row r="429" spans="1:21">
-      <c r="A429" s="25"/>
+      <c r="A429" s="31"/>
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
       <c r="G429" s="2"/>
@@ -17974,7 +18007,7 @@
       <c r="U429" s="2"/>
     </row>
     <row r="430" spans="1:21">
-      <c r="A430" s="25"/>
+      <c r="A430" s="31"/>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
       <c r="G430" s="2"/>
@@ -17996,7 +18029,7 @@
       <c r="U430" s="2"/>
     </row>
     <row r="431" spans="1:21">
-      <c r="A431" s="25"/>
+      <c r="A431" s="31"/>
       <c r="E431" s="1" t="s">
         <v>343</v>
       </c>
@@ -18032,7 +18065,7 @@
       <c r="U431" s="2"/>
     </row>
     <row r="432" spans="1:21">
-      <c r="A432" s="25"/>
+      <c r="A432" s="31"/>
       <c r="E432" s="1" t="s">
         <v>343</v>
       </c>
@@ -18070,7 +18103,7 @@
       </c>
     </row>
     <row r="433" spans="1:21">
-      <c r="A433" s="25"/>
+      <c r="A433" s="31"/>
       <c r="E433" s="2" t="s">
         <v>343</v>
       </c>
@@ -18096,7 +18129,7 @@
       <c r="U433" s="2"/>
     </row>
     <row r="434" spans="1:21">
-      <c r="A434" s="25"/>
+      <c r="A434" s="31"/>
       <c r="E434" s="1" t="s">
         <v>343</v>
       </c>
@@ -18132,7 +18165,7 @@
       </c>
     </row>
     <row r="435" spans="1:21">
-      <c r="A435" s="25"/>
+      <c r="A435" s="31"/>
       <c r="E435" s="1" t="s">
         <v>343</v>
       </c>
@@ -18158,7 +18191,7 @@
       <c r="U435" s="2"/>
     </row>
     <row r="436" spans="1:21">
-      <c r="A436" s="25"/>
+      <c r="A436" s="31"/>
       <c r="E436" s="1"/>
       <c r="F436" s="2"/>
       <c r="G436" s="2"/>
@@ -18182,7 +18215,7 @@
       <c r="U436" s="2"/>
     </row>
     <row r="437" spans="1:21">
-      <c r="A437" s="25"/>
+      <c r="A437" s="31"/>
       <c r="E437" s="1" t="s">
         <v>343</v>
       </c>
@@ -18215,7 +18248,7 @@
       <c r="T437" s="2"/>
     </row>
     <row r="438" spans="1:21">
-      <c r="A438" s="25"/>
+      <c r="A438" s="31"/>
       <c r="E438" s="1" t="s">
         <v>343</v>
       </c>
@@ -18241,7 +18274,7 @@
       <c r="U438" s="2"/>
     </row>
     <row r="439" spans="1:21">
-      <c r="A439" s="25"/>
+      <c r="A439" s="31"/>
       <c r="E439" s="1" t="s">
         <v>343</v>
       </c>
@@ -18276,7 +18309,7 @@
       <c r="T439" s="2"/>
     </row>
     <row r="440" spans="1:21">
-      <c r="A440" s="25"/>
+      <c r="A440" s="31"/>
       <c r="E440" s="1"/>
       <c r="F440" s="2"/>
       <c r="G440" s="2"/>
@@ -18298,7 +18331,7 @@
       <c r="U440" s="2"/>
     </row>
     <row r="441" spans="1:21">
-      <c r="A441" s="25"/>
+      <c r="A441" s="31"/>
       <c r="E441" s="1" t="s">
         <v>343</v>
       </c>
@@ -18324,7 +18357,7 @@
       <c r="U441" s="2"/>
     </row>
     <row r="442" spans="1:21">
-      <c r="A442" s="25"/>
+      <c r="A442" s="31"/>
       <c r="E442" s="1"/>
       <c r="F442" s="2"/>
       <c r="G442" s="2"/>
@@ -18346,7 +18379,7 @@
       <c r="U442" s="2"/>
     </row>
     <row r="443" spans="1:21">
-      <c r="A443" s="25"/>
+      <c r="A443" s="31"/>
       <c r="E443" s="1" t="s">
         <v>343</v>
       </c>
@@ -18378,7 +18411,7 @@
       <c r="S443" s="2"/>
     </row>
     <row r="444" spans="1:21">
-      <c r="A444" s="25"/>
+      <c r="A444" s="31"/>
       <c r="E444" s="1" t="s">
         <v>343</v>
       </c>
@@ -18404,7 +18437,7 @@
       <c r="U444" s="2"/>
     </row>
     <row r="445" spans="1:21">
-      <c r="A445" s="25"/>
+      <c r="A445" s="31"/>
       <c r="E445" s="1" t="s">
         <v>343</v>
       </c>
@@ -18436,7 +18469,7 @@
       <c r="S445" s="2"/>
     </row>
     <row r="446" spans="1:21">
-      <c r="A446" s="25"/>
+      <c r="A446" s="31"/>
       <c r="E446" s="1" t="s">
         <v>343</v>
       </c>
@@ -18464,7 +18497,7 @@
       <c r="U446" s="2"/>
     </row>
     <row r="447" spans="1:21">
-      <c r="A447" s="25"/>
+      <c r="A447" s="31"/>
       <c r="E447" s="1" t="s">
         <v>343</v>
       </c>
@@ -18496,7 +18529,7 @@
       <c r="S447" s="2"/>
     </row>
     <row r="448" spans="1:21">
-      <c r="A448" s="25"/>
+      <c r="A448" s="31"/>
       <c r="E448" s="1" t="s">
         <v>343</v>
       </c>
@@ -18524,7 +18557,7 @@
       <c r="U448" s="2"/>
     </row>
     <row r="449" spans="1:21">
-      <c r="A449" s="25"/>
+      <c r="A449" s="31"/>
       <c r="E449" s="1" t="s">
         <v>343</v>
       </c>
@@ -18560,7 +18593,7 @@
       </c>
     </row>
     <row r="450" spans="1:21">
-      <c r="A450" s="25"/>
+      <c r="A450" s="31"/>
       <c r="E450" s="1" t="s">
         <v>343</v>
       </c>
@@ -18588,7 +18621,7 @@
       <c r="U450" s="2"/>
     </row>
     <row r="451" spans="1:21">
-      <c r="A451" s="25"/>
+      <c r="A451" s="31"/>
       <c r="E451" s="1" t="s">
         <v>343</v>
       </c>
@@ -18624,7 +18657,7 @@
       </c>
     </row>
     <row r="452" spans="1:21">
-      <c r="A452" s="25"/>
+      <c r="A452" s="31"/>
       <c r="E452" s="1" t="s">
         <v>343</v>
       </c>
@@ -18652,7 +18685,7 @@
       <c r="U452" s="2"/>
     </row>
     <row r="453" spans="1:21">
-      <c r="A453" s="25"/>
+      <c r="A453" s="31"/>
       <c r="E453" s="1" t="s">
         <v>343</v>
       </c>
@@ -18678,7 +18711,7 @@
       <c r="U453" s="2"/>
     </row>
     <row r="454" spans="1:21">
-      <c r="A454" s="25"/>
+      <c r="A454" s="31"/>
       <c r="E454" s="1" t="s">
         <v>343</v>
       </c>
@@ -18706,7 +18739,7 @@
       <c r="U454" s="2"/>
     </row>
     <row r="455" spans="1:21">
-      <c r="A455" s="25"/>
+      <c r="A455" s="31"/>
       <c r="E455" s="1" t="s">
         <v>343</v>
       </c>
@@ -18732,7 +18765,7 @@
       <c r="U455" s="2"/>
     </row>
     <row r="456" spans="1:21">
-      <c r="A456" s="25"/>
+      <c r="A456" s="31"/>
       <c r="E456" s="1" t="s">
         <v>343</v>
       </c>
@@ -18763,7 +18796,7 @@
       <c r="R456" s="2"/>
     </row>
     <row r="457" spans="1:21">
-      <c r="A457" s="25"/>
+      <c r="A457" s="31"/>
       <c r="E457" s="1" t="s">
         <v>343</v>
       </c>
@@ -18789,7 +18822,7 @@
       <c r="U457" s="2"/>
     </row>
     <row r="458" spans="1:21">
-      <c r="A458" s="25"/>
+      <c r="A458" s="31"/>
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
       <c r="G458" s="2"/>
@@ -18811,7 +18844,7 @@
       <c r="U458" s="2"/>
     </row>
     <row r="459" spans="1:21">
-      <c r="A459" s="25"/>
+      <c r="A459" s="31"/>
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
       <c r="G459" s="2"/>
@@ -18833,7 +18866,7 @@
       <c r="U459" s="2"/>
     </row>
     <row r="460" spans="1:21">
-      <c r="A460" s="25"/>
+      <c r="A460" s="31"/>
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
       <c r="G460" s="2"/>
@@ -18855,7 +18888,7 @@
       <c r="U460" s="2"/>
     </row>
     <row r="461" spans="1:21">
-      <c r="A461" s="25"/>
+      <c r="A461" s="31"/>
       <c r="E461" s="1" t="s">
         <v>343</v>
       </c>
@@ -18890,7 +18923,7 @@
       </c>
     </row>
     <row r="462" spans="1:21">
-      <c r="A462" s="25"/>
+      <c r="A462" s="31"/>
       <c r="E462" s="1" t="s">
         <v>343</v>
       </c>
@@ -18916,7 +18949,7 @@
       <c r="U462" s="2"/>
     </row>
     <row r="463" spans="1:21">
-      <c r="A463" s="25"/>
+      <c r="A463" s="31"/>
       <c r="E463" s="1" t="s">
         <v>343</v>
       </c>
@@ -18944,7 +18977,7 @@
       <c r="U463" s="2"/>
     </row>
     <row r="464" spans="1:21">
-      <c r="A464" s="25"/>
+      <c r="A464" s="31"/>
       <c r="E464" s="1" t="s">
         <v>343</v>
       </c>
@@ -18972,7 +19005,7 @@
       <c r="U464" s="2"/>
     </row>
     <row r="465" spans="1:21">
-      <c r="A465" s="25"/>
+      <c r="A465" s="31"/>
       <c r="E465" s="1" t="s">
         <v>343</v>
       </c>
@@ -18998,7 +19031,7 @@
       <c r="U465" s="2"/>
     </row>
     <row r="466" spans="1:21">
-      <c r="A466" s="25"/>
+      <c r="A466" s="31"/>
       <c r="E466" s="1" t="s">
         <v>343</v>
       </c>
@@ -19024,7 +19057,7 @@
       <c r="Q466" s="2"/>
     </row>
     <row r="467" spans="1:21">
-      <c r="A467" s="25"/>
+      <c r="A467" s="31"/>
       <c r="E467" s="1" t="s">
         <v>343</v>
       </c>
@@ -19052,7 +19085,7 @@
       <c r="U467" s="2"/>
     </row>
     <row r="468" spans="1:21">
-      <c r="A468" s="25"/>
+      <c r="A468" s="31"/>
       <c r="E468" s="1" t="s">
         <v>343</v>
       </c>
@@ -19080,7 +19113,7 @@
       <c r="U468" s="2"/>
     </row>
     <row r="469" spans="1:21">
-      <c r="A469" s="25"/>
+      <c r="A469" s="31"/>
       <c r="E469" s="1" t="s">
         <v>343</v>
       </c>
@@ -19106,7 +19139,7 @@
       <c r="U469" s="2"/>
     </row>
     <row r="470" spans="1:21">
-      <c r="A470" s="25"/>
+      <c r="A470" s="31"/>
       <c r="E470" s="1" t="s">
         <v>343</v>
       </c>
@@ -19134,7 +19167,7 @@
       <c r="U470" s="2"/>
     </row>
     <row r="471" spans="1:21">
-      <c r="A471" s="25"/>
+      <c r="A471" s="31"/>
       <c r="E471" s="1" t="s">
         <v>343</v>
       </c>
@@ -19157,7 +19190,7 @@
       <c r="R471" s="2"/>
     </row>
     <row r="472" spans="1:21">
-      <c r="A472" s="25"/>
+      <c r="A472" s="31"/>
       <c r="E472" s="1" t="s">
         <v>343</v>
       </c>
@@ -19190,7 +19223,7 @@
       </c>
     </row>
     <row r="473" spans="1:21">
-      <c r="A473" s="25"/>
+      <c r="A473" s="31"/>
       <c r="E473" s="1" t="s">
         <v>343</v>
       </c>
@@ -19223,7 +19256,7 @@
       </c>
     </row>
     <row r="474" spans="1:21">
-      <c r="A474" s="25"/>
+      <c r="A474" s="31"/>
       <c r="E474" s="1" t="s">
         <v>343</v>
       </c>
@@ -19258,7 +19291,7 @@
       </c>
     </row>
     <row r="475" spans="1:21">
-      <c r="A475" s="25"/>
+      <c r="A475" s="31"/>
       <c r="E475" s="1" t="s">
         <v>343</v>
       </c>
@@ -19293,7 +19326,7 @@
       </c>
     </row>
     <row r="476" spans="1:21">
-      <c r="A476" s="25"/>
+      <c r="A476" s="31"/>
       <c r="E476" s="1" t="s">
         <v>343</v>
       </c>
@@ -19330,7 +19363,7 @@
       </c>
     </row>
     <row r="477" spans="1:21">
-      <c r="A477" s="25"/>
+      <c r="A477" s="31"/>
       <c r="E477" s="1" t="s">
         <v>343</v>
       </c>
@@ -19367,7 +19400,7 @@
       </c>
     </row>
     <row r="478" spans="1:21">
-      <c r="A478" s="25"/>
+      <c r="A478" s="31"/>
       <c r="E478" s="1" t="s">
         <v>343</v>
       </c>
@@ -19404,7 +19437,7 @@
       </c>
     </row>
     <row r="479" spans="1:21">
-      <c r="A479" s="25"/>
+      <c r="A479" s="31"/>
       <c r="E479" s="1" t="s">
         <v>343</v>
       </c>
@@ -19434,7 +19467,7 @@
       <c r="U479" s="2"/>
     </row>
     <row r="480" spans="1:21">
-      <c r="A480" s="25"/>
+      <c r="A480" s="31"/>
       <c r="E480" s="1" t="s">
         <v>343</v>
       </c>
@@ -19462,7 +19495,7 @@
       <c r="S480" s="2"/>
     </row>
     <row r="481" spans="1:20">
-      <c r="A481" s="25"/>
+      <c r="A481" s="31"/>
       <c r="E481" s="1" t="s">
         <v>343</v>
       </c>
@@ -19486,7 +19519,7 @@
       <c r="O481" s="2"/>
     </row>
     <row r="482" spans="1:20">
-      <c r="A482" s="25"/>
+      <c r="A482" s="31"/>
       <c r="E482" s="1" t="s">
         <v>343</v>
       </c>
@@ -19515,7 +19548,7 @@
       <c r="T482" s="2"/>
     </row>
     <row r="483" spans="1:20">
-      <c r="A483" s="25"/>
+      <c r="A483" s="31"/>
       <c r="E483" s="1" t="s">
         <v>343</v>
       </c>
@@ -19547,7 +19580,7 @@
       <c r="S483" s="2"/>
     </row>
     <row r="484" spans="1:20">
-      <c r="A484" s="25"/>
+      <c r="A484" s="31"/>
       <c r="E484" s="1" t="s">
         <v>343</v>
       </c>
@@ -19583,7 +19616,7 @@
       </c>
     </row>
     <row r="485" spans="1:20">
-      <c r="A485" s="25"/>
+      <c r="A485" s="31"/>
       <c r="E485" s="1" t="s">
         <v>343</v>
       </c>
@@ -19614,7 +19647,7 @@
       <c r="T485" s="2"/>
     </row>
     <row r="486" spans="1:20">
-      <c r="A486" s="25"/>
+      <c r="A486" s="31"/>
       <c r="E486" s="1" t="s">
         <v>343</v>
       </c>
@@ -19646,7 +19679,7 @@
       <c r="S486" s="2"/>
     </row>
     <row r="487" spans="1:20">
-      <c r="A487" s="25"/>
+      <c r="A487" s="31"/>
       <c r="E487" s="1" t="s">
         <v>343</v>
       </c>
@@ -19671,7 +19704,7 @@
       <c r="R487" s="2"/>
     </row>
     <row r="488" spans="1:20">
-      <c r="A488" s="25"/>
+      <c r="A488" s="31"/>
       <c r="E488" s="1" t="s">
         <v>343</v>
       </c>
@@ -19696,7 +19729,7 @@
       <c r="R488" s="2"/>
     </row>
     <row r="489" spans="1:20">
-      <c r="A489" s="25"/>
+      <c r="A489" s="31"/>
       <c r="E489" s="1" t="s">
         <v>343</v>
       </c>
@@ -19720,7 +19753,7 @@
       </c>
     </row>
     <row r="490" spans="1:20">
-      <c r="A490" s="25"/>
+      <c r="A490" s="31"/>
       <c r="E490" s="1" t="s">
         <v>343</v>
       </c>
@@ -19744,7 +19777,7 @@
       </c>
     </row>
     <row r="491" spans="1:20">
-      <c r="A491" s="25"/>
+      <c r="A491" s="31"/>
       <c r="E491" s="1" t="s">
         <v>343</v>
       </c>
@@ -19768,7 +19801,7 @@
       <c r="Q491" s="2"/>
     </row>
     <row r="492" spans="1:20">
-      <c r="A492" s="25"/>
+      <c r="A492" s="31"/>
       <c r="E492" s="1" t="s">
         <v>343</v>
       </c>
@@ -19799,7 +19832,7 @@
       </c>
     </row>
     <row r="493" spans="1:20">
-      <c r="A493" s="25"/>
+      <c r="A493" s="31"/>
       <c r="E493" s="1" t="s">
         <v>343</v>
       </c>
@@ -19830,7 +19863,7 @@
       </c>
     </row>
     <row r="494" spans="1:20">
-      <c r="A494" s="25"/>
+      <c r="A494" s="31"/>
       <c r="E494" s="1" t="s">
         <v>343</v>
       </c>
@@ -19861,7 +19894,7 @@
       </c>
     </row>
     <row r="495" spans="1:20">
-      <c r="A495" s="25"/>
+      <c r="A495" s="31"/>
       <c r="E495" s="1" t="s">
         <v>343</v>
       </c>
@@ -19940,15 +19973,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BA4F15-3142-994E-BF8B-16093E97474D}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.3125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -20250,17 +20283,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01658F34-4982-8840-AF22-6E6480DB069B}">
   <dimension ref="A1:D313"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.1875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.1640625" customWidth="1"/>
-    <col min="4" max="4" width="65.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.1875" customWidth="1"/>
+    <col min="4" max="4" width="65.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -22264,6 +22297,47 @@
       <c r="D135" t="str">
         <f t="shared" si="33"/>
         <v>line along anterior-posterior axis of medial condyle of metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B137" t="s">
+        <v>108</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>1840</v>
       </c>
     </row>
     <row r="154" spans="2:2">
@@ -22400,9 +22474,9 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -22712,14 +22786,14 @@
   <dimension ref="A1:X195"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.8125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -26548,7 +26622,7 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\fovt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32F9E70-2074-4662-947E-33C863E2CDC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA7BB89-EF50-41E0-91C9-05F8F710E7B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="1841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3973" uniqueCount="1852">
   <si>
     <t>Status</t>
   </si>
@@ -5635,6 +5635,39 @@
   </si>
   <si>
     <t>Lower primary molar 1 width</t>
+  </si>
+  <si>
+    <t>upper molar 1</t>
+  </si>
+  <si>
+    <t>lower first secondary molar tooth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lower first primary molar tooth </t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of molar tooth 1</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper molar 1</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower first secondary molar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper first secondary molar tooth</t>
+  </si>
+  <si>
+    <t>upper first secondary molar tooth</t>
+  </si>
+  <si>
+    <t>upper first primary molar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper first primary molar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of first primary molar tooth</t>
   </si>
 </sst>
 </file>
@@ -20284,8 +20317,8 @@
   <dimension ref="A1:D313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A144" sqref="A144"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -22309,35 +22342,86 @@
       <c r="C137" t="s">
         <v>1834</v>
       </c>
+      <c r="D137" t="s">
+        <v>1844</v>
+      </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>1835</v>
       </c>
+      <c r="B138" t="s">
+        <v>108</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1845</v>
+      </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>1836</v>
       </c>
+      <c r="B139" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>1837</v>
       </c>
+      <c r="B140" t="s">
+        <v>108</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1847</v>
+      </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>1838</v>
       </c>
+      <c r="B141" t="s">
+        <v>108</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1850</v>
+      </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>1839</v>
       </c>
+      <c r="B142" t="s">
+        <v>108</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1846</v>
+      </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>1840</v>
+      </c>
+      <c r="B143" t="s">
+        <v>108</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1851</v>
       </c>
     </row>
     <row r="154" spans="2:2">

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\fovt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA7BB89-EF50-41E0-91C9-05F8F710E7B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA8E22A-EED3-4527-BE77-213C8D72E3FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3973" uniqueCount="1852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4155" uniqueCount="1965">
   <si>
     <t>Status</t>
   </si>
@@ -5586,9 +5586,6 @@
     <t>occlusal surface of tooth</t>
   </si>
   <si>
-    <t>Surface of a tooth that contacts another tooth.</t>
-  </si>
-  <si>
     <t>done in fovt</t>
   </si>
   <si>
@@ -5668,6 +5665,348 @@
   </si>
   <si>
     <t>line along medial-lateral axis of first primary molar tooth</t>
+  </si>
+  <si>
+    <t>lower molar 1</t>
+  </si>
+  <si>
+    <t>First molar (counting anteriorposteriorly in the lower jaw)</t>
+  </si>
+  <si>
+    <t>molar tooth 1' and ('part of' some 'lower jaw region')</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower molar 1</t>
+  </si>
+  <si>
+    <t>Molar 1 length</t>
+  </si>
+  <si>
+    <t>Upper molar 1 length</t>
+  </si>
+  <si>
+    <t>Lower molar 1 length</t>
+  </si>
+  <si>
+    <t>Upper secondary molar 1 length</t>
+  </si>
+  <si>
+    <t>Upper primary molar 1 length</t>
+  </si>
+  <si>
+    <t>Lower secondary molar 1 length</t>
+  </si>
+  <si>
+    <t>Lower primary molar 1 length</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of molar tooth 1</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper molar 1</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower molar 1</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper first secondary molar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper first primary molar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower first secondary molar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower first primary molar tooth</t>
+  </si>
+  <si>
+    <t>Molar 2 width</t>
+  </si>
+  <si>
+    <t>Upper molar 2 width</t>
+  </si>
+  <si>
+    <t>Lower molar 2 width</t>
+  </si>
+  <si>
+    <t>Upper secondary molar 2 width</t>
+  </si>
+  <si>
+    <t>Upper primary molar 2 width</t>
+  </si>
+  <si>
+    <t>Lower secondary molar 2 width</t>
+  </si>
+  <si>
+    <t>Lower primary molar 2 width</t>
+  </si>
+  <si>
+    <t>molar tooth 2</t>
+  </si>
+  <si>
+    <t>upper molar 2</t>
+  </si>
+  <si>
+    <t>Second molar (counting anteriorposteriorly in the upper jaw)</t>
+  </si>
+  <si>
+    <t>molar tooth 2' and ('part of' some 'upper jaw region')</t>
+  </si>
+  <si>
+    <t>lower molar 2</t>
+  </si>
+  <si>
+    <t>Surface of a tooth that contacts another tooth</t>
+  </si>
+  <si>
+    <t>Second molar (counting anteriorposteriorly in the lower jaw)</t>
+  </si>
+  <si>
+    <t>molar tooth 2' and ('part of' some 'lower jaw region')</t>
+  </si>
+  <si>
+    <t>upper second secondary molar tooth</t>
+  </si>
+  <si>
+    <t>lower second secondary molar tooth</t>
+  </si>
+  <si>
+    <t>upper second primary molar tooth</t>
+  </si>
+  <si>
+    <t>lower second primary molar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper molar 2</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower molar 2</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper second secondary molar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper second primary molar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower second secondary molar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower second primary molar tooth</t>
+  </si>
+  <si>
+    <t>Molar 2 length</t>
+  </si>
+  <si>
+    <t>Upper molar 2 length</t>
+  </si>
+  <si>
+    <t>Lower molar 2 length</t>
+  </si>
+  <si>
+    <t>Upper secondary molar 2 length</t>
+  </si>
+  <si>
+    <t>Upper primary molar 2 length</t>
+  </si>
+  <si>
+    <t>Lower secondary molar 2 length</t>
+  </si>
+  <si>
+    <t>Lower primary molar 2 length</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of molar tooth 2</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of molar tooth 2</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper molar 2</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower molar 2</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper second secondary molar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper second primary molar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower second secondary molar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower second primary molar tooth</t>
+  </si>
+  <si>
+    <t>Molar 3 width</t>
+  </si>
+  <si>
+    <t>Upper molar 3 width</t>
+  </si>
+  <si>
+    <t>Lower molar 3 width</t>
+  </si>
+  <si>
+    <t>Upper secondary molar 3 width</t>
+  </si>
+  <si>
+    <t>Upper primary molar 3 width</t>
+  </si>
+  <si>
+    <t>Lower secondary molar 3 width</t>
+  </si>
+  <si>
+    <t>Lower primary molar 3 width</t>
+  </si>
+  <si>
+    <t>molar tooth 3</t>
+  </si>
+  <si>
+    <t>lower molar 3</t>
+  </si>
+  <si>
+    <t>lower third secondary molar tooth</t>
+  </si>
+  <si>
+    <t>upper third secondary molar tooth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper molar 3 </t>
+  </si>
+  <si>
+    <t>Third molar (counting anteriorposteriorly in the upper jaw)</t>
+  </si>
+  <si>
+    <t>molar tooth 3' and ('part of' some 'upper jaw region')</t>
+  </si>
+  <si>
+    <t>upper molar 3</t>
+  </si>
+  <si>
+    <t>lower third primary molar tooth</t>
+  </si>
+  <si>
+    <t>upper third primary molar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of molar tooth 3</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper molar 3</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower molar 3</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper third secondary molar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper third primary molar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower third secondary molar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower third primary molar tooth</t>
+  </si>
+  <si>
+    <t>Molar 3 length</t>
+  </si>
+  <si>
+    <t>Upper molar 3 length</t>
+  </si>
+  <si>
+    <t>Lower molar 3 length</t>
+  </si>
+  <si>
+    <t>Upper primary molar 3 length</t>
+  </si>
+  <si>
+    <t>Upper secondary molar 3 length</t>
+  </si>
+  <si>
+    <t>Lower secondary molar 3 length</t>
+  </si>
+  <si>
+    <t>Lower primary molar 3 length</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of molar tooth 3</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper molar 3</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower molar 3</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper third secondary molar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper third primary molar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower third secondary molar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower third primary molar tooth</t>
+  </si>
+  <si>
+    <t>Molar 4 length</t>
+  </si>
+  <si>
+    <t>Molar 4 width</t>
+  </si>
+  <si>
+    <t>Lower molar 4 width</t>
+  </si>
+  <si>
+    <t>Upper molar 4 width</t>
+  </si>
+  <si>
+    <t>upper molar 4</t>
+  </si>
+  <si>
+    <t>lower molar 4</t>
+  </si>
+  <si>
+    <t>Fourth molar (counting anteriorposteriorly in the upper jaw)</t>
+  </si>
+  <si>
+    <t>Fourth molar (counting anteriorposteriorly in the lower jaw)</t>
+  </si>
+  <si>
+    <t>molar tooth 4' and ('part of' some 'upper jaw region')</t>
+  </si>
+  <si>
+    <t>molar tooth 4' and ('part of' some 'lower jaw region')</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of molar tooth 4</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper molar 4</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower molar 4</t>
+  </si>
+  <si>
+    <t>Upper molar 4 length</t>
+  </si>
+  <si>
+    <t>Lower molar 4 length</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of molar tooth 4</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper molar 4</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower molar 4</t>
   </si>
 </sst>
 </file>
@@ -6348,19 +6687,19 @@
     <row r="20" spans="1:4">
       <c r="A20" s="11"/>
       <c r="B20" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="25"/>
       <c r="B21" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="26"/>
       <c r="B22" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6376,9 +6715,9 @@
   <dimension ref="A1:AD500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
+      <selection pane="bottomLeft" activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6453,7 +6792,7 @@
         <v>994</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6507,7 +6846,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
@@ -6553,7 +6892,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
@@ -6595,7 +6934,7 @@
         <v>343</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -6622,7 +6961,7 @@
     <row r="6" spans="1:30" s="11" customFormat="1">
       <c r="A6" s="31"/>
       <c r="B6" s="10" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
@@ -6658,7 +6997,7 @@
     <row r="7" spans="1:30" s="11" customFormat="1">
       <c r="A7" s="31"/>
       <c r="B7" s="10" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -6710,7 +7049,7 @@
     <row r="8" spans="1:30" s="11" customFormat="1">
       <c r="A8" s="31"/>
       <c r="B8" s="10" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -6764,7 +7103,7 @@
         <v>995</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -6808,7 +7147,7 @@
     <row r="10" spans="1:30">
       <c r="A10" s="31"/>
       <c r="B10" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -6852,7 +7191,7 @@
     <row r="11" spans="1:30">
       <c r="A11" s="31"/>
       <c r="B11" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -6896,7 +7235,7 @@
     <row r="12" spans="1:30" s="26" customFormat="1">
       <c r="A12" s="31"/>
       <c r="B12" s="28" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -6904,7 +7243,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
@@ -6940,7 +7279,7 @@
     <row r="13" spans="1:30" s="26" customFormat="1">
       <c r="A13" s="31"/>
       <c r="B13" s="28" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -6948,7 +7287,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="28"/>
@@ -6984,7 +7323,7 @@
     <row r="14" spans="1:30" s="11" customFormat="1">
       <c r="A14" s="31"/>
       <c r="B14" s="10" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -7034,7 +7373,7 @@
     <row r="15" spans="1:30" s="11" customFormat="1">
       <c r="A15" s="31"/>
       <c r="B15" s="10" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -7082,7 +7421,7 @@
     <row r="16" spans="1:30" s="26" customFormat="1">
       <c r="A16" s="31"/>
       <c r="B16" s="28" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -7126,7 +7465,7 @@
     <row r="17" spans="1:30" s="11" customFormat="1">
       <c r="A17" s="31"/>
       <c r="B17" s="10" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -7178,7 +7517,7 @@
     <row r="18" spans="1:30" s="11" customFormat="1">
       <c r="A18" s="31"/>
       <c r="B18" s="10" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C18" s="10"/>
       <c r="F18" s="10" t="s">
@@ -7462,7 +7801,7 @@
     <row r="30" spans="1:30">
       <c r="A30" s="31"/>
       <c r="B30" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -7506,7 +7845,7 @@
     <row r="31" spans="1:30">
       <c r="A31" s="31"/>
       <c r="B31" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -7550,7 +7889,7 @@
     <row r="32" spans="1:30">
       <c r="A32" s="31"/>
       <c r="B32" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -7594,7 +7933,7 @@
     <row r="33" spans="1:30" s="26" customFormat="1">
       <c r="A33" s="31"/>
       <c r="B33" s="28" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
@@ -7640,7 +7979,7 @@
     <row r="34" spans="1:30" s="26" customFormat="1">
       <c r="A34" s="31"/>
       <c r="B34" s="28" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
@@ -7686,7 +8025,7 @@
     <row r="35" spans="1:30" s="11" customFormat="1">
       <c r="A35" s="31"/>
       <c r="B35" s="10" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -7738,7 +8077,7 @@
     <row r="36" spans="1:30" s="11" customFormat="1">
       <c r="A36" s="31"/>
       <c r="B36" s="10" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -8264,7 +8603,7 @@
         <v>997</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -8308,7 +8647,7 @@
     <row r="54" spans="1:30">
       <c r="A54" s="31"/>
       <c r="B54" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -8352,7 +8691,7 @@
     <row r="55" spans="1:30">
       <c r="A55" s="31"/>
       <c r="B55" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -8396,10 +8735,10 @@
     <row r="56" spans="1:30" s="26" customFormat="1">
       <c r="A56" s="31"/>
       <c r="B56" s="28" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D56" s="28"/>
       <c r="E56" s="28" t="s">
@@ -8444,10 +8783,10 @@
     <row r="57" spans="1:30" s="26" customFormat="1">
       <c r="A57" s="31"/>
       <c r="B57" s="28" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D57" s="28"/>
       <c r="E57" s="28" t="s">
@@ -9276,7 +9615,7 @@
         <v>998</v>
       </c>
       <c r="B84" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C84" s="17"/>
       <c r="E84" s="3" t="s">
@@ -9312,7 +9651,7 @@
     <row r="85" spans="1:21">
       <c r="A85" s="32"/>
       <c r="B85" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C85" s="17"/>
       <c r="E85" s="3" t="s">
@@ -9352,7 +9691,7 @@
         <v>15</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3" t="s">
@@ -9424,7 +9763,7 @@
         <v>15</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2" t="s">
@@ -9498,7 +9837,7 @@
         <v>15</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2" t="s">
@@ -9574,7 +9913,7 @@
         <v>15</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3" t="s">
@@ -9646,7 +9985,7 @@
         <v>15</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3" t="s">
@@ -9782,7 +10121,7 @@
         <v>15</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="3" t="s">
@@ -11913,7 +12252,7 @@
         <v>1002</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -11959,7 +12298,7 @@
     <row r="177" spans="1:30">
       <c r="A177" s="31"/>
       <c r="B177" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -12002,7 +12341,7 @@
     <row r="178" spans="1:30">
       <c r="A178" s="31"/>
       <c r="B178" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -12048,7 +12387,7 @@
     <row r="179" spans="1:30">
       <c r="A179" s="31"/>
       <c r="B179" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -12096,7 +12435,7 @@
     <row r="180" spans="1:30">
       <c r="A180" s="31"/>
       <c r="B180" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -12297,9 +12636,7 @@
     </row>
     <row r="187" spans="1:30" s="11" customFormat="1">
       <c r="A187" s="31"/>
-      <c r="C187" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C187" s="10"/>
       <c r="E187" s="9" t="s">
         <v>343</v>
       </c>
@@ -12336,9 +12673,7 @@
     </row>
     <row r="188" spans="1:30" s="11" customFormat="1">
       <c r="A188" s="31"/>
-      <c r="C188" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C188" s="10"/>
       <c r="E188" s="9" t="s">
         <v>343</v>
       </c>
@@ -12375,9 +12710,7 @@
     </row>
     <row r="189" spans="1:30" s="11" customFormat="1">
       <c r="A189" s="31"/>
-      <c r="C189" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C189" s="10"/>
       <c r="E189" s="9" t="s">
         <v>343</v>
       </c>
@@ -12414,9 +12747,7 @@
     </row>
     <row r="190" spans="1:30" s="11" customFormat="1">
       <c r="A190" s="31"/>
-      <c r="C190" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C190" s="10"/>
       <c r="E190" s="9" t="s">
         <v>343</v>
       </c>
@@ -12766,7 +13097,7 @@
     <row r="199" spans="1:30">
       <c r="A199" s="31"/>
       <c r="B199" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -12814,7 +13145,7 @@
     <row r="200" spans="1:30">
       <c r="A200" s="31"/>
       <c r="B200" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -12860,7 +13191,7 @@
     <row r="201" spans="1:30">
       <c r="A201" s="31"/>
       <c r="B201" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -20314,11 +20645,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01658F34-4982-8840-AF22-6E6480DB069B}">
-  <dimension ref="A1:D313"/>
+  <dimension ref="A1:D309"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D144" sqref="D144"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -22334,213 +22665,788 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B137" t="s">
         <v>108</v>
       </c>
       <c r="C137" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D137" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B138" t="s">
         <v>108</v>
       </c>
       <c r="C138" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D138" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B139" t="s">
         <v>108</v>
       </c>
+      <c r="C139" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1854</v>
+      </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B140" t="s">
         <v>108</v>
       </c>
       <c r="C140" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D140" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B141" t="s">
         <v>108</v>
       </c>
       <c r="C141" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D141" t="s">
         <v>1849</v>
-      </c>
-      <c r="D141" t="s">
-        <v>1850</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B142" t="s">
         <v>108</v>
       </c>
       <c r="C142" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D142" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B143" t="s">
         <v>108</v>
       </c>
       <c r="C143" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D143" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B144" t="s">
+        <v>112</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B145" t="s">
+        <v>112</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B146" t="s">
+        <v>112</v>
+      </c>
+      <c r="C146" t="s">
         <v>1851</v>
       </c>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
+      <c r="D146" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B147" t="s">
+        <v>112</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B148" t="s">
+        <v>112</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B149" t="s">
+        <v>112</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B150" t="s">
+        <v>112</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B151" t="s">
+        <v>108</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B152" t="s">
+        <v>108</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B153" t="s">
+        <v>108</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B154" t="s">
+        <v>108</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B155" t="s">
+        <v>108</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B156" t="s">
+        <v>108</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B157" t="s">
+        <v>108</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B158" t="s">
+        <v>112</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B159" t="s">
+        <v>112</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B160" t="s">
+        <v>112</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B161" t="s">
+        <v>112</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B162" t="s">
+        <v>112</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B163" t="s">
+        <v>112</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B164" t="s">
+        <v>112</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B165" t="s">
+        <v>108</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B166" t="s">
+        <v>108</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B167" t="s">
+        <v>108</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B168" t="s">
+        <v>108</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B169" t="s">
+        <v>108</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B170" t="s">
+        <v>108</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B171" t="s">
+        <v>108</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B172" t="s">
+        <v>112</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B173" t="s">
+        <v>112</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B174" t="s">
+        <v>112</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B175" t="s">
+        <v>112</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B176" t="s">
+        <v>112</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B177" t="s">
+        <v>112</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B178" t="s">
+        <v>112</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B179" t="s">
+        <v>108</v>
+      </c>
+      <c r="C179" t="s">
+        <v>67</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B180" t="s">
+        <v>108</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B181" t="s">
+        <v>108</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B182" t="s">
+        <v>112</v>
+      </c>
+      <c r="C182" t="s">
+        <v>67</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B183" t="s">
+        <v>112</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B184" t="s">
+        <v>112</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C285" s="22" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D285" t="str">
+        <f>"line along "&amp;B285&amp;" of "&amp;C285</f>
+        <v>line along proximal-distal of lateral side' some talus</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D286" t="str">
+        <f>"line along "&amp;B286&amp;" of "&amp;C286</f>
+        <v>line along proximal-distal of pes</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B289" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C289" s="22" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D289" t="str">
-        <f>"line along "&amp;B289&amp;" of "&amp;C289</f>
-        <v>line along proximal-distal of lateral side' some talus</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B290" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C290" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D290" t="str">
-        <f>"line along "&amp;B290&amp;" of "&amp;C290</f>
-        <v>line along proximal-distal of pes</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="A298" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4">
-      <c r="A299" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4">
-      <c r="A300" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4">
-      <c r="A301" t="s">
         <v>537</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="1" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="1" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="1" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1">
-      <c r="A310" s="1" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311" s="1" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1">
-      <c r="A312" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
-      <c r="A313" s="1" t="s">
         <v>630</v>
       </c>
     </row>
@@ -22552,18 +23458,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C6BB58-E681-9A44-BAE6-1CC6AE173542}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="45.1875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.875" customWidth="1"/>
+    <col min="4" max="4" width="44.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1103</v>
       </c>
@@ -22573,8 +23481,11 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1272</v>
       </c>
@@ -22585,7 +23496,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1131</v>
       </c>
@@ -22596,7 +23507,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1805</v>
       </c>
@@ -22604,7 +23515,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>1807</v>
       </c>
@@ -22612,7 +23523,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>1806</v>
       </c>
@@ -22620,7 +23531,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>1804</v>
       </c>
@@ -22628,7 +23539,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>1808</v>
       </c>
@@ -22636,7 +23547,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>1157</v>
       </c>
@@ -22644,7 +23555,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>1156</v>
       </c>
@@ -22652,7 +23563,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>1154</v>
       </c>
@@ -22660,7 +23571,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>1155</v>
       </c>
@@ -22668,7 +23579,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>1267</v>
       </c>
@@ -22676,7 +23587,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>1276</v>
       </c>
@@ -22684,7 +23595,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>1268</v>
       </c>
@@ -22692,7 +23603,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>1269</v>
       </c>
@@ -22828,7 +23739,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>1200</v>
       </c>
@@ -22836,7 +23747,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>1821</v>
       </c>
@@ -22844,7 +23755,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>1208</v>
       </c>
@@ -22852,12 +23763,88 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>1823</v>
       </c>
       <c r="C38" t="s">
-        <v>1824</v>
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>1956</v>
       </c>
     </row>
   </sheetData>
@@ -22870,7 +23857,7 @@
   <dimension ref="A1:X195"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\fovt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA8E22A-EED3-4527-BE77-213C8D72E3FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F33B23F-6FE8-4ED1-B3DA-E822C982B25C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4155" uniqueCount="1965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4333" uniqueCount="2074">
   <si>
     <t>Status</t>
   </si>
@@ -6007,6 +6007,333 @@
   </si>
   <si>
     <t>line along anterior-posterior axis of lower molar 4</t>
+  </si>
+  <si>
+    <t>premolar 1</t>
+  </si>
+  <si>
+    <t>Premolar 1 width</t>
+  </si>
+  <si>
+    <t>Upper premolar 1 width</t>
+  </si>
+  <si>
+    <t>Lower premolar 1 width</t>
+  </si>
+  <si>
+    <t>Upper secondary premolar 1 width</t>
+  </si>
+  <si>
+    <t>Upper primary premolar 1 width</t>
+  </si>
+  <si>
+    <t>Lower secondary premolar 1 width</t>
+  </si>
+  <si>
+    <t>Lower primary premolar 1 width</t>
+  </si>
+  <si>
+    <t>lower premolar 1</t>
+  </si>
+  <si>
+    <t>upper first secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>upper first primary premolar tooth</t>
+  </si>
+  <si>
+    <t>lower first secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>lower first primary premolar tooth</t>
+  </si>
+  <si>
+    <t>upper premolar 1</t>
+  </si>
+  <si>
+    <t>First premolar (counting anteriorposteriorly in the upper jaw)</t>
+  </si>
+  <si>
+    <t>premolar tooth 1' and ('part of' some 'upper jaw region')</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of premolar 1</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper premolar 1</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower premolar 1</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper first secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper first primary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower first secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower first primary premolar tooth</t>
+  </si>
+  <si>
+    <t>Premolar 1 length</t>
+  </si>
+  <si>
+    <t>Upper premolar 1 length</t>
+  </si>
+  <si>
+    <t>Lower premolar 1 length</t>
+  </si>
+  <si>
+    <t>Upper secondary premolar 1 length</t>
+  </si>
+  <si>
+    <t>Upper primary premolar 1 length</t>
+  </si>
+  <si>
+    <t>Lower secondary premolar 1 length</t>
+  </si>
+  <si>
+    <t>Lower primary premolar 1 length</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of premolar 1</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper premolar 1</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower premolar 1</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper first secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper first primary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower first secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower first primary premolar tooth</t>
+  </si>
+  <si>
+    <t>Premolar 2 width</t>
+  </si>
+  <si>
+    <t>Upper premolar 2 width</t>
+  </si>
+  <si>
+    <t>Lower premolar 2 width</t>
+  </si>
+  <si>
+    <t>Upper secondary premolar 2 width</t>
+  </si>
+  <si>
+    <t>Upper primary premolar 2 width</t>
+  </si>
+  <si>
+    <t>Lower secondary premolar 2 width</t>
+  </si>
+  <si>
+    <t>Lower primary premolar 2 width</t>
+  </si>
+  <si>
+    <t>premolar 2</t>
+  </si>
+  <si>
+    <t>upper premolar 2</t>
+  </si>
+  <si>
+    <t>lower premolar 2</t>
+  </si>
+  <si>
+    <t>lower second secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>upper second secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>Second premolar (counting anteriorposteriorly in the upper jaw)</t>
+  </si>
+  <si>
+    <t>upper second primary premolar tooth</t>
+  </si>
+  <si>
+    <t>lower second primary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of premolar 2</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper premolar 2</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower premolar 2</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper second secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper second primary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower second secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower second primary premolar tooth</t>
+  </si>
+  <si>
+    <t>Premolar 2 length</t>
+  </si>
+  <si>
+    <t>Upper premolar 2 length</t>
+  </si>
+  <si>
+    <t>Lower premolar 2 length</t>
+  </si>
+  <si>
+    <t>Upper secondary premolar 2 length</t>
+  </si>
+  <si>
+    <t>Upper primary premolar 2 length</t>
+  </si>
+  <si>
+    <t>Lower secondary premolar 2 length</t>
+  </si>
+  <si>
+    <t>Lower primary premolar 2 length</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of premolar 2</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper premolar 2</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower premolar 2</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper second secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper second primary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower second secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower second primary premolar tooth</t>
+  </si>
+  <si>
+    <t>Premolar 3 width</t>
+  </si>
+  <si>
+    <t>Upper premolar 3 width</t>
+  </si>
+  <si>
+    <t>Lower premolar 3 width</t>
+  </si>
+  <si>
+    <t>Upper secondary premolar 3 width</t>
+  </si>
+  <si>
+    <t>Upper primary premolar 3 width</t>
+  </si>
+  <si>
+    <t>Lower secondary premolar 3 width</t>
+  </si>
+  <si>
+    <t>Lower primary premolar 3 width</t>
+  </si>
+  <si>
+    <t>upper premolar 3</t>
+  </si>
+  <si>
+    <t>lower premolar 3</t>
+  </si>
+  <si>
+    <t>Third premolar (counting anteriorposteriorly in the upper jaw)</t>
+  </si>
+  <si>
+    <t>premolar tooth 2' and ('part of' some 'upper jaw region')</t>
+  </si>
+  <si>
+    <t>premolar tooth 3' and ('part of' some 'upper jaw region')</t>
+  </si>
+  <si>
+    <t>Third premolar (counting anteriorposteriorly in the lower jaw)</t>
+  </si>
+  <si>
+    <t>upper third primary premolar tooth</t>
+  </si>
+  <si>
+    <t>lower third primary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of premolar 3</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper premolar 3</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower premolar 3</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper third secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper third primary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower third secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower third primary premolar tooth</t>
+  </si>
+  <si>
+    <t>Premolar 3 length</t>
+  </si>
+  <si>
+    <t>Upper premolar 3 length</t>
+  </si>
+  <si>
+    <t>Lower premolar 3 length</t>
+  </si>
+  <si>
+    <t>Upper secondary premolar 3 length</t>
+  </si>
+  <si>
+    <t>Upper primary premolar 3 length</t>
+  </si>
+  <si>
+    <t>Lower secondary premolar 3 length</t>
+  </si>
+  <si>
+    <t>Lower primary premolar 3 length</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of premolar 3</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper premolar 3</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower premolar 3</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper third secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper third primary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower third secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower third primary premolar tooth</t>
   </si>
 </sst>
 </file>
@@ -6715,9 +7042,9 @@
   <dimension ref="A1:AD500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C191" sqref="C191"/>
+      <selection pane="bottomLeft" activeCell="C202" sqref="C202:C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -12784,9 +13111,7 @@
     </row>
     <row r="191" spans="1:30" s="11" customFormat="1">
       <c r="A191" s="31"/>
-      <c r="C191" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C191" s="10"/>
       <c r="E191" s="9" t="s">
         <v>343</v>
       </c>
@@ -12823,9 +13148,7 @@
     </row>
     <row r="192" spans="1:30" s="11" customFormat="1">
       <c r="A192" s="31"/>
-      <c r="C192" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C192" s="10"/>
       <c r="E192" s="9" t="s">
         <v>343</v>
       </c>
@@ -12862,9 +13185,7 @@
     </row>
     <row r="193" spans="1:30" s="11" customFormat="1">
       <c r="A193" s="31"/>
-      <c r="C193" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C193" s="10"/>
       <c r="E193" s="9" t="s">
         <v>343</v>
       </c>
@@ -12901,9 +13222,7 @@
     </row>
     <row r="194" spans="1:30" s="11" customFormat="1">
       <c r="A194" s="31"/>
-      <c r="C194" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C194" s="10"/>
       <c r="E194" s="9" t="s">
         <v>343</v>
       </c>
@@ -12940,9 +13259,7 @@
     </row>
     <row r="195" spans="1:30" s="11" customFormat="1">
       <c r="A195" s="31"/>
-      <c r="C195" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C195" s="10"/>
       <c r="E195" s="9" t="s">
         <v>343</v>
       </c>
@@ -12979,9 +13296,7 @@
     </row>
     <row r="196" spans="1:30" s="11" customFormat="1">
       <c r="A196" s="31"/>
-      <c r="C196" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C196" s="10"/>
       <c r="E196" s="9" t="s">
         <v>343</v>
       </c>
@@ -13018,9 +13333,7 @@
     </row>
     <row r="197" spans="1:30" s="11" customFormat="1">
       <c r="A197" s="31"/>
-      <c r="C197" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C197" s="10"/>
       <c r="E197" s="9" t="s">
         <v>343</v>
       </c>
@@ -13057,9 +13370,7 @@
     </row>
     <row r="198" spans="1:30" s="11" customFormat="1">
       <c r="A198" s="31"/>
-      <c r="C198" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C198" s="10"/>
       <c r="E198" s="9" t="s">
         <v>343</v>
       </c>
@@ -20648,8 +20959,8 @@
   <dimension ref="A1:D309"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D185" sqref="D185"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D227" sqref="D227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -23335,6 +23646,594 @@
         <v>1964</v>
       </c>
     </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B185" t="s">
+        <v>108</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B186" t="s">
+        <v>108</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B187" t="s">
+        <v>108</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B188" t="s">
+        <v>108</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B189" t="s">
+        <v>108</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B190" t="s">
+        <v>108</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B191" t="s">
+        <v>108</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B192" t="s">
+        <v>112</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B193" t="s">
+        <v>112</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B194" t="s">
+        <v>112</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B195" t="s">
+        <v>112</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B196" t="s">
+        <v>112</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B197" t="s">
+        <v>112</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D197" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B198" t="s">
+        <v>112</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D198" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B199" t="s">
+        <v>108</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D199" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B200" t="s">
+        <v>108</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D200" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B201" t="s">
+        <v>108</v>
+      </c>
+      <c r="C201" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D201" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B202" t="s">
+        <v>108</v>
+      </c>
+      <c r="C202" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D202" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B203" t="s">
+        <v>108</v>
+      </c>
+      <c r="C203" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D203" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B204" t="s">
+        <v>108</v>
+      </c>
+      <c r="C204" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D204" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B205" t="s">
+        <v>108</v>
+      </c>
+      <c r="C205" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D205" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B206" t="s">
+        <v>112</v>
+      </c>
+      <c r="C206" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D206" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B207" t="s">
+        <v>112</v>
+      </c>
+      <c r="C207" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D207" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B208" t="s">
+        <v>112</v>
+      </c>
+      <c r="C208" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D208" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B209" t="s">
+        <v>112</v>
+      </c>
+      <c r="C209" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D209" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B210" t="s">
+        <v>112</v>
+      </c>
+      <c r="C210" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D210" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B211" t="s">
+        <v>112</v>
+      </c>
+      <c r="C211" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D211" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B212" t="s">
+        <v>112</v>
+      </c>
+      <c r="C212" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D212" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B213" t="s">
+        <v>108</v>
+      </c>
+      <c r="C213" t="s">
+        <v>74</v>
+      </c>
+      <c r="D213" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B214" t="s">
+        <v>108</v>
+      </c>
+      <c r="C214" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D214" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B215" t="s">
+        <v>108</v>
+      </c>
+      <c r="C215" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D215" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B216" t="s">
+        <v>108</v>
+      </c>
+      <c r="C216" t="s">
+        <v>104</v>
+      </c>
+      <c r="D216" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B217" t="s">
+        <v>108</v>
+      </c>
+      <c r="C217" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D217" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B218" t="s">
+        <v>108</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
+      </c>
+      <c r="D218" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B219" t="s">
+        <v>108</v>
+      </c>
+      <c r="C219" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D219" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B220" t="s">
+        <v>112</v>
+      </c>
+      <c r="C220" t="s">
+        <v>74</v>
+      </c>
+      <c r="D220" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B221" t="s">
+        <v>112</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D221" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B222" t="s">
+        <v>112</v>
+      </c>
+      <c r="C222" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D222" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B223" t="s">
+        <v>112</v>
+      </c>
+      <c r="C223" t="s">
+        <v>104</v>
+      </c>
+      <c r="D223" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B224" t="s">
+        <v>112</v>
+      </c>
+      <c r="C224" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D224" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B225" t="s">
+        <v>112</v>
+      </c>
+      <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B226" t="s">
+        <v>112</v>
+      </c>
+      <c r="C226" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D226" t="s">
+        <v>2073</v>
+      </c>
+    </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>1230</v>
@@ -23458,16 +24357,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C6BB58-E681-9A44-BAE6-1CC6AE173542}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="45.1875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.875" customWidth="1"/>
+    <col min="3" max="3" width="51.5" customWidth="1"/>
     <col min="4" max="4" width="44.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23845,6 +24744,80 @@
       </c>
       <c r="D46" s="22" t="s">
         <v>1956</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>2052</v>
       </c>
     </row>
   </sheetData>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\fovt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F33B23F-6FE8-4ED1-B3DA-E822C982B25C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D41F9F-244F-4E8B-9B96-3E6DEF6E0BAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4333" uniqueCount="2074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4448" uniqueCount="2142">
   <si>
     <t>Status</t>
   </si>
@@ -6334,6 +6334,210 @@
   </si>
   <si>
     <t>line along anterior-posterior axis of lower third primary premolar tooth</t>
+  </si>
+  <si>
+    <t>Premolar 4 width</t>
+  </si>
+  <si>
+    <t>Upper premolar 4 width</t>
+  </si>
+  <si>
+    <t>Lower premolar 4 width</t>
+  </si>
+  <si>
+    <t>Upper secondary premolar 4 width</t>
+  </si>
+  <si>
+    <t>Upper primary premolar 4 width</t>
+  </si>
+  <si>
+    <t>Lower secondary premolar 4 width</t>
+  </si>
+  <si>
+    <t>Lower primary premolar 4 width</t>
+  </si>
+  <si>
+    <t>premolar tooth 4</t>
+  </si>
+  <si>
+    <t>upper premolar 4</t>
+  </si>
+  <si>
+    <t>lower premolar 4</t>
+  </si>
+  <si>
+    <t>upper fourth primary premolar tooth</t>
+  </si>
+  <si>
+    <t>lower fourth primary premolar tooth</t>
+  </si>
+  <si>
+    <t>Fourth premolar (counting anteriorposteriorly in the lower jaw)</t>
+  </si>
+  <si>
+    <t>premolar tooth 4' and ('part of' some 'lower jaw region')</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of premolar tooth 4</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper premolar 4</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower premolar 4</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper fourth secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper fourth primary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower fourth secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower fourth primary premolar tooth</t>
+  </si>
+  <si>
+    <t>Premolar 4 length</t>
+  </si>
+  <si>
+    <t>Upper premolar 4 length</t>
+  </si>
+  <si>
+    <t>Lower premolar 4 length</t>
+  </si>
+  <si>
+    <t>Upper secondary premolar 4 length</t>
+  </si>
+  <si>
+    <t>Upper primary premolar 4 length</t>
+  </si>
+  <si>
+    <t>Lower secondary premolar 4 length</t>
+  </si>
+  <si>
+    <t>Lower primary premolar 4 length</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of premolar tooth 4</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper premolar 4</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower premolar 4</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper fourth secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper fourth primary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower fourth secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower fourth primary premolar tooth</t>
+  </si>
+  <si>
+    <t>Premolar 5 width</t>
+  </si>
+  <si>
+    <t>Upper premolar 5 width</t>
+  </si>
+  <si>
+    <t>Lower premolar 5 width</t>
+  </si>
+  <si>
+    <t>Upper secondary premolar 5 width</t>
+  </si>
+  <si>
+    <t>Upper primary premolar 5 width</t>
+  </si>
+  <si>
+    <t>Lower secondary premolar 5 width</t>
+  </si>
+  <si>
+    <t>Lower primary premolar 5 width</t>
+  </si>
+  <si>
+    <t>premolar tooth 5</t>
+  </si>
+  <si>
+    <t>lower deciduous premolar 5</t>
+  </si>
+  <si>
+    <t>upper deciduous premolar 5</t>
+  </si>
+  <si>
+    <t>upper premolar 5</t>
+  </si>
+  <si>
+    <t>lower premolar 5</t>
+  </si>
+  <si>
+    <t>upper fifth secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>lower fifth secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>Fifth premolar (counting anteriorposteriorly in the lower jaw)</t>
+  </si>
+  <si>
+    <t>Fifth premolar (counting anteriorposteriorly in the upper jaw)</t>
+  </si>
+  <si>
+    <t>premolar tooth 5' and ('part of ' some 'upper jaw region')</t>
+  </si>
+  <si>
+    <t>premolar tooth 3' and ('part of' some 'lower jaw region')</t>
+  </si>
+  <si>
+    <t>premolar tooth 5' and ('part of' some 'upper jaw region')</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of premolar tooth 5</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper premolar 5</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower premolar 5</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper fifth secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of upper deciduous premolar 5</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower fifth secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of lower deciduous premolar 5</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of premolar tooth 5</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper premolar 5</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower premolar 5</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper deciduous premolar 5</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower deciduous premolar 5</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of upper fifth secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of lower fifth secondary premolar tooth</t>
   </si>
 </sst>
 </file>
@@ -7042,9 +7246,9 @@
   <dimension ref="A1:AD500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C202" sqref="C202:C205"/>
+      <selection pane="bottomLeft" activeCell="I213" sqref="I213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -13547,9 +13751,7 @@
     </row>
     <row r="202" spans="1:30" s="11" customFormat="1">
       <c r="A202" s="31"/>
-      <c r="C202" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C202" s="10"/>
       <c r="E202" s="9" t="s">
         <v>343</v>
       </c>
@@ -13586,9 +13788,7 @@
     </row>
     <row r="203" spans="1:30" s="11" customFormat="1">
       <c r="A203" s="31"/>
-      <c r="C203" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C203" s="10"/>
       <c r="E203" s="9" t="s">
         <v>343</v>
       </c>
@@ -13625,9 +13825,7 @@
     </row>
     <row r="204" spans="1:30" s="11" customFormat="1">
       <c r="A204" s="31"/>
-      <c r="C204" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C204" s="10"/>
       <c r="E204" s="9" t="s">
         <v>343</v>
       </c>
@@ -13664,9 +13862,7 @@
     </row>
     <row r="205" spans="1:30" s="11" customFormat="1">
       <c r="A205" s="31"/>
-      <c r="C205" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C205" s="10"/>
       <c r="E205" s="9" t="s">
         <v>343</v>
       </c>
@@ -13703,9 +13899,7 @@
     </row>
     <row r="206" spans="1:30" s="11" customFormat="1">
       <c r="A206" s="31"/>
-      <c r="C206" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C206" s="10"/>
       <c r="E206" s="9" t="s">
         <v>343</v>
       </c>
@@ -13730,9 +13924,7 @@
     </row>
     <row r="207" spans="1:30" s="11" customFormat="1">
       <c r="A207" s="31"/>
-      <c r="C207" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C207" s="10"/>
       <c r="E207" s="9" t="s">
         <v>343</v>
       </c>
@@ -13757,9 +13949,7 @@
     </row>
     <row r="208" spans="1:30" s="11" customFormat="1">
       <c r="A208" s="31"/>
-      <c r="C208" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C208" s="10"/>
       <c r="E208" s="9" t="s">
         <v>343</v>
       </c>
@@ -13796,9 +13986,7 @@
     </row>
     <row r="209" spans="1:21" s="11" customFormat="1">
       <c r="A209" s="31"/>
-      <c r="C209" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C209" s="10"/>
       <c r="E209" s="9" t="s">
         <v>343</v>
       </c>
@@ -13835,9 +14023,7 @@
     </row>
     <row r="210" spans="1:21" s="11" customFormat="1">
       <c r="A210" s="31"/>
-      <c r="C210" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C210" s="10"/>
       <c r="E210" s="9" t="s">
         <v>343</v>
       </c>
@@ -13874,9 +14060,7 @@
     </row>
     <row r="211" spans="1:21" s="11" customFormat="1">
       <c r="A211" s="31"/>
-      <c r="C211" s="10" t="s">
-        <v>983</v>
-      </c>
+      <c r="C211" s="10"/>
       <c r="E211" s="9" t="s">
         <v>343</v>
       </c>
@@ -20959,8 +21143,8 @@
   <dimension ref="A1:D309"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D227" sqref="D227"/>
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A255" sqref="A255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -24234,6 +24418,398 @@
         <v>2073</v>
       </c>
     </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B227" t="s">
+        <v>108</v>
+      </c>
+      <c r="C227" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D227" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B228" t="s">
+        <v>108</v>
+      </c>
+      <c r="C228" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D228" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B229" t="s">
+        <v>108</v>
+      </c>
+      <c r="C229" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D229" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B230" t="s">
+        <v>108</v>
+      </c>
+      <c r="C230" t="s">
+        <v>100</v>
+      </c>
+      <c r="D230" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B231" t="s">
+        <v>108</v>
+      </c>
+      <c r="C231" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D231" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B232" t="s">
+        <v>108</v>
+      </c>
+      <c r="C232" t="s">
+        <v>59</v>
+      </c>
+      <c r="D232" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B233" t="s">
+        <v>108</v>
+      </c>
+      <c r="C233" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D233" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B234" t="s">
+        <v>112</v>
+      </c>
+      <c r="C234" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D234" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B235" t="s">
+        <v>112</v>
+      </c>
+      <c r="C235" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D235" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B236" t="s">
+        <v>112</v>
+      </c>
+      <c r="C236" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D236" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B237" t="s">
+        <v>112</v>
+      </c>
+      <c r="C237" t="s">
+        <v>100</v>
+      </c>
+      <c r="D237" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B238" t="s">
+        <v>112</v>
+      </c>
+      <c r="C238" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D238" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B239" t="s">
+        <v>112</v>
+      </c>
+      <c r="C239" t="s">
+        <v>59</v>
+      </c>
+      <c r="D239" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B240" t="s">
+        <v>112</v>
+      </c>
+      <c r="C240" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D240" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B241" t="s">
+        <v>108</v>
+      </c>
+      <c r="C241" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D241" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B242" t="s">
+        <v>108</v>
+      </c>
+      <c r="C242" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D242" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B243" t="s">
+        <v>108</v>
+      </c>
+      <c r="C243" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D243" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B244" t="s">
+        <v>108</v>
+      </c>
+      <c r="C244" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D244" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B245" t="s">
+        <v>108</v>
+      </c>
+      <c r="C245" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D245" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B246" t="s">
+        <v>108</v>
+      </c>
+      <c r="C246" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D246" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B247" t="s">
+        <v>108</v>
+      </c>
+      <c r="C247" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D247" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B248" t="s">
+        <v>112</v>
+      </c>
+      <c r="C248" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D248" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B249" t="s">
+        <v>112</v>
+      </c>
+      <c r="C249" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D249" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B250" t="s">
+        <v>112</v>
+      </c>
+      <c r="C250" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D250" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B251" t="s">
+        <v>112</v>
+      </c>
+      <c r="C251" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D251" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B252" t="s">
+        <v>112</v>
+      </c>
+      <c r="C252" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D252" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B253" t="s">
+        <v>112</v>
+      </c>
+      <c r="C253" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D253" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B254" t="s">
+        <v>112</v>
+      </c>
+      <c r="C254" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D254" t="s">
+        <v>2139</v>
+      </c>
+    </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>1230</v>
@@ -24357,10 +24933,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C6BB58-E681-9A44-BAE6-1CC6AE173542}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -24807,7 +25383,7 @@
         <v>2050</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>2049</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -24818,6 +25394,59 @@
     <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>2052</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>2122</v>
       </c>
     </row>
   </sheetData>

--- a/Terms.xlsx
+++ b/Terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\fovt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D41F9F-244F-4E8B-9B96-3E6DEF6E0BAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B574044-9C1E-473E-A905-7716315B4D04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{855B7C57-FE80-7B4E-8146-986771C66920}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4448" uniqueCount="2142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4529" uniqueCount="2181">
   <si>
     <t>Status</t>
   </si>
@@ -6538,6 +6538,123 @@
   </si>
   <si>
     <t>line along anterior-posterior axis of lower fifth secondary premolar tooth</t>
+  </si>
+  <si>
+    <t>In pattern</t>
+  </si>
+  <si>
+    <t>Canine anterior-posterior diameter at base</t>
+  </si>
+  <si>
+    <t>Upper canine anterior-posterior diameter at base</t>
+  </si>
+  <si>
+    <t>Lower canine anterior-posterior diameter at base</t>
+  </si>
+  <si>
+    <t>Upper secondary canine anterior-posterior diameter at base</t>
+  </si>
+  <si>
+    <t>Upper primary canine anterior-posterior diameter at base</t>
+  </si>
+  <si>
+    <t>Lower secondary canine anterior-posterior diameter at base</t>
+  </si>
+  <si>
+    <t>Lower primary canine anterior-posterior diameter at base</t>
+  </si>
+  <si>
+    <t>upper primary canine tooth</t>
+  </si>
+  <si>
+    <t>upper secondary canine tooth</t>
+  </si>
+  <si>
+    <t>lower secondary canine tooth</t>
+  </si>
+  <si>
+    <t>lower primary canine tooth</t>
+  </si>
+  <si>
+    <t>upper canine 1</t>
+  </si>
+  <si>
+    <t>lower canine tooth</t>
+  </si>
+  <si>
+    <t>canine tooth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canine </t>
+  </si>
+  <si>
+    <t>line along anterior-posterior axis of canine tooth</t>
+  </si>
+  <si>
+    <t>line along anterior posterior-axis of upper canine 1</t>
+  </si>
+  <si>
+    <t>line along anterior posterior-axis of lower canine tooth</t>
+  </si>
+  <si>
+    <t>line along anterior posterior axis of upper secondary canine tooth</t>
+  </si>
+  <si>
+    <t>line along anterior posterior axis of upper primary canine tooth</t>
+  </si>
+  <si>
+    <t>line along anterior posterior axis of lower secondary canine tooth</t>
+  </si>
+  <si>
+    <t>line along anterior posterior axis of lower primary canine tooth</t>
+  </si>
+  <si>
+    <t>Canine medial-lateral diameter at base</t>
+  </si>
+  <si>
+    <t>Upper canine medial-lateral diameter at base</t>
+  </si>
+  <si>
+    <t>Lower canine medial-lateral diameter at base</t>
+  </si>
+  <si>
+    <t>Upper secondary canine medial-lateral diameter at base</t>
+  </si>
+  <si>
+    <t>Upper primary canine medial-lateral diameter at base</t>
+  </si>
+  <si>
+    <t>Lower secondary canine medial-lateral diameter at base</t>
+  </si>
+  <si>
+    <t>Lower primary canine medial-lateral diameter at base</t>
+  </si>
+  <si>
+    <t>line along medial-lateral axis of canine tooth</t>
+  </si>
+  <si>
+    <t>line along medial lateral-axis of upper canine 1</t>
+  </si>
+  <si>
+    <t>line along medial lateral-axis of lower canine tooth</t>
+  </si>
+  <si>
+    <t>line along medial lateral axis of upper secondary canine tooth</t>
+  </si>
+  <si>
+    <t>line along medial lateral axis of upper primary canine tooth</t>
+  </si>
+  <si>
+    <t>line along medial lateral axis of lower secondary canine tooth</t>
+  </si>
+  <si>
+    <t>line along medial lateral axis of lower primary canine tooth</t>
+  </si>
+  <si>
+    <t>Canine crown height</t>
+  </si>
+  <si>
+    <t>upper-lower axis</t>
   </si>
 </sst>
 </file>
@@ -6647,7 +6764,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6684,6 +6801,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -6698,7 +6821,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6740,6 +6863,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7246,9 +7370,9 @@
   <dimension ref="A1:AD500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I213" sqref="I213"/>
+      <selection pane="bottomLeft" activeCell="J245" sqref="J245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -13167,7 +13291,9 @@
     </row>
     <row r="187" spans="1:30" s="11" customFormat="1">
       <c r="A187" s="31"/>
-      <c r="C187" s="10"/>
+      <c r="C187" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E187" s="9" t="s">
         <v>343</v>
       </c>
@@ -13204,7 +13330,9 @@
     </row>
     <row r="188" spans="1:30" s="11" customFormat="1">
       <c r="A188" s="31"/>
-      <c r="C188" s="10"/>
+      <c r="C188" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E188" s="9" t="s">
         <v>343</v>
       </c>
@@ -13241,7 +13369,9 @@
     </row>
     <row r="189" spans="1:30" s="11" customFormat="1">
       <c r="A189" s="31"/>
-      <c r="C189" s="10"/>
+      <c r="C189" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E189" s="9" t="s">
         <v>343</v>
       </c>
@@ -13278,7 +13408,9 @@
     </row>
     <row r="190" spans="1:30" s="11" customFormat="1">
       <c r="A190" s="31"/>
-      <c r="C190" s="10"/>
+      <c r="C190" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E190" s="9" t="s">
         <v>343</v>
       </c>
@@ -13315,7 +13447,9 @@
     </row>
     <row r="191" spans="1:30" s="11" customFormat="1">
       <c r="A191" s="31"/>
-      <c r="C191" s="10"/>
+      <c r="C191" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E191" s="9" t="s">
         <v>343</v>
       </c>
@@ -13352,7 +13486,9 @@
     </row>
     <row r="192" spans="1:30" s="11" customFormat="1">
       <c r="A192" s="31"/>
-      <c r="C192" s="10"/>
+      <c r="C192" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E192" s="9" t="s">
         <v>343</v>
       </c>
@@ -13389,7 +13525,9 @@
     </row>
     <row r="193" spans="1:30" s="11" customFormat="1">
       <c r="A193" s="31"/>
-      <c r="C193" s="10"/>
+      <c r="C193" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E193" s="9" t="s">
         <v>343</v>
       </c>
@@ -13426,7 +13564,9 @@
     </row>
     <row r="194" spans="1:30" s="11" customFormat="1">
       <c r="A194" s="31"/>
-      <c r="C194" s="10"/>
+      <c r="C194" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E194" s="9" t="s">
         <v>343</v>
       </c>
@@ -13463,7 +13603,9 @@
     </row>
     <row r="195" spans="1:30" s="11" customFormat="1">
       <c r="A195" s="31"/>
-      <c r="C195" s="10"/>
+      <c r="C195" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E195" s="9" t="s">
         <v>343</v>
       </c>
@@ -13500,7 +13642,9 @@
     </row>
     <row r="196" spans="1:30" s="11" customFormat="1">
       <c r="A196" s="31"/>
-      <c r="C196" s="10"/>
+      <c r="C196" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E196" s="9" t="s">
         <v>343</v>
       </c>
@@ -13537,7 +13681,9 @@
     </row>
     <row r="197" spans="1:30" s="11" customFormat="1">
       <c r="A197" s="31"/>
-      <c r="C197" s="10"/>
+      <c r="C197" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E197" s="9" t="s">
         <v>343</v>
       </c>
@@ -13574,7 +13720,9 @@
     </row>
     <row r="198" spans="1:30" s="11" customFormat="1">
       <c r="A198" s="31"/>
-      <c r="C198" s="10"/>
+      <c r="C198" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E198" s="9" t="s">
         <v>343</v>
       </c>
@@ -13751,7 +13899,9 @@
     </row>
     <row r="202" spans="1:30" s="11" customFormat="1">
       <c r="A202" s="31"/>
-      <c r="C202" s="10"/>
+      <c r="C202" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E202" s="9" t="s">
         <v>343</v>
       </c>
@@ -13788,7 +13938,9 @@
     </row>
     <row r="203" spans="1:30" s="11" customFormat="1">
       <c r="A203" s="31"/>
-      <c r="C203" s="10"/>
+      <c r="C203" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E203" s="9" t="s">
         <v>343</v>
       </c>
@@ -13825,7 +13977,9 @@
     </row>
     <row r="204" spans="1:30" s="11" customFormat="1">
       <c r="A204" s="31"/>
-      <c r="C204" s="10"/>
+      <c r="C204" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E204" s="9" t="s">
         <v>343</v>
       </c>
@@ -13862,7 +14016,9 @@
     </row>
     <row r="205" spans="1:30" s="11" customFormat="1">
       <c r="A205" s="31"/>
-      <c r="C205" s="10"/>
+      <c r="C205" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E205" s="9" t="s">
         <v>343</v>
       </c>
@@ -13899,7 +14055,9 @@
     </row>
     <row r="206" spans="1:30" s="11" customFormat="1">
       <c r="A206" s="31"/>
-      <c r="C206" s="10"/>
+      <c r="C206" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E206" s="9" t="s">
         <v>343</v>
       </c>
@@ -13924,7 +14082,9 @@
     </row>
     <row r="207" spans="1:30" s="11" customFormat="1">
       <c r="A207" s="31"/>
-      <c r="C207" s="10"/>
+      <c r="C207" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E207" s="9" t="s">
         <v>343</v>
       </c>
@@ -13949,7 +14109,9 @@
     </row>
     <row r="208" spans="1:30" s="11" customFormat="1">
       <c r="A208" s="31"/>
-      <c r="C208" s="10"/>
+      <c r="C208" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E208" s="9" t="s">
         <v>343</v>
       </c>
@@ -13986,7 +14148,9 @@
     </row>
     <row r="209" spans="1:21" s="11" customFormat="1">
       <c r="A209" s="31"/>
-      <c r="C209" s="10"/>
+      <c r="C209" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E209" s="9" t="s">
         <v>343</v>
       </c>
@@ -14023,7 +14187,9 @@
     </row>
     <row r="210" spans="1:21" s="11" customFormat="1">
       <c r="A210" s="31"/>
-      <c r="C210" s="10"/>
+      <c r="C210" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E210" s="9" t="s">
         <v>343</v>
       </c>
@@ -14060,7 +14226,9 @@
     </row>
     <row r="211" spans="1:21" s="11" customFormat="1">
       <c r="A211" s="31"/>
-      <c r="C211" s="10"/>
+      <c r="C211" s="10" t="s">
+        <v>2142</v>
+      </c>
       <c r="E211" s="9" t="s">
         <v>343</v>
       </c>
@@ -14766,6 +14934,7 @@
     </row>
     <row r="237" spans="1:21">
       <c r="A237" s="31"/>
+      <c r="C237" s="33"/>
       <c r="E237" s="1" t="s">
         <v>15</v>
       </c>
@@ -14799,6 +14968,7 @@
     </row>
     <row r="238" spans="1:21">
       <c r="A238" s="31"/>
+      <c r="C238" s="33"/>
       <c r="E238" s="1" t="s">
         <v>15</v>
       </c>
@@ -14830,6 +15000,7 @@
     </row>
     <row r="239" spans="1:21">
       <c r="A239" s="31"/>
+      <c r="C239" s="33"/>
       <c r="E239" s="1" t="s">
         <v>15</v>
       </c>
@@ -14859,6 +15030,7 @@
     </row>
     <row r="240" spans="1:21">
       <c r="A240" s="31"/>
+      <c r="C240" s="33"/>
       <c r="E240" s="1" t="s">
         <v>15</v>
       </c>
@@ -14888,6 +15060,7 @@
     </row>
     <row r="241" spans="1:21">
       <c r="A241" s="31"/>
+      <c r="C241" s="33"/>
       <c r="E241" s="1" t="s">
         <v>15</v>
       </c>
@@ -14917,6 +15090,7 @@
     </row>
     <row r="242" spans="1:21">
       <c r="A242" s="31"/>
+      <c r="C242" s="33"/>
       <c r="E242" s="1" t="s">
         <v>15</v>
       </c>
@@ -21143,8 +21317,8 @@
   <dimension ref="A1:D309"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A255" sqref="A255"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A270" sqref="A270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -24810,6 +24984,210 @@
         <v>2139</v>
       </c>
     </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="33" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B255" t="s">
+        <v>112</v>
+      </c>
+      <c r="C255" s="33" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D255" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="256" spans="1: